--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8052448D-3B64-D647-81B2-944E5B761B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2068AB-6311-E249-A278-94F58AF868FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -222,8 +222,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -375,10 +376,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -409,15 +410,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476940</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126464</xdr:rowOff>
+      <xdr:colOff>87152</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>691457</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>58919</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>763745</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -445,8 +446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476940" y="316964"/>
-          <a:ext cx="14248017" cy="11171955"/>
+          <a:off x="87152" y="189964"/>
+          <a:ext cx="13884593" cy="11171955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -457,16 +458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>680310</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126597</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>722401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>75510</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>63900</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>579519</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -494,8 +495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14713810" y="317097"/>
-          <a:ext cx="14254200" cy="11176803"/>
+          <a:off x="13930401" y="190097"/>
+          <a:ext cx="13890618" cy="11176803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,15 +508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>495385</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>188985</xdr:rowOff>
+      <xdr:colOff>137848</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>622213</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>128462</xdr:rowOff>
+      <xdr:colOff>414158</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>142956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -543,8 +544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495385" y="12190485"/>
-          <a:ext cx="14985828" cy="11750477"/>
+          <a:off x="137848" y="11379199"/>
+          <a:ext cx="15135310" cy="12195257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,19 +846,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -898,29 +900,29 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9">
-        <v>20.00754122919621</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.65119871291269027</v>
-      </c>
-      <c r="D2" s="9">
-        <v>34.03451676875838</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.71195333791339255</v>
-      </c>
-      <c r="F2" s="9">
-        <v>95.813729312687158</v>
-      </c>
-      <c r="G2" s="9">
-        <v>3.8330489708891951</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.29063962575939839</v>
-      </c>
-      <c r="I2" s="9">
-        <v>6.2556779600933241E-2</v>
+      <c r="B2" s="10">
+        <v>17.772771653202859</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-1.779438401293437</v>
+      </c>
+      <c r="D2" s="10">
+        <v>35.046384537106213</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.79504206610504224</v>
+      </c>
+      <c r="F2" s="10">
+        <v>96.222121242126178</v>
+      </c>
+      <c r="G2" s="10">
+        <v>3.5369530109785212</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.21831974787666791</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2.2500910809136819E-2</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -931,29 +933,29 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
-        <v>18.17851889038992</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3.212038313690595</v>
-      </c>
-      <c r="D3" s="9">
-        <v>27.45558403390125</v>
-      </c>
-      <c r="E3" s="9">
-        <v>5.8446736892525299</v>
-      </c>
-      <c r="F3" s="9">
-        <v>96.765990135173894</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2.734275922971436</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.42698961930074991</v>
-      </c>
-      <c r="I3" s="9">
-        <v>7.2744322553616694E-2</v>
+      <c r="B3" s="10">
+        <v>11.27094113938192</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-5.7620077295564318</v>
+      </c>
+      <c r="D3" s="10">
+        <v>28.863996189480851</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1.4632459423186941</v>
+      </c>
+      <c r="F3" s="10">
+        <v>98.148276602588027</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1.674110445930979</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.16027629118972769</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.7336660290978509E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -964,28 +966,28 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
-        <v>42.452898550724647</v>
-      </c>
-      <c r="C4" s="9">
-        <v>12.33428571428572</v>
-      </c>
-      <c r="D4" s="9">
-        <v>37.5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>4.7619047619047672</v>
-      </c>
-      <c r="F4" s="9">
-        <v>99.735938737787166</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.23765513599155</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2.6406126221283341E-2</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="B4" s="10">
+        <v>25.418186626950789</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-11.829253584806009</v>
+      </c>
+      <c r="D4" s="10">
+        <v>38.967337155759502</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.54538073368199</v>
+      </c>
+      <c r="F4" s="10">
+        <v>99.683711122825514</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.31628887717448601</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
@@ -997,29 +999,29 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>16.93513655639773</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2.8350248991981339</v>
-      </c>
-      <c r="D5" s="9">
-        <v>39.287940067291842</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2.577837699996044</v>
-      </c>
-      <c r="F5" s="9">
-        <v>96.135064524867545</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3.5373619036505848</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.31163756250056779</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1.5936008981195619E-2</v>
+      <c r="B5" s="10">
+        <v>13.58256018555538</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-3.0481721975524549</v>
+      </c>
+      <c r="D5" s="10">
+        <v>36.99798106398255</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-0.90307670636368831</v>
+      </c>
+      <c r="F5" s="10">
+        <v>96.293456920296336</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3.3952618505182972</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.25999766243728789</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5.1283566748040597E-2</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1030,28 +1032,28 @@
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
-        <v>14.407580753154351</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.1680065360752043</v>
-      </c>
-      <c r="D6" s="9">
-        <v>27.21061330383392</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.6252619457591291</v>
-      </c>
-      <c r="F6" s="9">
-        <v>98.106452122864567</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1.5642862173704819</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.32926165976468252</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="B6" s="10">
+        <v>13.8763543923277</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-0.48701856604130461</v>
+      </c>
+      <c r="D6" s="10">
+        <v>27.49288531891948</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.19753101252369379</v>
+      </c>
+      <c r="F6" s="10">
+        <v>98.051418297670779</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.685805737432124</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.26277596489684429</v>
+      </c>
+      <c r="I6" s="10">
         <v>0</v>
       </c>
       <c r="J6" s="8"/>
@@ -1063,29 +1065,29 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9">
-        <v>25.025965339490739</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2.864231957784674</v>
-      </c>
-      <c r="D7" s="9">
-        <v>38.276314670518829</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.83291376484452406</v>
-      </c>
-      <c r="F7" s="9">
-        <v>88.391353233933984</v>
-      </c>
-      <c r="G7" s="9">
-        <v>10.54805079989041</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.62653845534791586</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.43405751082720961</v>
+      <c r="B7" s="10">
+        <v>19.124371685524139</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-4.7372400024659154</v>
+      </c>
+      <c r="D7" s="10">
+        <v>36.931082690041009</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-0.93301008049028256</v>
+      </c>
+      <c r="F7" s="10">
+        <v>90.783954193821486</v>
+      </c>
+      <c r="G7" s="10">
+        <v>8.9685677284078977</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.18993480006975799</v>
+      </c>
+      <c r="I7" s="10">
+        <v>5.7543277699893973E-2</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1096,29 +1098,29 @@
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
-        <v>11.505170873353149</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-2.1003371537189159</v>
-      </c>
-      <c r="D8" s="9">
-        <v>32.81867356922313</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-3.134048249300819</v>
-      </c>
-      <c r="F8" s="9">
-        <v>92.877562351113625</v>
-      </c>
-      <c r="G8" s="9">
-        <v>7.0957799813335862</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2.6657667551872991E-2</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
+      <c r="B8" s="10">
+        <v>13.14453965213235</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.4791290066445331</v>
+      </c>
+      <c r="D8" s="10">
+        <v>36.721109533126409</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2.9328476859280088</v>
+      </c>
+      <c r="F8" s="10">
+        <v>91.523124851668967</v>
+      </c>
+      <c r="G8" s="10">
+        <v>8.464058958000086</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6.4080951650122139E-3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>6.4080951650122139E-3</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1129,29 +1131,29 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
-        <v>28.94361611558843</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-0.46331244703596153</v>
-      </c>
-      <c r="D9" s="9">
-        <v>42.303685109244363</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.81057166554126447</v>
-      </c>
-      <c r="F9" s="9">
-        <v>95.002425107742084</v>
-      </c>
-      <c r="G9" s="9">
-        <v>4.1898195181871589</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.79472593855667051</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1.302943551346987E-2</v>
+      <c r="B9" s="10">
+        <v>28.149093273295801</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-0.61629444916020659</v>
+      </c>
+      <c r="D9" s="10">
+        <v>41.123411886494047</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-0.6409365472485945</v>
+      </c>
+      <c r="F9" s="10">
+        <v>95.502603888124185</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3.846778570724541</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.63763556980412006</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.29819713465477E-2</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1162,28 +1164,28 @@
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
-        <v>15.51998985246056</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-1.891037108230333</v>
-      </c>
-      <c r="D10" s="9">
-        <v>33.683991294093303</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.42591437721271591</v>
-      </c>
-      <c r="F10" s="9">
-        <v>98.333190394510851</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.63057461406518</v>
-      </c>
-      <c r="H10" s="9">
-        <v>3.6234991423090911E-2</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="B10" s="10">
+        <v>13.09871915853055</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-2.1475941620555061</v>
+      </c>
+      <c r="D10" s="10">
+        <v>35.500027726774597</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.37953835918824</v>
+      </c>
+      <c r="F10" s="10">
+        <v>98.225072886297028</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.774927113702091</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
@@ -1195,28 +1197,28 @@
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9">
-        <v>11.4986243402416</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.12590000000000001</v>
-      </c>
-      <c r="D11" s="9">
-        <v>34.616812873536503</v>
-      </c>
-      <c r="E11" s="9">
-        <v>-0.86169999999999991</v>
-      </c>
-      <c r="F11" s="9">
-        <v>96.501706484641005</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3.4982935153580001</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="B11" s="10">
+        <v>5.72294000597463</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-5.18</v>
+      </c>
+      <c r="D11" s="10">
+        <v>34.814898059580102</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="F11" s="10">
+        <v>96.980008507017999</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3.0199914929810001</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
@@ -1228,29 +1230,29 @@
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
-        <v>21.009030054180968</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2.5073548048476391</v>
-      </c>
-      <c r="D12" s="9">
-        <v>27.110925503451149</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1.346126365580429</v>
-      </c>
-      <c r="F12" s="9">
-        <v>96.783926030227235</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2.8665125007076062</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.32143615476292159</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2.8547722683717799E-2</v>
+      <c r="B12" s="10">
+        <v>17.15134054394332</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-3.119965821808143</v>
+      </c>
+      <c r="D12" s="10">
+        <v>27.373341299364011</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.22955339887063231</v>
+      </c>
+      <c r="F12" s="10">
+        <v>96.977365415522371</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2.7102561461731929</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.28589444643911088</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2.690554262761102E-2</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1261,29 +1263,29 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9">
-        <v>15.83774927915934</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1.265973979315272</v>
-      </c>
-      <c r="D13" s="9">
-        <v>28.251566352255811</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.41394324195242521</v>
-      </c>
-      <c r="F13" s="9">
-        <v>97.295197811479582</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2.617988043994723</v>
-      </c>
-      <c r="H13" s="9">
-        <v>7.2518849460314283E-2</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1.4295295063755519E-2</v>
+      <c r="B13" s="10">
+        <v>13.247822203961309</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-2.2666770732874562</v>
+      </c>
+      <c r="D13" s="10">
+        <v>30.391094659418439</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.6679085305738901</v>
+      </c>
+      <c r="F13" s="10">
+        <v>96.984205549544527</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2.9416911898912321</v>
+      </c>
+      <c r="H13" s="10">
+        <v>6.8591899638487289E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>5.5113609241113984E-3</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1294,29 +1296,29 @@
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9">
-        <v>26.75</v>
-      </c>
-      <c r="C14" s="9">
-        <v>-1.7</v>
-      </c>
-      <c r="D14" s="9">
-        <v>21.682313605551041</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1.355902743684267</v>
-      </c>
-      <c r="F14" s="9">
-        <v>96.511627906976756</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3.0577088716623599</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.2583979328165375</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.1722652885443583</v>
+      <c r="B14" s="10">
+        <v>23.14570256409441</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-3.27641891074465</v>
+      </c>
+      <c r="D14" s="10">
+        <v>20.41152784726297</v>
+      </c>
+      <c r="E14" s="10">
+        <v>-0.94282239122768197</v>
+      </c>
+      <c r="F14" s="10">
+        <v>96.487068965517238</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3.125</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.2155172413793103</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.17241379310344829</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1327,29 +1329,29 @@
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9">
-        <v>16.145393713527291</v>
-      </c>
-      <c r="C15" s="9">
-        <v>-0.59087581614370011</v>
-      </c>
-      <c r="D15" s="9">
-        <v>36.124352594129547</v>
-      </c>
-      <c r="E15" s="9">
-        <v>-0.209741177163355</v>
-      </c>
-      <c r="F15" s="9">
-        <v>99.134196757027041</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.71758366370227511</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.1241115754134076</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2.410800385728061E-2</v>
+      <c r="B15" s="10">
+        <v>13.59928309735044</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-2.2006387800802472</v>
+      </c>
+      <c r="D15" s="10">
+        <v>38.125161250408233</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.4637228448850621</v>
+      </c>
+      <c r="F15" s="10">
+        <v>99.379148950066593</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.49911257564931549</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.1217384742841035</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1360,28 +1362,28 @@
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="9">
-        <v>15.312604579267109</v>
-      </c>
-      <c r="C16" s="9">
-        <v>-1.556193433876085</v>
-      </c>
-      <c r="D16" s="9">
-        <v>36.880437657660693</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1.6780395288317249</v>
-      </c>
-      <c r="F16" s="9">
-        <v>94.789507091341619</v>
-      </c>
-      <c r="G16" s="9">
-        <v>5.2007869215154292</v>
-      </c>
-      <c r="H16" s="9">
-        <v>9.7059871420914663E-3</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="B16" s="10">
+        <v>13.46104464557577</v>
+      </c>
+      <c r="C16" s="10">
+        <v>-1.6021478410495009</v>
+      </c>
+      <c r="D16" s="10">
+        <v>41.307189082736834</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.1112693643548792</v>
+      </c>
+      <c r="F16" s="10">
+        <v>94.670891070013454</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5.3105069995396024</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.8601930445251501E-2</v>
+      </c>
+      <c r="I16" s="10">
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
@@ -1393,29 +1395,29 @@
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="9">
-        <v>13.918891121644389</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4.4747745068200026E-3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>29.237263595138209</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1.066250372061158</v>
-      </c>
-      <c r="F17" s="9">
-        <v>97.71778890363592</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2.135612186607156</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.1345836035785174</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1.201530617689177E-2</v>
+      <c r="B17" s="10">
+        <v>14.85506163313201</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.83800750955045156</v>
+      </c>
+      <c r="D17" s="10">
+        <v>35.432430636623437</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4.6900014517384641</v>
+      </c>
+      <c r="F17" s="10">
+        <v>97.597032063052865</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2.2572798131419112</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.1109161918554632</v>
+      </c>
+      <c r="I17" s="10">
+        <v>3.4771931948302838E-2</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1426,28 +1428,28 @@
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9">
-        <v>18.689270882850039</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1.6822412629179659</v>
-      </c>
-      <c r="D18" s="9">
-        <v>38.322938328473228</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1.8999463896990301</v>
-      </c>
-      <c r="F18" s="9">
-        <v>99.837930372456157</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.14733602503985199</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1.4733602503985199E-2</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="B18" s="10">
+        <v>19.12603207422703</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.34579181580852808</v>
+      </c>
+      <c r="D18" s="10">
+        <v>42.931179029374682</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.674788543641609</v>
+      </c>
+      <c r="F18" s="10">
+        <v>99.861066930497373</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.1080590540576078</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3.0874015445030809E-2</v>
+      </c>
+      <c r="I18" s="10">
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
@@ -1459,29 +1461,29 @@
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9">
-        <v>16.35750575638659</v>
-      </c>
-      <c r="C19" s="9">
-        <v>-0.60834294933634281</v>
-      </c>
-      <c r="D19" s="9">
-        <v>36.255347063782487</v>
-      </c>
-      <c r="E19" s="9">
-        <v>-0.34764527519404143</v>
-      </c>
-      <c r="F19" s="9">
-        <v>98.901067604156935</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.99823003025801726</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.1007023655850546</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
+      <c r="B19" s="10">
+        <v>16.465541203841429</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.49415498373086292</v>
+      </c>
+      <c r="D19" s="10">
+        <v>39.689466992735291</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.2987701676508521</v>
+      </c>
+      <c r="F19" s="10">
+        <v>98.690900892202507</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.20000244358287</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5.6586690810321409E-2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4.8470744680851059E-2</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1492,29 +1494,29 @@
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9">
-        <v>11.93831814938375</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-2.5277705731770062</v>
-      </c>
-      <c r="D20" s="9">
-        <v>24.165156077273441</v>
-      </c>
-      <c r="E20" s="9">
-        <v>-2.2938806263574421</v>
-      </c>
-      <c r="F20" s="9">
-        <v>97.79346094938218</v>
-      </c>
-      <c r="G20" s="9">
-        <v>2.0179975322201398</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.1256943455983936</v>
-      </c>
-      <c r="I20" s="9">
-        <v>6.2847172799196799E-2</v>
+      <c r="B20" s="10">
+        <v>14.82043369002947</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2.573139406753493</v>
+      </c>
+      <c r="D20" s="10">
+        <v>28.788659425145301</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3.7069774376044942</v>
+      </c>
+      <c r="F20" s="10">
+        <v>98.01684623247597</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.85767449367833</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.1254792738456067</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1525,29 +1527,29 @@
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9">
-        <v>22.278430251804199</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1.2322124563894179</v>
-      </c>
-      <c r="D21" s="9">
-        <v>25.454352738087181</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.1947595855719879</v>
-      </c>
-      <c r="F21" s="9">
-        <v>98.134400612708205</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1.686754248702681</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.17057913374277961</v>
-      </c>
-      <c r="I21" s="9">
-        <v>8.2660048461826886E-3</v>
+      <c r="B21" s="10">
+        <v>20.572833737344769</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-1.242671401882441</v>
+      </c>
+      <c r="D21" s="10">
+        <v>23.64981039748568</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-1.8358661860544629</v>
+      </c>
+      <c r="F21" s="10">
+        <v>98.877750699887542</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.93263431737106794</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.16064380664192851</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2.89711760993057E-2</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -1558,28 +1560,28 @@
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="9">
-        <v>20.71656300715399</v>
-      </c>
-      <c r="C22" s="9">
-        <v>-1.1877017361174991</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65.550730237473076</v>
-      </c>
-      <c r="E22" s="9">
-        <v>4.3150148405381836</v>
-      </c>
-      <c r="F22" s="9">
-        <v>99.393179312495505</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.5898528184100913</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1.6967869094323261E-2</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="B22" s="10">
+        <v>19.534006945053061</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.9841876161394113</v>
+      </c>
+      <c r="D22" s="10">
+        <v>53.201249881937009</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-7.400846627539865</v>
+      </c>
+      <c r="F22" s="10">
+        <v>99.481079673240387</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.51892032675953492</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
         <v>0</v>
       </c>
       <c r="J22" s="8"/>
@@ -1591,28 +1593,28 @@
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9">
-        <v>16.172629344026149</v>
-      </c>
-      <c r="C23" s="9">
-        <v>-0.58913457352209131</v>
-      </c>
-      <c r="D23" s="9">
-        <v>34.041541372593791</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.47701832602741312</v>
-      </c>
-      <c r="F23" s="9">
-        <v>97.827483480094614</v>
-      </c>
-      <c r="G23" s="9">
-        <v>2.1528260378512711</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1.9690482053121839E-2</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="B23" s="10">
+        <v>14.11989989944181</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-1.7666419396105031</v>
+      </c>
+      <c r="D23" s="10">
+        <v>35.012836634804657</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.72536971953636553</v>
+      </c>
+      <c r="F23" s="10">
+        <v>97.712852265447566</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2.260782919167494</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2.6364815382942719E-2</v>
+      </c>
+      <c r="I23" s="10">
         <v>0</v>
       </c>
       <c r="J23" s="8"/>
@@ -1624,29 +1626,29 @@
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="9">
-        <v>29.437645553259379</v>
-      </c>
-      <c r="C24" s="9">
-        <v>-0.78145629924919446</v>
-      </c>
-      <c r="D24" s="9">
-        <v>41.530146384470846</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1.0640210013603779</v>
-      </c>
-      <c r="F24" s="9">
-        <v>95.778334356670442</v>
-      </c>
-      <c r="G24" s="9">
-        <v>3.855416169015327</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0.3622128714704515</v>
-      </c>
-      <c r="I24" s="9">
-        <v>4.0366028429150817E-3</v>
+      <c r="B24" s="10">
+        <v>28.23130797353182</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.91526426159209218</v>
+      </c>
+      <c r="D24" s="10">
+        <v>41.7267516481729</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.1825967856958732</v>
+      </c>
+      <c r="F24" s="10">
+        <v>96.470509906484864</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3.190162530676834</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.33932756283659909</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1657,29 +1659,29 @@
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="9">
-        <v>22.907839533507261</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1.2110806702512289</v>
-      </c>
-      <c r="D25" s="9">
-        <v>38.052796153529229</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1.9415211086177571</v>
-      </c>
-      <c r="F25" s="9">
-        <v>97.320431763282329</v>
-      </c>
-      <c r="G25" s="9">
-        <v>2.541493647069597</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0.1074236078809529</v>
-      </c>
-      <c r="I25" s="9">
-        <v>3.0650981766444381E-2</v>
+      <c r="B25" s="10">
+        <v>20.70542610250763</v>
+      </c>
+      <c r="C25" s="10">
+        <v>-1.7702375709376019</v>
+      </c>
+      <c r="D25" s="10">
+        <v>41.332990031288737</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2.394430342142186</v>
+      </c>
+      <c r="F25" s="10">
+        <v>97.133114112654539</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2.7351153868248779</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.1216030675124409</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1.0167433006774709E-2</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -1690,29 +1692,29 @@
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="9">
-        <v>24.498922562903029</v>
-      </c>
-      <c r="C26" s="9">
-        <v>-1.561927799224158</v>
-      </c>
-      <c r="D26" s="9">
-        <v>44.705504563984093</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1.719411069952272</v>
-      </c>
-      <c r="F26" s="9">
-        <v>96.310202976147949</v>
-      </c>
-      <c r="G26" s="9">
-        <v>3.313957732940775</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0.35600763786145168</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1.9831653049142452E-2</v>
+      <c r="B26" s="10">
+        <v>24.028539287142699</v>
+      </c>
+      <c r="C26" s="10">
+        <v>-0.41181681610288717</v>
+      </c>
+      <c r="D26" s="10">
+        <v>46.373641727737237</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1.267015389951049</v>
+      </c>
+      <c r="F26" s="10">
+        <v>96.461221102155918</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3.194915213151043</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.33362083800372311</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1.024284668861962E-2</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1723,29 +1725,29 @@
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="9">
-        <v>22.803744807998491</v>
-      </c>
-      <c r="C27" s="9">
-        <v>2.1177439559830229</v>
-      </c>
-      <c r="D27" s="9">
-        <v>23.438525513805232</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2.3004953684629892</v>
-      </c>
-      <c r="F27" s="9">
-        <v>98.023181833971876</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1.6244930092796901</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.35232515674754522</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
+      <c r="B27" s="10">
+        <v>20.636067356249679</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.1739337616429352</v>
+      </c>
+      <c r="D27" s="10">
+        <v>26.254701771108209</v>
+      </c>
+      <c r="E27" s="10">
+        <v>-0.28478905334645399</v>
+      </c>
+      <c r="F27" s="10">
+        <v>99.101036018081814</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.77803794892447242</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.10008992094740909</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2.0836112045811692E-2</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1756,29 +1758,29 @@
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9">
-        <v>14.836726973972681</v>
-      </c>
-      <c r="C28" s="9">
-        <v>-0.9102003796990652</v>
-      </c>
-      <c r="D28" s="9">
-        <v>42.172387450065372</v>
-      </c>
-      <c r="E28" s="9">
-        <v>6.7061216195392372</v>
-      </c>
-      <c r="F28" s="9">
-        <v>97.140086531649175</v>
-      </c>
-      <c r="G28" s="9">
-        <v>2.8223749443054809</v>
-      </c>
-      <c r="H28" s="9">
-        <v>3.1099858063788111E-2</v>
-      </c>
-      <c r="I28" s="9">
-        <v>6.4386659814244483E-3</v>
+      <c r="B28" s="10">
+        <v>17.15671538989946</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2.3728660502875751</v>
+      </c>
+      <c r="D28" s="10">
+        <v>37.472212025160417</v>
+      </c>
+      <c r="E28" s="10">
+        <v>-2.3926013966881481</v>
+      </c>
+      <c r="F28" s="10">
+        <v>97.129879210542583</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2.8199771120504562</v>
+      </c>
+      <c r="H28" s="10">
+        <v>5.0143677406849108E-2</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1789,29 +1791,29 @@
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="9">
-        <v>17.000115898666039</v>
-      </c>
-      <c r="C29" s="9">
-        <v>-0.83343232067324413</v>
-      </c>
-      <c r="D29" s="9">
-        <v>43.140509622780158</v>
-      </c>
-      <c r="E29" s="9">
-        <v>-0.65309491060023817</v>
-      </c>
-      <c r="F29" s="9">
-        <v>97.255813953488371</v>
-      </c>
-      <c r="G29" s="9">
-        <v>2.3720930232558142</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0.23255813953488369</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.1395348837209302</v>
+      <c r="B29" s="10">
+        <v>14.83547074687319</v>
+      </c>
+      <c r="C29" s="10">
+        <v>-1.8501222286545831</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43.42290692442883</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.19728677953774201</v>
+      </c>
+      <c r="F29" s="10">
+        <v>97.489539748953973</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2.138540213854021</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.32543003254300329</v>
+      </c>
+      <c r="I29" s="10">
+        <v>4.6490004649000473E-2</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1822,28 +1824,28 @@
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="9">
-        <v>14.528679780570499</v>
-      </c>
-      <c r="C30" s="9">
-        <v>-2.453871304034057</v>
-      </c>
-      <c r="D30" s="9">
-        <v>38.309959398201897</v>
-      </c>
-      <c r="E30" s="9">
-        <v>3.7365647495407401</v>
-      </c>
-      <c r="F30" s="9">
-        <v>98.960576313047653</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1.039423686952357</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="B30" s="10">
+        <v>16.76018594813203</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2.03061378057131</v>
+      </c>
+      <c r="D30" s="10">
+        <v>48.535469167187827</v>
+      </c>
+      <c r="E30" s="10">
+        <v>7.3476049440422919</v>
+      </c>
+      <c r="F30" s="10">
+        <v>98.732172209780757</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.2678277902192481</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
         <v>0</v>
       </c>
       <c r="J30" s="8"/>
@@ -1855,29 +1857,29 @@
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9">
-        <v>24.141685856193341</v>
-      </c>
-      <c r="C31" s="9">
-        <v>4.6383461648944087</v>
-      </c>
-      <c r="D31" s="9">
-        <v>33.508641030952383</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.64744682778801999</v>
-      </c>
-      <c r="F31" s="9">
-        <v>95.952364927628523</v>
-      </c>
-      <c r="G31" s="9">
-        <v>3.6322653557892188</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.26265984028895878</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0.14594719467209691</v>
+      <c r="B31" s="10">
+        <v>17.596960630395671</v>
+      </c>
+      <c r="C31" s="10">
+        <v>-5.2656852233072788</v>
+      </c>
+      <c r="D31" s="10">
+        <v>31.055179170966611</v>
+      </c>
+      <c r="E31" s="10">
+        <v>-1.8359860210843579</v>
+      </c>
+      <c r="F31" s="10">
+        <v>96.692437255238517</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3.095645486067875</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.18485334221794439</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2.029793735676089E-2</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1888,28 +1890,28 @@
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9">
-        <v>26.685331564449111</v>
-      </c>
-      <c r="C32" s="9">
-        <v>-0.72701092127078348</v>
-      </c>
-      <c r="D32" s="9">
-        <v>44.512644233222069</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1.327069044184169</v>
-      </c>
-      <c r="F32" s="9">
-        <v>96.833133859629413</v>
-      </c>
-      <c r="G32" s="9">
-        <v>2.8145365582078439</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.35232958216187438</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="B32" s="10">
+        <v>24.88863246047374</v>
+      </c>
+      <c r="C32" s="10">
+        <v>-1.4088937065147089</v>
+      </c>
+      <c r="D32" s="10">
+        <v>44.013748052241283</v>
+      </c>
+      <c r="E32" s="10">
+        <v>-0.19644293642054991</v>
+      </c>
+      <c r="F32" s="10">
+        <v>96.94648229954862</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2.801170205754639</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.25234749469586037</v>
+      </c>
+      <c r="I32" s="10">
         <v>0</v>
       </c>
       <c r="J32" s="8"/>
@@ -1921,29 +1923,29 @@
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="9">
-        <v>24.912165321139991</v>
-      </c>
-      <c r="C33" s="9">
-        <v>-1.0816067711427191</v>
-      </c>
-      <c r="D33" s="9">
-        <v>37.971065216694711</v>
-      </c>
-      <c r="E33" s="9">
-        <v>-0.67001576612487346</v>
-      </c>
-      <c r="F33" s="9">
-        <v>95.604323070502574</v>
-      </c>
-      <c r="G33" s="9">
-        <v>3.8778429955624558</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0.51129404785532273</v>
-      </c>
-      <c r="I33" s="9">
-        <v>6.539886078515105E-3</v>
+      <c r="B33" s="10">
+        <v>21.83017306420172</v>
+      </c>
+      <c r="C33" s="10">
+        <v>-2.4386639188771579</v>
+      </c>
+      <c r="D33" s="10">
+        <v>38.120614324200382</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.10776291761309489</v>
+      </c>
+      <c r="F33" s="10">
+        <v>96.053766250432631</v>
+      </c>
+      <c r="G33" s="10">
+        <v>3.5126425643479799</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.43027189053968562</v>
+      </c>
+      <c r="I33" s="10">
+        <v>3.3192946785763709E-3</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -1954,28 +1956,28 @@
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9">
-        <v>19.179751543921419</v>
-      </c>
-      <c r="C34" s="9">
-        <v>8.6939456675785176E-2</v>
-      </c>
-      <c r="D34" s="9">
-        <v>28.001725033516099</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1.867385529096653</v>
-      </c>
-      <c r="F34" s="9">
-        <v>93.067805663211672</v>
-      </c>
-      <c r="G34" s="9">
-        <v>6.5099286919065271</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0.42226564487989199</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="B34" s="10">
+        <v>19.35326345526537</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.21874129606087961</v>
+      </c>
+      <c r="D34" s="10">
+        <v>33.535710818685651</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3.0892839987250591</v>
+      </c>
+      <c r="F34" s="10">
+        <v>93.562480163536378</v>
+      </c>
+      <c r="G34" s="10">
+        <v>6.0069631904705014</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.43055664599144128</v>
+      </c>
+      <c r="I34" s="10">
         <v>0</v>
       </c>
       <c r="J34" s="8"/>
@@ -1987,29 +1989,29 @@
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="9">
-        <v>23.058431034558591</v>
-      </c>
-      <c r="C35" s="9">
-        <v>0.89523305629547989</v>
-      </c>
-      <c r="D35" s="9">
-        <v>40.92140077030168</v>
-      </c>
-      <c r="E35" s="9">
-        <v>-0.18661815931273129</v>
-      </c>
-      <c r="F35" s="9">
-        <v>95.141038796595723</v>
-      </c>
-      <c r="G35" s="9">
-        <v>4.4600123935061129</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0.39357581270079922</v>
-      </c>
-      <c r="I35" s="9">
-        <v>5.372997197352799E-3</v>
+      <c r="B35" s="10">
+        <v>21.213330959327461</v>
+      </c>
+      <c r="C35" s="10">
+        <v>-1.455667240756493</v>
+      </c>
+      <c r="D35" s="10">
+        <v>42.043053376994493</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.79698431485870325</v>
+      </c>
+      <c r="F35" s="10">
+        <v>95.473988372700234</v>
+      </c>
+      <c r="G35" s="10">
+        <v>4.1649419289099381</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.3486288805395053</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1.244081785030271E-2</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2020,29 +2022,29 @@
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9">
-        <v>18.64632225577882</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-1.8260732709895211</v>
-      </c>
-      <c r="D36" s="9">
-        <v>29.69046551723946</v>
-      </c>
-      <c r="E36" s="9">
-        <v>-0.27066114675895281</v>
-      </c>
-      <c r="F36" s="9">
-        <v>96.983116254202358</v>
-      </c>
-      <c r="G36" s="9">
-        <v>2.8444644586553189</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0.16293885296358679</v>
-      </c>
-      <c r="I36" s="9">
-        <v>9.4804341787396613E-3</v>
+      <c r="B36" s="10">
+        <v>20.718556700598882</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1.7464514258848729</v>
+      </c>
+      <c r="D36" s="10">
+        <v>28.32279111954335</v>
+      </c>
+      <c r="E36" s="10">
+        <v>-1.050446588991002</v>
+      </c>
+      <c r="F36" s="10">
+        <v>96.787636742788763</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2.7142593785448499</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.37499389951715589</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.12310997914923751</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2053,28 +2055,28 @@
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9">
-        <v>15.8</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-1.67</v>
-      </c>
-      <c r="D37" s="9">
-        <v>23.96</v>
-      </c>
-      <c r="E37" s="9">
-        <v>-0.06</v>
-      </c>
-      <c r="F37" s="9">
-        <v>99.158741770299926</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0.69495245062179956</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0.14630577907827361</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="B37" s="10">
+        <v>16.371871731596261</v>
+      </c>
+      <c r="C37" s="10">
+        <v>-0.67324431029042575</v>
+      </c>
+      <c r="D37" s="10">
+        <v>31.355954085610929</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2.1138070510642701</v>
+      </c>
+      <c r="F37" s="10">
+        <v>99.652467778907152</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.2606491658196371</v>
+      </c>
+      <c r="H37" s="10">
+        <v>8.688305527321237E-2</v>
+      </c>
+      <c r="I37" s="10">
         <v>0</v>
       </c>
       <c r="J37" s="8"/>
@@ -2086,29 +2088,29 @@
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="9">
-        <v>16.7486670530932</v>
-      </c>
-      <c r="C38" s="9">
-        <v>1.401689739330235</v>
-      </c>
-      <c r="D38" s="9">
-        <v>30.20955697329828</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0.7954168088509509</v>
-      </c>
-      <c r="F38" s="9">
-        <v>97.448191228431625</v>
-      </c>
-      <c r="G38" s="9">
-        <v>2.3761855363946771</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0.14564007131983309</v>
-      </c>
-      <c r="I38" s="9">
-        <v>2.99831638538328E-2</v>
+      <c r="B38" s="10">
+        <v>17.382622376314711</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.54603138601098467</v>
+      </c>
+      <c r="D38" s="10">
+        <v>32.511484184408751</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.775808981242899</v>
+      </c>
+      <c r="F38" s="10">
+        <v>97.400230122323734</v>
+      </c>
+      <c r="G38" s="10">
+        <v>2.4378865901974009</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.1319583376569767</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2.9924949821844141E-2</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2119,29 +2121,29 @@
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="9">
-        <v>14.316955904802111</v>
-      </c>
-      <c r="C39" s="9">
-        <v>-0.24320646275142199</v>
-      </c>
-      <c r="D39" s="9">
-        <v>26.313158542542219</v>
-      </c>
-      <c r="E39" s="9">
-        <v>3.362492748742572</v>
-      </c>
-      <c r="F39" s="9">
-        <v>99.130507650047761</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.71477132584167413</v>
-      </c>
-      <c r="H39" s="9">
-        <v>8.9276696748432402E-2</v>
-      </c>
-      <c r="I39" s="9">
-        <v>6.5444327362135582E-2</v>
+      <c r="B39" s="10">
+        <v>13.58041470114398</v>
+      </c>
+      <c r="C39" s="10">
+        <v>-0.74125422171629529</v>
+      </c>
+      <c r="D39" s="10">
+        <v>29.97568967346081</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2.277679739699058</v>
+      </c>
+      <c r="F39" s="10">
+        <v>99.162020417028586</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.74250982858731296</v>
+      </c>
+      <c r="H39" s="10">
+        <v>7.4822124122103928E-2</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1.3765086841330579E-2</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2152,29 +2154,29 @@
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="9">
-        <v>20.843130166860391</v>
-      </c>
-      <c r="C40" s="9">
-        <v>-1.1157715972794779</v>
-      </c>
-      <c r="D40" s="9">
-        <v>32.547240245146078</v>
-      </c>
-      <c r="E40" s="9">
-        <v>-0.29897692678746718</v>
-      </c>
-      <c r="F40" s="9">
-        <v>95.9370920426162</v>
-      </c>
-      <c r="G40" s="9">
-        <v>3.3971611068364331</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0.62424723188886344</v>
-      </c>
-      <c r="I40" s="9">
-        <v>4.149961865773303E-2</v>
+      <c r="B40" s="10">
+        <v>16.39380348180854</v>
+      </c>
+      <c r="C40" s="10">
+        <v>-3.6937548597537728</v>
+      </c>
+      <c r="D40" s="10">
+        <v>32.994536096410357</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.31423653634480819</v>
+      </c>
+      <c r="F40" s="10">
+        <v>96.213636395440602</v>
+      </c>
+      <c r="G40" s="10">
+        <v>3.0789423995073748</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.70742120505123895</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2185,29 +2187,29 @@
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="9">
-        <v>16.529000034336129</v>
-      </c>
-      <c r="C41" s="9">
-        <v>-0.36602000738728002</v>
-      </c>
-      <c r="D41" s="9">
-        <v>32.548955582032598</v>
-      </c>
-      <c r="E41" s="9">
-        <v>-0.25956173016126549</v>
-      </c>
-      <c r="F41" s="9">
-        <v>98.12109413940334</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1.8206851549112071</v>
-      </c>
-      <c r="H41" s="9">
-        <v>5.258471056066312E-2</v>
-      </c>
-      <c r="I41" s="9">
-        <v>5.6359951238314438E-3</v>
+      <c r="B41" s="10">
+        <v>15.242738271912261</v>
+      </c>
+      <c r="C41" s="10">
+        <v>-1.1017205149104481</v>
+      </c>
+      <c r="D41" s="10">
+        <v>35.602138953801237</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2.310036864030558</v>
+      </c>
+      <c r="F41" s="10">
+        <v>98.035318214674319</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1.921057204762328</v>
+      </c>
+      <c r="H41" s="10">
+        <v>4.0830973154254893E-2</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2.793607407184223E-3</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2218,28 +2220,28 @@
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="9">
-        <v>25.95</v>
-      </c>
-      <c r="C42" s="9">
-        <v>-2.02</v>
-      </c>
-      <c r="D42" s="9">
-        <v>51</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2.94</v>
-      </c>
-      <c r="F42" s="9">
-        <v>99.17</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="B42" s="10">
+        <v>22.99</v>
+      </c>
+      <c r="C42" s="10">
+        <v>-2.35</v>
+      </c>
+      <c r="D42" s="10">
+        <v>50.63</v>
+      </c>
+      <c r="E42" s="10">
+        <v>-0.24</v>
+      </c>
+      <c r="F42" s="10">
+        <v>98.83</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1.17</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <v>0</v>
       </c>
       <c r="J42" s="8"/>
@@ -2251,28 +2253,28 @@
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="9">
-        <v>19.53264939869111</v>
-      </c>
-      <c r="C43" s="9">
-        <v>1.1909511948147169</v>
-      </c>
-      <c r="D43" s="9">
-        <v>28.417975000229848</v>
-      </c>
-      <c r="E43" s="9">
-        <v>2.3808840971911551</v>
-      </c>
-      <c r="F43" s="9">
-        <v>97.879487763173785</v>
-      </c>
-      <c r="G43" s="9">
-        <v>2.0517608055428949</v>
-      </c>
-      <c r="H43" s="9">
-        <v>6.8751431283164369E-2</v>
-      </c>
-      <c r="I43" s="9">
+      <c r="B43" s="10">
+        <v>21.338941721043842</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1.4817275386383899</v>
+      </c>
+      <c r="D43" s="10">
+        <v>26.660303599668609</v>
+      </c>
+      <c r="E43" s="10">
+        <v>-1.367836684182288</v>
+      </c>
+      <c r="F43" s="10">
+        <v>98.423422620976396</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1.5464829248497169</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3.0094454173576118E-2</v>
+      </c>
+      <c r="I43" s="10">
         <v>0</v>
       </c>
       <c r="J43" s="8"/>
@@ -2284,28 +2286,28 @@
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="9">
-        <v>15.23438448825936</v>
-      </c>
-      <c r="C44" s="9">
-        <v>-0.20452451935391869</v>
-      </c>
-      <c r="D44" s="9">
-        <v>24.41287785453294</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1.088280361719792</v>
-      </c>
-      <c r="F44" s="9">
+      <c r="B44" s="10">
+        <v>16.78619601578184</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1.1639676787219919</v>
+      </c>
+      <c r="D44" s="10">
+        <v>27.305395245698591</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1.7823805413784599</v>
+      </c>
+      <c r="F44" s="10">
         <v>98.914528844509263</v>
       </c>
-      <c r="G44" s="9">
-        <v>0.84425534315946871</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0.24121581233127681</v>
-      </c>
-      <c r="I44" s="9">
+      <c r="G44" s="10">
+        <v>0.92466061393656096</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.16081054155418451</v>
+      </c>
+      <c r="I44" s="10">
         <v>0</v>
       </c>
       <c r="J44" s="8"/>
@@ -2317,29 +2319,29 @@
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="9">
-        <v>14.74383650846732</v>
-      </c>
-      <c r="C45" s="9">
-        <v>-0.1261401255132624</v>
-      </c>
-      <c r="D45" s="9">
-        <v>24.888580252608101</v>
-      </c>
-      <c r="E45" s="9">
-        <v>-4.1385158041786607E-2</v>
-      </c>
-      <c r="F45" s="9">
-        <v>97.530619457892854</v>
-      </c>
-      <c r="G45" s="9">
-        <v>2.3795667682827308</v>
-      </c>
-      <c r="H45" s="9">
-        <v>8.3654081699654353E-2</v>
-      </c>
-      <c r="I45" s="9">
-        <v>6.1596921233449736E-3</v>
+      <c r="B45" s="10">
+        <v>16.06026448523431</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1.176788259888673</v>
+      </c>
+      <c r="D45" s="10">
+        <v>26.757061450989848</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1.423347756302255</v>
+      </c>
+      <c r="F45" s="10">
+        <v>97.589775731835488</v>
+      </c>
+      <c r="G45" s="10">
+        <v>2.362770747286929</v>
+      </c>
+      <c r="H45" s="10">
+        <v>4.7453520876881032E-2</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2350,29 +2352,29 @@
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="9">
-        <v>18.994260448156179</v>
-      </c>
-      <c r="C46" s="9">
-        <v>0.82069787660160154</v>
-      </c>
-      <c r="D46" s="9">
-        <v>29.66605290118105</v>
-      </c>
-      <c r="E46" s="9">
-        <v>-0.26731584379324702</v>
-      </c>
-      <c r="F46" s="9">
-        <v>96.253162951322722</v>
-      </c>
-      <c r="G46" s="9">
-        <v>3.3574811461494591</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0.34239615740489632</v>
-      </c>
-      <c r="I46" s="9">
-        <v>4.6959745122303623E-2</v>
+      <c r="B46" s="10">
+        <v>15.032287338930299</v>
+      </c>
+      <c r="C46" s="10">
+        <v>-3.3418914807500402</v>
+      </c>
+      <c r="D46" s="10">
+        <v>30.44811116635708</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.41769316679201929</v>
+      </c>
+      <c r="F46" s="10">
+        <v>96.956449432061873</v>
+      </c>
+      <c r="G46" s="10">
+        <v>2.798887319907466</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.2189444084473344</v>
+      </c>
+      <c r="I46" s="10">
+        <v>2.5718839582715911E-2</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2383,28 +2385,28 @@
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="9">
-        <v>12.3356365835535</v>
-      </c>
-      <c r="C47" s="9">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="D47" s="9">
-        <v>28.0944497147539</v>
-      </c>
-      <c r="E47" s="9">
-        <v>-4.5487000000000002</v>
-      </c>
-      <c r="F47" s="9">
-        <v>96.115585030790996</v>
-      </c>
-      <c r="G47" s="9">
-        <v>3.8844149692080001</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
+      <c r="B47" s="10">
+        <v>10.599707958061</v>
+      </c>
+      <c r="C47" s="10">
+        <v>-1.5452999999999999</v>
+      </c>
+      <c r="D47" s="10">
+        <v>32.508519560085603</v>
+      </c>
+      <c r="E47" s="10">
+        <v>3.4459</v>
+      </c>
+      <c r="F47" s="10">
+        <v>95.440251572327</v>
+      </c>
+      <c r="G47" s="10">
+        <v>4.5440251572320003</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1.5723270439999999E-2</v>
+      </c>
+      <c r="I47" s="10">
         <v>0</v>
       </c>
       <c r="J47" s="8"/>
@@ -2416,28 +2418,28 @@
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="9">
-        <v>22.282687389508379</v>
-      </c>
-      <c r="C48" s="9">
-        <v>1.6858942116262779E-2</v>
-      </c>
-      <c r="D48" s="9">
-        <v>40.906967499222262</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0.66058298383670866</v>
-      </c>
-      <c r="F48" s="9">
-        <v>99.298506892690426</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0.66290781136228538</v>
-      </c>
-      <c r="H48" s="9">
-        <v>3.858529594635806E-2</v>
-      </c>
-      <c r="I48" s="9">
+      <c r="B48" s="10">
+        <v>21.208374762995859</v>
+      </c>
+      <c r="C48" s="10">
+        <v>-0.87779857635845548</v>
+      </c>
+      <c r="D48" s="10">
+        <v>42.723848585012888</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1.326625350661937</v>
+      </c>
+      <c r="F48" s="10">
+        <v>99.219017040707243</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.66522707145184345</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0.11575588783999489</v>
+      </c>
+      <c r="I48" s="10">
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -2449,28 +2451,28 @@
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="9">
-        <v>14.509100657710819</v>
-      </c>
-      <c r="C49" s="9">
-        <v>2.2166733293762459</v>
-      </c>
-      <c r="D49" s="9">
-        <v>29.918984905713081</v>
-      </c>
-      <c r="E49" s="9">
-        <v>-0.2587379073249339</v>
-      </c>
-      <c r="F49" s="9">
-        <v>98.794309806817438</v>
-      </c>
-      <c r="G49" s="9">
-        <v>1.186314846412841</v>
-      </c>
-      <c r="H49" s="9">
-        <v>1.9375346769026788E-2</v>
-      </c>
-      <c r="I49" s="9">
+      <c r="B49" s="10">
+        <v>11.63450881031615</v>
+      </c>
+      <c r="C49" s="10">
+        <v>-2.4737577367676691</v>
+      </c>
+      <c r="D49" s="10">
+        <v>31.63407627933854</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1.318396945553163</v>
+      </c>
+      <c r="F49" s="10">
+        <v>98.821681532935969</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1.1667197988283859</v>
+      </c>
+      <c r="H49" s="10">
+        <v>1.1598668234965231E-2</v>
+      </c>
+      <c r="I49" s="10">
         <v>0</v>
       </c>
       <c r="J49" s="8"/>
@@ -2482,29 +2484,29 @@
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="9">
-        <v>20.83667419577603</v>
-      </c>
-      <c r="C50" s="9">
-        <v>-1.6412781163505581</v>
-      </c>
-      <c r="D50" s="9">
-        <v>33.491819182664443</v>
-      </c>
-      <c r="E50" s="9">
-        <v>-0.76382261658912765</v>
-      </c>
-      <c r="F50" s="9">
-        <v>93.895675480371722</v>
-      </c>
-      <c r="G50" s="9">
-        <v>4.9766556270428612</v>
-      </c>
-      <c r="H50" s="9">
-        <v>1.082409637174172</v>
-      </c>
-      <c r="I50" s="9">
-        <v>4.5259255409455502E-2</v>
+      <c r="B50" s="10">
+        <v>16.509957040691489</v>
+      </c>
+      <c r="C50" s="10">
+        <v>-3.5891162706218438</v>
+      </c>
+      <c r="D50" s="10">
+        <v>34.480582030394338</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.751575033035769</v>
+      </c>
+      <c r="F50" s="10">
+        <v>94.473207460272135</v>
+      </c>
+      <c r="G50" s="10">
+        <v>4.5651316834971718</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.9526333764075714</v>
+      </c>
+      <c r="I50" s="10">
+        <v>9.0274798213509245E-3</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2515,29 +2517,29 @@
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="9">
-        <v>10.24797820544312</v>
-      </c>
-      <c r="C51" s="9">
-        <v>2.808290256861294</v>
-      </c>
-      <c r="D51" s="9">
-        <v>22.133667505657598</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0.87277667644738655</v>
-      </c>
-      <c r="F51" s="9">
-        <v>97.114404210148081</v>
-      </c>
-      <c r="G51" s="9">
-        <v>2.4577669997006391</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0.40413950427167478</v>
-      </c>
-      <c r="I51" s="9">
-        <v>2.368928587855099E-2</v>
+      <c r="B51" s="10">
+        <v>10.507682621564481</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.22497353467202599</v>
+      </c>
+      <c r="D51" s="10">
+        <v>24.615198800536529</v>
+      </c>
+      <c r="E51" s="10">
+        <v>2.048507240411662</v>
+      </c>
+      <c r="F51" s="10">
+        <v>97.390446861298955</v>
+      </c>
+      <c r="G51" s="10">
+        <v>2.2083970654795722</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.40115607322093599</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2548,29 +2550,29 @@
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="9">
-        <v>15.838817386801351</v>
-      </c>
-      <c r="C52" s="9">
-        <v>2.690896034496256</v>
-      </c>
-      <c r="D52" s="9">
-        <v>47.15699135544569</v>
-      </c>
-      <c r="E52" s="9">
-        <v>5.2165978351012656</v>
-      </c>
-      <c r="F52" s="9">
-        <v>93.704741872896776</v>
-      </c>
-      <c r="G52" s="9">
-        <v>5.8608152969104372</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.27514712578875472</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.15929570440401589</v>
+      <c r="B52" s="10">
+        <v>17.646722134139999</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1.5599756157615401</v>
+      </c>
+      <c r="D52" s="10">
+        <v>49.629427994058027</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1.6813604661907351</v>
+      </c>
+      <c r="F52" s="10">
+        <v>94.188310794935902</v>
+      </c>
+      <c r="G52" s="10">
+        <v>5.6381585837760948</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.1156870808586592</v>
+      </c>
+      <c r="I52" s="10">
+        <v>5.7843540429329612E-2</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2581,29 +2583,29 @@
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="9">
-        <v>15.242508533902789</v>
-      </c>
-      <c r="C53" s="9">
-        <v>-0.94490959390357565</v>
-      </c>
-      <c r="D53" s="9">
-        <v>24.251938697333529</v>
-      </c>
-      <c r="E53" s="9">
-        <v>-0.52293219976283778</v>
-      </c>
-      <c r="F53" s="9">
-        <v>97.355769230769226</v>
-      </c>
-      <c r="G53" s="9">
-        <v>2.4038461538461542</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.16025641025641019</v>
-      </c>
-      <c r="I53" s="9">
-        <v>8.0128205128205121E-2</v>
+      <c r="B53" s="10">
+        <v>15.137641348077141</v>
+      </c>
+      <c r="C53" s="10">
+        <v>-9.0996965581313649E-2</v>
+      </c>
+      <c r="D53" s="10">
+        <v>32.038597940286962</v>
+      </c>
+      <c r="E53" s="10">
+        <v>6.2668311855648584</v>
+      </c>
+      <c r="F53" s="10">
+        <v>97.518014411529222</v>
+      </c>
+      <c r="G53" s="10">
+        <v>2.0016012810248198</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0.32025620496397122</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.16012810248198561</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2619,9 +2621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2630,21 +2634,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -2657,8 +2661,11 @@
       <c r="E4" s="5">
         <v>43932</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F4" s="5">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -2670,6 +2677,9 @@
       </c>
       <c r="E5" s="6">
         <v>0.41499999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.40200000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2068AB-6311-E249-A278-94F58AF868FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D400474-F220-0945-BADE-EFED9413CC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
     <sheet name="SG Figures" sheetId="2" r:id="rId2"/>
     <sheet name="Backbone" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -222,11 +214,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,17 +231,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -291,6 +285,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,21 +310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -337,7 +323,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -354,15 +340,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -370,27 +378,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,22 +419,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>87152</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189964</xdr:rowOff>
+      <xdr:colOff>183462</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>763745</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629335</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>122419</xdr:rowOff>
+      <xdr:rowOff>173219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2A3F25-00C8-2D4C-827E-89468B592985}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -441,40 +450,44 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="87152" y="189964"/>
-          <a:ext cx="13884593" cy="11171955"/>
+          <a:off x="180975" y="238125"/>
+          <a:ext cx="8934450" cy="11172825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>722401</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190097</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578356</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>579519</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>202863</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>127400</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02387F4C-BC23-854B-99EC-4B91008776A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -490,17 +503,21 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13930401" y="190097"/>
-          <a:ext cx="13890618" cy="11176803"/>
+          <a:off x="9067800" y="238125"/>
+          <a:ext cx="8886825" cy="11172825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -508,22 +525,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137848</xdr:colOff>
+      <xdr:colOff>192454</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>414158</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>142956</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5847F336-E13D-9C43-A9BA-2AFEDED5F652}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,17 +556,21 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="137848" y="11379199"/>
-          <a:ext cx="15135310" cy="12195257"/>
+          <a:off x="190500" y="11391900"/>
+          <a:ext cx="10191750" cy="12801600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -846,25 +867,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" style="3" customWidth="1"/>
-    <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34" style="4" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="4" customWidth="1"/>
+    <col min="10" max="13" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -897,290 +918,290 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10">
-        <v>17.772771653202859</v>
+        <v>16.219819230559828</v>
       </c>
       <c r="C2" s="10">
-        <v>-1.779438401293437</v>
+        <v>-1.391408590831541</v>
       </c>
       <c r="D2" s="10">
-        <v>35.046384537106213</v>
+        <v>34.335477415081357</v>
       </c>
       <c r="E2" s="10">
-        <v>0.79504206610504224</v>
+        <v>-0.19318424059910971</v>
       </c>
       <c r="F2" s="10">
-        <v>96.222121242126178</v>
+        <v>96.440477148834006</v>
       </c>
       <c r="G2" s="10">
-        <v>3.5369530109785212</v>
+        <v>3.385015283786629</v>
       </c>
       <c r="H2" s="10">
-        <v>0.21831974787666791</v>
+        <v>0.16255952585151059</v>
       </c>
       <c r="I2" s="10">
-        <v>2.2500910809136819E-2</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+        <v>1.4464097787146499E-2</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10">
-        <v>11.27094113938192</v>
+        <v>14.92301259368209</v>
       </c>
       <c r="C3" s="10">
-        <v>-5.7620077295564318</v>
+        <v>3.079844685451445</v>
       </c>
       <c r="D3" s="10">
-        <v>28.863996189480851</v>
+        <v>24.43027854486623</v>
       </c>
       <c r="E3" s="10">
-        <v>1.4632459423186941</v>
+        <v>-3.7365304854155128</v>
       </c>
       <c r="F3" s="10">
-        <v>98.148276602588027</v>
+        <v>97.648847488002843</v>
       </c>
       <c r="G3" s="10">
-        <v>1.674110445930979</v>
+        <v>2.094314230789625</v>
       </c>
       <c r="H3" s="10">
-        <v>0.16027629118972769</v>
+        <v>0.2191762516990009</v>
       </c>
       <c r="I3" s="10">
-        <v>1.7336660290978509E-2</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+        <v>7.0421710165821466E-2</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10">
-        <v>25.418186626950789</v>
+        <v>27.43833204126538</v>
       </c>
       <c r="C4" s="10">
-        <v>-11.829253584806009</v>
+        <v>1.6107276533373851</v>
       </c>
       <c r="D4" s="10">
-        <v>38.967337155759502</v>
+        <v>37.303408237117821</v>
       </c>
       <c r="E4" s="10">
-        <v>1.54538073368199</v>
+        <v>-1.1973525237636731</v>
       </c>
       <c r="F4" s="10">
-        <v>99.683711122825514</v>
+        <v>99.815498154981555</v>
       </c>
       <c r="G4" s="10">
-        <v>0.31628887717448601</v>
+        <v>0.158144438587243</v>
       </c>
       <c r="H4" s="10">
-        <v>0</v>
+        <v>2.6357406431207171E-2</v>
       </c>
       <c r="I4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="10">
-        <v>13.58256018555538</v>
+        <v>10.998741943024539</v>
       </c>
       <c r="C5" s="10">
-        <v>-3.0481721975524549</v>
+        <v>-2.2516337123791779</v>
       </c>
       <c r="D5" s="10">
-        <v>36.99798106398255</v>
+        <v>36.423448536027607</v>
       </c>
       <c r="E5" s="10">
-        <v>-0.90307670636368831</v>
+        <v>-0.45239513989135771</v>
       </c>
       <c r="F5" s="10">
-        <v>96.293456920296336</v>
+        <v>96.967280564330338</v>
       </c>
       <c r="G5" s="10">
-        <v>3.3952618505182972</v>
+        <v>2.897408563239591</v>
       </c>
       <c r="H5" s="10">
-        <v>0.25999766243728789</v>
+        <v>0.13531087242997961</v>
       </c>
       <c r="I5" s="10">
-        <v>5.1283566748040597E-2</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="10">
-        <v>13.8763543923277</v>
+        <v>12.939770244293779</v>
       </c>
       <c r="C6" s="10">
-        <v>-0.48701856604130461</v>
+        <v>-0.79267311613642255</v>
       </c>
       <c r="D6" s="10">
-        <v>27.49288531891948</v>
+        <v>28.694411344372998</v>
       </c>
       <c r="E6" s="10">
-        <v>0.19753101252369379</v>
+        <v>0.94736428310305087</v>
       </c>
       <c r="F6" s="10">
-        <v>98.051418297670779</v>
+        <v>98.139966272893417</v>
       </c>
       <c r="G6" s="10">
-        <v>1.685805737432124</v>
+        <v>1.4415724726555761</v>
       </c>
       <c r="H6" s="10">
-        <v>0.26277596489684429</v>
+        <v>0.40009124807523438</v>
       </c>
       <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+        <v>2.210622524007488E-2</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>19.124371685524139</v>
+        <v>17.698118087014741</v>
       </c>
       <c r="C7" s="10">
-        <v>-4.7372400024659154</v>
+        <v>-1.604276687280112</v>
       </c>
       <c r="D7" s="10">
-        <v>36.931082690041009</v>
+        <v>36.973842341107897</v>
       </c>
       <c r="E7" s="10">
-        <v>-0.93301008049028256</v>
+        <v>-0.20188928511293339</v>
       </c>
       <c r="F7" s="10">
-        <v>90.783954193821486</v>
+        <v>91.141500575311525</v>
       </c>
       <c r="G7" s="10">
-        <v>8.9685677284078977</v>
+        <v>8.7386925348323743</v>
       </c>
       <c r="H7" s="10">
-        <v>0.18993480006975799</v>
+        <v>0.1071046080948614</v>
       </c>
       <c r="I7" s="10">
-        <v>5.7543277699893973E-2</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>1.2702281760808339E-2</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="10">
-        <v>13.14453965213235</v>
+        <v>8.637482253847093</v>
       </c>
       <c r="C8" s="10">
-        <v>1.4791290066445331</v>
+        <v>-3.9770783647214771</v>
       </c>
       <c r="D8" s="10">
-        <v>36.721109533126409</v>
+        <v>33.479847415534849</v>
       </c>
       <c r="E8" s="10">
-        <v>2.9328476859280088</v>
+        <v>-2.3106787304744558</v>
       </c>
       <c r="F8" s="10">
-        <v>91.523124851668967</v>
+        <v>93.385863361449452</v>
       </c>
       <c r="G8" s="10">
-        <v>8.464058958000086</v>
+        <v>6.6141366385496267</v>
       </c>
       <c r="H8" s="10">
-        <v>6.4080951650122139E-3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="10">
-        <v>6.4080951650122139E-3</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="10">
-        <v>28.149093273295801</v>
+        <v>24.648288628520881</v>
       </c>
       <c r="C9" s="10">
-        <v>-0.61629444916020659</v>
+        <v>-2.7140639861046738</v>
       </c>
       <c r="D9" s="10">
-        <v>41.123411886494047</v>
+        <v>44.277979465333921</v>
       </c>
       <c r="E9" s="10">
-        <v>-0.6409365472485945</v>
+        <v>2.3632892491166881</v>
       </c>
       <c r="F9" s="10">
-        <v>95.502603888124185</v>
+        <v>94.941804349250063</v>
       </c>
       <c r="G9" s="10">
-        <v>3.846778570724541</v>
+        <v>4.4569716249010707</v>
       </c>
       <c r="H9" s="10">
-        <v>0.63763556980412006</v>
+        <v>0.58172072417370746</v>
       </c>
       <c r="I9" s="10">
-        <v>1.29819713465477E-2</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+        <v>1.9503301673957089E-2</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="10">
-        <v>13.09871915853055</v>
+        <v>13.544879842119251</v>
       </c>
       <c r="C10" s="10">
-        <v>-2.1475941620555061</v>
+        <v>0.38539162304203578</v>
       </c>
       <c r="D10" s="10">
-        <v>35.500027726774597</v>
+        <v>36.840319743847303</v>
       </c>
       <c r="E10" s="10">
-        <v>1.37953835918824</v>
+        <v>0.97674305076573398</v>
       </c>
       <c r="F10" s="10">
-        <v>98.225072886297028</v>
+        <v>98.299914728893597</v>
       </c>
       <c r="G10" s="10">
-        <v>1.774927113702091</v>
+        <v>1.7000852711055481</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
@@ -1188,32 +1209,32 @@
       <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="10">
-        <v>5.72294000597463</v>
+        <v>5.0724612492848102</v>
       </c>
       <c r="C11" s="10">
-        <v>-5.18</v>
+        <v>-0.61519999999999997</v>
       </c>
       <c r="D11" s="10">
-        <v>34.814898059580102</v>
+        <v>35.505417833585902</v>
       </c>
       <c r="E11" s="10">
-        <v>0.14710000000000001</v>
+        <v>0.5121</v>
       </c>
       <c r="F11" s="10">
-        <v>96.980008507017999</v>
+        <v>96.981292517005997</v>
       </c>
       <c r="G11" s="10">
-        <v>3.0199914929810001</v>
+        <v>3.0187074829929998</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1221,362 +1242,362 @@
       <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10">
-        <v>17.15134054394332</v>
+        <v>15.949615984586501</v>
       </c>
       <c r="C12" s="10">
-        <v>-3.119965821808143</v>
+        <v>-1.0174271917180671</v>
       </c>
       <c r="D12" s="10">
-        <v>27.373341299364011</v>
+        <v>26.536986692103671</v>
       </c>
       <c r="E12" s="10">
-        <v>0.22955339887063231</v>
+        <v>-0.62837067718475781</v>
       </c>
       <c r="F12" s="10">
-        <v>96.977365415522371</v>
+        <v>97.692986074516568</v>
       </c>
       <c r="G12" s="10">
-        <v>2.7102561461731929</v>
+        <v>2.1098455462251149</v>
       </c>
       <c r="H12" s="10">
-        <v>0.28589444643911088</v>
+        <v>0.18375506479872819</v>
       </c>
       <c r="I12" s="10">
-        <v>2.690554262761102E-2</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+        <v>1.50664126752592E-2</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="10">
-        <v>13.247822203961309</v>
+        <v>14.139529433520289</v>
       </c>
       <c r="C13" s="10">
-        <v>-2.2666770732874562</v>
+        <v>0.52062306769260758</v>
       </c>
       <c r="D13" s="10">
-        <v>30.391094659418439</v>
+        <v>30.588402922172751</v>
       </c>
       <c r="E13" s="10">
-        <v>1.6679085305738901</v>
+        <v>0.3195662116207274</v>
       </c>
       <c r="F13" s="10">
-        <v>96.984205549544527</v>
+        <v>96.833075687618376</v>
       </c>
       <c r="G13" s="10">
-        <v>2.9416911898912321</v>
+        <v>3.11262053294366</v>
       </c>
       <c r="H13" s="10">
-        <v>6.8591899638487289E-2</v>
+        <v>5.4303779436423942E-2</v>
       </c>
       <c r="I13" s="10">
-        <v>5.5113609241113984E-3</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+        <v>7.9271765689753679E-3</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="10">
-        <v>23.14570256409441</v>
+        <v>19.664375094449941</v>
       </c>
       <c r="C14" s="10">
-        <v>-3.27641891074465</v>
+        <v>-2.8269987479526688</v>
       </c>
       <c r="D14" s="10">
-        <v>20.41152784726297</v>
+        <v>19.6446584775126</v>
       </c>
       <c r="E14" s="10">
-        <v>-0.94282239122768197</v>
+        <v>-0.6368737142203873</v>
       </c>
       <c r="F14" s="10">
-        <v>96.487068965517238</v>
+        <v>96.504100129477777</v>
       </c>
       <c r="G14" s="10">
-        <v>3.125</v>
+        <v>3.236944324557617</v>
       </c>
       <c r="H14" s="10">
-        <v>0.2155172413793103</v>
+        <v>0.1078981441519206</v>
       </c>
       <c r="I14" s="10">
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+        <v>0.15105740181268881</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="10">
-        <v>13.59928309735044</v>
+        <v>11.38287325877163</v>
       </c>
       <c r="C15" s="10">
-        <v>-2.2006387800802472</v>
+        <v>-1.939170652820301</v>
       </c>
       <c r="D15" s="10">
-        <v>38.125161250408233</v>
+        <v>35.697634513666443</v>
       </c>
       <c r="E15" s="10">
-        <v>1.4637228448850621</v>
+        <v>-1.7640758634868039</v>
       </c>
       <c r="F15" s="10">
-        <v>99.379148950066593</v>
+        <v>99.351936350646355</v>
       </c>
       <c r="G15" s="10">
-        <v>0.49911257564931549</v>
+        <v>0.5503226365140147</v>
       </c>
       <c r="H15" s="10">
-        <v>0.1217384742841035</v>
+        <v>9.7741012839625274E-2</v>
       </c>
       <c r="I15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="10">
-        <v>13.46104464557577</v>
+        <v>11.97722621718</v>
       </c>
       <c r="C16" s="10">
-        <v>-1.6021478410495009</v>
+        <v>-1.271471999936608</v>
       </c>
       <c r="D16" s="10">
-        <v>41.307189082736834</v>
+        <v>39.551840537895089</v>
       </c>
       <c r="E16" s="10">
-        <v>3.1112693643548792</v>
+        <v>-1.109318900702974</v>
       </c>
       <c r="F16" s="10">
-        <v>94.670891070013454</v>
+        <v>95.26782334748026</v>
       </c>
       <c r="G16" s="10">
-        <v>5.3105069995396024</v>
+        <v>4.721702309525142</v>
       </c>
       <c r="H16" s="10">
-        <v>1.8601930445251501E-2</v>
+        <v>9.0969801528869298E-3</v>
       </c>
       <c r="I16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="10">
-        <v>14.85506163313201</v>
+        <v>10.984553525596059</v>
       </c>
       <c r="C17" s="10">
-        <v>0.83800750955045156</v>
+        <v>-3.3469570097525092</v>
       </c>
       <c r="D17" s="10">
-        <v>35.432430636623437</v>
+        <v>32.37012496271312</v>
       </c>
       <c r="E17" s="10">
-        <v>4.6900014517384641</v>
+        <v>-2.2306034410010449</v>
       </c>
       <c r="F17" s="10">
-        <v>97.597032063052865</v>
+        <v>97.934028427210592</v>
       </c>
       <c r="G17" s="10">
-        <v>2.2572798131419112</v>
+        <v>1.954551238266975</v>
       </c>
       <c r="H17" s="10">
-        <v>0.1109161918554632</v>
+        <v>9.9768983401594652E-2</v>
       </c>
       <c r="I17" s="10">
-        <v>3.4771931948302838E-2</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+        <v>1.165135111937708E-2</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="10">
-        <v>19.12603207422703</v>
+        <v>30.30186389914136</v>
       </c>
       <c r="C18" s="10">
-        <v>0.34579181580852808</v>
+        <v>9.3742973943916912</v>
       </c>
       <c r="D18" s="10">
-        <v>42.931179029374682</v>
+        <v>40.859652619833902</v>
       </c>
       <c r="E18" s="10">
-        <v>3.674788543641609</v>
+        <v>-1.463824199213644</v>
       </c>
       <c r="F18" s="10">
-        <v>99.861066930497373</v>
+        <v>99.89208177272566</v>
       </c>
       <c r="G18" s="10">
-        <v>0.1080590540576078</v>
+        <v>7.7084448053094626E-2</v>
       </c>
       <c r="H18" s="10">
-        <v>3.0874015445030809E-2</v>
+        <v>3.083377922123786E-2</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="10">
-        <v>16.465541203841429</v>
+        <v>13.59356571089144</v>
       </c>
       <c r="C19" s="10">
-        <v>0.49415498373086292</v>
+        <v>-2.0207535669727532</v>
       </c>
       <c r="D19" s="10">
-        <v>39.689466992735291</v>
+        <v>36.686348348648657</v>
       </c>
       <c r="E19" s="10">
-        <v>2.2987701676508521</v>
+        <v>-0.9754016460573175</v>
       </c>
       <c r="F19" s="10">
-        <v>98.690900892202507</v>
+        <v>99.284412045399421</v>
       </c>
       <c r="G19" s="10">
-        <v>1.20000244358287</v>
+        <v>0.67403717565328292</v>
       </c>
       <c r="H19" s="10">
-        <v>5.6586690810321409E-2</v>
+        <v>4.155077894725908E-2</v>
       </c>
       <c r="I19" s="10">
-        <v>4.8470744680851059E-2</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="10">
-        <v>14.82043369002947</v>
+        <v>16.23833450811107</v>
       </c>
       <c r="C20" s="10">
-        <v>2.573139406753493</v>
+        <v>1.185623760976537</v>
       </c>
       <c r="D20" s="10">
-        <v>28.788659425145301</v>
+        <v>30.893189397769</v>
       </c>
       <c r="E20" s="10">
-        <v>3.7069774376044942</v>
+        <v>1.6578780137289271</v>
       </c>
       <c r="F20" s="10">
-        <v>98.01684623247597</v>
+        <v>97.352758907946651</v>
       </c>
       <c r="G20" s="10">
-        <v>1.85767449367833</v>
+        <v>2.4791966632128042</v>
       </c>
       <c r="H20" s="10">
-        <v>0.1254792738456067</v>
+        <v>0.1050277680252785</v>
       </c>
       <c r="I20" s="10">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+        <v>6.3016660815167089E-2</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="10">
-        <v>20.572833737344769</v>
+        <v>20.718608385156362</v>
       </c>
       <c r="C21" s="10">
-        <v>-1.242671401882441</v>
+        <v>-0.16942664926002751</v>
       </c>
       <c r="D21" s="10">
-        <v>23.64981039748568</v>
+        <v>26.243032917996722</v>
       </c>
       <c r="E21" s="10">
-        <v>-1.8358661860544629</v>
+        <v>1.496815851361206</v>
       </c>
       <c r="F21" s="10">
-        <v>98.877750699887542</v>
+        <v>98.771226099209372</v>
       </c>
       <c r="G21" s="10">
-        <v>0.93263431737106794</v>
+        <v>1.018227769656066</v>
       </c>
       <c r="H21" s="10">
-        <v>0.16064380664192851</v>
+        <v>0.18577054765148171</v>
       </c>
       <c r="I21" s="10">
-        <v>2.89711760993057E-2</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+        <v>2.7528426092160382E-2</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="10">
-        <v>19.534006945053061</v>
+        <v>19.632544991978818</v>
       </c>
       <c r="C22" s="10">
-        <v>-0.9841876161394113</v>
+        <v>0.1023463943541892</v>
       </c>
       <c r="D22" s="10">
-        <v>53.201249881937009</v>
+        <v>45.475125212681917</v>
       </c>
       <c r="E22" s="10">
-        <v>-7.400846627539865</v>
+        <v>-5.0425883650920893</v>
       </c>
       <c r="F22" s="10">
-        <v>99.481079673240387</v>
+        <v>99.679587166224678</v>
       </c>
       <c r="G22" s="10">
-        <v>0.51892032675953492</v>
+        <v>0.32041283377525592</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
@@ -1584,263 +1605,263 @@
       <c r="I22" s="10">
         <v>0</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="10">
-        <v>14.11989989944181</v>
+        <v>14.361108048371319</v>
       </c>
       <c r="C23" s="10">
-        <v>-1.7666419396105031</v>
+        <v>0.2115083842099392</v>
       </c>
       <c r="D23" s="10">
-        <v>35.012836634804657</v>
+        <v>35.49820472339735</v>
       </c>
       <c r="E23" s="10">
-        <v>0.72536971953636553</v>
+        <v>0.36001137192682792</v>
       </c>
       <c r="F23" s="10">
-        <v>97.712852265447566</v>
+        <v>97.719175098402104</v>
       </c>
       <c r="G23" s="10">
-        <v>2.260782919167494</v>
+        <v>2.2479599894705662</v>
       </c>
       <c r="H23" s="10">
-        <v>2.6364815382942719E-2</v>
+        <v>3.2864912126339178E-2</v>
       </c>
       <c r="I23" s="10">
         <v>0</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="10">
-        <v>28.23130797353182</v>
+        <v>23.270756944123811</v>
       </c>
       <c r="C24" s="10">
-        <v>-0.91526426159209218</v>
+        <v>-3.8394930599281509</v>
       </c>
       <c r="D24" s="10">
-        <v>41.7267516481729</v>
+        <v>41.145749929165547</v>
       </c>
       <c r="E24" s="10">
-        <v>0.1825967856958732</v>
+        <v>-0.20608132752978639</v>
       </c>
       <c r="F24" s="10">
-        <v>96.470509906484864</v>
+        <v>96.568248884931833</v>
       </c>
       <c r="G24" s="10">
-        <v>3.190162530676834</v>
+        <v>3.0937717411632768</v>
       </c>
       <c r="H24" s="10">
-        <v>0.33932756283659909</v>
+        <v>0.33797937390400418</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="10">
-        <v>20.70542610250763</v>
+        <v>18.70820039405103</v>
       </c>
       <c r="C25" s="10">
-        <v>-1.7702375709376019</v>
+        <v>-1.665310971841798</v>
       </c>
       <c r="D25" s="10">
-        <v>41.332990031288737</v>
+        <v>39.855854908343673</v>
       </c>
       <c r="E25" s="10">
-        <v>2.394430342142186</v>
+        <v>-1.053873715787002</v>
       </c>
       <c r="F25" s="10">
-        <v>97.133114112654539</v>
+        <v>97.41979655398309</v>
       </c>
       <c r="G25" s="10">
-        <v>2.7351153868248779</v>
+        <v>2.4414465459286192</v>
       </c>
       <c r="H25" s="10">
-        <v>0.1216030675124409</v>
+        <v>0.1218267650777962</v>
       </c>
       <c r="I25" s="10">
-        <v>1.0167433006774709E-2</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+        <v>1.6930135009142769E-2</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="10">
-        <v>24.028539287142699</v>
+        <v>15.85895099050145</v>
       </c>
       <c r="C26" s="10">
-        <v>-0.41181681610288717</v>
+        <v>-6.8812420698179224</v>
       </c>
       <c r="D26" s="10">
-        <v>46.373641727737237</v>
+        <v>40.49678897844813</v>
       </c>
       <c r="E26" s="10">
-        <v>1.267015389951049</v>
+        <v>-4.6300314700678511</v>
       </c>
       <c r="F26" s="10">
-        <v>96.461221102155918</v>
+        <v>97.223388759742065</v>
       </c>
       <c r="G26" s="10">
-        <v>3.194915213151043</v>
+        <v>2.5621871139389811</v>
       </c>
       <c r="H26" s="10">
-        <v>0.33362083800372311</v>
+        <v>0.21442412631758909</v>
       </c>
       <c r="I26" s="10">
-        <v>1.024284668861962E-2</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="10">
-        <v>20.636067356249679</v>
+        <v>18.833196287538001</v>
       </c>
       <c r="C27" s="10">
-        <v>0.1739337616429352</v>
+        <v>-1.49540591891056</v>
       </c>
       <c r="D27" s="10">
-        <v>26.254701771108209</v>
+        <v>27.20085471800558</v>
       </c>
       <c r="E27" s="10">
-        <v>-0.28478905334645399</v>
+        <v>0.74582405939759722</v>
       </c>
       <c r="F27" s="10">
-        <v>99.101036018081814</v>
+        <v>99.097759935133524</v>
       </c>
       <c r="G27" s="10">
-        <v>0.77803794892447242</v>
+        <v>0.81887928110266017</v>
       </c>
       <c r="H27" s="10">
-        <v>0.10008992094740909</v>
+        <v>3.9579689235463747E-2</v>
       </c>
       <c r="I27" s="10">
-        <v>2.0836112045811692E-2</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+        <v>1.9789844617484009E-2</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="10">
-        <v>17.15671538989946</v>
+        <v>14.2039135876883</v>
       </c>
       <c r="C28" s="10">
-        <v>2.3728660502875751</v>
+        <v>-2.7462137427600402</v>
       </c>
       <c r="D28" s="10">
-        <v>37.472212025160417</v>
+        <v>35.494121083268219</v>
       </c>
       <c r="E28" s="10">
-        <v>-2.3926013966881481</v>
+        <v>-2.3500942561138269</v>
       </c>
       <c r="F28" s="10">
-        <v>97.129879210542583</v>
+        <v>96.847632714704517</v>
       </c>
       <c r="G28" s="10">
-        <v>2.8199771120504562</v>
+        <v>3.1290350674275418</v>
       </c>
       <c r="H28" s="10">
-        <v>5.0143677406849108E-2</v>
+        <v>2.333221786785046E-2</v>
       </c>
       <c r="I28" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="10">
-        <v>14.83547074687319</v>
+        <v>12.074111553382849</v>
       </c>
       <c r="C29" s="10">
-        <v>-1.8501222286545831</v>
+        <v>-2.4046221742557989</v>
       </c>
       <c r="D29" s="10">
-        <v>43.42290692442883</v>
+        <v>39.133549125567299</v>
       </c>
       <c r="E29" s="10">
-        <v>0.19728677953774201</v>
+        <v>-2.9907062203959112</v>
       </c>
       <c r="F29" s="10">
-        <v>97.489539748953973</v>
+        <v>97.582519758251976</v>
       </c>
       <c r="G29" s="10">
-        <v>2.138540213854021</v>
+        <v>2.2315202231520219</v>
       </c>
       <c r="H29" s="10">
-        <v>0.32543003254300329</v>
+        <v>9.2980009298000932E-2</v>
       </c>
       <c r="I29" s="10">
-        <v>4.6490004649000473E-2</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+        <v>9.2980009298000932E-2</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="10">
-        <v>16.76018594813203</v>
+        <v>10.9148801383924</v>
       </c>
       <c r="C30" s="10">
-        <v>2.03061378057131</v>
+        <v>-5.0353850433877607</v>
       </c>
       <c r="D30" s="10">
-        <v>48.535469167187827</v>
+        <v>30.557185804980399</v>
       </c>
       <c r="E30" s="10">
-        <v>7.3476049440422919</v>
+        <v>-12.19805966349208</v>
       </c>
       <c r="F30" s="10">
-        <v>98.732172209780757</v>
+        <v>99.296548343510366</v>
       </c>
       <c r="G30" s="10">
-        <v>1.2678277902192481</v>
+        <v>0.70345165648963115</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
@@ -1848,772 +1869,774 @@
       <c r="I30" s="10">
         <v>0</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="10">
-        <v>17.596960630395671</v>
+        <v>16.47143580424558</v>
       </c>
       <c r="C31" s="10">
-        <v>-5.2656852233072788</v>
+        <v>-0.97187546572028338</v>
       </c>
       <c r="D31" s="10">
-        <v>31.055179170966611</v>
+        <v>30.799224208628029</v>
       </c>
       <c r="E31" s="10">
-        <v>-1.8359860210843579</v>
+        <v>-6.2598521275555236E-2</v>
       </c>
       <c r="F31" s="10">
-        <v>96.692437255238517</v>
+        <v>96.925498789612675</v>
       </c>
       <c r="G31" s="10">
-        <v>3.095645486067875</v>
+        <v>3.018647043720657</v>
       </c>
       <c r="H31" s="10">
-        <v>0.18485334221794439</v>
+        <v>5.5854166666666663E-2</v>
       </c>
       <c r="I31" s="10">
-        <v>2.029793735676089E-2</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="10">
-        <v>24.88863246047374</v>
+        <v>19.667364789073179</v>
       </c>
       <c r="C32" s="10">
-        <v>-1.4088937065147089</v>
+        <v>-4.1791736880902839</v>
       </c>
       <c r="D32" s="10">
-        <v>44.013748052241283</v>
+        <v>42.481932066276563</v>
       </c>
       <c r="E32" s="10">
-        <v>-0.19644293642054991</v>
+        <v>-1.0910291320911629</v>
       </c>
       <c r="F32" s="10">
-        <v>96.94648229954862</v>
+        <v>97.388148181506537</v>
       </c>
       <c r="G32" s="10">
-        <v>2.801170205754639</v>
+        <v>2.4619326539202619</v>
       </c>
       <c r="H32" s="10">
-        <v>0.25234749469586037</v>
+        <v>0.14991916457144919</v>
       </c>
       <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+        <v>1.6657684951800339E-2</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="10">
-        <v>21.83017306420172</v>
+        <v>21.73586590925639</v>
       </c>
       <c r="C33" s="10">
-        <v>-2.4386639188771579</v>
+        <v>-7.7506805101019871E-2</v>
       </c>
       <c r="D33" s="10">
-        <v>38.120614324200382</v>
+        <v>39.63716128983517</v>
       </c>
       <c r="E33" s="10">
-        <v>0.10776291761309489</v>
+        <v>2.145991370504587</v>
       </c>
       <c r="F33" s="10">
-        <v>96.053766250432631</v>
+        <v>95.875306169291719</v>
       </c>
       <c r="G33" s="10">
-        <v>3.5126425643479799</v>
+        <v>3.7580398414981828</v>
       </c>
       <c r="H33" s="10">
-        <v>0.43027189053968562</v>
+        <v>0.36339343561391713</v>
       </c>
       <c r="I33" s="10">
-        <v>3.3192946785763709E-3</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+        <v>7.2679523523997772E-3</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="10">
-        <v>19.35326345526537</v>
+        <v>14.771321580769699</v>
       </c>
       <c r="C34" s="10">
-        <v>0.21874129606087961</v>
+        <v>-3.8215271596265539</v>
       </c>
       <c r="D34" s="10">
-        <v>33.535710818685651</v>
+        <v>29.564633715175312</v>
       </c>
       <c r="E34" s="10">
-        <v>3.0892839987250591</v>
+        <v>-3.01889865073246</v>
       </c>
       <c r="F34" s="10">
-        <v>93.562480163536378</v>
+        <v>94.770179638322205</v>
       </c>
       <c r="G34" s="10">
-        <v>6.0069631904705014</v>
+        <v>4.7411827856604063</v>
       </c>
       <c r="H34" s="10">
-        <v>0.43055664599144128</v>
+        <v>0.48863757601572821</v>
       </c>
       <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+        <v>9.1619545502949026E-2</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="10">
-        <v>21.213330959327461</v>
+        <v>20.882744076534429</v>
       </c>
       <c r="C35" s="10">
-        <v>-1.455667240756493</v>
+        <v>-0.26803158167697722</v>
       </c>
       <c r="D35" s="10">
-        <v>42.043053376994493</v>
+        <v>37.008526282397327</v>
       </c>
       <c r="E35" s="10">
-        <v>0.79698431485870325</v>
+        <v>1.508540129892826</v>
       </c>
       <c r="F35" s="10">
-        <v>95.473988372700234</v>
+        <v>95.615935666309397</v>
       </c>
       <c r="G35" s="10">
-        <v>4.1649419289099381</v>
+        <v>4.0670420916601406</v>
       </c>
       <c r="H35" s="10">
-        <v>0.3486288805395053</v>
+        <v>0.31170482051830928</v>
       </c>
       <c r="I35" s="10">
-        <v>1.244081785030271E-2</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+        <v>5.3174215121358477E-3</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="10">
-        <v>20.718556700598882</v>
+        <v>20.196168927310481</v>
       </c>
       <c r="C36" s="10">
-        <v>1.7464514258848729</v>
+        <v>-0.43825854900774602</v>
       </c>
       <c r="D36" s="10">
-        <v>28.32279111954335</v>
+        <v>33.693498459791563</v>
       </c>
       <c r="E36" s="10">
-        <v>-1.050446588991002</v>
+        <v>4.1850050008625042</v>
       </c>
       <c r="F36" s="10">
-        <v>96.787636742788763</v>
+        <v>96.786830062415802</v>
       </c>
       <c r="G36" s="10">
-        <v>2.7142593785448499</v>
+        <v>2.9563303859193089</v>
       </c>
       <c r="H36" s="10">
-        <v>0.37499389951715589</v>
+        <v>0.22201406016695491</v>
       </c>
       <c r="I36" s="10">
-        <v>0.12310997914923751</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+        <v>3.4825491497924403E-2</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="10">
-        <v>16.371871731596261</v>
+        <v>15.452133660331089</v>
       </c>
       <c r="C37" s="10">
-        <v>-0.67324431029042575</v>
+        <v>-4.7398160637645619</v>
       </c>
       <c r="D37" s="10">
-        <v>31.355954085610929</v>
+        <v>31.130122624156961</v>
       </c>
       <c r="E37" s="10">
-        <v>2.1138070510642701</v>
+        <v>-4.1023543838136112</v>
       </c>
       <c r="F37" s="10">
-        <v>99.652467778907152</v>
+        <v>99.739434879351563</v>
       </c>
       <c r="G37" s="10">
-        <v>0.2606491658196371</v>
+        <v>0.23161344057639641</v>
       </c>
       <c r="H37" s="10">
-        <v>8.688305527321237E-2</v>
+        <v>2.895168007204954E-2</v>
       </c>
       <c r="I37" s="10">
         <v>0</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="10">
-        <v>17.382622376314711</v>
+        <v>16.26885638706937</v>
       </c>
       <c r="C38" s="10">
-        <v>0.54603138601098467</v>
+        <v>-0.97975056965706497</v>
       </c>
       <c r="D38" s="10">
-        <v>32.511484184408751</v>
+        <v>35.715724725370229</v>
       </c>
       <c r="E38" s="10">
-        <v>1.775808981242899</v>
+        <v>2.411663525671897</v>
       </c>
       <c r="F38" s="10">
-        <v>97.400230122323734</v>
+        <v>97.501110990156192</v>
       </c>
       <c r="G38" s="10">
-        <v>2.4378865901974009</v>
+        <v>2.3840484480211641</v>
       </c>
       <c r="H38" s="10">
-        <v>0.1319583376569767</v>
+        <v>7.8247164704850852E-2</v>
       </c>
       <c r="I38" s="10">
-        <v>2.9924949821844141E-2</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+        <v>3.6593397117772958E-2</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="10">
-        <v>13.58041470114398</v>
+        <v>10.47022913634946</v>
       </c>
       <c r="C39" s="10">
-        <v>-0.74125422171629529</v>
+        <v>-2.7265830482010558</v>
       </c>
       <c r="D39" s="10">
-        <v>29.97568967346081</v>
+        <v>29.902272108429841</v>
       </c>
       <c r="E39" s="10">
-        <v>2.277679739699058</v>
+        <v>-4.0195560526216978E-2</v>
       </c>
       <c r="F39" s="10">
-        <v>99.162020417028586</v>
+        <v>99.464115076574473</v>
       </c>
       <c r="G39" s="10">
-        <v>0.74250982858731296</v>
+        <v>0.47684557791882892</v>
       </c>
       <c r="H39" s="10">
-        <v>7.4822124122103928E-2</v>
+        <v>5.9039345506684097E-2</v>
       </c>
       <c r="I39" s="10">
-        <v>1.3765086841330579E-2</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="10">
-        <v>16.39380348180854</v>
+        <v>15.713863100641101</v>
       </c>
       <c r="C40" s="10">
-        <v>-3.6937548597537728</v>
+        <v>-0.65090676705430206</v>
       </c>
       <c r="D40" s="10">
-        <v>32.994536096410357</v>
+        <v>32.526573755131061</v>
       </c>
       <c r="E40" s="10">
-        <v>0.31423653634480819</v>
+        <v>-0.40760360745019553</v>
       </c>
       <c r="F40" s="10">
-        <v>96.213636395440602</v>
+        <v>96.785464965131069</v>
       </c>
       <c r="G40" s="10">
-        <v>3.0789423995073748</v>
+        <v>2.78936407170375</v>
       </c>
       <c r="H40" s="10">
-        <v>0.70742120505123895</v>
+        <v>0.41764445391332722</v>
       </c>
       <c r="I40" s="10">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+        <v>2.582611995094973E-2</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="10">
-        <v>15.242738271912261</v>
+        <v>13.094929792889211</v>
       </c>
       <c r="C41" s="10">
-        <v>-1.1017205149104481</v>
+        <v>-1.866455900741844</v>
       </c>
       <c r="D41" s="10">
-        <v>35.602138953801237</v>
+        <v>35.53383131255034</v>
       </c>
       <c r="E41" s="10">
-        <v>2.310036864030558</v>
+        <v>-4.9618633187772758E-2</v>
       </c>
       <c r="F41" s="10">
-        <v>98.035318214674319</v>
+        <v>98.034065819184221</v>
       </c>
       <c r="G41" s="10">
-        <v>1.921057204762328</v>
+        <v>1.9252174632924091</v>
       </c>
       <c r="H41" s="10">
-        <v>4.0830973154254893E-2</v>
+        <v>4.0716717521458778E-2</v>
       </c>
       <c r="I41" s="10">
-        <v>2.793607407184223E-3</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+        <v>1.0179179379648261E-2</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="10">
-        <v>22.99</v>
+        <v>25.02</v>
       </c>
       <c r="C42" s="10">
-        <v>-2.35</v>
+        <v>1.65</v>
       </c>
       <c r="D42" s="10">
-        <v>50.63</v>
+        <v>55.37</v>
       </c>
       <c r="E42" s="10">
-        <v>-0.24</v>
+        <v>3.14</v>
       </c>
       <c r="F42" s="10">
-        <v>98.83</v>
+        <v>99.11</v>
       </c>
       <c r="G42" s="10">
-        <v>1.17</v>
+        <v>0.84</v>
       </c>
       <c r="H42" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="10">
-        <v>21.338941721043842</v>
+        <v>20.271468715377949</v>
       </c>
       <c r="C43" s="10">
-        <v>1.4817275386383899</v>
+        <v>-1.016778527259828</v>
       </c>
       <c r="D43" s="10">
-        <v>26.660303599668609</v>
+        <v>30.965838149733489</v>
       </c>
       <c r="E43" s="10">
-        <v>-1.367836684182288</v>
+        <v>3.4189696172706352</v>
       </c>
       <c r="F43" s="10">
-        <v>98.423422620976396</v>
+        <v>97.990836751083805</v>
       </c>
       <c r="G43" s="10">
-        <v>1.5464829248497169</v>
+        <v>1.943886749421343</v>
       </c>
       <c r="H43" s="10">
-        <v>3.0094454173576118E-2</v>
+        <v>6.5276499494713452E-2</v>
       </c>
       <c r="I43" s="10">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+        <v>9.5591431205693991E-3</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="10">
-        <v>16.78619601578184</v>
+        <v>16.840962458262709</v>
       </c>
       <c r="C44" s="10">
-        <v>1.1639676787219919</v>
+        <v>-5.5472914257898269</v>
       </c>
       <c r="D44" s="10">
-        <v>27.305395245698591</v>
+        <v>28.293645223582459</v>
       </c>
       <c r="E44" s="10">
-        <v>1.7823805413784599</v>
+        <v>-4.3604418740802284</v>
       </c>
       <c r="F44" s="10">
-        <v>98.914528844509263</v>
+        <v>99.371404130851687</v>
       </c>
       <c r="G44" s="10">
-        <v>0.92466061393656096</v>
+        <v>0.55002138550476687</v>
       </c>
       <c r="H44" s="10">
-        <v>0.16081054155418451</v>
+        <v>7.8574483643538126E-2</v>
       </c>
       <c r="I44" s="10">
         <v>0</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="10">
-        <v>16.06026448523431</v>
+        <v>13.213227377147909</v>
       </c>
       <c r="C45" s="10">
-        <v>1.176788259888673</v>
+        <v>-2.389419927952539</v>
       </c>
       <c r="D45" s="10">
-        <v>26.757061450989848</v>
+        <v>26.013663473515798</v>
       </c>
       <c r="E45" s="10">
-        <v>1.423347756302255</v>
+        <v>-0.63134783842070874</v>
       </c>
       <c r="F45" s="10">
-        <v>97.589775731835488</v>
+        <v>97.735558793683694</v>
       </c>
       <c r="G45" s="10">
-        <v>2.362770747286929</v>
+        <v>2.2000944711657451</v>
       </c>
       <c r="H45" s="10">
-        <v>4.7453520876881032E-2</v>
+        <v>5.3121279495613349E-2</v>
       </c>
       <c r="I45" s="10">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+        <v>1.122545565351135E-2</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="10">
-        <v>15.032287338930299</v>
+        <v>13.336931316449981</v>
       </c>
       <c r="C46" s="10">
-        <v>-3.3418914807500402</v>
+        <v>-1.4837363285371541</v>
       </c>
       <c r="D46" s="10">
-        <v>30.44811116635708</v>
+        <v>29.426538168418361</v>
       </c>
       <c r="E46" s="10">
-        <v>0.41769316679201929</v>
+        <v>-0.78747084564983016</v>
       </c>
       <c r="F46" s="10">
-        <v>96.956449432061873</v>
+        <v>97.433377617404972</v>
       </c>
       <c r="G46" s="10">
-        <v>2.798887319907466</v>
+        <v>2.387308083797937</v>
       </c>
       <c r="H46" s="10">
-        <v>0.2189444084473344</v>
+        <v>0.15354116808348409</v>
       </c>
       <c r="I46" s="10">
-        <v>2.5718839582715911E-2</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+        <v>2.749059554279527E-2</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="10">
-        <v>10.599707958061</v>
+        <v>6.5020103142964096</v>
       </c>
       <c r="C47" s="10">
-        <v>-1.5452999999999999</v>
+        <v>-3.7048999999999999</v>
       </c>
       <c r="D47" s="10">
-        <v>32.508519560085603</v>
+        <v>28.897421122286609</v>
       </c>
       <c r="E47" s="10">
-        <v>3.4459</v>
+        <v>-2.7250999999999999</v>
       </c>
       <c r="F47" s="10">
-        <v>95.440251572327</v>
+        <v>96.231430805315995</v>
       </c>
       <c r="G47" s="10">
-        <v>4.5440251572320003</v>
+        <v>3.7685691946829998</v>
       </c>
       <c r="H47" s="10">
-        <v>1.5723270439999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="10">
-        <v>21.208374762995859</v>
+        <v>16.146052048981591</v>
       </c>
       <c r="C48" s="10">
-        <v>-0.87779857635845548</v>
+        <v>-4.2064214053169309</v>
       </c>
       <c r="D48" s="10">
-        <v>42.723848585012888</v>
+        <v>36.839352591959269</v>
       </c>
       <c r="E48" s="10">
-        <v>1.326625350661937</v>
+        <v>-4.0398712595981712</v>
       </c>
       <c r="F48" s="10">
-        <v>99.219017040707243</v>
+        <v>99.496276401383255</v>
       </c>
       <c r="G48" s="10">
-        <v>0.66522707145184345</v>
+        <v>0.46445425605713342</v>
       </c>
       <c r="H48" s="10">
-        <v>0.11575588783999489</v>
+        <v>3.9269342558670393E-2</v>
       </c>
       <c r="I48" s="10">
         <v>0</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="10">
-        <v>11.63450881031615</v>
+        <v>12.48701534108478</v>
       </c>
       <c r="C49" s="10">
-        <v>-2.4737577367676691</v>
+        <v>0.73445936215159469</v>
       </c>
       <c r="D49" s="10">
-        <v>31.63407627933854</v>
+        <v>33.275072270202891</v>
       </c>
       <c r="E49" s="10">
-        <v>1.318396945553163</v>
+        <v>1.2528949200346691</v>
       </c>
       <c r="F49" s="10">
-        <v>98.821681532935969</v>
+        <v>98.884344894019719</v>
       </c>
       <c r="G49" s="10">
-        <v>1.1667197988283859</v>
+        <v>1.1019664117150529</v>
       </c>
       <c r="H49" s="10">
-        <v>1.1598668234965231E-2</v>
+        <v>1.36886942638486E-2</v>
       </c>
       <c r="I49" s="10">
         <v>0</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="10">
-        <v>16.509957040691489</v>
+        <v>13.927059318721531</v>
       </c>
       <c r="C50" s="10">
-        <v>-3.5891162706218438</v>
+        <v>-2.2376876525095701</v>
       </c>
       <c r="D50" s="10">
-        <v>34.480582030394338</v>
+        <v>32.678262799679779</v>
       </c>
       <c r="E50" s="10">
-        <v>0.751575033035769</v>
+        <v>-1.3553043932242199</v>
       </c>
       <c r="F50" s="10">
-        <v>94.473207460272135</v>
+        <v>95.136241105421803</v>
       </c>
       <c r="G50" s="10">
-        <v>4.5651316834971718</v>
+        <v>4.1617757386550318</v>
       </c>
       <c r="H50" s="10">
-        <v>0.9526333764075714</v>
+        <v>0.70198315592137195</v>
       </c>
       <c r="I50" s="10">
-        <v>9.0274798213509245E-3</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+        <v>1.4369882630306519E-2</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="10">
-        <v>10.507682621564481</v>
+        <v>7.0609174610628331</v>
       </c>
       <c r="C51" s="10">
-        <v>0.22497353467202599</v>
+        <v>-3.1154255500573509</v>
       </c>
       <c r="D51" s="10">
-        <v>24.615198800536529</v>
+        <v>26.10090505022935</v>
       </c>
       <c r="E51" s="10">
-        <v>2.048507240411662</v>
+        <v>1.210329266131376</v>
       </c>
       <c r="F51" s="10">
-        <v>97.390446861298955</v>
+        <v>97.550452673199686</v>
       </c>
       <c r="G51" s="10">
-        <v>2.2083970654795722</v>
+        <v>2.1405099581919949</v>
       </c>
       <c r="H51" s="10">
-        <v>0.40115607322093599</v>
+        <v>0.28545660393264471</v>
       </c>
       <c r="I51" s="10">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
+        <v>2.3580764674636569E-2</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="10">
-        <v>17.646722134139999</v>
+        <v>13.54370240393766</v>
       </c>
       <c r="C52" s="10">
-        <v>1.5599756157615401</v>
+        <v>-3.4818444496945609</v>
       </c>
       <c r="D52" s="10">
-        <v>49.629427994058027</v>
+        <v>45.20915752415457</v>
       </c>
       <c r="E52" s="10">
-        <v>1.6813604661907351</v>
+        <v>-2.9611444845069892</v>
       </c>
       <c r="F52" s="10">
-        <v>94.188310794935902</v>
+        <v>94.508893458135404</v>
       </c>
       <c r="G52" s="10">
-        <v>5.6381585837760948</v>
+        <v>5.3602780534340404</v>
       </c>
       <c r="H52" s="10">
-        <v>0.1156870808586592</v>
+        <v>0.13082848843051409</v>
       </c>
       <c r="I52" s="10">
-        <v>5.7843540429329612E-2</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="10">
-        <v>15.137641348077141</v>
+        <v>11.77087528969745</v>
       </c>
       <c r="C53" s="10">
-        <v>-9.0996965581313649E-2</v>
+        <v>-2.924122831560771</v>
       </c>
       <c r="D53" s="10">
-        <v>32.038597940286962</v>
+        <v>23.684881009719991</v>
       </c>
       <c r="E53" s="10">
-        <v>6.2668311855648584</v>
+        <v>-6.3267234436591444</v>
       </c>
       <c r="F53" s="10">
-        <v>97.518014411529222</v>
+        <v>98.15705128205127</v>
       </c>
       <c r="G53" s="10">
-        <v>2.0016012810248198</v>
+        <v>1.762820512820513</v>
       </c>
       <c r="H53" s="10">
-        <v>0.32025620496397122</v>
+        <v>0</v>
       </c>
       <c r="I53" s="10">
-        <v>0.16012810248198561</v>
-      </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+        <v>8.0128205128205121E-2</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -2621,65 +2644,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T64" sqref="T64"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
         <v>43911</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>43918</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>43925</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>43932</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>43939</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+      <c r="G4" s="6">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
         <v>0.42452508300000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.42994080000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0.42</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>0.41499999999999998</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.40200000000000002</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.39200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2687,5 +2716,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D400474-F220-0945-BADE-EFED9413CC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A44458-5AE2-7B45-9A32-AB38DF64335C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33460" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -419,15 +419,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>183462</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50264</xdr:rowOff>
+      <xdr:colOff>422370</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>629335</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>173219</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514229</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -456,8 +456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="238125"/>
-          <a:ext cx="8934450" cy="11172825"/>
+          <a:off x="419100" y="142875"/>
+          <a:ext cx="13211175" cy="11306175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,16 +471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>578356</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50397</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>202863</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>613616</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>24680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -509,8 +509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067800" y="238125"/>
-          <a:ext cx="8886825" cy="11172825"/>
+          <a:off x="13620750" y="142875"/>
+          <a:ext cx="13220700" cy="11315700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -525,15 +525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>192454</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>428146</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>897</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>359990</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>1604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,8 +562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="11391900"/>
-          <a:ext cx="10191750" cy="12801600"/>
+          <a:off x="428625" y="11477625"/>
+          <a:ext cx="13049250" cy="11191875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,20 +867,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="37" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.1640625" style="4" customWidth="1"/>
     <col min="10" max="13" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -922,28 +922,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="10">
-        <v>16.219819230559828</v>
+        <v>12.15148874536521</v>
       </c>
       <c r="C2" s="10">
-        <v>-1.391408590831541</v>
+        <v>-5.4444136194219901</v>
       </c>
       <c r="D2" s="10">
-        <v>34.335477415081357</v>
+        <v>31.10191768936145</v>
       </c>
       <c r="E2" s="10">
-        <v>-0.19318424059910971</v>
+        <v>-2.7660548863211138</v>
       </c>
       <c r="F2" s="10">
-        <v>96.440477148834006</v>
+        <v>97.096440778841284</v>
       </c>
       <c r="G2" s="10">
-        <v>3.385015283786629</v>
+        <v>2.7740911081709458</v>
       </c>
       <c r="H2" s="10">
-        <v>0.16255952585151059</v>
+        <v>0.1249291374470638</v>
       </c>
       <c r="I2" s="10">
-        <v>1.4464097787146499E-2</v>
+        <v>5.5328324233599293E-3</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -955,28 +955,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="10">
-        <v>14.92301259368209</v>
+        <v>7.4411212044975592</v>
       </c>
       <c r="C3" s="10">
-        <v>3.079844685451445</v>
+        <v>-7.3354728486187586</v>
       </c>
       <c r="D3" s="10">
-        <v>24.43027854486623</v>
+        <v>19.17905685354425</v>
       </c>
       <c r="E3" s="10">
-        <v>-3.7365304854155128</v>
+        <v>-3.2543476363799342</v>
       </c>
       <c r="F3" s="10">
-        <v>97.648847488002843</v>
+        <v>98.64487113222124</v>
       </c>
       <c r="G3" s="10">
-        <v>2.094314230789625</v>
+        <v>1.2401424284738971</v>
       </c>
       <c r="H3" s="10">
-        <v>0.2191762516990009</v>
+        <v>9.4609622564742119E-2</v>
       </c>
       <c r="I3" s="10">
-        <v>7.0421710165821466E-2</v>
+        <v>4.1919212373919428E-2</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -988,25 +988,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="10">
-        <v>27.43833204126538</v>
+        <v>19.88613028155299</v>
       </c>
       <c r="C4" s="10">
-        <v>1.6107276533373851</v>
+        <v>-16.52031935136144</v>
       </c>
       <c r="D4" s="10">
-        <v>37.303408237117821</v>
+        <v>27.785402088610802</v>
       </c>
       <c r="E4" s="10">
-        <v>-1.1973525237636731</v>
+        <v>-4.4796511218844763</v>
       </c>
       <c r="F4" s="10">
-        <v>99.815498154981555</v>
+        <v>99.78936282253818</v>
       </c>
       <c r="G4" s="10">
-        <v>0.158144438587243</v>
+        <v>0.21063717746182201</v>
       </c>
       <c r="H4" s="10">
-        <v>2.6357406431207171E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="10">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="10">
-        <v>10.998741943024539</v>
+        <v>6.1628313950142646</v>
       </c>
       <c r="C5" s="10">
-        <v>-2.2516337123791779</v>
+        <v>-6.2555278338403379</v>
       </c>
       <c r="D5" s="10">
-        <v>36.423448536027607</v>
+        <v>33.65354333528974</v>
       </c>
       <c r="E5" s="10">
-        <v>-0.45239513989135771</v>
+        <v>-1.500644041413024</v>
       </c>
       <c r="F5" s="10">
-        <v>96.967280564330338</v>
+        <v>98.306349016400745</v>
       </c>
       <c r="G5" s="10">
-        <v>2.897408563239591</v>
+        <v>1.580663179853752</v>
       </c>
       <c r="H5" s="10">
-        <v>0.13531087242997961</v>
+        <v>0.1202820584037686</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
@@ -1054,28 +1054,28 @@
         <v>6</v>
       </c>
       <c r="B6" s="10">
-        <v>12.939770244293779</v>
+        <v>8.3184482340220214</v>
       </c>
       <c r="C6" s="10">
-        <v>-0.79267311613642255</v>
+        <v>-3.3158688824674138</v>
       </c>
       <c r="D6" s="10">
-        <v>28.694411344372998</v>
+        <v>23.33824469994461</v>
       </c>
       <c r="E6" s="10">
-        <v>0.94736428310305087</v>
+        <v>-3.462193024370821</v>
       </c>
       <c r="F6" s="10">
-        <v>98.139966272893417</v>
+        <v>98.525005798063347</v>
       </c>
       <c r="G6" s="10">
-        <v>1.4415724726555761</v>
+        <v>1.274729791530911</v>
       </c>
       <c r="H6" s="10">
-        <v>0.40009124807523438</v>
+        <v>0.20026441040546261</v>
       </c>
       <c r="I6" s="10">
-        <v>2.210622524007488E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1087,28 +1087,28 @@
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>17.698118087014741</v>
+        <v>13.162402889091689</v>
       </c>
       <c r="C7" s="10">
-        <v>-1.604276687280112</v>
+        <v>-5.6138596338849052</v>
       </c>
       <c r="D7" s="10">
-        <v>36.973842341107897</v>
+        <v>35.199566196089933</v>
       </c>
       <c r="E7" s="10">
-        <v>-0.20188928511293339</v>
+        <v>-1.6985144095994911</v>
       </c>
       <c r="F7" s="10">
-        <v>91.141500575311525</v>
+        <v>92.056699549212311</v>
       </c>
       <c r="G7" s="10">
-        <v>8.7386925348323743</v>
+        <v>7.8275884104700841</v>
       </c>
       <c r="H7" s="10">
-        <v>0.1071046080948614</v>
+        <v>0.1116428013356794</v>
       </c>
       <c r="I7" s="10">
-        <v>1.2702281760808339E-2</v>
+        <v>4.069238981494307E-3</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1120,25 +1120,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="10">
-        <v>8.637482253847093</v>
+        <v>3.5233524724315082</v>
       </c>
       <c r="C8" s="10">
-        <v>-3.9770783647214771</v>
+        <v>-2.820339466969032</v>
       </c>
       <c r="D8" s="10">
-        <v>33.479847415534849</v>
+        <v>29.778899497376191</v>
       </c>
       <c r="E8" s="10">
-        <v>-2.3106787304744558</v>
+        <v>-2.3404427231349949</v>
       </c>
       <c r="F8" s="10">
-        <v>93.385863361449452</v>
+        <v>94.500969318071355</v>
       </c>
       <c r="G8" s="10">
-        <v>6.6141366385496267</v>
+        <v>5.4922207872478692</v>
       </c>
       <c r="H8" s="10">
-        <v>0</v>
+        <v>6.8098946798426322E-3</v>
       </c>
       <c r="I8" s="10">
         <v>0</v>
@@ -1153,28 +1153,28 @@
         <v>9</v>
       </c>
       <c r="B9" s="10">
-        <v>24.648288628520881</v>
+        <v>22.079325126689621</v>
       </c>
       <c r="C9" s="10">
-        <v>-2.7140639861046738</v>
+        <v>-4.9185495801532682</v>
       </c>
       <c r="D9" s="10">
-        <v>44.277979465333921</v>
+        <v>40.630163663342202</v>
       </c>
       <c r="E9" s="10">
-        <v>2.3632892491166881</v>
+        <v>-3.070402685834861</v>
       </c>
       <c r="F9" s="10">
-        <v>94.941804349250063</v>
+        <v>96.06372723388678</v>
       </c>
       <c r="G9" s="10">
-        <v>4.4569716249010707</v>
+        <v>3.481399452582759</v>
       </c>
       <c r="H9" s="10">
-        <v>0.58172072417370746</v>
+        <v>0.44838489371765322</v>
       </c>
       <c r="I9" s="10">
-        <v>1.9503301673957089E-2</v>
+        <v>1.4081411265802989E-2</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1186,25 +1186,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="10">
-        <v>13.544879842119251</v>
+        <v>10.97129026258102</v>
       </c>
       <c r="C10" s="10">
-        <v>0.38539162304203578</v>
+        <v>-4.5502882387178527</v>
       </c>
       <c r="D10" s="10">
-        <v>36.840319743847303</v>
+        <v>35.088309009380673</v>
       </c>
       <c r="E10" s="10">
-        <v>0.97674305076573398</v>
+        <v>-1.8578232138465389</v>
       </c>
       <c r="F10" s="10">
-        <v>98.299914728893597</v>
+        <v>98.127580675656361</v>
       </c>
       <c r="G10" s="10">
-        <v>1.7000852711055481</v>
+        <v>1.8364112604134231</v>
       </c>
       <c r="H10" s="10">
-        <v>0</v>
+        <v>3.600806392933352E-2</v>
       </c>
       <c r="I10" s="10">
         <v>0</v>
@@ -1219,22 +1219,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="10">
-        <v>5.0724612492848102</v>
+        <v>3.1338454700637501</v>
       </c>
       <c r="C11" s="10">
-        <v>-0.61519999999999997</v>
+        <v>-3.4893999999999998</v>
       </c>
       <c r="D11" s="10">
-        <v>35.505417833585902</v>
+        <v>35.716891647988298</v>
       </c>
       <c r="E11" s="10">
-        <v>0.5121</v>
+        <v>-0.63880000000000003</v>
       </c>
       <c r="F11" s="10">
-        <v>96.981292517005997</v>
+        <v>97.370653095842997</v>
       </c>
       <c r="G11" s="10">
-        <v>3.0187074829929998</v>
+        <v>2.6293469041559998</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1252,28 +1252,28 @@
         <v>12</v>
       </c>
       <c r="B12" s="10">
-        <v>15.949615984586501</v>
+        <v>9.2592846981043415</v>
       </c>
       <c r="C12" s="10">
-        <v>-1.0174271917180671</v>
+        <v>-6.0345576551327058</v>
       </c>
       <c r="D12" s="10">
-        <v>26.536986692103671</v>
+        <v>23.144778251630381</v>
       </c>
       <c r="E12" s="10">
-        <v>-0.62837067718475781</v>
+        <v>-2.7387311871265352</v>
       </c>
       <c r="F12" s="10">
-        <v>97.692986074516568</v>
+        <v>98.23172193747817</v>
       </c>
       <c r="G12" s="10">
-        <v>2.1098455462251149</v>
+        <v>1.653754191015298</v>
       </c>
       <c r="H12" s="10">
-        <v>0.18375506479872819</v>
+        <v>0.11410232712500511</v>
       </c>
       <c r="I12" s="10">
-        <v>1.50664126752592E-2</v>
+        <v>1.6450016633413581E-3</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1285,28 +1285,28 @@
         <v>13</v>
       </c>
       <c r="B13" s="10">
-        <v>14.139529433520289</v>
+        <v>7.5614541138623244</v>
       </c>
       <c r="C13" s="10">
-        <v>0.52062306769260758</v>
+        <v>-5.7136478901263601</v>
       </c>
       <c r="D13" s="10">
-        <v>30.588402922172751</v>
+        <v>27.142293589877131</v>
       </c>
       <c r="E13" s="10">
-        <v>0.3195662116207274</v>
+        <v>-3.1295317899604331</v>
       </c>
       <c r="F13" s="10">
-        <v>96.833075687618376</v>
+        <v>97.74314904996163</v>
       </c>
       <c r="G13" s="10">
-        <v>3.11262053294366</v>
+        <v>2.245667253612464</v>
       </c>
       <c r="H13" s="10">
-        <v>5.4303779436423942E-2</v>
+        <v>1.1183696425126141E-2</v>
       </c>
       <c r="I13" s="10">
-        <v>7.9271765689753679E-3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1318,28 +1318,28 @@
         <v>14</v>
       </c>
       <c r="B14" s="10">
-        <v>19.664375094449941</v>
+        <v>19.739144690158518</v>
       </c>
       <c r="C14" s="10">
-        <v>-2.8269987479526688</v>
+        <v>-10.823883632836431</v>
       </c>
       <c r="D14" s="10">
-        <v>19.6446584775126</v>
+        <v>19.798483163752302</v>
       </c>
       <c r="E14" s="10">
-        <v>-0.6368737142203873</v>
+        <v>-16.19414429512393</v>
       </c>
       <c r="F14" s="10">
-        <v>96.504100129477777</v>
+        <v>97.117903930131007</v>
       </c>
       <c r="G14" s="10">
-        <v>3.236944324557617</v>
+        <v>2.751091703056769</v>
       </c>
       <c r="H14" s="10">
-        <v>0.1078981441519206</v>
+        <v>2.1834061135371181E-2</v>
       </c>
       <c r="I14" s="10">
-        <v>0.15105740181268881</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1351,25 +1351,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="10">
-        <v>11.38287325877163</v>
+        <v>5.4348443980522214</v>
       </c>
       <c r="C15" s="10">
-        <v>-1.939170652820301</v>
+        <v>-4.2428955510914408</v>
       </c>
       <c r="D15" s="10">
-        <v>35.697634513666443</v>
+        <v>29.96242978309661</v>
       </c>
       <c r="E15" s="10">
-        <v>-1.7640758634868039</v>
+        <v>-3.2145522569325791</v>
       </c>
       <c r="F15" s="10">
-        <v>99.351936350646355</v>
+        <v>99.57084797601668</v>
       </c>
       <c r="G15" s="10">
-        <v>0.5503226365140147</v>
+        <v>0.35539784754199721</v>
       </c>
       <c r="H15" s="10">
-        <v>9.7741012839625274E-2</v>
+        <v>7.3754176441316543E-2</v>
       </c>
       <c r="I15" s="10">
         <v>0</v>
@@ -1384,28 +1384,28 @@
         <v>16</v>
       </c>
       <c r="B16" s="10">
-        <v>11.97722621718</v>
+        <v>8.7701414237660291</v>
       </c>
       <c r="C16" s="10">
-        <v>-1.271471999936608</v>
+        <v>-5.7866105235149901</v>
       </c>
       <c r="D16" s="10">
-        <v>39.551840537895089</v>
+        <v>37.622022661581923</v>
       </c>
       <c r="E16" s="10">
-        <v>-1.109318900702974</v>
+        <v>-2.3062091562088098</v>
       </c>
       <c r="F16" s="10">
-        <v>95.26782334748026</v>
+        <v>96.444405588038038</v>
       </c>
       <c r="G16" s="10">
-        <v>4.721702309525142</v>
+        <v>3.543338887222367</v>
       </c>
       <c r="H16" s="10">
-        <v>9.0969801528869298E-3</v>
+        <v>9.3651825551947353E-3</v>
       </c>
       <c r="I16" s="10">
-        <v>0</v>
+        <v>2.890342183549327E-3</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1417,28 +1417,28 @@
         <v>17</v>
       </c>
       <c r="B17" s="10">
-        <v>10.984553525596059</v>
+        <v>7.2638735383142778</v>
       </c>
       <c r="C17" s="10">
-        <v>-3.3469570097525092</v>
+        <v>-6.5299220310382022</v>
       </c>
       <c r="D17" s="10">
-        <v>32.37012496271312</v>
+        <v>28.345872792868541</v>
       </c>
       <c r="E17" s="10">
-        <v>-2.2306034410010449</v>
+        <v>-3.465845348723628</v>
       </c>
       <c r="F17" s="10">
-        <v>97.934028427210592</v>
+        <v>98.52847686667134</v>
       </c>
       <c r="G17" s="10">
-        <v>1.954551238266975</v>
+        <v>1.4224966370720331</v>
       </c>
       <c r="H17" s="10">
-        <v>9.9768983401594652E-2</v>
+        <v>4.9026496255886377E-2</v>
       </c>
       <c r="I17" s="10">
-        <v>1.165135111937708E-2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1450,25 +1450,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="10">
-        <v>30.30186389914136</v>
+        <v>12.397175892179851</v>
       </c>
       <c r="C18" s="10">
-        <v>9.3742973943916912</v>
+        <v>-1.312959135826796</v>
       </c>
       <c r="D18" s="10">
-        <v>40.859652619833902</v>
+        <v>33.078660005380968</v>
       </c>
       <c r="E18" s="10">
-        <v>-1.463824199213644</v>
+        <v>-0.73821453796549508</v>
       </c>
       <c r="F18" s="10">
-        <v>99.89208177272566</v>
+        <v>99.954840736387453</v>
       </c>
       <c r="G18" s="10">
-        <v>7.7084448053094626E-2</v>
+        <v>3.010682968925148E-2</v>
       </c>
       <c r="H18" s="10">
-        <v>3.083377922123786E-2</v>
+        <v>1.5287658857143281E-2</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -1483,25 +1483,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="10">
-        <v>13.59356571089144</v>
+        <v>10.63499342388546</v>
       </c>
       <c r="C19" s="10">
-        <v>-2.0207535669727532</v>
+        <v>-3.0688888687819258</v>
       </c>
       <c r="D19" s="10">
-        <v>36.686348348648657</v>
+        <v>33.253227818574203</v>
       </c>
       <c r="E19" s="10">
-        <v>-0.9754016460573175</v>
+        <v>-4.1118184555765476</v>
       </c>
       <c r="F19" s="10">
-        <v>99.284412045399421</v>
+        <v>99.335972335031414</v>
       </c>
       <c r="G19" s="10">
-        <v>0.67403717565328292</v>
+        <v>0.6223548124878141</v>
       </c>
       <c r="H19" s="10">
-        <v>4.155077894725908E-2</v>
+        <v>4.1672852480706769E-2</v>
       </c>
       <c r="I19" s="10">
         <v>0</v>
@@ -1516,28 +1516,28 @@
         <v>20</v>
       </c>
       <c r="B20" s="10">
-        <v>16.23833450811107</v>
+        <v>13.253628217428551</v>
       </c>
       <c r="C20" s="10">
-        <v>1.185623760976537</v>
+        <v>-6.2187347540173779</v>
       </c>
       <c r="D20" s="10">
-        <v>30.893189397769</v>
+        <v>23.719066317811262</v>
       </c>
       <c r="E20" s="10">
-        <v>1.6578780137289271</v>
+        <v>-2.3503800485386219</v>
       </c>
       <c r="F20" s="10">
-        <v>97.352758907946651</v>
+        <v>97.931590650353172</v>
       </c>
       <c r="G20" s="10">
-        <v>2.4791966632128042</v>
+        <v>1.968285213054878</v>
       </c>
       <c r="H20" s="10">
-        <v>0.1050277680252785</v>
+        <v>7.7874328460336401E-2</v>
       </c>
       <c r="I20" s="10">
-        <v>6.3016660815167089E-2</v>
+        <v>2.2249808131524679E-2</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1549,28 +1549,28 @@
         <v>21</v>
       </c>
       <c r="B21" s="10">
-        <v>20.718608385156362</v>
+        <v>15.01620482273071</v>
       </c>
       <c r="C21" s="10">
-        <v>-0.16942664926002751</v>
+        <v>-5.7766407826927786</v>
       </c>
       <c r="D21" s="10">
-        <v>26.243032917996722</v>
+        <v>19.131376634208959</v>
       </c>
       <c r="E21" s="10">
-        <v>1.496815851361206</v>
+        <v>-5.8974743141680479</v>
       </c>
       <c r="F21" s="10">
-        <v>98.771226099209372</v>
+        <v>99.015615335702336</v>
       </c>
       <c r="G21" s="10">
-        <v>1.018227769656066</v>
+        <v>0.85771158231079103</v>
       </c>
       <c r="H21" s="10">
-        <v>0.18577054765148171</v>
+        <v>0.1266730819865729</v>
       </c>
       <c r="I21" s="10">
-        <v>2.7528426092160382E-2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1582,25 +1582,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="10">
-        <v>19.632544991978818</v>
+        <v>19.19548496357756</v>
       </c>
       <c r="C22" s="10">
-        <v>0.1023463943541892</v>
+        <v>-0.2108013603543866</v>
       </c>
       <c r="D22" s="10">
-        <v>45.475125212681917</v>
+        <v>46.163835459051938</v>
       </c>
       <c r="E22" s="10">
-        <v>-5.0425883650920893</v>
+        <v>-4.6338535061489674</v>
       </c>
       <c r="F22" s="10">
-        <v>99.679587166224678</v>
+        <v>99.443609485916951</v>
       </c>
       <c r="G22" s="10">
-        <v>0.32041283377525592</v>
+        <v>0.53445351118294426</v>
       </c>
       <c r="H22" s="10">
-        <v>0</v>
+        <v>2.193700290002688E-2</v>
       </c>
       <c r="I22" s="10">
         <v>0</v>
@@ -1615,25 +1615,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="10">
-        <v>14.361108048371319</v>
+        <v>10.870450928434339</v>
       </c>
       <c r="C23" s="10">
-        <v>0.2115083842099392</v>
+        <v>-4.4741007492464933</v>
       </c>
       <c r="D23" s="10">
-        <v>35.49820472339735</v>
+        <v>34.474080961558919</v>
       </c>
       <c r="E23" s="10">
-        <v>0.36001137192682792</v>
+        <v>-1.0395324700290089</v>
       </c>
       <c r="F23" s="10">
-        <v>97.719175098402104</v>
+        <v>97.820021983754074</v>
       </c>
       <c r="G23" s="10">
-        <v>2.2479599894705662</v>
+        <v>2.1799780162449398</v>
       </c>
       <c r="H23" s="10">
-        <v>3.2864912126339178E-2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="10">
         <v>0</v>
@@ -1648,25 +1648,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="10">
-        <v>23.270756944123811</v>
+        <v>19.48611492645384</v>
       </c>
       <c r="C24" s="10">
-        <v>-3.8394930599281509</v>
+        <v>-6.1069460957481656</v>
       </c>
       <c r="D24" s="10">
-        <v>41.145749929165547</v>
+        <v>39.699731946037268</v>
       </c>
       <c r="E24" s="10">
-        <v>-0.20608132752978639</v>
+        <v>-1.9653781361723719</v>
       </c>
       <c r="F24" s="10">
-        <v>96.568248884931833</v>
+        <v>97.236891142537999</v>
       </c>
       <c r="G24" s="10">
-        <v>3.0937717411632768</v>
+        <v>2.545074838648449</v>
       </c>
       <c r="H24" s="10">
-        <v>0.33797937390400418</v>
+        <v>0.21803401881267009</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -1681,28 +1681,28 @@
         <v>25</v>
       </c>
       <c r="B25" s="10">
-        <v>18.70820039405103</v>
+        <v>13.97576282887378</v>
       </c>
       <c r="C25" s="10">
-        <v>-1.665310971841798</v>
+        <v>-6.3860321013510966</v>
       </c>
       <c r="D25" s="10">
-        <v>39.855854908343673</v>
+        <v>32.295761703209372</v>
       </c>
       <c r="E25" s="10">
-        <v>-1.053873715787002</v>
+        <v>-3.9828163695493459</v>
       </c>
       <c r="F25" s="10">
-        <v>97.41979655398309</v>
+        <v>98.458810447639991</v>
       </c>
       <c r="G25" s="10">
-        <v>2.4414465459286192</v>
+        <v>1.479044072587909</v>
       </c>
       <c r="H25" s="10">
-        <v>0.1218267650777962</v>
+        <v>5.4948282494407849E-2</v>
       </c>
       <c r="I25" s="10">
-        <v>1.6930135009142769E-2</v>
+        <v>7.1971972763302128E-3</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1714,28 +1714,28 @@
         <v>26</v>
       </c>
       <c r="B26" s="10">
-        <v>15.85895099050145</v>
+        <v>13.353158593686031</v>
       </c>
       <c r="C26" s="10">
-        <v>-6.8812420698179224</v>
+        <v>-3.6497724010717039</v>
       </c>
       <c r="D26" s="10">
-        <v>40.49678897844813</v>
+        <v>34.731647925047866</v>
       </c>
       <c r="E26" s="10">
-        <v>-4.6300314700678511</v>
+        <v>-3.6869393886276951</v>
       </c>
       <c r="F26" s="10">
-        <v>97.223388759742065</v>
+        <v>97.96389421332961</v>
       </c>
       <c r="G26" s="10">
-        <v>2.5621871139389811</v>
+        <v>1.930550459837727</v>
       </c>
       <c r="H26" s="10">
-        <v>0.21442412631758909</v>
+        <v>0.1002386578471095</v>
       </c>
       <c r="I26" s="10">
-        <v>0</v>
+        <v>5.3166689841890446E-3</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1747,28 +1747,28 @@
         <v>27</v>
       </c>
       <c r="B27" s="10">
-        <v>18.833196287538001</v>
+        <v>13.727797858244941</v>
       </c>
       <c r="C27" s="10">
-        <v>-1.49540591891056</v>
+        <v>-3.3030351980035961</v>
       </c>
       <c r="D27" s="10">
-        <v>27.20085471800558</v>
+        <v>27.06922612493539</v>
       </c>
       <c r="E27" s="10">
-        <v>0.74582405939759722</v>
+        <v>-1.980007123187298</v>
       </c>
       <c r="F27" s="10">
-        <v>99.097759935133524</v>
+        <v>99.223763301292053</v>
       </c>
       <c r="G27" s="10">
-        <v>0.81887928110266017</v>
+        <v>0.63595307752565744</v>
       </c>
       <c r="H27" s="10">
-        <v>3.9579689235463747E-2</v>
+        <v>0.1195009543629517</v>
       </c>
       <c r="I27" s="10">
-        <v>1.9789844617484009E-2</v>
+        <v>2.0782666818343679E-2</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1780,25 +1780,25 @@
         <v>28</v>
       </c>
       <c r="B28" s="10">
-        <v>14.2039135876883</v>
+        <v>11.85112107160368</v>
       </c>
       <c r="C28" s="10">
-        <v>-2.7462137427600402</v>
+        <v>-5.1416502376422279</v>
       </c>
       <c r="D28" s="10">
-        <v>35.494121083268219</v>
+        <v>34.22707512332677</v>
       </c>
       <c r="E28" s="10">
-        <v>-2.3500942561138269</v>
+        <v>-1.775881792085815</v>
       </c>
       <c r="F28" s="10">
-        <v>96.847632714704517</v>
+        <v>97.064589300048468</v>
       </c>
       <c r="G28" s="10">
-        <v>3.1290350674275418</v>
+        <v>2.9110147299108182</v>
       </c>
       <c r="H28" s="10">
-        <v>2.333221786785046E-2</v>
+        <v>2.4395970040639099E-2</v>
       </c>
       <c r="I28" s="10">
         <v>0</v>
@@ -1813,28 +1813,28 @@
         <v>29</v>
       </c>
       <c r="B29" s="10">
-        <v>12.074111553382849</v>
+        <v>10.12181810592805</v>
       </c>
       <c r="C29" s="10">
-        <v>-2.4046221742557989</v>
+        <v>-0.85990659772189337</v>
       </c>
       <c r="D29" s="10">
-        <v>39.133549125567299</v>
+        <v>23.5822657847385</v>
       </c>
       <c r="E29" s="10">
-        <v>-2.9907062203959112</v>
+        <v>-4.2442936557389732</v>
       </c>
       <c r="F29" s="10">
-        <v>97.582519758251976</v>
+        <v>99.256689791873143</v>
       </c>
       <c r="G29" s="10">
-        <v>2.2315202231520219</v>
+        <v>0.6937561942517344</v>
       </c>
       <c r="H29" s="10">
-        <v>9.2980009298000932E-2</v>
+        <v>4.9554013875123877E-2</v>
       </c>
       <c r="I29" s="10">
-        <v>9.2980009298000932E-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -1846,25 +1846,25 @@
         <v>30</v>
       </c>
       <c r="B30" s="10">
-        <v>10.9148801383924</v>
+        <v>11.09541106456564</v>
       </c>
       <c r="C30" s="10">
-        <v>-5.0353850433877607</v>
+        <v>-2.3737376365064851</v>
       </c>
       <c r="D30" s="10">
-        <v>30.557185804980399</v>
+        <v>31.867316425961771</v>
       </c>
       <c r="E30" s="10">
-        <v>-12.19805966349208</v>
+        <v>-3.2220167327582838</v>
       </c>
       <c r="F30" s="10">
-        <v>99.296548343510366</v>
+        <v>99.421183869068429</v>
       </c>
       <c r="G30" s="10">
-        <v>0.70345165648963115</v>
+        <v>0.55924822969700971</v>
       </c>
       <c r="H30" s="10">
-        <v>0</v>
+        <v>1.9567901234567898E-2</v>
       </c>
       <c r="I30" s="10">
         <v>0</v>
@@ -1879,25 +1879,25 @@
         <v>31</v>
       </c>
       <c r="B31" s="10">
-        <v>16.47143580424558</v>
+        <v>11.173259906296369</v>
       </c>
       <c r="C31" s="10">
-        <v>-0.97187546572028338</v>
+        <v>-5.9063451517771401</v>
       </c>
       <c r="D31" s="10">
-        <v>30.799224208628029</v>
+        <v>26.299561836743852</v>
       </c>
       <c r="E31" s="10">
-        <v>-6.2598521275555236E-2</v>
+        <v>-3.9148634990494422</v>
       </c>
       <c r="F31" s="10">
-        <v>96.925498789612675</v>
+        <v>98.437252205732477</v>
       </c>
       <c r="G31" s="10">
-        <v>3.018647043720657</v>
+        <v>1.5003072010249741</v>
       </c>
       <c r="H31" s="10">
-        <v>5.5854166666666663E-2</v>
+        <v>5.5524144156386193E-2</v>
       </c>
       <c r="I31" s="10">
         <v>0</v>
@@ -1912,28 +1912,28 @@
         <v>32</v>
       </c>
       <c r="B32" s="10">
-        <v>19.667364789073179</v>
+        <v>17.52059980486203</v>
       </c>
       <c r="C32" s="10">
-        <v>-4.1791736880902839</v>
+        <v>-6.0486822786630858</v>
       </c>
       <c r="D32" s="10">
-        <v>42.481932066276563</v>
+        <v>40.908981197278621</v>
       </c>
       <c r="E32" s="10">
-        <v>-1.0910291320911629</v>
+        <v>-1.8111333077421961</v>
       </c>
       <c r="F32" s="10">
-        <v>97.388148181506537</v>
+        <v>98.077856724956405</v>
       </c>
       <c r="G32" s="10">
-        <v>2.4619326539202619</v>
+        <v>1.7728294694974269</v>
       </c>
       <c r="H32" s="10">
-        <v>0.14991916457144919</v>
+        <v>0.14931380554442689</v>
       </c>
       <c r="I32" s="10">
-        <v>1.6657684951800339E-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1945,28 +1945,28 @@
         <v>33</v>
       </c>
       <c r="B33" s="10">
-        <v>21.73586590925639</v>
+        <v>18.69705220396969</v>
       </c>
       <c r="C33" s="10">
-        <v>-7.7506805101019871E-2</v>
+        <v>-5.0628050516117744</v>
       </c>
       <c r="D33" s="10">
-        <v>39.63716128983517</v>
+        <v>41.71440999152712</v>
       </c>
       <c r="E33" s="10">
-        <v>2.145991370504587</v>
+        <v>-0.20923585658357999</v>
       </c>
       <c r="F33" s="10">
-        <v>95.875306169291719</v>
+        <v>96.485165777060359</v>
       </c>
       <c r="G33" s="10">
-        <v>3.7580398414981828</v>
+        <v>3.2538123507550458</v>
       </c>
       <c r="H33" s="10">
-        <v>0.36339343561391713</v>
+        <v>0.26102187218403078</v>
       </c>
       <c r="I33" s="10">
-        <v>7.2679523523997772E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1978,28 +1978,28 @@
         <v>34</v>
       </c>
       <c r="B34" s="10">
-        <v>14.771321580769699</v>
+        <v>11.45233990088154</v>
       </c>
       <c r="C34" s="10">
-        <v>-3.8215271596265539</v>
+        <v>-3.7141505118308191</v>
       </c>
       <c r="D34" s="10">
-        <v>29.564633715175312</v>
+        <v>25.62621754322533</v>
       </c>
       <c r="E34" s="10">
-        <v>-3.01889865073246</v>
+        <v>-2.029140587983457</v>
       </c>
       <c r="F34" s="10">
-        <v>94.770179638322205</v>
+        <v>96.18711889189241</v>
       </c>
       <c r="G34" s="10">
-        <v>4.7411827856604063</v>
+        <v>3.691093682924405</v>
       </c>
       <c r="H34" s="10">
-        <v>0.48863757601572821</v>
+        <v>0.1217874251823515</v>
       </c>
       <c r="I34" s="10">
-        <v>9.1619545502949026E-2</v>
+        <v>3.044685629496242E-2</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2011,28 +2011,28 @@
         <v>35</v>
       </c>
       <c r="B35" s="10">
-        <v>20.882744076534429</v>
+        <v>19.800956840332962</v>
       </c>
       <c r="C35" s="10">
-        <v>-0.26803158167697722</v>
+        <v>-4.3382593889316903</v>
       </c>
       <c r="D35" s="10">
-        <v>37.008526282397327</v>
+        <v>38.064347933528389</v>
       </c>
       <c r="E35" s="10">
-        <v>1.508540129892826</v>
+        <v>-4.0779377110999349</v>
       </c>
       <c r="F35" s="10">
-        <v>95.615935666309397</v>
+        <v>96.250379040268569</v>
       </c>
       <c r="G35" s="10">
-        <v>4.0670420916601406</v>
+        <v>3.5040100067243549</v>
       </c>
       <c r="H35" s="10">
-        <v>0.31170482051830928</v>
+        <v>0.24383302605180571</v>
       </c>
       <c r="I35" s="10">
-        <v>5.3174215121358477E-3</v>
+        <v>1.77792695525607E-3</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2044,28 +2044,28 @@
         <v>36</v>
       </c>
       <c r="B36" s="10">
-        <v>20.196168927310481</v>
+        <v>17.0046533538235</v>
       </c>
       <c r="C36" s="10">
-        <v>-0.43825854900774602</v>
+        <v>-3.6056898825090382</v>
       </c>
       <c r="D36" s="10">
-        <v>33.693498459791563</v>
+        <v>27.074066910708641</v>
       </c>
       <c r="E36" s="10">
-        <v>4.1850050008625042</v>
+        <v>-2.271645323712232</v>
       </c>
       <c r="F36" s="10">
-        <v>96.786830062415802</v>
+        <v>97.651744471474089</v>
       </c>
       <c r="G36" s="10">
-        <v>2.9563303859193089</v>
+        <v>2.2665569444132569</v>
       </c>
       <c r="H36" s="10">
-        <v>0.22201406016695491</v>
+        <v>7.8301861977392251E-2</v>
       </c>
       <c r="I36" s="10">
-        <v>3.4825491497924403E-2</v>
+        <v>3.3967221352490069E-3</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2077,25 +2077,25 @@
         <v>37</v>
       </c>
       <c r="B37" s="10">
-        <v>15.452133660331089</v>
+        <v>14.84947119803193</v>
       </c>
       <c r="C37" s="10">
-        <v>-4.7398160637645619</v>
+        <v>0.30704460123107091</v>
       </c>
       <c r="D37" s="10">
-        <v>31.130122624156961</v>
+        <v>30.614396640029369</v>
       </c>
       <c r="E37" s="10">
-        <v>-4.1023543838136112</v>
+        <v>-3.5830852775720193E-2</v>
       </c>
       <c r="F37" s="10">
-        <v>99.739434879351563</v>
+        <v>99.826290110282514</v>
       </c>
       <c r="G37" s="10">
-        <v>0.23161344057639641</v>
+        <v>0.17370988971748871</v>
       </c>
       <c r="H37" s="10">
-        <v>2.895168007204954E-2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="10">
         <v>0</v>
@@ -2110,28 +2110,28 @@
         <v>38</v>
       </c>
       <c r="B38" s="10">
-        <v>16.26885638706937</v>
+        <v>13.25373376178708</v>
       </c>
       <c r="C38" s="10">
-        <v>-0.97975056965706497</v>
+        <v>-6.9958173192882427</v>
       </c>
       <c r="D38" s="10">
-        <v>35.715724725370229</v>
+        <v>24.856864268405189</v>
       </c>
       <c r="E38" s="10">
-        <v>2.411663525671897</v>
+        <v>-4.0781504122507677</v>
       </c>
       <c r="F38" s="10">
-        <v>97.501110990156192</v>
+        <v>98.149941285057409</v>
       </c>
       <c r="G38" s="10">
-        <v>2.3840484480211641</v>
+        <v>1.762475151269524</v>
       </c>
       <c r="H38" s="10">
-        <v>7.8247164704850852E-2</v>
+        <v>7.0275199026464855E-2</v>
       </c>
       <c r="I38" s="10">
-        <v>3.6593397117772958E-2</v>
+        <v>1.7308364646586829E-2</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2143,25 +2143,25 @@
         <v>39</v>
       </c>
       <c r="B39" s="10">
-        <v>10.47022913634946</v>
+        <v>4.3938163819085867</v>
       </c>
       <c r="C39" s="10">
-        <v>-2.7265830482010558</v>
+        <v>-6.3329602323925069</v>
       </c>
       <c r="D39" s="10">
-        <v>29.902272108429841</v>
+        <v>21.636222773618279</v>
       </c>
       <c r="E39" s="10">
-        <v>-4.0195560526216978E-2</v>
+        <v>-5.0676429172116162</v>
       </c>
       <c r="F39" s="10">
-        <v>99.464115076574473</v>
+        <v>99.777251450364474</v>
       </c>
       <c r="G39" s="10">
-        <v>0.47684557791882892</v>
+        <v>0.2076956786055113</v>
       </c>
       <c r="H39" s="10">
-        <v>5.9039345506684097E-2</v>
+        <v>1.505287103002321E-2</v>
       </c>
       <c r="I39" s="10">
         <v>0</v>
@@ -2176,28 +2176,28 @@
         <v>40</v>
       </c>
       <c r="B40" s="10">
-        <v>15.713863100641101</v>
+        <v>11.573986495052971</v>
       </c>
       <c r="C40" s="10">
-        <v>-0.65090676705430206</v>
+        <v>-4.3181704860409926</v>
       </c>
       <c r="D40" s="10">
-        <v>32.526573755131061</v>
+        <v>27.54421431356451</v>
       </c>
       <c r="E40" s="10">
-        <v>-0.40760360745019553</v>
+        <v>-2.608842753922274</v>
       </c>
       <c r="F40" s="10">
-        <v>96.785464965131069</v>
+        <v>97.471348739389029</v>
       </c>
       <c r="G40" s="10">
-        <v>2.78936407170375</v>
+        <v>2.027751432333357</v>
       </c>
       <c r="H40" s="10">
-        <v>0.41764445391332722</v>
+        <v>0.50089982827682689</v>
       </c>
       <c r="I40" s="10">
-        <v>2.582611995094973E-2</v>
+        <v>0</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2209,28 +2209,28 @@
         <v>41</v>
       </c>
       <c r="B41" s="10">
-        <v>13.094929792889211</v>
+        <v>10.33885747545852</v>
       </c>
       <c r="C41" s="10">
-        <v>-1.866455900741844</v>
+        <v>-5.5553164003871398</v>
       </c>
       <c r="D41" s="10">
-        <v>35.53383131255034</v>
+        <v>33.323418400087483</v>
       </c>
       <c r="E41" s="10">
-        <v>-4.9618633187772758E-2</v>
+        <v>-1.953591643871847</v>
       </c>
       <c r="F41" s="10">
-        <v>98.034065819184221</v>
+        <v>98.313612680366461</v>
       </c>
       <c r="G41" s="10">
-        <v>1.9252174632924091</v>
+        <v>1.6494950028921791</v>
       </c>
       <c r="H41" s="10">
-        <v>4.0716717521458778E-2</v>
+        <v>3.6892316739436243E-2</v>
       </c>
       <c r="I41" s="10">
-        <v>1.0179179379648261E-2</v>
+        <v>1.0148576849221739E-2</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -2242,25 +2242,25 @@
         <v>42</v>
       </c>
       <c r="B42" s="10">
-        <v>25.02</v>
+        <v>23.3</v>
       </c>
       <c r="C42" s="10">
-        <v>1.65</v>
+        <v>-2.96</v>
       </c>
       <c r="D42" s="10">
-        <v>55.37</v>
+        <v>48.87</v>
       </c>
       <c r="E42" s="10">
-        <v>3.14</v>
+        <v>-3.3</v>
       </c>
       <c r="F42" s="10">
-        <v>99.11</v>
+        <v>99.8</v>
       </c>
       <c r="G42" s="10">
-        <v>0.84</v>
+        <v>0.2</v>
       </c>
       <c r="H42" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2275,28 +2275,28 @@
         <v>43</v>
       </c>
       <c r="B43" s="10">
-        <v>20.271468715377949</v>
+        <v>13.593626445638231</v>
       </c>
       <c r="C43" s="10">
-        <v>-1.016778527259828</v>
+        <v>-7.3156240640324279</v>
       </c>
       <c r="D43" s="10">
-        <v>30.965838149733489</v>
+        <v>24.433147625925869</v>
       </c>
       <c r="E43" s="10">
-        <v>3.4189696172706352</v>
+        <v>-2.7082577976287991</v>
       </c>
       <c r="F43" s="10">
-        <v>97.990836751083805</v>
+        <v>98.70336759611375</v>
       </c>
       <c r="G43" s="10">
-        <v>1.943886749421343</v>
+        <v>1.2966324038860939</v>
       </c>
       <c r="H43" s="10">
-        <v>6.5276499494713452E-2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="10">
-        <v>9.5591431205693991E-3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -2308,25 +2308,25 @@
         <v>44</v>
       </c>
       <c r="B44" s="10">
-        <v>16.840962458262709</v>
+        <v>16.486703183031992</v>
       </c>
       <c r="C44" s="10">
-        <v>-5.5472914257898269</v>
+        <v>1.0627105142409721</v>
       </c>
       <c r="D44" s="10">
-        <v>28.293645223582459</v>
+        <v>29.34116824355273</v>
       </c>
       <c r="E44" s="10">
-        <v>-4.3604418740802284</v>
+        <v>1.415822110079763</v>
       </c>
       <c r="F44" s="10">
-        <v>99.371404130851687</v>
+        <v>99.454670675150609</v>
       </c>
       <c r="G44" s="10">
-        <v>0.55002138550476687</v>
+        <v>0.35056885168889229</v>
       </c>
       <c r="H44" s="10">
-        <v>7.8574483643538126E-2</v>
+        <v>0.19476047316049569</v>
       </c>
       <c r="I44" s="10">
         <v>0</v>
@@ -2341,28 +2341,28 @@
         <v>45</v>
       </c>
       <c r="B45" s="10">
-        <v>13.213227377147909</v>
+        <v>8.9826539447914833</v>
       </c>
       <c r="C45" s="10">
-        <v>-2.389419927952539</v>
+        <v>-6.2505978714912827</v>
       </c>
       <c r="D45" s="10">
-        <v>26.013663473515798</v>
+        <v>22.626348720995001</v>
       </c>
       <c r="E45" s="10">
-        <v>-0.63134783842070874</v>
+        <v>-2.978102819349155</v>
       </c>
       <c r="F45" s="10">
-        <v>97.735558793683694</v>
+        <v>98.330096628009613</v>
       </c>
       <c r="G45" s="10">
-        <v>2.2000944711657451</v>
+        <v>1.627831347448379</v>
       </c>
       <c r="H45" s="10">
-        <v>5.3121279495613349E-2</v>
+        <v>4.2072024540565238E-2</v>
       </c>
       <c r="I45" s="10">
-        <v>1.122545565351135E-2</v>
+        <v>0</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2374,28 +2374,28 @@
         <v>46</v>
       </c>
       <c r="B46" s="10">
-        <v>13.336931316449981</v>
+        <v>8.22393730479852</v>
       </c>
       <c r="C46" s="10">
-        <v>-1.4837363285371541</v>
+        <v>-6.8416770804292621</v>
       </c>
       <c r="D46" s="10">
-        <v>29.426538168418361</v>
+        <v>26.08107347364373</v>
       </c>
       <c r="E46" s="10">
-        <v>-0.78747084564983016</v>
+        <v>-3.4953869993493329</v>
       </c>
       <c r="F46" s="10">
-        <v>97.433377617404972</v>
+        <v>97.896260424047171</v>
       </c>
       <c r="G46" s="10">
-        <v>2.387308083797937</v>
+        <v>1.998853370705149</v>
       </c>
       <c r="H46" s="10">
-        <v>0.15354116808348409</v>
+        <v>9.3562718117744498E-2</v>
       </c>
       <c r="I46" s="10">
-        <v>2.749059554279527E-2</v>
+        <v>1.132348712933774E-2</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2407,22 +2407,22 @@
         <v>47</v>
       </c>
       <c r="B47" s="10">
-        <v>6.5020103142964096</v>
+        <v>2.2509434268044899</v>
       </c>
       <c r="C47" s="10">
-        <v>-3.7048999999999999</v>
+        <v>-3.7622</v>
       </c>
       <c r="D47" s="10">
-        <v>28.897421122286609</v>
+        <v>24.967907990612598</v>
       </c>
       <c r="E47" s="10">
-        <v>-2.7250999999999999</v>
+        <v>-3.2633999999999999</v>
       </c>
       <c r="F47" s="10">
-        <v>96.231430805315995</v>
+        <v>97.108658479713</v>
       </c>
       <c r="G47" s="10">
-        <v>3.7685691946829998</v>
+        <v>2.8913415202860002</v>
       </c>
       <c r="H47" s="10">
         <v>0</v>
@@ -2440,25 +2440,25 @@
         <v>48</v>
       </c>
       <c r="B48" s="10">
-        <v>16.146052048981591</v>
+        <v>13.05325123616608</v>
       </c>
       <c r="C48" s="10">
-        <v>-4.2064214053169309</v>
+        <v>-4.7401990181836844</v>
       </c>
       <c r="D48" s="10">
-        <v>36.839352591959269</v>
+        <v>37.151312588741227</v>
       </c>
       <c r="E48" s="10">
-        <v>-4.0398712595981712</v>
+        <v>-1.817197350439691</v>
       </c>
       <c r="F48" s="10">
-        <v>99.496276401383255</v>
+        <v>99.486931536436245</v>
       </c>
       <c r="G48" s="10">
-        <v>0.46445425605713342</v>
+        <v>0.51306846356280589</v>
       </c>
       <c r="H48" s="10">
-        <v>3.9269342558670393E-2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="10">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         <v>49</v>
       </c>
       <c r="B49" s="10">
-        <v>12.48701534108478</v>
+        <v>9.7956771846486816</v>
       </c>
       <c r="C49" s="10">
-        <v>0.73445936215159469</v>
+        <v>-4.6556899849432272</v>
       </c>
       <c r="D49" s="10">
-        <v>33.275072270202891</v>
+        <v>31.781846457216901</v>
       </c>
       <c r="E49" s="10">
-        <v>1.2528949200346691</v>
+        <v>-1.842038059590049</v>
       </c>
       <c r="F49" s="10">
-        <v>98.884344894019719</v>
+        <v>98.998146659635751</v>
       </c>
       <c r="G49" s="10">
-        <v>1.1019664117150529</v>
+        <v>0.97874869801001041</v>
       </c>
       <c r="H49" s="10">
-        <v>1.36886942638486E-2</v>
+        <v>1.616547707280026E-2</v>
       </c>
       <c r="I49" s="10">
-        <v>0</v>
+        <v>4.299002181853276E-3</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2506,28 +2506,28 @@
         <v>50</v>
       </c>
       <c r="B50" s="10">
-        <v>13.927059318721531</v>
+        <v>10.985843402831261</v>
       </c>
       <c r="C50" s="10">
-        <v>-2.2376876525095701</v>
+        <v>-4.5645700760679873</v>
       </c>
       <c r="D50" s="10">
-        <v>32.678262799679779</v>
+        <v>30.20206150562591</v>
       </c>
       <c r="E50" s="10">
-        <v>-1.3553043932242199</v>
+        <v>-2.1448982089285371</v>
       </c>
       <c r="F50" s="10">
-        <v>95.136241105421803</v>
+        <v>95.910844577286639</v>
       </c>
       <c r="G50" s="10">
-        <v>4.1617757386550318</v>
+        <v>3.14443143115153</v>
       </c>
       <c r="H50" s="10">
-        <v>0.70198315592137195</v>
+        <v>0.94472399156004228</v>
       </c>
       <c r="I50" s="10">
-        <v>1.4369882630306519E-2</v>
+        <v>0</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -2539,28 +2539,28 @@
         <v>51</v>
       </c>
       <c r="B51" s="10">
-        <v>7.0609174610628331</v>
+        <v>7.0107511869103689</v>
       </c>
       <c r="C51" s="10">
-        <v>-3.1154255500573509</v>
+        <v>-3.9372805268544471</v>
       </c>
       <c r="D51" s="10">
-        <v>26.10090505022935</v>
+        <v>22.452117445200589</v>
       </c>
       <c r="E51" s="10">
-        <v>1.210329266131376</v>
+        <v>-1.7841902845039961</v>
       </c>
       <c r="F51" s="10">
-        <v>97.550452673199686</v>
+        <v>97.664745372090991</v>
       </c>
       <c r="G51" s="10">
-        <v>2.1405099581919949</v>
+        <v>2.123739572933244</v>
       </c>
       <c r="H51" s="10">
-        <v>0.28545660393264471</v>
+        <v>0.21151505497471421</v>
       </c>
       <c r="I51" s="10">
-        <v>2.3580764674636569E-2</v>
+        <v>0</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2572,28 +2572,28 @@
         <v>52</v>
       </c>
       <c r="B52" s="10">
-        <v>13.54370240393766</v>
+        <v>10.64605483685812</v>
       </c>
       <c r="C52" s="10">
-        <v>-3.4818444496945609</v>
+        <v>-7.0610185554266716</v>
       </c>
       <c r="D52" s="10">
-        <v>45.20915752415457</v>
+        <v>39.898742075823513</v>
       </c>
       <c r="E52" s="10">
-        <v>-2.9611444845069892</v>
+        <v>-5.1108020070812223</v>
       </c>
       <c r="F52" s="10">
-        <v>94.508893458135404</v>
+        <v>95.533251973818423</v>
       </c>
       <c r="G52" s="10">
-        <v>5.3602780534340404</v>
+        <v>4.3725316250401258</v>
       </c>
       <c r="H52" s="10">
-        <v>0.13082848843051409</v>
+        <v>6.2810934094284732E-2</v>
       </c>
       <c r="I52" s="10">
-        <v>0</v>
+        <v>3.1405467047142373E-2</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2605,28 +2605,28 @@
         <v>53</v>
       </c>
       <c r="B53" s="10">
-        <v>11.77087528969745</v>
+        <v>10.547940321894609</v>
       </c>
       <c r="C53" s="10">
-        <v>-2.924122831560771</v>
+        <v>-0.12002031437441391</v>
       </c>
       <c r="D53" s="10">
-        <v>23.684881009719991</v>
+        <v>19.198256743390399</v>
       </c>
       <c r="E53" s="10">
-        <v>-6.3267234436591444</v>
+        <v>-2.850995705681314</v>
       </c>
       <c r="F53" s="10">
-        <v>98.15705128205127</v>
+        <v>99.25124792013311</v>
       </c>
       <c r="G53" s="10">
-        <v>1.762820512820513</v>
+        <v>0.74875207986688852</v>
       </c>
       <c r="H53" s="10">
         <v>0</v>
       </c>
       <c r="I53" s="10">
-        <v>8.0128205128205121E-2</v>
+        <v>0</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -2657,13 +2657,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>43911</v>
       </c>
@@ -2690,8 +2690,14 @@
       <c r="G4" s="6">
         <v>43946</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H4" s="6">
+        <v>43953</v>
+      </c>
+      <c r="I4" s="6">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>0.42452508300000003</v>
       </c>
@@ -2709,6 +2715,12 @@
       </c>
       <c r="G5" s="7">
         <v>0.39200000000000002</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.373</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A44458-5AE2-7B45-9A32-AB38DF64335C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1B888-FF06-994E-B7BC-C9B2DE275043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33460" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="37200" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -384,13 +384,13 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -420,14 +420,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>422370</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139811</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>181357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>514229</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -456,8 +456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="142875"/>
-          <a:ext cx="13211175" cy="11306175"/>
+          <a:off x="419100" y="371475"/>
+          <a:ext cx="13211175" cy="10839450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -473,14 +473,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>140782</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>613616</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>24680</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>173407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -509,8 +509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13620750" y="142875"/>
-          <a:ext cx="13220700" cy="11315700"/>
+          <a:off x="13620750" y="371475"/>
+          <a:ext cx="13220700" cy="10848975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -525,15 +525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>428146</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>440846</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>122846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>359990</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>1604</xdr:rowOff>
+      <xdr:colOff>372690</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>170858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,8 +562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="11477625"/>
-          <a:ext cx="13049250" cy="11191875"/>
+          <a:off x="438150" y="11172825"/>
+          <a:ext cx="13049250" cy="10715625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,20 +867,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="46.6640625" style="4" customWidth="1"/>
     <col min="10" max="13" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -888,62 +888,62 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
-        <v>12.15148874536521</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-5.4444136194219901</v>
-      </c>
-      <c r="D2" s="10">
-        <v>31.10191768936145</v>
-      </c>
-      <c r="E2" s="10">
-        <v>-2.7660548863211138</v>
-      </c>
-      <c r="F2" s="10">
-        <v>97.096440778841284</v>
-      </c>
-      <c r="G2" s="10">
-        <v>2.7740911081709458</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.1249291374470638</v>
-      </c>
-      <c r="I2" s="10">
-        <v>5.5328324233599293E-3</v>
+      <c r="B2" s="12">
+        <v>14.05080293056943</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.719242969232583</v>
+      </c>
+      <c r="D2" s="12">
+        <v>31.4969944062134</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.31100199731489009</v>
+      </c>
+      <c r="F2" s="12">
+        <v>97.028085850090505</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2.832191654780237</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.12615588040114159</v>
+      </c>
+      <c r="I2" s="12">
+        <v>8.2245080829237548E-3</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -954,29 +954,29 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10">
-        <v>7.4411212044975592</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-7.3354728486187586</v>
-      </c>
-      <c r="D3" s="10">
-        <v>19.17905685354425</v>
-      </c>
-      <c r="E3" s="10">
-        <v>-3.2543476363799342</v>
-      </c>
-      <c r="F3" s="10">
-        <v>98.64487113222124</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1.2401424284738971</v>
-      </c>
-      <c r="H3" s="10">
-        <v>9.4609622564742119E-2</v>
-      </c>
-      <c r="I3" s="10">
-        <v>4.1919212373919428E-2</v>
+      <c r="B3" s="12">
+        <v>7.9916233914043504</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.53246576321373362</v>
+      </c>
+      <c r="D3" s="12">
+        <v>28.61393831243479</v>
+      </c>
+      <c r="E3" s="12">
+        <v>7.9139340476276514</v>
+      </c>
+      <c r="F3" s="12">
+        <v>98.18849144018202</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.664489357155384</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.12666714644447619</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2.035205621811291E-2</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -987,28 +987,28 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
-        <v>19.88613028155299</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-16.52031935136144</v>
-      </c>
-      <c r="D4" s="10">
-        <v>27.785402088610802</v>
-      </c>
-      <c r="E4" s="10">
-        <v>-4.4796511218844763</v>
-      </c>
-      <c r="F4" s="10">
-        <v>99.78936282253818</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.21063717746182201</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="B4" s="12">
+        <v>21.523094375042959</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.365432422954638</v>
+      </c>
+      <c r="D4" s="12">
+        <v>24.706813758788378</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-2.409186244675765</v>
+      </c>
+      <c r="F4" s="12">
+        <v>99.842022116903621</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.15797788309636651</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
         <v>0</v>
       </c>
       <c r="J4" s="9"/>
@@ -1020,28 +1020,28 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
-        <v>6.1628313950142646</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-6.2555278338403379</v>
-      </c>
-      <c r="D5" s="10">
-        <v>33.65354333528974</v>
-      </c>
-      <c r="E5" s="10">
-        <v>-1.500644041413024</v>
-      </c>
-      <c r="F5" s="10">
-        <v>98.306349016400745</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1.580663179853752</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.1202820584037686</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="B5" s="12">
+        <v>5.9820081749229734</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-0.18962999398625441</v>
+      </c>
+      <c r="D5" s="12">
+        <v>32.22413052553491</v>
+      </c>
+      <c r="E5" s="12">
+        <v>-1.0464014586482631</v>
+      </c>
+      <c r="F5" s="12">
+        <v>97.84017986447347</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2.0338346689728839</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.12058773928092111</v>
+      </c>
+      <c r="I5" s="12">
         <v>0</v>
       </c>
       <c r="J5" s="9"/>
@@ -1053,28 +1053,28 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
-        <v>8.3184482340220214</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-3.3158688824674138</v>
-      </c>
-      <c r="D6" s="10">
-        <v>23.33824469994461</v>
-      </c>
-      <c r="E6" s="10">
-        <v>-3.462193024370821</v>
-      </c>
-      <c r="F6" s="10">
-        <v>98.525005798063347</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1.274729791530911</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.20026441040546261</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="B6" s="12">
+        <v>10.22108198739943</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.764612287510438</v>
+      </c>
+      <c r="D6" s="12">
+        <v>18.130530510565819</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-4.159167053999715</v>
+      </c>
+      <c r="F6" s="12">
+        <v>98.125626880649619</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.5308715186232931</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.37055752177971379</v>
+      </c>
+      <c r="I6" s="12">
         <v>0</v>
       </c>
       <c r="J6" s="9"/>
@@ -1086,29 +1086,29 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
-        <v>13.162402889091689</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-5.6138596338849052</v>
-      </c>
-      <c r="D7" s="10">
-        <v>35.199566196089933</v>
-      </c>
-      <c r="E7" s="10">
-        <v>-1.6985144095994911</v>
-      </c>
-      <c r="F7" s="10">
-        <v>92.056699549212311</v>
-      </c>
-      <c r="G7" s="10">
-        <v>7.8275884104700841</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.1116428013356794</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4.069238981494307E-3</v>
+      <c r="B7" s="12">
+        <v>17.710688607454198</v>
+      </c>
+      <c r="C7" s="12">
+        <v>4.0063699001157769</v>
+      </c>
+      <c r="D7" s="12">
+        <v>38.177521440056843</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.24239364118282</v>
+      </c>
+      <c r="F7" s="12">
+        <v>91.547013716289015</v>
+      </c>
+      <c r="G7" s="12">
+        <v>8.3535156597080498</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8.3069831277015796E-2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.5550829680838761E-2</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1119,28 +1119,28 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10">
-        <v>3.5233524724315082</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-2.820339466969032</v>
-      </c>
-      <c r="D8" s="10">
-        <v>29.778899497376191</v>
-      </c>
-      <c r="E8" s="10">
-        <v>-2.3404427231349949</v>
-      </c>
-      <c r="F8" s="10">
-        <v>94.500969318071355</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5.4922207872478692</v>
-      </c>
-      <c r="H8" s="10">
-        <v>6.8098946798426322E-3</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="B8" s="12">
+        <v>5.8376653246444894</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2.2409863850554301</v>
+      </c>
+      <c r="D8" s="12">
+        <v>29.83921209399259</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.9460827771814791E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>94.590813271806567</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5.4091867281934407</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
         <v>0</v>
       </c>
       <c r="J8" s="9"/>
@@ -1152,29 +1152,29 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10">
-        <v>22.079325126689621</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-4.9185495801532682</v>
-      </c>
-      <c r="D9" s="10">
-        <v>40.630163663342202</v>
-      </c>
-      <c r="E9" s="10">
-        <v>-3.070402685834861</v>
-      </c>
-      <c r="F9" s="10">
-        <v>96.06372723388678</v>
-      </c>
-      <c r="G9" s="10">
-        <v>3.481399452582759</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.44838489371765322</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1.4081411265802989E-2</v>
+      <c r="B9" s="12">
+        <v>20.696499745314199</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-0.99896795114087866</v>
+      </c>
+      <c r="D9" s="12">
+        <v>37.993707237498242</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-1.696761393320974</v>
+      </c>
+      <c r="F9" s="12">
+        <v>96.46234733526407</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3.1225900252669372</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.41506263946899019</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1185,28 +1185,28 @@
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
-        <v>10.97129026258102</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-4.5502882387178527</v>
-      </c>
-      <c r="D10" s="10">
-        <v>35.088309009380673</v>
-      </c>
-      <c r="E10" s="10">
-        <v>-1.8578232138465389</v>
-      </c>
-      <c r="F10" s="10">
-        <v>98.127580675656361</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1.8364112604134231</v>
-      </c>
-      <c r="H10" s="10">
-        <v>3.600806392933352E-2</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="B10" s="12">
+        <v>10.35356221775692</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-0.64310090476986204</v>
+      </c>
+      <c r="D10" s="12">
+        <v>35.096780213947859</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.679222578833412E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>98.519354838709674</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.4806451612903231</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
         <v>0</v>
       </c>
       <c r="J10" s="9"/>
@@ -1218,28 +1218,28 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10">
-        <v>3.1338454700637501</v>
-      </c>
-      <c r="C11" s="10">
-        <v>-3.4893999999999998</v>
-      </c>
-      <c r="D11" s="10">
-        <v>35.716891647988298</v>
-      </c>
-      <c r="E11" s="10">
-        <v>-0.63880000000000003</v>
-      </c>
-      <c r="F11" s="10">
-        <v>97.370653095842997</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2.6293469041559998</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="B11" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D11" s="12">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-0.5</v>
+      </c>
+      <c r="F11" s="12">
+        <v>97.1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
         <v>0</v>
       </c>
       <c r="J11" s="9"/>
@@ -1251,29 +1251,29 @@
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10">
-        <v>9.2592846981043415</v>
-      </c>
-      <c r="C12" s="10">
-        <v>-6.0345576551327058</v>
-      </c>
-      <c r="D12" s="10">
-        <v>23.144778251630381</v>
-      </c>
-      <c r="E12" s="10">
-        <v>-2.7387311871265352</v>
-      </c>
-      <c r="F12" s="10">
-        <v>98.23172193747817</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1.653754191015298</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.11410232712500511</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1.6450016633413581E-3</v>
+      <c r="B12" s="12">
+        <v>11.70997935437417</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2.2446363790127881</v>
+      </c>
+      <c r="D12" s="12">
+        <v>23.65662762208817</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.37464038600652733</v>
+      </c>
+      <c r="F12" s="12">
+        <v>98.106275067727466</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1.7566225970228391</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.13161565613200771</v>
+      </c>
+      <c r="I12" s="12">
+        <v>5.4866791176883499E-3</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1284,29 +1284,29 @@
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10">
-        <v>7.5614541138623244</v>
-      </c>
-      <c r="C13" s="10">
-        <v>-5.7136478901263601</v>
-      </c>
-      <c r="D13" s="10">
-        <v>27.142293589877131</v>
-      </c>
-      <c r="E13" s="10">
-        <v>-3.1295317899604331</v>
-      </c>
-      <c r="F13" s="10">
-        <v>97.74314904996163</v>
-      </c>
-      <c r="G13" s="10">
-        <v>2.245667253612464</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1.1183696425126141E-2</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
+      <c r="B13" s="12">
+        <v>6.6677652666820943</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-0.76447748117741909</v>
+      </c>
+      <c r="D13" s="12">
+        <v>26.793530228043959</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-0.28383782232347993</v>
+      </c>
+      <c r="F13" s="12">
+        <v>98.078048086867867</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1.9111413036982079</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3.6035364779692281E-3</v>
+      </c>
+      <c r="I13" s="12">
+        <v>7.2070729559384553E-3</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1317,29 +1317,29 @@
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10">
-        <v>19.739144690158518</v>
-      </c>
-      <c r="C14" s="10">
-        <v>-10.823883632836431</v>
-      </c>
-      <c r="D14" s="10">
-        <v>19.798483163752302</v>
-      </c>
-      <c r="E14" s="10">
-        <v>-16.19414429512393</v>
-      </c>
-      <c r="F14" s="10">
-        <v>97.117903930131007</v>
-      </c>
-      <c r="G14" s="10">
-        <v>2.751091703056769</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2.1834061135371181E-2</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.1091703056768559</v>
+      <c r="B14" s="12">
+        <v>26.988966567360869</v>
+      </c>
+      <c r="C14" s="12">
+        <v>6.0546798592576279</v>
+      </c>
+      <c r="D14" s="12">
+        <v>18.095816708442229</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-1.421275470560601</v>
+      </c>
+      <c r="F14" s="12">
+        <v>97.693646649260231</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2.1105308964316798</v>
+      </c>
+      <c r="H14" s="12">
+        <v>8.7032201914708437E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.10879025239338561</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1350,29 +1350,29 @@
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10">
-        <v>5.4348443980522214</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-4.2428955510914408</v>
-      </c>
-      <c r="D15" s="10">
-        <v>29.96242978309661</v>
-      </c>
-      <c r="E15" s="10">
-        <v>-3.2145522569325791</v>
-      </c>
-      <c r="F15" s="10">
-        <v>99.57084797601668</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.35539784754199721</v>
-      </c>
-      <c r="H15" s="10">
-        <v>7.3754176441316543E-2</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
+      <c r="B15" s="12">
+        <v>8.6952451946363372</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3.077302403628464</v>
+      </c>
+      <c r="D15" s="12">
+        <v>30.895731176394399</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.6841260306202791</v>
+      </c>
+      <c r="F15" s="12">
+        <v>99.495100013506743</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.4551799023988834</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2.5732488597845569E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>2.398759549652239E-2</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1383,29 +1383,29 @@
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10">
-        <v>8.7701414237660291</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-5.7866105235149901</v>
-      </c>
-      <c r="D16" s="10">
-        <v>37.622022661581923</v>
-      </c>
-      <c r="E16" s="10">
-        <v>-2.3062091562088098</v>
-      </c>
-      <c r="F16" s="10">
-        <v>96.444405588038038</v>
-      </c>
-      <c r="G16" s="10">
-        <v>3.543338887222367</v>
-      </c>
-      <c r="H16" s="10">
-        <v>9.3651825551947353E-3</v>
-      </c>
-      <c r="I16" s="10">
-        <v>2.890342183549327E-3</v>
+      <c r="B16" s="12">
+        <v>10.762228800678001</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1.808922108912236</v>
+      </c>
+      <c r="D16" s="12">
+        <v>37.611479156233337</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.8887788828564149E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>96.854281323199615</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3.1426343481175869</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3.084328682793E-3</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1416,29 +1416,29 @@
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10">
-        <v>7.2638735383142778</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-6.5299220310382022</v>
-      </c>
-      <c r="D17" s="10">
-        <v>28.345872792868541</v>
-      </c>
-      <c r="E17" s="10">
-        <v>-3.465845348723628</v>
-      </c>
-      <c r="F17" s="10">
-        <v>98.52847686667134</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1.4224966370720331</v>
-      </c>
-      <c r="H17" s="10">
-        <v>4.9026496255886377E-2</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
+      <c r="B17" s="12">
+        <v>9.3128574094225627</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.9457144616645361</v>
+      </c>
+      <c r="D17" s="12">
+        <v>29.26537938955374</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.71830570728488552</v>
+      </c>
+      <c r="F17" s="12">
+        <v>98.49680305171573</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.4420810456816671</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5.5004312342344118E-2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>6.1115902602604556E-3</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1449,28 +1449,28 @@
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="10">
-        <v>12.397175892179851</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-1.312959135826796</v>
-      </c>
-      <c r="D18" s="10">
-        <v>33.078660005380968</v>
-      </c>
-      <c r="E18" s="10">
-        <v>-0.73821453796549508</v>
-      </c>
-      <c r="F18" s="10">
-        <v>99.954840736387453</v>
-      </c>
-      <c r="G18" s="10">
-        <v>3.010682968925148E-2</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1.5287658857143281E-2</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="B18" s="12">
+        <v>13.66548075587575</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.1273095670617259</v>
+      </c>
+      <c r="D18" s="12">
+        <v>31.6963527610149</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-1.0455510949970761</v>
+      </c>
+      <c r="F18" s="12">
+        <v>99.95477941199961</v>
+      </c>
+      <c r="G18" s="12">
+        <v>4.5455812934255622E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
@@ -1482,28 +1482,28 @@
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10">
-        <v>10.63499342388546</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-3.0688888687819258</v>
-      </c>
-      <c r="D19" s="10">
-        <v>33.253227818574203</v>
-      </c>
-      <c r="E19" s="10">
-        <v>-4.1118184555765476</v>
-      </c>
-      <c r="F19" s="10">
-        <v>99.335972335031414</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.6223548124878141</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="B19" s="12">
+        <v>12.578422628004819</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1.8015799817574121</v>
+      </c>
+      <c r="D19" s="12">
+        <v>32.981082841102982</v>
+      </c>
+      <c r="E19" s="12">
+        <v>-0.2097550480282849</v>
+      </c>
+      <c r="F19" s="12">
+        <v>99.226481555434475</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.73184559208481592</v>
+      </c>
+      <c r="H19" s="12">
         <v>4.1672852480706769E-2</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="12">
         <v>0</v>
       </c>
       <c r="J19" s="9"/>
@@ -1515,29 +1515,29 @@
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="10">
-        <v>13.253628217428551</v>
-      </c>
-      <c r="C20" s="10">
-        <v>-6.2187347540173779</v>
-      </c>
-      <c r="D20" s="10">
-        <v>23.719066317811262</v>
-      </c>
-      <c r="E20" s="10">
-        <v>-2.3503800485386219</v>
-      </c>
-      <c r="F20" s="10">
-        <v>97.931590650353172</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1.968285213054878</v>
-      </c>
-      <c r="H20" s="10">
-        <v>7.7874328460336401E-2</v>
-      </c>
-      <c r="I20" s="10">
-        <v>2.2249808131524679E-2</v>
+      <c r="B20" s="12">
+        <v>15.05968798890275</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1.6006498232554489</v>
+      </c>
+      <c r="D20" s="12">
+        <v>24.760703362741019</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.8622335228564707</v>
+      </c>
+      <c r="F20" s="12">
+        <v>98.079890218938843</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.7868347592597931</v>
+      </c>
+      <c r="H20" s="12">
+        <v>9.9956266351016218E-2</v>
+      </c>
+      <c r="I20" s="12">
+        <v>3.3318755450338737E-2</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1548,28 +1548,28 @@
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10">
-        <v>15.01620482273071</v>
-      </c>
-      <c r="C21" s="10">
-        <v>-5.7766407826927786</v>
-      </c>
-      <c r="D21" s="10">
-        <v>19.131376634208959</v>
-      </c>
-      <c r="E21" s="10">
-        <v>-5.8974743141680479</v>
-      </c>
-      <c r="F21" s="10">
-        <v>99.015615335702336</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.85771158231079103</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.1266730819865729</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="B21" s="12">
+        <v>13.792830292849761</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-1.167482837812716</v>
+      </c>
+      <c r="D21" s="12">
+        <v>18.674213345906551</v>
+      </c>
+      <c r="E21" s="12">
+        <v>-0.45510119329634607</v>
+      </c>
+      <c r="F21" s="12">
+        <v>98.97369324127888</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.95282156335283585</v>
+      </c>
+      <c r="H21" s="12">
+        <v>7.348519536827143E-2</v>
+      </c>
+      <c r="I21" s="12">
         <v>0</v>
       </c>
       <c r="J21" s="9"/>
@@ -1581,28 +1581,28 @@
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10">
-        <v>19.19548496357756</v>
-      </c>
-      <c r="C22" s="10">
-        <v>-0.2108013603543866</v>
-      </c>
-      <c r="D22" s="10">
-        <v>46.163835459051938</v>
-      </c>
-      <c r="E22" s="10">
-        <v>-4.6338535061489674</v>
-      </c>
-      <c r="F22" s="10">
-        <v>99.443609485916951</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.53445351118294426</v>
-      </c>
-      <c r="H22" s="10">
-        <v>2.193700290002688E-2</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="B22" s="12">
+        <v>18.405162976407009</v>
+      </c>
+      <c r="C22" s="12">
+        <v>-0.65892469389844399</v>
+      </c>
+      <c r="D22" s="12">
+        <v>44.959757296005179</v>
+      </c>
+      <c r="E22" s="12">
+        <v>-0.82024333713724729</v>
+      </c>
+      <c r="F22" s="12">
+        <v>99.558644958005473</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.44135504199452719</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
         <v>0</v>
       </c>
       <c r="J22" s="9"/>
@@ -1614,29 +1614,29 @@
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10">
-        <v>10.870450928434339</v>
-      </c>
-      <c r="C23" s="10">
-        <v>-4.4741007492464933</v>
-      </c>
-      <c r="D23" s="10">
-        <v>34.474080961558919</v>
-      </c>
-      <c r="E23" s="10">
-        <v>-1.0395324700290089</v>
-      </c>
-      <c r="F23" s="10">
-        <v>97.820021983754074</v>
-      </c>
-      <c r="G23" s="10">
-        <v>2.1799780162449398</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0</v>
+      <c r="B23" s="12">
+        <v>10.21315922974569</v>
+      </c>
+      <c r="C23" s="12">
+        <v>-0.59592756613989362</v>
+      </c>
+      <c r="D23" s="12">
+        <v>33.804351487491118</v>
+      </c>
+      <c r="E23" s="12">
+        <v>-0.50502511902411307</v>
+      </c>
+      <c r="F23" s="12">
+        <v>98.089189990160861</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1.9042901004066051</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>6.5199094325307906E-3</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1647,28 +1647,28 @@
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="10">
-        <v>19.48611492645384</v>
-      </c>
-      <c r="C24" s="10">
-        <v>-6.1069460957481656</v>
-      </c>
-      <c r="D24" s="10">
-        <v>39.699731946037268</v>
-      </c>
-      <c r="E24" s="10">
-        <v>-1.9653781361723719</v>
-      </c>
-      <c r="F24" s="10">
-        <v>97.236891142537999</v>
-      </c>
-      <c r="G24" s="10">
-        <v>2.545074838648449</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.21803401881267009</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="B24" s="12">
+        <v>21.228017795924249</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1.538787578020584</v>
+      </c>
+      <c r="D24" s="12">
+        <v>40.631848854117877</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.63027220210794854</v>
+      </c>
+      <c r="F24" s="12">
+        <v>97.152124761284</v>
+      </c>
+      <c r="G24" s="12">
+        <v>2.4802531244968029</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.27833785232410357</v>
+      </c>
+      <c r="I24" s="12">
         <v>0</v>
       </c>
       <c r="J24" s="9"/>
@@ -1680,29 +1680,29 @@
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="10">
-        <v>13.97576282887378</v>
-      </c>
-      <c r="C25" s="10">
-        <v>-6.3860321013510966</v>
-      </c>
-      <c r="D25" s="10">
-        <v>32.295761703209372</v>
-      </c>
-      <c r="E25" s="10">
-        <v>-3.9828163695493459</v>
-      </c>
-      <c r="F25" s="10">
-        <v>98.458810447639991</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1.479044072587909</v>
-      </c>
-      <c r="H25" s="10">
-        <v>5.4948282494407849E-2</v>
-      </c>
-      <c r="I25" s="10">
-        <v>7.1971972763302128E-3</v>
+      <c r="B25" s="12">
+        <v>16.664528196838418</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2.407631148040057</v>
+      </c>
+      <c r="D25" s="12">
+        <v>34.75234289763754</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1.8776824309229421</v>
+      </c>
+      <c r="F25" s="12">
+        <v>98.327495946734899</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1.643719087241637</v>
+      </c>
+      <c r="H25" s="12">
+        <v>2.878496602345975E-2</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1713,29 +1713,29 @@
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="10">
-        <v>13.353158593686031</v>
-      </c>
-      <c r="C26" s="10">
-        <v>-3.6497724010717039</v>
-      </c>
-      <c r="D26" s="10">
-        <v>34.731647925047866</v>
-      </c>
-      <c r="E26" s="10">
-        <v>-3.6869393886276951</v>
-      </c>
-      <c r="F26" s="10">
-        <v>97.96389421332961</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1.930550459837727</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.1002386578471095</v>
-      </c>
-      <c r="I26" s="10">
-        <v>5.3166689841890446E-3</v>
+      <c r="B26" s="12">
+        <v>17.35367778913006</v>
+      </c>
+      <c r="C26" s="12">
+        <v>3.5815759635213391</v>
+      </c>
+      <c r="D26" s="12">
+        <v>36.921821747708449</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1.527801262301042</v>
+      </c>
+      <c r="F26" s="12">
+        <v>98.041755869611706</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1.857345064680415</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.10089906570787679</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1746,29 +1746,29 @@
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="10">
-        <v>13.727797858244941</v>
-      </c>
-      <c r="C27" s="10">
-        <v>-3.3030351980035961</v>
-      </c>
-      <c r="D27" s="10">
-        <v>27.06922612493539</v>
-      </c>
-      <c r="E27" s="10">
-        <v>-1.980007123187298</v>
-      </c>
-      <c r="F27" s="10">
-        <v>99.223763301292053</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0.63595307752565744</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0.1195009543629517</v>
-      </c>
-      <c r="I27" s="10">
-        <v>2.0782666818343679E-2</v>
+      <c r="B27" s="12">
+        <v>14.65414926312997</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.83223263482476639</v>
+      </c>
+      <c r="D27" s="12">
+        <v>24.681672209847012</v>
+      </c>
+      <c r="E27" s="12">
+        <v>-1.7280116316320571</v>
+      </c>
+      <c r="F27" s="12">
+        <v>99.259717036867471</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.69879778016762062</v>
+      </c>
+      <c r="H27" s="12">
+        <v>7.0335511836440393E-2</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2.0742591482458089E-2</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1779,28 +1779,28 @@
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="10">
-        <v>11.85112107160368</v>
-      </c>
-      <c r="C28" s="10">
-        <v>-5.1416502376422279</v>
-      </c>
-      <c r="D28" s="10">
-        <v>34.22707512332677</v>
-      </c>
-      <c r="E28" s="10">
-        <v>-1.775881792085815</v>
-      </c>
-      <c r="F28" s="10">
-        <v>97.064589300048468</v>
-      </c>
-      <c r="G28" s="10">
-        <v>2.9110147299108182</v>
-      </c>
-      <c r="H28" s="10">
-        <v>2.4395970040639099E-2</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="B28" s="12">
+        <v>15.851222957159511</v>
+      </c>
+      <c r="C28" s="12">
+        <v>3.5708701084754968</v>
+      </c>
+      <c r="D28" s="12">
+        <v>31.27712631109592</v>
+      </c>
+      <c r="E28" s="12">
+        <v>-2.1683833746030379</v>
+      </c>
+      <c r="F28" s="12">
+        <v>97.468562356638742</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2.4836334658030612</v>
+      </c>
+      <c r="H28" s="12">
+        <v>4.7804177558195493E-2</v>
+      </c>
+      <c r="I28" s="12">
         <v>0</v>
       </c>
       <c r="J28" s="9"/>
@@ -1812,29 +1812,29 @@
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="10">
-        <v>10.12181810592805</v>
-      </c>
-      <c r="C29" s="10">
-        <v>-0.85990659772189337</v>
-      </c>
-      <c r="D29" s="10">
-        <v>23.5822657847385</v>
-      </c>
-      <c r="E29" s="10">
-        <v>-4.2442936557389732</v>
-      </c>
-      <c r="F29" s="10">
-        <v>99.256689791873143</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0.6937561942517344</v>
-      </c>
-      <c r="H29" s="10">
-        <v>4.9554013875123877E-2</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
+      <c r="B29" s="12">
+        <v>15.172543045900721</v>
+      </c>
+      <c r="C29" s="12">
+        <v>4.5864888782659596</v>
+      </c>
+      <c r="D29" s="12">
+        <v>25.730378947180469</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1.73820503192883</v>
+      </c>
+      <c r="F29" s="12">
+        <v>97.630799605133262</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2.2211253701875622</v>
+      </c>
+      <c r="H29" s="12">
+        <v>9.8716683119447174E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>4.9358341559723587E-2</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -1845,28 +1845,28 @@
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="10">
-        <v>11.09541106456564</v>
-      </c>
-      <c r="C30" s="10">
-        <v>-2.3737376365064851</v>
-      </c>
-      <c r="D30" s="10">
-        <v>31.867316425961771</v>
-      </c>
-      <c r="E30" s="10">
-        <v>-3.2220167327582838</v>
-      </c>
-      <c r="F30" s="10">
-        <v>99.421183869068429</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0.55924822969700971</v>
-      </c>
-      <c r="H30" s="10">
-        <v>1.9567901234567898E-2</v>
-      </c>
-      <c r="I30" s="10">
+      <c r="B30" s="12">
+        <v>11.51191112137594</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.45394523623918143</v>
+      </c>
+      <c r="D30" s="12">
+        <v>29.55395471964037</v>
+      </c>
+      <c r="E30" s="12">
+        <v>-1.5771456194372839</v>
+      </c>
+      <c r="F30" s="12">
+        <v>99.486341569846729</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.49411820026821801</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1.9540229885057471E-2</v>
+      </c>
+      <c r="I30" s="12">
         <v>0</v>
       </c>
       <c r="J30" s="9"/>
@@ -1878,29 +1878,29 @@
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="10">
-        <v>11.173259906296369</v>
-      </c>
-      <c r="C31" s="10">
-        <v>-5.9063451517771401</v>
-      </c>
-      <c r="D31" s="10">
-        <v>26.299561836743852</v>
-      </c>
-      <c r="E31" s="10">
-        <v>-3.9148634990494422</v>
-      </c>
-      <c r="F31" s="10">
-        <v>98.437252205732477</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1.5003072010249741</v>
-      </c>
-      <c r="H31" s="10">
-        <v>5.5524144156386193E-2</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0</v>
+      <c r="B31" s="12">
+        <v>11.6158720694977</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.36536791567036841</v>
+      </c>
+      <c r="D31" s="12">
+        <v>27.367764262442801</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.8444314268185974</v>
+      </c>
+      <c r="F31" s="12">
+        <v>97.477883555608983</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2.438401887669309</v>
+      </c>
+      <c r="H31" s="12">
+        <v>5.5395607655254538E-2</v>
+      </c>
+      <c r="I31" s="12">
+        <v>2.8318949066452041E-2</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -1911,28 +1911,28 @@
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="10">
-        <v>17.52059980486203</v>
-      </c>
-      <c r="C32" s="10">
-        <v>-6.0486822786630858</v>
-      </c>
-      <c r="D32" s="10">
-        <v>40.908981197278621</v>
-      </c>
-      <c r="E32" s="10">
-        <v>-1.8111333077421961</v>
-      </c>
-      <c r="F32" s="10">
-        <v>98.077856724956405</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1.7728294694974269</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0.14931380554442689</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="B32" s="12">
+        <v>20.48894295673594</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2.5623216515682752</v>
+      </c>
+      <c r="D32" s="12">
+        <v>41.926808524758847</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.70182566490513676</v>
+      </c>
+      <c r="F32" s="12">
+        <v>97.986130568786777</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1.8387503502381619</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.17511908097506301</v>
+      </c>
+      <c r="I32" s="12">
         <v>0</v>
       </c>
       <c r="J32" s="9"/>
@@ -1944,29 +1944,29 @@
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="10">
-        <v>18.69705220396969</v>
-      </c>
-      <c r="C33" s="10">
-        <v>-5.0628050516117744</v>
-      </c>
-      <c r="D33" s="10">
-        <v>41.71440999152712</v>
-      </c>
-      <c r="E33" s="10">
-        <v>-0.20923585658357999</v>
-      </c>
-      <c r="F33" s="10">
-        <v>96.485165777060359</v>
-      </c>
-      <c r="G33" s="10">
-        <v>3.2538123507550458</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0.26102187218403078</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0</v>
+      <c r="B33" s="12">
+        <v>18.693099357995639</v>
+      </c>
+      <c r="C33" s="12">
+        <v>4.592095718829059E-2</v>
+      </c>
+      <c r="D33" s="12">
+        <v>42.063654570361287</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.26352690053433298</v>
+      </c>
+      <c r="F33" s="12">
+        <v>96.776415141780774</v>
+      </c>
+      <c r="G33" s="12">
+        <v>3.0260159812759659</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0.1943331130304182</v>
+      </c>
+      <c r="I33" s="12">
+        <v>3.235763912846443E-3</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1977,29 +1977,29 @@
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="10">
-        <v>11.45233990088154</v>
-      </c>
-      <c r="C34" s="10">
-        <v>-3.7141505118308191</v>
-      </c>
-      <c r="D34" s="10">
-        <v>25.62621754322533</v>
-      </c>
-      <c r="E34" s="10">
-        <v>-2.029140587983457</v>
-      </c>
-      <c r="F34" s="10">
-        <v>96.18711889189241</v>
-      </c>
-      <c r="G34" s="10">
-        <v>3.691093682924405</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0.1217874251823515</v>
-      </c>
-      <c r="I34" s="10">
-        <v>3.044685629496242E-2</v>
+      <c r="B34" s="12">
+        <v>14.707122129841959</v>
+      </c>
+      <c r="C34" s="12">
+        <v>2.9357630225175342</v>
+      </c>
+      <c r="D34" s="12">
+        <v>27.366897200281151</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1.4073141013197279</v>
+      </c>
+      <c r="F34" s="12">
+        <v>96.008701420636797</v>
+      </c>
+      <c r="G34" s="12">
+        <v>3.7408464997971911</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.25045207956600363</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2010,29 +2010,29 @@
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="10">
-        <v>19.800956840332962</v>
-      </c>
-      <c r="C35" s="10">
-        <v>-4.3382593889316903</v>
-      </c>
-      <c r="D35" s="10">
-        <v>38.064347933528389</v>
-      </c>
-      <c r="E35" s="10">
-        <v>-4.0779377110999349</v>
-      </c>
-      <c r="F35" s="10">
-        <v>96.250379040268569</v>
-      </c>
-      <c r="G35" s="10">
-        <v>3.5040100067243549</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.24383302605180571</v>
-      </c>
-      <c r="I35" s="10">
-        <v>1.77792695525607E-3</v>
+      <c r="B35" s="12">
+        <v>18.80057064138542</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-0.82577803902827451</v>
+      </c>
+      <c r="D35" s="12">
+        <v>36.628956292865666</v>
+      </c>
+      <c r="E35" s="12">
+        <v>-1.035353198279491</v>
+      </c>
+      <c r="F35" s="12">
+        <v>96.273933628051225</v>
+      </c>
+      <c r="G35" s="12">
+        <v>3.5480580457758562</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.17273966089096529</v>
+      </c>
+      <c r="I35" s="12">
+        <v>5.2686652819504652E-3</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2043,29 +2043,29 @@
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="10">
-        <v>17.0046533538235</v>
-      </c>
-      <c r="C36" s="10">
-        <v>-3.6056898825090382</v>
-      </c>
-      <c r="D36" s="10">
-        <v>27.074066910708641</v>
-      </c>
-      <c r="E36" s="10">
-        <v>-2.271645323712232</v>
-      </c>
-      <c r="F36" s="10">
-        <v>97.651744471474089</v>
-      </c>
-      <c r="G36" s="10">
-        <v>2.2665569444132569</v>
-      </c>
-      <c r="H36" s="10">
-        <v>7.8301861977392251E-2</v>
-      </c>
-      <c r="I36" s="10">
-        <v>3.3967221352490069E-3</v>
+      <c r="B36" s="12">
+        <v>18.19713952439573</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1.0230085698391671</v>
+      </c>
+      <c r="D36" s="12">
+        <v>24.763401774078869</v>
+      </c>
+      <c r="E36" s="12">
+        <v>-1.8152118806242881</v>
+      </c>
+      <c r="F36" s="12">
+        <v>97.568839892599456</v>
+      </c>
+      <c r="G36" s="12">
+        <v>2.336051724237532</v>
+      </c>
+      <c r="H36" s="12">
+        <v>9.171791592274206E-2</v>
+      </c>
+      <c r="I36" s="12">
+        <v>3.390467240279864E-3</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2076,28 +2076,28 @@
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="10">
-        <v>14.84947119803193</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.30704460123107091</v>
-      </c>
-      <c r="D37" s="10">
-        <v>30.614396640029369</v>
-      </c>
-      <c r="E37" s="10">
-        <v>-3.5830852775720193E-2</v>
-      </c>
-      <c r="F37" s="10">
-        <v>99.826290110282514</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.17370988971748871</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10">
+      <c r="B37" s="12">
+        <v>14.305827541949609</v>
+      </c>
+      <c r="C37" s="12">
+        <v>-2.1564893838223069</v>
+      </c>
+      <c r="D37" s="12">
+        <v>29.884851488578398</v>
+      </c>
+      <c r="E37" s="12">
+        <v>-1.8009226525845761</v>
+      </c>
+      <c r="F37" s="12">
+        <v>99.88434423717095</v>
+      </c>
+      <c r="G37" s="12">
+        <v>8.6741822121793183E-2</v>
+      </c>
+      <c r="H37" s="12">
+        <v>2.8913940707264399E-2</v>
+      </c>
+      <c r="I37" s="12">
         <v>0</v>
       </c>
       <c r="J37" s="9"/>
@@ -2109,29 +2109,29 @@
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="10">
-        <v>13.25373376178708</v>
-      </c>
-      <c r="C38" s="10">
-        <v>-6.9958173192882427</v>
-      </c>
-      <c r="D38" s="10">
-        <v>24.856864268405189</v>
-      </c>
-      <c r="E38" s="10">
-        <v>-4.0781504122507677</v>
-      </c>
-      <c r="F38" s="10">
-        <v>98.149941285057409</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1.762475151269524</v>
-      </c>
-      <c r="H38" s="10">
-        <v>7.0275199026464855E-2</v>
-      </c>
-      <c r="I38" s="10">
-        <v>1.7308364646586829E-2</v>
+      <c r="B38" s="12">
+        <v>13.688236292682319</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0.38294900658852282</v>
+      </c>
+      <c r="D38" s="12">
+        <v>24.466210039179391</v>
+      </c>
+      <c r="E38" s="12">
+        <v>-0.30681329016415282</v>
+      </c>
+      <c r="F38" s="12">
+        <v>98.25469709756392</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1.6648363229339891</v>
+      </c>
+      <c r="H38" s="12">
+        <v>7.3558035620678544E-2</v>
+      </c>
+      <c r="I38" s="12">
+        <v>6.9085438814193781E-3</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2142,28 +2142,28 @@
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="10">
-        <v>4.3938163819085867</v>
-      </c>
-      <c r="C39" s="10">
-        <v>-6.3329602323925069</v>
-      </c>
-      <c r="D39" s="10">
-        <v>21.636222773618279</v>
-      </c>
-      <c r="E39" s="10">
-        <v>-5.0676429172116162</v>
-      </c>
-      <c r="F39" s="10">
-        <v>99.777251450364474</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0.2076956786055113</v>
-      </c>
-      <c r="H39" s="10">
-        <v>1.505287103002321E-2</v>
-      </c>
-      <c r="I39" s="10">
+      <c r="B39" s="12">
+        <v>7.3626751401009276</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2.8278261766819379</v>
+      </c>
+      <c r="D39" s="12">
+        <v>18.8725323885898</v>
+      </c>
+      <c r="E39" s="12">
+        <v>-2.29801298868726</v>
+      </c>
+      <c r="F39" s="12">
+        <v>99.73449401149611</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.25067785742093568</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1.4828131082968829E-2</v>
+      </c>
+      <c r="I39" s="12">
         <v>0</v>
       </c>
       <c r="J39" s="9"/>
@@ -2175,29 +2175,29 @@
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="10">
-        <v>11.573986495052971</v>
-      </c>
-      <c r="C40" s="10">
-        <v>-4.3181704860409926</v>
-      </c>
-      <c r="D40" s="10">
-        <v>27.54421431356451</v>
-      </c>
-      <c r="E40" s="10">
-        <v>-2.608842753922274</v>
-      </c>
-      <c r="F40" s="10">
-        <v>97.471348739389029</v>
-      </c>
-      <c r="G40" s="10">
-        <v>2.027751432333357</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0.50089982827682689</v>
-      </c>
-      <c r="I40" s="10">
-        <v>0</v>
+      <c r="B40" s="12">
+        <v>16.632028302607338</v>
+      </c>
+      <c r="C40" s="12">
+        <v>4.5627134210968006</v>
+      </c>
+      <c r="D40" s="12">
+        <v>29.618551034794859</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1.635409402650259</v>
+      </c>
+      <c r="F40" s="12">
+        <v>96.89962082035224</v>
+      </c>
+      <c r="G40" s="12">
+        <v>2.4303108522065049</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.74119742897027385</v>
+      </c>
+      <c r="I40" s="12">
+        <v>8.4196262674156308E-3</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2208,29 +2208,29 @@
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="10">
-        <v>10.33885747545852</v>
-      </c>
-      <c r="C41" s="10">
-        <v>-5.5553164003871398</v>
-      </c>
-      <c r="D41" s="10">
-        <v>33.323418400087483</v>
-      </c>
-      <c r="E41" s="10">
-        <v>-1.953591643871847</v>
-      </c>
-      <c r="F41" s="10">
-        <v>98.313612680366461</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1.6494950028921791</v>
-      </c>
-      <c r="H41" s="10">
-        <v>3.6892316739436243E-2</v>
-      </c>
-      <c r="I41" s="10">
-        <v>1.0148576849221739E-2</v>
+      <c r="B41" s="12">
+        <v>10.46519878673614</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0.17071945358346319</v>
+      </c>
+      <c r="D41" s="12">
+        <v>32.23018625287088</v>
+      </c>
+      <c r="E41" s="12">
+        <v>-0.8835435593653832</v>
+      </c>
+      <c r="F41" s="12">
+        <v>98.421370743153645</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1.4739996837796949</v>
+      </c>
+      <c r="H41" s="12">
+        <v>6.1237738976907541E-3</v>
+      </c>
+      <c r="I41" s="12">
+        <v>3.061886948845377E-3</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -2241,28 +2241,28 @@
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="10">
-        <v>23.3</v>
-      </c>
-      <c r="C42" s="10">
-        <v>-2.96</v>
-      </c>
-      <c r="D42" s="10">
-        <v>48.87</v>
-      </c>
-      <c r="E42" s="10">
-        <v>-3.3</v>
-      </c>
-      <c r="F42" s="10">
-        <v>99.8</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10">
+      <c r="B42" s="12">
+        <v>21.98</v>
+      </c>
+      <c r="C42" s="12">
+        <v>-1.07</v>
+      </c>
+      <c r="D42" s="12">
+        <v>46</v>
+      </c>
+      <c r="E42" s="12">
+        <v>-1.93</v>
+      </c>
+      <c r="F42" s="12">
+        <v>99.16</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
         <v>0</v>
       </c>
       <c r="J42" s="9"/>
@@ -2274,28 +2274,28 @@
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="10">
-        <v>13.593626445638231</v>
-      </c>
-      <c r="C43" s="10">
-        <v>-7.3156240640324279</v>
-      </c>
-      <c r="D43" s="10">
-        <v>24.433147625925869</v>
-      </c>
-      <c r="E43" s="10">
-        <v>-2.7082577976287991</v>
-      </c>
-      <c r="F43" s="10">
-        <v>98.70336759611375</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1.2966324038860939</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10">
+      <c r="B43" s="12">
+        <v>15.32410892708061</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1.5127055213336049</v>
+      </c>
+      <c r="D43" s="12">
+        <v>22.7028403505537</v>
+      </c>
+      <c r="E43" s="12">
+        <v>-1.39376412409307</v>
+      </c>
+      <c r="F43" s="12">
+        <v>98.553782025575742</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1.4277508195401241</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1.8467154884131341E-2</v>
+      </c>
+      <c r="I43" s="12">
         <v>0</v>
       </c>
       <c r="J43" s="9"/>
@@ -2307,28 +2307,28 @@
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="10">
-        <v>16.486703183031992</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1.0627105142409721</v>
-      </c>
-      <c r="D44" s="10">
-        <v>29.34116824355273</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1.415822110079763</v>
-      </c>
-      <c r="F44" s="10">
-        <v>99.454670675150609</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0.35056885168889229</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0.19476047316049569</v>
-      </c>
-      <c r="I44" s="10">
+      <c r="B44" s="12">
+        <v>16.36596719255142</v>
+      </c>
+      <c r="C44" s="12">
+        <v>-0.90450493260633802</v>
+      </c>
+      <c r="D44" s="12">
+        <v>29.598129980879779</v>
+      </c>
+      <c r="E44" s="12">
+        <v>-1.662116378893471</v>
+      </c>
+      <c r="F44" s="12">
+        <v>99.241595708668598</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.60672343306512511</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.1516808582662813</v>
+      </c>
+      <c r="I44" s="12">
         <v>0</v>
       </c>
       <c r="J44" s="9"/>
@@ -2340,28 +2340,28 @@
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="10">
-        <v>8.9826539447914833</v>
-      </c>
-      <c r="C45" s="10">
-        <v>-6.2505978714912827</v>
-      </c>
-      <c r="D45" s="10">
-        <v>22.626348720995001</v>
-      </c>
-      <c r="E45" s="10">
-        <v>-2.978102819349155</v>
-      </c>
-      <c r="F45" s="10">
-        <v>98.330096628009613</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1.627831347448379</v>
-      </c>
-      <c r="H45" s="10">
-        <v>4.2072024540565238E-2</v>
-      </c>
-      <c r="I45" s="10">
+      <c r="B45" s="12">
+        <v>9.4612997567000114</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.48508965549935429</v>
+      </c>
+      <c r="D45" s="12">
+        <v>31.678441818971219</v>
+      </c>
+      <c r="E45" s="12">
+        <v>7.4573895998293942</v>
+      </c>
+      <c r="F45" s="12">
+        <v>98.159658472133756</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1.7685551482346979</v>
+      </c>
+      <c r="H45" s="12">
+        <v>7.1786379631546257E-2</v>
+      </c>
+      <c r="I45" s="12">
         <v>0</v>
       </c>
       <c r="J45" s="9"/>
@@ -2373,29 +2373,29 @@
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="10">
-        <v>8.22393730479852</v>
-      </c>
-      <c r="C46" s="10">
-        <v>-6.8416770804292621</v>
-      </c>
-      <c r="D46" s="10">
-        <v>26.08107347364373</v>
-      </c>
-      <c r="E46" s="10">
-        <v>-3.4953869993493329</v>
-      </c>
-      <c r="F46" s="10">
-        <v>97.896260424047171</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1.998853370705149</v>
-      </c>
-      <c r="H46" s="10">
-        <v>9.3562718117744498E-2</v>
-      </c>
-      <c r="I46" s="10">
-        <v>1.132348712933774E-2</v>
+      <c r="B46" s="12">
+        <v>14.29052155537183</v>
+      </c>
+      <c r="C46" s="12">
+        <v>5.5307211359949164</v>
+      </c>
+      <c r="D46" s="12">
+        <v>26.821867059796421</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.57500915285217835</v>
+      </c>
+      <c r="F46" s="12">
+        <v>97.624776759647702</v>
+      </c>
+      <c r="G46" s="12">
+        <v>2.2052725780768019</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0.1147570864347895</v>
+      </c>
+      <c r="I46" s="12">
+        <v>2.5871565538612151E-2</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2406,28 +2406,28 @@
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="10">
-        <v>2.2509434268044899</v>
-      </c>
-      <c r="C47" s="10">
-        <v>-3.7622</v>
-      </c>
-      <c r="D47" s="10">
-        <v>24.967907990612598</v>
-      </c>
-      <c r="E47" s="10">
-        <v>-3.2633999999999999</v>
-      </c>
-      <c r="F47" s="10">
-        <v>97.108658479713</v>
-      </c>
-      <c r="G47" s="10">
-        <v>2.8913415202860002</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0</v>
-      </c>
-      <c r="I47" s="10">
+      <c r="B47" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="D47" s="12">
+        <v>25.3</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="12">
+        <v>97</v>
+      </c>
+      <c r="G47" s="12">
+        <v>3</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
         <v>0</v>
       </c>
       <c r="J47" s="9"/>
@@ -2439,28 +2439,28 @@
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="10">
-        <v>13.05325123616608</v>
-      </c>
-      <c r="C48" s="10">
-        <v>-4.7401990181836844</v>
-      </c>
-      <c r="D48" s="10">
-        <v>37.151312588741227</v>
-      </c>
-      <c r="E48" s="10">
-        <v>-1.817197350439691</v>
-      </c>
-      <c r="F48" s="10">
-        <v>99.486931536436245</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0.51306846356280589</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-      <c r="I48" s="10">
+      <c r="B48" s="12">
+        <v>16.354154467931561</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2.8673075998433242</v>
+      </c>
+      <c r="D48" s="12">
+        <v>38.199001109132027</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.75905049832372273</v>
+      </c>
+      <c r="F48" s="12">
+        <v>99.417023096663812</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.48943066248455469</v>
+      </c>
+      <c r="H48" s="12">
+        <v>9.3546240851630075E-2</v>
+      </c>
+      <c r="I48" s="12">
         <v>0</v>
       </c>
       <c r="J48" s="9"/>
@@ -2472,29 +2472,29 @@
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="10">
-        <v>9.7956771846486816</v>
-      </c>
-      <c r="C49" s="10">
-        <v>-4.6556899849432272</v>
-      </c>
-      <c r="D49" s="10">
-        <v>31.781846457216901</v>
-      </c>
-      <c r="E49" s="10">
-        <v>-1.842038059590049</v>
-      </c>
-      <c r="F49" s="10">
-        <v>98.998146659635751</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0.97874869801001041</v>
-      </c>
-      <c r="H49" s="10">
-        <v>1.616547707280026E-2</v>
-      </c>
-      <c r="I49" s="10">
-        <v>4.299002181853276E-3</v>
+      <c r="B49" s="12">
+        <v>8.6476739160382756</v>
+      </c>
+      <c r="C49" s="12">
+        <v>-0.97487066688752999</v>
+      </c>
+      <c r="D49" s="12">
+        <v>29.998371810014639</v>
+      </c>
+      <c r="E49" s="12">
+        <v>-1.383140747839551</v>
+      </c>
+      <c r="F49" s="12">
+        <v>99.097942012600427</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.88226295654419917</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1.550477537174462E-2</v>
+      </c>
+      <c r="I49" s="12">
+        <v>4.2902554836195964E-3</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2505,29 +2505,29 @@
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="10">
-        <v>10.985843402831261</v>
-      </c>
-      <c r="C50" s="10">
-        <v>-4.5645700760679873</v>
-      </c>
-      <c r="D50" s="10">
-        <v>30.20206150562591</v>
-      </c>
-      <c r="E50" s="10">
-        <v>-2.1448982089285371</v>
-      </c>
-      <c r="F50" s="10">
-        <v>95.910844577286639</v>
-      </c>
-      <c r="G50" s="10">
-        <v>3.14443143115153</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0.94472399156004228</v>
-      </c>
-      <c r="I50" s="10">
-        <v>0</v>
+      <c r="B50" s="12">
+        <v>14.15643409726948</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2.918012243661825</v>
+      </c>
+      <c r="D50" s="12">
+        <v>30.01938475341656</v>
+      </c>
+      <c r="E50" s="12">
+        <v>-8.7170839466612721E-2</v>
+      </c>
+      <c r="F50" s="12">
+        <v>95.725833051216341</v>
+      </c>
+      <c r="G50" s="12">
+        <v>3.333367691154423</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1.0259093739420611</v>
+      </c>
+      <c r="I50" s="12">
+        <v>4.4849047250568267E-3</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -2538,29 +2538,29 @@
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="10">
-        <v>7.0107511869103689</v>
-      </c>
-      <c r="C51" s="10">
-        <v>-3.9372805268544471</v>
-      </c>
-      <c r="D51" s="10">
-        <v>22.452117445200589</v>
-      </c>
-      <c r="E51" s="10">
-        <v>-1.7841902845039961</v>
-      </c>
-      <c r="F51" s="10">
-        <v>97.664745372090991</v>
-      </c>
-      <c r="G51" s="10">
-        <v>2.123739572933244</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0.21151505497471421</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0</v>
+      <c r="B51" s="12">
+        <v>6.2587328346473896</v>
+      </c>
+      <c r="C51" s="12">
+        <v>-0.6574482610033352</v>
+      </c>
+      <c r="D51" s="12">
+        <v>20.713669224009429</v>
+      </c>
+      <c r="E51" s="12">
+        <v>-1.42902128455623</v>
+      </c>
+      <c r="F51" s="12">
+        <v>98.133078204250353</v>
+      </c>
+      <c r="G51" s="12">
+        <v>1.6807619307462489</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.1628898818779688</v>
+      </c>
+      <c r="I51" s="12">
+        <v>2.326998312542411E-2</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2571,29 +2571,29 @@
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="10">
-        <v>10.64605483685812</v>
-      </c>
-      <c r="C52" s="10">
-        <v>-7.0610185554266716</v>
-      </c>
-      <c r="D52" s="10">
-        <v>39.898742075823513</v>
-      </c>
-      <c r="E52" s="10">
-        <v>-5.1108020070812223</v>
-      </c>
-      <c r="F52" s="10">
-        <v>95.533251973818423</v>
-      </c>
-      <c r="G52" s="10">
-        <v>4.3725316250401258</v>
-      </c>
-      <c r="H52" s="10">
-        <v>6.2810934094284732E-2</v>
-      </c>
-      <c r="I52" s="10">
-        <v>3.1405467047142373E-2</v>
+      <c r="B52" s="12">
+        <v>12.86645622126531</v>
+      </c>
+      <c r="C52" s="12">
+        <v>2.0075486660112198</v>
+      </c>
+      <c r="D52" s="12">
+        <v>40.04326764100157</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.10870035420641461</v>
+      </c>
+      <c r="F52" s="12">
+        <v>95.595917975265436</v>
+      </c>
+      <c r="G52" s="12">
+        <v>4.2945876320169631</v>
+      </c>
+      <c r="H52" s="12">
+        <v>8.6031308563833592E-2</v>
+      </c>
+      <c r="I52" s="12">
+        <v>2.3463084153772799E-2</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2604,29 +2604,29 @@
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="10">
-        <v>10.547940321894609</v>
-      </c>
-      <c r="C53" s="10">
-        <v>-0.12002031437441391</v>
-      </c>
-      <c r="D53" s="10">
-        <v>19.198256743390399</v>
-      </c>
-      <c r="E53" s="10">
-        <v>-2.850995705681314</v>
-      </c>
-      <c r="F53" s="10">
-        <v>99.25124792013311</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0.74875207986688852</v>
-      </c>
-      <c r="H53" s="10">
-        <v>0</v>
-      </c>
-      <c r="I53" s="10">
-        <v>0</v>
+      <c r="B53" s="12">
+        <v>12.700947204978871</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1.9475775639194339</v>
+      </c>
+      <c r="D53" s="12">
+        <v>17.793375525514961</v>
+      </c>
+      <c r="E53" s="12">
+        <v>-1.1786088624600179</v>
+      </c>
+      <c r="F53" s="12">
+        <v>98.148148148148152</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1.430976430976431</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.33670033670033672</v>
+      </c>
+      <c r="I53" s="12">
+        <v>8.4175084175084167E-2</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -2644,7 +2644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2657,13 +2657,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>43911</v>
       </c>
@@ -2696,8 +2696,11 @@
       <c r="I4" s="6">
         <v>43960</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="J4" s="6">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>0.42452508300000003</v>
       </c>
@@ -2721,6 +2724,9 @@
       </c>
       <c r="I5" s="7">
         <v>0.373</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.39399999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6FC77-12CE-3C4F-BF1E-C87281A9231D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92FA9F53-EA9D-8F42-9231-958B53A63667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="560" windowWidth="32080" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,6 +40,30 @@
     <t>% of Backbone Capacity Utilized</t>
   </si>
   <si>
+    <t>downstream_growth_overall</t>
+  </si>
+  <si>
+    <t>downstream_growth_past_week</t>
+  </si>
+  <si>
+    <t>upstream_growth_overall</t>
+  </si>
+  <si>
+    <t>upstream_growth_past_week</t>
+  </si>
+  <si>
+    <t>performance_normal</t>
+  </si>
+  <si>
+    <t>performance_elevated</t>
+  </si>
+  <si>
+    <t>performance_substantially_elevated</t>
+  </si>
+  <si>
+    <t>performance_severely_elevated</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
@@ -192,30 +218,6 @@
   </si>
   <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>downstream_growth_overall</t>
-  </si>
-  <si>
-    <t>downstream_growth_past_week</t>
-  </si>
-  <si>
-    <t>upstream_growth_overall</t>
-  </si>
-  <si>
-    <t>upstream_growth_past_week</t>
-  </si>
-  <si>
-    <t>performance_normal</t>
-  </si>
-  <si>
-    <t>performance_elevated</t>
-  </si>
-  <si>
-    <t>performance_substantially_elevated</t>
-  </si>
-  <si>
-    <t>performance_severely_elevated</t>
   </si>
 </sst>
 </file>
@@ -385,9 +387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -413,14 +413,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>693652</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>181357</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>242946</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161653</xdr:rowOff>
+      <xdr:colOff>242945</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>143990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,8 +448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="693652" y="371857"/>
-          <a:ext cx="13582794" cy="10838796"/>
+          <a:off x="693652" y="580020"/>
+          <a:ext cx="13582793" cy="10422470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,14 +462,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>195345</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>169854</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>583369</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>160707</xdr:rowOff>
+      <xdr:colOff>583368</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,8 +497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14228845" y="360354"/>
-          <a:ext cx="13596024" cy="10849353"/>
+          <a:off x="14228845" y="568719"/>
+          <a:ext cx="13596023" cy="10432622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -509,16 +509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>739885</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257285</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142643</xdr:rowOff>
+      <xdr:rowOff>71328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>99051</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>176461</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>317498</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>27342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -546,8 +546,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="739885" y="11191643"/>
-          <a:ext cx="13392666" cy="10701818"/>
+          <a:off x="1082785" y="11120328"/>
+          <a:ext cx="14093713" cy="10814514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,20 +848,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,28 +870,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -900,31 +900,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="12">
-        <v>9.0849874673283288</v>
+        <v>6.6170662812691887</v>
       </c>
       <c r="C2" s="12">
-        <v>-6.1612846731280611</v>
+        <v>-2.3110075223514799</v>
       </c>
       <c r="D2" s="12">
-        <v>26.239102721234101</v>
+        <v>25.094468340092931</v>
       </c>
       <c r="E2" s="12">
-        <v>-2.8148695343838388</v>
+        <v>-0.93205888074716992</v>
       </c>
       <c r="F2" s="12">
-        <v>97.875592684350124</v>
+        <v>98.174738426212073</v>
       </c>
       <c r="G2" s="12">
-        <v>2.0344523408825701</v>
+        <v>1.75303658403744</v>
       </c>
       <c r="H2" s="12">
-        <v>8.7759111731737963E-2</v>
+        <v>7.0457551126694329E-2</v>
       </c>
       <c r="I2" s="12">
-        <v>3.318232241504506E-3</v>
+        <v>2.4250379577178531E-3</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -933,31 +933,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="12">
-        <v>8.3765883959457081</v>
+        <v>4.2792909224350222</v>
       </c>
       <c r="C3" s="12">
-        <v>-2.3109024521061929</v>
+        <v>-3.701054313505129</v>
       </c>
       <c r="D3" s="12">
-        <v>17.852251747331259</v>
+        <v>17.394745644193879</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.93324008228926103</v>
+        <v>-0.3725699103893958</v>
       </c>
       <c r="F3" s="12">
-        <v>98.964420745628246</v>
+        <v>99.287358511390352</v>
       </c>
       <c r="G3" s="12">
-        <v>0.95256993963411962</v>
+        <v>0.64274302617828971</v>
       </c>
       <c r="H3" s="12">
-        <v>6.3044274735067601E-2</v>
+        <v>5.9912967798085297E-2</v>
       </c>
       <c r="I3" s="12">
-        <v>5.1802092842451949E-2</v>
+        <v>9.985494633014215E-3</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -966,25 +966,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="12">
-        <v>18.34902371732532</v>
+        <v>19</v>
       </c>
       <c r="C4" s="12">
-        <v>-9.7411761014462357</v>
+        <v>-5.5</v>
       </c>
       <c r="D4" s="12">
-        <v>26.04313118015957</v>
+        <v>19.8</v>
       </c>
       <c r="E4" s="12">
-        <v>-1.256963794219512</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="F4" s="12">
-        <v>99.78936282253818</v>
+        <v>99.920844327176781</v>
       </c>
       <c r="G4" s="12">
-        <v>0.21063717746182201</v>
+        <v>7.9155672823218989E-2</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -999,28 +999,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" s="12">
-        <v>6.1239401378983418</v>
+        <v>6.707379631873013</v>
       </c>
       <c r="C5" s="12">
-        <v>-5.9528225742480068</v>
+        <v>0.55763266328656291</v>
       </c>
       <c r="D5" s="12">
-        <v>26.117619248611309</v>
+        <v>23.048759434927</v>
       </c>
       <c r="E5" s="12">
-        <v>-7.5932531549348488</v>
+        <v>-2.9227658201275921</v>
       </c>
       <c r="F5" s="12">
-        <v>99.427916647901014</v>
+        <v>99.125678469546671</v>
       </c>
       <c r="G5" s="12">
-        <v>0.51118763707142856</v>
+        <v>0.74744201962114409</v>
       </c>
       <c r="H5" s="12">
-        <v>6.0895715027452071E-2</v>
+        <v>0.1268795108320748</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1032,28 +1032,28 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="12">
-        <v>7.5760660107040394</v>
+        <v>1.993625677124619</v>
       </c>
       <c r="C6" s="12">
-        <v>-4.1076493039035942</v>
+        <v>-5.2467189065584838</v>
       </c>
       <c r="D6" s="12">
-        <v>14.76149787273935</v>
+        <v>12.72469816573321</v>
       </c>
       <c r="E6" s="12">
-        <v>-1.3111470177031359</v>
+        <v>-2.187586628880358</v>
       </c>
       <c r="F6" s="12">
-        <v>98.805610522515281</v>
+        <v>99.296079120695993</v>
       </c>
       <c r="G6" s="12">
-        <v>0.97028088764104492</v>
+        <v>0.54830044716032889</v>
       </c>
       <c r="H6" s="12">
-        <v>0.22410858984313861</v>
+        <v>0.15562043214341689</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -1065,31 +1065,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" s="12">
-        <v>12.566047509874791</v>
+        <v>14.04561955552569</v>
       </c>
       <c r="C7" s="12">
-        <v>-5.8878587094173636</v>
+        <v>1.2412358683830631</v>
       </c>
       <c r="D7" s="12">
-        <v>34.575827819120278</v>
+        <v>34.782755886081382</v>
       </c>
       <c r="E7" s="12">
-        <v>-2.6058056876874449</v>
+        <v>0.15581918554338131</v>
       </c>
       <c r="F7" s="12">
-        <v>93.219770266766545</v>
+        <v>93.582593573122807</v>
       </c>
       <c r="G7" s="12">
-        <v>6.7366636873176979</v>
+        <v>6.3761584106062479</v>
       </c>
       <c r="H7" s="12">
-        <v>4.0405496937968258E-2</v>
+        <v>3.5134646648576268E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>3.1605489773390682E-3</v>
+        <v>5.2703264416695964E-3</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1098,28 +1098,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12">
-        <v>1.075094681077877</v>
+        <v>-3.9028146495555358</v>
       </c>
       <c r="C8" s="12">
-        <v>-2.5886794601339842</v>
+        <v>-4.9314398367187193</v>
       </c>
       <c r="D8" s="12">
-        <v>24.137937534863958</v>
+        <v>21.733933253408619</v>
       </c>
       <c r="E8" s="12">
-        <v>-1.9217201621075179</v>
+        <v>-1.943331997317655</v>
       </c>
       <c r="F8" s="12">
-        <v>96.030878401208071</v>
+        <v>96.547200440122268</v>
       </c>
       <c r="G8" s="12">
-        <v>3.9556192533405059</v>
+        <v>3.4460524847063718</v>
       </c>
       <c r="H8" s="12">
-        <v>1.3502345450510879E-2</v>
+        <v>6.7470751695163063E-3</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -1131,28 +1131,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12">
-        <v>16.74366796147125</v>
+        <v>13.036380173633161</v>
       </c>
       <c r="C9" s="12">
-        <v>-5.0801058133070773</v>
+        <v>-3.184819985047207</v>
       </c>
       <c r="D9" s="12">
-        <v>36.342501625434508</v>
+        <v>36.081359577620951</v>
       </c>
       <c r="E9" s="12">
-        <v>-2.5105795525642418</v>
+        <v>-0.12048136414987461</v>
       </c>
       <c r="F9" s="12">
-        <v>97.388598435568937</v>
+        <v>97.720281615274487</v>
       </c>
       <c r="G9" s="12">
-        <v>2.3030759215588148</v>
+        <v>2.0746608700214701</v>
       </c>
       <c r="H9" s="12">
-        <v>0.3083256428710392</v>
+        <v>0.20505751470282171</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -1164,25 +1164,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12">
-        <v>7.9784506742562691</v>
+        <v>3.569003841388783</v>
       </c>
       <c r="C10" s="12">
-        <v>-6.1617632127347228</v>
+        <v>-3.9742324482363549</v>
       </c>
       <c r="D10" s="12">
-        <v>32.097500952247451</v>
+        <v>31.98367141412125</v>
       </c>
       <c r="E10" s="12">
-        <v>-2.782433454187883</v>
+        <v>-5.6131627788971683E-2</v>
       </c>
       <c r="F10" s="12">
-        <v>99.032095973870213</v>
+        <v>99.104454727921322</v>
       </c>
       <c r="G10" s="12">
-        <v>0.96790402612891513</v>
+        <v>0.89554527207781365</v>
       </c>
       <c r="H10" s="12">
         <v>0</v>
@@ -1197,25 +1197,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" s="12">
-        <v>-2.1767205561608498</v>
+        <v>-4.6062883090934097</v>
       </c>
       <c r="C11" s="12">
-        <v>-4.7046000000000001</v>
+        <v>-2.4836</v>
       </c>
       <c r="D11" s="12">
-        <v>31.976929513423801</v>
+        <v>32.239010977509899</v>
       </c>
       <c r="E11" s="12">
-        <v>-2.2437</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="F11" s="12">
-        <v>97.036727879799002</v>
+        <v>97.797173732334997</v>
       </c>
       <c r="G11" s="12">
-        <v>2.9632721202000001</v>
+        <v>2.2028262676639998</v>
       </c>
       <c r="H11" s="12">
         <v>0</v>
@@ -1230,31 +1230,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" s="12">
-        <v>10.958208636308139</v>
+        <v>8.1649454354892637</v>
       </c>
       <c r="C12" s="12">
-        <v>-1.985923166275134</v>
+        <v>-2.5571494592505069</v>
       </c>
       <c r="D12" s="12">
-        <v>21.328613172794871</v>
+        <v>21.096425906213749</v>
       </c>
       <c r="E12" s="12">
-        <v>-0.99129614001603061</v>
+        <v>-0.1728810782517794</v>
       </c>
       <c r="F12" s="12">
-        <v>98.691741782366805</v>
+        <v>98.900075906544672</v>
       </c>
       <c r="G12" s="12">
-        <v>1.217318070047321</v>
+        <v>1.0335999095348101</v>
       </c>
       <c r="H12" s="12">
-        <v>9.0940147585274786E-2</v>
+        <v>6.6324183919311983E-2</v>
       </c>
       <c r="I12" s="12">
-        <v>1.633229371573567E-3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1263,28 +1263,28 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" s="12">
-        <v>6.3401656820365977</v>
+        <v>2.2527345794217442</v>
       </c>
       <c r="C13" s="12">
-        <v>-3.6071664550330889</v>
+        <v>-3.8182183164047219</v>
       </c>
       <c r="D13" s="12">
-        <v>23.14144877510142</v>
+        <v>22.35135722722389</v>
       </c>
       <c r="E13" s="12">
-        <v>-2.1740906871437469</v>
+        <v>-0.65374577596791839</v>
       </c>
       <c r="F13" s="12">
-        <v>98.339247771968502</v>
+        <v>98.947058634179768</v>
       </c>
       <c r="G13" s="12">
-        <v>1.645763319440819</v>
+        <v>1.049359780132195</v>
       </c>
       <c r="H13" s="12">
-        <v>1.4988908589885301E-2</v>
+        <v>3.5815856872637732E-3</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
@@ -1296,28 +1296,28 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" s="12">
-        <v>22.673210025686849</v>
+        <v>17.76315867966229</v>
       </c>
       <c r="C14" s="12">
-        <v>-10.5249140752847</v>
+        <v>-4.0025457432771416</v>
       </c>
       <c r="D14" s="12">
-        <v>16.131109168437249</v>
+        <v>12.89733723200386</v>
       </c>
       <c r="E14" s="12">
-        <v>-3.013797810170094</v>
+        <v>-2.7845871442966348</v>
       </c>
       <c r="F14" s="12">
-        <v>97.730711043872915</v>
+        <v>98.983783783783792</v>
       </c>
       <c r="G14" s="12">
-        <v>2.1396153014912471</v>
+        <v>1.0162162162162161</v>
       </c>
       <c r="H14" s="12">
-        <v>0.12967365463583319</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
@@ -1329,28 +1329,28 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="12">
-        <v>1.146925407718135</v>
+        <v>-8.248887844816559E-2</v>
       </c>
       <c r="C15" s="12">
-        <v>-7.218227402869112</v>
+        <v>-1.156631627306711</v>
       </c>
       <c r="D15" s="12">
-        <v>22.561634415245539</v>
+        <v>23.25155027335903</v>
       </c>
       <c r="E15" s="12">
-        <v>-6.0937479781614874</v>
+        <v>0.65341148840413332</v>
       </c>
       <c r="F15" s="12">
-        <v>99.776476951483957</v>
+        <v>99.821828983878618</v>
       </c>
       <c r="G15" s="12">
-        <v>0.19809870817293929</v>
+        <v>0.17817101612139721</v>
       </c>
       <c r="H15" s="12">
-        <v>2.542434034309253E-2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
@@ -1362,28 +1362,28 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" s="12">
-        <v>4.1547611494038996</v>
+        <v>-0.1308279680388991</v>
       </c>
       <c r="C16" s="12">
-        <v>-8.9948666942479214</v>
+        <v>-4.0862969145201831</v>
       </c>
       <c r="D16" s="12">
-        <v>30.00727546175786</v>
+        <v>28.926457631180391</v>
       </c>
       <c r="E16" s="12">
-        <v>-4.3857820675546577</v>
+        <v>-0.84750362993741635</v>
       </c>
       <c r="F16" s="12">
-        <v>97.866763914813035</v>
+        <v>98.366081932723475</v>
       </c>
       <c r="G16" s="12">
-        <v>2.123971390789023</v>
+        <v>1.630835118928736</v>
       </c>
       <c r="H16" s="12">
-        <v>9.2646943970985194E-3</v>
+        <v>3.0829483469576812E-3</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
@@ -1395,31 +1395,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" s="12">
-        <v>0.27665785776277141</v>
+        <v>-2.184515643233556</v>
       </c>
       <c r="C17" s="12">
-        <v>-10.449546221776821</v>
+        <v>-2.4739079398688002</v>
       </c>
       <c r="D17" s="12">
-        <v>19.499192069545892</v>
+        <v>18.20318649896095</v>
       </c>
       <c r="E17" s="12">
-        <v>-5.4664759317456308</v>
+        <v>-1.0914365651178171</v>
       </c>
       <c r="F17" s="12">
-        <v>99.39217815777215</v>
+        <v>99.495416132307071</v>
       </c>
       <c r="G17" s="12">
-        <v>0.57154832857902238</v>
+        <v>0.49209249430186619</v>
       </c>
       <c r="H17" s="12">
-        <v>3.0227928040077921E-2</v>
+        <v>6.4445831375612942E-3</v>
       </c>
       <c r="I17" s="12">
-        <v>6.0455856080155841E-3</v>
+        <v>6.0467902520419123E-3</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" s="12">
-        <v>4.3603130828917847</v>
+        <v>4.9256905256525059</v>
       </c>
       <c r="C18" s="12">
-        <v>-7.3573296171799063</v>
+        <v>0.57267726769289695</v>
       </c>
       <c r="D18" s="12">
-        <v>25.788053615031281</v>
+        <v>19.233313568580691</v>
       </c>
       <c r="E18" s="12">
-        <v>-2.7730079057170758</v>
+        <v>-5.2104239837902719</v>
       </c>
       <c r="F18" s="12">
-        <v>99.984681060866762</v>
+        <v>99.967870459299363</v>
       </c>
       <c r="G18" s="12">
-        <v>1.531893913323997E-2</v>
+        <v>3.2129540700639433E-2</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
@@ -1461,28 +1461,28 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B19" s="12">
-        <v>7.9256196819512166</v>
+        <v>-1.735638314488644</v>
       </c>
       <c r="C19" s="12">
-        <v>-3.382450607784258</v>
+        <v>-9.0934525270588118</v>
       </c>
       <c r="D19" s="12">
-        <v>25.817704659510021</v>
+        <v>19.6921362875146</v>
       </c>
       <c r="E19" s="12">
-        <v>-0.74394990813492845</v>
+        <v>-4.8724687088074274</v>
       </c>
       <c r="F19" s="12">
-        <v>99.654416378214833</v>
+        <v>99.712181123173792</v>
       </c>
       <c r="G19" s="12">
-        <v>0.32350246245046499</v>
+        <v>0.26559147520946202</v>
       </c>
       <c r="H19" s="12">
-        <v>2.2081159334692659E-2</v>
+        <v>2.2227401616750998E-2</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -1494,28 +1494,28 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" s="12">
-        <v>5.175061464789696</v>
+        <v>5.6117167981219893</v>
       </c>
       <c r="C20" s="12">
-        <v>-10.97740985233334</v>
+        <v>0.38274051281582683</v>
       </c>
       <c r="D20" s="12">
-        <v>14.603765312093911</v>
+        <v>14.6713589701305</v>
       </c>
       <c r="E20" s="12">
-        <v>-5.9702235419240823</v>
+        <v>6.9463414518258021E-2</v>
       </c>
       <c r="F20" s="12">
-        <v>98.991330773014624</v>
+        <v>99.512718130752489</v>
       </c>
       <c r="G20" s="12">
-        <v>0.986467658737742</v>
+        <v>0.46507387113938042</v>
       </c>
       <c r="H20" s="12">
-        <v>2.2201568247568439E-2</v>
+        <v>2.2207998108048389E-2</v>
       </c>
       <c r="I20" s="12">
         <v>0</v>
@@ -1527,28 +1527,28 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21" s="12">
-        <v>13.9851685241029</v>
+        <v>9.8686250055221247</v>
       </c>
       <c r="C21" s="12">
-        <v>-2.797224779868587</v>
+        <v>-3.5595980063000918</v>
       </c>
       <c r="D21" s="12">
-        <v>16.279457833857421</v>
+        <v>15.26383619885001</v>
       </c>
       <c r="E21" s="12">
-        <v>-1.1785510929259631</v>
+        <v>-0.83433283648483858</v>
       </c>
       <c r="F21" s="12">
-        <v>99.334212023756777</v>
+        <v>99.586293018797519</v>
       </c>
       <c r="G21" s="12">
-        <v>0.60552691306088802</v>
+        <v>0.3834333900360733</v>
       </c>
       <c r="H21" s="12">
-        <v>6.0261063182192681E-2</v>
+        <v>3.027359116626872E-2</v>
       </c>
       <c r="I21" s="12">
         <v>0</v>
@@ -1560,25 +1560,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22" s="12">
-        <v>11.769720184278651</v>
+        <v>10.735121526810071</v>
       </c>
       <c r="C22" s="12">
-        <v>-4.8692044591495049</v>
+        <v>-0.92427312318369392</v>
       </c>
       <c r="D22" s="12">
-        <v>40.418364165416627</v>
+        <v>37.414251394593663</v>
       </c>
       <c r="E22" s="12">
-        <v>-1.499364735486584</v>
+        <v>-2.1366262758831129</v>
       </c>
       <c r="F22" s="12">
-        <v>99.638634840659947</v>
+        <v>99.58221835971473</v>
       </c>
       <c r="G22" s="12">
-        <v>0.36136515933998198</v>
+        <v>0.41778164028520431</v>
       </c>
       <c r="H22" s="12">
         <v>0</v>
@@ -1593,28 +1593,28 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" s="12">
-        <v>7.8202970607768361</v>
+        <v>4.6435451443035642</v>
       </c>
       <c r="C23" s="12">
-        <v>-5.0121235241682784</v>
+        <v>-2.945808912992689</v>
       </c>
       <c r="D23" s="12">
-        <v>31.149082447141449</v>
+        <v>30.7940177657016</v>
       </c>
       <c r="E23" s="12">
-        <v>-1.644522937138378</v>
+        <v>-0.27045826138242141</v>
       </c>
       <c r="F23" s="12">
-        <v>98.409051217824313</v>
+        <v>98.703816126283158</v>
       </c>
       <c r="G23" s="12">
-        <v>1.5844285002804199</v>
+        <v>1.2961838737158511</v>
       </c>
       <c r="H23" s="12">
-        <v>6.5202818932620279E-3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="12">
         <v>0</v>
@@ -1626,31 +1626,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B24" s="12">
-        <v>14.9454424647544</v>
+        <v>10.88643457992243</v>
       </c>
       <c r="C24" s="12">
-        <v>-4.86237255442032</v>
+        <v>-3.5311472578210372</v>
       </c>
       <c r="D24" s="12">
-        <v>33.837108608190853</v>
+        <v>33.781509036631007</v>
       </c>
       <c r="E24" s="12">
-        <v>-2.3097505796956481</v>
+        <v>-2.2645840205018589E-2</v>
       </c>
       <c r="F24" s="12">
-        <v>98.225551185338787</v>
+        <v>98.375947433180784</v>
       </c>
       <c r="G24" s="12">
-        <v>1.5854009855594351</v>
+        <v>1.45068750908225</v>
       </c>
       <c r="H24" s="12">
-        <v>0.18904782910000001</v>
+        <v>0.17336505773607819</v>
       </c>
       <c r="I24" s="12">
-        <v>3.9384964392857142E-3</v>
+        <v>3.9401149477357109E-3</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1659,28 +1659,28 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B25" s="12">
-        <v>6.3133325728598946</v>
+        <v>3.4442498873255349</v>
       </c>
       <c r="C25" s="12">
-        <v>-9.8979141526623859</v>
+        <v>-2.7092900612980508</v>
       </c>
       <c r="D25" s="12">
-        <v>24.70714072825788</v>
+        <v>23.573773738132331</v>
       </c>
       <c r="E25" s="12">
-        <v>-5.0617323536597381</v>
+        <v>-0.91729881905074806</v>
       </c>
       <c r="F25" s="12">
-        <v>99.230998639767208</v>
+        <v>99.367584588564256</v>
       </c>
       <c r="G25" s="12">
-        <v>0.73628113600638767</v>
+        <v>0.60309678827754065</v>
       </c>
       <c r="H25" s="12">
-        <v>3.2720224225028613E-2</v>
+        <v>2.9318623156842648E-2</v>
       </c>
       <c r="I25" s="12">
         <v>0</v>
@@ -1692,28 +1692,28 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26" s="12">
-        <v>10.452024725551549</v>
+        <v>7.1024343101440621</v>
       </c>
       <c r="C26" s="12">
-        <v>-5.7848844124225272</v>
+        <v>-3.2298750020349778</v>
       </c>
       <c r="D26" s="12">
-        <v>30.325217010678919</v>
+        <v>27.583248065359111</v>
       </c>
       <c r="E26" s="12">
-        <v>-2.065869371908069</v>
+        <v>-2.2527826760809022</v>
       </c>
       <c r="F26" s="12">
-        <v>98.729831649120854</v>
+        <v>98.966403780128473</v>
       </c>
       <c r="G26" s="12">
-        <v>1.2055843441349401</v>
+        <v>0.9766979863614641</v>
       </c>
       <c r="H26" s="12">
-        <v>6.4584006743516081E-2</v>
+        <v>5.6898233508697257E-2</v>
       </c>
       <c r="I26" s="12">
         <v>0</v>
@@ -1725,31 +1725,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B27" s="12">
-        <v>12.291290701849171</v>
+        <v>10.94889799393359</v>
       </c>
       <c r="C27" s="12">
-        <v>-3.104661200984753</v>
+        <v>-1.161163371244744</v>
       </c>
       <c r="D27" s="12">
-        <v>21.677362215649989</v>
+        <v>21.146769960178549</v>
       </c>
       <c r="E27" s="12">
-        <v>-0.72099901930541777</v>
+        <v>-0.39241213797190028</v>
       </c>
       <c r="F27" s="12">
-        <v>99.28570026460099</v>
+        <v>99.642528655560241</v>
       </c>
       <c r="G27" s="12">
-        <v>0.65416027125168696</v>
+        <v>0.2765852189649548</v>
       </c>
       <c r="H27" s="12">
-        <v>3.938631722675584E-2</v>
+        <v>6.0121575755995083E-2</v>
       </c>
       <c r="I27" s="12">
-        <v>4.0446305532948687E-2</v>
+        <v>2.07645497183171E-2</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1758,28 +1758,28 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28" s="12">
-        <v>9.0583415174165864</v>
+        <v>3.4932138091805101</v>
       </c>
       <c r="C28" s="12">
-        <v>-4.8574376528646104</v>
+        <v>-5.1259850881544766</v>
       </c>
       <c r="D28" s="12">
-        <v>25.16129462678964</v>
+        <v>19.678417530310149</v>
       </c>
       <c r="E28" s="12">
-        <v>-0.99924432579402866</v>
+        <v>-4.3511644316937996</v>
       </c>
       <c r="F28" s="12">
-        <v>98.362437500142917</v>
+        <v>98.830785261800486</v>
       </c>
       <c r="G28" s="12">
-        <v>1.6287073828059759</v>
+        <v>1.169214738199416</v>
       </c>
       <c r="H28" s="12">
-        <v>8.855117051024158E-3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -1791,25 +1791,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B29" s="12">
-        <v>0.2108819505330706</v>
+        <v>5.0805597305325627E-2</v>
       </c>
       <c r="C29" s="12">
-        <v>-9.8623732582152623</v>
+        <v>-0.15973949147236599</v>
       </c>
       <c r="D29" s="12">
-        <v>19.433668751360539</v>
+        <v>15.762701064977319</v>
       </c>
       <c r="E29" s="12">
-        <v>-9.6964378132902151E-2</v>
+        <v>-3.073645584835472</v>
       </c>
       <c r="F29" s="12">
-        <v>99.70530451866405</v>
+        <v>99.706170421155733</v>
       </c>
       <c r="G29" s="12">
-        <v>0.29469548133595291</v>
+        <v>0.2938295788442703</v>
       </c>
       <c r="H29" s="12">
         <v>0</v>
@@ -1824,25 +1824,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30" s="12">
-        <v>6.9056200963916172</v>
+        <v>2.7632775680948898</v>
       </c>
       <c r="C30" s="12">
-        <v>-3.7551298277952609</v>
+        <v>-3.869583064535373</v>
       </c>
       <c r="D30" s="12">
-        <v>20.642762717861949</v>
+        <v>17.746135594927129</v>
       </c>
       <c r="E30" s="12">
-        <v>-1.0377601068771209</v>
+        <v>-2.1980192698462639</v>
       </c>
       <c r="F30" s="12">
-        <v>99.937727871744883</v>
+        <v>99.937678140792855</v>
       </c>
       <c r="G30" s="12">
-        <v>6.2272128255116153E-2</v>
+        <v>6.2321859207141068E-2</v>
       </c>
       <c r="H30" s="12">
         <v>0</v>
@@ -1857,28 +1857,28 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B31" s="12">
-        <v>8.6735611621103956</v>
+        <v>7.6216718120051477</v>
       </c>
       <c r="C31" s="12">
-        <v>-9.3520549229751637</v>
+        <v>-0.92751558249132315</v>
       </c>
       <c r="D31" s="12">
-        <v>23.158832252616492</v>
+        <v>20.219461912718121</v>
       </c>
       <c r="E31" s="12">
-        <v>-3.4953435433187332</v>
+        <v>-2.360724696685033</v>
       </c>
       <c r="F31" s="12">
-        <v>99.230142766641251</v>
+        <v>99.121584314262947</v>
       </c>
       <c r="G31" s="12">
-        <v>0.74170119420392622</v>
+        <v>0.83765667245432773</v>
       </c>
       <c r="H31" s="12">
-        <v>2.8156039154821479E-2</v>
+        <v>4.0759013282732452E-2</v>
       </c>
       <c r="I31" s="12">
         <v>0</v>
@@ -1890,31 +1890,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B32" s="12">
-        <v>10.871892675503121</v>
+        <v>10.48093255519772</v>
       </c>
       <c r="C32" s="12">
-        <v>-5.3700606289479929</v>
+        <v>-0.33947824965431572</v>
       </c>
       <c r="D32" s="12">
-        <v>34.486609583539462</v>
+        <v>35.745817207917447</v>
       </c>
       <c r="E32" s="12">
-        <v>-1.344746411247892</v>
+        <v>1.006149675739114</v>
       </c>
       <c r="F32" s="12">
-        <v>98.515759737331663</v>
+        <v>98.630301151781453</v>
       </c>
       <c r="G32" s="12">
-        <v>1.3187904255326079</v>
+        <v>1.2209167882163741</v>
       </c>
       <c r="H32" s="12">
-        <v>0.16544983713398881</v>
+        <v>0.1487820600012926</v>
       </c>
       <c r="I32" s="12">
-        <v>0</v>
+        <v>1.6531339999949039E-2</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -1923,28 +1923,28 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B33" s="12">
-        <v>14.30784990950915</v>
+        <v>10.37659630942137</v>
       </c>
       <c r="C33" s="12">
-        <v>-5.8066650494113166</v>
+        <v>-3.447301736120536</v>
       </c>
       <c r="D33" s="12">
-        <v>35.498569617400513</v>
+        <v>36.075361459058719</v>
       </c>
       <c r="E33" s="12">
-        <v>-2.7388915964110452</v>
+        <v>0.42876808744458711</v>
       </c>
       <c r="F33" s="12">
-        <v>97.658450817484407</v>
+        <v>98.036813955876966</v>
       </c>
       <c r="G33" s="12">
-        <v>2.2211950839236261</v>
+        <v>1.884038739603042</v>
       </c>
       <c r="H33" s="12">
-        <v>0.1203540985908241</v>
+        <v>7.9147304518848063E-2</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
@@ -1956,31 +1956,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B34" s="12">
-        <v>10.719961367959449</v>
+        <v>8.9824142164468235</v>
       </c>
       <c r="C34" s="12">
-        <v>-3.9700676820481151</v>
+        <v>-1.567757124270279</v>
       </c>
       <c r="D34" s="12">
-        <v>20.918068939287</v>
+        <v>19.759076301828479</v>
       </c>
       <c r="E34" s="12">
-        <v>-3.6882500826820328</v>
+        <v>-0.96293059509440737</v>
       </c>
       <c r="F34" s="12">
-        <v>98.035979322761591</v>
+        <v>98.461740861953785</v>
       </c>
       <c r="G34" s="12">
-        <v>1.8435841011243881</v>
+        <v>1.44797551692824</v>
       </c>
       <c r="H34" s="12">
-        <v>0.1204365761131815</v>
+        <v>9.0283621116293844E-2</v>
       </c>
       <c r="I34" s="12">
-        <v>3.0109144028295381E-2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1989,28 +1989,28 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B35" s="12">
-        <v>12.3014974791332</v>
+        <v>11.925636981562009</v>
       </c>
       <c r="C35" s="12">
-        <v>-6.7772547846953497</v>
+        <v>-0.22204449446504931</v>
       </c>
       <c r="D35" s="12">
-        <v>31.108560871009342</v>
+        <v>30.792702903602709</v>
       </c>
       <c r="E35" s="12">
-        <v>-2.4076396675609542</v>
+        <v>-0.24263390303273799</v>
       </c>
       <c r="F35" s="12">
-        <v>97.510304712861711</v>
+        <v>97.736647794566551</v>
       </c>
       <c r="G35" s="12">
-        <v>2.3490151882279471</v>
+        <v>2.1450724161545831</v>
       </c>
       <c r="H35" s="12">
-        <v>0.1406800989103334</v>
+        <v>0.1182797892788577</v>
       </c>
       <c r="I35" s="12">
         <v>0</v>
@@ -2022,28 +2022,28 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B36" s="12">
-        <v>16.321620169345159</v>
+        <v>8.2576356626569325</v>
       </c>
       <c r="C36" s="12">
-        <v>-7.517996209579076</v>
+        <v>-6.9301671440960559</v>
       </c>
       <c r="D36" s="12">
-        <v>24.526032511063612</v>
+        <v>20.72970967168914</v>
       </c>
       <c r="E36" s="12">
-        <v>-2.5501102287615049</v>
+        <v>-3.0484097958055951</v>
       </c>
       <c r="F36" s="12">
-        <v>97.915671519797129</v>
+        <v>98.695779944936547</v>
       </c>
       <c r="G36" s="12">
-        <v>1.996149186104675</v>
+        <v>1.263495602975786</v>
       </c>
       <c r="H36" s="12">
-        <v>8.8179294098194361E-2</v>
+        <v>4.0724452087674043E-2</v>
       </c>
       <c r="I36" s="12">
         <v>0</v>
@@ -2055,25 +2055,25 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B37" s="12">
-        <v>11.50895404367253</v>
+        <v>10.314464358198171</v>
       </c>
       <c r="C37" s="12">
-        <v>-4.8012776323131634</v>
+        <v>-1.402023247662544</v>
       </c>
       <c r="D37" s="12">
-        <v>26.916092551921299</v>
+        <v>24.531295777594401</v>
       </c>
       <c r="E37" s="12">
-        <v>-5.0561453273505661</v>
+        <v>-1.579902025363054</v>
       </c>
       <c r="F37" s="12">
-        <v>99.971300397846321</v>
+        <v>99.971044705679574</v>
       </c>
       <c r="G37" s="12">
-        <v>2.8699602153663271E-2</v>
+        <v>2.895529432040897E-2</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -2088,31 +2088,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B38" s="12">
-        <v>3.18376076533275</v>
+        <v>2.730338056310436</v>
       </c>
       <c r="C38" s="12">
-        <v>-13.43912536815767</v>
+        <v>-0.43859935024796742</v>
       </c>
       <c r="D38" s="12">
-        <v>14.561704671405449</v>
+        <v>13.82654247093506</v>
       </c>
       <c r="E38" s="12">
-        <v>-7.9875034035975272</v>
+        <v>-0.62082223392688418</v>
       </c>
       <c r="F38" s="12">
-        <v>99.329101919290508</v>
+        <v>99.449815116529976</v>
       </c>
       <c r="G38" s="12">
-        <v>0.63572164902916406</v>
+        <v>0.53615055817483981</v>
       </c>
       <c r="H38" s="12">
-        <v>3.5176431680302378E-2</v>
+        <v>7.1300498602411399E-3</v>
       </c>
       <c r="I38" s="12">
-        <v>0</v>
+        <v>6.9042754349167134E-3</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2121,28 +2121,28 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B39" s="12">
-        <v>6.4652926431870661</v>
+        <v>-2.9387648140426199</v>
       </c>
       <c r="C39" s="12">
-        <v>-2.7401264464920412</v>
+        <v>-8.8101081145031532</v>
       </c>
       <c r="D39" s="12">
-        <v>15.54591315923521</v>
+        <v>11.676929126991849</v>
       </c>
       <c r="E39" s="12">
-        <v>-0.87126641881089728</v>
+        <v>-3.3983745599315078</v>
       </c>
       <c r="F39" s="12">
-        <v>99.896539516890826</v>
+        <v>99.939318934887638</v>
       </c>
       <c r="G39" s="12">
-        <v>8.8503890963069598E-2</v>
+        <v>4.5510798834284799E-2</v>
       </c>
       <c r="H39" s="12">
-        <v>1.4956592146102289E-2</v>
+        <v>1.5170266278094939E-2</v>
       </c>
       <c r="I39" s="12">
         <v>0</v>
@@ -2154,31 +2154,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B40" s="12">
-        <v>8.255594522377967</v>
+        <v>8.4819525081923324</v>
       </c>
       <c r="C40" s="12">
-        <v>-7.5810876501796836</v>
+        <v>0.20160599177844771</v>
       </c>
       <c r="D40" s="12">
-        <v>24.620861497180819</v>
+        <v>25.687477860102781</v>
       </c>
       <c r="E40" s="12">
-        <v>-2.917060288057673</v>
+        <v>0.84744979520467567</v>
       </c>
       <c r="F40" s="12">
-        <v>97.936170891670912</v>
+        <v>98.270895633125889</v>
       </c>
       <c r="G40" s="12">
-        <v>1.6010185036734741</v>
+        <v>1.393630879864294</v>
       </c>
       <c r="H40" s="12">
-        <v>0.45441382129300412</v>
+        <v>0.33547348700822333</v>
       </c>
       <c r="I40" s="12">
-        <v>8.3967833618066191E-3</v>
+        <v>9.0856127900784695E-3</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2187,31 +2187,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B41" s="12">
-        <v>2.5279225732600281</v>
+        <v>0.76394211557914027</v>
       </c>
       <c r="C41" s="12">
-        <v>-7.7022958445344711</v>
+        <v>-1.7197164438451571</v>
       </c>
       <c r="D41" s="12">
-        <v>25.574287402934971</v>
+        <v>24.825021531293711</v>
       </c>
       <c r="E41" s="12">
-        <v>-3.0311365704076958</v>
+        <v>-0.60277994487254583</v>
       </c>
       <c r="F41" s="12">
-        <v>98.980235330094544</v>
+        <v>99.25873969057217</v>
       </c>
       <c r="G41" s="12">
-        <v>1.016386867428178</v>
+        <v>0.72437507612929464</v>
       </c>
       <c r="H41" s="12">
-        <v>3.377802475358958E-3</v>
+        <v>1.6885233296639331E-2</v>
       </c>
       <c r="I41" s="12">
-        <v>0</v>
+        <v>3.377046658946125E-3</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2220,28 +2220,28 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B42" s="12">
-        <v>18.670000000000002</v>
+        <v>10.34</v>
       </c>
       <c r="C42" s="12">
-        <v>-6.38</v>
+        <v>-7.02</v>
       </c>
       <c r="D42" s="12">
-        <v>41.82</v>
+        <v>38.58</v>
       </c>
       <c r="E42" s="12">
-        <v>-4.1300000000000008</v>
+        <v>-3.45</v>
       </c>
       <c r="F42" s="12">
-        <v>99.9</v>
+        <v>99.660000000000011</v>
       </c>
       <c r="G42" s="12">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="H42" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I42" s="12">
         <v>0</v>
@@ -2253,31 +2253,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B43" s="12">
-        <v>12.650708767082479</v>
+        <v>7.7001426829311956</v>
       </c>
       <c r="C43" s="12">
-        <v>-6.9852764121239712</v>
+        <v>-4.3743398184700064</v>
       </c>
       <c r="D43" s="12">
-        <v>22.065817331198989</v>
+        <v>18.704832521704748</v>
       </c>
       <c r="E43" s="12">
-        <v>-2.9315047156404228</v>
+        <v>-2.7629798335954892</v>
       </c>
       <c r="F43" s="12">
-        <v>98.919212464321191</v>
+        <v>99.290594084527115</v>
       </c>
       <c r="G43" s="12">
-        <v>1.05311097518894</v>
+        <v>0.67252214881504946</v>
       </c>
       <c r="H43" s="12">
-        <v>1.845104032646985E-2</v>
+        <v>3.6883766657672942E-2</v>
       </c>
       <c r="I43" s="12">
-        <v>9.2255201632349265E-3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2286,28 +2286,28 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B44" s="12">
-        <v>15.14691447174677</v>
+        <v>14.116736237240589</v>
       </c>
       <c r="C44" s="12">
-        <v>-2.9576439462865989</v>
+        <v>-4.0855212937831862</v>
       </c>
       <c r="D44" s="12">
-        <v>28.089101965458891</v>
+        <v>27.418879773867669</v>
       </c>
       <c r="E44" s="12">
-        <v>-2.7942062501151299</v>
+        <v>-1.237234662446812</v>
       </c>
       <c r="F44" s="12">
-        <v>99.656266261057525</v>
+        <v>99.625279980818362</v>
       </c>
       <c r="G44" s="12">
-        <v>0.2673484636219296</v>
+        <v>0.26230401342715348</v>
       </c>
       <c r="H44" s="12">
-        <v>7.638527532055131E-2</v>
+        <v>0.1124160057544944</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
@@ -2319,28 +2319,28 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B45" s="12">
-        <v>5.2245631761300313</v>
+        <v>1.6472033887317721</v>
       </c>
       <c r="C45" s="12">
-        <v>-7.095491706302826</v>
+        <v>-3.4006891584832748</v>
       </c>
       <c r="D45" s="12">
-        <v>18.163220084547511</v>
+        <v>17.698605175798079</v>
       </c>
       <c r="E45" s="12">
-        <v>-2.5799938160833218</v>
+        <v>-0.40250977329366489</v>
       </c>
       <c r="F45" s="12">
-        <v>98.845962569626977</v>
+        <v>99.138551907976066</v>
       </c>
       <c r="G45" s="12">
-        <v>1.1122420703002149</v>
+        <v>0.84946894717854327</v>
       </c>
       <c r="H45" s="12">
-        <v>4.1795360072101967E-2</v>
+        <v>1.1979144844677041E-2</v>
       </c>
       <c r="I45" s="12">
         <v>0</v>
@@ -2352,31 +2352,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B46" s="12">
-        <v>9.1627248305327171</v>
+        <v>6.7459468008675341</v>
       </c>
       <c r="C46" s="12">
-        <v>-3.7628448398447278</v>
+        <v>-2.227574473938267</v>
       </c>
       <c r="D46" s="12">
-        <v>22.03128855573032</v>
+        <v>20.260736505463019</v>
       </c>
       <c r="E46" s="12">
-        <v>-2.0356957808843381</v>
+        <v>-1.4324078413362209</v>
       </c>
       <c r="F46" s="12">
-        <v>98.227619154892523</v>
+        <v>98.643009658673179</v>
       </c>
       <c r="G46" s="12">
-        <v>1.673031258282206</v>
+        <v>1.3000314115522009</v>
       </c>
       <c r="H46" s="12">
-        <v>8.6470882652086828E-2</v>
+        <v>5.2134221899226202E-2</v>
       </c>
       <c r="I46" s="12">
-        <v>1.287870417287473E-2</v>
+        <v>4.8247078751070304E-3</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2385,25 +2385,25 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B47" s="12">
-        <v>-0.90644232840973316</v>
+        <v>-2.5930292061914302</v>
       </c>
       <c r="C47" s="12">
-        <v>-7.1781999999999986</v>
+        <v>-1.702</v>
       </c>
       <c r="D47" s="12">
-        <v>21.453116171483298</v>
+        <v>21.585331874507499</v>
       </c>
       <c r="E47" s="12">
-        <v>-1.9517</v>
+        <v>0.10879999999999999</v>
       </c>
       <c r="F47" s="12">
-        <v>98.084942084942</v>
+        <v>98.467374810318006</v>
       </c>
       <c r="G47" s="12">
-        <v>1.915057915057</v>
+        <v>1.5326251896809999</v>
       </c>
       <c r="H47" s="12">
         <v>0</v>
@@ -2418,25 +2418,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B48" s="12">
-        <v>6.3189959636770139</v>
+        <v>7.7374194636680791</v>
       </c>
       <c r="C48" s="12">
-        <v>-4.5397777959155912</v>
+        <v>1.3346377023489431</v>
       </c>
       <c r="D48" s="12">
-        <v>29.317307192823741</v>
+        <v>31.842846309022491</v>
       </c>
       <c r="E48" s="12">
-        <v>-1.9387654234027629</v>
+        <v>1.980715653800319</v>
       </c>
       <c r="F48" s="12">
-        <v>99.683802898940755</v>
+        <v>99.842426784091302</v>
       </c>
       <c r="G48" s="12">
-        <v>0.31619710105829629</v>
+        <v>0.157573215907755</v>
       </c>
       <c r="H48" s="12">
         <v>0</v>
@@ -2451,28 +2451,28 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B49" s="12">
-        <v>5.7522667065288022</v>
+        <v>1.698063106070498</v>
       </c>
       <c r="C49" s="12">
-        <v>-8.5945991401634565</v>
+        <v>-3.748143054220487</v>
       </c>
       <c r="D49" s="12">
-        <v>27.21802951747199</v>
+        <v>25.19616979164778</v>
       </c>
       <c r="E49" s="12">
-        <v>-2.5870761390724031</v>
+        <v>-1.5534261926047781</v>
       </c>
       <c r="F49" s="12">
-        <v>99.221972154419575</v>
+        <v>99.375682111838273</v>
       </c>
       <c r="G49" s="12">
-        <v>0.76890570203760578</v>
+        <v>0.62431788816101663</v>
       </c>
       <c r="H49" s="12">
-        <v>9.122143542130097E-3</v>
+        <v>0</v>
       </c>
       <c r="I49" s="12">
         <v>0</v>
@@ -2484,31 +2484,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B50" s="12">
-        <v>8.7869629100618774</v>
+        <v>7.9268321210788022</v>
       </c>
       <c r="C50" s="12">
-        <v>-6.2021649110713604</v>
+        <v>-0.80870927931456982</v>
       </c>
       <c r="D50" s="12">
-        <v>26.65332070116186</v>
+        <v>27.837289373551179</v>
       </c>
       <c r="E50" s="12">
-        <v>-2.2247428022262912</v>
+        <v>0.97942001281585123</v>
       </c>
       <c r="F50" s="12">
-        <v>96.392554787167555</v>
+        <v>96.626203744719191</v>
       </c>
       <c r="G50" s="12">
-        <v>2.7595123085047382</v>
+        <v>2.555482044569521</v>
       </c>
       <c r="H50" s="12">
-        <v>0.84793290432681012</v>
+        <v>0.81831421071039623</v>
       </c>
       <c r="I50" s="12">
-        <v>9.5306040726377481E-3</v>
+        <v>9.5152815192213903E-3</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2517,28 +2517,28 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B51" s="12">
-        <v>-2.363734194493845</v>
+        <v>-3.8723109204927528</v>
       </c>
       <c r="C51" s="12">
-        <v>-11.664500592577729</v>
+        <v>-1.551540656490795</v>
       </c>
       <c r="D51" s="12">
-        <v>14.982356010002951</v>
+        <v>14.10608571017657</v>
       </c>
       <c r="E51" s="12">
-        <v>-3.6404574839020412</v>
+        <v>-0.7624390700917475</v>
       </c>
       <c r="F51" s="12">
-        <v>99.038697556293243</v>
+        <v>99.160338509520955</v>
       </c>
       <c r="G51" s="12">
-        <v>0.93807738421366427</v>
+        <v>0.81540214429465085</v>
       </c>
       <c r="H51" s="12">
-        <v>2.3225059492549781E-2</v>
+        <v>2.425934618387748E-2</v>
       </c>
       <c r="I51" s="12">
         <v>0</v>
@@ -2550,31 +2550,31 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B52" s="12">
-        <v>7.5381170283099976</v>
+        <v>2.45085877811412</v>
       </c>
       <c r="C52" s="12">
-        <v>-7.256538084944661</v>
+        <v>-4.7283856282764321</v>
       </c>
       <c r="D52" s="12">
-        <v>30.724594915201159</v>
+        <v>23.05947663058182</v>
       </c>
       <c r="E52" s="12">
-        <v>-4.3610027965361402</v>
+        <v>-5.8439098975346031</v>
       </c>
       <c r="F52" s="12">
-        <v>97.433590986097116</v>
+        <v>97.854810127264628</v>
       </c>
       <c r="G52" s="12">
-        <v>2.5508064478094949</v>
+        <v>2.113987110950128</v>
       </c>
       <c r="H52" s="12">
-        <v>7.8012830466895212E-3</v>
+        <v>2.340207133893131E-2</v>
       </c>
       <c r="I52" s="12">
-        <v>7.8012830466895212E-3</v>
+        <v>7.8006904463104347E-3</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2583,25 +2583,25 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B53" s="12">
-        <v>-4.8241982480456969E-2</v>
+        <v>-4.6211208751012141</v>
       </c>
       <c r="C53" s="12">
-        <v>-7.5481453391873394</v>
+        <v>-4.5750860048096591</v>
       </c>
       <c r="D53" s="12">
-        <v>10.79143472045045</v>
+        <v>9.0159756454659892</v>
       </c>
       <c r="E53" s="12">
-        <v>-2.8612641851938792</v>
+        <v>-1.6025237686147049</v>
       </c>
       <c r="F53" s="12">
-        <v>99.831791421362496</v>
+        <v>99.663582842724978</v>
       </c>
       <c r="G53" s="12">
-        <v>0.16820857863751049</v>
+        <v>0.33641715727502097</v>
       </c>
       <c r="H53" s="12">
         <v>0</v>
@@ -2623,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X73" sqref="X73"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2636,15 +2636,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -2686,8 +2686,11 @@
       <c r="L4" s="5">
         <v>43981</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M4" s="5">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -2720,6 +2723,9 @@
       </c>
       <c r="L5" s="6">
         <v>0.36099999999999999</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.35299999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92FA9F53-EA9D-8F42-9231-958B53A63667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF58155-6957-924F-A8A1-B7525504505E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="560" windowWidth="32080" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -378,6 +377,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,7 +387,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -412,15 +411,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>693652</xdr:colOff>
+      <xdr:colOff>693653</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>8520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>242945</xdr:colOff>
+      <xdr:colOff>242944</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>143990</xdr:rowOff>
+      <xdr:rowOff>143989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,8 +447,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="693652" y="580020"/>
-          <a:ext cx="13582793" cy="10422470"/>
+          <a:off x="693653" y="580020"/>
+          <a:ext cx="13582791" cy="10422469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -467,9 +466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>583368</xdr:colOff>
+      <xdr:colOff>583367</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>142841</xdr:rowOff>
+      <xdr:rowOff>142840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -498,7 +497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14228845" y="568719"/>
-          <a:ext cx="13596023" cy="10432622"/>
+          <a:ext cx="13596022" cy="10432621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,9 +515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>317498</xdr:colOff>
+      <xdr:colOff>317497</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>27342</xdr:rowOff>
+      <xdr:rowOff>27341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -547,7 +546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1082785" y="11120328"/>
-          <a:ext cx="14093713" cy="10814514"/>
+          <a:ext cx="14093712" cy="10814513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,20 +847,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F55" sqref="F55"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,62 +868,62 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12">
-        <v>6.6170662812691887</v>
-      </c>
-      <c r="C2" s="12">
-        <v>-2.3110075223514799</v>
-      </c>
-      <c r="D2" s="12">
-        <v>25.094468340092931</v>
-      </c>
-      <c r="E2" s="12">
-        <v>-0.93205888074716992</v>
-      </c>
-      <c r="F2" s="12">
-        <v>98.174738426212073</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1.75303658403744</v>
-      </c>
-      <c r="H2" s="12">
-        <v>7.0457551126694329E-2</v>
-      </c>
-      <c r="I2" s="12">
-        <v>2.4250379577178531E-3</v>
+      <c r="B2" s="9">
+        <v>14.879692152256601</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7.8348537288890778</v>
+      </c>
+      <c r="D2" s="9">
+        <v>24.87979710955187</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-0.27139888286734842</v>
+      </c>
+      <c r="F2" s="9">
+        <v>97.753660573120484</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2.086381757444709</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.13086877383016229</v>
+      </c>
+      <c r="I2" s="9">
+        <v>3.19865942565878E-2</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -935,29 +934,29 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12">
-        <v>4.2792909224350222</v>
-      </c>
-      <c r="C3" s="12">
-        <v>-3.701054313505129</v>
-      </c>
-      <c r="D3" s="12">
-        <v>17.394745644193879</v>
-      </c>
-      <c r="E3" s="12">
-        <v>-0.3725699103893958</v>
-      </c>
-      <c r="F3" s="12">
-        <v>99.287358511390352</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.64274302617828971</v>
-      </c>
-      <c r="H3" s="12">
-        <v>5.9912967798085297E-2</v>
-      </c>
-      <c r="I3" s="12">
-        <v>9.985494633014215E-3</v>
+      <c r="B3" s="9">
+        <v>11.51855934726829</v>
+      </c>
+      <c r="C3" s="9">
+        <v>7.0159503052320593</v>
+      </c>
+      <c r="D3" s="9">
+        <v>18.314196824140389</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.78220880702599593</v>
+      </c>
+      <c r="F3" s="9">
+        <v>98.364265887246063</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.4660727701967999</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.1197609476871971</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4.9900394869665472E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -968,28 +967,28 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12">
-        <v>-5.5</v>
-      </c>
-      <c r="D4" s="12">
-        <v>19.8</v>
-      </c>
-      <c r="E4" s="12">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="F4" s="12">
-        <v>99.920844327176781</v>
-      </c>
-      <c r="G4" s="12">
-        <v>7.9155672823218989E-2</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="B4" s="9">
+        <v>47.176994883188229</v>
+      </c>
+      <c r="C4" s="9">
+        <v>31.655334234351852</v>
+      </c>
+      <c r="D4" s="9">
+        <v>26.929456807633301</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5.8659486104778447</v>
+      </c>
+      <c r="F4" s="9">
+        <v>99.947340705634545</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5.2659294365455502E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
@@ -1001,29 +1000,29 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12">
-        <v>6.707379631873013</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.55763266328656291</v>
-      </c>
-      <c r="D5" s="12">
-        <v>23.048759434927</v>
-      </c>
-      <c r="E5" s="12">
-        <v>-2.9227658201275921</v>
-      </c>
-      <c r="F5" s="12">
-        <v>99.125678469546671</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.74744201962114409</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.1268795108320748</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
+      <c r="B5" s="9">
+        <v>14.39692861125206</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7.2088578532043259</v>
+      </c>
+      <c r="D5" s="9">
+        <v>24.783814352515801</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.198241134836012</v>
+      </c>
+      <c r="F5" s="9">
+        <v>98.71683485148327</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.1211883504696989</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.13955929785574239</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2.2417500191230361E-2</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1034,28 +1033,28 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
-        <v>1.993625677124619</v>
-      </c>
-      <c r="C6" s="12">
-        <v>-5.2467189065584838</v>
-      </c>
-      <c r="D6" s="12">
-        <v>12.72469816573321</v>
-      </c>
-      <c r="E6" s="12">
-        <v>-2.187586628880358</v>
-      </c>
-      <c r="F6" s="12">
-        <v>99.296079120695993</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.54830044716032889</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.15562043214341689</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="B6" s="9">
+        <v>12.15441299489887</v>
+      </c>
+      <c r="C6" s="9">
+        <v>9.9430767958030462</v>
+      </c>
+      <c r="D6" s="9">
+        <v>14.718156191519039</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.5164305920980019</v>
+      </c>
+      <c r="F6" s="9">
+        <v>98.802186816959718</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.93003619108530156</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.26777699195471422</v>
+      </c>
+      <c r="I6" s="9">
         <v>0</v>
       </c>
       <c r="J6" s="8"/>
@@ -1067,29 +1066,29 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12">
-        <v>14.04561955552569</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.2412358683830631</v>
-      </c>
-      <c r="D7" s="12">
-        <v>34.782755886081382</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.15581918554338131</v>
-      </c>
-      <c r="F7" s="12">
-        <v>93.582593573122807</v>
-      </c>
-      <c r="G7" s="12">
-        <v>6.3761584106062479</v>
-      </c>
-      <c r="H7" s="12">
-        <v>3.5134646648576268E-2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>5.2703264416695964E-3</v>
+      <c r="B7" s="9">
+        <v>19.737086919264371</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5.0755212405432379</v>
+      </c>
+      <c r="D7" s="9">
+        <v>32.10099836436774</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-2.043444801623465</v>
+      </c>
+      <c r="F7" s="9">
+        <v>92.78477972650505</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6.8272902537751774</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.25276907768697909</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.13516094203236559</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1100,28 +1099,28 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12">
-        <v>-3.9028146495555358</v>
-      </c>
-      <c r="C8" s="12">
-        <v>-4.9314398367187193</v>
-      </c>
-      <c r="D8" s="12">
-        <v>21.733933253408619</v>
-      </c>
-      <c r="E8" s="12">
-        <v>-1.943331997317655</v>
-      </c>
-      <c r="F8" s="12">
-        <v>96.547200440122268</v>
-      </c>
-      <c r="G8" s="12">
-        <v>3.4460524847063718</v>
-      </c>
-      <c r="H8" s="12">
-        <v>6.7470751695163063E-3</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="B8" s="9">
+        <v>3.5367501290432921</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7.7283013318595444</v>
+      </c>
+      <c r="D8" s="9">
+        <v>21.79340139400524</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6.3116799857390493E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>97.020313540837108</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2.966059887851709</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.362657130934942E-2</v>
+      </c>
+      <c r="I8" s="9">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
@@ -1133,29 +1132,29 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12">
-        <v>13.036380173633161</v>
-      </c>
-      <c r="C9" s="12">
-        <v>-3.184819985047207</v>
-      </c>
-      <c r="D9" s="12">
-        <v>36.081359577620951</v>
-      </c>
-      <c r="E9" s="12">
-        <v>-0.12048136414987461</v>
-      </c>
-      <c r="F9" s="12">
-        <v>97.720281615274487</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2.0746608700214701</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.20505751470282171</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
+      <c r="B9" s="9">
+        <v>24.010305909690029</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9.7012493339823589</v>
+      </c>
+      <c r="D9" s="9">
+        <v>35.761317874820797</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-0.3101396731008641</v>
+      </c>
+      <c r="F9" s="9">
+        <v>97.106643521098405</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2.5799571809625501</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.31339929793783078</v>
+      </c>
+      <c r="I9" s="9">
+        <v>7.5152057340938834E-3</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1166,28 +1165,28 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12">
-        <v>3.569003841388783</v>
-      </c>
-      <c r="C10" s="12">
-        <v>-3.9742324482363549</v>
-      </c>
-      <c r="D10" s="12">
-        <v>31.98367141412125</v>
-      </c>
-      <c r="E10" s="12">
-        <v>-5.6131627788971683E-2</v>
-      </c>
-      <c r="F10" s="12">
-        <v>99.104454727921322</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.89554527207781365</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="B10" s="9">
+        <v>12.744500344877981</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8.9187391304820363</v>
+      </c>
+      <c r="D10" s="9">
+        <v>31.17910701326392</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-0.6662910046280176</v>
+      </c>
+      <c r="F10" s="9">
+        <v>98.825402303789588</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.1390038266277609</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3.5593869581790658E-2</v>
+      </c>
+      <c r="I10" s="9">
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
@@ -1199,28 +1198,28 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12">
-        <v>-4.6062883090934097</v>
-      </c>
-      <c r="C11" s="12">
-        <v>-2.4836</v>
-      </c>
-      <c r="D11" s="12">
-        <v>32.239010977509899</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.19850000000000001</v>
-      </c>
-      <c r="F11" s="12">
-        <v>97.797173732334997</v>
-      </c>
-      <c r="G11" s="12">
-        <v>2.2028262676639998</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="B11" s="9">
+        <v>2.6103704848839601E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="D11" s="9">
+        <v>32.192821421013797</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-3.49E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>97.682119205297994</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2.2350993377480002</v>
+      </c>
+      <c r="H11" s="9">
+        <v>8.2781456953000002E-2</v>
+      </c>
+      <c r="I11" s="9">
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
@@ -1232,29 +1231,29 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12">
-        <v>8.1649454354892637</v>
-      </c>
-      <c r="C12" s="12">
-        <v>-2.5571494592505069</v>
-      </c>
-      <c r="D12" s="12">
-        <v>21.096425906213749</v>
-      </c>
-      <c r="E12" s="12">
-        <v>-0.1728810782517794</v>
-      </c>
-      <c r="F12" s="12">
-        <v>98.900075906544672</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1.0335999095348101</v>
-      </c>
-      <c r="H12" s="12">
-        <v>6.6324183919311983E-2</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
+      <c r="B12" s="9">
+        <v>14.79734417090711</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.0681431696879651</v>
+      </c>
+      <c r="D12" s="9">
+        <v>19.53258950236323</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-1.307746936234792</v>
+      </c>
+      <c r="F12" s="9">
+        <v>98.506498507970676</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1.388775823651899</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9.931923293781772E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.353345463358557E-2</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1265,29 +1264,29 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12">
-        <v>2.2527345794217442</v>
-      </c>
-      <c r="C13" s="12">
-        <v>-3.8182183164047219</v>
-      </c>
-      <c r="D13" s="12">
-        <v>22.35135722722389</v>
-      </c>
-      <c r="E13" s="12">
-        <v>-0.65374577596791839</v>
-      </c>
-      <c r="F13" s="12">
-        <v>98.947058634179768</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1.049359780132195</v>
-      </c>
-      <c r="H13" s="12">
-        <v>3.5815856872637732E-3</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
+      <c r="B13" s="9">
+        <v>10.17626945239061</v>
+      </c>
+      <c r="C13" s="9">
+        <v>7.7455198446739706</v>
+      </c>
+      <c r="D13" s="9">
+        <v>23.307094294150591</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.76650773108125436</v>
+      </c>
+      <c r="F13" s="9">
+        <v>98.646973317214275</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.309181086473306</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.3121819942291519E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.0723776368566629E-2</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1298,29 +1297,29 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12">
-        <v>17.76315867966229</v>
-      </c>
-      <c r="C14" s="12">
-        <v>-4.0025457432771416</v>
-      </c>
-      <c r="D14" s="12">
-        <v>12.89733723200386</v>
-      </c>
-      <c r="E14" s="12">
-        <v>-2.7845871442966348</v>
-      </c>
-      <c r="F14" s="12">
-        <v>98.983783783783792</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1.0162162162162161</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
+      <c r="B14" s="9">
+        <v>53.628073762406082</v>
+      </c>
+      <c r="C14" s="9">
+        <v>30.45512321922601</v>
+      </c>
+      <c r="D14" s="9">
+        <v>25.306803400378431</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10.991814751904339</v>
+      </c>
+      <c r="F14" s="9">
+        <v>94.655505473277529</v>
+      </c>
+      <c r="G14" s="9">
+        <v>3.8849538527581018</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.72977033698218507</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.72977033698218507</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1331,28 +1330,28 @@
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12">
-        <v>-8.248887844816559E-2</v>
-      </c>
-      <c r="C15" s="12">
-        <v>-1.156631627306711</v>
-      </c>
-      <c r="D15" s="12">
-        <v>23.25155027335903</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.65341148840413332</v>
-      </c>
-      <c r="F15" s="12">
-        <v>99.821828983878618</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.17817101612139721</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="B15" s="9">
+        <v>7.4389098257225816</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7.5625372358218277</v>
+      </c>
+      <c r="D15" s="9">
+        <v>26.362033774201301</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5910509481818522</v>
+      </c>
+      <c r="F15" s="9">
+        <v>99.637132515116733</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.31440143373663271</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4.8466051146635193E-2</v>
+      </c>
+      <c r="I15" s="9">
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
@@ -1364,28 +1363,28 @@
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12">
-        <v>-0.1308279680388991</v>
-      </c>
-      <c r="C16" s="12">
-        <v>-4.0862969145201831</v>
-      </c>
-      <c r="D16" s="12">
-        <v>28.926457631180391</v>
-      </c>
-      <c r="E16" s="12">
-        <v>-0.84750362993741635</v>
-      </c>
-      <c r="F16" s="12">
-        <v>98.366081932723475</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1.630835118928736</v>
-      </c>
-      <c r="H16" s="12">
-        <v>3.0829483469576812E-3</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="B16" s="9">
+        <v>8.4207362270780148</v>
+      </c>
+      <c r="C16" s="9">
+        <v>8.5735349721638396</v>
+      </c>
+      <c r="D16" s="9">
+        <v>28.183843234012091</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-0.57381674565062957</v>
+      </c>
+      <c r="F16" s="9">
+        <v>98.636426277997884</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.354549558023896</v>
+      </c>
+      <c r="H16" s="9">
+        <v>9.0241639773597417E-3</v>
+      </c>
+      <c r="I16" s="9">
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
@@ -1397,29 +1396,29 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12">
-        <v>-2.184515643233556</v>
-      </c>
-      <c r="C17" s="12">
-        <v>-2.4739079398688002</v>
-      </c>
-      <c r="D17" s="12">
-        <v>18.20318649896095</v>
-      </c>
-      <c r="E17" s="12">
-        <v>-1.0914365651178171</v>
-      </c>
-      <c r="F17" s="12">
-        <v>99.495416132307071</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.49209249430186619</v>
-      </c>
-      <c r="H17" s="12">
-        <v>6.4445831375612942E-3</v>
-      </c>
-      <c r="I17" s="12">
-        <v>6.0467902520419123E-3</v>
+      <c r="B17" s="9">
+        <v>6.0560842752275894</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8.4486740105364024</v>
+      </c>
+      <c r="D17" s="9">
+        <v>18.353339134687541</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.14490108563290199</v>
+      </c>
+      <c r="F17" s="9">
+        <v>99.323249564969117</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.64647893030745396</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2.4217203778164241E-2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.0543009445410611E-3</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1430,28 +1429,28 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12">
-        <v>4.9256905256525059</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.57267726769289695</v>
-      </c>
-      <c r="D18" s="12">
-        <v>19.233313568580691</v>
-      </c>
-      <c r="E18" s="12">
-        <v>-5.2104239837902719</v>
-      </c>
-      <c r="F18" s="12">
-        <v>99.967870459299363</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3.2129540700639433E-2</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="B18" s="9">
+        <v>6.030105259614488</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.0608311248155049</v>
+      </c>
+      <c r="D18" s="9">
+        <v>22.453755297739612</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.702663620254488</v>
+      </c>
+      <c r="F18" s="9">
+        <v>99.976129830746558</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2.387016925343767E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
@@ -1463,28 +1462,28 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12">
-        <v>-1.735638314488644</v>
-      </c>
-      <c r="C19" s="12">
-        <v>-9.0934525270588118</v>
-      </c>
-      <c r="D19" s="12">
-        <v>19.6921362875146</v>
-      </c>
-      <c r="E19" s="12">
-        <v>-4.8724687088074274</v>
-      </c>
-      <c r="F19" s="12">
-        <v>99.712181123173792</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.26559147520946202</v>
-      </c>
-      <c r="H19" s="12">
-        <v>2.2227401616750998E-2</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="B19" s="9">
+        <v>6.96366815534744</v>
+      </c>
+      <c r="C19" s="9">
+        <v>9.2481523673731623</v>
+      </c>
+      <c r="D19" s="9">
+        <v>21.984907483278331</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.960782363063194</v>
+      </c>
+      <c r="F19" s="9">
+        <v>99.690250505772894</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.28789615602937552</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1.7482670558190441E-2</v>
+      </c>
+      <c r="I19" s="9">
         <v>0</v>
       </c>
       <c r="J19" s="8"/>
@@ -1496,29 +1495,29 @@
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12">
-        <v>5.6117167981219893</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0.38274051281582683</v>
-      </c>
-      <c r="D20" s="12">
-        <v>14.6713589701305</v>
-      </c>
-      <c r="E20" s="12">
-        <v>6.9463414518258021E-2</v>
-      </c>
-      <c r="F20" s="12">
-        <v>99.512718130752489</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0.46507387113938042</v>
-      </c>
-      <c r="H20" s="12">
-        <v>2.2207998108048389E-2</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
+      <c r="B20" s="9">
+        <v>10.11812507699972</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4.3711762295844876</v>
+      </c>
+      <c r="D20" s="9">
+        <v>12.61069328516507</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-1.7958614606542029</v>
+      </c>
+      <c r="F20" s="9">
+        <v>98.535263378355182</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1.320500442752109</v>
+      </c>
+      <c r="H20" s="9">
+        <v>9.9855816156440777E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>4.4380362736195909E-2</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1529,28 +1528,28 @@
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12">
-        <v>9.8686250055221247</v>
-      </c>
-      <c r="C21" s="12">
-        <v>-3.5595980063000918</v>
-      </c>
-      <c r="D21" s="12">
-        <v>15.26383619885001</v>
-      </c>
-      <c r="E21" s="12">
-        <v>-0.83433283648483858</v>
-      </c>
-      <c r="F21" s="12">
-        <v>99.586293018797519</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0.3834333900360733</v>
-      </c>
-      <c r="H21" s="12">
-        <v>3.027359116626872E-2</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="B21" s="9">
+        <v>20.854336383320309</v>
+      </c>
+      <c r="C21" s="9">
+        <v>9.9431753313140643</v>
+      </c>
+      <c r="D21" s="9">
+        <v>17.930616994089348</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.848085722491503</v>
+      </c>
+      <c r="F21" s="9">
+        <v>99.157682370218112</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.77188122251604296</v>
+      </c>
+      <c r="H21" s="9">
+        <v>7.0436407265694487E-2</v>
+      </c>
+      <c r="I21" s="9">
         <v>0</v>
       </c>
       <c r="J21" s="8"/>
@@ -1562,28 +1561,28 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12">
-        <v>10.735121526810071</v>
-      </c>
-      <c r="C22" s="12">
-        <v>-0.92427312318369392</v>
-      </c>
-      <c r="D22" s="12">
-        <v>37.414251394593663</v>
-      </c>
-      <c r="E22" s="12">
-        <v>-2.1366262758831129</v>
-      </c>
-      <c r="F22" s="12">
-        <v>99.58221835971473</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0.41778164028520431</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="B22" s="9">
+        <v>23.04524528363384</v>
+      </c>
+      <c r="C22" s="9">
+        <v>11.117624100700921</v>
+      </c>
+      <c r="D22" s="9">
+        <v>39.603661115050272</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.5923370492082349</v>
+      </c>
+      <c r="F22" s="9">
+        <v>99.670792045933652</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.32920795406629488</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
         <v>0</v>
       </c>
       <c r="J22" s="8"/>
@@ -1595,29 +1594,29 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12">
-        <v>4.6435451443035642</v>
-      </c>
-      <c r="C23" s="12">
-        <v>-2.945808912992689</v>
-      </c>
-      <c r="D23" s="12">
-        <v>30.7940177657016</v>
-      </c>
-      <c r="E23" s="12">
-        <v>-0.27045826138242141</v>
-      </c>
-      <c r="F23" s="12">
-        <v>98.703816126283158</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1.2961838737158511</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
+      <c r="B23" s="9">
+        <v>12.115635905450819</v>
+      </c>
+      <c r="C23" s="9">
+        <v>7.1403405741789694</v>
+      </c>
+      <c r="D23" s="9">
+        <v>30.09295818387109</v>
+      </c>
+      <c r="E23" s="9">
+        <v>-0.53626090820744166</v>
+      </c>
+      <c r="F23" s="9">
+        <v>98.630562522762304</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1.3564570272164389</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1.2980450020268441E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <v>6.4902250096347987E-3</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -1628,29 +1627,29 @@
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12">
-        <v>10.88643457992243</v>
-      </c>
-      <c r="C24" s="12">
-        <v>-3.5311472578210372</v>
-      </c>
-      <c r="D24" s="12">
-        <v>33.781509036631007</v>
-      </c>
-      <c r="E24" s="12">
-        <v>-2.2645840205018589E-2</v>
-      </c>
-      <c r="F24" s="12">
-        <v>98.375947433180784</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1.45068750908225</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.17336505773607819</v>
-      </c>
-      <c r="I24" s="12">
-        <v>3.9401149477357109E-3</v>
+      <c r="B24" s="9">
+        <v>23.03542693939244</v>
+      </c>
+      <c r="C24" s="9">
+        <v>10.95255994125082</v>
+      </c>
+      <c r="D24" s="9">
+        <v>34.456217785880312</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.50636557342571331</v>
+      </c>
+      <c r="F24" s="9">
+        <v>97.995325100477089</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1.8456070311215409</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.15906786839957471</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1661,28 +1660,28 @@
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="12">
-        <v>3.4442498873255349</v>
-      </c>
-      <c r="C25" s="12">
-        <v>-2.7092900612980508</v>
-      </c>
-      <c r="D25" s="12">
-        <v>23.573773738132331</v>
-      </c>
-      <c r="E25" s="12">
-        <v>-0.91729881905074806</v>
-      </c>
-      <c r="F25" s="12">
-        <v>99.367584588564256</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0.60309678827754065</v>
-      </c>
-      <c r="H25" s="12">
-        <v>2.9318623156842648E-2</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="B25" s="9">
+        <v>12.462707089402629</v>
+      </c>
+      <c r="C25" s="9">
+        <v>8.7372128748259801</v>
+      </c>
+      <c r="D25" s="9">
+        <v>21.721342818679091</v>
+      </c>
+      <c r="E25" s="9">
+        <v>-1.487270517874087</v>
+      </c>
+      <c r="F25" s="9">
+        <v>99.277312987903485</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.67559758047963037</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.7089431616201632E-2</v>
+      </c>
+      <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="8"/>
@@ -1694,28 +1693,28 @@
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="12">
-        <v>7.1024343101440621</v>
-      </c>
-      <c r="C26" s="12">
-        <v>-3.2298750020349778</v>
-      </c>
-      <c r="D26" s="12">
-        <v>27.583248065359111</v>
-      </c>
-      <c r="E26" s="12">
-        <v>-2.2527826760809022</v>
-      </c>
-      <c r="F26" s="12">
-        <v>98.966403780128473</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.9766979863614641</v>
-      </c>
-      <c r="H26" s="12">
-        <v>5.6898233508697257E-2</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="B26" s="9">
+        <v>15.13069363962529</v>
+      </c>
+      <c r="C26" s="9">
+        <v>7.8822313657214043</v>
+      </c>
+      <c r="D26" s="9">
+        <v>25.58235913605386</v>
+      </c>
+      <c r="E26" s="9">
+        <v>-1.617414671207372</v>
+      </c>
+      <c r="F26" s="9">
+        <v>99.141889249049754</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.80277927868566168</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5.5331472263906473E-2</v>
+      </c>
+      <c r="I26" s="9">
         <v>0</v>
       </c>
       <c r="J26" s="8"/>
@@ -1727,29 +1726,29 @@
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12">
-        <v>10.94889799393359</v>
-      </c>
-      <c r="C27" s="12">
-        <v>-1.161163371244744</v>
-      </c>
-      <c r="D27" s="12">
-        <v>21.146769960178549</v>
-      </c>
-      <c r="E27" s="12">
-        <v>-0.39241213797190028</v>
-      </c>
-      <c r="F27" s="12">
-        <v>99.642528655560241</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0.2765852189649548</v>
-      </c>
-      <c r="H27" s="12">
-        <v>6.0121575755995083E-2</v>
-      </c>
-      <c r="I27" s="12">
-        <v>2.07645497183171E-2</v>
+      <c r="B27" s="9">
+        <v>19.109800976214331</v>
+      </c>
+      <c r="C27" s="9">
+        <v>7.3753819759338919</v>
+      </c>
+      <c r="D27" s="9">
+        <v>23.66749847382037</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.0771726222550559</v>
+      </c>
+      <c r="F27" s="9">
+        <v>99.286672179215387</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.57296497780185629</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.11966309858920959</v>
+      </c>
+      <c r="I27" s="9">
+        <v>5.9820008996246912E-2</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1760,29 +1759,29 @@
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12">
-        <v>3.4932138091805101</v>
-      </c>
-      <c r="C28" s="12">
-        <v>-5.1259850881544766</v>
-      </c>
-      <c r="D28" s="12">
-        <v>19.678417530310149</v>
-      </c>
-      <c r="E28" s="12">
-        <v>-4.3511644316937996</v>
-      </c>
-      <c r="F28" s="12">
-        <v>98.830785261800486</v>
-      </c>
-      <c r="G28" s="12">
-        <v>1.169214738199416</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
+      <c r="B28" s="9">
+        <v>8.6826200069786719</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5.0632032565669389</v>
+      </c>
+      <c r="D28" s="9">
+        <v>23.717909381057861</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3.3644726497772202</v>
+      </c>
+      <c r="F28" s="9">
+        <v>98.775139960627129</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.1844880887983411</v>
+      </c>
+      <c r="H28" s="9">
+        <v>3.2145627649230249E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <v>8.2263229252221275E-3</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1793,29 +1792,29 @@
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12">
-        <v>5.0805597305325627E-2</v>
-      </c>
-      <c r="C29" s="12">
-        <v>-0.15973949147236599</v>
-      </c>
-      <c r="D29" s="12">
-        <v>15.762701064977319</v>
-      </c>
-      <c r="E29" s="12">
-        <v>-3.073645584835472</v>
-      </c>
-      <c r="F29" s="12">
-        <v>99.706170421155733</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0.2938295788442703</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
+      <c r="B29" s="9">
+        <v>9.0467014773939489</v>
+      </c>
+      <c r="C29" s="9">
+        <v>8.9913277823031592</v>
+      </c>
+      <c r="D29" s="9">
+        <v>16.275152877375241</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.44267437411491528</v>
+      </c>
+      <c r="F29" s="9">
+        <v>98.878048780487802</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1.0731707317073169</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1826,28 +1825,28 @@
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="12">
-        <v>2.7632775680948898</v>
-      </c>
-      <c r="C30" s="12">
-        <v>-3.869583064535373</v>
-      </c>
-      <c r="D30" s="12">
-        <v>17.746135594927129</v>
-      </c>
-      <c r="E30" s="12">
-        <v>-2.1980192698462639</v>
-      </c>
-      <c r="F30" s="12">
-        <v>99.937678140792855</v>
-      </c>
-      <c r="G30" s="12">
-        <v>6.2321859207141068E-2</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
+      <c r="B30" s="9">
+        <v>11.05862541624791</v>
+      </c>
+      <c r="C30" s="9">
+        <v>8.2154530663510421</v>
+      </c>
+      <c r="D30" s="9">
+        <v>23.32855691982709</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4.7622074131223453</v>
+      </c>
+      <c r="F30" s="9">
+        <v>99.770985913647621</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.22901408635237219</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
         <v>0</v>
       </c>
       <c r="J30" s="8"/>
@@ -1859,29 +1858,29 @@
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="12">
-        <v>7.6216718120051477</v>
-      </c>
-      <c r="C31" s="12">
-        <v>-0.92751558249132315</v>
-      </c>
-      <c r="D31" s="12">
-        <v>20.219461912718121</v>
-      </c>
-      <c r="E31" s="12">
-        <v>-2.360724696685033</v>
-      </c>
-      <c r="F31" s="12">
-        <v>99.121584314262947</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0.83765667245432773</v>
-      </c>
-      <c r="H31" s="12">
-        <v>4.0759013282732452E-2</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
+      <c r="B31" s="9">
+        <v>16.814662597280591</v>
+      </c>
+      <c r="C31" s="9">
+        <v>8.6415228834430025</v>
+      </c>
+      <c r="D31" s="9">
+        <v>36.155830367950458</v>
+      </c>
+      <c r="E31" s="9">
+        <v>-0.86065874101788586</v>
+      </c>
+      <c r="F31" s="9">
+        <v>98.436789799045641</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1.4105602468652629</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.1248848542140201</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2.776509987506209E-2</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1892,29 +1891,29 @@
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="12">
-        <v>10.48093255519772</v>
-      </c>
-      <c r="C32" s="12">
-        <v>-0.33947824965431572</v>
-      </c>
-      <c r="D32" s="12">
-        <v>35.745817207917447</v>
-      </c>
-      <c r="E32" s="12">
-        <v>1.006149675739114</v>
-      </c>
-      <c r="F32" s="12">
-        <v>98.630301151781453</v>
-      </c>
-      <c r="G32" s="12">
-        <v>1.2209167882163741</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0.1487820600012926</v>
-      </c>
-      <c r="I32" s="12">
-        <v>1.6531339999949039E-2</v>
+      <c r="B32" s="9">
+        <v>19.967066674361369</v>
+      </c>
+      <c r="C32" s="9">
+        <v>8.5817958761297568</v>
+      </c>
+      <c r="D32" s="9">
+        <v>32.472956222660692</v>
+      </c>
+      <c r="E32" s="9">
+        <v>-2.324356885223076</v>
+      </c>
+      <c r="F32" s="9">
+        <v>98.74777607358682</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1.1039342509157779</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.14828967549563921</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -1925,28 +1924,28 @@
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="12">
-        <v>10.37659630942137</v>
-      </c>
-      <c r="C33" s="12">
-        <v>-3.447301736120536</v>
-      </c>
-      <c r="D33" s="12">
-        <v>36.075361459058719</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0.42876808744458711</v>
-      </c>
-      <c r="F33" s="12">
-        <v>98.036813955876966</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1.884038739603042</v>
-      </c>
-      <c r="H33" s="12">
-        <v>7.9147304518848063E-2</v>
-      </c>
-      <c r="I33" s="12">
+      <c r="B33" s="9">
+        <v>18.716020331819269</v>
+      </c>
+      <c r="C33" s="9">
+        <v>7.5663887436906929</v>
+      </c>
+      <c r="D33" s="9">
+        <v>34.631305573245129</v>
+      </c>
+      <c r="E33" s="9">
+        <v>-1.0609891771035349</v>
+      </c>
+      <c r="F33" s="9">
+        <v>97.660512490543837</v>
+      </c>
+      <c r="G33" s="9">
+        <v>2.170788600201532</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.1686989092534793</v>
+      </c>
+      <c r="I33" s="9">
         <v>0</v>
       </c>
       <c r="J33" s="8"/>
@@ -1958,29 +1957,29 @@
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="12">
-        <v>8.9824142164468235</v>
-      </c>
-      <c r="C34" s="12">
-        <v>-1.567757124270279</v>
-      </c>
-      <c r="D34" s="12">
-        <v>19.759076301828479</v>
-      </c>
-      <c r="E34" s="12">
-        <v>-0.96293059509440737</v>
-      </c>
-      <c r="F34" s="12">
-        <v>98.461740861953785</v>
-      </c>
-      <c r="G34" s="12">
-        <v>1.44797551692824</v>
-      </c>
-      <c r="H34" s="12">
-        <v>9.0283621116293844E-2</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
+      <c r="B34" s="9">
+        <v>17.926865663360491</v>
+      </c>
+      <c r="C34" s="9">
+        <v>8.2125493912968892</v>
+      </c>
+      <c r="D34" s="9">
+        <v>20.09579836880528</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.32377299840953189</v>
+      </c>
+      <c r="F34" s="9">
+        <v>97.409024635520879</v>
+      </c>
+      <c r="G34" s="9">
+        <v>2.170310148139369</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.42066521633807891</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.15023757726371911</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1991,29 +1990,29 @@
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="12">
-        <v>11.925636981562009</v>
-      </c>
-      <c r="C35" s="12">
-        <v>-0.22204449446504931</v>
-      </c>
-      <c r="D35" s="12">
-        <v>30.792702903602709</v>
-      </c>
-      <c r="E35" s="12">
-        <v>-0.24263390303273799</v>
-      </c>
-      <c r="F35" s="12">
-        <v>97.736647794566551</v>
-      </c>
-      <c r="G35" s="12">
-        <v>2.1450724161545831</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0.1182797892788577</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
+      <c r="B35" s="9">
+        <v>18.77164980172379</v>
+      </c>
+      <c r="C35" s="9">
+        <v>6.0937879897374501</v>
+      </c>
+      <c r="D35" s="9">
+        <v>30.258286676896908</v>
+      </c>
+      <c r="E35" s="9">
+        <v>-0.40039931296947012</v>
+      </c>
+      <c r="F35" s="9">
+        <v>97.208550938208901</v>
+      </c>
+      <c r="G35" s="9">
+        <v>2.6222495848412519</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.16743408477272351</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1.7653921771141189E-3</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2024,29 +2023,29 @@
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="12">
-        <v>8.2576356626569325</v>
-      </c>
-      <c r="C36" s="12">
-        <v>-6.9301671440960559</v>
-      </c>
-      <c r="D36" s="12">
-        <v>20.72970967168914</v>
-      </c>
-      <c r="E36" s="12">
-        <v>-3.0484097958055951</v>
-      </c>
-      <c r="F36" s="12">
-        <v>98.695779944936547</v>
-      </c>
-      <c r="G36" s="12">
-        <v>1.263495602975786</v>
-      </c>
-      <c r="H36" s="12">
-        <v>4.0724452087674043E-2</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
+      <c r="B36" s="9">
+        <v>20.186868319641089</v>
+      </c>
+      <c r="C36" s="9">
+        <v>11.019101567701661</v>
+      </c>
+      <c r="D36" s="9">
+        <v>21.55836413238568</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.69068506420398046</v>
+      </c>
+      <c r="F36" s="9">
+        <v>97.011345469489314</v>
+      </c>
+      <c r="G36" s="9">
+        <v>2.7492700750050081</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.19225084501649189</v>
+      </c>
+      <c r="I36" s="9">
+        <v>4.7133610489176948E-2</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2057,28 +2056,28 @@
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12">
-        <v>10.314464358198171</v>
-      </c>
-      <c r="C37" s="12">
-        <v>-1.402023247662544</v>
-      </c>
-      <c r="D37" s="12">
-        <v>24.531295777594401</v>
-      </c>
-      <c r="E37" s="12">
-        <v>-1.579902025363054</v>
-      </c>
-      <c r="F37" s="12">
-        <v>99.971044705679574</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2.895529432040897E-2</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
+      <c r="B37" s="9">
+        <v>11.77754815586353</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6.6010886280814436</v>
+      </c>
+      <c r="D37" s="9">
+        <v>24.832984080399271</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1.4039741580478531</v>
+      </c>
+      <c r="F37" s="9">
+        <v>99.827295366862685</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.1151364220915361</v>
+      </c>
+      <c r="H37" s="9">
+        <v>5.756821104576805E-2</v>
+      </c>
+      <c r="I37" s="9">
         <v>0</v>
       </c>
       <c r="J37" s="8"/>
@@ -2090,29 +2089,29 @@
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="12">
-        <v>2.730338056310436</v>
-      </c>
-      <c r="C38" s="12">
-        <v>-0.43859935024796742</v>
-      </c>
-      <c r="D38" s="12">
-        <v>13.82654247093506</v>
-      </c>
-      <c r="E38" s="12">
-        <v>-0.62082223392688418</v>
-      </c>
-      <c r="F38" s="12">
-        <v>99.449815116529976</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0.53615055817483981</v>
-      </c>
-      <c r="H38" s="12">
-        <v>7.1300498602411399E-3</v>
-      </c>
-      <c r="I38" s="12">
-        <v>6.9042754349167134E-3</v>
+      <c r="B38" s="9">
+        <v>10.221672135451071</v>
+      </c>
+      <c r="C38" s="9">
+        <v>7.2994230220508047</v>
+      </c>
+      <c r="D38" s="9">
+        <v>13.80289170960349</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-8.5739600981966008E-2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>98.919101667089734</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1.018560789440589</v>
+      </c>
+      <c r="H38" s="9">
+        <v>4.5143681476421428E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1.7193861993238201E-2</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2123,28 +2122,28 @@
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12">
-        <v>-2.9387648140426199</v>
-      </c>
-      <c r="C39" s="12">
-        <v>-8.8101081145031532</v>
-      </c>
-      <c r="D39" s="12">
-        <v>11.676929126991849</v>
-      </c>
-      <c r="E39" s="12">
-        <v>-3.3983745599315078</v>
-      </c>
-      <c r="F39" s="12">
-        <v>99.939318934887638</v>
-      </c>
-      <c r="G39" s="12">
-        <v>4.5510798834284799E-2</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1.5170266278094939E-2</v>
-      </c>
-      <c r="I39" s="12">
+      <c r="B39" s="9">
+        <v>8.5074407119123947</v>
+      </c>
+      <c r="C39" s="9">
+        <v>11.82478256867727</v>
+      </c>
+      <c r="D39" s="9">
+        <v>13.27096350205891</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.7185333264992334</v>
+      </c>
+      <c r="F39" s="9">
+        <v>99.778795039682763</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.1774832972718029</v>
+      </c>
+      <c r="H39" s="9">
+        <v>4.3721663045433012E-2</v>
+      </c>
+      <c r="I39" s="9">
         <v>0</v>
       </c>
       <c r="J39" s="8"/>
@@ -2156,29 +2155,29 @@
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="12">
-        <v>8.4819525081923324</v>
-      </c>
-      <c r="C40" s="12">
-        <v>0.20160599177844771</v>
-      </c>
-      <c r="D40" s="12">
-        <v>25.687477860102781</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0.84744979520467567</v>
-      </c>
-      <c r="F40" s="12">
-        <v>98.270895633125889</v>
-      </c>
-      <c r="G40" s="12">
-        <v>1.393630879864294</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0.33547348700822333</v>
-      </c>
-      <c r="I40" s="12">
-        <v>9.0856127900784695E-3</v>
+      <c r="B40" s="9">
+        <v>19.13087251000232</v>
+      </c>
+      <c r="C40" s="9">
+        <v>9.7917089729786024</v>
+      </c>
+      <c r="D40" s="9">
+        <v>25.210291178003519</v>
+      </c>
+      <c r="E40" s="9">
+        <v>-0.39399083214146102</v>
+      </c>
+      <c r="F40" s="9">
+        <v>97.730191816190469</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1.7635271630435481</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0.44778376705788081</v>
+      </c>
+      <c r="I40" s="9">
+        <v>7.6636766221451241E-2</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2189,29 +2188,29 @@
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12">
-        <v>0.76394211557914027</v>
-      </c>
-      <c r="C41" s="12">
-        <v>-1.7197164438451571</v>
-      </c>
-      <c r="D41" s="12">
-        <v>24.825021531293711</v>
-      </c>
-      <c r="E41" s="12">
-        <v>-0.60277994487254583</v>
-      </c>
-      <c r="F41" s="12">
-        <v>99.25873969057217</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0.72437507612929464</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1.6885233296639331E-2</v>
-      </c>
-      <c r="I41" s="12">
-        <v>3.377046658946125E-3</v>
+      <c r="B41" s="9">
+        <v>7.0514625042681711</v>
+      </c>
+      <c r="C41" s="9">
+        <v>6.2388302077009934</v>
+      </c>
+      <c r="D41" s="9">
+        <v>21.93968967451039</v>
+      </c>
+      <c r="E41" s="9">
+        <v>-2.2948426377056572</v>
+      </c>
+      <c r="F41" s="9">
+        <v>99.289842572650102</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.67711052508298974</v>
+      </c>
+      <c r="H41" s="9">
+        <v>3.3046902265960097E-2</v>
+      </c>
+      <c r="I41" s="9">
+        <v>6.7439698951711003E-3</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2222,28 +2221,28 @@
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="12">
-        <v>10.34</v>
-      </c>
-      <c r="C42" s="12">
-        <v>-7.02</v>
-      </c>
-      <c r="D42" s="12">
-        <v>38.58</v>
-      </c>
-      <c r="E42" s="12">
-        <v>-3.45</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="B42" s="9">
+        <v>29.51</v>
+      </c>
+      <c r="C42" s="9">
+        <v>17.38</v>
+      </c>
+      <c r="D42" s="9">
+        <v>37.85</v>
+      </c>
+      <c r="E42" s="9">
+        <v>-0.73</v>
+      </c>
+      <c r="F42" s="9">
         <v>99.660000000000011</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="9">
         <v>0.34</v>
       </c>
-      <c r="H42" s="12">
-        <v>0</v>
-      </c>
-      <c r="I42" s="12">
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
         <v>0</v>
       </c>
       <c r="J42" s="8"/>
@@ -2255,28 +2254,28 @@
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="12">
-        <v>7.7001426829311956</v>
-      </c>
-      <c r="C43" s="12">
-        <v>-4.3743398184700064</v>
-      </c>
-      <c r="D43" s="12">
-        <v>18.704832521704748</v>
-      </c>
-      <c r="E43" s="12">
-        <v>-2.7629798335954892</v>
-      </c>
-      <c r="F43" s="12">
-        <v>99.290594084527115</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0.67252214881504946</v>
-      </c>
-      <c r="H43" s="12">
-        <v>3.6883766657672942E-2</v>
-      </c>
-      <c r="I43" s="12">
+      <c r="B43" s="9">
+        <v>17.04054544031391</v>
+      </c>
+      <c r="C43" s="9">
+        <v>8.6743425107803045</v>
+      </c>
+      <c r="D43" s="9">
+        <v>20.59867863244439</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1.598249663418897</v>
+      </c>
+      <c r="F43" s="9">
+        <v>98.942173154994393</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1.0299296645582121</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2.7897180447092499E-2</v>
+      </c>
+      <c r="I43" s="9">
         <v>0</v>
       </c>
       <c r="J43" s="8"/>
@@ -2288,28 +2287,28 @@
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="12">
-        <v>14.116736237240589</v>
-      </c>
-      <c r="C44" s="12">
-        <v>-4.0855212937831862</v>
-      </c>
-      <c r="D44" s="12">
-        <v>27.418879773867669</v>
-      </c>
-      <c r="E44" s="12">
-        <v>-1.237234662446812</v>
-      </c>
-      <c r="F44" s="12">
-        <v>99.625279980818362</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0.26230401342715348</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0.1124160057544944</v>
-      </c>
-      <c r="I44" s="12">
+      <c r="B44" s="9">
+        <v>14.57589071692172</v>
+      </c>
+      <c r="C44" s="9">
+        <v>5.2630213634729808</v>
+      </c>
+      <c r="D44" s="9">
+        <v>27.146796358495731</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1.4615889164463971</v>
+      </c>
+      <c r="F44" s="9">
+        <v>99.436033382934298</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.56396661706569462</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
         <v>0</v>
       </c>
       <c r="J44" s="8"/>
@@ -2321,29 +2320,29 @@
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="12">
-        <v>1.6472033887317721</v>
-      </c>
-      <c r="C45" s="12">
-        <v>-3.4006891584832748</v>
-      </c>
-      <c r="D45" s="12">
-        <v>17.698605175798079</v>
-      </c>
-      <c r="E45" s="12">
-        <v>-0.40250977329366489</v>
-      </c>
-      <c r="F45" s="12">
-        <v>99.138551907976066</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0.84946894717854327</v>
-      </c>
-      <c r="H45" s="12">
-        <v>1.1979144844677041E-2</v>
-      </c>
-      <c r="I45" s="12">
-        <v>0</v>
+      <c r="B45" s="9">
+        <v>9.7528418282911833</v>
+      </c>
+      <c r="C45" s="9">
+        <v>7.9773780844874551</v>
+      </c>
+      <c r="D45" s="9">
+        <v>18.001783149548881</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.27219930847105672</v>
+      </c>
+      <c r="F45" s="9">
+        <v>98.865403220445629</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1.0685468249957439</v>
+      </c>
+      <c r="H45" s="9">
+        <v>4.8201507792190137E-2</v>
+      </c>
+      <c r="I45" s="9">
+        <v>2.3873635238673939E-2</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2354,29 +2353,29 @@
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="12">
-        <v>6.7459468008675341</v>
-      </c>
-      <c r="C46" s="12">
-        <v>-2.227574473938267</v>
-      </c>
-      <c r="D46" s="12">
-        <v>20.260736505463019</v>
-      </c>
-      <c r="E46" s="12">
-        <v>-1.4324078413362209</v>
-      </c>
-      <c r="F46" s="12">
-        <v>98.643009658673179</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1.3000314115522009</v>
-      </c>
-      <c r="H46" s="12">
-        <v>5.2134221899226202E-2</v>
-      </c>
-      <c r="I46" s="12">
-        <v>4.8247078751070304E-3</v>
+      <c r="B46" s="9">
+        <v>14.58534663036834</v>
+      </c>
+      <c r="C46" s="9">
+        <v>7.3053264196800463</v>
+      </c>
+      <c r="D46" s="9">
+        <v>20.27106479696565</v>
+      </c>
+      <c r="E46" s="9">
+        <v>6.9414732818188218E-3</v>
+      </c>
+      <c r="F46" s="9">
+        <v>98.018913753764565</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1.8422210312662579</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0.1084039065647838</v>
+      </c>
+      <c r="I46" s="9">
+        <v>3.0461308404081889E-2</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2387,28 +2386,28 @@
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12">
-        <v>-2.5930292061914302</v>
-      </c>
-      <c r="C47" s="12">
-        <v>-1.702</v>
-      </c>
-      <c r="D47" s="12">
-        <v>21.585331874507499</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="F47" s="12">
-        <v>98.467374810318006</v>
-      </c>
-      <c r="G47" s="12">
-        <v>1.5326251896809999</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="12">
+      <c r="B47" s="9">
+        <v>9.0513609001411997</v>
+      </c>
+      <c r="C47" s="9">
+        <v>11.9543</v>
+      </c>
+      <c r="D47" s="9">
+        <v>21.0731334018027</v>
+      </c>
+      <c r="E47" s="9">
+        <v>-0.42120000000000002</v>
+      </c>
+      <c r="F47" s="9">
+        <v>98.674499171560996</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1.280313300195</v>
+      </c>
+      <c r="H47" s="9">
+        <v>4.5187528242000001E-2</v>
+      </c>
+      <c r="I47" s="9">
         <v>0</v>
       </c>
       <c r="J47" s="8"/>
@@ -2420,28 +2419,28 @@
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="12">
-        <v>7.7374194636680791</v>
-      </c>
-      <c r="C48" s="12">
-        <v>1.3346377023489431</v>
-      </c>
-      <c r="D48" s="12">
-        <v>31.842846309022491</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1.980715653800319</v>
-      </c>
-      <c r="F48" s="12">
-        <v>99.842426784091302</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0.157573215907755</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="I48" s="12">
+      <c r="B48" s="9">
+        <v>13.210060200590471</v>
+      </c>
+      <c r="C48" s="9">
+        <v>5.0794864884637034</v>
+      </c>
+      <c r="D48" s="9">
+        <v>29.50342013709157</v>
+      </c>
+      <c r="E48" s="9">
+        <v>-1.7725907851111731</v>
+      </c>
+      <c r="F48" s="9">
+        <v>99.76303071945307</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.23696928054599201</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -2453,29 +2452,29 @@
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="12">
-        <v>1.698063106070498</v>
-      </c>
-      <c r="C49" s="12">
-        <v>-3.748143054220487</v>
-      </c>
-      <c r="D49" s="12">
-        <v>25.19616979164778</v>
-      </c>
-      <c r="E49" s="12">
-        <v>-1.5534261926047781</v>
-      </c>
-      <c r="F49" s="12">
-        <v>99.375682111838273</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0.62431788816101663</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0</v>
+      <c r="B49" s="9">
+        <v>12.06586831349987</v>
+      </c>
+      <c r="C49" s="9">
+        <v>10.079491476218619</v>
+      </c>
+      <c r="D49" s="9">
+        <v>25.275156134652171</v>
+      </c>
+      <c r="E49" s="9">
+        <v>-0.23300981695753439</v>
+      </c>
+      <c r="F49" s="9">
+        <v>99.176014290664881</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.78498539652149679</v>
+      </c>
+      <c r="H49" s="9">
+        <v>3.4738383068990249E-2</v>
+      </c>
+      <c r="I49" s="9">
+        <v>4.2619297432268666E-3</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2486,29 +2485,29 @@
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12">
-        <v>7.9268321210788022</v>
-      </c>
-      <c r="C50" s="12">
-        <v>-0.80870927931456982</v>
-      </c>
-      <c r="D50" s="12">
-        <v>27.837289373551179</v>
-      </c>
-      <c r="E50" s="12">
-        <v>0.97942001281585123</v>
-      </c>
-      <c r="F50" s="12">
-        <v>96.626203744719191</v>
-      </c>
-      <c r="G50" s="12">
-        <v>2.555482044569521</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0.81831421071039623</v>
-      </c>
-      <c r="I50" s="12">
-        <v>9.5152815192213903E-3</v>
+      <c r="B50" s="9">
+        <v>17.732175040514988</v>
+      </c>
+      <c r="C50" s="9">
+        <v>9.1034953671126075</v>
+      </c>
+      <c r="D50" s="9">
+        <v>27.044521779508148</v>
+      </c>
+      <c r="E50" s="9">
+        <v>-0.61267655980569946</v>
+      </c>
+      <c r="F50" s="9">
+        <v>96.334342310171522</v>
+      </c>
+      <c r="G50" s="9">
+        <v>2.8636189266760059</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.76183206392713154</v>
+      </c>
+      <c r="I50" s="9">
+        <v>6.3992015876452563E-2</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2519,28 +2518,28 @@
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="12">
-        <v>-3.8723109204927528</v>
-      </c>
-      <c r="C51" s="12">
-        <v>-1.551540656490795</v>
-      </c>
-      <c r="D51" s="12">
-        <v>14.10608571017657</v>
-      </c>
-      <c r="E51" s="12">
-        <v>-0.7624390700917475</v>
-      </c>
-      <c r="F51" s="12">
-        <v>99.160338509520955</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0.81540214429465085</v>
-      </c>
-      <c r="H51" s="12">
-        <v>2.425934618387748E-2</v>
-      </c>
-      <c r="I51" s="12">
+      <c r="B51" s="9">
+        <v>4.6804672164471173</v>
+      </c>
+      <c r="C51" s="9">
+        <v>8.9183386205569271</v>
+      </c>
+      <c r="D51" s="9">
+        <v>13.40195743482411</v>
+      </c>
+      <c r="E51" s="9">
+        <v>-0.61541043247253435</v>
+      </c>
+      <c r="F51" s="9">
+        <v>98.900062701383177</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1.076828860112987</v>
+      </c>
+      <c r="H51" s="9">
+        <v>2.3108438503314718E-2</v>
+      </c>
+      <c r="I51" s="9">
         <v>0</v>
       </c>
       <c r="J51" s="8"/>
@@ -2552,29 +2551,29 @@
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="12">
-        <v>2.45085877811412</v>
-      </c>
-      <c r="C52" s="12">
-        <v>-4.7283856282764321</v>
-      </c>
-      <c r="D52" s="12">
-        <v>23.05947663058182</v>
-      </c>
-      <c r="E52" s="12">
-        <v>-5.8439098975346031</v>
-      </c>
-      <c r="F52" s="12">
-        <v>97.854810127264628</v>
-      </c>
-      <c r="G52" s="12">
-        <v>2.113987110950128</v>
-      </c>
-      <c r="H52" s="12">
-        <v>2.340207133893131E-2</v>
-      </c>
-      <c r="I52" s="12">
-        <v>7.8006904463104347E-3</v>
+      <c r="B52" s="9">
+        <v>11.290423804869469</v>
+      </c>
+      <c r="C52" s="9">
+        <v>8.6294283681216282</v>
+      </c>
+      <c r="D52" s="9">
+        <v>23.931306422641089</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.70612550853621148</v>
+      </c>
+      <c r="F52" s="9">
+        <v>97.684133758069351</v>
+      </c>
+      <c r="G52" s="9">
+        <v>2.2378909475895519</v>
+      </c>
+      <c r="H52" s="9">
+        <v>4.6785176604659633E-2</v>
+      </c>
+      <c r="I52" s="9">
+        <v>3.119011773643976E-2</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2585,29 +2584,29 @@
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="12">
-        <v>-4.6211208751012141</v>
-      </c>
-      <c r="C53" s="12">
-        <v>-4.5750860048096591</v>
-      </c>
-      <c r="D53" s="12">
-        <v>9.0159756454659892</v>
-      </c>
-      <c r="E53" s="12">
-        <v>-1.6025237686147049</v>
-      </c>
-      <c r="F53" s="12">
-        <v>99.663582842724978</v>
-      </c>
-      <c r="G53" s="12">
+      <c r="B53" s="9">
+        <v>3.6867501157845428</v>
+      </c>
+      <c r="C53" s="9">
+        <v>8.7103885756579125</v>
+      </c>
+      <c r="D53" s="9">
+        <v>12.70620245292282</v>
+      </c>
+      <c r="E53" s="9">
+        <v>3.3850330519060061</v>
+      </c>
+      <c r="F53" s="9">
+        <v>99.495374264087459</v>
+      </c>
+      <c r="G53" s="9">
         <v>0.33641715727502097</v>
       </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0.16820857863751049</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2623,9 +2622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="T67" sqref="T67"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2636,23 +2633,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:M5"/>
+  <dimension ref="A2:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -2689,8 +2684,11 @@
       <c r="M4" s="5">
         <v>43988</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N4" s="5">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -2726,6 +2724,9 @@
       </c>
       <c r="M5" s="6">
         <v>0.35299999999999998</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.39399999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF58155-6957-924F-A8A1-B7525504505E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163377D5-4A11-7746-898E-B13B373E420D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -224,8 +224,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -377,7 +378,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,6 +387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -419,7 +420,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>242944</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>143989</xdr:rowOff>
+      <xdr:rowOff>143988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,7 +449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="693653" y="580020"/>
-          <a:ext cx="13582791" cy="10422469"/>
+          <a:ext cx="13582791" cy="10422468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,7 +469,7 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>583367</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>142840</xdr:rowOff>
+      <xdr:rowOff>142839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,7 +498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14228845" y="568719"/>
-          <a:ext cx="13596022" cy="10432621"/>
+          <a:ext cx="13596022" cy="10432620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -517,7 +518,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>317497</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>27341</xdr:rowOff>
+      <xdr:rowOff>27340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -546,7 +547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1082785" y="11120328"/>
-          <a:ext cx="14093712" cy="10814513"/>
+          <a:ext cx="14093712" cy="10814512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,20 +848,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="38.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -868,62 +869,62 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
-        <v>14.879692152256601</v>
-      </c>
-      <c r="C2" s="9">
-        <v>7.8348537288890778</v>
-      </c>
-      <c r="D2" s="9">
-        <v>24.87979710955187</v>
-      </c>
-      <c r="E2" s="9">
-        <v>-0.27139888286734842</v>
-      </c>
-      <c r="F2" s="9">
-        <v>97.753660573120484</v>
-      </c>
-      <c r="G2" s="9">
-        <v>2.086381757444709</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.13086877383016229</v>
-      </c>
-      <c r="I2" s="9">
-        <v>3.19865942565878E-2</v>
+      <c r="B2" s="12">
+        <v>9.7315817383052412</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-4.4294484424116032</v>
+      </c>
+      <c r="D2" s="12">
+        <v>23.552779158139739</v>
+      </c>
+      <c r="E2" s="12">
+        <v>-0.8916576422502227</v>
+      </c>
+      <c r="F2" s="12">
+        <v>98.308491102280115</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1.6124741855574529</v>
+      </c>
+      <c r="H2" s="12">
+        <v>7.3361255496269831E-2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>5.9625464125654974E-3</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -934,29 +935,29 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
-        <v>11.51855934726829</v>
-      </c>
-      <c r="C3" s="9">
-        <v>7.0159503052320593</v>
-      </c>
-      <c r="D3" s="9">
-        <v>18.314196824140389</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.78220880702599593</v>
-      </c>
-      <c r="F3" s="9">
-        <v>98.364265887246063</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.4660727701967999</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.1197609476871971</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4.9900394869665472E-2</v>
+      <c r="B3" s="12">
+        <v>7.059566410519297</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-4.0381188630929952</v>
+      </c>
+      <c r="D3" s="12">
+        <v>17.636380497745211</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-0.56880710765781572</v>
+      </c>
+      <c r="F3" s="12">
+        <v>99.018467363287158</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.89021047487206673</v>
+      </c>
+      <c r="H3" s="12">
+        <v>8.1307807641795016E-2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1.0014354198461301E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -967,28 +968,28 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
-        <v>47.176994883188229</v>
-      </c>
-      <c r="C4" s="9">
-        <v>31.655334234351852</v>
-      </c>
-      <c r="D4" s="9">
-        <v>26.929456807633301</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5.8659486104778447</v>
-      </c>
-      <c r="F4" s="9">
-        <v>99.947340705634545</v>
-      </c>
-      <c r="G4" s="9">
-        <v>5.2659294365455502E-2</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="B4" s="12">
+        <v>25.58246853103277</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-14.67248761893438</v>
+      </c>
+      <c r="D4" s="12">
+        <v>20.632394318245041</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-4.9610725892664131</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
@@ -1000,29 +1001,29 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9">
-        <v>14.39692861125206</v>
-      </c>
-      <c r="C5" s="9">
-        <v>7.2088578532043259</v>
-      </c>
-      <c r="D5" s="9">
-        <v>24.783814352515801</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1.198241134836012</v>
-      </c>
-      <c r="F5" s="9">
-        <v>98.71683485148327</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1.1211883504696989</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.13955929785574239</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2.2417500191230361E-2</v>
+      <c r="B5" s="12">
+        <v>6.7147138988903912</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-6.7281408013086503</v>
+      </c>
+      <c r="D5" s="12">
+        <v>24.762102129848209</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1.4663152741089929E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>99.195625004347278</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.69676356812917462</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.1076114275234812</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1033,28 +1034,28 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
-        <v>12.15441299489887</v>
-      </c>
-      <c r="C6" s="9">
-        <v>9.9430767958030462</v>
-      </c>
-      <c r="D6" s="9">
-        <v>14.718156191519039</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.5164305920980019</v>
-      </c>
-      <c r="F6" s="9">
-        <v>98.802186816959718</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.93003619108530156</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.26777699195471422</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="B6" s="12">
+        <v>7.1657428258626092</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-4.4911513620438557</v>
+      </c>
+      <c r="D6" s="12">
+        <v>13.510240928521499</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-1.0465430006847269</v>
+      </c>
+      <c r="F6" s="12">
+        <v>99.053942952115051</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.70655744700306378</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.23949960088161121</v>
+      </c>
+      <c r="I6" s="12">
         <v>0</v>
       </c>
       <c r="J6" s="8"/>
@@ -1066,29 +1067,29 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
-        <v>19.737086919264371</v>
-      </c>
-      <c r="C7" s="9">
-        <v>5.0755212405432379</v>
-      </c>
-      <c r="D7" s="9">
-        <v>32.10099836436774</v>
-      </c>
-      <c r="E7" s="9">
-        <v>-2.043444801623465</v>
-      </c>
-      <c r="F7" s="9">
-        <v>92.78477972650505</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6.8272902537751774</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.25276907768697909</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.13516094203236559</v>
+      <c r="B7" s="12">
+        <v>14.378435225926831</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-4.4575534409095976</v>
+      </c>
+      <c r="D7" s="12">
+        <v>29.813453202423791</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-1.65541378711517</v>
+      </c>
+      <c r="F7" s="12">
+        <v>94.432923889190107</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5.4744046394277586</v>
+      </c>
+      <c r="H7" s="12">
+        <v>7.1888396373635671E-2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2.0783075007654341E-2</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1099,28 +1100,28 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
-        <v>3.5367501290432921</v>
-      </c>
-      <c r="C8" s="9">
-        <v>7.7283013318595444</v>
-      </c>
-      <c r="D8" s="9">
-        <v>21.79340139400524</v>
-      </c>
-      <c r="E8" s="9">
-        <v>6.3116799857390493E-2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>97.020313540837108</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2.966059887851709</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1.362657130934942E-2</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="B8" s="12">
+        <v>-0.1211865735667957</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-3.5075187774540382</v>
+      </c>
+      <c r="D8" s="12">
+        <v>21.619741654528308</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-0.13370183532245039</v>
+      </c>
+      <c r="F8" s="12">
+        <v>97.171731976254094</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2.8220098122718462</v>
+      </c>
+      <c r="H8" s="12">
+        <v>6.2582114731285629E-3</v>
+      </c>
+      <c r="I8" s="12">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
@@ -1132,29 +1133,29 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
-        <v>24.010305909690029</v>
-      </c>
-      <c r="C9" s="9">
-        <v>9.7012493339823589</v>
-      </c>
-      <c r="D9" s="9">
-        <v>35.761317874820797</v>
-      </c>
-      <c r="E9" s="9">
-        <v>-0.3101396731008641</v>
-      </c>
-      <c r="F9" s="9">
-        <v>97.106643521098405</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2.5799571809625501</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.31339929793783078</v>
-      </c>
-      <c r="I9" s="9">
-        <v>7.5152057340938834E-3</v>
+      <c r="B9" s="12">
+        <v>13.860067178296619</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-8.1504934499659978</v>
+      </c>
+      <c r="D9" s="12">
+        <v>31.477663474766931</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-3.063747925459428</v>
+      </c>
+      <c r="F9" s="12">
+        <v>98.381449645965986</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1.4985371937529619</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.1200131602798206</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1165,28 +1166,28 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9">
-        <v>12.744500344877981</v>
-      </c>
-      <c r="C10" s="9">
-        <v>8.9187391304820363</v>
-      </c>
-      <c r="D10" s="9">
-        <v>31.17910701326392</v>
-      </c>
-      <c r="E10" s="9">
-        <v>-0.6662910046280176</v>
-      </c>
-      <c r="F10" s="9">
-        <v>98.825402303789588</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.1390038266277609</v>
-      </c>
-      <c r="H10" s="9">
-        <v>3.5593869581790658E-2</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="B10" s="12">
+        <v>8.6037722131611112</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-3.8162232761224542</v>
+      </c>
+      <c r="D10" s="12">
+        <v>30.446854283069921</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-0.64409040219936786</v>
+      </c>
+      <c r="F10" s="12">
+        <v>99.40284590264784</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.59715409735129354</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
@@ -1198,28 +1199,28 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9">
-        <v>2.6103704848839601E-2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>4.8559999999999999</v>
-      </c>
-      <c r="D11" s="9">
-        <v>32.192821421013797</v>
-      </c>
-      <c r="E11" s="9">
-        <v>-3.49E-2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>97.682119205297994</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2.2350993377480002</v>
-      </c>
-      <c r="H11" s="9">
-        <v>8.2781456953000002E-2</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="B11" s="12">
+        <v>-0.85736916803374097</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-0.88319999999999999</v>
+      </c>
+      <c r="D11" s="12">
+        <v>32.248087229766298</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>97.925311203318998</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.991701244813</v>
+      </c>
+      <c r="H11" s="12">
+        <v>8.2987551867000006E-2</v>
+      </c>
+      <c r="I11" s="12">
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
@@ -1231,29 +1232,29 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9">
-        <v>14.79734417090711</v>
-      </c>
-      <c r="C12" s="9">
-        <v>6.0681431696879651</v>
-      </c>
-      <c r="D12" s="9">
-        <v>19.53258950236323</v>
-      </c>
-      <c r="E12" s="9">
-        <v>-1.307746936234792</v>
-      </c>
-      <c r="F12" s="9">
-        <v>98.506498507970676</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1.388775823651899</v>
-      </c>
-      <c r="H12" s="9">
-        <v>9.931923293781772E-2</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1.353345463358557E-2</v>
+      <c r="B12" s="12">
+        <v>10.13020672251008</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-3.9683209030129438</v>
+      </c>
+      <c r="D12" s="12">
+        <v>20.294450749859049</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.63800344930178143</v>
+      </c>
+      <c r="F12" s="12">
+        <v>98.898091726018137</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1.0012386805400479</v>
+      </c>
+      <c r="H12" s="12">
+        <v>9.7967761519145241E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2.7018319214705188E-3</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1264,29 +1265,29 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9">
-        <v>10.17626945239061</v>
-      </c>
-      <c r="C13" s="9">
-        <v>7.7455198446739706</v>
-      </c>
-      <c r="D13" s="9">
-        <v>23.307094294150591</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.76650773108125436</v>
-      </c>
-      <c r="F13" s="9">
-        <v>98.646973317214275</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1.309181086473306</v>
-      </c>
-      <c r="H13" s="9">
-        <v>3.3121819942291519E-2</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1.0723776368566629E-2</v>
+      <c r="B13" s="12">
+        <v>7.1579643047662858</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-2.7577372567187561</v>
+      </c>
+      <c r="D13" s="12">
+        <v>23.531389928733809</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.19913751061986981</v>
+      </c>
+      <c r="F13" s="12">
+        <v>98.679838533929143</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1.3162265770762831</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3.9348889930079962E-3</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1297,29 +1298,29 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9">
-        <v>53.628073762406082</v>
-      </c>
-      <c r="C14" s="9">
-        <v>30.45512321922601</v>
-      </c>
-      <c r="D14" s="9">
-        <v>25.306803400378431</v>
-      </c>
-      <c r="E14" s="9">
-        <v>10.991814751904339</v>
-      </c>
-      <c r="F14" s="9">
-        <v>94.655505473277529</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3.8849538527581018</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.72977033698218507</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.72977033698218507</v>
+      <c r="B14" s="12">
+        <v>42.506878476249007</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-7.2390384216862502</v>
+      </c>
+      <c r="D14" s="12">
+        <v>15.02021801899485</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-8.2091196186020561</v>
+      </c>
+      <c r="F14" s="12">
+        <v>97.12137486573576</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2.4704618689581088</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.1933404940923738</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.21482277121374871</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1330,28 +1331,28 @@
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9">
-        <v>7.4389098257225816</v>
-      </c>
-      <c r="C15" s="9">
-        <v>7.5625372358218277</v>
-      </c>
-      <c r="D15" s="9">
-        <v>26.362033774201301</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.5910509481818522</v>
-      </c>
-      <c r="F15" s="9">
-        <v>99.637132515116733</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.31440143373663271</v>
-      </c>
-      <c r="H15" s="9">
-        <v>4.8466051146635193E-2</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="B15" s="12">
+        <v>3.299418380211796</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-3.892417753029187</v>
+      </c>
+      <c r="D15" s="12">
+        <v>24.52294542384444</v>
+      </c>
+      <c r="E15" s="12">
+        <v>-1.417158854464901</v>
+      </c>
+      <c r="F15" s="12">
+        <v>99.748603782762629</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.22593215668557889</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2.5464060551779851E-2</v>
+      </c>
+      <c r="I15" s="12">
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
@@ -1363,28 +1364,28 @@
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9">
-        <v>8.4207362270780148</v>
-      </c>
-      <c r="C16" s="9">
-        <v>8.5735349721638396</v>
-      </c>
-      <c r="D16" s="9">
-        <v>28.183843234012091</v>
-      </c>
-      <c r="E16" s="9">
-        <v>-0.57381674565062957</v>
-      </c>
-      <c r="F16" s="9">
-        <v>98.636426277997884</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1.354549558023896</v>
-      </c>
-      <c r="H16" s="9">
-        <v>9.0241639773597417E-3</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="B16" s="12">
+        <v>3.2745219255831008</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-4.7449754020854602</v>
+      </c>
+      <c r="D16" s="12">
+        <v>26.51382693708544</v>
+      </c>
+      <c r="E16" s="12">
+        <v>-1.3057377225130919</v>
+      </c>
+      <c r="F16" s="12">
+        <v>98.848959113248569</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1.147962280561649</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3.078606188088391E-3</v>
+      </c>
+      <c r="I16" s="12">
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
@@ -1396,29 +1397,29 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9">
-        <v>6.0560842752275894</v>
-      </c>
-      <c r="C17" s="9">
-        <v>8.4486740105364024</v>
-      </c>
-      <c r="D17" s="9">
-        <v>18.353339134687541</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.14490108563290199</v>
-      </c>
-      <c r="F17" s="9">
-        <v>99.323249564969117</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.64647893030745396</v>
-      </c>
-      <c r="H17" s="9">
-        <v>2.4217203778164241E-2</v>
-      </c>
-      <c r="I17" s="9">
-        <v>6.0543009445410611E-3</v>
+      <c r="B17" s="12">
+        <v>1.3575027836430169</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-4.4200141718081856</v>
+      </c>
+      <c r="D17" s="12">
+        <v>18.80114998487181</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.37533747617938112</v>
+      </c>
+      <c r="F17" s="12">
+        <v>99.6289330508733</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.35892131844811709</v>
+      </c>
+      <c r="H17" s="12">
+        <v>6.0728153389270206E-3</v>
+      </c>
+      <c r="I17" s="12">
+        <v>6.0728153389270206E-3</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1429,28 +1430,28 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="9">
-        <v>6.030105259614488</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1.0608311248155049</v>
-      </c>
-      <c r="D18" s="9">
-        <v>22.453755297739612</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2.702663620254488</v>
-      </c>
-      <c r="F18" s="9">
-        <v>99.976129830746558</v>
-      </c>
-      <c r="G18" s="9">
-        <v>2.387016925343767E-2</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="B18" s="12">
+        <v>0.46829063444246299</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-5.2488962676567601</v>
+      </c>
+      <c r="D18" s="12">
+        <v>22.416880070392061</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-3.1540024092835593E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>100</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
@@ -1462,28 +1463,28 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9">
-        <v>6.96366815534744</v>
-      </c>
-      <c r="C19" s="9">
-        <v>9.2481523673731623</v>
-      </c>
-      <c r="D19" s="9">
-        <v>21.984907483278331</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1.960782363063194</v>
-      </c>
-      <c r="F19" s="9">
-        <v>99.690250505772894</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.28789615602937552</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1.7482670558190441E-2</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="B19" s="12">
+        <v>1.5710832870482569</v>
+      </c>
+      <c r="C19" s="12">
+        <v>-5.1227091690282007</v>
+      </c>
+      <c r="D19" s="12">
+        <v>20.07416099925446</v>
+      </c>
+      <c r="E19" s="12">
+        <v>-1.532924435116807</v>
+      </c>
+      <c r="F19" s="12">
+        <v>99.723474246462274</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.27652575353771641</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
         <v>0</v>
       </c>
       <c r="J19" s="8"/>
@@ -1495,29 +1496,29 @@
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9">
-        <v>10.11812507699972</v>
-      </c>
-      <c r="C20" s="9">
-        <v>4.3711762295844876</v>
-      </c>
-      <c r="D20" s="9">
-        <v>12.61069328516507</v>
-      </c>
-      <c r="E20" s="9">
-        <v>-1.7958614606542029</v>
-      </c>
-      <c r="F20" s="9">
-        <v>98.535263378355182</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1.320500442752109</v>
-      </c>
-      <c r="H20" s="9">
-        <v>9.9855816156440777E-2</v>
-      </c>
-      <c r="I20" s="9">
-        <v>4.4380362736195909E-2</v>
+      <c r="B20" s="12">
+        <v>4.9246459733819368</v>
+      </c>
+      <c r="C20" s="12">
+        <v>-4.726239268117812</v>
+      </c>
+      <c r="D20" s="12">
+        <v>12.353243835905401</v>
+      </c>
+      <c r="E20" s="12">
+        <v>-0.237741480438732</v>
+      </c>
+      <c r="F20" s="12">
+        <v>99.324659071434382</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.64212433395881729</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.107219820223836E-2</v>
+      </c>
+      <c r="I20" s="12">
+        <v>2.214439640447672E-2</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1528,28 +1529,28 @@
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9">
-        <v>20.854336383320309</v>
-      </c>
-      <c r="C21" s="9">
-        <v>9.9431753313140643</v>
-      </c>
-      <c r="D21" s="9">
-        <v>17.930616994089348</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.848085722491503</v>
-      </c>
-      <c r="F21" s="9">
-        <v>99.157682370218112</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.77188122251604296</v>
-      </c>
-      <c r="H21" s="9">
-        <v>7.0436407265694487E-2</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="B21" s="12">
+        <v>14.012651069352961</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-5.6870115849371849</v>
+      </c>
+      <c r="D21" s="12">
+        <v>16.860098494913711</v>
+      </c>
+      <c r="E21" s="12">
+        <v>-0.91741785120556174</v>
+      </c>
+      <c r="F21" s="12">
+        <v>99.389722402583871</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.54878432619091588</v>
+      </c>
+      <c r="H21" s="12">
+        <v>6.1493271224927711E-2</v>
+      </c>
+      <c r="I21" s="12">
         <v>0</v>
       </c>
       <c r="J21" s="8"/>
@@ -1561,29 +1562,29 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9">
-        <v>23.04524528363384</v>
-      </c>
-      <c r="C22" s="9">
-        <v>11.117624100700921</v>
-      </c>
-      <c r="D22" s="9">
-        <v>39.603661115050272</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1.5923370492082349</v>
-      </c>
-      <c r="F22" s="9">
-        <v>99.670792045933652</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.32920795406629488</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
+      <c r="B22" s="12">
+        <v>13.592887725228341</v>
+      </c>
+      <c r="C22" s="12">
+        <v>-7.6765647731608064</v>
+      </c>
+      <c r="D22" s="12">
+        <v>26.720019956688631</v>
+      </c>
+      <c r="E22" s="12">
+        <v>-9.2171438681935935</v>
+      </c>
+      <c r="F22" s="12">
+        <v>99.811736817276199</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.1694368644514139</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1.8826318272379329E-2</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -1594,29 +1595,29 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9">
-        <v>12.115635905450819</v>
-      </c>
-      <c r="C23" s="9">
-        <v>7.1403405741789694</v>
-      </c>
-      <c r="D23" s="9">
-        <v>30.09295818387109</v>
-      </c>
-      <c r="E23" s="9">
-        <v>-0.53626090820744166</v>
-      </c>
-      <c r="F23" s="9">
-        <v>98.630562522762304</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1.3564570272164389</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1.2980450020268441E-2</v>
-      </c>
-      <c r="I23" s="9">
-        <v>6.4902250096347987E-3</v>
+      <c r="B23" s="12">
+        <v>10.4739632177213</v>
+      </c>
+      <c r="C23" s="12">
+        <v>-1.4642238285357261</v>
+      </c>
+      <c r="D23" s="12">
+        <v>29.44831959353958</v>
+      </c>
+      <c r="E23" s="12">
+        <v>-0.49199751075927961</v>
+      </c>
+      <c r="F23" s="12">
+        <v>98.932484945029714</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1.0675150549692809</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -1627,29 +1628,29 @@
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="9">
-        <v>23.03542693939244</v>
-      </c>
-      <c r="C24" s="9">
-        <v>10.95255994125082</v>
-      </c>
-      <c r="D24" s="9">
-        <v>34.456217785880312</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.50636557342571331</v>
-      </c>
-      <c r="F24" s="9">
-        <v>97.995325100477089</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1.8456070311215409</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0.15906786839957471</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
+      <c r="B24" s="12">
+        <v>13.423125051280479</v>
+      </c>
+      <c r="C24" s="12">
+        <v>-7.8000904530047963</v>
+      </c>
+      <c r="D24" s="12">
+        <v>31.18610482188701</v>
+      </c>
+      <c r="E24" s="12">
+        <v>-2.4187363583696522</v>
+      </c>
+      <c r="F24" s="12">
+        <v>98.66075024940335</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1.225484073791729</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.1137656768031345</v>
+      </c>
+      <c r="I24" s="12">
+        <v>3.9229543720598293E-3</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1660,28 +1661,28 @@
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="9">
-        <v>12.462707089402629</v>
-      </c>
-      <c r="C25" s="9">
-        <v>8.7372128748259801</v>
-      </c>
-      <c r="D25" s="9">
-        <v>21.721342818679091</v>
-      </c>
-      <c r="E25" s="9">
-        <v>-1.487270517874087</v>
-      </c>
-      <c r="F25" s="9">
-        <v>99.277312987903485</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0.67559758047963037</v>
-      </c>
-      <c r="H25" s="9">
-        <v>4.7089431616201632E-2</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="B25" s="12">
+        <v>6.091575718885295</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-5.659985752044971</v>
+      </c>
+      <c r="D25" s="12">
+        <v>19.451705893087951</v>
+      </c>
+      <c r="E25" s="12">
+        <v>-1.871155903055209</v>
+      </c>
+      <c r="F25" s="12">
+        <v>99.651083470829704</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.3342344908862428</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.4682038282677759E-2</v>
+      </c>
+      <c r="I25" s="12">
         <v>0</v>
       </c>
       <c r="J25" s="8"/>
@@ -1693,28 +1694,28 @@
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="9">
-        <v>15.13069363962529</v>
-      </c>
-      <c r="C26" s="9">
-        <v>7.8822313657214043</v>
-      </c>
-      <c r="D26" s="9">
-        <v>25.58235913605386</v>
-      </c>
-      <c r="E26" s="9">
-        <v>-1.617414671207372</v>
-      </c>
-      <c r="F26" s="9">
-        <v>99.141889249049754</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0.80277927868566168</v>
-      </c>
-      <c r="H26" s="9">
-        <v>5.5331472263906473E-2</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="B26" s="12">
+        <v>12.49982010038725</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-2.5238345485695359</v>
+      </c>
+      <c r="D26" s="12">
+        <v>23.95276841650794</v>
+      </c>
+      <c r="E26" s="12">
+        <v>-1.5308478710872031</v>
+      </c>
+      <c r="F26" s="12">
+        <v>99.224153396833572</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.70714753100038197</v>
+      </c>
+      <c r="H26" s="12">
+        <v>6.8699072164683211E-2</v>
+      </c>
+      <c r="I26" s="12">
         <v>0</v>
       </c>
       <c r="J26" s="8"/>
@@ -1726,29 +1727,29 @@
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="9">
-        <v>19.109800976214331</v>
-      </c>
-      <c r="C27" s="9">
-        <v>7.3753819759338919</v>
-      </c>
-      <c r="D27" s="9">
-        <v>23.66749847382037</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2.0771726222550559</v>
-      </c>
-      <c r="F27" s="9">
-        <v>99.286672179215387</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.57296497780185629</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.11966309858920959</v>
-      </c>
-      <c r="I27" s="9">
-        <v>5.9820008996246912E-2</v>
+      <c r="B27" s="12">
+        <v>14.48100007849736</v>
+      </c>
+      <c r="C27" s="12">
+        <v>-3.888672735372984</v>
+      </c>
+      <c r="D27" s="12">
+        <v>22.58646387427202</v>
+      </c>
+      <c r="E27" s="12">
+        <v>-0.91499752610341223</v>
+      </c>
+      <c r="F27" s="12">
+        <v>99.307522419582909</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.65114895623726488</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2.0667589997960079E-2</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2.066103418137713E-2</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1759,29 +1760,29 @@
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="9">
-        <v>8.6826200069786719</v>
-      </c>
-      <c r="C28" s="9">
-        <v>5.0632032565669389</v>
-      </c>
-      <c r="D28" s="9">
-        <v>23.717909381057861</v>
-      </c>
-      <c r="E28" s="9">
-        <v>3.3644726497772202</v>
-      </c>
-      <c r="F28" s="9">
-        <v>98.775139960627129</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1.1844880887983411</v>
-      </c>
-      <c r="H28" s="9">
-        <v>3.2145627649230249E-2</v>
-      </c>
-      <c r="I28" s="9">
-        <v>8.2263229252221275E-3</v>
+      <c r="B28" s="12">
+        <v>3.8204472551968198</v>
+      </c>
+      <c r="C28" s="12">
+        <v>-4.4922399351442506</v>
+      </c>
+      <c r="D28" s="12">
+        <v>18.90837329664582</v>
+      </c>
+      <c r="E28" s="12">
+        <v>-3.769900312588554</v>
+      </c>
+      <c r="F28" s="12">
+        <v>98.863404736587285</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1.12837145055884</v>
+      </c>
+      <c r="H28" s="12">
+        <v>8.2238128537876817E-3</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1792,29 +1793,29 @@
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="9">
-        <v>9.0467014773939489</v>
-      </c>
-      <c r="C29" s="9">
-        <v>8.9913277823031592</v>
-      </c>
-      <c r="D29" s="9">
-        <v>16.275152877375241</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.44267437411491528</v>
-      </c>
-      <c r="F29" s="9">
-        <v>98.878048780487802</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1.0731707317073169</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>4.878048780487805E-2</v>
+      <c r="B29" s="12">
+        <v>9.5012836063603778</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.41686921548991229</v>
+      </c>
+      <c r="D29" s="12">
+        <v>17.392015628155999</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.96053432151461671</v>
+      </c>
+      <c r="F29" s="12">
+        <v>99.511002444987767</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.39119804400977992</v>
+      </c>
+      <c r="H29" s="12">
+        <v>9.779951100244498E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1825,28 +1826,28 @@
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="9">
-        <v>11.05862541624791</v>
-      </c>
-      <c r="C30" s="9">
-        <v>8.2154530663510421</v>
-      </c>
-      <c r="D30" s="9">
-        <v>23.32855691982709</v>
-      </c>
-      <c r="E30" s="9">
-        <v>4.7622074131223453</v>
-      </c>
-      <c r="F30" s="9">
-        <v>99.770985913647621</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0.22901408635237219</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="B30" s="12">
+        <v>5.1418255065005436</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-5.3667447647500568</v>
+      </c>
+      <c r="D30" s="12">
+        <v>17.10791621108655</v>
+      </c>
+      <c r="E30" s="12">
+        <v>-5.1472220000632989</v>
+      </c>
+      <c r="F30" s="12">
+        <v>99.896056953395018</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.10394304660498099</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
         <v>0</v>
       </c>
       <c r="J30" s="8"/>
@@ -1858,29 +1859,29 @@
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="9">
-        <v>16.814662597280591</v>
-      </c>
-      <c r="C31" s="9">
-        <v>8.6415228834430025</v>
-      </c>
-      <c r="D31" s="9">
-        <v>36.155830367950458</v>
-      </c>
-      <c r="E31" s="9">
-        <v>-0.86065874101788586</v>
-      </c>
-      <c r="F31" s="9">
-        <v>98.436789799045641</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1.4105602468652629</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.1248848542140201</v>
-      </c>
-      <c r="I31" s="9">
-        <v>2.776509987506209E-2</v>
+      <c r="B31" s="12">
+        <v>9.4504226046161257</v>
+      </c>
+      <c r="C31" s="12">
+        <v>-6.2274818156803233</v>
+      </c>
+      <c r="D31" s="12">
+        <v>21.453754519427019</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1.8456886257871961</v>
+      </c>
+      <c r="F31" s="12">
+        <v>99.178918322125739</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.75246401076810709</v>
+      </c>
+      <c r="H31" s="12">
+        <v>6.1902075857175193E-2</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1.343118249792301E-2</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1891,28 +1892,28 @@
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9">
-        <v>19.967066674361369</v>
-      </c>
-      <c r="C32" s="9">
-        <v>8.5817958761297568</v>
-      </c>
-      <c r="D32" s="9">
-        <v>32.472956222660692</v>
-      </c>
-      <c r="E32" s="9">
-        <v>-2.324356885223076</v>
-      </c>
-      <c r="F32" s="9">
-        <v>98.74777607358682</v>
-      </c>
-      <c r="G32" s="9">
-        <v>1.1039342509157779</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.14828967549563921</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="B32" s="12">
+        <v>11.274491218498881</v>
+      </c>
+      <c r="C32" s="12">
+        <v>-7.2285741749979584</v>
+      </c>
+      <c r="D32" s="12">
+        <v>28.813222941906108</v>
+      </c>
+      <c r="E32" s="12">
+        <v>-2.7589941471827779</v>
+      </c>
+      <c r="F32" s="12">
+        <v>99.153915132461492</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.8128036536421791</v>
+      </c>
+      <c r="H32" s="12">
+        <v>3.3281213895450752E-2</v>
+      </c>
+      <c r="I32" s="12">
         <v>0</v>
       </c>
       <c r="J32" s="8"/>
@@ -1924,28 +1925,28 @@
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="9">
-        <v>18.716020331819269</v>
-      </c>
-      <c r="C33" s="9">
-        <v>7.5663887436906929</v>
-      </c>
-      <c r="D33" s="9">
-        <v>34.631305573245129</v>
-      </c>
-      <c r="E33" s="9">
-        <v>-1.0609891771035349</v>
-      </c>
-      <c r="F33" s="9">
-        <v>97.660512490543837</v>
-      </c>
-      <c r="G33" s="9">
-        <v>2.170788600201532</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0.1686989092534793</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="B33" s="12">
+        <v>12.13456977340617</v>
+      </c>
+      <c r="C33" s="12">
+        <v>-5.536986595002646</v>
+      </c>
+      <c r="D33" s="12">
+        <v>33.653250974757484</v>
+      </c>
+      <c r="E33" s="12">
+        <v>-0.72421626162025998</v>
+      </c>
+      <c r="F33" s="12">
+        <v>98.211609276201244</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1.712521005488882</v>
+      </c>
+      <c r="H33" s="12">
+        <v>7.58697183093162E-2</v>
+      </c>
+      <c r="I33" s="12">
         <v>0</v>
       </c>
       <c r="J33" s="8"/>
@@ -1957,29 +1958,29 @@
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="9">
-        <v>17.926865663360491</v>
-      </c>
-      <c r="C34" s="9">
-        <v>8.2125493912968892</v>
-      </c>
-      <c r="D34" s="9">
-        <v>20.09579836880528</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.32377299840953189</v>
-      </c>
-      <c r="F34" s="9">
-        <v>97.409024635520879</v>
-      </c>
-      <c r="G34" s="9">
-        <v>2.170310148139369</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0.42066521633807891</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0.15023757726371911</v>
+      <c r="B34" s="12">
+        <v>13.508267192550081</v>
+      </c>
+      <c r="C34" s="12">
+        <v>-3.7513469326672868</v>
+      </c>
+      <c r="D34" s="12">
+        <v>20.454938906480059</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.32557868471584628</v>
+      </c>
+      <c r="F34" s="12">
+        <v>98.403139229006271</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1.4471983381838811</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.14966243280900121</v>
+      </c>
+      <c r="I34" s="12">
+        <v>2.9932486561800239E-2</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1990,29 +1991,29 @@
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9">
-        <v>18.77164980172379</v>
-      </c>
-      <c r="C35" s="9">
-        <v>6.0937879897374501</v>
-      </c>
-      <c r="D35" s="9">
-        <v>30.258286676896908</v>
-      </c>
-      <c r="E35" s="9">
-        <v>-0.40039931296947012</v>
-      </c>
-      <c r="F35" s="9">
-        <v>97.208550938208901</v>
-      </c>
-      <c r="G35" s="9">
-        <v>2.6222495848412519</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0.16743408477272351</v>
-      </c>
-      <c r="I35" s="9">
-        <v>1.7653921771141189E-3</v>
+      <c r="B35" s="12">
+        <v>10.90066361103926</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-6.5951032650528356</v>
+      </c>
+      <c r="D35" s="12">
+        <v>26.21885124016794</v>
+      </c>
+      <c r="E35" s="12">
+        <v>-3.106213107372934</v>
+      </c>
+      <c r="F35" s="12">
+        <v>97.817999058490528</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2.0596524309713971</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.1223485105380558</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2023,29 +2024,29 @@
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="9">
-        <v>20.186868319641089</v>
-      </c>
-      <c r="C36" s="9">
-        <v>11.019101567701661</v>
-      </c>
-      <c r="D36" s="9">
-        <v>21.55836413238568</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0.69068506420398046</v>
-      </c>
-      <c r="F36" s="9">
-        <v>97.011345469489314</v>
-      </c>
-      <c r="G36" s="9">
-        <v>2.7492700750050081</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0.19225084501649189</v>
-      </c>
-      <c r="I36" s="9">
-        <v>4.7133610489176948E-2</v>
+      <c r="B36" s="12">
+        <v>20.002899690566618</v>
+      </c>
+      <c r="C36" s="12">
+        <v>-0.1528584039956136</v>
+      </c>
+      <c r="D36" s="12">
+        <v>23.67145486764737</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1.7376104711488269</v>
+      </c>
+      <c r="F36" s="12">
+        <v>98.272336539207885</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1.6635235897516101</v>
+      </c>
+      <c r="H36" s="12">
+        <v>6.077391868236267E-2</v>
+      </c>
+      <c r="I36" s="12">
+        <v>3.365952358140527E-3</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2056,28 +2057,28 @@
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="9">
-        <v>11.77754815586353</v>
-      </c>
-      <c r="C37" s="9">
-        <v>6.6010886280814436</v>
-      </c>
-      <c r="D37" s="9">
-        <v>24.832984080399271</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1.4039741580478531</v>
-      </c>
-      <c r="F37" s="9">
-        <v>99.827295366862685</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0.1151364220915361</v>
-      </c>
-      <c r="H37" s="9">
-        <v>5.756821104576805E-2</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="B37" s="12">
+        <v>10.72487468256252</v>
+      </c>
+      <c r="C37" s="12">
+        <v>-1.946859927193171</v>
+      </c>
+      <c r="D37" s="12">
+        <v>23.589894098030388</v>
+      </c>
+      <c r="E37" s="12">
+        <v>-1.24062613634382</v>
+      </c>
+      <c r="F37" s="12">
+        <v>99.856689474753892</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.14331052524610319</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
         <v>0</v>
       </c>
       <c r="J37" s="8"/>
@@ -2089,29 +2090,29 @@
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="9">
-        <v>10.221672135451071</v>
-      </c>
-      <c r="C38" s="9">
-        <v>7.2994230220508047</v>
-      </c>
-      <c r="D38" s="9">
-        <v>13.80289170960349</v>
-      </c>
-      <c r="E38" s="9">
-        <v>-8.5739600981966008E-2</v>
-      </c>
-      <c r="F38" s="9">
-        <v>98.919101667089734</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1.018560789440589</v>
-      </c>
-      <c r="H38" s="9">
-        <v>4.5143681476421428E-2</v>
-      </c>
-      <c r="I38" s="9">
-        <v>1.7193861993238201E-2</v>
+      <c r="B38" s="12">
+        <v>5.4135821068483816</v>
+      </c>
+      <c r="C38" s="12">
+        <v>-4.3609342405837328</v>
+      </c>
+      <c r="D38" s="12">
+        <v>14.17692235915055</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.36717346775699311</v>
+      </c>
+      <c r="F38" s="12">
+        <v>99.320946709735949</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.65452190768448859</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1.7649283420391421E-2</v>
+      </c>
+      <c r="I38" s="12">
+        <v>6.8820991591454512E-3</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2122,28 +2123,28 @@
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="9">
-        <v>8.5074407119123947</v>
-      </c>
-      <c r="C39" s="9">
-        <v>11.82478256867727</v>
-      </c>
-      <c r="D39" s="9">
-        <v>13.27096350205891</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.7185333264992334</v>
-      </c>
-      <c r="F39" s="9">
-        <v>99.778795039682763</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.1774832972718029</v>
-      </c>
-      <c r="H39" s="9">
-        <v>4.3721663045433012E-2</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="B39" s="12">
+        <v>1.2191392912380941</v>
+      </c>
+      <c r="C39" s="12">
+        <v>-6.7302290309148738</v>
+      </c>
+      <c r="D39" s="12">
+        <v>13.963226303400679</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.6218615424545082</v>
+      </c>
+      <c r="F39" s="12">
+        <v>99.714626937088269</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.27024977276222351</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1.5123290149508559E-2</v>
+      </c>
+      <c r="I39" s="12">
         <v>0</v>
       </c>
       <c r="J39" s="8"/>
@@ -2155,29 +2156,29 @@
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="9">
-        <v>19.13087251000232</v>
-      </c>
-      <c r="C40" s="9">
-        <v>9.7917089729786024</v>
-      </c>
-      <c r="D40" s="9">
-        <v>25.210291178003519</v>
-      </c>
-      <c r="E40" s="9">
-        <v>-0.39399083214146102</v>
-      </c>
-      <c r="F40" s="9">
-        <v>97.730191816190469</v>
-      </c>
-      <c r="G40" s="9">
-        <v>1.7635271630435481</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0.44778376705788081</v>
-      </c>
-      <c r="I40" s="9">
-        <v>7.6636766221451241E-2</v>
+      <c r="B40" s="12">
+        <v>12.94214696276536</v>
+      </c>
+      <c r="C40" s="12">
+        <v>-5.1475831839430457</v>
+      </c>
+      <c r="D40" s="12">
+        <v>22.732010232834298</v>
+      </c>
+      <c r="E40" s="12">
+        <v>-1.91422778213528</v>
+      </c>
+      <c r="F40" s="12">
+        <v>98.638945224110458</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1.0991766832111209</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.26187809267682283</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2188,29 +2189,29 @@
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="9">
-        <v>7.0514625042681711</v>
-      </c>
-      <c r="C41" s="9">
-        <v>6.2388302077009934</v>
-      </c>
-      <c r="D41" s="9">
-        <v>21.93968967451039</v>
-      </c>
-      <c r="E41" s="9">
-        <v>-2.2948426377056572</v>
-      </c>
-      <c r="F41" s="9">
-        <v>99.289842572650102</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0.67711052508298974</v>
-      </c>
-      <c r="H41" s="9">
-        <v>3.3046902265960097E-2</v>
-      </c>
-      <c r="I41" s="9">
-        <v>6.7439698951711003E-3</v>
+      <c r="B41" s="12">
+        <v>3.336887348356711</v>
+      </c>
+      <c r="C41" s="12">
+        <v>-3.4627791939229859</v>
+      </c>
+      <c r="D41" s="12">
+        <v>21.687575956595641</v>
+      </c>
+      <c r="E41" s="12">
+        <v>-0.20772655695443251</v>
+      </c>
+      <c r="F41" s="12">
+        <v>99.459444338158391</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.53411742052541278</v>
+      </c>
+      <c r="H41" s="12">
+        <v>3.3913933369919169E-3</v>
+      </c>
+      <c r="I41" s="12">
+        <v>3.046847978243799E-3</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2221,28 +2222,28 @@
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="9">
-        <v>29.51</v>
-      </c>
-      <c r="C42" s="9">
-        <v>17.38</v>
-      </c>
-      <c r="D42" s="9">
-        <v>37.85</v>
-      </c>
-      <c r="E42" s="9">
-        <v>-0.73</v>
-      </c>
-      <c r="F42" s="9">
-        <v>99.660000000000011</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="B42" s="12">
+        <v>12.42</v>
+      </c>
+      <c r="C42" s="12">
+        <v>-13.2</v>
+      </c>
+      <c r="D42" s="12">
+        <v>28.05</v>
+      </c>
+      <c r="E42" s="12">
+        <v>-7.1099999999999994</v>
+      </c>
+      <c r="F42" s="12">
+        <v>99.75</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
         <v>0</v>
       </c>
       <c r="J42" s="8"/>
@@ -2254,28 +2255,28 @@
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="9">
-        <v>17.04054544031391</v>
-      </c>
-      <c r="C43" s="9">
-        <v>8.6743425107803045</v>
-      </c>
-      <c r="D43" s="9">
-        <v>20.59867863244439</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1.598249663418897</v>
-      </c>
-      <c r="F43" s="9">
-        <v>98.942173154994393</v>
-      </c>
-      <c r="G43" s="9">
-        <v>1.0299296645582121</v>
-      </c>
-      <c r="H43" s="9">
-        <v>2.7897180447092499E-2</v>
-      </c>
-      <c r="I43" s="9">
+      <c r="B43" s="12">
+        <v>16.472832788229219</v>
+      </c>
+      <c r="C43" s="12">
+        <v>-0.4921130738433015</v>
+      </c>
+      <c r="D43" s="12">
+        <v>23.501256734182139</v>
+      </c>
+      <c r="E43" s="12">
+        <v>2.4129424805865409</v>
+      </c>
+      <c r="F43" s="12">
+        <v>98.959186252874247</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.99415324494026991</v>
+      </c>
+      <c r="H43" s="12">
+        <v>4.6660502185166618E-2</v>
+      </c>
+      <c r="I43" s="12">
         <v>0</v>
       </c>
       <c r="J43" s="8"/>
@@ -2287,28 +2288,28 @@
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="9">
-        <v>14.57589071692172</v>
-      </c>
-      <c r="C44" s="9">
-        <v>5.2630213634729808</v>
-      </c>
-      <c r="D44" s="9">
-        <v>27.146796358495731</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1.4615889164463971</v>
-      </c>
-      <c r="F44" s="9">
-        <v>99.436033382934298</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0.56396661706569462</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9">
+      <c r="B44" s="12">
+        <v>14.11676569626524</v>
+      </c>
+      <c r="C44" s="12">
+        <v>-1.7988498427694719</v>
+      </c>
+      <c r="D44" s="12">
+        <v>26.954514241672221</v>
+      </c>
+      <c r="E44" s="12">
+        <v>-1.010116584006183E-2</v>
+      </c>
+      <c r="F44" s="12">
+        <v>99.609415787825</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.3195689008704567</v>
+      </c>
+      <c r="H44" s="12">
+        <v>7.1015311304545928E-2</v>
+      </c>
+      <c r="I44" s="12">
         <v>0</v>
       </c>
       <c r="J44" s="8"/>
@@ -2320,29 +2321,29 @@
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="9">
-        <v>9.7528418282911833</v>
-      </c>
-      <c r="C45" s="9">
-        <v>7.9773780844874551</v>
-      </c>
-      <c r="D45" s="9">
-        <v>18.001783149548881</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.27219930847105672</v>
-      </c>
-      <c r="F45" s="9">
-        <v>98.865403220445629</v>
-      </c>
-      <c r="G45" s="9">
-        <v>1.0685468249957439</v>
-      </c>
-      <c r="H45" s="9">
-        <v>4.8201507792190137E-2</v>
-      </c>
-      <c r="I45" s="9">
-        <v>2.3873635238673939E-2</v>
+      <c r="B45" s="12">
+        <v>6.9006448164579703</v>
+      </c>
+      <c r="C45" s="12">
+        <v>-2.598176296363091</v>
+      </c>
+      <c r="D45" s="12">
+        <v>18.276961122306702</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.23311009936623489</v>
+      </c>
+      <c r="F45" s="12">
+        <v>99.06769752883082</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.91431261753836135</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1.7989853630095021E-2</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2353,29 +2354,29 @@
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="9">
-        <v>14.58534663036834</v>
-      </c>
-      <c r="C46" s="9">
-        <v>7.3053264196800463</v>
-      </c>
-      <c r="D46" s="9">
-        <v>20.27106479696565</v>
-      </c>
-      <c r="E46" s="9">
-        <v>6.9414732818188218E-3</v>
-      </c>
-      <c r="F46" s="9">
-        <v>98.018913753764565</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1.8422210312662579</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0.1084039065647838</v>
-      </c>
-      <c r="I46" s="9">
-        <v>3.0461308404081889E-2</v>
+      <c r="B46" s="12">
+        <v>9.8762269351749445</v>
+      </c>
+      <c r="C46" s="12">
+        <v>-4.0277452937117264</v>
+      </c>
+      <c r="D46" s="12">
+        <v>20.744816620175222</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.39816655939202039</v>
+      </c>
+      <c r="F46" s="12">
+        <v>98.422483347389402</v>
+      </c>
+      <c r="G46" s="12">
+        <v>1.512098790560543</v>
+      </c>
+      <c r="H46" s="12">
+        <v>5.5844093000091348E-2</v>
+      </c>
+      <c r="I46" s="12">
+        <v>9.573769049673787E-3</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2386,28 +2387,28 @@
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="9">
-        <v>9.0513609001411997</v>
-      </c>
-      <c r="C47" s="9">
-        <v>11.9543</v>
-      </c>
-      <c r="D47" s="9">
-        <v>21.0731334018027</v>
-      </c>
-      <c r="E47" s="9">
-        <v>-0.42120000000000002</v>
-      </c>
-      <c r="F47" s="9">
-        <v>98.674499171560996</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1.280313300195</v>
-      </c>
-      <c r="H47" s="9">
-        <v>4.5187528242000001E-2</v>
-      </c>
-      <c r="I47" s="9">
+      <c r="B47" s="12">
+        <v>4.0125810961242596</v>
+      </c>
+      <c r="C47" s="12">
+        <v>-4.6204999999999998</v>
+      </c>
+      <c r="D47" s="12">
+        <v>21.777192382139098</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="F47" s="12">
+        <v>98.463855421686006</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1.5210843373489999</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1.5060240963E-2</v>
+      </c>
+      <c r="I47" s="12">
         <v>0</v>
       </c>
       <c r="J47" s="8"/>
@@ -2419,28 +2420,28 @@
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="9">
-        <v>13.210060200590471</v>
-      </c>
-      <c r="C48" s="9">
-        <v>5.0794864884637034</v>
-      </c>
-      <c r="D48" s="9">
-        <v>29.50342013709157</v>
-      </c>
-      <c r="E48" s="9">
-        <v>-1.7725907851111731</v>
-      </c>
-      <c r="F48" s="9">
-        <v>99.76303071945307</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0.23696928054599201</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
+      <c r="B48" s="12">
+        <v>7.2688745108938111</v>
+      </c>
+      <c r="C48" s="12">
+        <v>-5.2451568618821041</v>
+      </c>
+      <c r="D48" s="12">
+        <v>25.313323963213499</v>
+      </c>
+      <c r="E48" s="12">
+        <v>-3.237459637362718</v>
+      </c>
+      <c r="F48" s="12">
+        <v>99.921010239817676</v>
+      </c>
+      <c r="G48" s="12">
+        <v>3.9494880090218967E-2</v>
+      </c>
+      <c r="H48" s="12">
+        <v>3.9494880090218967E-2</v>
+      </c>
+      <c r="I48" s="12">
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -2452,29 +2453,29 @@
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="9">
-        <v>12.06586831349987</v>
-      </c>
-      <c r="C49" s="9">
-        <v>10.079491476218619</v>
-      </c>
-      <c r="D49" s="9">
-        <v>25.275156134652171</v>
-      </c>
-      <c r="E49" s="9">
-        <v>-0.23300981695753439</v>
-      </c>
-      <c r="F49" s="9">
-        <v>99.176014290664881</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0.78498539652149679</v>
-      </c>
-      <c r="H49" s="9">
-        <v>3.4738383068990249E-2</v>
-      </c>
-      <c r="I49" s="9">
-        <v>4.2619297432268666E-3</v>
+      <c r="B49" s="12">
+        <v>9.8182196846277527</v>
+      </c>
+      <c r="C49" s="12">
+        <v>-1.951996205052027</v>
+      </c>
+      <c r="D49" s="12">
+        <v>25.9370199697785</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.53619750701629898</v>
+      </c>
+      <c r="F49" s="12">
+        <v>99.445794676113991</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.53145200020889427</v>
+      </c>
+      <c r="H49" s="12">
+        <v>2.2753323676407509E-2</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2485,29 +2486,29 @@
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="9">
-        <v>17.732175040514988</v>
-      </c>
-      <c r="C50" s="9">
-        <v>9.1034953671126075</v>
-      </c>
-      <c r="D50" s="9">
-        <v>27.044521779508148</v>
-      </c>
-      <c r="E50" s="9">
-        <v>-0.61267655980569946</v>
-      </c>
-      <c r="F50" s="9">
-        <v>96.334342310171522</v>
-      </c>
-      <c r="G50" s="9">
-        <v>2.8636189266760059</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0.76183206392713154</v>
-      </c>
-      <c r="I50" s="9">
-        <v>6.3992015876452563E-2</v>
+      <c r="B50" s="12">
+        <v>11.789299524037631</v>
+      </c>
+      <c r="C50" s="12">
+        <v>-5.0326821662031778</v>
+      </c>
+      <c r="D50" s="12">
+        <v>25.889998605486539</v>
+      </c>
+      <c r="E50" s="12">
+        <v>-0.89784554087015978</v>
+      </c>
+      <c r="F50" s="12">
+        <v>96.834391180595304</v>
+      </c>
+      <c r="G50" s="12">
+        <v>2.476097407444525</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0.68951141195928212</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2518,28 +2519,28 @@
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9">
-        <v>4.6804672164471173</v>
-      </c>
-      <c r="C51" s="9">
-        <v>8.9183386205569271</v>
-      </c>
-      <c r="D51" s="9">
-        <v>13.40195743482411</v>
-      </c>
-      <c r="E51" s="9">
-        <v>-0.61541043247253435</v>
-      </c>
-      <c r="F51" s="9">
-        <v>98.900062701383177</v>
-      </c>
-      <c r="G51" s="9">
-        <v>1.076828860112987</v>
-      </c>
-      <c r="H51" s="9">
-        <v>2.3108438503314718E-2</v>
-      </c>
-      <c r="I51" s="9">
+      <c r="B51" s="12">
+        <v>3.169279279779492</v>
+      </c>
+      <c r="C51" s="12">
+        <v>-1.467619005131898</v>
+      </c>
+      <c r="D51" s="12">
+        <v>15.84745821859558</v>
+      </c>
+      <c r="E51" s="12">
+        <v>2.1591365651062668</v>
+      </c>
+      <c r="F51" s="12">
+        <v>98.805562308649002</v>
+      </c>
+      <c r="G51" s="12">
+        <v>1.0301379915608899</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.16429969978905809</v>
+      </c>
+      <c r="I51" s="12">
         <v>0</v>
       </c>
       <c r="J51" s="8"/>
@@ -2551,29 +2552,29 @@
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="9">
-        <v>11.290423804869469</v>
-      </c>
-      <c r="C52" s="9">
-        <v>8.6294283681216282</v>
-      </c>
-      <c r="D52" s="9">
-        <v>23.931306422641089</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0.70612550853621148</v>
-      </c>
-      <c r="F52" s="9">
-        <v>97.684133758069351</v>
-      </c>
-      <c r="G52" s="9">
-        <v>2.2378909475895519</v>
-      </c>
-      <c r="H52" s="9">
-        <v>4.6785176604659633E-2</v>
-      </c>
-      <c r="I52" s="9">
-        <v>3.119011773643976E-2</v>
+      <c r="B52" s="12">
+        <v>5.7215545855234424</v>
+      </c>
+      <c r="C52" s="12">
+        <v>-5.0031619528859466</v>
+      </c>
+      <c r="D52" s="12">
+        <v>14.83459898855252</v>
+      </c>
+      <c r="E52" s="12">
+        <v>-7.3417489431475476</v>
+      </c>
+      <c r="F52" s="12">
+        <v>98.42672161622103</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1.542114989112616</v>
+      </c>
+      <c r="H52" s="12">
+        <v>2.3372545999740889E-2</v>
+      </c>
+      <c r="I52" s="12">
+        <v>7.7908486665802948E-3</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2584,29 +2585,29 @@
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="9">
-        <v>3.6867501157845428</v>
-      </c>
-      <c r="C53" s="9">
-        <v>8.7103885756579125</v>
-      </c>
-      <c r="D53" s="9">
-        <v>12.70620245292282</v>
-      </c>
-      <c r="E53" s="9">
-        <v>3.3850330519060061</v>
-      </c>
-      <c r="F53" s="9">
-        <v>99.495374264087459</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0.33641715727502097</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0.16820857863751049</v>
+      <c r="B53" s="12">
+        <v>2.0790144982117291</v>
+      </c>
+      <c r="C53" s="12">
+        <v>-1.5505699771450889</v>
+      </c>
+      <c r="D53" s="12">
+        <v>11.475972148143979</v>
+      </c>
+      <c r="E53" s="12">
+        <v>-1.091537358197048</v>
+      </c>
+      <c r="F53" s="12">
+        <v>99.914015477214107</v>
+      </c>
+      <c r="G53" s="12">
+        <v>8.5984522785898534E-2</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2622,7 +2623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2633,21 +2636,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:N5"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -2687,8 +2692,11 @@
       <c r="N4" s="5">
         <v>43995</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O4" s="5">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -2727,6 +2735,9 @@
       </c>
       <c r="N5" s="6">
         <v>0.39399999999999996</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163377D5-4A11-7746-898E-B13B373E420D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C24D809-6AAA-8342-A97B-7CB3DAFA3D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="33380" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>242944</xdr:colOff>
+      <xdr:colOff>242943</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>143988</xdr:rowOff>
     </xdr:to>
@@ -449,7 +449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="693653" y="580020"/>
-          <a:ext cx="13582791" cy="10422468"/>
+          <a:ext cx="13582790" cy="10422468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -461,13 +461,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>195345</xdr:colOff>
+      <xdr:colOff>258846</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>187719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>583367</xdr:colOff>
+      <xdr:colOff>646866</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>142839</xdr:rowOff>
     </xdr:to>
@@ -497,8 +497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14228845" y="568719"/>
-          <a:ext cx="13596022" cy="10432620"/>
+          <a:off x="14292346" y="568719"/>
+          <a:ext cx="13596020" cy="10432620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -509,16 +509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257285</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>689086</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>71328</xdr:rowOff>
+      <xdr:rowOff>81132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>317497</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>27340</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>65440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -546,8 +546,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1082785" y="11120328"/>
-          <a:ext cx="14093712" cy="10814512"/>
+          <a:off x="689086" y="11130132"/>
+          <a:ext cx="14627114" cy="11223808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,20 +848,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -903,28 +903,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="12">
-        <v>9.7315817383052412</v>
+        <v>8.4092700999412635</v>
       </c>
       <c r="C2" s="12">
-        <v>-4.4294484424116032</v>
+        <v>-1.1608442385737929</v>
       </c>
       <c r="D2" s="12">
-        <v>23.552779158139739</v>
+        <v>23.056761533195701</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.8916576422502227</v>
+        <v>-0.38745339791675842</v>
       </c>
       <c r="F2" s="12">
-        <v>98.308491102280115</v>
+        <v>98.509084043769391</v>
       </c>
       <c r="G2" s="12">
-        <v>1.6124741855574529</v>
+        <v>1.434432146653581</v>
       </c>
       <c r="H2" s="12">
-        <v>7.3361255496269831E-2</v>
+        <v>5.4086805878764167E-2</v>
       </c>
       <c r="I2" s="12">
-        <v>5.9625464125654974E-3</v>
+        <v>2.8801129283241721E-3</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -936,28 +936,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="12">
-        <v>7.059566410519297</v>
+        <v>10.45012938002214</v>
       </c>
       <c r="C3" s="12">
-        <v>-4.0381188630929952</v>
+        <v>3.0907254154589019</v>
       </c>
       <c r="D3" s="12">
-        <v>17.636380497745211</v>
+        <v>20.356803767398389</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.56880710765781572</v>
+        <v>2.3099255036218969</v>
       </c>
       <c r="F3" s="12">
-        <v>99.018467363287158</v>
+        <v>98.890666144563227</v>
       </c>
       <c r="G3" s="12">
-        <v>0.89021047487206673</v>
+        <v>0.99891685497609117</v>
       </c>
       <c r="H3" s="12">
-        <v>8.1307807641795016E-2</v>
+        <v>8.0479313431343014E-2</v>
       </c>
       <c r="I3" s="12">
-        <v>1.0014354198461301E-2</v>
+        <v>2.993768702907345E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -969,22 +969,22 @@
         <v>12</v>
       </c>
       <c r="B4" s="12">
-        <v>25.58246853103277</v>
+        <v>14.46294105722974</v>
       </c>
       <c r="C4" s="12">
-        <v>-14.67248761893438</v>
+        <v>-8.854362877136202</v>
       </c>
       <c r="D4" s="12">
-        <v>20.632394318245041</v>
+        <v>22.73346621673009</v>
       </c>
       <c r="E4" s="12">
-        <v>-4.9610725892664131</v>
+        <v>1.741714495811242</v>
       </c>
       <c r="F4" s="12">
-        <v>100</v>
+        <v>99.737325978460731</v>
       </c>
       <c r="G4" s="12">
-        <v>0</v>
+        <v>0.26267402153926978</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -1002,28 +1002,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="12">
-        <v>6.7147138988903912</v>
+        <v>7.4555107169560566</v>
       </c>
       <c r="C5" s="12">
-        <v>-6.7281408013086503</v>
+        <v>0.73492292457640285</v>
       </c>
       <c r="D5" s="12">
-        <v>24.762102129848209</v>
+        <v>26.485066643150709</v>
       </c>
       <c r="E5" s="12">
-        <v>1.4663152741089929E-2</v>
+        <v>1.345977449069744</v>
       </c>
       <c r="F5" s="12">
-        <v>99.195625004347278</v>
+        <v>98.966078026377801</v>
       </c>
       <c r="G5" s="12">
-        <v>0.69676356812917462</v>
+        <v>0.92896365373707102</v>
       </c>
       <c r="H5" s="12">
-        <v>0.1076114275234812</v>
+        <v>9.7620580284408759E-2</v>
       </c>
       <c r="I5" s="12">
-        <v>0</v>
+        <v>7.3377396006688456E-3</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1035,25 +1035,25 @@
         <v>14</v>
       </c>
       <c r="B6" s="12">
-        <v>7.1657428258626092</v>
+        <v>7.4605971260981701</v>
       </c>
       <c r="C6" s="12">
-        <v>-4.4911513620438557</v>
+        <v>0.27549923817819438</v>
       </c>
       <c r="D6" s="12">
-        <v>13.510240928521499</v>
+        <v>16.08343447675129</v>
       </c>
       <c r="E6" s="12">
-        <v>-1.0465430006847269</v>
+        <v>2.2798845765418911</v>
       </c>
       <c r="F6" s="12">
-        <v>99.053942952115051</v>
+        <v>98.982420370519634</v>
       </c>
       <c r="G6" s="12">
-        <v>0.70655744700306378</v>
+        <v>0.8019199945708495</v>
       </c>
       <c r="H6" s="12">
-        <v>0.23949960088161121</v>
+        <v>0.2156596349092362</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -1068,28 +1068,28 @@
         <v>15</v>
       </c>
       <c r="B7" s="12">
-        <v>14.378435225926831</v>
+        <v>13.25737820517492</v>
       </c>
       <c r="C7" s="12">
-        <v>-4.4575534409095976</v>
+        <v>-1.013492488487413</v>
       </c>
       <c r="D7" s="12">
-        <v>29.813453202423791</v>
+        <v>29.089812036210649</v>
       </c>
       <c r="E7" s="12">
-        <v>-1.65541378711517</v>
+        <v>-0.56505904092996473</v>
       </c>
       <c r="F7" s="12">
-        <v>94.432923889190107</v>
+        <v>95.042953977219526</v>
       </c>
       <c r="G7" s="12">
-        <v>5.4744046394277586</v>
+        <v>4.9117971034274683</v>
       </c>
       <c r="H7" s="12">
-        <v>7.1888396373635671E-2</v>
+        <v>4.1083077597795517E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>2.0783075007654341E-2</v>
+        <v>4.165841754789428E-3</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1101,25 +1101,25 @@
         <v>16</v>
       </c>
       <c r="B8" s="12">
-        <v>-0.1211865735667957</v>
+        <v>-1.912735842929679</v>
       </c>
       <c r="C8" s="12">
-        <v>-3.5075187774540382</v>
+        <v>-1.792034061112483</v>
       </c>
       <c r="D8" s="12">
-        <v>21.619741654528308</v>
+        <v>21.426158258217569</v>
       </c>
       <c r="E8" s="12">
-        <v>-0.13370183532245039</v>
+        <v>-0.1601366618912316</v>
       </c>
       <c r="F8" s="12">
-        <v>97.171731976254094</v>
+        <v>97.29321663013981</v>
       </c>
       <c r="G8" s="12">
-        <v>2.8220098122718462</v>
+        <v>2.69395694399243</v>
       </c>
       <c r="H8" s="12">
-        <v>6.2582114731285629E-3</v>
+        <v>1.2826425866836201E-2</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>17</v>
       </c>
       <c r="B9" s="12">
-        <v>13.860067178296619</v>
+        <v>11.44130577159048</v>
       </c>
       <c r="C9" s="12">
-        <v>-8.1504934499659978</v>
+        <v>-2.1205998915341162</v>
       </c>
       <c r="D9" s="12">
-        <v>31.477663474766931</v>
+        <v>29.071489735025619</v>
       </c>
       <c r="E9" s="12">
-        <v>-3.063747925459428</v>
+        <v>-1.7746084857135991</v>
       </c>
       <c r="F9" s="12">
-        <v>98.381449645965986</v>
+        <v>98.67483397806285</v>
       </c>
       <c r="G9" s="12">
-        <v>1.4985371937529619</v>
+        <v>1.2091167314568061</v>
       </c>
       <c r="H9" s="12">
-        <v>0.1200131602798206</v>
+        <v>0.1097036593726199</v>
       </c>
       <c r="I9" s="12">
-        <v>0</v>
+        <v>6.3456311071139566E-3</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1167,22 +1167,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="12">
-        <v>8.6037722131611112</v>
+        <v>5.9640528588997848</v>
       </c>
       <c r="C10" s="12">
-        <v>-3.8162232761224542</v>
+        <v>-2.424151784431444</v>
       </c>
       <c r="D10" s="12">
-        <v>30.446854283069921</v>
+        <v>29.339171899246079</v>
       </c>
       <c r="E10" s="12">
-        <v>-0.64409040219936786</v>
+        <v>-0.8147790705710839</v>
       </c>
       <c r="F10" s="12">
-        <v>99.40284590264784</v>
+        <v>99.509627511394072</v>
       </c>
       <c r="G10" s="12">
-        <v>0.59715409735129354</v>
+        <v>0.49037248860504989</v>
       </c>
       <c r="H10" s="12">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B11" s="12">
-        <v>-0.85736916803374097</v>
+        <v>-4.7461089956810403</v>
       </c>
       <c r="C11" s="12">
-        <v>-0.88319999999999999</v>
+        <v>-3.9222999999999999</v>
       </c>
       <c r="D11" s="12">
-        <v>32.248087229766298</v>
+        <v>30.471934480519899</v>
       </c>
       <c r="E11" s="12">
-        <v>4.1799999999999997E-2</v>
+        <v>-1.343</v>
       </c>
       <c r="F11" s="12">
-        <v>97.925311203318998</v>
+        <v>98.201879852881007</v>
       </c>
       <c r="G11" s="12">
-        <v>1.991701244813</v>
+        <v>1.7981201471179999</v>
       </c>
       <c r="H11" s="12">
-        <v>8.2987551867000006E-2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
@@ -1233,28 +1233,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="12">
-        <v>10.13020672251008</v>
+        <v>8.8499753776980548</v>
       </c>
       <c r="C12" s="12">
-        <v>-3.9683209030129438</v>
+        <v>-1.165009398614155</v>
       </c>
       <c r="D12" s="12">
-        <v>20.294450749859049</v>
+        <v>20.259843357267169</v>
       </c>
       <c r="E12" s="12">
-        <v>0.63800344930178143</v>
+        <v>-3.0580904744864381E-2</v>
       </c>
       <c r="F12" s="12">
-        <v>98.898091726018137</v>
+        <v>98.971391829099133</v>
       </c>
       <c r="G12" s="12">
-        <v>1.0012386805400479</v>
+        <v>0.96135231164302448</v>
       </c>
       <c r="H12" s="12">
-        <v>9.7967761519145241E-2</v>
+        <v>6.5910624698860179E-2</v>
       </c>
       <c r="I12" s="12">
-        <v>2.7018319214705188E-3</v>
+        <v>1.34523455777511E-3</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1266,28 +1266,28 @@
         <v>21</v>
       </c>
       <c r="B13" s="12">
-        <v>7.1579643047662858</v>
+        <v>7.7740832902922827</v>
       </c>
       <c r="C13" s="12">
-        <v>-2.7577372567187561</v>
+        <v>0.55035853923919853</v>
       </c>
       <c r="D13" s="12">
-        <v>23.531389928733809</v>
+        <v>23.899661301387681</v>
       </c>
       <c r="E13" s="12">
-        <v>0.19913751061986981</v>
+        <v>0.28015459441229679</v>
       </c>
       <c r="F13" s="12">
-        <v>98.679838533929143</v>
+        <v>98.844725345568662</v>
       </c>
       <c r="G13" s="12">
-        <v>1.3162265770762831</v>
+        <v>1.140393906560067</v>
       </c>
       <c r="H13" s="12">
-        <v>3.9348889930079962E-3</v>
+        <v>1.132326464380865E-2</v>
       </c>
       <c r="I13" s="12">
-        <v>0</v>
+        <v>3.557483225914431E-3</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1299,28 +1299,28 @@
         <v>22</v>
       </c>
       <c r="B14" s="12">
-        <v>42.506878476249007</v>
+        <v>18.602887444573611</v>
       </c>
       <c r="C14" s="12">
-        <v>-7.2390384216862502</v>
+        <v>-16.773920871236658</v>
       </c>
       <c r="D14" s="12">
-        <v>15.02021801899485</v>
+        <v>11.813445691145329</v>
       </c>
       <c r="E14" s="12">
-        <v>-8.2091196186020561</v>
+        <v>-2.7880075199648302</v>
       </c>
       <c r="F14" s="12">
-        <v>97.12137486573576</v>
+        <v>98.587026332691067</v>
       </c>
       <c r="G14" s="12">
-        <v>2.4704618689581088</v>
+        <v>1.370156283451081</v>
       </c>
       <c r="H14" s="12">
-        <v>0.1933404940923738</v>
+        <v>4.2817383857846288E-2</v>
       </c>
       <c r="I14" s="12">
-        <v>0.21482277121374871</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1332,25 +1332,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="12">
-        <v>3.299418380211796</v>
+        <v>-3.9777384716259769</v>
       </c>
       <c r="C15" s="12">
-        <v>-3.892417753029187</v>
+        <v>-7.0250296587397782</v>
       </c>
       <c r="D15" s="12">
-        <v>24.52294542384444</v>
+        <v>22.933460826830139</v>
       </c>
       <c r="E15" s="12">
-        <v>-1.417158854464901</v>
+        <v>-1.300326403418719</v>
       </c>
       <c r="F15" s="12">
-        <v>99.748603782762629</v>
+        <v>99.831779849756387</v>
       </c>
       <c r="G15" s="12">
-        <v>0.22593215668557889</v>
+        <v>0.1682201502436067</v>
       </c>
       <c r="H15" s="12">
-        <v>2.5464060551779851E-2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
@@ -1365,25 +1365,25 @@
         <v>24</v>
       </c>
       <c r="B16" s="12">
-        <v>3.2745219255831008</v>
+        <v>4.5321929723656069</v>
       </c>
       <c r="C16" s="12">
-        <v>-4.7449754020854602</v>
+        <v>1.210603890307022</v>
       </c>
       <c r="D16" s="12">
-        <v>26.51382693708544</v>
+        <v>27.513589392437321</v>
       </c>
       <c r="E16" s="12">
-        <v>-1.3057377225130919</v>
+        <v>0.79004345538197973</v>
       </c>
       <c r="F16" s="12">
-        <v>98.848959113248569</v>
+        <v>98.794516074539601</v>
       </c>
       <c r="G16" s="12">
-        <v>1.147962280561649</v>
+        <v>1.205483925459552</v>
       </c>
       <c r="H16" s="12">
-        <v>3.078606188088391E-3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
@@ -1398,28 +1398,28 @@
         <v>25</v>
       </c>
       <c r="B17" s="12">
-        <v>1.3575027836430169</v>
+        <v>1.6744111662902921</v>
       </c>
       <c r="C17" s="12">
-        <v>-4.4200141718081856</v>
+        <v>0.29737149406897601</v>
       </c>
       <c r="D17" s="12">
-        <v>18.80114998487181</v>
+        <v>18.258103579207059</v>
       </c>
       <c r="E17" s="12">
-        <v>0.37533747617938112</v>
+        <v>-0.4495126825532495</v>
       </c>
       <c r="F17" s="12">
-        <v>99.6289330508733</v>
+        <v>99.615847033608546</v>
       </c>
       <c r="G17" s="12">
-        <v>0.35892131844811709</v>
+        <v>0.38415296639071961</v>
       </c>
       <c r="H17" s="12">
-        <v>6.0728153389270206E-3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12">
-        <v>6.0728153389270206E-3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1431,22 +1431,22 @@
         <v>26</v>
       </c>
       <c r="B18" s="12">
-        <v>0.46829063444246299</v>
+        <v>-1.109311957451931</v>
       </c>
       <c r="C18" s="12">
-        <v>-5.2488962676567601</v>
+        <v>-1.5619714107565481</v>
       </c>
       <c r="D18" s="12">
-        <v>22.416880070392061</v>
+        <v>21.822919226370939</v>
       </c>
       <c r="E18" s="12">
-        <v>-3.1540024092835593E-2</v>
+        <v>-0.48782241846081148</v>
       </c>
       <c r="F18" s="12">
-        <v>100</v>
+        <v>99.942458317470695</v>
       </c>
       <c r="G18" s="12">
-        <v>0</v>
+        <v>5.7541682529319703E-2</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="12">
-        <v>1.5710832870482569</v>
+        <v>2.188053306190715</v>
       </c>
       <c r="C19" s="12">
-        <v>-5.1227091690282007</v>
+        <v>0.62238314393824978</v>
       </c>
       <c r="D19" s="12">
-        <v>20.07416099925446</v>
+        <v>21.394455323670829</v>
       </c>
       <c r="E19" s="12">
-        <v>-1.532924435116807</v>
+        <v>1.131608739213207</v>
       </c>
       <c r="F19" s="12">
-        <v>99.723474246462274</v>
+        <v>99.675521404117205</v>
       </c>
       <c r="G19" s="12">
-        <v>0.27652575353771641</v>
+        <v>0.30247036849975811</v>
       </c>
       <c r="H19" s="12">
-        <v>0</v>
+        <v>2.200822738304151E-2</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -1497,28 +1497,28 @@
         <v>28</v>
       </c>
       <c r="B20" s="12">
-        <v>4.9246459733819368</v>
+        <v>5.7360508125829508</v>
       </c>
       <c r="C20" s="12">
-        <v>-4.726239268117812</v>
+        <v>0.76297919550402815</v>
       </c>
       <c r="D20" s="12">
-        <v>12.353243835905401</v>
+        <v>12.015122974912691</v>
       </c>
       <c r="E20" s="12">
-        <v>-0.237741480438732</v>
+        <v>-0.30027561606475228</v>
       </c>
       <c r="F20" s="12">
-        <v>99.324659071434382</v>
+        <v>99.4487683109719</v>
       </c>
       <c r="G20" s="12">
-        <v>0.64212433395881729</v>
+        <v>0.51805554384875185</v>
       </c>
       <c r="H20" s="12">
-        <v>1.107219820223836E-2</v>
+        <v>3.3176145179350747E-2</v>
       </c>
       <c r="I20" s="12">
-        <v>2.214439640447672E-2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1530,25 +1530,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="12">
-        <v>14.012651069352961</v>
+        <v>18.78671431843275</v>
       </c>
       <c r="C21" s="12">
-        <v>-5.6870115849371849</v>
+        <v>4.2381188836081609</v>
       </c>
       <c r="D21" s="12">
-        <v>16.860098494913711</v>
+        <v>20.132623287711901</v>
       </c>
       <c r="E21" s="12">
-        <v>-0.91741785120556174</v>
+        <v>2.834339212751209</v>
       </c>
       <c r="F21" s="12">
-        <v>99.389722402583871</v>
+        <v>99.375197001483542</v>
       </c>
       <c r="G21" s="12">
-        <v>0.54878432619091588</v>
+        <v>0.55397612657967377</v>
       </c>
       <c r="H21" s="12">
-        <v>6.1493271224927711E-2</v>
+        <v>7.0826871936646413E-2</v>
       </c>
       <c r="I21" s="12">
         <v>0</v>
@@ -1563,28 +1563,28 @@
         <v>30</v>
       </c>
       <c r="B22" s="12">
-        <v>13.592887725228341</v>
+        <v>11.000983469840969</v>
       </c>
       <c r="C22" s="12">
-        <v>-7.6765647731608064</v>
+        <v>-2.2810010305848829</v>
       </c>
       <c r="D22" s="12">
-        <v>26.720019956688631</v>
+        <v>28.602275809941439</v>
       </c>
       <c r="E22" s="12">
-        <v>-9.2171438681935935</v>
+        <v>1.492584282992357</v>
       </c>
       <c r="F22" s="12">
-        <v>99.811736817276199</v>
+        <v>99.884119286401443</v>
       </c>
       <c r="G22" s="12">
-        <v>0.1694368644514139</v>
+        <v>0.11588071359848939</v>
       </c>
       <c r="H22" s="12">
         <v>0</v>
       </c>
       <c r="I22" s="12">
-        <v>1.8826318272379329E-2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -1596,25 +1596,25 @@
         <v>31</v>
       </c>
       <c r="B23" s="12">
-        <v>10.4739632177213</v>
+        <v>7.3191860826003463</v>
       </c>
       <c r="C23" s="12">
-        <v>-1.4642238285357261</v>
+        <v>-2.8557538002998468</v>
       </c>
       <c r="D23" s="12">
-        <v>29.44831959353958</v>
+        <v>27.391968032105559</v>
       </c>
       <c r="E23" s="12">
-        <v>-0.49199751075927961</v>
+        <v>-1.587043401802299</v>
       </c>
       <c r="F23" s="12">
-        <v>98.932484945029714</v>
+        <v>99.071033550401992</v>
       </c>
       <c r="G23" s="12">
-        <v>1.0675150549692809</v>
+        <v>0.9161531192575959</v>
       </c>
       <c r="H23" s="12">
-        <v>0</v>
+        <v>1.2813330338407919E-2</v>
       </c>
       <c r="I23" s="12">
         <v>0</v>
@@ -1629,28 +1629,28 @@
         <v>32</v>
       </c>
       <c r="B24" s="12">
-        <v>13.423125051280479</v>
+        <v>11.15447736277115</v>
       </c>
       <c r="C24" s="12">
-        <v>-7.8000904530047963</v>
+        <v>-2.0014990705136531</v>
       </c>
       <c r="D24" s="12">
-        <v>31.18610482188701</v>
+        <v>29.566025778714689</v>
       </c>
       <c r="E24" s="12">
-        <v>-2.4187363583696522</v>
+        <v>-1.244543813360538</v>
       </c>
       <c r="F24" s="12">
-        <v>98.66075024940335</v>
+        <v>98.884525624051307</v>
       </c>
       <c r="G24" s="12">
-        <v>1.225484073791729</v>
+        <v>0.98657112374409262</v>
       </c>
       <c r="H24" s="12">
-        <v>0.1137656768031345</v>
+        <v>0.1289032522028041</v>
       </c>
       <c r="I24" s="12">
-        <v>3.9229543720598293E-3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1662,25 +1662,25 @@
         <v>33</v>
       </c>
       <c r="B25" s="12">
-        <v>6.091575718885295</v>
+        <v>6.614079273549379</v>
       </c>
       <c r="C25" s="12">
-        <v>-5.659985752044971</v>
+        <v>0.4771639029389968</v>
       </c>
       <c r="D25" s="12">
-        <v>19.451705893087951</v>
+        <v>20.523467408538298</v>
       </c>
       <c r="E25" s="12">
-        <v>-1.871155903055209</v>
+        <v>0.90701772581539786</v>
       </c>
       <c r="F25" s="12">
-        <v>99.651083470829704</v>
+        <v>99.542446407555275</v>
       </c>
       <c r="G25" s="12">
-        <v>0.3342344908862428</v>
+        <v>0.43949965182728362</v>
       </c>
       <c r="H25" s="12">
-        <v>1.4682038282677759E-2</v>
+        <v>1.8053940616070741E-2</v>
       </c>
       <c r="I25" s="12">
         <v>0</v>
@@ -1695,25 +1695,25 @@
         <v>34</v>
       </c>
       <c r="B26" s="12">
-        <v>12.49982010038725</v>
+        <v>9.6902950736880271</v>
       </c>
       <c r="C26" s="12">
-        <v>-2.5238345485695359</v>
+        <v>-2.7801953601356169</v>
       </c>
       <c r="D26" s="12">
-        <v>23.95276841650794</v>
+        <v>23.99475208136457</v>
       </c>
       <c r="E26" s="12">
-        <v>-1.5308478710872031</v>
+        <v>-4.2595787423265113E-2</v>
       </c>
       <c r="F26" s="12">
-        <v>99.224153396833572</v>
+        <v>99.25685818257719</v>
       </c>
       <c r="G26" s="12">
-        <v>0.70714753100038197</v>
+        <v>0.71736355119966844</v>
       </c>
       <c r="H26" s="12">
-        <v>6.8699072164683211E-2</v>
+        <v>2.57782662217792E-2</v>
       </c>
       <c r="I26" s="12">
         <v>0</v>
@@ -1728,28 +1728,28 @@
         <v>35</v>
       </c>
       <c r="B27" s="12">
-        <v>14.48100007849736</v>
+        <v>15.728878076502481</v>
       </c>
       <c r="C27" s="12">
-        <v>-3.888672735372984</v>
+        <v>1.0762276173186971</v>
       </c>
       <c r="D27" s="12">
-        <v>22.58646387427202</v>
+        <v>22.911177600172049</v>
       </c>
       <c r="E27" s="12">
-        <v>-0.91499752610341223</v>
+        <v>0.31431164768179881</v>
       </c>
       <c r="F27" s="12">
-        <v>99.307522419582909</v>
+        <v>99.44863832439485</v>
       </c>
       <c r="G27" s="12">
-        <v>0.65114895623726488</v>
+        <v>0.51134150030473335</v>
       </c>
       <c r="H27" s="12">
-        <v>2.0667589997960079E-2</v>
+        <v>1.9457280749383299E-2</v>
       </c>
       <c r="I27" s="12">
-        <v>2.066103418137713E-2</v>
+        <v>2.0562894550539189E-2</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1761,25 +1761,25 @@
         <v>36</v>
       </c>
       <c r="B28" s="12">
-        <v>3.8204472551968198</v>
+        <v>5.9675043618655073</v>
       </c>
       <c r="C28" s="12">
-        <v>-4.4922399351442506</v>
+        <v>1.9619798795749801</v>
       </c>
       <c r="D28" s="12">
-        <v>18.90837329664582</v>
+        <v>19.808849623585161</v>
       </c>
       <c r="E28" s="12">
-        <v>-3.769900312588554</v>
+        <v>0.75767276267974282</v>
       </c>
       <c r="F28" s="12">
-        <v>98.863404736587285</v>
+        <v>98.875974405219253</v>
       </c>
       <c r="G28" s="12">
-        <v>1.12837145055884</v>
+        <v>1.1158326192727199</v>
       </c>
       <c r="H28" s="12">
-        <v>8.2238128537876817E-3</v>
+        <v>8.1929755079579863E-3</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -1794,25 +1794,25 @@
         <v>37</v>
       </c>
       <c r="B29" s="12">
-        <v>9.5012836063603778</v>
+        <v>0.20651850637287689</v>
       </c>
       <c r="C29" s="12">
-        <v>0.41686921548991229</v>
+        <v>-8.4882704511489599</v>
       </c>
       <c r="D29" s="12">
-        <v>17.392015628155999</v>
+        <v>15.36620573637169</v>
       </c>
       <c r="E29" s="12">
-        <v>0.96053432151461671</v>
+        <v>-1.725679451830153</v>
       </c>
       <c r="F29" s="12">
-        <v>99.511002444987767</v>
+        <v>99.804782820888235</v>
       </c>
       <c r="G29" s="12">
-        <v>0.39119804400977992</v>
+        <v>0.19521717911176181</v>
       </c>
       <c r="H29" s="12">
-        <v>9.779951100244498E-2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12">
         <v>0</v>
@@ -1827,22 +1827,22 @@
         <v>38</v>
       </c>
       <c r="B30" s="12">
-        <v>5.1418255065005436</v>
+        <v>2.461523893732799</v>
       </c>
       <c r="C30" s="12">
-        <v>-5.3667447647500568</v>
+        <v>-2.5310513683932179</v>
       </c>
       <c r="D30" s="12">
-        <v>17.10791621108655</v>
+        <v>16.525105884003359</v>
       </c>
       <c r="E30" s="12">
-        <v>-5.1472220000632989</v>
+        <v>-0.57963464076139226</v>
       </c>
       <c r="F30" s="12">
-        <v>99.896056953395018</v>
+        <v>99.879806138933759</v>
       </c>
       <c r="G30" s="12">
-        <v>0.10394304660498099</v>
+        <v>0.1201938610662359</v>
       </c>
       <c r="H30" s="12">
         <v>0</v>
@@ -1860,28 +1860,28 @@
         <v>39</v>
       </c>
       <c r="B31" s="12">
-        <v>9.4504226046161257</v>
+        <v>9.5851374169585348</v>
       </c>
       <c r="C31" s="12">
-        <v>-6.2274818156803233</v>
+        <v>0.18941283755213881</v>
       </c>
       <c r="D31" s="12">
-        <v>21.453754519427019</v>
+        <v>20.183458607658089</v>
       </c>
       <c r="E31" s="12">
-        <v>1.8456886257871961</v>
+        <v>-0.72630216358739708</v>
       </c>
       <c r="F31" s="12">
-        <v>99.178918322125739</v>
+        <v>99.295673489455837</v>
       </c>
       <c r="G31" s="12">
-        <v>0.75246401076810709</v>
+        <v>0.63459713694783859</v>
       </c>
       <c r="H31" s="12">
-        <v>6.1902075857175193E-2</v>
+        <v>6.9729373596322544E-2</v>
       </c>
       <c r="I31" s="12">
-        <v>1.343118249792301E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1893,25 +1893,25 @@
         <v>40</v>
       </c>
       <c r="B32" s="12">
-        <v>11.274491218498881</v>
+        <v>9.7964016921808739</v>
       </c>
       <c r="C32" s="12">
-        <v>-7.2285741749979584</v>
+        <v>-1.353576502955798</v>
       </c>
       <c r="D32" s="12">
-        <v>28.813222941906108</v>
+        <v>29.099968050045199</v>
       </c>
       <c r="E32" s="12">
-        <v>-2.7589941471827779</v>
+        <v>0.20486285593082129</v>
       </c>
       <c r="F32" s="12">
-        <v>99.153915132461492</v>
+        <v>99.131715098462848</v>
       </c>
       <c r="G32" s="12">
-        <v>0.8128036536421791</v>
+        <v>0.76943059202369635</v>
       </c>
       <c r="H32" s="12">
-        <v>3.3281213895450752E-2</v>
+        <v>9.8854309512573929E-2</v>
       </c>
       <c r="I32" s="12">
         <v>0</v>
@@ -1926,25 +1926,25 @@
         <v>41</v>
       </c>
       <c r="B33" s="12">
-        <v>12.13456977340617</v>
+        <v>8.5275179742146303</v>
       </c>
       <c r="C33" s="12">
-        <v>-5.536986595002646</v>
+        <v>-3.2151911050498918</v>
       </c>
       <c r="D33" s="12">
-        <v>33.653250974757484</v>
+        <v>30.17257801596476</v>
       </c>
       <c r="E33" s="12">
-        <v>-0.72421626162025998</v>
+        <v>-2.6094107226313512</v>
       </c>
       <c r="F33" s="12">
-        <v>98.211609276201244</v>
+        <v>98.706179146435801</v>
       </c>
       <c r="G33" s="12">
-        <v>1.712521005488882</v>
+        <v>1.235327917298239</v>
       </c>
       <c r="H33" s="12">
-        <v>7.58697183093162E-2</v>
+        <v>5.8492936265382357E-2</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
@@ -1959,28 +1959,28 @@
         <v>42</v>
       </c>
       <c r="B34" s="12">
-        <v>13.508267192550081</v>
+        <v>10.68135370797523</v>
       </c>
       <c r="C34" s="12">
-        <v>-3.7513469326672868</v>
+        <v>-2.4893094639825661</v>
       </c>
       <c r="D34" s="12">
-        <v>20.454938906480059</v>
+        <v>19.896742645484821</v>
       </c>
       <c r="E34" s="12">
-        <v>0.32557868471584628</v>
+        <v>-0.45941000135297277</v>
       </c>
       <c r="F34" s="12">
-        <v>98.403139229006271</v>
+        <v>98.546020967009682</v>
       </c>
       <c r="G34" s="12">
-        <v>1.4471983381838811</v>
+        <v>1.424443395628433</v>
       </c>
       <c r="H34" s="12">
-        <v>0.14966243280900121</v>
+        <v>2.9535637361035819E-2</v>
       </c>
       <c r="I34" s="12">
-        <v>2.9932486561800239E-2</v>
+        <v>2.9535637361035819E-2</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1992,25 +1992,25 @@
         <v>43</v>
       </c>
       <c r="B35" s="12">
-        <v>10.90066361103926</v>
+        <v>8.9504652272848659</v>
       </c>
       <c r="C35" s="12">
-        <v>-6.5951032650528356</v>
+        <v>-1.7101523271847281</v>
       </c>
       <c r="D35" s="12">
-        <v>26.21885124016794</v>
+        <v>23.423195535232729</v>
       </c>
       <c r="E35" s="12">
-        <v>-3.106213107372934</v>
+        <v>-2.2193211868734002</v>
       </c>
       <c r="F35" s="12">
-        <v>97.817999058490528</v>
+        <v>98.277590701499363</v>
       </c>
       <c r="G35" s="12">
-        <v>2.0596524309713971</v>
+        <v>1.6378433964055581</v>
       </c>
       <c r="H35" s="12">
-        <v>0.1223485105380558</v>
+        <v>8.4565902095065593E-2</v>
       </c>
       <c r="I35" s="12">
         <v>0</v>
@@ -2025,28 +2025,28 @@
         <v>44</v>
       </c>
       <c r="B36" s="12">
-        <v>20.002899690566618</v>
+        <v>12.982557818037479</v>
       </c>
       <c r="C36" s="12">
-        <v>-0.1528584039956136</v>
+        <v>-5.8480879127042744</v>
       </c>
       <c r="D36" s="12">
-        <v>23.67145486764737</v>
+        <v>20.524330624457761</v>
       </c>
       <c r="E36" s="12">
-        <v>1.7376104711488269</v>
+        <v>-2.548313104593475</v>
       </c>
       <c r="F36" s="12">
-        <v>98.272336539207885</v>
+        <v>98.643408431258564</v>
       </c>
       <c r="G36" s="12">
-        <v>1.6635235897516101</v>
+        <v>1.3128613118745649</v>
       </c>
       <c r="H36" s="12">
-        <v>6.077391868236267E-2</v>
+        <v>4.3730256866861841E-2</v>
       </c>
       <c r="I36" s="12">
-        <v>3.365952358140527E-3</v>
+        <v>0</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B37" s="12">
-        <v>10.72487468256252</v>
+        <v>9.2518501640398032</v>
       </c>
       <c r="C37" s="12">
-        <v>-1.946859927193171</v>
+        <v>-4.48208185480535</v>
       </c>
       <c r="D37" s="12">
-        <v>23.589894098030388</v>
+        <v>23.03007622101304</v>
       </c>
       <c r="E37" s="12">
-        <v>-1.24062613634382</v>
+        <v>-3.1692360385851241</v>
       </c>
       <c r="F37" s="12">
-        <v>99.856689474753892</v>
+        <v>99.971128146542682</v>
       </c>
       <c r="G37" s="12">
-        <v>0.14331052524610319</v>
+        <v>2.88718534573266E-2</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -2091,28 +2091,28 @@
         <v>46</v>
       </c>
       <c r="B38" s="12">
-        <v>5.4135821068483816</v>
+        <v>6.1635358105085887</v>
       </c>
       <c r="C38" s="12">
-        <v>-4.3609342405837328</v>
+        <v>0.71021527917247074</v>
       </c>
       <c r="D38" s="12">
-        <v>14.17692235915055</v>
+        <v>14.51197823688101</v>
       </c>
       <c r="E38" s="12">
-        <v>0.36717346775699311</v>
+        <v>0.29094350190374552</v>
       </c>
       <c r="F38" s="12">
-        <v>99.320946709735949</v>
+        <v>99.388297374035716</v>
       </c>
       <c r="G38" s="12">
-        <v>0.65452190768448859</v>
+        <v>0.59367536844474911</v>
       </c>
       <c r="H38" s="12">
-        <v>1.7649283420391421E-2</v>
+        <v>1.8027257519499761E-2</v>
       </c>
       <c r="I38" s="12">
-        <v>6.8820991591454512E-3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2124,25 +2124,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="12">
-        <v>1.2191392912380941</v>
+        <v>1.182614470308436</v>
       </c>
       <c r="C39" s="12">
-        <v>-6.7302290309148738</v>
+        <v>5.0313492111713758E-2</v>
       </c>
       <c r="D39" s="12">
-        <v>13.963226303400679</v>
+        <v>14.66122052310299</v>
       </c>
       <c r="E39" s="12">
-        <v>0.6218615424545082</v>
+        <v>0.6470821579066337</v>
       </c>
       <c r="F39" s="12">
-        <v>99.714626937088269</v>
+        <v>99.770898069654919</v>
       </c>
       <c r="G39" s="12">
-        <v>0.27024977276222351</v>
+        <v>0.21430551246104931</v>
       </c>
       <c r="H39" s="12">
-        <v>1.5123290149508559E-2</v>
+        <v>1.4796417884029269E-2</v>
       </c>
       <c r="I39" s="12">
         <v>0</v>
@@ -2157,25 +2157,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="12">
-        <v>12.94214696276536</v>
+        <v>5.6620991041862938</v>
       </c>
       <c r="C40" s="12">
-        <v>-5.1475831839430457</v>
+        <v>-6.451946164390379</v>
       </c>
       <c r="D40" s="12">
-        <v>22.732010232834298</v>
+        <v>21.110118799063532</v>
       </c>
       <c r="E40" s="12">
-        <v>-1.91422778213528</v>
+        <v>-1.330963679784547</v>
       </c>
       <c r="F40" s="12">
-        <v>98.638945224110458</v>
+        <v>99.048770165335426</v>
       </c>
       <c r="G40" s="12">
-        <v>1.0991766832111209</v>
+        <v>0.76172994865500443</v>
       </c>
       <c r="H40" s="12">
-        <v>0.26187809267682283</v>
+        <v>0.18949988600877751</v>
       </c>
       <c r="I40" s="12">
         <v>0</v>
@@ -2190,28 +2190,28 @@
         <v>49</v>
       </c>
       <c r="B41" s="12">
-        <v>3.336887348356711</v>
+        <v>0.81739234646742998</v>
       </c>
       <c r="C41" s="12">
-        <v>-3.4627791939229859</v>
+        <v>-2.440124317984496</v>
       </c>
       <c r="D41" s="12">
-        <v>21.687575956595641</v>
+        <v>20.739045038730289</v>
       </c>
       <c r="E41" s="12">
-        <v>-0.20772655695443251</v>
+        <v>-0.76558835954780946</v>
       </c>
       <c r="F41" s="12">
-        <v>99.459444338158391</v>
+        <v>99.39228828818068</v>
       </c>
       <c r="G41" s="12">
-        <v>0.53411742052541278</v>
+        <v>0.59752238274431091</v>
       </c>
       <c r="H41" s="12">
-        <v>3.3913933369919169E-3</v>
+        <v>1.018932907406005E-2</v>
       </c>
       <c r="I41" s="12">
-        <v>3.046847978243799E-3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2223,22 +2223,22 @@
         <v>50</v>
       </c>
       <c r="B42" s="12">
-        <v>12.42</v>
+        <v>12.22</v>
       </c>
       <c r="C42" s="12">
-        <v>-13.2</v>
+        <v>-0.18</v>
       </c>
       <c r="D42" s="12">
-        <v>28.05</v>
+        <v>21.61</v>
       </c>
       <c r="E42" s="12">
-        <v>-7.1099999999999994</v>
+        <v>-5.0299999999999994</v>
       </c>
       <c r="F42" s="12">
-        <v>99.75</v>
+        <v>99.71</v>
       </c>
       <c r="G42" s="12">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H42" s="12">
         <v>0</v>
@@ -2256,25 +2256,25 @@
         <v>51</v>
       </c>
       <c r="B43" s="12">
-        <v>16.472832788229219</v>
+        <v>15.21882876325248</v>
       </c>
       <c r="C43" s="12">
-        <v>-0.4921130738433015</v>
+        <v>-1.076573623235028</v>
       </c>
       <c r="D43" s="12">
-        <v>23.501256734182139</v>
+        <v>22.239845926091149</v>
       </c>
       <c r="E43" s="12">
-        <v>2.4129424805865409</v>
+        <v>-1.030373329700212</v>
       </c>
       <c r="F43" s="12">
-        <v>98.959186252874247</v>
+        <v>99.044888572576369</v>
       </c>
       <c r="G43" s="12">
-        <v>0.99415324494026991</v>
+        <v>0.94591302156369139</v>
       </c>
       <c r="H43" s="12">
-        <v>4.6660502185166618E-2</v>
+        <v>9.1984058599476996E-3</v>
       </c>
       <c r="I43" s="12">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>52</v>
       </c>
       <c r="B44" s="12">
-        <v>14.11676569626524</v>
+        <v>13.38252310337821</v>
       </c>
       <c r="C44" s="12">
-        <v>-1.7988498427694719</v>
+        <v>-2.878843049196985</v>
       </c>
       <c r="D44" s="12">
-        <v>26.954514241672221</v>
+        <v>26.393721899801079</v>
       </c>
       <c r="E44" s="12">
-        <v>-1.010116584006183E-2</v>
+        <v>-2.247051764544608</v>
       </c>
       <c r="F44" s="12">
-        <v>99.609415787825</v>
+        <v>99.558477836121611</v>
       </c>
       <c r="G44" s="12">
-        <v>0.3195689008704567</v>
+        <v>0.4415221638783734</v>
       </c>
       <c r="H44" s="12">
-        <v>7.1015311304545928E-2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
@@ -2322,28 +2322,28 @@
         <v>53</v>
       </c>
       <c r="B45" s="12">
-        <v>6.9006448164579703</v>
+        <v>6.5690261397149836</v>
       </c>
       <c r="C45" s="12">
-        <v>-2.598176296363091</v>
+        <v>-0.31167999349313619</v>
       </c>
       <c r="D45" s="12">
-        <v>18.276961122306702</v>
+        <v>18.913776586966272</v>
       </c>
       <c r="E45" s="12">
-        <v>0.23311009936623489</v>
+        <v>0.53711815908525384</v>
       </c>
       <c r="F45" s="12">
-        <v>99.06769752883082</v>
+        <v>98.795661355361361</v>
       </c>
       <c r="G45" s="12">
-        <v>0.91431261753836135</v>
+        <v>1.174689875753532</v>
       </c>
       <c r="H45" s="12">
-        <v>1.7989853630095021E-2</v>
+        <v>2.96487688843972E-2</v>
       </c>
       <c r="I45" s="12">
-        <v>0</v>
+        <v>5.9436753559428566E-3</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2355,28 +2355,28 @@
         <v>54</v>
       </c>
       <c r="B46" s="12">
-        <v>9.8762269351749445</v>
+        <v>12.97163365547852</v>
       </c>
       <c r="C46" s="12">
-        <v>-4.0277452937117264</v>
+        <v>2.820390775572418</v>
       </c>
       <c r="D46" s="12">
-        <v>20.744816620175222</v>
+        <v>22.593587684735539</v>
       </c>
       <c r="E46" s="12">
-        <v>0.39816655939202039</v>
+        <v>1.5278416371485279</v>
       </c>
       <c r="F46" s="12">
-        <v>98.422483347389402</v>
+        <v>98.589854890158477</v>
       </c>
       <c r="G46" s="12">
-        <v>1.512098790560543</v>
+        <v>1.3445745942042231</v>
       </c>
       <c r="H46" s="12">
-        <v>5.5844093000091348E-2</v>
+        <v>5.4441129673354662E-2</v>
       </c>
       <c r="I46" s="12">
-        <v>9.573769049673787E-3</v>
+        <v>1.2810844362101269E-2</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2388,25 +2388,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="12">
-        <v>4.0125810961242596</v>
+        <v>0.25586173119038802</v>
       </c>
       <c r="C47" s="12">
-        <v>-4.6204999999999998</v>
+        <v>-3.611699999999999</v>
       </c>
       <c r="D47" s="12">
-        <v>21.777192382139098</v>
+        <v>20.959416399021499</v>
       </c>
       <c r="E47" s="12">
-        <v>0.58150000000000002</v>
+        <v>-0.67149999999999999</v>
       </c>
       <c r="F47" s="12">
-        <v>98.463855421686006</v>
+        <v>98.772455089819999</v>
       </c>
       <c r="G47" s="12">
-        <v>1.5210843373489999</v>
+        <v>1.2125748502989999</v>
       </c>
       <c r="H47" s="12">
-        <v>1.5060240963E-2</v>
+        <v>1.4970059880000001E-2</v>
       </c>
       <c r="I47" s="12">
         <v>0</v>
@@ -2421,25 +2421,25 @@
         <v>56</v>
       </c>
       <c r="B48" s="12">
-        <v>7.2688745108938111</v>
+        <v>4.504872177878541</v>
       </c>
       <c r="C48" s="12">
-        <v>-5.2451568618821041</v>
+        <v>-2.566470591082358</v>
       </c>
       <c r="D48" s="12">
-        <v>25.313323963213499</v>
+        <v>24.590977169716609</v>
       </c>
       <c r="E48" s="12">
-        <v>-3.237459637362718</v>
+        <v>-0.58402820641193964</v>
       </c>
       <c r="F48" s="12">
-        <v>99.921010239817676</v>
+        <v>99.84202047963538</v>
       </c>
       <c r="G48" s="12">
-        <v>3.9494880090218967E-2</v>
+        <v>7.8989760181373575E-2</v>
       </c>
       <c r="H48" s="12">
-        <v>3.9494880090218967E-2</v>
+        <v>7.8989760181373575E-2</v>
       </c>
       <c r="I48" s="12">
         <v>0</v>
@@ -2454,25 +2454,25 @@
         <v>57</v>
       </c>
       <c r="B49" s="12">
-        <v>9.8182196846277527</v>
+        <v>5.3373173913427703</v>
       </c>
       <c r="C49" s="12">
-        <v>-1.951996205052027</v>
+        <v>-4.1555450583859841</v>
       </c>
       <c r="D49" s="12">
-        <v>25.9370199697785</v>
+        <v>23.717981194176481</v>
       </c>
       <c r="E49" s="12">
-        <v>0.53619750701629898</v>
+        <v>-1.7623176018459019</v>
       </c>
       <c r="F49" s="12">
-        <v>99.445794676113991</v>
+        <v>99.484988531812789</v>
       </c>
       <c r="G49" s="12">
-        <v>0.53145200020889427</v>
+        <v>0.51501146818651866</v>
       </c>
       <c r="H49" s="12">
-        <v>2.2753323676407509E-2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="12">
         <v>0</v>
@@ -2487,28 +2487,28 @@
         <v>58</v>
       </c>
       <c r="B50" s="12">
-        <v>11.789299524037631</v>
+        <v>5.5813771007652031</v>
       </c>
       <c r="C50" s="12">
-        <v>-5.0326821662031778</v>
+        <v>-5.5627636931479838</v>
       </c>
       <c r="D50" s="12">
-        <v>25.889998605486539</v>
+        <v>21.530066539554781</v>
       </c>
       <c r="E50" s="12">
-        <v>-0.89784554087015978</v>
+        <v>-3.4637676021073349</v>
       </c>
       <c r="F50" s="12">
-        <v>96.834391180595304</v>
+        <v>97.981261760381784</v>
       </c>
       <c r="G50" s="12">
-        <v>2.476097407444525</v>
+        <v>1.5821131643337589</v>
       </c>
       <c r="H50" s="12">
-        <v>0.68951141195928212</v>
+        <v>0.43662507528356997</v>
       </c>
       <c r="I50" s="12">
-        <v>0</v>
+        <v>4.7459247307583812E-3</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2520,25 +2520,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="12">
-        <v>3.169279279779492</v>
+        <v>-1.0293559232079581</v>
       </c>
       <c r="C51" s="12">
-        <v>-1.467619005131898</v>
+        <v>-4.0435846714933312</v>
       </c>
       <c r="D51" s="12">
-        <v>15.84745821859558</v>
+        <v>15.65840267584764</v>
       </c>
       <c r="E51" s="12">
-        <v>2.1591365651062668</v>
+        <v>-0.16006949376126711</v>
       </c>
       <c r="F51" s="12">
-        <v>98.805562308649002</v>
+        <v>99.03894962861024</v>
       </c>
       <c r="G51" s="12">
-        <v>1.0301379915608899</v>
+        <v>0.89075667732326325</v>
       </c>
       <c r="H51" s="12">
-        <v>0.16429969978905809</v>
+        <v>7.029369406544364E-2</v>
       </c>
       <c r="I51" s="12">
         <v>0</v>
@@ -2553,28 +2553,28 @@
         <v>60</v>
       </c>
       <c r="B52" s="12">
-        <v>5.7215545855234424</v>
+        <v>8.3164588661515424</v>
       </c>
       <c r="C52" s="12">
-        <v>-5.0031619528859466</v>
+        <v>2.4559680049074322</v>
       </c>
       <c r="D52" s="12">
-        <v>14.83459898855252</v>
+        <v>18.013558625558169</v>
       </c>
       <c r="E52" s="12">
-        <v>-7.3417489431475476</v>
+        <v>2.7739856546075692</v>
       </c>
       <c r="F52" s="12">
-        <v>98.42672161622103</v>
+        <v>98.448520603948609</v>
       </c>
       <c r="G52" s="12">
-        <v>1.542114989112616</v>
+        <v>1.528207205110613</v>
       </c>
       <c r="H52" s="12">
-        <v>2.3372545999740889E-2</v>
+        <v>1.5514793960513839E-2</v>
       </c>
       <c r="I52" s="12">
-        <v>7.7908486665802948E-3</v>
+        <v>7.7573969802569214E-3</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2586,22 +2586,22 @@
         <v>61</v>
       </c>
       <c r="B53" s="12">
-        <v>2.0790144982117291</v>
+        <v>1.182432519824794</v>
       </c>
       <c r="C53" s="12">
-        <v>-1.5505699771450889</v>
+        <v>-0.87832154610254509</v>
       </c>
       <c r="D53" s="12">
-        <v>11.475972148143979</v>
+        <v>11.053998097631499</v>
       </c>
       <c r="E53" s="12">
-        <v>-1.091537358197048</v>
+        <v>-0.37853363588674638</v>
       </c>
       <c r="F53" s="12">
-        <v>99.914015477214107</v>
+        <v>99.915895710681241</v>
       </c>
       <c r="G53" s="12">
-        <v>8.5984522785898534E-2</v>
+        <v>8.4104289318755257E-2</v>
       </c>
       <c r="H53" s="12">
         <v>0</v>
@@ -2623,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2636,15 +2636,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:O5"/>
+  <dimension ref="A2:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -2695,8 +2695,11 @@
       <c r="O4" s="5">
         <v>44002</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="P4" s="5">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -2738,6 +2741,9 @@
       </c>
       <c r="O5" s="6">
         <v>0.34</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.36399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C24D809-6AAA-8342-A97B-7CB3DAFA3D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8572091-D703-FB41-B31C-70FD8A8C22BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="33380" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -224,11 +224,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +287,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,7 +369,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +385,8 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,7 +396,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -420,7 +428,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>242943</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>143988</xdr:rowOff>
+      <xdr:rowOff>143987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -449,7 +457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="693653" y="580020"/>
-          <a:ext cx="13582790" cy="10422468"/>
+          <a:ext cx="13582790" cy="10422467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -469,7 +477,7 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>646866</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>142839</xdr:rowOff>
+      <xdr:rowOff>142838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -498,7 +506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14292346" y="568719"/>
-          <a:ext cx="13596020" cy="10432620"/>
+          <a:ext cx="13596020" cy="10432619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,7 +526,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>65440</xdr:rowOff>
+      <xdr:rowOff>65439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -547,7 +555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="689086" y="11130132"/>
-          <a:ext cx="14627114" cy="11223808"/>
+          <a:ext cx="14627114" cy="11223807"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,20 +856,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,62 +877,62 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12">
-        <v>8.4092700999412635</v>
-      </c>
-      <c r="C2" s="12">
-        <v>-1.1608442385737929</v>
-      </c>
-      <c r="D2" s="12">
-        <v>23.056761533195701</v>
-      </c>
-      <c r="E2" s="12">
-        <v>-0.38745339791675842</v>
-      </c>
-      <c r="F2" s="12">
-        <v>98.509084043769391</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1.434432146653581</v>
-      </c>
-      <c r="H2" s="12">
-        <v>5.4086805878764167E-2</v>
-      </c>
-      <c r="I2" s="12">
-        <v>2.8801129283241721E-3</v>
+      <c r="B2" s="10">
+        <v>14.284663615644719</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5.3809022232036927</v>
+      </c>
+      <c r="D2" s="10">
+        <v>22.081600785335031</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-0.7841792586867814</v>
+      </c>
+      <c r="F2" s="10">
+        <v>98.293824264729977</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1.6048200739237699</v>
+      </c>
+      <c r="H2" s="10">
+        <v>8.6260283067061502E-2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1.480092839590471E-2</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -935,29 +943,29 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12">
-        <v>10.45012938002214</v>
-      </c>
-      <c r="C3" s="12">
-        <v>3.0907254154589019</v>
-      </c>
-      <c r="D3" s="12">
-        <v>20.356803767398389</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2.3099255036218969</v>
-      </c>
-      <c r="F3" s="12">
-        <v>98.890666144563227</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.99891685497609117</v>
-      </c>
-      <c r="H3" s="12">
-        <v>8.0479313431343014E-2</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2.993768702907345E-2</v>
+      <c r="B3" s="9">
+        <v>14.17465581946027</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3.3058253263009911</v>
+      </c>
+      <c r="D3" s="9">
+        <v>18.81124514209041</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-1.302103682361559</v>
+      </c>
+      <c r="F3" s="9">
+        <v>98.441448050064253</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.3688518907840059</v>
+      </c>
+      <c r="H3" s="9">
+        <v>9.984213639566121E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>8.9857922756095082E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -968,28 +976,28 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12">
-        <v>14.46294105722974</v>
-      </c>
-      <c r="C4" s="12">
-        <v>-8.854362877136202</v>
-      </c>
-      <c r="D4" s="12">
-        <v>22.73346621673009</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1.741714495811242</v>
-      </c>
-      <c r="F4" s="12">
-        <v>99.737325978460731</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.26267402153926978</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="B4" s="9">
+        <v>44.20515804860112</v>
+      </c>
+      <c r="C4" s="9">
+        <v>25.98414536325841</v>
+      </c>
+      <c r="D4" s="9">
+        <v>22.819075806089131</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6.9752441610226867E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>99.868662989230359</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.13133701076963489</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
@@ -1001,29 +1009,29 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12">
-        <v>7.4555107169560566</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.73492292457640285</v>
-      </c>
-      <c r="D5" s="12">
-        <v>26.485066643150709</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1.345977449069744</v>
-      </c>
-      <c r="F5" s="12">
-        <v>98.966078026377801</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.92896365373707102</v>
-      </c>
-      <c r="H5" s="12">
-        <v>9.7620580284408759E-2</v>
-      </c>
-      <c r="I5" s="12">
-        <v>7.3377396006688456E-3</v>
+      <c r="B5" s="9">
+        <v>13.616168720815081</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5.7331163067985953</v>
+      </c>
+      <c r="D5" s="9">
+        <v>26.496248307468129</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.9113431851751938E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>98.993456594032793</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.89280361978655542</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.10639558161115879</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7.3442045694800083E-3</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1034,29 +1042,29 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
-        <v>7.4605971260981701</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.27549923817819438</v>
-      </c>
-      <c r="D6" s="12">
-        <v>16.08343447675129</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2.2798845765418911</v>
-      </c>
-      <c r="F6" s="12">
-        <v>98.982420370519634</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.8019199945708495</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.2156596349092362</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
+      <c r="B6" s="9">
+        <v>11.805168939886951</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4.1370957136860049</v>
+      </c>
+      <c r="D6" s="9">
+        <v>14.8193069574398</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-1.101057943789894</v>
+      </c>
+      <c r="F6" s="9">
+        <v>98.670229337104445</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.84199664460886536</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.46051588902133722</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5.4516258530710557E-2</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1067,29 +1075,29 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12">
-        <v>13.25737820517492</v>
-      </c>
-      <c r="C7" s="12">
-        <v>-1.013492488487413</v>
-      </c>
-      <c r="D7" s="12">
-        <v>29.089812036210649</v>
-      </c>
-      <c r="E7" s="12">
-        <v>-0.56505904092996473</v>
-      </c>
-      <c r="F7" s="12">
-        <v>95.042953977219526</v>
-      </c>
-      <c r="G7" s="12">
-        <v>4.9117971034274683</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4.1083077597795517E-2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>4.165841754789428E-3</v>
+      <c r="B7" s="9">
+        <v>20.441688789869939</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6.2623754341988942</v>
+      </c>
+      <c r="D7" s="9">
+        <v>28.89204857329587</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-0.11235625737086299</v>
+      </c>
+      <c r="F7" s="9">
+        <v>94.371857226395406</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5.4397162241798993</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.14694897183780789</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4.1477577586896172E-2</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1100,28 +1108,28 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12">
-        <v>-1.912735842929679</v>
-      </c>
-      <c r="C8" s="12">
-        <v>-1.792034061112483</v>
-      </c>
-      <c r="D8" s="12">
-        <v>21.426158258217569</v>
-      </c>
-      <c r="E8" s="12">
-        <v>-0.1601366618912316</v>
-      </c>
-      <c r="F8" s="12">
-        <v>97.29321663013981</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2.69395694399243</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1.2826425866836201E-2</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="B8" s="9">
+        <v>1.116408122548042</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3.02376254675249</v>
+      </c>
+      <c r="D8" s="9">
+        <v>19.537187985642959</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-1.5644281278274339</v>
+      </c>
+      <c r="F8" s="9">
+        <v>97.197314204375189</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2.7043819412282848</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6.1012431779587911E-3</v>
+      </c>
+      <c r="I8" s="9">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
@@ -1133,29 +1141,29 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12">
-        <v>11.44130577159048</v>
-      </c>
-      <c r="C9" s="12">
-        <v>-2.1205998915341162</v>
-      </c>
-      <c r="D9" s="12">
-        <v>29.071489735025619</v>
-      </c>
-      <c r="E9" s="12">
-        <v>-1.7746084857135991</v>
-      </c>
-      <c r="F9" s="12">
-        <v>98.67483397806285</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1.2091167314568061</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.1097036593726199</v>
-      </c>
-      <c r="I9" s="12">
-        <v>6.3456311071139566E-3</v>
+      <c r="B9" s="9">
+        <v>22.112666212916888</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9.5672989428719077</v>
+      </c>
+      <c r="D9" s="9">
+        <v>28.138575110561149</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-0.72784848896828991</v>
+      </c>
+      <c r="F9" s="9">
+        <v>98.341723191063025</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.477772574068517</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.1805042348684732</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1166,28 +1174,28 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12">
-        <v>5.9640528588997848</v>
-      </c>
-      <c r="C10" s="12">
-        <v>-2.424151784431444</v>
-      </c>
-      <c r="D10" s="12">
-        <v>29.339171899246079</v>
-      </c>
-      <c r="E10" s="12">
-        <v>-0.8147790705710839</v>
-      </c>
-      <c r="F10" s="12">
-        <v>99.509627511394072</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.49037248860504989</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="B10" s="9">
+        <v>11.04372772067226</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4.7166800983678074</v>
+      </c>
+      <c r="D10" s="9">
+        <v>29.932515205979708</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.25112901946558219</v>
+      </c>
+      <c r="F10" s="9">
+        <v>98.958180195214737</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.0418198047852829</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
@@ -1199,28 +1207,28 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12">
-        <v>-4.7461089956810403</v>
-      </c>
-      <c r="C11" s="12">
-        <v>-3.9222999999999999</v>
-      </c>
-      <c r="D11" s="12">
-        <v>30.471934480519899</v>
-      </c>
-      <c r="E11" s="12">
-        <v>-1.343</v>
-      </c>
-      <c r="F11" s="12">
-        <v>98.201879852881007</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1.7981201471179999</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="B11" s="9">
+        <v>-3.9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="D11" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-3.9</v>
+      </c>
+      <c r="F11" s="9">
+        <v>98.6</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
@@ -1232,29 +1240,29 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12">
-        <v>8.8499753776980548</v>
-      </c>
-      <c r="C12" s="12">
-        <v>-1.165009398614155</v>
-      </c>
-      <c r="D12" s="12">
-        <v>20.259843357267169</v>
-      </c>
-      <c r="E12" s="12">
-        <v>-3.0580904744864381E-2</v>
-      </c>
-      <c r="F12" s="12">
-        <v>98.971391829099133</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.96135231164302448</v>
-      </c>
-      <c r="H12" s="12">
-        <v>6.5910624698860179E-2</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1.34523455777511E-3</v>
+      <c r="B12" s="9">
+        <v>14.4726578142176</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5.1083551828368572</v>
+      </c>
+      <c r="D12" s="9">
+        <v>19.675376963750651</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-0.51665180570677049</v>
+      </c>
+      <c r="F12" s="9">
+        <v>98.740801228121612</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1.2121774458548329</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.10350796858915851</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4.0303993734484367E-3</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1265,29 +1273,29 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12">
-        <v>7.7740832902922827</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.55035853923919853</v>
-      </c>
-      <c r="D13" s="12">
-        <v>23.899661301387681</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.28015459441229679</v>
-      </c>
-      <c r="F13" s="12">
-        <v>98.844725345568662</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1.140393906560067</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1.132326464380865E-2</v>
-      </c>
-      <c r="I13" s="12">
-        <v>3.557483225914431E-3</v>
+      <c r="B13" s="9">
+        <v>11.160942270537941</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3.1063817245131742</v>
+      </c>
+      <c r="D13" s="9">
+        <v>21.742973837935459</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-1.7004298842463099</v>
+      </c>
+      <c r="F13" s="9">
+        <v>98.781759348682911</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.1226332453656469</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.5512461018898291E-3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.420498440755932E-2</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1298,29 +1306,29 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12">
-        <v>18.602887444573611</v>
-      </c>
-      <c r="C14" s="12">
-        <v>-16.773920871236658</v>
-      </c>
-      <c r="D14" s="12">
-        <v>11.813445691145329</v>
-      </c>
-      <c r="E14" s="12">
-        <v>-2.7880075199648302</v>
-      </c>
-      <c r="F14" s="12">
-        <v>98.587026332691067</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1.370156283451081</v>
-      </c>
-      <c r="H14" s="12">
-        <v>4.2817383857846288E-2</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
+      <c r="B14" s="9">
+        <v>59.452010695842091</v>
+      </c>
+      <c r="C14" s="9">
+        <v>34.441929814194779</v>
+      </c>
+      <c r="D14" s="9">
+        <v>20.03705501442214</v>
+      </c>
+      <c r="E14" s="9">
+        <v>7.354758877561407</v>
+      </c>
+      <c r="F14" s="9">
+        <v>93.97231096911608</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4.3450479233226833</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.95846645367412142</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.72417465388711399</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1331,28 +1339,28 @@
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12">
-        <v>-3.9777384716259769</v>
-      </c>
-      <c r="C15" s="12">
-        <v>-7.0250296587397782</v>
-      </c>
-      <c r="D15" s="12">
-        <v>22.933460826830139</v>
-      </c>
-      <c r="E15" s="12">
-        <v>-1.300326403418719</v>
-      </c>
-      <c r="F15" s="12">
-        <v>99.831779849756387</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.1682201502436067</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="B15" s="9">
+        <v>6.039318062620632</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10.36329900163088</v>
+      </c>
+      <c r="D15" s="9">
+        <v>28.802509550069772</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4.983783145875738</v>
+      </c>
+      <c r="F15" s="9">
+        <v>99.66848230269288</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.28413283048152083</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4.7384866825596061E-2</v>
+      </c>
+      <c r="I15" s="9">
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
@@ -1364,28 +1372,28 @@
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12">
-        <v>4.5321929723656069</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1.210603890307022</v>
-      </c>
-      <c r="D16" s="12">
-        <v>27.513589392437321</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.79004345538197973</v>
-      </c>
-      <c r="F16" s="12">
-        <v>98.794516074539601</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1.205483925459552</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="B16" s="9">
+        <v>6.6124980877384356</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.9704381239027651</v>
+      </c>
+      <c r="D16" s="9">
+        <v>23.44483073519066</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-3.1985368018609628</v>
+      </c>
+      <c r="F16" s="9">
+        <v>99.07349673604665</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.92650326395336147</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
@@ -1397,28 +1405,28 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12">
-        <v>1.6744111662902921</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.29737149406897601</v>
-      </c>
-      <c r="D17" s="12">
-        <v>18.258103579207059</v>
-      </c>
-      <c r="E17" s="12">
-        <v>-0.4495126825532495</v>
-      </c>
-      <c r="F17" s="12">
-        <v>99.615847033608546</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.38415296639071961</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="B17" s="9">
+        <v>6.0947347413401456</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4.3632107508472773</v>
+      </c>
+      <c r="D17" s="9">
+        <v>17.077093447673921</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-0.99937869809432023</v>
+      </c>
+      <c r="F17" s="9">
+        <v>99.485206605095343</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.50276319528560509</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.2030199619052931E-2</v>
+      </c>
+      <c r="I17" s="9">
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
@@ -1430,28 +1438,28 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12">
-        <v>-1.109311957451931</v>
-      </c>
-      <c r="C18" s="12">
-        <v>-1.5619714107565481</v>
-      </c>
-      <c r="D18" s="12">
-        <v>21.822919226370939</v>
-      </c>
-      <c r="E18" s="12">
-        <v>-0.48782241846081148</v>
-      </c>
-      <c r="F18" s="12">
-        <v>99.942458317470695</v>
-      </c>
-      <c r="G18" s="12">
-        <v>5.7541682529319703E-2</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="B18" s="9">
+        <v>1.834572004676563</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2.981792447508814</v>
+      </c>
+      <c r="D18" s="9">
+        <v>19.485361562743719</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-1.9142485639381659</v>
+      </c>
+      <c r="F18" s="9">
+        <v>99.91353635461256</v>
+      </c>
+      <c r="G18" s="9">
+        <v>8.6463645387430982E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
@@ -1463,28 +1471,28 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12">
-        <v>2.188053306190715</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0.62238314393824978</v>
-      </c>
-      <c r="D19" s="12">
-        <v>21.394455323670829</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1.131608739213207</v>
-      </c>
-      <c r="F19" s="12">
-        <v>99.675521404117205</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.30247036849975811</v>
-      </c>
-      <c r="H19" s="12">
-        <v>2.200822738304151E-2</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="B19" s="9">
+        <v>7.0021227189430633</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4.8198278861135018</v>
+      </c>
+      <c r="D19" s="9">
+        <v>19.091363197517609</v>
+      </c>
+      <c r="E19" s="9">
+        <v>-1.9232075204386609</v>
+      </c>
+      <c r="F19" s="9">
+        <v>99.71928654641448</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.2588146530033798</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2.1898800582141279E-2</v>
+      </c>
+      <c r="I19" s="9">
         <v>0</v>
       </c>
       <c r="J19" s="8"/>
@@ -1496,29 +1504,29 @@
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12">
-        <v>5.7360508125829508</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0.76297919550402815</v>
-      </c>
-      <c r="D20" s="12">
-        <v>12.015122974912691</v>
-      </c>
-      <c r="E20" s="12">
-        <v>-0.30027561606475228</v>
-      </c>
-      <c r="F20" s="12">
-        <v>99.4487683109719</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0.51805554384875185</v>
-      </c>
-      <c r="H20" s="12">
-        <v>3.3176145179350747E-2</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
+      <c r="B20" s="9">
+        <v>12.696603569067809</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6.5992821227923892</v>
+      </c>
+      <c r="D20" s="9">
+        <v>13.615690427410399</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.4443562868521509</v>
+      </c>
+      <c r="F20" s="9">
+        <v>98.970944149833073</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.91853232671430607</v>
+      </c>
+      <c r="H20" s="9">
+        <v>7.7366466416834104E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3.3157057035786038E-2</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1529,28 +1537,28 @@
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12">
-        <v>18.78671431843275</v>
-      </c>
-      <c r="C21" s="12">
-        <v>4.2381188836081609</v>
-      </c>
-      <c r="D21" s="12">
-        <v>20.132623287711901</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2.834339212751209</v>
-      </c>
-      <c r="F21" s="12">
-        <v>99.375197001483542</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0.55397612657967377</v>
-      </c>
-      <c r="H21" s="12">
-        <v>7.0826871936646413E-2</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="B21" s="9">
+        <v>20.555873309574508</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.5096723290925971</v>
+      </c>
+      <c r="D21" s="9">
+        <v>18.101031898725651</v>
+      </c>
+      <c r="E21" s="9">
+        <v>-1.704486894995382</v>
+      </c>
+      <c r="F21" s="9">
+        <v>99.111388107433754</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.77264986876539665</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.11596202380086761</v>
+      </c>
+      <c r="I21" s="9">
         <v>0</v>
       </c>
       <c r="J21" s="8"/>
@@ -1562,28 +1570,28 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12">
-        <v>11.000983469840969</v>
-      </c>
-      <c r="C22" s="12">
-        <v>-2.2810010305848829</v>
-      </c>
-      <c r="D22" s="12">
-        <v>28.602275809941439</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1.492584282992357</v>
-      </c>
-      <c r="F22" s="12">
-        <v>99.884119286401443</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0.11588071359848939</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="B22" s="9">
+        <v>23.042228204792419</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10.85173707925072</v>
+      </c>
+      <c r="D22" s="9">
+        <v>33.289012665150992</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3.648680320003777</v>
+      </c>
+      <c r="F22" s="9">
+        <v>99.675306052699327</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.32469394730066858</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
         <v>0</v>
       </c>
       <c r="J22" s="8"/>
@@ -1595,28 +1603,28 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12">
-        <v>7.3191860826003463</v>
-      </c>
-      <c r="C23" s="12">
-        <v>-2.8557538002998468</v>
-      </c>
-      <c r="D23" s="12">
-        <v>27.391968032105559</v>
-      </c>
-      <c r="E23" s="12">
-        <v>-1.587043401802299</v>
-      </c>
-      <c r="F23" s="12">
-        <v>99.071033550401992</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0.9161531192575959</v>
-      </c>
-      <c r="H23" s="12">
-        <v>1.2813330338407919E-2</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="B23" s="9">
+        <v>10.1068176996675</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2.5939509650173909</v>
+      </c>
+      <c r="D23" s="9">
+        <v>24.601571228843991</v>
+      </c>
+      <c r="E23" s="9">
+        <v>-2.2027387799948142</v>
+      </c>
+      <c r="F23" s="9">
+        <v>99.101023150062005</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.79909053327821411</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
         <v>0</v>
       </c>
       <c r="J23" s="8"/>
@@ -1628,28 +1636,28 @@
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12">
-        <v>11.15447736277115</v>
-      </c>
-      <c r="C24" s="12">
-        <v>-2.0014990705136531</v>
-      </c>
-      <c r="D24" s="12">
-        <v>29.566025778714689</v>
-      </c>
-      <c r="E24" s="12">
-        <v>-1.244543813360538</v>
-      </c>
-      <c r="F24" s="12">
-        <v>98.884525624051307</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0.98657112374409262</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.1289032522028041</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="B24" s="9">
+        <v>20.9057379294842</v>
+      </c>
+      <c r="C24" s="9">
+        <v>8.7985413498687812</v>
+      </c>
+      <c r="D24" s="9">
+        <v>27.894667606838311</v>
+      </c>
+      <c r="E24" s="9">
+        <v>-1.265882021905024</v>
+      </c>
+      <c r="F24" s="9">
+        <v>98.629846582984655</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1.1914724048615259</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8.9340506076907758E-2</v>
+      </c>
+      <c r="I24" s="9">
         <v>0</v>
       </c>
       <c r="J24" s="8"/>
@@ -1661,28 +1669,28 @@
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="12">
-        <v>6.614079273549379</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0.4771639029389968</v>
-      </c>
-      <c r="D25" s="12">
-        <v>20.523467408538298</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0.90701772581539786</v>
-      </c>
-      <c r="F25" s="12">
-        <v>99.542446407555275</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0.43949965182728362</v>
-      </c>
-      <c r="H25" s="12">
-        <v>1.8053940616070741E-2</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="B25" s="9">
+        <v>8.1996968938373023</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1.4783542614509919</v>
+      </c>
+      <c r="D25" s="9">
+        <v>17.097458901803542</v>
+      </c>
+      <c r="E25" s="9">
+        <v>-2.8337466566075831</v>
+      </c>
+      <c r="F25" s="9">
+        <v>99.651625436399058</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.34837456360093122</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="8"/>
@@ -1694,28 +1702,28 @@
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="12">
-        <v>9.6902950736880271</v>
-      </c>
-      <c r="C26" s="12">
-        <v>-2.7801953601356169</v>
-      </c>
-      <c r="D26" s="12">
-        <v>23.99475208136457</v>
-      </c>
-      <c r="E26" s="12">
-        <v>-4.2595787423265113E-2</v>
-      </c>
-      <c r="F26" s="12">
-        <v>99.25685818257719</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.71736355119966844</v>
-      </c>
-      <c r="H26" s="12">
-        <v>2.57782662217792E-2</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="B26" s="9">
+        <v>13.38213318323654</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3.5945126793698621</v>
+      </c>
+      <c r="D26" s="9">
+        <v>21.041733981117819</v>
+      </c>
+      <c r="E26" s="9">
+        <v>-2.4303550374872982</v>
+      </c>
+      <c r="F26" s="9">
+        <v>99.287185169716935</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.70762071498550627</v>
+      </c>
+      <c r="H26" s="9">
+        <v>7.3601224249973257E-2</v>
+      </c>
+      <c r="I26" s="9">
         <v>0</v>
       </c>
       <c r="J26" s="8"/>
@@ -1727,29 +1735,29 @@
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="12">
-        <v>15.728878076502481</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1.0762276173186971</v>
-      </c>
-      <c r="D27" s="12">
-        <v>22.911177600172049</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.31431164768179881</v>
-      </c>
-      <c r="F27" s="12">
-        <v>99.44863832439485</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0.51134150030473335</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1.9457280749383299E-2</v>
-      </c>
-      <c r="I27" s="12">
-        <v>2.0562894550539189E-2</v>
+      <c r="B27" s="9">
+        <v>13.72877749246933</v>
+      </c>
+      <c r="C27" s="9">
+        <v>-1.8435124579683291</v>
+      </c>
+      <c r="D27" s="9">
+        <v>16.821524045665981</v>
+      </c>
+      <c r="E27" s="9">
+        <v>-4.794361741914253</v>
+      </c>
+      <c r="F27" s="9">
+        <v>99.217379928556994</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.71296367075561318</v>
+      </c>
+      <c r="H27" s="9">
+        <v>9.8402777777777783E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2.04550117985021E-2</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1760,29 +1768,29 @@
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12">
-        <v>5.9675043618655073</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1.9619798795749801</v>
-      </c>
-      <c r="D28" s="12">
-        <v>19.808849623585161</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.75767276267974282</v>
-      </c>
-      <c r="F28" s="12">
-        <v>98.875974405219253</v>
-      </c>
-      <c r="G28" s="12">
-        <v>1.1158326192727199</v>
-      </c>
-      <c r="H28" s="12">
-        <v>8.1929755079579863E-3</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
+      <c r="B28" s="9">
+        <v>11.68535171006879</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5.343190218801225</v>
+      </c>
+      <c r="D28" s="9">
+        <v>19.417328233711601</v>
+      </c>
+      <c r="E28" s="9">
+        <v>-0.30289860353851722</v>
+      </c>
+      <c r="F28" s="9">
+        <v>98.778443744181402</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.189147342864163</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2.4212576763098369E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <v>8.1963361913316209E-3</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1793,29 +1801,29 @@
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12">
-        <v>0.20651850637287689</v>
-      </c>
-      <c r="C29" s="12">
-        <v>-8.4882704511489599</v>
-      </c>
-      <c r="D29" s="12">
-        <v>15.36620573637169</v>
-      </c>
-      <c r="E29" s="12">
-        <v>-1.725679451830153</v>
-      </c>
-      <c r="F29" s="12">
-        <v>99.804782820888235</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0.19521717911176181</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
+      <c r="B29" s="9">
+        <v>14.63932861771011</v>
+      </c>
+      <c r="C29" s="9">
+        <v>14.40306511638696</v>
+      </c>
+      <c r="D29" s="9">
+        <v>19.45561830791895</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3.544723123591464</v>
+      </c>
+      <c r="F29" s="9">
+        <v>98.341463414634148</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1.51219512195122</v>
+      </c>
+      <c r="H29" s="9">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1826,28 +1834,28 @@
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="12">
-        <v>2.461523893732799</v>
-      </c>
-      <c r="C30" s="12">
-        <v>-2.5310513683932179</v>
-      </c>
-      <c r="D30" s="12">
-        <v>16.525105884003359</v>
-      </c>
-      <c r="E30" s="12">
-        <v>-0.57963464076139226</v>
-      </c>
-      <c r="F30" s="12">
-        <v>99.879806138933759</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0.1201938610662359</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
+      <c r="B30" s="9">
+        <v>6.0603199088849644</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3.4945175769998111</v>
+      </c>
+      <c r="D30" s="9">
+        <v>15.52670330815552</v>
+      </c>
+      <c r="E30" s="9">
+        <v>-0.77263143639694631</v>
+      </c>
+      <c r="F30" s="9">
+        <v>99.958966896593822</v>
+      </c>
+      <c r="G30" s="9">
+        <v>4.103310340619068E-2</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
         <v>0</v>
       </c>
       <c r="J30" s="8"/>
@@ -1859,28 +1867,28 @@
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="12">
-        <v>9.5851374169585348</v>
-      </c>
-      <c r="C31" s="12">
-        <v>0.18941283755213881</v>
-      </c>
-      <c r="D31" s="12">
-        <v>20.183458607658089</v>
-      </c>
-      <c r="E31" s="12">
-        <v>-0.72630216358739708</v>
-      </c>
-      <c r="F31" s="12">
-        <v>99.295673489455837</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0.63459713694783859</v>
-      </c>
-      <c r="H31" s="12">
-        <v>6.9729373596322544E-2</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="B31" s="9">
+        <v>15.02068354881102</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5.1258771763232778</v>
+      </c>
+      <c r="D31" s="9">
+        <v>21.618275618293801</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1.0914363307078609</v>
+      </c>
+      <c r="F31" s="9">
+        <v>98.976896566007639</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.9771735382797222</v>
+      </c>
+      <c r="H31" s="9">
+        <v>5.2491309385863272E-2</v>
+      </c>
+      <c r="I31" s="9">
         <v>0</v>
       </c>
       <c r="J31" s="8"/>
@@ -1892,28 +1900,28 @@
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="12">
-        <v>9.7964016921808739</v>
-      </c>
-      <c r="C32" s="12">
-        <v>-1.353576502955798</v>
-      </c>
-      <c r="D32" s="12">
-        <v>29.099968050045199</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0.20486285593082129</v>
-      </c>
-      <c r="F32" s="12">
-        <v>99.131715098462848</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0.76943059202369635</v>
-      </c>
-      <c r="H32" s="12">
-        <v>9.8854309512573929E-2</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="B32" s="9">
+        <v>19.089714857945641</v>
+      </c>
+      <c r="C32" s="9">
+        <v>8.4727203038301795</v>
+      </c>
+      <c r="D32" s="9">
+        <v>30.932801457969589</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1.214215695722334</v>
+      </c>
+      <c r="F32" s="9">
+        <v>99.343959195093163</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.56829584216877571</v>
+      </c>
+      <c r="H32" s="9">
+        <v>8.7744962738062385E-2</v>
+      </c>
+      <c r="I32" s="9">
         <v>0</v>
       </c>
       <c r="J32" s="8"/>
@@ -1925,28 +1933,28 @@
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="12">
-        <v>8.5275179742146303</v>
-      </c>
-      <c r="C33" s="12">
-        <v>-3.2151911050498918</v>
-      </c>
-      <c r="D33" s="12">
-        <v>30.17257801596476</v>
-      </c>
-      <c r="E33" s="12">
-        <v>-2.6094107226313512</v>
-      </c>
-      <c r="F33" s="12">
-        <v>98.706179146435801</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1.235327917298239</v>
-      </c>
-      <c r="H33" s="12">
-        <v>5.8492936265382357E-2</v>
-      </c>
-      <c r="I33" s="12">
+      <c r="B33" s="9">
+        <v>14.503549264453421</v>
+      </c>
+      <c r="C33" s="9">
+        <v>5.4983306961872058</v>
+      </c>
+      <c r="D33" s="9">
+        <v>28.04508574376251</v>
+      </c>
+      <c r="E33" s="9">
+        <v>-1.632102397240049</v>
+      </c>
+      <c r="F33" s="9">
+        <v>98.583825727456244</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1.339553531025242</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7.6620741518509589E-2</v>
+      </c>
+      <c r="I33" s="9">
         <v>0</v>
       </c>
       <c r="J33" s="8"/>
@@ -1958,29 +1966,29 @@
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="12">
-        <v>10.68135370797523</v>
-      </c>
-      <c r="C34" s="12">
-        <v>-2.4893094639825661</v>
-      </c>
-      <c r="D34" s="12">
-        <v>19.896742645484821</v>
-      </c>
-      <c r="E34" s="12">
-        <v>-0.45941000135297277</v>
-      </c>
-      <c r="F34" s="12">
-        <v>98.546020967009682</v>
-      </c>
-      <c r="G34" s="12">
-        <v>1.424443395628433</v>
-      </c>
-      <c r="H34" s="12">
-        <v>2.9535637361035819E-2</v>
-      </c>
-      <c r="I34" s="12">
-        <v>2.9535637361035819E-2</v>
+      <c r="B34" s="9">
+        <v>17.013406471285229</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5.7968316990301956</v>
+      </c>
+      <c r="D34" s="9">
+        <v>21.010119100821171</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.98557651950197289</v>
+      </c>
+      <c r="F34" s="9">
+        <v>98.085643572081764</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1.629587992771693</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.28476843514654798</v>
+      </c>
+      <c r="I34" s="9">
+        <v>8.40512223515716E-2</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1991,28 +1999,28 @@
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="12">
-        <v>8.9504652272848659</v>
-      </c>
-      <c r="C35" s="12">
-        <v>-1.7101523271847281</v>
-      </c>
-      <c r="D35" s="12">
-        <v>23.423195535232729</v>
-      </c>
-      <c r="E35" s="12">
-        <v>-2.2193211868734002</v>
-      </c>
-      <c r="F35" s="12">
-        <v>98.277590701499363</v>
-      </c>
-      <c r="G35" s="12">
-        <v>1.6378433964055581</v>
-      </c>
-      <c r="H35" s="12">
-        <v>8.4565902095065593E-2</v>
-      </c>
-      <c r="I35" s="12">
+      <c r="B35" s="9">
+        <v>15.25895289310666</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5.7771914507630644</v>
+      </c>
+      <c r="D35" s="9">
+        <v>22.094869003806199</v>
+      </c>
+      <c r="E35" s="9">
+        <v>-1.074350025273642</v>
+      </c>
+      <c r="F35" s="9">
+        <v>98.291118945189595</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1.576371529904935</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.13250952490546439</v>
+      </c>
+      <c r="I35" s="9">
         <v>0</v>
       </c>
       <c r="J35" s="8"/>
@@ -2024,29 +2032,29 @@
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="12">
-        <v>12.982557818037479</v>
-      </c>
-      <c r="C36" s="12">
-        <v>-5.8480879127042744</v>
-      </c>
-      <c r="D36" s="12">
-        <v>20.524330624457761</v>
-      </c>
-      <c r="E36" s="12">
-        <v>-2.548313104593475</v>
-      </c>
-      <c r="F36" s="12">
-        <v>98.643408431258564</v>
-      </c>
-      <c r="G36" s="12">
-        <v>1.3128613118745649</v>
-      </c>
-      <c r="H36" s="12">
-        <v>4.3730256866861841E-2</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
+      <c r="B36" s="9">
+        <v>21.657093086203059</v>
+      </c>
+      <c r="C36" s="9">
+        <v>7.6806731987483712</v>
+      </c>
+      <c r="D36" s="9">
+        <v>20.948122736276471</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.37900624223806512</v>
+      </c>
+      <c r="F36" s="9">
+        <v>98.13378673583172</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1.7821890242634699</v>
+      </c>
+      <c r="H36" s="9">
+        <v>5.7136483135274647E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2.688775676954101E-2</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2057,28 +2065,28 @@
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12">
-        <v>9.2518501640398032</v>
-      </c>
-      <c r="C37" s="12">
-        <v>-4.48208185480535</v>
-      </c>
-      <c r="D37" s="12">
-        <v>23.03007622101304</v>
-      </c>
-      <c r="E37" s="12">
-        <v>-3.1692360385851241</v>
-      </c>
-      <c r="F37" s="12">
-        <v>99.971128146542682</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2.88718534573266E-2</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
+      <c r="B37" s="9">
+        <v>9.5379394743714627</v>
+      </c>
+      <c r="C37" s="9">
+        <v>3.8231241900631572</v>
+      </c>
+      <c r="D37" s="9">
+        <v>21.175330786075701</v>
+      </c>
+      <c r="E37" s="9">
+        <v>-1.711891285784356</v>
+      </c>
+      <c r="F37" s="9">
+        <v>99.942335193984405</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5.7664806015592568E-2</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
         <v>0</v>
       </c>
       <c r="J37" s="8"/>
@@ -2090,29 +2098,29 @@
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="12">
-        <v>6.1635358105085887</v>
-      </c>
-      <c r="C38" s="12">
-        <v>0.71021527917247074</v>
-      </c>
-      <c r="D38" s="12">
-        <v>14.51197823688101</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0.29094350190374552</v>
-      </c>
-      <c r="F38" s="12">
-        <v>99.388297374035716</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0.59367536844474911</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1.8027257519499761E-2</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0</v>
+      <c r="B38" s="9">
+        <v>11.713906868144131</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5.2254721794632886</v>
+      </c>
+      <c r="D38" s="9">
+        <v>13.601087343263989</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-0.78578867938904529</v>
+      </c>
+      <c r="F38" s="9">
+        <v>99.305218942698744</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.65205304129329789</v>
+      </c>
+      <c r="H38" s="9">
+        <v>3.9296416072953463E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>3.4315999349961239E-3</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2123,28 +2131,28 @@
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12">
-        <v>1.182614470308436</v>
-      </c>
-      <c r="C39" s="12">
-        <v>5.0313492111713758E-2</v>
-      </c>
-      <c r="D39" s="12">
-        <v>14.66122052310299</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0.6470821579066337</v>
-      </c>
-      <c r="F39" s="12">
-        <v>99.770898069654919</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0.21430551246104931</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1.4796417884029269E-2</v>
-      </c>
-      <c r="I39" s="12">
+      <c r="B39" s="9">
+        <v>8.4526075591545613</v>
+      </c>
+      <c r="C39" s="9">
+        <v>7.2130958004254957</v>
+      </c>
+      <c r="D39" s="9">
+        <v>14.14503097549879</v>
+      </c>
+      <c r="E39" s="9">
+        <v>-0.45680583077447717</v>
+      </c>
+      <c r="F39" s="9">
+        <v>99.740836909799953</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.2443495962423011</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1.481349395775579E-2</v>
+      </c>
+      <c r="I39" s="9">
         <v>0</v>
       </c>
       <c r="J39" s="8"/>
@@ -2156,29 +2164,29 @@
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="12">
-        <v>5.6620991041862938</v>
-      </c>
-      <c r="C40" s="12">
-        <v>-6.451946164390379</v>
-      </c>
-      <c r="D40" s="12">
-        <v>21.110118799063532</v>
-      </c>
-      <c r="E40" s="12">
-        <v>-1.330963679784547</v>
-      </c>
-      <c r="F40" s="12">
-        <v>99.048770165335426</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0.76172994865500443</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0.18949988600877751</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0</v>
+      <c r="B40" s="9">
+        <v>13.98766656772357</v>
+      </c>
+      <c r="C40" s="9">
+        <v>7.8679163226449056</v>
+      </c>
+      <c r="D40" s="9">
+        <v>22.14765038699295</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.90697233042056458</v>
+      </c>
+      <c r="F40" s="9">
+        <v>98.658943247184993</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1.0851602685154851</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0.23926933417681481</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1.6627150122706422E-2</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2189,28 +2197,28 @@
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12">
-        <v>0.81739234646742998</v>
-      </c>
-      <c r="C41" s="12">
-        <v>-2.440124317984496</v>
-      </c>
-      <c r="D41" s="12">
-        <v>20.739045038730289</v>
-      </c>
-      <c r="E41" s="12">
-        <v>-0.76558835954780946</v>
-      </c>
-      <c r="F41" s="12">
-        <v>99.39228828818068</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0.59752238274431091</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1.018932907406005E-2</v>
-      </c>
-      <c r="I41" s="12">
+      <c r="B41" s="9">
+        <v>4.0330441514908886</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3.2327241707474861</v>
+      </c>
+      <c r="D41" s="9">
+        <v>18.053029488985018</v>
+      </c>
+      <c r="E41" s="9">
+        <v>-2.2105673116538829</v>
+      </c>
+      <c r="F41" s="9">
+        <v>99.495511193236823</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.50448880676317098</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
         <v>0</v>
       </c>
       <c r="J41" s="8"/>
@@ -2222,28 +2230,28 @@
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="12">
-        <v>12.22</v>
-      </c>
-      <c r="C42" s="12">
-        <v>-0.18</v>
-      </c>
-      <c r="D42" s="12">
-        <v>21.61</v>
-      </c>
-      <c r="E42" s="12">
-        <v>-5.0299999999999994</v>
-      </c>
-      <c r="F42" s="12">
-        <v>99.71</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H42" s="12">
-        <v>0</v>
-      </c>
-      <c r="I42" s="12">
+      <c r="B42" s="9">
+        <v>21.77</v>
+      </c>
+      <c r="C42" s="9">
+        <v>8.51</v>
+      </c>
+      <c r="D42" s="9">
+        <v>23.98</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="F42" s="9">
+        <v>99.850000000000009</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
         <v>0</v>
       </c>
       <c r="J42" s="8"/>
@@ -2255,28 +2263,28 @@
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="12">
-        <v>15.21882876325248</v>
-      </c>
-      <c r="C43" s="12">
-        <v>-1.076573623235028</v>
-      </c>
-      <c r="D43" s="12">
-        <v>22.239845926091149</v>
-      </c>
-      <c r="E43" s="12">
-        <v>-1.030373329700212</v>
-      </c>
-      <c r="F43" s="12">
-        <v>99.044888572576369</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0.94591302156369139</v>
-      </c>
-      <c r="H43" s="12">
-        <v>9.1984058599476996E-3</v>
-      </c>
-      <c r="I43" s="12">
+      <c r="B43" s="9">
+        <v>20.836175764069729</v>
+      </c>
+      <c r="C43" s="9">
+        <v>4.8756771828552372</v>
+      </c>
+      <c r="D43" s="9">
+        <v>21.12396923830957</v>
+      </c>
+      <c r="E43" s="9">
+        <v>-0.91309029635544203</v>
+      </c>
+      <c r="F43" s="9">
+        <v>99.053135369078447</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.92848292221615503</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1.838170870541897E-2</v>
+      </c>
+      <c r="I43" s="9">
         <v>0</v>
       </c>
       <c r="J43" s="8"/>
@@ -2288,29 +2296,29 @@
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="12">
-        <v>13.38252310337821</v>
-      </c>
-      <c r="C44" s="12">
-        <v>-2.878843049196985</v>
-      </c>
-      <c r="D44" s="12">
-        <v>26.393721899801079</v>
-      </c>
-      <c r="E44" s="12">
-        <v>-2.247051764544608</v>
-      </c>
-      <c r="F44" s="12">
-        <v>99.558477836121611</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0.4415221638783734</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0</v>
+      <c r="B44" s="9">
+        <v>13.143544845769069</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1.757463984898068</v>
+      </c>
+      <c r="D44" s="9">
+        <v>25.515604532351869</v>
+      </c>
+      <c r="E44" s="9">
+        <v>-0.2299451542769472</v>
+      </c>
+      <c r="F44" s="9">
+        <v>99.783154694961354</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.10842265251932209</v>
+      </c>
+      <c r="H44" s="9">
+        <v>7.2281768346214692E-2</v>
+      </c>
+      <c r="I44" s="9">
+        <v>3.6140884173107353E-2</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2321,29 +2329,29 @@
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="12">
-        <v>6.5690261397149836</v>
-      </c>
-      <c r="C45" s="12">
-        <v>-0.31167999349313619</v>
-      </c>
-      <c r="D45" s="12">
-        <v>18.913776586966272</v>
-      </c>
-      <c r="E45" s="12">
-        <v>0.53711815908525384</v>
-      </c>
-      <c r="F45" s="12">
-        <v>98.795661355361361</v>
-      </c>
-      <c r="G45" s="12">
-        <v>1.174689875753532</v>
-      </c>
-      <c r="H45" s="12">
-        <v>2.96487688843972E-2</v>
-      </c>
-      <c r="I45" s="12">
-        <v>5.9436753559428566E-3</v>
+      <c r="B45" s="9">
+        <v>12.816885028929629</v>
+      </c>
+      <c r="C45" s="9">
+        <v>5.8538741722883021</v>
+      </c>
+      <c r="D45" s="9">
+        <v>18.914308096395391</v>
+      </c>
+      <c r="E45" s="9">
+        <v>3.1347727653875779E-2</v>
+      </c>
+      <c r="F45" s="9">
+        <v>98.97484312418554</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.99000569893276347</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2.34341179211375E-2</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1.171705896056875E-2</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2354,29 +2362,29 @@
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="12">
-        <v>12.97163365547852</v>
-      </c>
-      <c r="C46" s="12">
-        <v>2.820390775572418</v>
-      </c>
-      <c r="D46" s="12">
-        <v>22.593587684735539</v>
-      </c>
-      <c r="E46" s="12">
-        <v>1.5278416371485279</v>
-      </c>
-      <c r="F46" s="12">
-        <v>98.589854890158477</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1.3445745942042231</v>
-      </c>
-      <c r="H46" s="12">
-        <v>5.4441129673354662E-2</v>
-      </c>
-      <c r="I46" s="12">
-        <v>1.2810844362101269E-2</v>
+      <c r="B46" s="9">
+        <v>19.094097847945761</v>
+      </c>
+      <c r="C46" s="9">
+        <v>5.3579982573630467</v>
+      </c>
+      <c r="D46" s="9">
+        <v>23.609902072805749</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.81910095560980833</v>
+      </c>
+      <c r="F46" s="9">
+        <v>98.194136855702283</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1.6905753531877841</v>
+      </c>
+      <c r="H46" s="9">
+        <v>9.939546034180205E-2</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1.5892330768124571E-2</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2387,28 +2395,28 @@
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12">
-        <v>0.25586173119038802</v>
-      </c>
-      <c r="C47" s="12">
-        <v>-3.611699999999999</v>
-      </c>
-      <c r="D47" s="12">
-        <v>20.959416399021499</v>
-      </c>
-      <c r="E47" s="12">
-        <v>-0.67149999999999999</v>
-      </c>
-      <c r="F47" s="12">
-        <v>98.772455089819999</v>
-      </c>
-      <c r="G47" s="12">
-        <v>1.2125748502989999</v>
-      </c>
-      <c r="H47" s="12">
-        <v>1.4970059880000001E-2</v>
-      </c>
-      <c r="I47" s="12">
+      <c r="B47" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="C47" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="D47" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="E47" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="F47" s="9">
+        <v>98.5</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="9">
         <v>0</v>
       </c>
       <c r="J47" s="8"/>
@@ -2420,28 +2428,28 @@
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="12">
-        <v>4.504872177878541</v>
-      </c>
-      <c r="C48" s="12">
-        <v>-2.566470591082358</v>
-      </c>
-      <c r="D48" s="12">
-        <v>24.590977169716609</v>
-      </c>
-      <c r="E48" s="12">
-        <v>-0.58402820641193964</v>
-      </c>
-      <c r="F48" s="12">
-        <v>99.84202047963538</v>
-      </c>
-      <c r="G48" s="12">
-        <v>7.8989760181373575E-2</v>
-      </c>
-      <c r="H48" s="12">
-        <v>7.8989760181373575E-2</v>
-      </c>
-      <c r="I48" s="12">
+      <c r="B48" s="9">
+        <v>14.11717508314606</v>
+      </c>
+      <c r="C48" s="9">
+        <v>9.2094232614731233</v>
+      </c>
+      <c r="D48" s="9">
+        <v>24.49234023542223</v>
+      </c>
+      <c r="E48" s="9">
+        <v>-7.5750909808455391E-2</v>
+      </c>
+      <c r="F48" s="9">
+        <v>99.774593707595699</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.13183439048250181</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -2453,28 +2461,28 @@
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="12">
-        <v>5.3373173913427703</v>
-      </c>
-      <c r="C49" s="12">
-        <v>-4.1555450583859841</v>
-      </c>
-      <c r="D49" s="12">
-        <v>23.717981194176481</v>
-      </c>
-      <c r="E49" s="12">
-        <v>-1.7623176018459019</v>
-      </c>
-      <c r="F49" s="12">
-        <v>99.484988531812789</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0.51501146818651866</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="12">
+      <c r="B49" s="9">
+        <v>8.6441163478024983</v>
+      </c>
+      <c r="C49" s="9">
+        <v>3.140359938827499</v>
+      </c>
+      <c r="D49" s="9">
+        <v>20.859411469488141</v>
+      </c>
+      <c r="E49" s="9">
+        <v>-2.311186859034239</v>
+      </c>
+      <c r="F49" s="9">
+        <v>99.48688215564421</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.50052621635392147</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1.259162800186802E-2</v>
+      </c>
+      <c r="I49" s="9">
         <v>0</v>
       </c>
       <c r="J49" s="8"/>
@@ -2486,29 +2494,29 @@
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12">
-        <v>5.5813771007652031</v>
-      </c>
-      <c r="C50" s="12">
-        <v>-5.5627636931479838</v>
-      </c>
-      <c r="D50" s="12">
-        <v>21.530066539554781</v>
-      </c>
-      <c r="E50" s="12">
-        <v>-3.4637676021073349</v>
-      </c>
-      <c r="F50" s="12">
-        <v>97.981261760381784</v>
-      </c>
-      <c r="G50" s="12">
-        <v>1.5821131643337589</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0.43662507528356997</v>
-      </c>
-      <c r="I50" s="12">
-        <v>4.7459247307583812E-3</v>
+      <c r="B50" s="9">
+        <v>14.918537353234919</v>
+      </c>
+      <c r="C50" s="9">
+        <v>8.9233787001327016</v>
+      </c>
+      <c r="D50" s="9">
+        <v>20.3579189338692</v>
+      </c>
+      <c r="E50" s="9">
+        <v>-0.9855135501359833</v>
+      </c>
+      <c r="F50" s="9">
+        <v>97.581498706207924</v>
+      </c>
+      <c r="G50" s="9">
+        <v>2.1361253710681529</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.36764045740964058</v>
+      </c>
+      <c r="I50" s="9">
+        <v>4.4303864444632246E-3</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2519,29 +2527,29 @@
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="12">
-        <v>-1.0293559232079581</v>
-      </c>
-      <c r="C51" s="12">
-        <v>-4.0435846714933312</v>
-      </c>
-      <c r="D51" s="12">
-        <v>15.65840267584764</v>
-      </c>
-      <c r="E51" s="12">
-        <v>-0.16006949376126711</v>
-      </c>
-      <c r="F51" s="12">
-        <v>99.03894962861024</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0.89075667732326325</v>
-      </c>
-      <c r="H51" s="12">
-        <v>7.029369406544364E-2</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0</v>
+      <c r="B51" s="9">
+        <v>3.430604275408438</v>
+      </c>
+      <c r="C51" s="9">
+        <v>4.4814642290811886</v>
+      </c>
+      <c r="D51" s="9">
+        <v>13.216749526762131</v>
+      </c>
+      <c r="E51" s="9">
+        <v>-2.1514393138342731</v>
+      </c>
+      <c r="F51" s="9">
+        <v>98.770056781639255</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1.085329616220007</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.1215738199745303</v>
+      </c>
+      <c r="I51" s="9">
+        <v>2.3039782166226371E-2</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2552,29 +2560,29 @@
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="12">
-        <v>8.3164588661515424</v>
-      </c>
-      <c r="C52" s="12">
-        <v>2.4559680049074322</v>
-      </c>
-      <c r="D52" s="12">
-        <v>18.013558625558169</v>
-      </c>
-      <c r="E52" s="12">
-        <v>2.7739856546075692</v>
-      </c>
-      <c r="F52" s="12">
-        <v>98.448520603948609</v>
-      </c>
-      <c r="G52" s="12">
-        <v>1.528207205110613</v>
-      </c>
-      <c r="H52" s="12">
-        <v>1.5514793960513839E-2</v>
-      </c>
-      <c r="I52" s="12">
-        <v>7.7573969802569214E-3</v>
+      <c r="B52" s="9">
+        <v>7.693789321002015</v>
+      </c>
+      <c r="C52" s="9">
+        <v>-0.56801984315560994</v>
+      </c>
+      <c r="D52" s="9">
+        <v>17.294392848320278</v>
+      </c>
+      <c r="E52" s="9">
+        <v>-0.61330361121917976</v>
+      </c>
+      <c r="F52" s="9">
+        <v>98.43771504649682</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1.5156495817567941</v>
+      </c>
+      <c r="H52" s="9">
+        <v>4.6635371746362883E-2</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2585,29 +2593,29 @@
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="12">
-        <v>1.182432519824794</v>
-      </c>
-      <c r="C53" s="12">
-        <v>-0.87832154610254509</v>
-      </c>
-      <c r="D53" s="12">
-        <v>11.053998097631499</v>
-      </c>
-      <c r="E53" s="12">
-        <v>-0.37853363588674638</v>
-      </c>
-      <c r="F53" s="12">
-        <v>99.915895710681241</v>
-      </c>
-      <c r="G53" s="12">
-        <v>8.4104289318755257E-2</v>
-      </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
+      <c r="B53" s="9">
+        <v>10.257446249322591</v>
+      </c>
+      <c r="C53" s="9">
+        <v>8.9689618083847797</v>
+      </c>
+      <c r="D53" s="9">
+        <v>12.77519529085605</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1.5498741357437671</v>
+      </c>
+      <c r="F53" s="9">
+        <v>99.243697478991606</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.67226890756302526</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>8.4033613445378158E-2</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2623,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2636,23 +2644,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:P5"/>
+  <dimension ref="A2:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -2698,8 +2706,11 @@
       <c r="P4" s="5">
         <v>44009</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -2744,6 +2755,9 @@
       </c>
       <c r="P5" s="6">
         <v>0.36399999999999999</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.38500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8572091-D703-FB41-B31C-70FD8A8C22BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0710E74C-A217-DE4C-A2D4-FB7D1C5A9548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="7020" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -224,8 +224,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -385,8 +386,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,6 +395,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -426,9 +427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>242943</xdr:colOff>
+      <xdr:colOff>242942</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>143987</xdr:rowOff>
+      <xdr:rowOff>143986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -457,7 +458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="693653" y="580020"/>
-          <a:ext cx="13582790" cy="10422467"/>
+          <a:ext cx="13582789" cy="10422466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -475,9 +476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>646866</xdr:colOff>
+      <xdr:colOff>646865</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>142838</xdr:rowOff>
+      <xdr:rowOff>142837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -506,7 +507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14292346" y="568719"/>
-          <a:ext cx="13596020" cy="10432619"/>
+          <a:ext cx="13596019" cy="10432618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -524,9 +525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>65439</xdr:rowOff>
+      <xdr:rowOff>65438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,7 +556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="689086" y="11130132"/>
-          <a:ext cx="14627114" cy="11223807"/>
+          <a:ext cx="14627113" cy="11223806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,20 +857,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -877,62 +878,62 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
-        <v>14.284663615644719</v>
-      </c>
-      <c r="C2" s="10">
-        <v>5.3809022232036927</v>
-      </c>
-      <c r="D2" s="10">
-        <v>22.081600785335031</v>
-      </c>
-      <c r="E2" s="10">
-        <v>-0.7841792586867814</v>
-      </c>
-      <c r="F2" s="10">
-        <v>98.293824264729977</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1.6048200739237699</v>
-      </c>
-      <c r="H2" s="10">
-        <v>8.6260283067061502E-2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1.480092839590471E-2</v>
+      <c r="B2" s="12">
+        <v>9.3529287156112293</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-0.78568112237964538</v>
+      </c>
+      <c r="D2" s="12">
+        <v>23.62095217883904</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.27256065757530118</v>
+      </c>
+      <c r="F2" s="12">
+        <v>98.666604012096172</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1.279256358597989</v>
+      </c>
+      <c r="H2" s="12">
+        <v>4.3150561579541363E-2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>3.112701374494849E-3</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -943,29 +944,29 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
-        <v>14.17465581946027</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3.3058253263009911</v>
-      </c>
-      <c r="D3" s="9">
-        <v>18.81124514209041</v>
-      </c>
-      <c r="E3" s="9">
-        <v>-1.302103682361559</v>
-      </c>
-      <c r="F3" s="9">
-        <v>98.441448050064253</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.3688518907840059</v>
-      </c>
-      <c r="H3" s="9">
-        <v>9.984213639566121E-2</v>
-      </c>
-      <c r="I3" s="9">
-        <v>8.9857922756095082E-2</v>
+      <c r="B3" s="13">
+        <v>11.55910176268428</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.32364467203626962</v>
+      </c>
+      <c r="D3" s="13">
+        <v>20.64293260996363</v>
+      </c>
+      <c r="E3" s="13">
+        <v>-0.1401656981763775</v>
+      </c>
+      <c r="F3" s="13">
+        <v>99.266353350739763</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.68374818682912675</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2.9939077458659698E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1.9959384972439799E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -976,28 +977,28 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
-        <v>44.20515804860112</v>
-      </c>
-      <c r="C4" s="9">
-        <v>25.98414536325841</v>
-      </c>
-      <c r="D4" s="9">
-        <v>22.819075806089131</v>
-      </c>
-      <c r="E4" s="9">
-        <v>6.9752441610226867E-2</v>
-      </c>
-      <c r="F4" s="9">
-        <v>99.868662989230359</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.13133701076963489</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="B4" s="13">
+        <v>7.4717487632544932</v>
+      </c>
+      <c r="C4" s="13">
+        <v>-7.6984077177549084</v>
+      </c>
+      <c r="D4" s="13">
+        <v>12.967483811756161</v>
+      </c>
+      <c r="E4" s="13">
+        <v>-9.776164299780099</v>
+      </c>
+      <c r="F4" s="13">
+        <v>99.684791174152878</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.31520882584712367</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
@@ -1009,29 +1010,29 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9">
-        <v>13.616168720815081</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5.7331163067985953</v>
-      </c>
-      <c r="D5" s="9">
-        <v>26.496248307468129</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2.9113431851751938E-2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>98.993456594032793</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.89280361978655542</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.10639558161115879</v>
-      </c>
-      <c r="I5" s="9">
-        <v>7.3442045694800083E-3</v>
+      <c r="B5" s="13">
+        <v>10.047052265431679</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.74660012123347985</v>
+      </c>
+      <c r="D5" s="13">
+        <v>27.396407726132409</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.27565839942931941</v>
+      </c>
+      <c r="F5" s="13">
+        <v>99.110350057853765</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.80139479917317402</v>
+      </c>
+      <c r="H5" s="13">
+        <v>6.7457508715405609E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1.34876267331916E-2</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1042,29 +1043,29 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
-        <v>11.805168939886951</v>
-      </c>
-      <c r="C6" s="9">
-        <v>4.1370957136860049</v>
-      </c>
-      <c r="D6" s="9">
-        <v>14.8193069574398</v>
-      </c>
-      <c r="E6" s="9">
-        <v>-1.101057943789894</v>
-      </c>
-      <c r="F6" s="9">
-        <v>98.670229337104445</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.84199664460886536</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.46051588902133722</v>
-      </c>
-      <c r="I6" s="9">
-        <v>5.4516258530710557E-2</v>
+      <c r="B6" s="13">
+        <v>8.1332557418603635</v>
+      </c>
+      <c r="C6" s="13">
+        <v>-0.35171111848087749</v>
+      </c>
+      <c r="D6" s="13">
+        <v>15.73074625245316</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.66531778676656628</v>
+      </c>
+      <c r="F6" s="13">
+        <v>99.081606739456731</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.64577891334332416</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.24535983818190971</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2.7254509018036069E-2</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1075,29 +1076,29 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
-        <v>20.441688789869939</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6.2623754341988942</v>
-      </c>
-      <c r="D7" s="9">
-        <v>28.89204857329587</v>
-      </c>
-      <c r="E7" s="9">
-        <v>-0.11235625737086299</v>
-      </c>
-      <c r="F7" s="9">
-        <v>94.371857226395406</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5.4397162241798993</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.14694897183780789</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4.1477577586896172E-2</v>
+      <c r="B7" s="13">
+        <v>15.981841935050831</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.82127788673871782</v>
+      </c>
+      <c r="D7" s="13">
+        <v>32.52354239376281</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.1865308392460789</v>
+      </c>
+      <c r="F7" s="13">
+        <v>95.36888370960267</v>
+      </c>
+      <c r="G7" s="13">
+        <v>4.5904347503302994</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3.4370270279870718E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>7.164498059524925E-3</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1108,28 +1109,28 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
-        <v>1.116408122548042</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3.02376254675249</v>
-      </c>
-      <c r="D8" s="9">
-        <v>19.537187985642959</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-1.5644281278274339</v>
-      </c>
-      <c r="F8" s="9">
-        <v>97.197314204375189</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2.7043819412282848</v>
-      </c>
-      <c r="H8" s="9">
-        <v>6.1012431779587911E-3</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="B8" s="13">
+        <v>-0.29845561459786341</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1.817175446795205</v>
+      </c>
+      <c r="D8" s="13">
+        <v>22.11748672113012</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.64650120440056935</v>
+      </c>
+      <c r="F8" s="13">
+        <v>97.488325682291645</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2.511674317708366</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
@@ -1141,28 +1142,28 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
-        <v>22.112666212916888</v>
-      </c>
-      <c r="C9" s="9">
-        <v>9.5672989428719077</v>
-      </c>
-      <c r="D9" s="9">
-        <v>28.138575110561149</v>
-      </c>
-      <c r="E9" s="9">
-        <v>-0.72784848896828991</v>
-      </c>
-      <c r="F9" s="9">
-        <v>98.341723191063025</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1.477772574068517</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.1805042348684732</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="B9" s="13">
+        <v>12.691004072617959</v>
+      </c>
+      <c r="C9" s="13">
+        <v>-3.509326233140142</v>
+      </c>
+      <c r="D9" s="13">
+        <v>28.567040529925482</v>
+      </c>
+      <c r="E9" s="13">
+        <v>-0.74243298452239248</v>
+      </c>
+      <c r="F9" s="13">
+        <v>98.947249880312427</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.9536220395677617</v>
+      </c>
+      <c r="H9" s="13">
+        <v>9.9128080119827322E-2</v>
+      </c>
+      <c r="I9" s="13">
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
@@ -1174,28 +1175,28 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9">
-        <v>11.04372772067226</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4.7166800983678074</v>
-      </c>
-      <c r="D10" s="9">
-        <v>29.932515205979708</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.25112901946558219</v>
-      </c>
-      <c r="F10" s="9">
-        <v>98.958180195214737</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.0418198047852829</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="B10" s="13">
+        <v>7.1213164067372592</v>
+      </c>
+      <c r="C10" s="13">
+        <v>-2.233435874487208</v>
+      </c>
+      <c r="D10" s="13">
+        <v>26.511293605634361</v>
+      </c>
+      <c r="E10" s="13">
+        <v>-3.7698576204392129</v>
+      </c>
+      <c r="F10" s="13">
+        <v>99.215345699831374</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.78465430016863424</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
@@ -1207,28 +1208,28 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9">
-        <v>-3.9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="D11" s="9">
-        <v>25.4</v>
-      </c>
-      <c r="E11" s="9">
-        <v>-3.9</v>
-      </c>
-      <c r="F11" s="9">
-        <v>98.6</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="B11" s="13">
+        <v>-3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="13">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="13">
+        <v>98.3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
@@ -1240,29 +1241,29 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9">
-        <v>14.4726578142176</v>
-      </c>
-      <c r="C12" s="9">
-        <v>5.1083551828368572</v>
-      </c>
-      <c r="D12" s="9">
-        <v>19.675376963750651</v>
-      </c>
-      <c r="E12" s="9">
-        <v>-0.51665180570677049</v>
-      </c>
-      <c r="F12" s="9">
-        <v>98.740801228121612</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1.2121774458548329</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.10350796858915851</v>
-      </c>
-      <c r="I12" s="9">
-        <v>4.0303993734484367E-3</v>
+      <c r="B12" s="13">
+        <v>11.95224679311869</v>
+      </c>
+      <c r="C12" s="13">
+        <v>-0.1033542879781356</v>
+      </c>
+      <c r="D12" s="13">
+        <v>21.339668182569401</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.82602840117486009</v>
+      </c>
+      <c r="F12" s="13">
+        <v>98.963369574905514</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.95874868127867419</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7.6539580920643308E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1.3421628951561051E-3</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1273,29 +1274,29 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9">
-        <v>11.160942270537941</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3.1063817245131742</v>
-      </c>
-      <c r="D13" s="9">
-        <v>21.742973837935459</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-1.7004298842463099</v>
-      </c>
-      <c r="F13" s="9">
-        <v>98.781759348682911</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1.1226332453656469</v>
-      </c>
-      <c r="H13" s="9">
-        <v>3.5512461018898291E-3</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1.420498440755932E-2</v>
+      <c r="B13" s="13">
+        <v>8.2691537428187694</v>
+      </c>
+      <c r="C13" s="13">
+        <v>-0.37234575581947521</v>
+      </c>
+      <c r="D13" s="13">
+        <v>25.037427325687521</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.797646595137389</v>
+      </c>
+      <c r="F13" s="13">
+        <v>99.055251226366209</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.94474877363379384</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1306,29 +1307,29 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9">
-        <v>59.452010695842091</v>
-      </c>
-      <c r="C14" s="9">
-        <v>34.441929814194779</v>
-      </c>
-      <c r="D14" s="9">
-        <v>20.03705501442214</v>
-      </c>
-      <c r="E14" s="9">
-        <v>7.354758877561407</v>
-      </c>
-      <c r="F14" s="9">
-        <v>93.97231096911608</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4.3450479233226833</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.95846645367412142</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.72417465388711399</v>
+      <c r="B14" s="13">
+        <v>21.330564106315379</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-0.64649515746373343</v>
+      </c>
+      <c r="D14" s="13">
+        <v>14.096933466296059</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.1083526639032328</v>
+      </c>
+      <c r="F14" s="13">
+        <v>98.726385056251331</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.273614943748673</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1339,28 +1340,28 @@
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9">
-        <v>6.039318062620632</v>
-      </c>
-      <c r="C15" s="9">
-        <v>10.36329900163088</v>
-      </c>
-      <c r="D15" s="9">
-        <v>28.802509550069772</v>
-      </c>
-      <c r="E15" s="9">
-        <v>4.983783145875738</v>
-      </c>
-      <c r="F15" s="9">
-        <v>99.66848230269288</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.28413283048152083</v>
-      </c>
-      <c r="H15" s="9">
-        <v>4.7384866825596061E-2</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="B15" s="13">
+        <v>-0.99258021671714247</v>
+      </c>
+      <c r="C15" s="13">
+        <v>-1.4426376220683359</v>
+      </c>
+      <c r="D15" s="13">
+        <v>25.379567004415129</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-1.901447222177937</v>
+      </c>
+      <c r="F15" s="13">
+        <v>99.905955765695509</v>
+      </c>
+      <c r="G15" s="13">
+        <v>9.4044234304492325E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
@@ -1372,28 +1373,28 @@
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9">
-        <v>6.6124980877384356</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1.9704381239027651</v>
-      </c>
-      <c r="D16" s="9">
-        <v>23.44483073519066</v>
-      </c>
-      <c r="E16" s="9">
-        <v>-3.1985368018609628</v>
-      </c>
-      <c r="F16" s="9">
-        <v>99.07349673604665</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.92650326395336147</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="B16" s="13">
+        <v>4.0965580174335061</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.2200915846847959</v>
+      </c>
+      <c r="D16" s="13">
+        <v>26.51139291552413</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.9015079135676165</v>
+      </c>
+      <c r="F16" s="13">
+        <v>99.192058015268273</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.80794198473170753</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
@@ -1405,28 +1406,28 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9">
-        <v>6.0947347413401456</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4.3632107508472773</v>
-      </c>
-      <c r="D17" s="9">
-        <v>17.077093447673921</v>
-      </c>
-      <c r="E17" s="9">
-        <v>-0.99937869809432023</v>
-      </c>
-      <c r="F17" s="9">
-        <v>99.485206605095343</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.50276319528560509</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1.2030199619052931E-2</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="B17" s="13">
+        <v>1.2325782319723291</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-0.53581942538382554</v>
+      </c>
+      <c r="D17" s="13">
+        <v>17.536233072159039</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3.3687996716290837E-2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>99.587042065583802</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.41295793441620088</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
@@ -1438,28 +1439,28 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="9">
-        <v>1.834572004676563</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2.981792447508814</v>
-      </c>
-      <c r="D18" s="9">
-        <v>19.485361562743719</v>
-      </c>
-      <c r="E18" s="9">
-        <v>-1.9142485639381659</v>
-      </c>
-      <c r="F18" s="9">
-        <v>99.91353635461256</v>
-      </c>
-      <c r="G18" s="9">
-        <v>8.6463645387430982E-2</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="B18" s="13">
+        <v>-1.3662422540111741</v>
+      </c>
+      <c r="C18" s="13">
+        <v>-2.0053077498790031</v>
+      </c>
+      <c r="D18" s="13">
+        <v>21.32879655949451</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-0.45356374740773159</v>
+      </c>
+      <c r="F18" s="13">
+        <v>99.971228583778952</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2.8771416221042009E-2</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
@@ -1471,28 +1472,28 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9">
-        <v>7.0021227189430633</v>
-      </c>
-      <c r="C19" s="9">
-        <v>4.8198278861135018</v>
-      </c>
-      <c r="D19" s="9">
-        <v>19.091363197517609</v>
-      </c>
-      <c r="E19" s="9">
-        <v>-1.9232075204386609</v>
-      </c>
-      <c r="F19" s="9">
-        <v>99.71928654641448</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.2588146530033798</v>
-      </c>
-      <c r="H19" s="9">
-        <v>2.1898800582141279E-2</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="B19" s="13">
+        <v>3.884391774081708</v>
+      </c>
+      <c r="C19" s="13">
+        <v>-0.80809795883182045</v>
+      </c>
+      <c r="D19" s="13">
+        <v>21.851967669085511</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.38782687822812711</v>
+      </c>
+      <c r="F19" s="13">
+        <v>99.806551439544435</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.17578285440368219</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1.76657060518732E-2</v>
+      </c>
+      <c r="I19" s="13">
         <v>0</v>
       </c>
       <c r="J19" s="8"/>
@@ -1504,29 +1505,29 @@
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9">
-        <v>12.696603569067809</v>
-      </c>
-      <c r="C20" s="9">
-        <v>6.5992821227923892</v>
-      </c>
-      <c r="D20" s="9">
-        <v>13.615690427410399</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1.4443562868521509</v>
-      </c>
-      <c r="F20" s="9">
-        <v>98.970944149833073</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.91853232671430607</v>
-      </c>
-      <c r="H20" s="9">
-        <v>7.7366466416834104E-2</v>
-      </c>
-      <c r="I20" s="9">
-        <v>3.3157057035786038E-2</v>
+      <c r="B20" s="13">
+        <v>5.8030205059188358</v>
+      </c>
+      <c r="C20" s="13">
+        <v>-6.2026304916199072E-2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>12.6870393905245</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.2051394554595139</v>
+      </c>
+      <c r="F20" s="13">
+        <v>99.539940602792882</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.43919662043884078</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1.0431388384144291E-2</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1.0431388384144291E-2</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1537,28 +1538,28 @@
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9">
-        <v>20.555873309574508</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1.5096723290925971</v>
-      </c>
-      <c r="D21" s="9">
-        <v>18.101031898725651</v>
-      </c>
-      <c r="E21" s="9">
-        <v>-1.704486894995382</v>
-      </c>
-      <c r="F21" s="9">
-        <v>99.111388107433754</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.77264986876539665</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.11596202380086761</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="B21" s="13">
+        <v>18.398308555137149</v>
+      </c>
+      <c r="C21" s="13">
+        <v>-1.5350534291607201</v>
+      </c>
+      <c r="D21" s="13">
+        <v>22.159471909019661</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1.3201682178206959</v>
+      </c>
+      <c r="F21" s="13">
+        <v>99.279940513340463</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.61889576793518208</v>
+      </c>
+      <c r="H21" s="13">
+        <v>8.6367293699518941E-2</v>
+      </c>
+      <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21" s="8"/>
@@ -1570,28 +1571,28 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9">
-        <v>23.042228204792419</v>
-      </c>
-      <c r="C22" s="9">
-        <v>10.85173707925072</v>
-      </c>
-      <c r="D22" s="9">
-        <v>33.289012665150992</v>
-      </c>
-      <c r="E22" s="9">
-        <v>3.648680320003777</v>
-      </c>
-      <c r="F22" s="9">
-        <v>99.675306052699327</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.32469394730066858</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="B22" s="13">
+        <v>16.37209363362356</v>
+      </c>
+      <c r="C22" s="13">
+        <v>-3.7725752080709158</v>
+      </c>
+      <c r="D22" s="13">
+        <v>30.869250118744379</v>
+      </c>
+      <c r="E22" s="13">
+        <v>-2.0605526817473172</v>
+      </c>
+      <c r="F22" s="13">
+        <v>99.788329596576844</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.21167040342316201</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
         <v>0</v>
       </c>
       <c r="J22" s="8"/>
@@ -1603,28 +1604,28 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9">
-        <v>10.1068176996675</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2.5939509650173909</v>
-      </c>
-      <c r="D23" s="9">
-        <v>24.601571228843991</v>
-      </c>
-      <c r="E23" s="9">
-        <v>-2.2027387799948142</v>
-      </c>
-      <c r="F23" s="9">
-        <v>99.101023150062005</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0.79909053327821411</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="B23" s="13">
+        <v>7.8075050754040394</v>
+      </c>
+      <c r="C23" s="13">
+        <v>-0.69931473664713051</v>
+      </c>
+      <c r="D23" s="13">
+        <v>27.514721703353359</v>
+      </c>
+      <c r="E23" s="13">
+        <v>-0.30568492158993582</v>
+      </c>
+      <c r="F23" s="13">
+        <v>99.10103275610264</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.8989672438973505</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="8"/>
@@ -1636,28 +1637,28 @@
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="9">
-        <v>20.9057379294842</v>
-      </c>
-      <c r="C24" s="9">
-        <v>8.7985413498687812</v>
-      </c>
-      <c r="D24" s="9">
-        <v>27.894667606838311</v>
-      </c>
-      <c r="E24" s="9">
-        <v>-1.265882021905024</v>
-      </c>
-      <c r="F24" s="9">
-        <v>98.629846582984655</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1.1914724048615259</v>
-      </c>
-      <c r="H24" s="9">
-        <v>8.9340506076907758E-2</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="B24" s="13">
+        <v>12.178432711118811</v>
+      </c>
+      <c r="C24" s="13">
+        <v>-0.27081858803301267</v>
+      </c>
+      <c r="D24" s="13">
+        <v>29.227529674428631</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.94597267634766546</v>
+      </c>
+      <c r="F24" s="13">
+        <v>98.890046449274791</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.92779807995167007</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.18215547077353389</v>
+      </c>
+      <c r="I24" s="13">
         <v>0</v>
       </c>
       <c r="J24" s="8"/>
@@ -1669,28 +1670,28 @@
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="9">
-        <v>8.1996968938373023</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1.4783542614509919</v>
-      </c>
-      <c r="D25" s="9">
-        <v>17.097458901803542</v>
-      </c>
-      <c r="E25" s="9">
-        <v>-2.8337466566075831</v>
-      </c>
-      <c r="F25" s="9">
-        <v>99.651625436399058</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0.34837456360093122</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="B25" s="13">
+        <v>6.42388585646236</v>
+      </c>
+      <c r="C25" s="13">
+        <v>-5.97918004656285E-2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>21.238772747466761</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1.1956541819825719</v>
+      </c>
+      <c r="F25" s="13">
+        <v>99.705628797114642</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.2872732456150614</v>
+      </c>
+      <c r="H25" s="13">
+        <v>7.0979572702972336E-3</v>
+      </c>
+      <c r="I25" s="13">
         <v>0</v>
       </c>
       <c r="J25" s="8"/>
@@ -1702,28 +1703,28 @@
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="9">
-        <v>13.38213318323654</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3.5945126793698621</v>
-      </c>
-      <c r="D26" s="9">
-        <v>21.041733981117819</v>
-      </c>
-      <c r="E26" s="9">
-        <v>-2.4303550374872982</v>
-      </c>
-      <c r="F26" s="9">
-        <v>99.287185169716935</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0.70762071498550627</v>
-      </c>
-      <c r="H26" s="9">
-        <v>7.3601224249973257E-2</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="B26" s="13">
+        <v>9.8912822296779694</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.22650491109169249</v>
+      </c>
+      <c r="D26" s="13">
+        <v>25.695861106216409</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1.785456490658587</v>
+      </c>
+      <c r="F26" s="13">
+        <v>99.382955418045896</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.61704458195410194</v>
+      </c>
+      <c r="H26" s="13">
+        <v>6.8523401450230711E-2</v>
+      </c>
+      <c r="I26" s="13">
         <v>0</v>
       </c>
       <c r="J26" s="8"/>
@@ -1735,29 +1736,29 @@
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="9">
-        <v>13.72877749246933</v>
-      </c>
-      <c r="C27" s="9">
-        <v>-1.8435124579683291</v>
-      </c>
-      <c r="D27" s="9">
-        <v>16.821524045665981</v>
-      </c>
-      <c r="E27" s="9">
-        <v>-4.794361741914253</v>
-      </c>
-      <c r="F27" s="9">
-        <v>99.217379928556994</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.71296367075561318</v>
-      </c>
-      <c r="H27" s="9">
-        <v>9.8402777777777783E-2</v>
-      </c>
-      <c r="I27" s="9">
-        <v>2.04550117985021E-2</v>
+      <c r="B27" s="13">
+        <v>13.616678680511891</v>
+      </c>
+      <c r="C27" s="13">
+        <v>-1.694310580940166</v>
+      </c>
+      <c r="D27" s="13">
+        <v>16.968340471080669</v>
+      </c>
+      <c r="E27" s="13">
+        <v>-1.76250701417767</v>
+      </c>
+      <c r="F27" s="13">
+        <v>99.336987620067362</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.66301237993262463</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1768,29 +1769,29 @@
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="9">
-        <v>11.68535171006879</v>
-      </c>
-      <c r="C28" s="9">
-        <v>5.343190218801225</v>
-      </c>
-      <c r="D28" s="9">
-        <v>19.417328233711601</v>
-      </c>
-      <c r="E28" s="9">
-        <v>-0.30289860353851722</v>
-      </c>
-      <c r="F28" s="9">
-        <v>98.778443744181402</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1.189147342864163</v>
-      </c>
-      <c r="H28" s="9">
-        <v>2.4212576763098369E-2</v>
-      </c>
-      <c r="I28" s="9">
-        <v>8.1963361913316209E-3</v>
+      <c r="B28" s="13">
+        <v>4.9561185863027593</v>
+      </c>
+      <c r="C28" s="13">
+        <v>-1.102768655692117</v>
+      </c>
+      <c r="D28" s="13">
+        <v>21.506771509517289</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.68436791570455924</v>
+      </c>
+      <c r="F28" s="13">
+        <v>99.061403918726015</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.93078078225538674</v>
+      </c>
+      <c r="H28" s="13">
+        <v>7.8152990186091918E-3</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1801,29 +1802,29 @@
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="9">
-        <v>14.63932861771011</v>
-      </c>
-      <c r="C29" s="9">
-        <v>14.40306511638696</v>
-      </c>
-      <c r="D29" s="9">
-        <v>19.45561830791895</v>
-      </c>
-      <c r="E29" s="9">
-        <v>3.544723123591464</v>
-      </c>
-      <c r="F29" s="9">
-        <v>98.341463414634148</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1.51219512195122</v>
-      </c>
-      <c r="H29" s="9">
-        <v>9.7560975609756101E-2</v>
-      </c>
-      <c r="I29" s="9">
-        <v>4.878048780487805E-2</v>
+      <c r="B29" s="13">
+        <v>4.7534348070616739</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.27790266489287058</v>
+      </c>
+      <c r="D29" s="13">
+        <v>20.42910318392623</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.85502623034237057</v>
+      </c>
+      <c r="F29" s="13">
+        <v>99.561403508771932</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.43859649122807021</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1834,28 +1835,28 @@
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="9">
-        <v>6.0603199088849644</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3.4945175769998111</v>
-      </c>
-      <c r="D30" s="9">
-        <v>15.52670330815552</v>
-      </c>
-      <c r="E30" s="9">
-        <v>-0.77263143639694631</v>
-      </c>
-      <c r="F30" s="9">
-        <v>99.958966896593822</v>
-      </c>
-      <c r="G30" s="9">
-        <v>4.103310340619068E-2</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="B30" s="13">
+        <v>1.396073916238477</v>
+      </c>
+      <c r="C30" s="13">
+        <v>-3.7277899649081241</v>
+      </c>
+      <c r="D30" s="13">
+        <v>15.38491214593452</v>
+      </c>
+      <c r="E30" s="13">
+        <v>-0.58299047088462819</v>
+      </c>
+      <c r="F30" s="13">
+        <v>99.940072786089772</v>
+      </c>
+      <c r="G30" s="13">
+        <v>5.9927213910230481E-2</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
         <v>0</v>
       </c>
       <c r="J30" s="8"/>
@@ -1867,29 +1868,29 @@
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="9">
-        <v>15.02068354881102</v>
-      </c>
-      <c r="C31" s="9">
-        <v>5.1258771763232778</v>
-      </c>
-      <c r="D31" s="9">
-        <v>21.618275618293801</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1.0914363307078609</v>
-      </c>
-      <c r="F31" s="9">
-        <v>98.976896566007639</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0.9771735382797222</v>
-      </c>
-      <c r="H31" s="9">
-        <v>5.2491309385863272E-2</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
+      <c r="B31" s="13">
+        <v>10.709252436490139</v>
+      </c>
+      <c r="C31" s="13">
+        <v>-0.66008739262374672</v>
+      </c>
+      <c r="D31" s="13">
+        <v>23.426781523099809</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0.70994622959027687</v>
+      </c>
+      <c r="F31" s="13">
+        <v>99.235744000798334</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.73630922138118016</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>2.7946777820477581E-2</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1900,28 +1901,28 @@
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="9">
-        <v>19.089714857945641</v>
-      </c>
-      <c r="C32" s="9">
-        <v>8.4727203038301795</v>
-      </c>
-      <c r="D32" s="9">
-        <v>30.932801457969589</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1.214215695722334</v>
-      </c>
-      <c r="F32" s="9">
-        <v>99.343959195093163</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0.56829584216877571</v>
-      </c>
-      <c r="H32" s="9">
-        <v>8.7744962738062385E-2</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="B32" s="13">
+        <v>12.1214858767416</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.28653665942961543</v>
+      </c>
+      <c r="D32" s="13">
+        <v>30.943550188258978</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1.002021138080851</v>
+      </c>
+      <c r="F32" s="13">
+        <v>99.546957298632947</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.36520042316333279</v>
+      </c>
+      <c r="H32" s="13">
+        <v>8.7842278203723992E-2</v>
+      </c>
+      <c r="I32" s="13">
         <v>0</v>
       </c>
       <c r="J32" s="8"/>
@@ -1933,28 +1934,28 @@
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="9">
-        <v>14.503549264453421</v>
-      </c>
-      <c r="C33" s="9">
-        <v>5.4983306961872058</v>
-      </c>
-      <c r="D33" s="9">
-        <v>28.04508574376251</v>
-      </c>
-      <c r="E33" s="9">
-        <v>-1.632102397240049</v>
-      </c>
-      <c r="F33" s="9">
-        <v>98.583825727456244</v>
-      </c>
-      <c r="G33" s="9">
-        <v>1.339553531025242</v>
-      </c>
-      <c r="H33" s="9">
-        <v>7.6620741518509589E-2</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="B33" s="13">
+        <v>7.6594851041845811</v>
+      </c>
+      <c r="C33" s="13">
+        <v>-5.3544001453956316</v>
+      </c>
+      <c r="D33" s="13">
+        <v>29.110283553382541</v>
+      </c>
+      <c r="E33" s="13">
+        <v>-1.5475005310885579</v>
+      </c>
+      <c r="F33" s="13">
+        <v>98.843574665825813</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1.1147590734437629</v>
+      </c>
+      <c r="H33" s="13">
+        <v>4.1666260730425272E-2</v>
+      </c>
+      <c r="I33" s="13">
         <v>0</v>
       </c>
       <c r="J33" s="8"/>
@@ -1966,29 +1967,29 @@
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="9">
-        <v>17.013406471285229</v>
-      </c>
-      <c r="C34" s="9">
-        <v>5.7968316990301956</v>
-      </c>
-      <c r="D34" s="9">
-        <v>21.010119100821171</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.98557651950197289</v>
-      </c>
-      <c r="F34" s="9">
-        <v>98.085643572081764</v>
-      </c>
-      <c r="G34" s="9">
-        <v>1.629587992771693</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0.28476843514654798</v>
-      </c>
-      <c r="I34" s="9">
-        <v>8.40512223515716E-2</v>
+      <c r="B34" s="13">
+        <v>15.483260085858319</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.888814255369202</v>
+      </c>
+      <c r="D34" s="13">
+        <v>23.036815606910071</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.81465685145406252</v>
+      </c>
+      <c r="F34" s="13">
+        <v>98.336832264832722</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1.579051793138283</v>
+      </c>
+      <c r="H34" s="13">
+        <v>8.4115942028985508E-2</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1999,29 +2000,29 @@
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9">
-        <v>15.25895289310666</v>
-      </c>
-      <c r="C35" s="9">
-        <v>5.7771914507630644</v>
-      </c>
-      <c r="D35" s="9">
-        <v>22.094869003806199</v>
-      </c>
-      <c r="E35" s="9">
-        <v>-1.074350025273642</v>
-      </c>
-      <c r="F35" s="9">
-        <v>98.291118945189595</v>
-      </c>
-      <c r="G35" s="9">
-        <v>1.576371529904935</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0.13250952490546439</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
+      <c r="B35" s="13">
+        <v>9.9335520777645936</v>
+      </c>
+      <c r="C35" s="13">
+        <v>-0.63322971944459239</v>
+      </c>
+      <c r="D35" s="13">
+        <v>21.595961542608851</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2.3602852794371691E-2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>98.762028859905115</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1.1747288320401881</v>
+      </c>
+      <c r="H35" s="13">
+        <v>5.8033556252767543E-2</v>
+      </c>
+      <c r="I35" s="13">
+        <v>5.2087518019239432E-3</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2032,29 +2033,29 @@
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="9">
-        <v>21.657093086203059</v>
-      </c>
-      <c r="C36" s="9">
-        <v>7.6806731987483712</v>
-      </c>
-      <c r="D36" s="9">
-        <v>20.948122736276471</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0.37900624223806512</v>
-      </c>
-      <c r="F36" s="9">
-        <v>98.13378673583172</v>
-      </c>
-      <c r="G36" s="9">
-        <v>1.7821890242634699</v>
-      </c>
-      <c r="H36" s="9">
-        <v>5.7136483135274647E-2</v>
-      </c>
-      <c r="I36" s="9">
-        <v>2.688775676954101E-2</v>
+      <c r="B36" s="13">
+        <v>13.17763933084799</v>
+      </c>
+      <c r="C36" s="13">
+        <v>-3.0426360442935461</v>
+      </c>
+      <c r="D36" s="13">
+        <v>20.980425662940291</v>
+      </c>
+      <c r="E36" s="13">
+        <v>-2.2492303895568271E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <v>98.909778933194886</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1.080090699929398</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1.013036687569608E-2</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2065,28 +2066,28 @@
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="9">
-        <v>9.5379394743714627</v>
-      </c>
-      <c r="C37" s="9">
-        <v>3.8231241900631572</v>
-      </c>
-      <c r="D37" s="9">
-        <v>21.175330786075701</v>
-      </c>
-      <c r="E37" s="9">
-        <v>-1.711891285784356</v>
-      </c>
-      <c r="F37" s="9">
-        <v>99.942335193984405</v>
-      </c>
-      <c r="G37" s="9">
-        <v>5.7664806015592568E-2</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="B37" s="13">
+        <v>9.220159447557938</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1.5236131070616961</v>
+      </c>
+      <c r="D37" s="13">
+        <v>21.96689941103978</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1.707024482154881</v>
+      </c>
+      <c r="F37" s="13">
+        <v>99.971926586099812</v>
+      </c>
+      <c r="G37" s="13">
+        <v>2.807341390018556E-2</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
         <v>0</v>
       </c>
       <c r="J37" s="8"/>
@@ -2098,29 +2099,29 @@
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="9">
-        <v>11.713906868144131</v>
-      </c>
-      <c r="C38" s="9">
-        <v>5.2254721794632886</v>
-      </c>
-      <c r="D38" s="9">
-        <v>13.601087343263989</v>
-      </c>
-      <c r="E38" s="9">
-        <v>-0.78578867938904529</v>
-      </c>
-      <c r="F38" s="9">
-        <v>99.305218942698744</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0.65205304129329789</v>
-      </c>
-      <c r="H38" s="9">
-        <v>3.9296416072953463E-2</v>
-      </c>
-      <c r="I38" s="9">
-        <v>3.4315999349961239E-3</v>
+      <c r="B38" s="13">
+        <v>7.4966427500874753</v>
+      </c>
+      <c r="C38" s="13">
+        <v>-1.276795771871478</v>
+      </c>
+      <c r="D38" s="13">
+        <v>14.70970553081059</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0.4756279120583351</v>
+      </c>
+      <c r="F38" s="13">
+        <v>99.534569811856713</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0.45085014136974561</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1.458004677353141E-2</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2131,28 +2132,28 @@
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="9">
-        <v>8.4526075591545613</v>
-      </c>
-      <c r="C39" s="9">
-        <v>7.2130958004254957</v>
-      </c>
-      <c r="D39" s="9">
-        <v>14.14503097549879</v>
-      </c>
-      <c r="E39" s="9">
-        <v>-0.45680583077447717</v>
-      </c>
-      <c r="F39" s="9">
-        <v>99.740836909799953</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.2443495962423011</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1.481349395775579E-2</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="B39" s="13">
+        <v>3.0909284728919388</v>
+      </c>
+      <c r="C39" s="13">
+        <v>-0.90959819291382149</v>
+      </c>
+      <c r="D39" s="13">
+        <v>15.355435101057189</v>
+      </c>
+      <c r="E39" s="13">
+        <v>-0.1421016404949571</v>
+      </c>
+      <c r="F39" s="13">
+        <v>99.830398625565195</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0.15493715491117041</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1.466421952364037E-2</v>
+      </c>
+      <c r="I39" s="13">
         <v>0</v>
       </c>
       <c r="J39" s="8"/>
@@ -2164,29 +2165,29 @@
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="9">
-        <v>13.98766656772357</v>
-      </c>
-      <c r="C40" s="9">
-        <v>7.8679163226449056</v>
-      </c>
-      <c r="D40" s="9">
-        <v>22.14765038699295</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.90697233042056458</v>
-      </c>
-      <c r="F40" s="9">
-        <v>98.658943247184993</v>
-      </c>
-      <c r="G40" s="9">
-        <v>1.0851602685154851</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0.23926933417681481</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1.6627150122706422E-2</v>
+      <c r="B40" s="13">
+        <v>7.7942778392115244</v>
+      </c>
+      <c r="C40" s="13">
+        <v>-1.6979472701317131</v>
+      </c>
+      <c r="D40" s="13">
+        <v>22.939692779240652</v>
+      </c>
+      <c r="E40" s="13">
+        <v>-0.40861568303060269</v>
+      </c>
+      <c r="F40" s="13">
+        <v>98.976077415778263</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0.78451861071179152</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.31920529801324499</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2197,28 +2198,28 @@
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="9">
-        <v>4.0330441514908886</v>
-      </c>
-      <c r="C41" s="9">
-        <v>3.2327241707474861</v>
-      </c>
-      <c r="D41" s="9">
-        <v>18.053029488985018</v>
-      </c>
-      <c r="E41" s="9">
-        <v>-2.2105673116538829</v>
-      </c>
-      <c r="F41" s="9">
-        <v>99.495511193236823</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0.50448880676317098</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="B41" s="13">
+        <v>-0.48104550023034909</v>
+      </c>
+      <c r="C41" s="13">
+        <v>-3.439190389224561</v>
+      </c>
+      <c r="D41" s="13">
+        <v>18.823476001625181</v>
+      </c>
+      <c r="E41" s="13">
+        <v>-1.592906263216288</v>
+      </c>
+      <c r="F41" s="13">
+        <v>99.513885006275856</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0.39073106865822932</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
         <v>0</v>
       </c>
       <c r="J41" s="8"/>
@@ -2230,28 +2231,28 @@
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="9">
-        <v>21.77</v>
-      </c>
-      <c r="C42" s="9">
-        <v>8.51</v>
-      </c>
-      <c r="D42" s="9">
-        <v>23.98</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1.95</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="B42" s="13">
+        <v>14.6</v>
+      </c>
+      <c r="C42" s="13">
+        <v>-0.79</v>
+      </c>
+      <c r="D42" s="13">
+        <v>23.69</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1.73</v>
+      </c>
+      <c r="F42" s="13">
         <v>99.850000000000009</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="13">
         <v>0.15</v>
       </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
         <v>0</v>
       </c>
       <c r="J42" s="8"/>
@@ -2263,28 +2264,28 @@
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="9">
-        <v>20.836175764069729</v>
-      </c>
-      <c r="C43" s="9">
-        <v>4.8756771828552372</v>
-      </c>
-      <c r="D43" s="9">
-        <v>21.12396923830957</v>
-      </c>
-      <c r="E43" s="9">
-        <v>-0.91309029635544203</v>
-      </c>
-      <c r="F43" s="9">
-        <v>99.053135369078447</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0.92848292221615503</v>
-      </c>
-      <c r="H43" s="9">
-        <v>1.838170870541897E-2</v>
-      </c>
-      <c r="I43" s="9">
+      <c r="B43" s="13">
+        <v>13.35062564988187</v>
+      </c>
+      <c r="C43" s="13">
+        <v>-4.9797061134436378</v>
+      </c>
+      <c r="D43" s="13">
+        <v>22.864340624288118</v>
+      </c>
+      <c r="E43" s="13">
+        <v>-4.4362035197345107E-2</v>
+      </c>
+      <c r="F43" s="13">
+        <v>99.31520250502237</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0.67561934067095375</v>
+      </c>
+      <c r="H43" s="13">
+        <v>9.1781543066787128E-3</v>
+      </c>
+      <c r="I43" s="13">
         <v>0</v>
       </c>
       <c r="J43" s="8"/>
@@ -2296,29 +2297,29 @@
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="9">
-        <v>13.143544845769069</v>
-      </c>
-      <c r="C44" s="9">
-        <v>1.757463984898068</v>
-      </c>
-      <c r="D44" s="9">
-        <v>25.515604532351869</v>
-      </c>
-      <c r="E44" s="9">
-        <v>-0.2299451542769472</v>
-      </c>
-      <c r="F44" s="9">
-        <v>99.783154694961354</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0.10842265251932209</v>
-      </c>
-      <c r="H44" s="9">
-        <v>7.2281768346214692E-2</v>
-      </c>
-      <c r="I44" s="9">
-        <v>3.6140884173107353E-2</v>
+      <c r="B44" s="13">
+        <v>12.26878757785405</v>
+      </c>
+      <c r="C44" s="13">
+        <v>-0.41262887934662118</v>
+      </c>
+      <c r="D44" s="13">
+        <v>25.071269554875531</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0.52730641944551693</v>
+      </c>
+      <c r="F44" s="13">
+        <v>99.781366422612749</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0.18219464782271191</v>
+      </c>
+      <c r="H44" s="13">
+        <v>3.643892956454238E-2</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2329,29 +2330,29 @@
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="9">
-        <v>12.816885028929629</v>
-      </c>
-      <c r="C45" s="9">
-        <v>5.8538741722883021</v>
-      </c>
-      <c r="D45" s="9">
-        <v>18.914308096395391</v>
-      </c>
-      <c r="E45" s="9">
-        <v>3.1347727653875779E-2</v>
-      </c>
-      <c r="F45" s="9">
-        <v>98.97484312418554</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0.99000569893276347</v>
-      </c>
-      <c r="H45" s="9">
-        <v>2.34341179211375E-2</v>
-      </c>
-      <c r="I45" s="9">
-        <v>1.171705896056875E-2</v>
+      <c r="B45" s="13">
+        <v>8.7664002630667195</v>
+      </c>
+      <c r="C45" s="13">
+        <v>9.1129052767071117E-2</v>
+      </c>
+      <c r="D45" s="13">
+        <v>21.357981704652111</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0.83800653011298576</v>
+      </c>
+      <c r="F45" s="13">
+        <v>99.109473459139281</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.89052654086071836</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2362,29 +2363,29 @@
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="9">
-        <v>19.094097847945761</v>
-      </c>
-      <c r="C46" s="9">
-        <v>5.3579982573630467</v>
-      </c>
-      <c r="D46" s="9">
-        <v>23.609902072805749</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0.81910095560980833</v>
-      </c>
-      <c r="F46" s="9">
-        <v>98.194136855702283</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1.6905753531877841</v>
-      </c>
-      <c r="H46" s="9">
-        <v>9.939546034180205E-2</v>
-      </c>
-      <c r="I46" s="9">
-        <v>1.5892330768124571E-2</v>
+      <c r="B46" s="13">
+        <v>12.879045759263191</v>
+      </c>
+      <c r="C46" s="13">
+        <v>-1.665070204975627</v>
+      </c>
+      <c r="D46" s="13">
+        <v>23.624347141705329</v>
+      </c>
+      <c r="E46" s="13">
+        <v>-0.33593104277716962</v>
+      </c>
+      <c r="F46" s="13">
+        <v>98.587164710280618</v>
+      </c>
+      <c r="G46" s="13">
+        <v>1.3330012948099681</v>
+      </c>
+      <c r="H46" s="13">
+        <v>4.4281860533313983E-2</v>
+      </c>
+      <c r="I46" s="13">
+        <v>6.2132236149400966E-3</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2395,28 +2396,28 @@
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="9">
-        <v>8.1</v>
-      </c>
-      <c r="C47" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="D47" s="9">
-        <v>20.5</v>
-      </c>
-      <c r="E47" s="9">
-        <v>-0.3</v>
-      </c>
-      <c r="F47" s="9">
-        <v>98.5</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I47" s="9">
+      <c r="B47" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D47" s="13">
+        <v>22.4</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="13">
+        <v>98.9</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
         <v>0</v>
       </c>
       <c r="J47" s="8"/>
@@ -2428,28 +2429,28 @@
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="9">
-        <v>14.11717508314606</v>
-      </c>
-      <c r="C48" s="9">
-        <v>9.2094232614731233</v>
-      </c>
-      <c r="D48" s="9">
-        <v>24.49234023542223</v>
-      </c>
-      <c r="E48" s="9">
-        <v>-7.5750909808455391E-2</v>
-      </c>
-      <c r="F48" s="9">
-        <v>99.774593707595699</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0.13183439048250181</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
+      <c r="B48" s="13">
+        <v>7.6213928938293316</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1.506639801940364</v>
+      </c>
+      <c r="D48" s="13">
+        <v>27.00784317494605</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1.37141756404496</v>
+      </c>
+      <c r="F48" s="13">
+        <v>99.812483912483913</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.1875160875160875</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -2461,28 +2462,28 @@
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="9">
-        <v>8.6441163478024983</v>
-      </c>
-      <c r="C49" s="9">
-        <v>3.140359938827499</v>
-      </c>
-      <c r="D49" s="9">
-        <v>20.859411469488141</v>
-      </c>
-      <c r="E49" s="9">
-        <v>-2.311186859034239</v>
-      </c>
-      <c r="F49" s="9">
-        <v>99.48688215564421</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0.50052621635392147</v>
-      </c>
-      <c r="H49" s="9">
-        <v>1.259162800186802E-2</v>
-      </c>
-      <c r="I49" s="9">
+      <c r="B49" s="13">
+        <v>4.9221777076201061</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1.505152231612639E-2</v>
+      </c>
+      <c r="D49" s="13">
+        <v>23.371849829487878</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.97688489128258371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>99.48707526971252</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.44041738530527769</v>
+      </c>
+      <c r="H49" s="13">
+        <v>2.7145507963507042E-3</v>
+      </c>
+      <c r="I49" s="13">
         <v>0</v>
       </c>
       <c r="J49" s="8"/>
@@ -2494,29 +2495,29 @@
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="9">
-        <v>14.918537353234919</v>
-      </c>
-      <c r="C50" s="9">
-        <v>8.9233787001327016</v>
-      </c>
-      <c r="D50" s="9">
-        <v>20.3579189338692</v>
-      </c>
-      <c r="E50" s="9">
-        <v>-0.9855135501359833</v>
-      </c>
-      <c r="F50" s="9">
-        <v>97.581498706207924</v>
-      </c>
-      <c r="G50" s="9">
-        <v>2.1361253710681529</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0.36764045740964058</v>
-      </c>
-      <c r="I50" s="9">
-        <v>4.4303864444632246E-3</v>
+      <c r="B50" s="13">
+        <v>7.3880506452588106</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.19911927605367929</v>
+      </c>
+      <c r="D50" s="13">
+        <v>20.189332270340319</v>
+      </c>
+      <c r="E50" s="13">
+        <v>-0.57182499519072927</v>
+      </c>
+      <c r="F50" s="13">
+        <v>98.265251931886823</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1.4657386218873349</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.17933963081722851</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2527,29 +2528,29 @@
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9">
-        <v>3.430604275408438</v>
-      </c>
-      <c r="C51" s="9">
-        <v>4.4814642290811886</v>
-      </c>
-      <c r="D51" s="9">
-        <v>13.216749526762131</v>
-      </c>
-      <c r="E51" s="9">
-        <v>-2.1514393138342731</v>
-      </c>
-      <c r="F51" s="9">
-        <v>98.770056781639255</v>
-      </c>
-      <c r="G51" s="9">
-        <v>1.085329616220007</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0.1215738199745303</v>
-      </c>
-      <c r="I51" s="9">
-        <v>2.3039782166226371E-2</v>
+      <c r="B51" s="13">
+        <v>-8.6439638464562873E-2</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.44089983856172238</v>
+      </c>
+      <c r="D51" s="13">
+        <v>17.499190992657589</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1.1840401005563701</v>
+      </c>
+      <c r="F51" s="13">
+        <v>98.948264552089469</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.96396248946561802</v>
+      </c>
+      <c r="H51" s="13">
+        <v>6.5829718833685297E-2</v>
+      </c>
+      <c r="I51" s="13">
+        <v>2.1943239611228429E-2</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2560,28 +2561,28 @@
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="9">
-        <v>7.693789321002015</v>
-      </c>
-      <c r="C52" s="9">
-        <v>-0.56801984315560994</v>
-      </c>
-      <c r="D52" s="9">
-        <v>17.294392848320278</v>
-      </c>
-      <c r="E52" s="9">
-        <v>-0.61330361121917976</v>
-      </c>
-      <c r="F52" s="9">
-        <v>98.43771504649682</v>
-      </c>
-      <c r="G52" s="9">
-        <v>1.5156495817567941</v>
-      </c>
-      <c r="H52" s="9">
-        <v>4.6635371746362883E-2</v>
-      </c>
-      <c r="I52" s="9">
+      <c r="B52" s="13">
+        <v>10.56331280212696</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0.63856251852525192</v>
+      </c>
+      <c r="D52" s="13">
+        <v>20.315797674188559</v>
+      </c>
+      <c r="E52" s="13">
+        <v>2.083536858994635</v>
+      </c>
+      <c r="F52" s="13">
+        <v>98.775353118574486</v>
+      </c>
+      <c r="G52" s="13">
+        <v>1.216895951796245</v>
+      </c>
+      <c r="H52" s="13">
+        <v>7.750929629275447E-3</v>
+      </c>
+      <c r="I52" s="13">
         <v>0</v>
       </c>
       <c r="J52" s="8"/>
@@ -2593,29 +2594,29 @@
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="9">
-        <v>10.257446249322591</v>
-      </c>
-      <c r="C53" s="9">
-        <v>8.9689618083847797</v>
-      </c>
-      <c r="D53" s="9">
-        <v>12.77519529085605</v>
-      </c>
-      <c r="E53" s="9">
-        <v>1.5498741357437671</v>
-      </c>
-      <c r="F53" s="9">
-        <v>99.243697478991606</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0.67226890756302526</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>8.4033613445378158E-2</v>
+      <c r="B53" s="13">
+        <v>-0.58398836028991097</v>
+      </c>
+      <c r="C53" s="13">
+        <v>-1.8124174373633559</v>
+      </c>
+      <c r="D53" s="13">
+        <v>10.934083799012241</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.46135797821145191</v>
+      </c>
+      <c r="F53" s="13">
+        <v>99.151823579304505</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.59372349448685324</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.2544529262086514</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2631,11 +2632,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4268F092-1B35-3B41-A7DA-0ECD6522FFC4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2644,23 +2645,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:Q5"/>
+  <dimension ref="A2:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -2709,8 +2710,14 @@
       <c r="Q4" s="5">
         <v>44016</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R4" s="5">
+        <v>44023</v>
+      </c>
+      <c r="S4" s="5">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -2758,6 +2765,12 @@
       </c>
       <c r="Q5" s="6">
         <v>0.38500000000000001</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.35700000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC29AB7D-BB4D-6942-A4CD-033FB4BD0189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F09AB08F-C908-844F-8080-324EE9887DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3560" windowWidth="35020" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,12 +294,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,7 +384,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,6 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,8 +414,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -745,160 +754,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>7.182131594674444</c:v>
+                  <c:v>1.952226714230219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0699334977116646</c:v>
+                  <c:v>0.92173287444541352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.89704396159677</c:v>
+                  <c:v>1.6109009222038171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4496423548841779</c:v>
+                  <c:v>4.0428409707538684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6220640735251246</c:v>
+                  <c:v>-0.3656504095981995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8024638302302822</c:v>
+                  <c:v>1.066680421632493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2351251047527834</c:v>
+                  <c:v>2.7416031909845779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3082320607377189</c:v>
+                  <c:v>4.8722050297272528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5925392102399343</c:v>
+                  <c:v>1.824526569249975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2</c:v>
+                  <c:v>1.6867000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.678654475615569</c:v>
+                  <c:v>3.6976566810100429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6333841407503211</c:v>
+                  <c:v>0.85765789170047335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.4</c:v>
+                  <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5897739721587323</c:v>
+                  <c:v>0.90397531552482302</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7061469513150129</c:v>
+                  <c:v>1.084444709735864</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0011892011473549</c:v>
+                  <c:v>1.3155841759421401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1421627409326023</c:v>
+                  <c:v>-3.3857023090733802E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0556767927575361</c:v>
+                  <c:v>1.1339414525998219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6927302393753321</c:v>
+                  <c:v>2.9471173091810901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.2057078568512329</c:v>
+                  <c:v>1.698513515310103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.606641929499073</c:v>
+                  <c:v>3.5139095255744999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5012369658556528</c:v>
+                  <c:v>1.7200992758057929</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6141355754072517</c:v>
+                  <c:v>4.5705902515723276</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6909690090531244</c:v>
+                  <c:v>2.853976959114358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0977583580367547</c:v>
+                  <c:v>-0.35076249485863709</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2454046893045598</c:v>
+                  <c:v>-0.6715656589898179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.0925920537711651</c:v>
+                  <c:v>3.6997261891173798E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.1</c:v>
+                  <c:v>-9.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8211160073263648</c:v>
+                  <c:v>2.3594707781631499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.8730564758989017</c:v>
+                  <c:v>3.656372797142176</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.9847512911117153</c:v>
+                  <c:v>3.901217438396968</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.1051307974837261</c:v>
+                  <c:v>1.7557482065236309</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.3164511095824363</c:v>
+                  <c:v>1.345882270796938</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.6621963030695772</c:v>
+                  <c:v>4.6367042716560203</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.543301673887477</c:v>
+                  <c:v>-2.512053672974583</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8390158737684938</c:v>
+                  <c:v>-0.41384953209198372</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.5037833564203051</c:v>
+                  <c:v>3.4079576584502052</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.5871894165134908</c:v>
+                  <c:v>1.983040472960746</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.9987135236899913</c:v>
+                  <c:v>4.0209003783698556</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2138451223600395</c:v>
+                  <c:v>3.2707898537226758</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>8.7900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0014269498946007</c:v>
+                  <c:v>1.422161443832956</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2694705403268776</c:v>
+                  <c:v>8.9057695083403055E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.1606707707202073</c:v>
+                  <c:v>1.479616139570489</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.8971505894804439</c:v>
+                  <c:v>4.5097040090413792E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.8</c:v>
+                  <c:v>3.726799999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.54993564993565</c:v>
+                  <c:v>3.5231043114543108</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.9608780975835014</c:v>
+                  <c:v>2.5975384144006131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.78425196850394</c:v>
+                  <c:v>3.668004172811659</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.0610765950567753</c:v>
+                  <c:v>-0.37215907946615512</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.2004958925773748</c:v>
+                  <c:v>-0.66961514013486523</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.3</c:v>
+                  <c:v>-5.8999999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,160 +1410,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.92876007738819211</c:v>
+                  <c:v>1.8816809396815011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.011871207653904</c:v>
+                  <c:v>-0.13684794955315249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7891723060905722</c:v>
+                  <c:v>1.5944195316392571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.02115301407443</c:v>
+                  <c:v>1.8687629395474969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.857241882840581</c:v>
+                  <c:v>-0.21154512843720161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7554689761360209</c:v>
+                  <c:v>4.9412887297431736</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.36619178738177888</c:v>
+                  <c:v>0.97588659549228962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.7728829523413498</c:v>
+                  <c:v>2.2058329381210382</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.30168700048458902</c:v>
+                  <c:v>-0.71507897940681897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8</c:v>
+                  <c:v>-0.85229999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10344826604216061</c:v>
+                  <c:v>3.1007717736790998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87001695881590357</c:v>
+                  <c:v>1.2442931006904361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.445243494719439</c:v>
+                  <c:v>-0.51896038999611593</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.4609577248970123E-2</c:v>
+                  <c:v>2.059336055689327</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35862798818494018</c:v>
+                  <c:v>1.3836458010305659</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.125743693918053</c:v>
+                  <c:v>3.278806632706547</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18545035632577819</c:v>
+                  <c:v>-0.44546958509614681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9921223457459658</c:v>
+                  <c:v>-0.57083325002379515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.70125557741213973</c:v>
+                  <c:v>-0.62481056998156903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6493506493506498</c:v>
+                  <c:v>2.3920596738324691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.561439378450215E-2</c:v>
+                  <c:v>-0.35240948592411259</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.31823436678928008</c:v>
+                  <c:v>1.976588836477988</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.46805123518739628</c:v>
+                  <c:v>0.90560901382307935</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34735147219181878</c:v>
+                  <c:v>-0.2130501858234348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.407137606983017</c:v>
+                  <c:v>-2.6188696749271898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.128222826480554</c:v>
+                  <c:v>0.18811453368439379</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.2</c:v>
+                  <c:v>-12.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.55734966971934485</c:v>
+                  <c:v>5.517907403754454</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.7747896778307144</c:v>
+                  <c:v>2.3116607333001529</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.84240282685512369</c:v>
+                  <c:v>1.4834379637151369</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.9344101441374619</c:v>
+                  <c:v>-0.27577313300434431</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.210525191929757</c:v>
+                  <c:v>2.9888207865388789</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.423310368769088</c:v>
+                  <c:v>1.882629026883506</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.1958867938428996</c:v>
+                  <c:v>1.865211027121678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.917205337632232</c:v>
+                  <c:v>-0.51352497947364284</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5845977602382462</c:v>
+                  <c:v>-0.3830916636220083</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.50105294508293641</c:v>
+                  <c:v>0.60589875885424127</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.76167241920301221</c:v>
+                  <c:v>0.79869746176887924</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1015085484411667</c:v>
+                  <c:v>1.232272042951843</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.3999999999999986</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.065380249716231</c:v>
+                  <c:v>-0.79210946908384594</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.3851167698482878</c:v>
+                  <c:v>-1.2343481117721229</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.60793745030012702</c:v>
+                  <c:v>0.96912108811170061</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.471860660589787</c:v>
+                  <c:v>5.7562279821459574</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.6</c:v>
+                  <c:v>1.0561</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3248391248391248</c:v>
+                  <c:v>2.1414968468468469</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36874326612282599</c:v>
+                  <c:v>0.1197955112983531</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.7338582677165354</c:v>
+                  <c:v>0.48709237442526238</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.62440781963251146</c:v>
+                  <c:v>0.92597965918349467</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0345050626290311</c:v>
+                  <c:v>0.38545703390716612</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.6</c:v>
+                  <c:v>-9.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,160 +2071,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.543912039881753</c:v>
+                  <c:v>1.4858257782428781</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.649550173010381</c:v>
+                  <c:v>0.79489501496721382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.28564009348221242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93095660003266567</c:v>
+                  <c:v>2.6258305484334659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74903126015323229</c:v>
+                  <c:v>0.66645866145839117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3124914075953473</c:v>
+                  <c:v>5.4751741780354184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6519214653417928</c:v>
+                  <c:v>2.7850118794684779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.194897111385903</c:v>
+                  <c:v>0.90535661506212473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81281448661144307</c:v>
+                  <c:v>1.0455667291188151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3</c:v>
+                  <c:v>0.70726915520599998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.05778935659065</c:v>
+                  <c:v>1.006799081740112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.231103335617947</c:v>
+                  <c:v>1.4543830932502031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1445691534194041</c:v>
+                  <c:v>0.19148508246355911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66341669515695256</c:v>
+                  <c:v>0.70817426939542294</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48114958519685341</c:v>
+                  <c:v>0.47408561105547931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.871280945030031E-2</c:v>
+                  <c:v>4.3761777562127832E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29804323719423093</c:v>
+                  <c:v>0.16688931933052881</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.101350177127197</c:v>
+                  <c:v>1.006190380895204</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97615678214525847</c:v>
+                  <c:v>0.63260642698065905</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.32148423005565863</c:v>
+                  <c:v>0.30041564370931401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.005172766305459</c:v>
+                  <c:v>0.7125504121618339</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96831318970047298</c:v>
+                  <c:v>0.69948790181621534</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.32568533194751198</c:v>
+                  <c:v>0.17101876605010141</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6067087236882186</c:v>
+                  <c:v>0.44598518800130649</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.62082116043099922</c:v>
+                  <c:v>0.28818617965387272</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.081573410826616</c:v>
+                  <c:v>0.86012890175247969</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.9903186768858412E-2</c:v>
+                  <c:v>0.58834338560514676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0604764411687291</c:v>
+                  <c:v>1.015059119496855</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47575428105463441</c:v>
+                  <c:v>0.38086996142046031</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.379577012043796</c:v>
+                  <c:v>1.0576684818707771</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.953987840829263</c:v>
+                  <c:v>2.4032291953466012</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.220446568705549</c:v>
+                  <c:v>1.0208197090178961</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.46118949031643</c:v>
+                  <c:v>1.264622817443823</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7790083848971241E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.002256900715857</c:v>
+                  <c:v>0.69851521178124309</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24594845388298159</c:v>
+                  <c:v>0.28329072350077578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0805145905240039</c:v>
+                  <c:v>1.0121698219366579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.52769024472008041</c:v>
+                  <c:v>0.49374888914639692</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.89164910004864617</c:v>
+                  <c:v>0.56467777387997586</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.39931592748831379</c:v>
+                  <c:v>0.1867615515124342</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.250207301041562</c:v>
+                  <c:v>0.82328893356332067</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.585089773536539</c:v>
+                  <c:v>1.8979374906461579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3</c:v>
+                  <c:v>1.078605200945</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.31872586872586872</c:v>
+                  <c:v>0.15414392726346529</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.55045405571802364</c:v>
+                  <c:v>0.54243718450119027</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.5228346456692909</c:v>
+                  <c:v>1.225596379651539</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.296952993028597</c:v>
+                  <c:v>0.99747928025338373</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.940579917154692</c:v>
+                  <c:v>1.261274230330673</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.8</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,43 +2730,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>9.4010750793182093E-2</c:v>
+                  <c:v>5.4600258989583497E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>8.1090260514783491E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15228198194286799</c:v>
+                  <c:v>0.17696810873265381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36153471977310442</c:v>
+                  <c:v>0.29236685578686311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16139807582056881</c:v>
+                  <c:v>6.9247236220964944E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>6.6388784738578878E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12745219366051511</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1443366508712392</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.7262569832402243E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12982039669762999</c:v>
+                  <c:v>7.6015847167901718E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7870030189393812E-2</c:v>
+                  <c:v>3.8643254915559839E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2766,40 +2775,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.944228419064549E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.435640472515015E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0321485907049529E-2</c:v>
+                  <c:v>2.0176951867881321E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10746607847069049</c:v>
+                  <c:v>1.033953705556667E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1179159279508601</c:v>
+                  <c:v>0.12584750838499581</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2.614863897822348E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.943772990015765E-2</c:v>
+                  <c:v>9.7076181428672956E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.7894386509873533E-2</c:v>
+                  <c:v>2.5955913351755601E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9362802051866346E-2</c:v>
+                  <c:v>3.9200877355929697E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0383515065444039E-2</c:v>
+                  <c:v>1.5154049855972679E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -2808,37 +2817,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2508554882863905E-2</c:v>
+                  <c:v>7.0631446540880508E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.8620957370760901E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.7337395826970597E-2</c:v>
+                  <c:v>5.1068703612935633E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.36968430762975069</c:v>
+                  <c:v>0.22871941013318581</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.6521506075509638E-2</c:v>
+                  <c:v>3.9378977358205468E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.4911222003017298E-2</c:v>
+                  <c:v>3.3983952833643782E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1026196398837813</c:v>
+                  <c:v>2.136345778536302E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4684263853379261E-2</c:v>
+                  <c:v>5.7660428128678859E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23961405710699721</c:v>
+                  <c:v>0.14548239909522551</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6150407866800761E-3</c:v>
+                  <c:v>1.1277227894505011E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -2847,34 +2856,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.6301447953483071E-2</c:v>
+                  <c:v>3.7352310302486848E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.8988775407017907E-2</c:v>
+                  <c:v>4.7308621686181537E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.12761518648640241</c:v>
+                  <c:v>0.1069391968430348</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1.4775413711E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.853598181563192E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.44764310943882E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18069436235936789</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2422654909378234</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2005541018931819E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.22877420893968639</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.7028995857734612E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3381,28 +3390,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.215813382424843E-2</c:v>
+                  <c:v>3.8589959309530972E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>1.0538224179912639E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8980063553496369E-2</c:v>
+                  <c:v>1.3210638502570021E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6993620414673049E-2</c:v>
+                  <c:v>2.0431237471166239E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1442326379736177E-2</c:v>
+                  <c:v>1.958613135973552E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7936070872740336E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7684128335224691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3411,13 +3420,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.619707790221173E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3435,16 +3444,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.6772063237942773E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.8942522132585854E-3</c:v>
+                  <c:v>9.855632961840716E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6.5371597438067114E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -3474,13 +3483,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.206542658427171E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.16898698358800229</c:v>
+                  <c:v>5.6399721016769142E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.5253498611846558E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -3492,10 +3501,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>1.3784632962010849E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>9.0926499434007563E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -3510,10 +3519,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>1.774073313213767E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.9807050356394889E-3</c:v>
+                  <c:v>2.8185502073370451E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3525,7 +3534,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.023622047244094E-2</c:v>
+                  <c:v>1.4235157418904489E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -3534,7 +3543,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4036,160 +4045,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>17.357636011930509</c:v>
+                  <c:v>14.335861002912781</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.95772233753641</c:v>
+                  <c:v>12.332954616955121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.624457308248921</c:v>
+                  <c:v>24.374095513748181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.7152403231756</c:v>
+                  <c:v>15.824208392410529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.574689971563132</c:v>
+                  <c:v>13.65554624509697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.124616475015131</c:v>
+                  <c:v>18.2067675568155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1742008859092543</c:v>
+                  <c:v>3.923657390340312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.70486221705503</c:v>
+                  <c:v>22.34768611469153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.024223047063821</c:v>
+                  <c:v>14.283581014273979</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5</c:v>
+                  <c:v>2.4593775588215099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.25536628347373</c:v>
+                  <c:v>13.404402473732659</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.582271901687839</c:v>
+                  <c:v>12.93757435989837</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.299999999999997</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1826344708221583</c:v>
+                  <c:v>2.6087179420844322</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.250302306694691</c:v>
+                  <c:v>7.7765717707038151</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.8158248254329017</c:v>
+                  <c:v>7.6588278871291982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4658736792224958</c:v>
+                  <c:v>-1.384450435201467</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.566742228939111</c:v>
+                  <c:v>9.965282033109121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.82400100506856</c:v>
+                  <c:v>14.75617730682297</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.73769718188154</c:v>
+                  <c:v>21.7053216764706</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.070834879406309</c:v>
+                  <c:v>19.460560678350468</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.51034553261092</c:v>
+                  <c:v>14.63957950216111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.28738833420914</c:v>
+                  <c:v>18.97671352001991</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.67431458611803</c:v>
+                  <c:v>12.20021387668401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.487872316126239</c:v>
+                  <c:v>14.389401862830541</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.427196859490021</c:v>
+                  <c:v>14.840330698529909</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.208016673240779</c:v>
+                  <c:v>9.6452059871731297</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.5</c:v>
+                  <c:v>-4.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.153526723670851</c:v>
+                  <c:v>7.8101154513315922</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.22843849235776</c:v>
+                  <c:v>15.42474054094588</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.169883120413161</c:v>
+                  <c:v>17.827272930030968</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.12231827805304</c:v>
+                  <c:v>13.849311605426429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.105046380685451</c:v>
+                  <c:v>21.272202821169909</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.967946516271329</c:v>
+                  <c:v>17.229939550267979</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25.134083170291341</c:v>
+                  <c:v>19.286998313900199</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.4168482349323614</c:v>
+                  <c:v>9.181666166164911</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.95838412263889</c:v>
+                  <c:v>14.18886933417409</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.02236399600573</c:v>
+                  <c:v>9.4882241286981639</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15.10321619077502</c:v>
+                  <c:v>14.353629396060571</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.8922784668678059</c:v>
+                  <c:v>8.5449072661289698</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.3</c:v>
+                  <c:v>26.18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>25.864164099237879</c:v>
+                  <c:v>19.94227693940185</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.065770739563</c:v>
+                  <c:v>11.89352908148301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.239920481101759</c:v>
+                  <c:v>14.32148199852768</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.412296168591769</c:v>
+                  <c:v>15.51616555567329</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.5</c:v>
+                  <c:v>7.6736206812886687</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.456177606177611</c:v>
+                  <c:v>14.69061888465513</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.818362321071261</c:v>
+                  <c:v>14.799316817071601</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.90787401574803</c:v>
+                  <c:v>12.986598646276279</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.293469030474828</c:v>
+                  <c:v>8.7594407443505933</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.015772778239651</c:v>
+                  <c:v>10.8168676237062</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.7</c:v>
+                  <c:v>-4.1000000000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4690,160 +4699,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>25.639348425295971</c:v>
+                  <c:v>27.085007606792619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.077796385151959</c:v>
+                  <c:v>19.70051821623181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.20410783055198</c:v>
+                  <c:v>30.872913992297811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.703116766429481</c:v>
+                  <c:v>49.972473747917661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.32809806519877</c:v>
+                  <c:v>18.777423104469211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.700539860631508</c:v>
+                  <c:v>40.66359414337969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.44676164252364</c:v>
+                  <c:v>25.104965942977831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.825975615000441</c:v>
+                  <c:v>29.184664245367468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.747340425156303</c:v>
+                  <c:v>30.814046297124261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.3</c:v>
+                  <c:v>27.943122335534799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.710974173962729</c:v>
+                  <c:v>22.053934071063431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.062850271525509</c:v>
+                  <c:v>28.35371873369159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.3</c:v>
+                  <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.08996155462162</c:v>
+                  <c:v>29.495957896197918</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.389106468192661</c:v>
+                  <c:v>28.72107482689022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.604587480983561</c:v>
+                  <c:v>21.177662917871341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.42683628656782</c:v>
+                  <c:v>17.751867757529109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.784716771955608</c:v>
+                  <c:v>24.327350727122461</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.179636481202579</c:v>
+                  <c:v>17.799402458622001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.16675632379987</c:v>
+                  <c:v>21.70910644580421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.392838589981437</c:v>
+                  <c:v>34.865822417264233</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.718217133510532</c:v>
+                  <c:v>28.525247825675532</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.382448765107721</c:v>
+                  <c:v>33.597117135719351</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.200939289980699</c:v>
+                  <c:v>19.776313553338959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.447696616449321</c:v>
+                  <c:v>25.246048911796301</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.190324464273331</c:v>
+                  <c:v>13.297902088571741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.971045484902969</c:v>
+                  <c:v>21.343614081599689</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.285995793276118</c:v>
+                  <c:v>26.396763341770871</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.893909081523219</c:v>
+                  <c:v>28.921658955041451</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.460940472954601</c:v>
+                  <c:v>32.214715571987497</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.394860582271988</c:v>
+                  <c:v>27.98871300604965</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.6759930811285</c:v>
+                  <c:v>32.311921812250773</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.023305601741701</c:v>
+                  <c:v>22.647336024162779</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.329493695275321</c:v>
+                  <c:v>25.877314550430061</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19.98940201332854</c:v>
+                  <c:v>20.755435445477641</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20.98393298820789</c:v>
+                  <c:v>17.515450672059512</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.97739899211965</c:v>
+                  <c:v>17.459591348152241</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23.681801066834009</c:v>
+                  <c:v>24.78401561023605</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.703084143479721</c:v>
+                  <c:v>23.712841656234911</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.11</c:v>
+                  <c:v>23.08</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29.244397600129719</c:v>
+                  <c:v>22.878868233520631</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.537035331729761</c:v>
+                  <c:v>24.422640481198389</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.673104387159071</c:v>
+                  <c:v>23.204049224603089</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.764683118276341</c:v>
+                  <c:v>33.20745361155906</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.8</c:v>
+                  <c:v>24.6651087614304</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.700514800514799</c:v>
+                  <c:v>29.713925743156981</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26.457041711559182</c:v>
+                  <c:v>25.39026060144764</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19.059055118110241</c:v>
+                  <c:v>19.352891181115279</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17.16305998902822</c:v>
+                  <c:v>16.6044719089744</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>22.485768498788811</c:v>
+                  <c:v>19.278544196633732</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.4</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9397,24 +9406,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="46" style="3" customWidth="1"/>
-    <col min="9" max="9" width="44.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9422,95 +9431,95 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14">
-        <v>17.357636011930509</v>
-      </c>
-      <c r="C2" s="14">
-        <v>7.182131594674444</v>
-      </c>
-      <c r="D2" s="14">
-        <v>25.639348425295971</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0.92876007738819211</v>
-      </c>
-      <c r="F2" s="14">
-        <v>98.350445184713195</v>
-      </c>
-      <c r="G2" s="14">
-        <v>1.543912039881753</v>
-      </c>
-      <c r="H2" s="14">
-        <v>9.4010750793182093E-2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1.215813382424843E-2</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="B2" s="17">
+        <v>14.335861002912781</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.952226714230219</v>
+      </c>
+      <c r="D2" s="17">
+        <v>27.085007606792619</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1.8816809396815011</v>
+      </c>
+      <c r="F2" s="17">
+        <v>98.448770971108942</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1.4858257782428781</v>
+      </c>
+      <c r="H2" s="17">
+        <v>5.4600258989583497E-2</v>
+      </c>
+      <c r="I2" s="17">
+        <v>3.8589959309530972E-3</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15">
-        <v>16.95772233753641</v>
-      </c>
-      <c r="C3" s="15">
-        <v>5.0699334977116646</v>
-      </c>
-      <c r="D3" s="15">
-        <v>21.077796385151959</v>
-      </c>
-      <c r="E3" s="15">
-        <v>-1.011871207653904</v>
-      </c>
-      <c r="F3" s="15">
-        <v>98.230449826989613</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1.649550173010381</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0.06</v>
+      <c r="B3" s="18">
+        <v>12.332954616955121</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.92173287444541352</v>
+      </c>
+      <c r="D3" s="18">
+        <v>19.70051821623181</v>
+      </c>
+      <c r="E3" s="18">
+        <v>-0.13684794955315249</v>
+      </c>
+      <c r="F3" s="18">
+        <v>99.12401472451748</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.79489501496721382</v>
+      </c>
+      <c r="H3" s="18">
+        <v>8.1090260514783491E-2</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1.0538224179912639E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -9521,28 +9530,28 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15">
-        <v>31.624457308248921</v>
-      </c>
-      <c r="C4" s="15">
-        <v>14.89704396159677</v>
-      </c>
-      <c r="D4" s="15">
-        <v>29.20410783055198</v>
-      </c>
-      <c r="E4" s="15">
-        <v>4.7891723060905722</v>
-      </c>
-      <c r="F4" s="15">
-        <v>99.428571428571431</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="B4" s="18">
+        <v>24.374095513748181</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.6109009222038171</v>
+      </c>
+      <c r="D4" s="18">
+        <v>30.872913992297811</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1.5944195316392571</v>
+      </c>
+      <c r="F4" s="18">
+        <v>99.714359906517785</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.28564009348221242</v>
+      </c>
+      <c r="H4" s="18">
         <v>0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="18">
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
@@ -9554,29 +9563,29 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15">
-        <v>19.7152403231756</v>
-      </c>
-      <c r="C5" s="15">
-        <v>9.4496423548841779</v>
-      </c>
-      <c r="D5" s="15">
-        <v>44.703116766429481</v>
-      </c>
-      <c r="E5" s="15">
-        <v>12.02115301407443</v>
-      </c>
-      <c r="F5" s="15">
-        <v>98.883536212467988</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0.93095660003266567</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.15228198194286799</v>
-      </c>
-      <c r="I5" s="15">
-        <v>3.8980063553496369E-2</v>
+      <c r="B5" s="18">
+        <v>15.824208392410529</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4.0428409707538684</v>
+      </c>
+      <c r="D5" s="18">
+        <v>49.972473747917661</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1.8687629395474969</v>
+      </c>
+      <c r="F5" s="18">
+        <v>97.18399070433118</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2.6258305484334659</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.17696810873265381</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.3210638502570021E-2</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -9587,29 +9596,29 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15">
-        <v>17.574689971563132</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6.6220640735251246</v>
-      </c>
-      <c r="D6" s="15">
-        <v>19.32809806519877</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1.857241882840581</v>
-      </c>
-      <c r="F6" s="15">
-        <v>98.889434020073665</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.74903126015323229</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.36153471977310442</v>
-      </c>
-      <c r="I6" s="15">
-        <v>2.6993620414673049E-2</v>
+      <c r="B6" s="18">
+        <v>13.65554624509697</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-0.3656504095981995</v>
+      </c>
+      <c r="D6" s="18">
+        <v>18.777423104469211</v>
+      </c>
+      <c r="E6" s="18">
+        <v>-0.21154512843720161</v>
+      </c>
+      <c r="F6" s="18">
+        <v>99.020743245283299</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.66645866145839117</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.29236685578686311</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2.0431237471166239E-2</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -9620,29 +9629,29 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15">
-        <v>25.124616475015131</v>
-      </c>
-      <c r="C7" s="15">
-        <v>8.8024638302302822</v>
-      </c>
-      <c r="D7" s="15">
-        <v>34.700539860631508</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1.7554689761360209</v>
-      </c>
-      <c r="F7" s="15">
-        <v>94.474668190204341</v>
-      </c>
-      <c r="G7" s="15">
-        <v>5.3124914075953473</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.16139807582056881</v>
-      </c>
-      <c r="I7" s="15">
-        <v>5.1442326379736177E-2</v>
+      <c r="B7" s="18">
+        <v>18.2067675568155</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.066680421632493</v>
+      </c>
+      <c r="D7" s="18">
+        <v>40.66359414337969</v>
+      </c>
+      <c r="E7" s="18">
+        <v>4.9412887297431736</v>
+      </c>
+      <c r="F7" s="18">
+        <v>94.453619972606788</v>
+      </c>
+      <c r="G7" s="18">
+        <v>5.4751741780354184</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6.9247236220964944E-2</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1.958613135973552E-3</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -9653,29 +9662,29 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15">
-        <v>6.1742008859092543</v>
-      </c>
-      <c r="C8" s="15">
-        <v>7.2351251047527834</v>
-      </c>
-      <c r="D8" s="15">
-        <v>23.44676164252364</v>
-      </c>
-      <c r="E8" s="15">
-        <v>-0.36619178738177888</v>
-      </c>
-      <c r="F8" s="15">
-        <v>97.348078534658214</v>
-      </c>
-      <c r="G8" s="15">
-        <v>2.6519214653417928</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="B8" s="18">
+        <v>3.923657390340312</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2.7416031909845779</v>
+      </c>
+      <c r="D8" s="18">
+        <v>25.104965942977831</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.97588659549228962</v>
+      </c>
+      <c r="F8" s="18">
+        <v>97.208349242055803</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2.7850118794684779</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6.6388784738578878E-3</v>
+      </c>
+      <c r="I8" s="18">
         <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>7.7936070872740336E-3</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -9686,29 +9695,29 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15">
-        <v>13.70486221705503</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1.3082320607377189</v>
-      </c>
-      <c r="D9" s="15">
-        <v>21.825975615000441</v>
-      </c>
-      <c r="E9" s="15">
-        <v>-5.7728829523413498</v>
-      </c>
-      <c r="F9" s="15">
-        <v>98.633082109407638</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1.194897111385903</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.1443366508712392</v>
-      </c>
-      <c r="I9" s="15">
-        <v>2.7684128335224691E-2</v>
+      <c r="B9" s="18">
+        <v>22.34768611469153</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4.8722050297272528</v>
+      </c>
+      <c r="D9" s="18">
+        <v>29.184664245367468</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2.2058329381210382</v>
+      </c>
+      <c r="F9" s="18">
+        <v>98.967191191276754</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.90535661506212473</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.12745219366051511</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -9719,28 +9728,28 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15">
-        <v>16.024223047063821</v>
-      </c>
-      <c r="C10" s="15">
-        <v>7.5925392102399343</v>
-      </c>
-      <c r="D10" s="15">
-        <v>32.747340425156303</v>
-      </c>
-      <c r="E10" s="15">
-        <v>-0.30168700048458902</v>
-      </c>
-      <c r="F10" s="15">
-        <v>99.187185513388556</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.81281448661144307</v>
-      </c>
-      <c r="H10" s="15">
-        <v>8.7262569832402243E-2</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="B10" s="18">
+        <v>14.283581014273979</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1.824526569249975</v>
+      </c>
+      <c r="D10" s="18">
+        <v>30.814046297124261</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-0.71507897940681897</v>
+      </c>
+      <c r="F10" s="18">
+        <v>98.954433270880301</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1.0455667291188151</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
@@ -9752,28 +9761,28 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15">
-        <v>3.5</v>
-      </c>
-      <c r="C11" s="15">
-        <v>6.2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>30.3</v>
-      </c>
-      <c r="E11" s="15">
-        <v>-1.8</v>
-      </c>
-      <c r="F11" s="15">
-        <v>98.7</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="B11" s="18">
+        <v>2.4593775588215099</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1.6867000000000001</v>
+      </c>
+      <c r="D11" s="18">
+        <v>27.943122335534799</v>
+      </c>
+      <c r="E11" s="18">
+        <v>-0.85229999999999995</v>
+      </c>
+      <c r="F11" s="18">
+        <v>99.292730844792999</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.70726915520599998</v>
+      </c>
+      <c r="H11" s="18">
         <v>0</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="18">
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
@@ -9785,29 +9794,29 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15">
-        <v>16.25536628347373</v>
-      </c>
-      <c r="C12" s="15">
-        <v>5.678654475615569</v>
-      </c>
-      <c r="D12" s="15">
-        <v>21.710974173962729</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.10344826604216061</v>
-      </c>
-      <c r="F12" s="15">
-        <v>98.812390246711715</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1.05778935659065</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0.12982039669762999</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0</v>
+      <c r="B12" s="18">
+        <v>13.404402473732659</v>
+      </c>
+      <c r="C12" s="18">
+        <v>3.6976566810100429</v>
+      </c>
+      <c r="D12" s="18">
+        <v>22.053934071063431</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3.1007717736790998</v>
+      </c>
+      <c r="F12" s="18">
+        <v>98.917185071090771</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1.006799081740112</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7.6015847167901718E-2</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1.619707790221173E-3</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -9818,28 +9827,28 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15">
-        <v>15.582271901687839</v>
-      </c>
-      <c r="C13" s="15">
-        <v>6.6333841407503211</v>
-      </c>
-      <c r="D13" s="15">
-        <v>27.062850271525509</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.87001695881590357</v>
-      </c>
-      <c r="F13" s="15">
-        <v>98.736350866274577</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1.231103335617947</v>
-      </c>
-      <c r="H13" s="15">
-        <v>1.7870030189393812E-2</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="B13" s="18">
+        <v>12.93757435989837</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.85765789170047335</v>
+      </c>
+      <c r="D13" s="18">
+        <v>28.35371873369159</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.2442931006904361</v>
+      </c>
+      <c r="F13" s="18">
+        <v>98.527046320812659</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1.4543830932502031</v>
+      </c>
+      <c r="H13" s="18">
+        <v>3.8643254915559839E-3</v>
+      </c>
+      <c r="I13" s="18">
         <v>0</v>
       </c>
       <c r="J13" s="8"/>
@@ -9851,29 +9860,29 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="C14" s="15">
-        <v>-2.4</v>
-      </c>
-      <c r="D14" s="15">
-        <v>19.3</v>
-      </c>
-      <c r="E14" s="15">
-        <v>-1.4</v>
-      </c>
-      <c r="F14" s="15">
-        <v>94.199999999999989</v>
-      </c>
-      <c r="G14" s="15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0.5</v>
+      <c r="B14" s="18">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-3.5</v>
+      </c>
+      <c r="D14" s="18">
+        <v>20.8</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="18">
+        <v>97.2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.1</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -9884,28 +9893,28 @@
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15">
-        <v>4.1826344708221583</v>
-      </c>
-      <c r="C15" s="15">
-        <v>6.5897739721587323</v>
-      </c>
-      <c r="D15" s="15">
-        <v>28.08996155462162</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1.445243494719439</v>
-      </c>
-      <c r="F15" s="15">
-        <v>99.855430846580589</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0.1445691534194041</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="B15" s="18">
+        <v>2.6087179420844322</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.90397531552482302</v>
+      </c>
+      <c r="D15" s="18">
+        <v>29.495957896197918</v>
+      </c>
+      <c r="E15" s="18">
+        <v>-0.51896038999611593</v>
+      </c>
+      <c r="F15" s="18">
+        <v>99.808514917536428</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.19148508246355911</v>
+      </c>
+      <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="18">
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
@@ -9917,28 +9926,28 @@
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15">
-        <v>10.250302306694691</v>
-      </c>
-      <c r="C16" s="15">
-        <v>7.7061469513150129</v>
-      </c>
-      <c r="D16" s="15">
-        <v>27.389106468192661</v>
-      </c>
-      <c r="E16" s="15">
-        <v>9.4609577248970123E-2</v>
-      </c>
-      <c r="F16" s="15">
-        <v>99.33658330484306</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0.66341669515695256</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="B16" s="18">
+        <v>7.7765717707038151</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1.084444709735864</v>
+      </c>
+      <c r="D16" s="18">
+        <v>28.72107482689022</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2.059336055689327</v>
+      </c>
+      <c r="F16" s="18">
+        <v>99.291825730603719</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.70817426939542294</v>
+      </c>
+      <c r="H16" s="18">
         <v>0</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="18">
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
@@ -9950,28 +9959,28 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15">
-        <v>9.8158248254329017</v>
-      </c>
-      <c r="C17" s="15">
-        <v>6.0011892011473549</v>
-      </c>
-      <c r="D17" s="15">
-        <v>20.604587480983561</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.35862798818494018</v>
-      </c>
-      <c r="F17" s="15">
-        <v>99.518850414803154</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0.48114958519685341</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1.944228419064549E-2</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="B17" s="18">
+        <v>7.6588278871291982</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1.3155841759421401</v>
+      </c>
+      <c r="D17" s="18">
+        <v>21.177662917871341</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.3836458010305659</v>
+      </c>
+      <c r="F17" s="18">
+        <v>99.525914388943775</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.47408561105547931</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
@@ -9983,28 +9992,28 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="15">
-        <v>2.4658736792224958</v>
-      </c>
-      <c r="C18" s="15">
-        <v>5.1421627409326023</v>
-      </c>
-      <c r="D18" s="15">
-        <v>21.42683628656782</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1.125743693918053</v>
-      </c>
-      <c r="F18" s="15">
-        <v>99.956930785824554</v>
-      </c>
-      <c r="G18" s="15">
-        <v>2.871280945030031E-2</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1.435640472515015E-2</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="B18" s="18">
+        <v>-1.384450435201467</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-3.3857023090733802E-2</v>
+      </c>
+      <c r="D18" s="18">
+        <v>17.751867757529109</v>
+      </c>
+      <c r="E18" s="18">
+        <v>3.278806632706547</v>
+      </c>
+      <c r="F18" s="18">
+        <v>99.956238222437875</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4.3761777562127832E-2</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
         <v>0</v>
       </c>
       <c r="J18" s="8"/>
@@ -10016,28 +10025,28 @@
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15">
-        <v>14.566742228939111</v>
-      </c>
-      <c r="C19" s="15">
-        <v>6.0556767927575361</v>
-      </c>
-      <c r="D19" s="15">
-        <v>23.784716771955608</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.18545035632577819</v>
-      </c>
-      <c r="F19" s="15">
-        <v>99.681635276898703</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.29804323719423093</v>
-      </c>
-      <c r="H19" s="15">
-        <v>2.0321485907049529E-2</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="B19" s="18">
+        <v>9.965282033109121</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1.1339414525998219</v>
+      </c>
+      <c r="D19" s="18">
+        <v>24.327350727122461</v>
+      </c>
+      <c r="E19" s="18">
+        <v>-0.44546958509614681</v>
+      </c>
+      <c r="F19" s="18">
+        <v>99.812933728801596</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.16688931933052881</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2.0176951867881321E-2</v>
+      </c>
+      <c r="I19" s="18">
         <v>0</v>
       </c>
       <c r="J19" s="8"/>
@@ -10049,29 +10058,29 @@
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15">
-        <v>16.82400100506856</v>
-      </c>
-      <c r="C20" s="15">
-        <v>5.6927302393753321</v>
-      </c>
-      <c r="D20" s="15">
-        <v>19.179636481202579</v>
-      </c>
-      <c r="E20" s="15">
-        <v>3.9921223457459658</v>
-      </c>
-      <c r="F20" s="15">
-        <v>98.791183744402119</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1.101350177127197</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0.10746607847069049</v>
-      </c>
-      <c r="I20" s="15">
-        <v>0</v>
+      <c r="B20" s="18">
+        <v>14.75617730682297</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2.9471173091810901</v>
+      </c>
+      <c r="D20" s="18">
+        <v>17.799402458622001</v>
+      </c>
+      <c r="E20" s="18">
+        <v>-0.57083325002379515</v>
+      </c>
+      <c r="F20" s="18">
+        <v>98.896698018811293</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1.006190380895204</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1.033953705556667E-2</v>
+      </c>
+      <c r="I20" s="18">
+        <v>8.6772063237942773E-2</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -10082,29 +10091,29 @@
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="15">
-        <v>25.73769718188154</v>
-      </c>
-      <c r="C21" s="15">
-        <v>4.2057078568512329</v>
-      </c>
-      <c r="D21" s="15">
-        <v>23.16675632379987</v>
-      </c>
-      <c r="E21" s="15">
-        <v>-0.70125557741213973</v>
-      </c>
-      <c r="F21" s="15">
-        <v>98.896033037690614</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0.97615678214525847</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0.1179159279508601</v>
-      </c>
-      <c r="I21" s="15">
-        <v>9.8942522132585854E-3</v>
+      <c r="B21" s="18">
+        <v>21.7053216764706</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1.698513515310103</v>
+      </c>
+      <c r="D21" s="18">
+        <v>21.70910644580421</v>
+      </c>
+      <c r="E21" s="18">
+        <v>-0.62481056998156903</v>
+      </c>
+      <c r="F21" s="18">
+        <v>99.231690431672376</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.63260642698065905</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.12584750838499581</v>
+      </c>
+      <c r="I21" s="18">
+        <v>9.855632961840716E-3</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -10115,28 +10124,28 @@
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="15">
-        <v>23.070834879406309</v>
-      </c>
-      <c r="C22" s="15">
-        <v>9.606641929499073</v>
-      </c>
-      <c r="D22" s="15">
-        <v>34.392838589981437</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2.6493506493506498</v>
-      </c>
-      <c r="F22" s="15">
-        <v>99.678515769944354</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.32148423005565863</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="B22" s="18">
+        <v>19.460560678350468</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3.5139095255744999</v>
+      </c>
+      <c r="D22" s="18">
+        <v>34.865822417264233</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2.3920596738324691</v>
+      </c>
+      <c r="F22" s="18">
+        <v>99.699584356290615</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.30041564370931401</v>
+      </c>
+      <c r="H22" s="18">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="18">
         <v>0</v>
       </c>
       <c r="J22" s="8"/>
@@ -10148,29 +10157,29 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15">
-        <v>16.51034553261092</v>
-      </c>
-      <c r="C23" s="15">
-        <v>7.5012369658556528</v>
-      </c>
-      <c r="D23" s="15">
-        <v>29.718217133510532</v>
-      </c>
-      <c r="E23" s="15">
-        <v>9.561439378450215E-2</v>
-      </c>
-      <c r="F23" s="15">
-        <v>98.994827233694537</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1.005172766305459</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
+      <c r="B23" s="18">
+        <v>14.63957950216111</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1.7200992758057929</v>
+      </c>
+      <c r="D23" s="18">
+        <v>28.525247825675532</v>
+      </c>
+      <c r="E23" s="18">
+        <v>-0.35240948592411259</v>
+      </c>
+      <c r="F23" s="18">
+        <v>99.261300948858931</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.7125504121618339</v>
+      </c>
+      <c r="H23" s="18">
+        <v>2.614863897822348E-2</v>
+      </c>
+      <c r="I23" s="18">
+        <v>6.5371597438067114E-3</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -10181,28 +10190,28 @@
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="15">
-        <v>19.28738833420914</v>
-      </c>
-      <c r="C24" s="15">
-        <v>9.6141355754072517</v>
-      </c>
-      <c r="D24" s="15">
-        <v>29.382448765107721</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0.31823436678928008</v>
-      </c>
-      <c r="F24" s="15">
-        <v>98.942249080399378</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.96831318970047298</v>
-      </c>
-      <c r="H24" s="15">
-        <v>8.943772990015765E-2</v>
-      </c>
-      <c r="I24" s="15">
+      <c r="B24" s="18">
+        <v>18.97671352001991</v>
+      </c>
+      <c r="C24" s="18">
+        <v>4.5705902515723276</v>
+      </c>
+      <c r="D24" s="18">
+        <v>33.597117135719351</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1.976588836477988</v>
+      </c>
+      <c r="F24" s="18">
+        <v>99.203435916753321</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.69948790181621534</v>
+      </c>
+      <c r="H24" s="18">
+        <v>9.7076181428672956E-2</v>
+      </c>
+      <c r="I24" s="18">
         <v>0</v>
       </c>
       <c r="J24" s="8"/>
@@ -10214,28 +10223,28 @@
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="15">
-        <v>14.67431458611803</v>
-      </c>
-      <c r="C25" s="15">
-        <v>7.6909690090531244</v>
-      </c>
-      <c r="D25" s="15">
-        <v>22.200939289980699</v>
-      </c>
-      <c r="E25" s="15">
-        <v>-0.46805123518739628</v>
-      </c>
-      <c r="F25" s="15">
-        <v>99.605794465376121</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.32568533194751198</v>
-      </c>
-      <c r="H25" s="15">
+      <c r="B25" s="18">
+        <v>12.20021387668401</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2.853976959114358</v>
+      </c>
+      <c r="D25" s="18">
+        <v>19.776313553338959</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.90560901382307935</v>
+      </c>
+      <c r="F25" s="18">
+        <v>99.828981233949207</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.17101876605010141</v>
+      </c>
+      <c r="H25" s="18">
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="18">
         <v>0</v>
       </c>
       <c r="J25" s="8"/>
@@ -10247,28 +10256,28 @@
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="15">
-        <v>17.487872316126239</v>
-      </c>
-      <c r="C26" s="15">
-        <v>8.0977583580367547</v>
-      </c>
-      <c r="D26" s="15">
-        <v>24.447696616449321</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.34735147219181878</v>
-      </c>
-      <c r="F26" s="15">
-        <v>99.325396889801894</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0.6067087236882186</v>
-      </c>
-      <c r="H26" s="15">
-        <v>6.7894386509873533E-2</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="B26" s="18">
+        <v>14.389401862830541</v>
+      </c>
+      <c r="C26" s="18">
+        <v>-0.35076249485863709</v>
+      </c>
+      <c r="D26" s="18">
+        <v>25.246048911796301</v>
+      </c>
+      <c r="E26" s="18">
+        <v>-0.2130501858234348</v>
+      </c>
+      <c r="F26" s="18">
+        <v>99.52805889864625</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.44598518800130649</v>
+      </c>
+      <c r="H26" s="18">
+        <v>2.5955913351755601E-2</v>
+      </c>
+      <c r="I26" s="18">
         <v>0</v>
       </c>
       <c r="J26" s="8"/>
@@ -10280,28 +10289,28 @@
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="15">
-        <v>18.427196859490021</v>
-      </c>
-      <c r="C27" s="15">
-        <v>4.2454046893045598</v>
-      </c>
-      <c r="D27" s="15">
-        <v>18.190324464273331</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1.407137606983017</v>
-      </c>
-      <c r="F27" s="15">
-        <v>99.309816037517152</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0.62082116043099922</v>
-      </c>
-      <c r="H27" s="15">
-        <v>6.9362802051866346E-2</v>
-      </c>
-      <c r="I27" s="15">
+      <c r="B27" s="18">
+        <v>14.840330698529909</v>
+      </c>
+      <c r="C27" s="18">
+        <v>-0.6715656589898179</v>
+      </c>
+      <c r="D27" s="18">
+        <v>13.297902088571741</v>
+      </c>
+      <c r="E27" s="18">
+        <v>-2.6188696749271898</v>
+      </c>
+      <c r="F27" s="18">
+        <v>99.672612942989701</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.28818617965387272</v>
+      </c>
+      <c r="H27" s="18">
+        <v>3.9200877355929697E-2</v>
+      </c>
+      <c r="I27" s="18">
         <v>0</v>
       </c>
       <c r="J27" s="8"/>
@@ -10313,28 +10322,28 @@
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="15">
-        <v>13.208016673240779</v>
-      </c>
-      <c r="C28" s="15">
-        <v>5.0925920537711651</v>
-      </c>
-      <c r="D28" s="15">
-        <v>21.971045484902969</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0.128222826480554</v>
-      </c>
-      <c r="F28" s="15">
-        <v>98.888043074107941</v>
-      </c>
-      <c r="G28" s="15">
-        <v>1.081573410826616</v>
-      </c>
-      <c r="H28" s="15">
-        <v>3.0383515065444039E-2</v>
-      </c>
-      <c r="I28" s="15">
+      <c r="B28" s="18">
+        <v>9.6452059871731297</v>
+      </c>
+      <c r="C28" s="18">
+        <v>3.6997261891173798E-2</v>
+      </c>
+      <c r="D28" s="18">
+        <v>21.343614081599689</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.18811453368439379</v>
+      </c>
+      <c r="F28" s="18">
+        <v>99.124717048391474</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0.86012890175247969</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1.5154049855972679E-2</v>
+      </c>
+      <c r="I28" s="18">
         <v>0</v>
       </c>
       <c r="J28" s="8"/>
@@ -10346,28 +10355,28 @@
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="15">
-        <v>10.5</v>
-      </c>
-      <c r="C29" s="15">
-        <v>8.1</v>
-      </c>
-      <c r="D29" s="15">
-        <v>25.1</v>
-      </c>
-      <c r="E29" s="15">
-        <v>5.2</v>
-      </c>
-      <c r="F29" s="15">
-        <v>98.6</v>
-      </c>
-      <c r="G29" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="H29" s="15">
+      <c r="B29" s="18">
+        <v>-4.3</v>
+      </c>
+      <c r="C29" s="18">
+        <v>-9.1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>9</v>
+      </c>
+      <c r="E29" s="18">
+        <v>-12.4</v>
+      </c>
+      <c r="F29" s="18">
+        <v>99</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H29" s="18">
         <v>0</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="18">
         <v>0</v>
       </c>
       <c r="J29" s="8"/>
@@ -10379,28 +10388,28 @@
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="15">
-        <v>12.153526723670851</v>
-      </c>
-      <c r="C30" s="15">
-        <v>2.8211160073263648</v>
-      </c>
-      <c r="D30" s="15">
-        <v>17.285995793276118</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0.55734966971934485</v>
-      </c>
-      <c r="F30" s="15">
-        <v>99.94009681323115</v>
-      </c>
-      <c r="G30" s="15">
-        <v>5.9903186768858412E-2</v>
-      </c>
-      <c r="H30" s="15">
+      <c r="B30" s="18">
+        <v>7.8101154513315922</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2.3594707781631499</v>
+      </c>
+      <c r="D30" s="18">
+        <v>26.396763341770871</v>
+      </c>
+      <c r="E30" s="18">
+        <v>5.517907403754454</v>
+      </c>
+      <c r="F30" s="18">
+        <v>99.411656614394857</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.58834338560514676</v>
+      </c>
+      <c r="H30" s="18">
         <v>0</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="18">
         <v>0</v>
       </c>
       <c r="J30" s="8"/>
@@ -10412,28 +10421,28 @@
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15">
-        <v>19.22843849235776</v>
-      </c>
-      <c r="C31" s="15">
-        <v>6.8730564758989017</v>
-      </c>
-      <c r="D31" s="15">
-        <v>29.893909081523219</v>
-      </c>
-      <c r="E31" s="15">
-        <v>4.7747896778307144</v>
-      </c>
-      <c r="F31" s="15">
-        <v>98.857015003948405</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1.0604764411687291</v>
-      </c>
-      <c r="H31" s="15">
-        <v>8.2508554882863905E-2</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="B31" s="18">
+        <v>15.42474054094588</v>
+      </c>
+      <c r="C31" s="18">
+        <v>3.656372797142176</v>
+      </c>
+      <c r="D31" s="18">
+        <v>28.921658955041451</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2.3116607333001529</v>
+      </c>
+      <c r="F31" s="18">
+        <v>98.886108176100635</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1.015059119496855</v>
+      </c>
+      <c r="H31" s="18">
+        <v>7.0631446540880508E-2</v>
+      </c>
+      <c r="I31" s="18">
         <v>0</v>
       </c>
       <c r="J31" s="8"/>
@@ -10445,28 +10454,28 @@
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="15">
-        <v>19.169883120413161</v>
-      </c>
-      <c r="C32" s="15">
-        <v>9.9847512911117153</v>
-      </c>
-      <c r="D32" s="15">
-        <v>31.460940472954601</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0.84240282685512369</v>
-      </c>
-      <c r="F32" s="15">
-        <v>99.524245718945366</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0.47575428105463441</v>
-      </c>
-      <c r="H32" s="15">
-        <v>0</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="B32" s="18">
+        <v>17.827272930030968</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3.901217438396968</v>
+      </c>
+      <c r="D32" s="18">
+        <v>32.214715571987497</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1.4834379637151369</v>
+      </c>
+      <c r="F32" s="18">
+        <v>99.570509081207035</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0.38086996142046031</v>
+      </c>
+      <c r="H32" s="18">
+        <v>4.8620957370760901E-2</v>
+      </c>
+      <c r="I32" s="18">
         <v>0</v>
       </c>
       <c r="J32" s="8"/>
@@ -10478,29 +10487,29 @@
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="15">
-        <v>15.12231827805304</v>
-      </c>
-      <c r="C33" s="15">
-        <v>7.1051307974837261</v>
-      </c>
-      <c r="D33" s="15">
-        <v>27.394860582271988</v>
-      </c>
-      <c r="E33" s="15">
-        <v>-1.9344101441374619</v>
-      </c>
-      <c r="F33" s="15">
-        <v>98.549879049470803</v>
-      </c>
-      <c r="G33" s="15">
-        <v>1.379577012043796</v>
-      </c>
-      <c r="H33" s="15">
-        <v>6.7337395826970597E-2</v>
-      </c>
-      <c r="I33" s="15">
-        <v>3.206542658427171E-3</v>
+      <c r="B33" s="18">
+        <v>13.849311605426429</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1.7557482065236309</v>
+      </c>
+      <c r="D33" s="18">
+        <v>27.98871300604965</v>
+      </c>
+      <c r="E33" s="18">
+        <v>-0.27577313300434431</v>
+      </c>
+      <c r="F33" s="18">
+        <v>98.891262814515713</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1.0576684818707771</v>
+      </c>
+      <c r="H33" s="18">
+        <v>5.1068703612935633E-2</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -10511,29 +10520,29 @@
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="15">
-        <v>24.105046380685451</v>
-      </c>
-      <c r="C34" s="15">
-        <v>8.3164511095824363</v>
-      </c>
-      <c r="D34" s="15">
-        <v>26.6759930811285</v>
-      </c>
-      <c r="E34" s="15">
-        <v>1.210525191929757</v>
-      </c>
-      <c r="F34" s="15">
-        <v>97.676327851540989</v>
-      </c>
-      <c r="G34" s="15">
-        <v>1.953987840829263</v>
-      </c>
-      <c r="H34" s="15">
-        <v>0.36968430762975069</v>
-      </c>
-      <c r="I34" s="15">
-        <v>0.16898698358800229</v>
+      <c r="B34" s="18">
+        <v>21.272202821169909</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1.345882270796938</v>
+      </c>
+      <c r="D34" s="18">
+        <v>32.311921812250773</v>
+      </c>
+      <c r="E34" s="18">
+        <v>2.9888207865388789</v>
+      </c>
+      <c r="F34" s="18">
+        <v>97.36805139451937</v>
+      </c>
+      <c r="G34" s="18">
+        <v>2.4032291953466012</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.22871941013318581</v>
+      </c>
+      <c r="I34" s="18">
+        <v>5.6399721016769142E-2</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -10544,29 +10553,29 @@
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="15">
-        <v>15.967946516271329</v>
-      </c>
-      <c r="C35" s="15">
-        <v>6.6621963030695772</v>
-      </c>
-      <c r="D35" s="15">
-        <v>22.023305601741701</v>
-      </c>
-      <c r="E35" s="15">
-        <v>1.423310368769088</v>
-      </c>
-      <c r="F35" s="15">
-        <v>98.689506575357768</v>
-      </c>
-      <c r="G35" s="15">
-        <v>1.220446568705549</v>
-      </c>
-      <c r="H35" s="15">
-        <v>8.6521506075509638E-2</v>
-      </c>
-      <c r="I35" s="15">
-        <v>3.5253498611846558E-3</v>
+      <c r="B35" s="18">
+        <v>17.229939550267979</v>
+      </c>
+      <c r="C35" s="18">
+        <v>4.6367042716560203</v>
+      </c>
+      <c r="D35" s="18">
+        <v>22.647336024162779</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1.882629026883506</v>
+      </c>
+      <c r="F35" s="18">
+        <v>98.879490816348465</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1.0208197090178961</v>
+      </c>
+      <c r="H35" s="18">
+        <v>3.9378977358205468E-2</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -10577,28 +10586,28 @@
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="15">
-        <v>25.134083170291341</v>
-      </c>
-      <c r="C36" s="15">
-        <v>9.543301673887477</v>
-      </c>
-      <c r="D36" s="15">
-        <v>27.329493695275321</v>
-      </c>
-      <c r="E36" s="15">
-        <v>5.1958867938428996</v>
-      </c>
-      <c r="F36" s="15">
-        <v>98.443899287680551</v>
-      </c>
-      <c r="G36" s="15">
-        <v>1.46118949031643</v>
-      </c>
-      <c r="H36" s="15">
-        <v>9.4911222003017298E-2</v>
-      </c>
-      <c r="I36" s="15">
+      <c r="B36" s="18">
+        <v>19.286998313900199</v>
+      </c>
+      <c r="C36" s="18">
+        <v>-2.512053672974583</v>
+      </c>
+      <c r="D36" s="18">
+        <v>25.877314550430061</v>
+      </c>
+      <c r="E36" s="18">
+        <v>1.865211027121678</v>
+      </c>
+      <c r="F36" s="18">
+        <v>98.637052844204064</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1.264622817443823</v>
+      </c>
+      <c r="H36" s="18">
+        <v>3.3983952833643782E-3</v>
+      </c>
+      <c r="I36" s="18">
         <v>0</v>
       </c>
       <c r="J36" s="8"/>
@@ -10610,28 +10619,28 @@
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="15">
-        <v>9.4168482349323614</v>
-      </c>
-      <c r="C37" s="15">
-        <v>3.8390158737684938</v>
-      </c>
-      <c r="D37" s="15">
-        <v>19.98940201332854</v>
-      </c>
-      <c r="E37" s="15">
-        <v>1.917205337632232</v>
-      </c>
-      <c r="F37" s="15">
-        <v>99.97220991615103</v>
-      </c>
-      <c r="G37" s="15">
-        <v>2.7790083848971241E-2</v>
-      </c>
-      <c r="H37" s="15">
+      <c r="B37" s="18">
+        <v>9.181666166164911</v>
+      </c>
+      <c r="C37" s="18">
+        <v>-0.41384953209198372</v>
+      </c>
+      <c r="D37" s="18">
+        <v>20.755435445477641</v>
+      </c>
+      <c r="E37" s="18">
+        <v>-0.51352497947364284</v>
+      </c>
+      <c r="F37" s="18">
+        <v>100</v>
+      </c>
+      <c r="G37" s="18">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="18">
         <v>0</v>
       </c>
       <c r="J37" s="8"/>
@@ -10643,28 +10652,28 @@
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="15">
-        <v>17.95838412263889</v>
-      </c>
-      <c r="C38" s="15">
-        <v>5.5037833564203051</v>
-      </c>
-      <c r="D38" s="15">
-        <v>20.98393298820789</v>
-      </c>
-      <c r="E38" s="15">
-        <v>3.5845977602382462</v>
-      </c>
-      <c r="F38" s="15">
-        <v>98.895123459400367</v>
-      </c>
-      <c r="G38" s="15">
-        <v>1.002256900715857</v>
-      </c>
-      <c r="H38" s="15">
-        <v>0.1026196398837813</v>
-      </c>
-      <c r="I38" s="15">
+      <c r="B38" s="18">
+        <v>14.18886933417409</v>
+      </c>
+      <c r="C38" s="18">
+        <v>3.4079576584502052</v>
+      </c>
+      <c r="D38" s="18">
+        <v>17.515450672059512</v>
+      </c>
+      <c r="E38" s="18">
+        <v>-0.3830916636220083</v>
+      </c>
+      <c r="F38" s="18">
+        <v>99.28012133043336</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0.69851521178124309</v>
+      </c>
+      <c r="H38" s="18">
+        <v>2.136345778536302E-2</v>
+      </c>
+      <c r="I38" s="18">
         <v>0</v>
       </c>
       <c r="J38" s="8"/>
@@ -10676,29 +10685,29 @@
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="15">
-        <v>16.02236399600573</v>
-      </c>
-      <c r="C39" s="15">
-        <v>8.5871894165134908</v>
-      </c>
-      <c r="D39" s="15">
-        <v>16.97739899211965</v>
-      </c>
-      <c r="E39" s="15">
-        <v>0.50105294508293641</v>
-      </c>
-      <c r="F39" s="15">
-        <v>99.739367282263643</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0.24594845388298159</v>
-      </c>
-      <c r="H39" s="15">
-        <v>1.4684263853379261E-2</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
+      <c r="B39" s="18">
+        <v>9.4882241286981639</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1.983040472960746</v>
+      </c>
+      <c r="D39" s="18">
+        <v>17.459591348152241</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0.60589875885424127</v>
+      </c>
+      <c r="F39" s="18">
+        <v>99.645264215408531</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0.28329072350077578</v>
+      </c>
+      <c r="H39" s="18">
+        <v>5.7660428128678859E-2</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1.3784632962010849E-2</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -10709,29 +10718,29 @@
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="15">
-        <v>15.10321619077502</v>
-      </c>
-      <c r="C40" s="15">
-        <v>8.9987135236899913</v>
-      </c>
-      <c r="D40" s="15">
-        <v>23.681801066834009</v>
-      </c>
-      <c r="E40" s="15">
-        <v>0.76167241920301221</v>
-      </c>
-      <c r="F40" s="15">
-        <v>98.679871352369005</v>
-      </c>
-      <c r="G40" s="15">
-        <v>1.0805145905240039</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0.23961405710699721</v>
-      </c>
-      <c r="I40" s="15">
-        <v>0</v>
+      <c r="B40" s="18">
+        <v>14.353629396060571</v>
+      </c>
+      <c r="C40" s="18">
+        <v>4.0209003783698556</v>
+      </c>
+      <c r="D40" s="18">
+        <v>24.78401561023605</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.79869746176887924</v>
+      </c>
+      <c r="F40" s="18">
+        <v>98.842347778967309</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1.0121698219366579</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0.14548239909522551</v>
+      </c>
+      <c r="I40" s="18">
+        <v>9.0926499434007563E-3</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -10742,28 +10751,28 @@
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="15">
-        <v>7.8922784668678059</v>
-      </c>
-      <c r="C41" s="15">
-        <v>8.2138451223600395</v>
-      </c>
-      <c r="D41" s="15">
-        <v>20.703084143479721</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0.1015085484411667</v>
-      </c>
-      <c r="F41" s="15">
-        <v>99.467694714493234</v>
-      </c>
-      <c r="G41" s="15">
-        <v>0.52769024472008041</v>
-      </c>
-      <c r="H41" s="15">
-        <v>4.6150407866800761E-3</v>
-      </c>
-      <c r="I41" s="15">
+      <c r="B41" s="18">
+        <v>8.5449072661289698</v>
+      </c>
+      <c r="C41" s="18">
+        <v>3.2707898537226758</v>
+      </c>
+      <c r="D41" s="18">
+        <v>23.712841656234911</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1.232272042951843</v>
+      </c>
+      <c r="F41" s="18">
+        <v>99.494973882957183</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0.49374888914639692</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1.1277227894505011E-2</v>
+      </c>
+      <c r="I41" s="18">
         <v>0</v>
       </c>
       <c r="J41" s="8"/>
@@ -10775,28 +10784,28 @@
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="15">
-        <v>16.3</v>
-      </c>
-      <c r="C42" s="15">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D42" s="15">
-        <v>30.11</v>
-      </c>
-      <c r="E42" s="15">
-        <v>7.3999999999999986</v>
-      </c>
-      <c r="F42" s="15">
-        <v>99.86</v>
-      </c>
-      <c r="G42" s="15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H42" s="15">
+      <c r="B42" s="18">
+        <v>26.18</v>
+      </c>
+      <c r="C42" s="18">
+        <v>8.7900000000000009</v>
+      </c>
+      <c r="D42" s="18">
+        <v>23.08</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="F42" s="18">
+        <v>99.76</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="H42" s="18">
         <v>0</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="18">
         <v>0</v>
       </c>
       <c r="J42" s="8"/>
@@ -10808,28 +10817,28 @@
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="15">
-        <v>25.864164099237879</v>
-      </c>
-      <c r="C43" s="15">
-        <v>9.0014269498946007</v>
-      </c>
-      <c r="D43" s="15">
-        <v>29.244397600129719</v>
-      </c>
-      <c r="E43" s="15">
-        <v>4.065380249716231</v>
-      </c>
-      <c r="F43" s="15">
-        <v>99.02362574995945</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0.89164910004864617</v>
-      </c>
-      <c r="H43" s="15">
+      <c r="B43" s="18">
+        <v>19.94227693940185</v>
+      </c>
+      <c r="C43" s="18">
+        <v>1.422161443832956</v>
+      </c>
+      <c r="D43" s="18">
+        <v>22.878868233520631</v>
+      </c>
+      <c r="E43" s="18">
+        <v>-0.79210946908384594</v>
+      </c>
+      <c r="F43" s="18">
+        <v>99.435322226119865</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0.56467777387997586</v>
+      </c>
+      <c r="H43" s="18">
         <v>0</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="18">
         <v>0</v>
       </c>
       <c r="J43" s="8"/>
@@ -10841,28 +10850,28 @@
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="15">
-        <v>12.065770739563</v>
-      </c>
-      <c r="C44" s="15">
-        <v>4.2694705403268776</v>
-      </c>
-      <c r="D44" s="15">
-        <v>24.537035331729761</v>
-      </c>
-      <c r="E44" s="15">
-        <v>2.3851167698482878</v>
-      </c>
-      <c r="F44" s="15">
-        <v>99.56438262455822</v>
-      </c>
-      <c r="G44" s="15">
-        <v>0.39931592748831379</v>
-      </c>
-      <c r="H44" s="15">
-        <v>3.6301447953483071E-2</v>
-      </c>
-      <c r="I44" s="15">
+      <c r="B44" s="18">
+        <v>11.89352908148301</v>
+      </c>
+      <c r="C44" s="18">
+        <v>8.9057695083403055E-2</v>
+      </c>
+      <c r="D44" s="18">
+        <v>24.422640481198389</v>
+      </c>
+      <c r="E44" s="18">
+        <v>-1.2343481117721229</v>
+      </c>
+      <c r="F44" s="18">
+        <v>99.775886138185072</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0.1867615515124342</v>
+      </c>
+      <c r="H44" s="18">
+        <v>3.7352310302486848E-2</v>
+      </c>
+      <c r="I44" s="18">
         <v>0</v>
       </c>
       <c r="J44" s="8"/>
@@ -10874,29 +10883,29 @@
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="15">
-        <v>16.239920481101759</v>
-      </c>
-      <c r="C45" s="15">
-        <v>6.1606707707202073</v>
-      </c>
-      <c r="D45" s="15">
-        <v>23.673104387159071</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0.60793745030012702</v>
-      </c>
-      <c r="F45" s="15">
-        <v>98.650803923551422</v>
-      </c>
-      <c r="G45" s="15">
-        <v>1.250207301041562</v>
-      </c>
-      <c r="H45" s="15">
-        <v>9.8988775407017907E-2</v>
-      </c>
-      <c r="I45" s="15">
-        <v>0</v>
+      <c r="B45" s="18">
+        <v>14.32148199852768</v>
+      </c>
+      <c r="C45" s="18">
+        <v>1.479616139570489</v>
+      </c>
+      <c r="D45" s="18">
+        <v>23.204049224603089</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0.96912108811170061</v>
+      </c>
+      <c r="F45" s="18">
+        <v>99.129402444749772</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0.82328893356332067</v>
+      </c>
+      <c r="H45" s="18">
+        <v>4.7308621686181537E-2</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1.774073313213767E-2</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -10907,29 +10916,29 @@
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="15">
-        <v>23.412296168591769</v>
-      </c>
-      <c r="C46" s="15">
-        <v>5.8971505894804439</v>
-      </c>
-      <c r="D46" s="15">
-        <v>25.764683118276341</v>
-      </c>
-      <c r="E46" s="15">
-        <v>-1.471860660589787</v>
-      </c>
-      <c r="F46" s="15">
-        <v>98.315260347598723</v>
-      </c>
-      <c r="G46" s="15">
-        <v>1.585089773536539</v>
-      </c>
-      <c r="H46" s="15">
-        <v>0.12761518648640241</v>
-      </c>
-      <c r="I46" s="15">
-        <v>2.9807050356394889E-3</v>
+      <c r="B46" s="18">
+        <v>15.51616555567329</v>
+      </c>
+      <c r="C46" s="18">
+        <v>4.5097040090413792E-2</v>
+      </c>
+      <c r="D46" s="18">
+        <v>33.20745361155906</v>
+      </c>
+      <c r="E46" s="18">
+        <v>5.7562279821459574</v>
+      </c>
+      <c r="F46" s="18">
+        <v>97.992304762303164</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1.8979374906461579</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0.1069391968430348</v>
+      </c>
+      <c r="I46" s="18">
+        <v>2.8185502073370451E-3</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -10940,28 +10949,28 @@
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="15">
-        <v>8.5</v>
-      </c>
-      <c r="C47" s="15">
-        <v>7.8</v>
-      </c>
-      <c r="D47" s="15">
-        <v>23.8</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="F47" s="15">
-        <v>98.7</v>
-      </c>
-      <c r="G47" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
+      <c r="B47" s="18">
+        <v>7.6736206812886687</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3.726799999999999</v>
+      </c>
+      <c r="D47" s="18">
+        <v>24.6651087614304</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1.0561</v>
+      </c>
+      <c r="F47" s="18">
+        <v>98.906619385341997</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1.078605200945</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1.4775413711E-2</v>
+      </c>
+      <c r="I47" s="18">
         <v>0</v>
       </c>
       <c r="J47" s="8"/>
@@ -10973,28 +10982,28 @@
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="15">
-        <v>17.456177606177611</v>
-      </c>
-      <c r="C48" s="15">
-        <v>11.54993564993565</v>
-      </c>
-      <c r="D48" s="15">
-        <v>27.700514800514799</v>
-      </c>
-      <c r="E48" s="15">
-        <v>0.3248391248391248</v>
-      </c>
-      <c r="F48" s="15">
-        <v>99.681274131274137</v>
-      </c>
-      <c r="G48" s="15">
-        <v>0.31872586872586872</v>
-      </c>
-      <c r="H48" s="15">
-        <v>0</v>
-      </c>
-      <c r="I48" s="15">
+      <c r="B48" s="18">
+        <v>14.69061888465513</v>
+      </c>
+      <c r="C48" s="18">
+        <v>3.5231043114543108</v>
+      </c>
+      <c r="D48" s="18">
+        <v>29.713925743156981</v>
+      </c>
+      <c r="E48" s="18">
+        <v>2.1414968468468469</v>
+      </c>
+      <c r="F48" s="18">
+        <v>99.807320090919973</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0.15414392726346529</v>
+      </c>
+      <c r="H48" s="18">
+        <v>3.853598181563192E-2</v>
+      </c>
+      <c r="I48" s="18">
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -11006,28 +11015,28 @@
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="15">
-        <v>14.818362321071261</v>
-      </c>
-      <c r="C49" s="15">
-        <v>7.9608780975835014</v>
-      </c>
-      <c r="D49" s="15">
-        <v>26.457041711559182</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0.36874326612282599</v>
-      </c>
-      <c r="F49" s="15">
-        <v>99.437540403263043</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0.55045405571802364</v>
-      </c>
-      <c r="H49" s="15">
-        <v>1.2005541018931819E-2</v>
-      </c>
-      <c r="I49" s="15">
+      <c r="B49" s="18">
+        <v>14.799316817071601</v>
+      </c>
+      <c r="C49" s="18">
+        <v>2.5975384144006131</v>
+      </c>
+      <c r="D49" s="18">
+        <v>25.39026060144764</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0.1197955112983531</v>
+      </c>
+      <c r="F49" s="18">
+        <v>99.443086384403017</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0.54243718450119027</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1.44764310943882E-2</v>
+      </c>
+      <c r="I49" s="18">
         <v>0</v>
       </c>
       <c r="J49" s="8"/>
@@ -11039,29 +11048,29 @@
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="15">
-        <v>13.90787401574803</v>
-      </c>
-      <c r="C50" s="15">
-        <v>10.78425196850394</v>
-      </c>
-      <c r="D50" s="15">
-        <v>19.059055118110241</v>
-      </c>
-      <c r="E50" s="15">
-        <v>-0.7338582677165354</v>
-      </c>
-      <c r="F50" s="15">
-        <v>98.066929133858252</v>
-      </c>
-      <c r="G50" s="15">
-        <v>1.5228346456692909</v>
-      </c>
-      <c r="H50" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="I50" s="15">
-        <v>1.023622047244094E-2</v>
+      <c r="B50" s="18">
+        <v>12.986598646276279</v>
+      </c>
+      <c r="C50" s="18">
+        <v>3.668004172811659</v>
+      </c>
+      <c r="D50" s="18">
+        <v>19.352891181115279</v>
+      </c>
+      <c r="E50" s="18">
+        <v>0.48709237442526238</v>
+      </c>
+      <c r="F50" s="18">
+        <v>98.583836784663788</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1.225596379651539</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0.18069436235936789</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1.4235157418904489E-2</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -11072,28 +11081,28 @@
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="15">
-        <v>9.293469030474828</v>
-      </c>
-      <c r="C51" s="15">
-        <v>8.0610765950567753</v>
-      </c>
-      <c r="D51" s="15">
-        <v>17.16305998902822</v>
-      </c>
-      <c r="E51" s="15">
-        <v>0.62440781963251146</v>
-      </c>
-      <c r="F51" s="15">
-        <v>98.528581188054389</v>
-      </c>
-      <c r="G51" s="15">
-        <v>1.296952993028597</v>
-      </c>
-      <c r="H51" s="15">
-        <v>0.22877420893968639</v>
-      </c>
-      <c r="I51" s="15">
+      <c r="B51" s="18">
+        <v>8.7594407443505933</v>
+      </c>
+      <c r="C51" s="18">
+        <v>-0.37215907946615512</v>
+      </c>
+      <c r="D51" s="18">
+        <v>16.6044719089744</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0.92597965918349467</v>
+      </c>
+      <c r="F51" s="18">
+        <v>98.760255228808248</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0.99747928025338373</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0.2422654909378234</v>
+      </c>
+      <c r="I51" s="18">
         <v>0</v>
       </c>
       <c r="J51" s="8"/>
@@ -11105,28 +11114,28 @@
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="15">
-        <v>17.015772778239651</v>
-      </c>
-      <c r="C52" s="15">
-        <v>5.2004958925773748</v>
-      </c>
-      <c r="D52" s="15">
-        <v>22.485768498788811</v>
-      </c>
-      <c r="E52" s="15">
-        <v>6.0345050626290311</v>
-      </c>
-      <c r="F52" s="15">
-        <v>97.962391086987566</v>
-      </c>
-      <c r="G52" s="15">
-        <v>1.940579917154692</v>
-      </c>
-      <c r="H52" s="15">
-        <v>9.7028995857734612E-2</v>
-      </c>
-      <c r="I52" s="15">
+      <c r="B52" s="18">
+        <v>10.8168676237062</v>
+      </c>
+      <c r="C52" s="18">
+        <v>-0.66961514013486523</v>
+      </c>
+      <c r="D52" s="18">
+        <v>19.278544196633732</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0.38545703390716612</v>
+      </c>
+      <c r="F52" s="18">
+        <v>98.73872576966933</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1.261274230330673</v>
+      </c>
+      <c r="H52" s="18">
+        <v>0</v>
+      </c>
+      <c r="I52" s="18">
         <v>0</v>
       </c>
       <c r="J52" s="8"/>
@@ -11138,34 +11147,44 @@
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="15">
-        <v>10.7</v>
-      </c>
-      <c r="C53" s="15">
-        <v>11.3</v>
-      </c>
-      <c r="D53" s="15">
-        <v>14.4</v>
-      </c>
-      <c r="E53" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="F53" s="15">
-        <v>99</v>
-      </c>
-      <c r="G53" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="H53" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="I53" s="15">
-        <v>0.2</v>
+      <c r="B53" s="18">
+        <v>-4.1000000000000014</v>
+      </c>
+      <c r="C53" s="18">
+        <v>-5.8999999999999986</v>
+      </c>
+      <c r="D53" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="E53" s="18">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F53" s="18">
+        <v>99.7</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11176,11 +11195,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B108-7690-FA48-BD1F-70BA8E6E6932}">
   <dimension ref="A51:A100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11240,23 +11259,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:V5"/>
+  <dimension ref="A2:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
-    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -11320,8 +11339,14 @@
       <c r="V4" s="5">
         <v>44051</v>
       </c>
+      <c r="W4" s="5">
+        <v>44058</v>
+      </c>
+      <c r="X4" s="5">
+        <v>44065</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -11384,6 +11409,12 @@
       </c>
       <c r="V5" s="6">
         <v>0.39900000000000002</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.35874357300000004</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0.35906673899999997</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F09AB08F-C908-844F-8080-324EE9887DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2986796-A612-C644-BAE4-04F8D2794234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3560" windowWidth="35020" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -384,7 +384,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,9 +414,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -754,160 +753,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.952226714230219</c:v>
+                  <c:v>0.53719406125724678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92173287444541352</c:v>
+                  <c:v>-0.42180947895130011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6109009222038171</c:v>
+                  <c:v>-0.79176334106728641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0428409707538684</c:v>
+                  <c:v>0.72284247735372764</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.3656504095981995</c:v>
+                  <c:v>-1.50427366816823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.066680421632493</c:v>
+                  <c:v>1.24234557359271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7416031909845779</c:v>
+                  <c:v>4.0128768137448718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8722050297272528</c:v>
+                  <c:v>-1.718439174515235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.824526569249975</c:v>
+                  <c:v>-1.766899025919658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6867000000000001</c:v>
+                  <c:v>-1.1727000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6976566810100429</c:v>
+                  <c:v>1.130864143732156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.85765789170047335</c:v>
+                  <c:v>-0.79273477790786673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.5</c:v>
+                  <c:v>-2.9548769886801112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90397531552482302</c:v>
+                  <c:v>0.42542962858347122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.084444709735864</c:v>
+                  <c:v>2.112696275487262</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3155841759421401</c:v>
+                  <c:v>0.98534933479601916</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.3857023090733802E-2</c:v>
+                  <c:v>4.8798262481298371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1339414525998219</c:v>
+                  <c:v>0.20413982693167859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9471173091810901</c:v>
+                  <c:v>-1.30867006440745</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.698513515310103</c:v>
+                  <c:v>-1.0153174522557731</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5139095255744999</c:v>
+                  <c:v>0.5669145032379459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7200992758057929</c:v>
+                  <c:v>-2.525613591969289</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5705902515723276</c:v>
+                  <c:v>-1.6316684577520559</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.853976959114358</c:v>
+                  <c:v>1.4411947132094201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.35076249485863709</c:v>
+                  <c:v>3.6404055557457911</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.6715656589898179</c:v>
+                  <c:v>-1.7859499017115601</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6997261891173798E-2</c:v>
+                  <c:v>0.45341550232779382</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.1</c:v>
+                  <c:v>5.8507642650719616</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3594707781631499</c:v>
+                  <c:v>5.6022428693824988</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.656372797142176</c:v>
+                  <c:v>2.0328948389916022</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.901217438396968</c:v>
+                  <c:v>-1.786930424412015</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7557482065236309</c:v>
+                  <c:v>-1.839011582718526</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.345882270796938</c:v>
+                  <c:v>2.4458119433260621</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.6367042716560203</c:v>
+                  <c:v>0.60741480033274731</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.512053672974583</c:v>
+                  <c:v>-2.501284826996002E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.41384953209198372</c:v>
+                  <c:v>2.0636257263859221</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4079576584502052</c:v>
+                  <c:v>4.7601926013044054</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.983040472960746</c:v>
+                  <c:v>-1.399823498465391</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0209003783698556</c:v>
+                  <c:v>4.4540554371375336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2707898537226758</c:v>
+                  <c:v>-1.890034099134531</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.7900000000000009</c:v>
+                  <c:v>-2.04</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.422161443832956</c:v>
+                  <c:v>0.68889068526813868</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.9057695083403055E-2</c:v>
+                  <c:v>2.7646197773752541</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.479616139570489</c:v>
+                  <c:v>-2.1754762228969771</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.5097040090413792E-2</c:v>
+                  <c:v>8.0417270682251241E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.726799999999999</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.5231043114543108</c:v>
+                  <c:v>-2.2747308944543438</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.5975384144006131</c:v>
+                  <c:v>-1.514792543182321</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.668004172811659</c:v>
+                  <c:v>1.298911693075538</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.37215907946615512</c:v>
+                  <c:v>-3.1804161424176671</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.66961514013486523</c:v>
+                  <c:v>4.3476436041499156</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-5.8999999999999986</c:v>
+                  <c:v>4.5662341421449426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,7 +985,6 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
           <c:min val="-15"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1410,160 +1408,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.8816809396815011</c:v>
+                  <c:v>1.045451072141397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13684794955315249</c:v>
+                  <c:v>0.91000081625281593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5944195316392571</c:v>
+                  <c:v>2.303921568627465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8687629395474969</c:v>
+                  <c:v>-1.635180234678199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.21154512843720161</c:v>
+                  <c:v>0.60574238761477428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9412887297431736</c:v>
+                  <c:v>-0.83511344447209845</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97588659549228962</c:v>
+                  <c:v>0.50124165392354514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2058329381210382</c:v>
+                  <c:v>0.31212386840548773</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.71507897940681897</c:v>
+                  <c:v>0.78325339466374788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.85229999999999995</c:v>
+                  <c:v>0.65229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1007717736790998</c:v>
+                  <c:v>-0.54728149026706119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2442931006904361</c:v>
+                  <c:v>-0.82417399502062083</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4</c:v>
+                  <c:v>0.3808307436285352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.51896038999611593</c:v>
+                  <c:v>0.15784279250870731</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.059336055689327</c:v>
+                  <c:v>3.085663023811009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3836458010305659</c:v>
+                  <c:v>0.56496582254215011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.278806632706547</c:v>
+                  <c:v>4.3665488172045643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.44546958509614681</c:v>
+                  <c:v>6.4933639463858936</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.57083325002379515</c:v>
+                  <c:v>1.4042625958340131E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.62481056998156903</c:v>
+                  <c:v>3.281164845037571</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3920596738324691</c:v>
+                  <c:v>-0.8102945353309936</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.35240948592411259</c:v>
+                  <c:v>1.9917757368483899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.976588836477988</c:v>
+                  <c:v>1.299873406245305</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.90560901382307935</c:v>
+                  <c:v>5.6570001391335261</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.2130501858234348</c:v>
+                  <c:v>1.6400208274025689</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.6188696749271898</c:v>
+                  <c:v>7.4826012428242883E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18811453368439379</c:v>
+                  <c:v>0.25182292890347707</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-12.4</c:v>
+                  <c:v>1.197498959329901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.517907403754454</c:v>
+                  <c:v>3.4384015495528142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3116607333001529</c:v>
+                  <c:v>5.5417323224512698</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4834379637151369</c:v>
+                  <c:v>8.3502593597329575E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.27577313300434431</c:v>
+                  <c:v>4.7705521238631574</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.9888207865388789</c:v>
+                  <c:v>0.67605056238363703</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.882629026883506</c:v>
+                  <c:v>1.534113105180499</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.865211027121678</c:v>
+                  <c:v>-0.33090728312977957</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.51352497947364284</c:v>
+                  <c:v>-1.5049649902150879</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.3830916636220083</c:v>
+                  <c:v>1.4605871156188099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.60589875885424127</c:v>
+                  <c:v>-0.84010455688754349</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.79869746176887924</c:v>
+                  <c:v>3.6859605468809571</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.232272042951843</c:v>
+                  <c:v>0.92337273764729466</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.36</c:v>
+                  <c:v>-1.77</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.79210946908384594</c:v>
+                  <c:v>0.38619962831605692</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.2343481117721229</c:v>
+                  <c:v>-5.5279298958511323</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.96912108811170061</c:v>
+                  <c:v>-1.4492588362161309</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.7562279821459574</c:v>
+                  <c:v>-0.52111210834570398</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0561</c:v>
+                  <c:v>-1.2989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1414968468468469</c:v>
+                  <c:v>-0.16531437552908479</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1197955112983531</c:v>
+                  <c:v>7.0460393089048043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.48709237442526238</c:v>
+                  <c:v>2.0542255531865758</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.92597965918349467</c:v>
+                  <c:v>0.41180709062849669</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.38545703390716612</c:v>
+                  <c:v>3.7995706029058791</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-9.8000000000000007</c:v>
+                  <c:v>5.2311297212587649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,7 +1640,6 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
           <c:min val="-15"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2071,160 +2068,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.4858257782428781</c:v>
+                  <c:v>1.766148956815528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79489501496721382</c:v>
+                  <c:v>0.66622966626365032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28564009348221242</c:v>
+                  <c:v>0.20773824980524541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6258305484334659</c:v>
+                  <c:v>1.901783494437765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66645866145839117</c:v>
+                  <c:v>0.57301908281410929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4751741780354184</c:v>
+                  <c:v>6.0648474900473914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7850118794684779</c:v>
+                  <c:v>3.9949235141122008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90535661506212473</c:v>
+                  <c:v>0.95342704905542286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0455667291188151</c:v>
+                  <c:v>1.1230184361985129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70726915520599998</c:v>
+                  <c:v>3.1004709576130001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.006799081740112</c:v>
+                  <c:v>1.047746214852012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4543830932502031</c:v>
+                  <c:v>1.0884949771217689</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5</c:v>
+                  <c:v>3.5383319292333608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19148508246355911</c:v>
+                  <c:v>0.2390871078826845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.70817426939542294</c:v>
+                  <c:v>1.6000835293917131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47408561105547931</c:v>
+                  <c:v>0.31758727231093581</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3761777562127832E-2</c:v>
+                  <c:v>4.3070055280376801E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16688931933052881</c:v>
+                  <c:v>0.29644090107098492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.006190380895204</c:v>
+                  <c:v>0.79232753174093828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63260642698065905</c:v>
+                  <c:v>0.45737466695504359</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30041564370931401</c:v>
+                  <c:v>0.14973939585912979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7125504121618339</c:v>
+                  <c:v>2.012917744804696</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.69948790181621534</c:v>
+                  <c:v>0.61559446765036419</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.17101876605010141</c:v>
+                  <c:v>0.32060016634107819</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.44598518800130649</c:v>
+                  <c:v>0.81470855205571446</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28818617965387272</c:v>
+                  <c:v>0.25517579355921638</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.86012890175247969</c:v>
+                  <c:v>1.430363810928476</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.7225433526011561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.58834338560514676</c:v>
+                  <c:v>0.4168557730723132</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.015059119496855</c:v>
+                  <c:v>1.8434057630773899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38086996142046031</c:v>
+                  <c:v>0.64442731680039578</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0576684818707771</c:v>
+                  <c:v>1.7087605892513289</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4032291953466012</c:v>
+                  <c:v>2.8112016885705202</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0208197090178961</c:v>
+                  <c:v>1.1917783418487129</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.264622817443823</c:v>
+                  <c:v>1.2012900256041941</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.69851521178124309</c:v>
+                  <c:v>0.57414877870570513</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.28329072350077578</c:v>
+                  <c:v>0.19667342972015869</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0121698219366579</c:v>
+                  <c:v>1.748179235809922</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.49374888914639692</c:v>
+                  <c:v>0.93773951240323727</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.24</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.56467777387997586</c:v>
+                  <c:v>0.57013916275954712</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1867615515124342</c:v>
+                  <c:v>0.38137332280978692</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.82328893356332067</c:v>
+                  <c:v>0.73137594433155062</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.8979374906461579</c:v>
+                  <c:v>2.1311342991361748</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.078605200945</c:v>
+                  <c:v>1.2481644640230001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.15414392726346529</c:v>
+                  <c:v>0.269751872710361</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.54243718450119027</c:v>
+                  <c:v>0.97046991703114116</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.225596379651539</c:v>
+                  <c:v>2.095453016970414</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99747928025338373</c:v>
+                  <c:v>1.036016459472938</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.261274230330673</c:v>
+                  <c:v>2.1351984104658812</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3</c:v>
+                  <c:v>0.50251256281407031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,28 +2727,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>5.4600258989583497E-2</c:v>
+                  <c:v>5.9225283918314289E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1090260514783491E-2</c:v>
+                  <c:v>1.9779514181900281E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17696810873265381</c:v>
+                  <c:v>0.13623863035819719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29236685578686311</c:v>
+                  <c:v>0.18192495492942709</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9247236220964944E-2</c:v>
+                  <c:v>6.2425799089399457E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6388784738578878E-3</c:v>
+                  <c:v>1.30443057380059E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12745219366051511</c:v>
+                  <c:v>0.15448251810510169</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2760,19 +2757,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6015847167901718E-2</c:v>
+                  <c:v>6.5605029580785595E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8643254915559839E-3</c:v>
+                  <c:v>3.8494707220106841E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>6.3184498736310019E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6.008166257789084E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2781,34 +2778,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0176951867881321E-2</c:v>
+                  <c:v>4.182686581762772E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.033953705556667E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12584750838499581</c:v>
+                  <c:v>7.0719425855825871E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.614863897822348E-2</c:v>
+                  <c:v>6.3699928625315528E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7076181428672956E-2</c:v>
+                  <c:v>6.9111226723445371E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1.0909811561664229E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0982870993809648E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5955913351755601E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.9200877355929697E-2</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5154049855972679E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -2817,70 +2814,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0631446540880508E-2</c:v>
+                  <c:v>3.4354578230026522E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.8620957370760901E-2</c:v>
+                  <c:v>4.8520388997202429E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.1068703612935633E-2</c:v>
+                  <c:v>2.381103993983882E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.22871941013318581</c:v>
+                  <c:v>0.33932337494925457</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.9378977358205468E-2</c:v>
+                  <c:v>8.7184685020740255E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3983952833643782E-3</c:v>
+                  <c:v>2.3222107431775201E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.136345778536302E-2</c:v>
+                  <c:v>2.0689941591414188E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.7660428128678859E-2</c:v>
+                  <c:v>2.8756290438533439E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.14548239909522551</c:v>
+                  <c:v>0.32958042300221729</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1277227894505011E-2</c:v>
+                  <c:v>3.0199103328999669E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>9.101267976043605E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.534333070244673E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7592011982729371E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.4146921284164252E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.7352310302486848E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.7308621686181537E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.1069391968430348</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.4775413711E-2</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.853598181563192E-2</c:v>
+                  <c:v>0.1156079454468958</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.44764310943882E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.18069436235936789</c:v>
+                  <c:v>0.50750470298444628</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2422654909378234</c:v>
+                  <c:v>0.10758679064046429</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>7.6257086088067179E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3390,28 +3387,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>3.8589959309530972E-3</c:v>
+                  <c:v>4.1636721334857166E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0538224179912639E-2</c:v>
+                  <c:v>1.9779514181900281E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3210638502570021E-2</c:v>
+                  <c:v>1.9615408045160109E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0431237471166239E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.958613135973552E-3</c:v>
+                  <c:v>5.9474046660012757E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.3548788888053909E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3420,13 +3417,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.619707790221173E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3444,19 +3441,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6772063237942773E-2</c:v>
+                  <c:v>1.0294215315135819E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.855632961840716E-3</c:v>
+                  <c:v>9.7963583289271856E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>1.8717424482391221E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.5371597438067114E-3</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3.869172654918142E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -3483,10 +3480,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3.157050757188314E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.6399721016769142E-2</c:v>
+                  <c:v>2.801924318247918E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -3498,16 +3495,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>6.7925987281663653E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3784632962010849E-2</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.0926499434007563E-3</c:v>
+                  <c:v>1.7094024192634349E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>3.3554559248080789E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -3519,10 +3516,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.774073313213767E-2</c:v>
+                  <c:v>1.165064822779067E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.8185502073370451E-3</c:v>
+                  <c:v>1.061842444852675E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3534,16 +3531,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4235157418904489E-2</c:v>
+                  <c:v>9.4974747339139336E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2.151735812809287E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>8.3752093802345065E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4045,160 +4042,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>14.335861002912781</c:v>
+                  <c:v>13.739831467740609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.332954616955121</c:v>
+                  <c:v>12.64479266543414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.374095513748181</c:v>
+                  <c:v>23.759044862518099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.824208392410529</c:v>
+                  <c:v>12.75345387101547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.65554624509697</c:v>
+                  <c:v>11.71557929515895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.2067675568155</c:v>
+                  <c:v>18.84964641269271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.923657390340312</c:v>
+                  <c:v>5.7047436745684177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.34768611469153</c:v>
+                  <c:v>17.534934722265429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.283581014273979</c:v>
+                  <c:v>10.37497566819243</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4593775588215099</c:v>
+                  <c:v>1.8378412485267901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.404402473732659</c:v>
+                  <c:v>11.51144773236191</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.93757435989837</c:v>
+                  <c:v>11.17788762085738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.799999999999997</c:v>
+                  <c:v>32.63922911480406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6087179420844322</c:v>
+                  <c:v>-0.33203091266873858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7765717707038151</c:v>
+                  <c:v>7.7654655260061549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6588278871291982</c:v>
+                  <c:v>7.5041221841492014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.384450435201467</c:v>
+                  <c:v>1.008746806478185</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.965282033109121</c:v>
+                  <c:v>9.8559836252300723</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.75617730682297</c:v>
+                  <c:v>10.95923028344618</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.7053216764706</c:v>
+                  <c:v>12.52908312763407</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.460560678350468</c:v>
+                  <c:v>19.521626211483039</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.63957950216111</c:v>
+                  <c:v>10.79689012714849</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.97671352001991</c:v>
+                  <c:v>15.736397645618251</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.20021387668401</c:v>
+                  <c:v>15.21539139289532</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.389401862830541</c:v>
+                  <c:v>17.868428006752069</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.840330698529909</c:v>
+                  <c:v>12.15427354336979</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6452059871731297</c:v>
+                  <c:v>9.6063792755770052</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4.3</c:v>
+                  <c:v>19.682540176165531</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8101154513315922</c:v>
+                  <c:v>12.55210055369548</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.42474054094588</c:v>
+                  <c:v>15.56530019145378</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.827272930030968</c:v>
+                  <c:v>14.92698599824829</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.849311605426429</c:v>
+                  <c:v>9.5936161040240329</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.272202821169909</c:v>
+                  <c:v>19.879648819076731</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.229939550267979</c:v>
+                  <c:v>17.452493588087741</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19.286998313900199</c:v>
+                  <c:v>20.623648430815141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.181666166164911</c:v>
+                  <c:v>9.39763360805979</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.18886933417409</c:v>
+                  <c:v>19.403828091553361</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.4882241286981639</c:v>
+                  <c:v>8.3154910232901997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.353629396060571</c:v>
+                  <c:v>17.451852497574642</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5449072661289698</c:v>
+                  <c:v>5.5408197606707024</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.18</c:v>
+                  <c:v>18.48</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19.94227693940185</c:v>
+                  <c:v>20.60926665535953</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.89352908148301</c:v>
+                  <c:v>11.339740315670619</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.32148199852768</c:v>
+                  <c:v>11.28187518029589</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15.51616555567329</c:v>
+                  <c:v>15.76573381220439</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6736206812886687</c:v>
+                  <c:v>4.4315852851087403</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.69061888465513</c:v>
+                  <c:v>12.00301989988481</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.799316817071601</c:v>
+                  <c:v>9.1916519268027166</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.986598646276279</c:v>
+                  <c:v>10.68488775622107</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7594407443505933</c:v>
+                  <c:v>4.1265242243179667</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.8168676237062</c:v>
+                  <c:v>17.107496788064921</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.1000000000000014</c:v>
+                  <c:v>15.80329346949021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,160 +4696,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>27.085007606792619</c:v>
+                  <c:v>31.414173944254809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.70051821623181</c:v>
+                  <c:v>21.967991963554809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.872913992297811</c:v>
+                  <c:v>33.953786906290119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.972473747917661</c:v>
+                  <c:v>45.367704119470332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.777423104469211</c:v>
+                  <c:v>14.850942497735449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.66359414337969</c:v>
+                  <c:v>48.466300877080243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.104965942977831</c:v>
+                  <c:v>30.85796705791903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.184664245367468</c:v>
+                  <c:v>30.91567978943694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.814046297124261</c:v>
+                  <c:v>34.202296915745471</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.943122335534799</c:v>
+                  <c:v>39.732339292072602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.053934071063431</c:v>
+                  <c:v>23.38109979766136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.35371873369159</c:v>
+                  <c:v>27.66909684739386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.8</c:v>
+                  <c:v>44.331455971133828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.495957896197918</c:v>
+                  <c:v>30.405856302565269</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.72107482689022</c:v>
+                  <c:v>38.724035929145629</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.177662917871341</c:v>
+                  <c:v>23.141365146695911</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.751867757529109</c:v>
+                  <c:v>25.067176232238971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.327350727122461</c:v>
+                  <c:v>32.352905397729302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.799402458622001</c:v>
+                  <c:v>19.00662543947783</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.70910644580421</c:v>
+                  <c:v>14.4843692359472</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.865822417264233</c:v>
+                  <c:v>37.01735901710493</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.525247825675532</c:v>
+                  <c:v>38.266172861295182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.597117135719351</c:v>
+                  <c:v>27.762338165329599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.776313553338959</c:v>
+                  <c:v>29.33949833466264</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.246048911796301</c:v>
+                  <c:v>30.019268772308809</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.297902088571741</c:v>
+                  <c:v>9.4132033234682648</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.343614081599689</c:v>
+                  <c:v>27.838718284459539</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>28.641422050305241</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.396763341770871</c:v>
+                  <c:v>27.9553174747975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.921658955041451</c:v>
+                  <c:v>48.830714680036202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.214715571987497</c:v>
+                  <c:v>33.717473713230348</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.98871300604965</c:v>
+                  <c:v>36.064127022223829</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.311921812250773</c:v>
+                  <c:v>35.62385707509668</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.647336024162779</c:v>
+                  <c:v>26.346633205874038</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25.877314550430061</c:v>
+                  <c:v>29.120741843488211</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.755435445477641</c:v>
+                  <c:v>20.755549935315361</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.515450672059512</c:v>
+                  <c:v>22.961506122316219</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17.459591348152241</c:v>
+                  <c:v>19.402289289559281</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24.78401561023605</c:v>
+                  <c:v>30.351864118767551</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.712841656234911</c:v>
+                  <c:v>27.657909721796852</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.08</c:v>
+                  <c:v>27.29</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22.878868233520631</c:v>
+                  <c:v>24.530620031194879</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.422640481198389</c:v>
+                  <c:v>23.995269615345819</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.204049224603089</c:v>
+                  <c:v>19.574689262012861</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>33.20745361155906</c:v>
+                  <c:v>36.479114889633678</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24.6651087614304</c:v>
+                  <c:v>23.361616219146299</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>29.713925743156981</c:v>
+                  <c:v>28.918438117522971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.39026060144764</c:v>
+                  <c:v>36.708173942703567</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19.352891181115279</c:v>
+                  <c:v>24.995454726950211</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>16.6044719089744</c:v>
+                  <c:v>18.296128173747789</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>19.278544196633732</c:v>
+                  <c:v>30.489504533011619</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.7</c:v>
+                  <c:v>26.257602767201419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9406,24 +9403,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="3" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9465,28 +9462,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="17">
-        <v>14.335861002912781</v>
+        <v>13.739831467740609</v>
       </c>
       <c r="C2" s="17">
-        <v>1.952226714230219</v>
+        <v>0.53719406125724678</v>
       </c>
       <c r="D2" s="17">
-        <v>27.085007606792619</v>
+        <v>31.414173944254809</v>
       </c>
       <c r="E2" s="17">
-        <v>1.8816809396815011</v>
+        <v>1.045451072141397</v>
       </c>
       <c r="F2" s="17">
-        <v>98.448770971108942</v>
+        <v>98.171244003948971</v>
       </c>
       <c r="G2" s="17">
-        <v>1.4858257782428781</v>
+        <v>1.766148956815528</v>
       </c>
       <c r="H2" s="17">
-        <v>5.4600258989583497E-2</v>
+        <v>5.9225283918314289E-2</v>
       </c>
       <c r="I2" s="17">
-        <v>3.8589959309530972E-3</v>
+        <v>4.1636721334857166E-3</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -9498,28 +9495,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="18">
-        <v>12.332954616955121</v>
+        <v>12.64479266543414</v>
       </c>
       <c r="C3" s="18">
-        <v>0.92173287444541352</v>
+        <v>-0.42180947895130011</v>
       </c>
       <c r="D3" s="18">
-        <v>19.70051821623181</v>
+        <v>21.967991963554809</v>
       </c>
       <c r="E3" s="18">
-        <v>-0.13684794955315249</v>
+        <v>0.91000081625281593</v>
       </c>
       <c r="F3" s="18">
-        <v>99.12401472451748</v>
+        <v>99.294211305372286</v>
       </c>
       <c r="G3" s="18">
-        <v>0.79489501496721382</v>
+        <v>0.66622966626365032</v>
       </c>
       <c r="H3" s="18">
-        <v>8.1090260514783491E-2</v>
+        <v>1.9779514181900281E-2</v>
       </c>
       <c r="I3" s="18">
-        <v>1.0538224179912639E-2</v>
+        <v>1.9779514181900281E-2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -9531,22 +9528,22 @@
         <v>12</v>
       </c>
       <c r="B4" s="18">
-        <v>24.374095513748181</v>
+        <v>23.759044862518099</v>
       </c>
       <c r="C4" s="18">
-        <v>1.6109009222038171</v>
+        <v>-0.79176334106728641</v>
       </c>
       <c r="D4" s="18">
-        <v>30.872913992297811</v>
+        <v>33.953786906290119</v>
       </c>
       <c r="E4" s="18">
-        <v>1.5944195316392571</v>
+        <v>2.303921568627465</v>
       </c>
       <c r="F4" s="18">
-        <v>99.714359906517785</v>
+        <v>99.792261750194754</v>
       </c>
       <c r="G4" s="18">
-        <v>0.28564009348221242</v>
+        <v>0.20773824980524541</v>
       </c>
       <c r="H4" s="18">
         <v>0</v>
@@ -9564,28 +9561,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="18">
-        <v>15.824208392410529</v>
+        <v>12.75345387101547</v>
       </c>
       <c r="C5" s="18">
-        <v>4.0428409707538684</v>
+        <v>0.72284247735372764</v>
       </c>
       <c r="D5" s="18">
-        <v>49.972473747917661</v>
+        <v>45.367704119470332</v>
       </c>
       <c r="E5" s="18">
-        <v>1.8687629395474969</v>
+        <v>-1.635180234678199</v>
       </c>
       <c r="F5" s="18">
-        <v>97.18399070433118</v>
+        <v>97.942362467158759</v>
       </c>
       <c r="G5" s="18">
-        <v>2.6258305484334659</v>
+        <v>1.901783494437765</v>
       </c>
       <c r="H5" s="18">
-        <v>0.17696810873265381</v>
+        <v>0.13623863035819719</v>
       </c>
       <c r="I5" s="18">
-        <v>1.3210638502570021E-2</v>
+        <v>1.9615408045160109E-2</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -9597,28 +9594,28 @@
         <v>14</v>
       </c>
       <c r="B6" s="18">
-        <v>13.65554624509697</v>
+        <v>11.71557929515895</v>
       </c>
       <c r="C6" s="18">
-        <v>-0.3656504095981995</v>
+        <v>-1.50427366816823</v>
       </c>
       <c r="D6" s="18">
-        <v>18.777423104469211</v>
+        <v>14.850942497735449</v>
       </c>
       <c r="E6" s="18">
-        <v>-0.21154512843720161</v>
+        <v>0.60574238761477428</v>
       </c>
       <c r="F6" s="18">
-        <v>99.020743245283299</v>
+        <v>99.245055962256188</v>
       </c>
       <c r="G6" s="18">
-        <v>0.66645866145839117</v>
+        <v>0.57301908281410929</v>
       </c>
       <c r="H6" s="18">
-        <v>0.29236685578686311</v>
+        <v>0.18192495492942709</v>
       </c>
       <c r="I6" s="18">
-        <v>2.0431237471166239E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -9630,28 +9627,28 @@
         <v>15</v>
       </c>
       <c r="B7" s="18">
-        <v>18.2067675568155</v>
+        <v>18.84964641269271</v>
       </c>
       <c r="C7" s="18">
-        <v>1.066680421632493</v>
+        <v>1.24234557359271</v>
       </c>
       <c r="D7" s="18">
-        <v>40.66359414337969</v>
+        <v>48.466300877080243</v>
       </c>
       <c r="E7" s="18">
-        <v>4.9412887297431736</v>
+        <v>-0.83511344447209845</v>
       </c>
       <c r="F7" s="18">
-        <v>94.453619972606788</v>
+        <v>93.86594276900999</v>
       </c>
       <c r="G7" s="18">
-        <v>5.4751741780354184</v>
+        <v>6.0648474900473914</v>
       </c>
       <c r="H7" s="18">
-        <v>6.9247236220964944E-2</v>
+        <v>6.2425799089399457E-2</v>
       </c>
       <c r="I7" s="18">
-        <v>1.958613135973552E-3</v>
+        <v>5.9474046660012757E-3</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -9663,25 +9660,25 @@
         <v>16</v>
       </c>
       <c r="B8" s="18">
-        <v>3.923657390340312</v>
+        <v>5.7047436745684177</v>
       </c>
       <c r="C8" s="18">
-        <v>2.7416031909845779</v>
+        <v>4.0128768137448718</v>
       </c>
       <c r="D8" s="18">
-        <v>25.104965942977831</v>
+        <v>30.85796705791903</v>
       </c>
       <c r="E8" s="18">
-        <v>0.97588659549228962</v>
+        <v>0.50124165392354514</v>
       </c>
       <c r="F8" s="18">
-        <v>97.208349242055803</v>
+        <v>95.992032180148883</v>
       </c>
       <c r="G8" s="18">
-        <v>2.7850118794684779</v>
+        <v>3.9949235141122008</v>
       </c>
       <c r="H8" s="18">
-        <v>6.6388784738578878E-3</v>
+        <v>1.30443057380059E-2</v>
       </c>
       <c r="I8" s="18">
         <v>0</v>
@@ -9696,28 +9693,28 @@
         <v>17</v>
       </c>
       <c r="B9" s="18">
-        <v>22.34768611469153</v>
+        <v>17.534934722265429</v>
       </c>
       <c r="C9" s="18">
-        <v>4.8722050297272528</v>
+        <v>-1.718439174515235</v>
       </c>
       <c r="D9" s="18">
-        <v>29.184664245367468</v>
+        <v>30.91567978943694</v>
       </c>
       <c r="E9" s="18">
-        <v>2.2058329381210382</v>
+        <v>0.31212386840548773</v>
       </c>
       <c r="F9" s="18">
-        <v>98.967191191276754</v>
+        <v>98.891419067853093</v>
       </c>
       <c r="G9" s="18">
-        <v>0.90535661506212473</v>
+        <v>0.95342704905542286</v>
       </c>
       <c r="H9" s="18">
-        <v>0.12745219366051511</v>
+        <v>0.15448251810510169</v>
       </c>
       <c r="I9" s="18">
-        <v>0</v>
+        <v>7.3548788888053909E-3</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -9729,22 +9726,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="18">
-        <v>14.283581014273979</v>
+        <v>10.37497566819243</v>
       </c>
       <c r="C10" s="18">
-        <v>1.824526569249975</v>
+        <v>-1.766899025919658</v>
       </c>
       <c r="D10" s="18">
-        <v>30.814046297124261</v>
+        <v>34.202296915745471</v>
       </c>
       <c r="E10" s="18">
-        <v>-0.71507897940681897</v>
+        <v>0.78325339466374788</v>
       </c>
       <c r="F10" s="18">
-        <v>98.954433270880301</v>
+        <v>98.876981563800612</v>
       </c>
       <c r="G10" s="18">
-        <v>1.0455667291188151</v>
+        <v>1.1230184361985129</v>
       </c>
       <c r="H10" s="18">
         <v>0</v>
@@ -9762,22 +9759,22 @@
         <v>19</v>
       </c>
       <c r="B11" s="18">
-        <v>2.4593775588215099</v>
+        <v>1.8378412485267901</v>
       </c>
       <c r="C11" s="18">
-        <v>1.6867000000000001</v>
+        <v>-1.1727000000000001</v>
       </c>
       <c r="D11" s="18">
-        <v>27.943122335534799</v>
+        <v>39.732339292072602</v>
       </c>
       <c r="E11" s="18">
-        <v>-0.85229999999999995</v>
+        <v>0.65229999999999999</v>
       </c>
       <c r="F11" s="18">
-        <v>99.292730844792999</v>
+        <v>96.899529042386007</v>
       </c>
       <c r="G11" s="18">
-        <v>0.70726915520599998</v>
+        <v>3.1004709576130001</v>
       </c>
       <c r="H11" s="18">
         <v>0</v>
@@ -9795,28 +9792,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="18">
-        <v>13.404402473732659</v>
+        <v>11.51144773236191</v>
       </c>
       <c r="C12" s="18">
-        <v>3.6976566810100429</v>
+        <v>1.130864143732156</v>
       </c>
       <c r="D12" s="18">
-        <v>22.053934071063431</v>
+        <v>23.38109979766136</v>
       </c>
       <c r="E12" s="18">
-        <v>3.1007717736790998</v>
+        <v>-0.54728149026706119</v>
       </c>
       <c r="F12" s="18">
-        <v>98.917185071090771</v>
+        <v>98.886648755565986</v>
       </c>
       <c r="G12" s="18">
-        <v>1.006799081740112</v>
+        <v>1.047746214852012</v>
       </c>
       <c r="H12" s="18">
-        <v>7.6015847167901718E-2</v>
+        <v>6.5605029580785595E-2</v>
       </c>
       <c r="I12" s="18">
-        <v>1.619707790221173E-3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -9828,25 +9825,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="18">
-        <v>12.93757435989837</v>
+        <v>11.17788762085738</v>
       </c>
       <c r="C13" s="18">
-        <v>0.85765789170047335</v>
+        <v>-0.79273477790786673</v>
       </c>
       <c r="D13" s="18">
-        <v>28.35371873369159</v>
+        <v>27.66909684739386</v>
       </c>
       <c r="E13" s="18">
-        <v>1.2442931006904361</v>
+        <v>-0.82417399502062083</v>
       </c>
       <c r="F13" s="18">
-        <v>98.527046320812659</v>
+        <v>98.907655552155461</v>
       </c>
       <c r="G13" s="18">
-        <v>1.4543830932502031</v>
+        <v>1.0884949771217689</v>
       </c>
       <c r="H13" s="18">
-        <v>3.8643254915559839E-3</v>
+        <v>3.8494707220106841E-3</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
@@ -9861,28 +9858,28 @@
         <v>22</v>
       </c>
       <c r="B14" s="18">
-        <v>37.799999999999997</v>
+        <v>32.63922911480406</v>
       </c>
       <c r="C14" s="18">
-        <v>-3.5</v>
+        <v>-2.9548769886801112</v>
       </c>
       <c r="D14" s="18">
-        <v>20.8</v>
+        <v>44.331455971133828</v>
       </c>
       <c r="E14" s="18">
-        <v>1.4</v>
+        <v>0.3808307436285352</v>
       </c>
       <c r="F14" s="18">
-        <v>97.2</v>
+        <v>96.398483572030329</v>
       </c>
       <c r="G14" s="18">
-        <v>2.5</v>
+        <v>3.5383319292333608</v>
       </c>
       <c r="H14" s="18">
-        <v>0.2</v>
+        <v>6.3184498736310019E-2</v>
       </c>
       <c r="I14" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -9894,22 +9891,22 @@
         <v>23</v>
       </c>
       <c r="B15" s="18">
-        <v>2.6087179420844322</v>
+        <v>-0.33203091266873858</v>
       </c>
       <c r="C15" s="18">
-        <v>0.90397531552482302</v>
+        <v>0.42542962858347122</v>
       </c>
       <c r="D15" s="18">
-        <v>29.495957896197918</v>
+        <v>30.405856302565269</v>
       </c>
       <c r="E15" s="18">
-        <v>-0.51896038999611593</v>
+        <v>0.15784279250870731</v>
       </c>
       <c r="F15" s="18">
-        <v>99.808514917536428</v>
+        <v>99.760912892117318</v>
       </c>
       <c r="G15" s="18">
-        <v>0.19148508246355911</v>
+        <v>0.2390871078826845</v>
       </c>
       <c r="H15" s="18">
         <v>0</v>
@@ -9927,25 +9924,25 @@
         <v>24</v>
       </c>
       <c r="B16" s="18">
-        <v>7.7765717707038151</v>
+        <v>7.7654655260061549</v>
       </c>
       <c r="C16" s="18">
-        <v>1.084444709735864</v>
+        <v>2.112696275487262</v>
       </c>
       <c r="D16" s="18">
-        <v>28.72107482689022</v>
+        <v>38.724035929145629</v>
       </c>
       <c r="E16" s="18">
-        <v>2.059336055689327</v>
+        <v>3.085663023811009</v>
       </c>
       <c r="F16" s="18">
-        <v>99.291825730603719</v>
+        <v>98.393908304349651</v>
       </c>
       <c r="G16" s="18">
-        <v>0.70817426939542294</v>
+        <v>1.6000835293917131</v>
       </c>
       <c r="H16" s="18">
-        <v>0</v>
+        <v>6.008166257789084E-3</v>
       </c>
       <c r="I16" s="18">
         <v>0</v>
@@ -9960,22 +9957,22 @@
         <v>25</v>
       </c>
       <c r="B17" s="18">
-        <v>7.6588278871291982</v>
+        <v>7.5041221841492014</v>
       </c>
       <c r="C17" s="18">
-        <v>1.3155841759421401</v>
+        <v>0.98534933479601916</v>
       </c>
       <c r="D17" s="18">
-        <v>21.177662917871341</v>
+        <v>23.141365146695911</v>
       </c>
       <c r="E17" s="18">
-        <v>1.3836458010305659</v>
+        <v>0.56496582254215011</v>
       </c>
       <c r="F17" s="18">
-        <v>99.525914388943775</v>
+        <v>99.68241272768833</v>
       </c>
       <c r="G17" s="18">
-        <v>0.47408561105547931</v>
+        <v>0.31758727231093581</v>
       </c>
       <c r="H17" s="18">
         <v>0</v>
@@ -9993,22 +9990,22 @@
         <v>26</v>
       </c>
       <c r="B18" s="18">
-        <v>-1.384450435201467</v>
+        <v>1.008746806478185</v>
       </c>
       <c r="C18" s="18">
-        <v>-3.3857023090733802E-2</v>
+        <v>4.8798262481298371</v>
       </c>
       <c r="D18" s="18">
-        <v>17.751867757529109</v>
+        <v>25.067176232238971</v>
       </c>
       <c r="E18" s="18">
-        <v>3.278806632706547</v>
+        <v>4.3665488172045643</v>
       </c>
       <c r="F18" s="18">
-        <v>99.956238222437875</v>
+        <v>99.956929944719619</v>
       </c>
       <c r="G18" s="18">
-        <v>4.3761777562127832E-2</v>
+        <v>4.3070055280376801E-2</v>
       </c>
       <c r="H18" s="18">
         <v>0</v>
@@ -10026,25 +10023,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="18">
-        <v>9.965282033109121</v>
+        <v>9.8559836252300723</v>
       </c>
       <c r="C19" s="18">
-        <v>1.1339414525998219</v>
+        <v>0.20413982693167859</v>
       </c>
       <c r="D19" s="18">
-        <v>24.327350727122461</v>
+        <v>32.352905397729302</v>
       </c>
       <c r="E19" s="18">
-        <v>-0.44546958509614681</v>
+        <v>6.4933639463858936</v>
       </c>
       <c r="F19" s="18">
-        <v>99.812933728801596</v>
+        <v>99.661732233111337</v>
       </c>
       <c r="G19" s="18">
-        <v>0.16688931933052881</v>
+        <v>0.29644090107098492</v>
       </c>
       <c r="H19" s="18">
-        <v>2.0176951867881321E-2</v>
+        <v>4.182686581762772E-2</v>
       </c>
       <c r="I19" s="18">
         <v>0</v>
@@ -10059,28 +10056,28 @@
         <v>28</v>
       </c>
       <c r="B20" s="18">
-        <v>14.75617730682297</v>
+        <v>10.95923028344618</v>
       </c>
       <c r="C20" s="18">
-        <v>2.9471173091810901</v>
+        <v>-1.30867006440745</v>
       </c>
       <c r="D20" s="18">
-        <v>17.799402458622001</v>
+        <v>19.00662543947783</v>
       </c>
       <c r="E20" s="18">
-        <v>-0.57083325002379515</v>
+        <v>1.4042625958340131E-2</v>
       </c>
       <c r="F20" s="18">
-        <v>98.896698018811293</v>
+        <v>99.197378252943835</v>
       </c>
       <c r="G20" s="18">
-        <v>1.006190380895204</v>
+        <v>0.79232753174093828</v>
       </c>
       <c r="H20" s="18">
-        <v>1.033953705556667E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="18">
-        <v>8.6772063237942773E-2</v>
+        <v>1.0294215315135819E-2</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -10092,28 +10089,28 @@
         <v>29</v>
       </c>
       <c r="B21" s="18">
-        <v>21.7053216764706</v>
+        <v>12.52908312763407</v>
       </c>
       <c r="C21" s="18">
-        <v>1.698513515310103</v>
+        <v>-1.0153174522557731</v>
       </c>
       <c r="D21" s="18">
-        <v>21.70910644580421</v>
+        <v>14.4843692359472</v>
       </c>
       <c r="E21" s="18">
-        <v>-0.62481056998156903</v>
+        <v>3.281164845037571</v>
       </c>
       <c r="F21" s="18">
-        <v>99.231690431672376</v>
+        <v>99.46210954886007</v>
       </c>
       <c r="G21" s="18">
-        <v>0.63260642698065905</v>
+        <v>0.45737466695504359</v>
       </c>
       <c r="H21" s="18">
-        <v>0.12584750838499581</v>
+        <v>7.0719425855825871E-2</v>
       </c>
       <c r="I21" s="18">
-        <v>9.855632961840716E-3</v>
+        <v>9.7963583289271856E-3</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -10125,28 +10122,28 @@
         <v>30</v>
       </c>
       <c r="B22" s="18">
-        <v>19.460560678350468</v>
+        <v>19.521626211483039</v>
       </c>
       <c r="C22" s="18">
-        <v>3.5139095255744999</v>
+        <v>0.5669145032379459</v>
       </c>
       <c r="D22" s="18">
-        <v>34.865822417264233</v>
+        <v>37.01735901710493</v>
       </c>
       <c r="E22" s="18">
-        <v>2.3920596738324691</v>
+        <v>-0.8102945353309936</v>
       </c>
       <c r="F22" s="18">
-        <v>99.699584356290615</v>
+        <v>99.831543179658482</v>
       </c>
       <c r="G22" s="18">
-        <v>0.30041564370931401</v>
+        <v>0.14973939585912979</v>
       </c>
       <c r="H22" s="18">
         <v>0</v>
       </c>
       <c r="I22" s="18">
-        <v>0</v>
+        <v>1.8717424482391221E-2</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -10158,28 +10155,28 @@
         <v>31</v>
       </c>
       <c r="B23" s="18">
-        <v>14.63957950216111</v>
+        <v>10.79689012714849</v>
       </c>
       <c r="C23" s="18">
-        <v>1.7200992758057929</v>
+        <v>-2.525613591969289</v>
       </c>
       <c r="D23" s="18">
-        <v>28.525247825675532</v>
+        <v>38.266172861295182</v>
       </c>
       <c r="E23" s="18">
-        <v>-0.35240948592411259</v>
+        <v>1.9917757368483899</v>
       </c>
       <c r="F23" s="18">
-        <v>99.261300948858931</v>
+        <v>97.980712262331778</v>
       </c>
       <c r="G23" s="18">
-        <v>0.7125504121618339</v>
+        <v>2.012917744804696</v>
       </c>
       <c r="H23" s="18">
-        <v>2.614863897822348E-2</v>
+        <v>6.3699928625315528E-3</v>
       </c>
       <c r="I23" s="18">
-        <v>6.5371597438067114E-3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -10191,28 +10188,28 @@
         <v>32</v>
       </c>
       <c r="B24" s="18">
-        <v>18.97671352001991</v>
+        <v>15.736397645618251</v>
       </c>
       <c r="C24" s="18">
-        <v>4.5705902515723276</v>
+        <v>-1.6316684577520559</v>
       </c>
       <c r="D24" s="18">
-        <v>33.597117135719351</v>
+        <v>27.762338165329599</v>
       </c>
       <c r="E24" s="18">
-        <v>1.976588836477988</v>
+        <v>1.299873406245305</v>
       </c>
       <c r="F24" s="18">
-        <v>99.203435916753321</v>
+        <v>99.315294305625287</v>
       </c>
       <c r="G24" s="18">
-        <v>0.69948790181621534</v>
+        <v>0.61559446765036419</v>
       </c>
       <c r="H24" s="18">
-        <v>9.7076181428672956E-2</v>
+        <v>6.9111226723445371E-2</v>
       </c>
       <c r="I24" s="18">
-        <v>0</v>
+        <v>3.869172654918142E-3</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -10224,25 +10221,25 @@
         <v>33</v>
       </c>
       <c r="B25" s="18">
-        <v>12.20021387668401</v>
+        <v>15.21539139289532</v>
       </c>
       <c r="C25" s="18">
-        <v>2.853976959114358</v>
+        <v>1.4411947132094201</v>
       </c>
       <c r="D25" s="18">
-        <v>19.776313553338959</v>
+        <v>29.33949833466264</v>
       </c>
       <c r="E25" s="18">
-        <v>0.90560901382307935</v>
+        <v>5.6570001391335261</v>
       </c>
       <c r="F25" s="18">
-        <v>99.828981233949207</v>
+        <v>99.668490022095895</v>
       </c>
       <c r="G25" s="18">
-        <v>0.17101876605010141</v>
+        <v>0.32060016634107819</v>
       </c>
       <c r="H25" s="18">
-        <v>0</v>
+        <v>1.0909811561664229E-2</v>
       </c>
       <c r="I25" s="18">
         <v>0</v>
@@ -10257,25 +10254,25 @@
         <v>34</v>
       </c>
       <c r="B26" s="18">
-        <v>14.389401862830541</v>
+        <v>17.868428006752069</v>
       </c>
       <c r="C26" s="18">
-        <v>-0.35076249485863709</v>
+        <v>3.6404055557457911</v>
       </c>
       <c r="D26" s="18">
-        <v>25.246048911796301</v>
+        <v>30.019268772308809</v>
       </c>
       <c r="E26" s="18">
-        <v>-0.2130501858234348</v>
+        <v>1.6400208274025689</v>
       </c>
       <c r="F26" s="18">
-        <v>99.52805889864625</v>
+        <v>99.15430857694912</v>
       </c>
       <c r="G26" s="18">
-        <v>0.44598518800130649</v>
+        <v>0.81470855205571446</v>
       </c>
       <c r="H26" s="18">
-        <v>2.5955913351755601E-2</v>
+        <v>3.0982870993809648E-2</v>
       </c>
       <c r="I26" s="18">
         <v>0</v>
@@ -10290,25 +10287,25 @@
         <v>35</v>
       </c>
       <c r="B27" s="18">
-        <v>14.840330698529909</v>
+        <v>12.15427354336979</v>
       </c>
       <c r="C27" s="18">
-        <v>-0.6715656589898179</v>
+        <v>-1.7859499017115601</v>
       </c>
       <c r="D27" s="18">
-        <v>13.297902088571741</v>
+        <v>9.4132033234682648</v>
       </c>
       <c r="E27" s="18">
-        <v>-2.6188696749271898</v>
+        <v>7.4826012428242883E-2</v>
       </c>
       <c r="F27" s="18">
-        <v>99.672612942989701</v>
+        <v>99.744824206440285</v>
       </c>
       <c r="G27" s="18">
-        <v>0.28818617965387272</v>
+        <v>0.25517579355921638</v>
       </c>
       <c r="H27" s="18">
-        <v>3.9200877355929697E-2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="18">
         <v>0</v>
@@ -10323,25 +10320,25 @@
         <v>36</v>
       </c>
       <c r="B28" s="18">
-        <v>9.6452059871731297</v>
+        <v>9.6063792755770052</v>
       </c>
       <c r="C28" s="18">
-        <v>3.6997261891173798E-2</v>
+        <v>0.45341550232779382</v>
       </c>
       <c r="D28" s="18">
-        <v>21.343614081599689</v>
+        <v>27.838718284459539</v>
       </c>
       <c r="E28" s="18">
-        <v>0.18811453368439379</v>
+        <v>0.25182292890347707</v>
       </c>
       <c r="F28" s="18">
-        <v>99.124717048391474</v>
+        <v>98.569636189071446</v>
       </c>
       <c r="G28" s="18">
-        <v>0.86012890175247969</v>
+        <v>1.430363810928476</v>
       </c>
       <c r="H28" s="18">
-        <v>1.5154049855972679E-2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="18">
         <v>0</v>
@@ -10356,22 +10353,22 @@
         <v>37</v>
       </c>
       <c r="B29" s="18">
-        <v>-4.3</v>
+        <v>19.682540176165531</v>
       </c>
       <c r="C29" s="18">
-        <v>-9.1</v>
+        <v>5.8507642650719616</v>
       </c>
       <c r="D29" s="18">
-        <v>9</v>
+        <v>28.641422050305241</v>
       </c>
       <c r="E29" s="18">
-        <v>-12.4</v>
+        <v>1.197498959329901</v>
       </c>
       <c r="F29" s="18">
-        <v>99</v>
+        <v>99.27745664739885</v>
       </c>
       <c r="G29" s="18">
-        <v>0.89999999999999991</v>
+        <v>0.7225433526011561</v>
       </c>
       <c r="H29" s="18">
         <v>0</v>
@@ -10389,22 +10386,22 @@
         <v>38</v>
       </c>
       <c r="B30" s="18">
-        <v>7.8101154513315922</v>
+        <v>12.55210055369548</v>
       </c>
       <c r="C30" s="18">
-        <v>2.3594707781631499</v>
+        <v>5.6022428693824988</v>
       </c>
       <c r="D30" s="18">
-        <v>26.396763341770871</v>
+        <v>27.9553174747975</v>
       </c>
       <c r="E30" s="18">
-        <v>5.517907403754454</v>
+        <v>3.4384015495528142</v>
       </c>
       <c r="F30" s="18">
-        <v>99.411656614394857</v>
+        <v>99.583144226927686</v>
       </c>
       <c r="G30" s="18">
-        <v>0.58834338560514676</v>
+        <v>0.4168557730723132</v>
       </c>
       <c r="H30" s="18">
         <v>0</v>
@@ -10422,25 +10419,25 @@
         <v>39</v>
       </c>
       <c r="B31" s="18">
-        <v>15.42474054094588</v>
+        <v>15.56530019145378</v>
       </c>
       <c r="C31" s="18">
-        <v>3.656372797142176</v>
+        <v>2.0328948389916022</v>
       </c>
       <c r="D31" s="18">
-        <v>28.921658955041451</v>
+        <v>48.830714680036202</v>
       </c>
       <c r="E31" s="18">
-        <v>2.3116607333001529</v>
+        <v>5.5417323224512698</v>
       </c>
       <c r="F31" s="18">
-        <v>98.886108176100635</v>
+        <v>98.122239658692578</v>
       </c>
       <c r="G31" s="18">
-        <v>1.015059119496855</v>
+        <v>1.8434057630773899</v>
       </c>
       <c r="H31" s="18">
-        <v>7.0631446540880508E-2</v>
+        <v>3.4354578230026522E-2</v>
       </c>
       <c r="I31" s="18">
         <v>0</v>
@@ -10455,25 +10452,25 @@
         <v>40</v>
       </c>
       <c r="B32" s="18">
-        <v>17.827272930030968</v>
+        <v>14.92698599824829</v>
       </c>
       <c r="C32" s="18">
-        <v>3.901217438396968</v>
+        <v>-1.786930424412015</v>
       </c>
       <c r="D32" s="18">
-        <v>32.214715571987497</v>
+        <v>33.717473713230348</v>
       </c>
       <c r="E32" s="18">
-        <v>1.4834379637151369</v>
+        <v>8.3502593597329575E-2</v>
       </c>
       <c r="F32" s="18">
-        <v>99.570509081207035</v>
+        <v>99.307052294200645</v>
       </c>
       <c r="G32" s="18">
-        <v>0.38086996142046031</v>
+        <v>0.64442731680039578</v>
       </c>
       <c r="H32" s="18">
-        <v>4.8620957370760901E-2</v>
+        <v>4.8520388997202429E-2</v>
       </c>
       <c r="I32" s="18">
         <v>0</v>
@@ -10488,28 +10485,28 @@
         <v>41</v>
       </c>
       <c r="B33" s="18">
-        <v>13.849311605426429</v>
+        <v>9.5936161040240329</v>
       </c>
       <c r="C33" s="18">
-        <v>1.7557482065236309</v>
+        <v>-1.839011582718526</v>
       </c>
       <c r="D33" s="18">
-        <v>27.98871300604965</v>
+        <v>36.064127022223829</v>
       </c>
       <c r="E33" s="18">
-        <v>-0.27577313300434431</v>
+        <v>4.7705521238631574</v>
       </c>
       <c r="F33" s="18">
-        <v>98.891262814515713</v>
+        <v>98.264271320050483</v>
       </c>
       <c r="G33" s="18">
-        <v>1.0576684818707771</v>
+        <v>1.7087605892513289</v>
       </c>
       <c r="H33" s="18">
-        <v>5.1068703612935633E-2</v>
+        <v>2.381103993983882E-2</v>
       </c>
       <c r="I33" s="18">
-        <v>0</v>
+        <v>3.157050757188314E-3</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -10521,28 +10518,28 @@
         <v>42</v>
       </c>
       <c r="B34" s="18">
-        <v>21.272202821169909</v>
+        <v>19.879648819076731</v>
       </c>
       <c r="C34" s="18">
-        <v>1.345882270796938</v>
+        <v>2.4458119433260621</v>
       </c>
       <c r="D34" s="18">
-        <v>32.311921812250773</v>
+        <v>35.62385707509668</v>
       </c>
       <c r="E34" s="18">
-        <v>2.9888207865388789</v>
+        <v>0.67605056238363703</v>
       </c>
       <c r="F34" s="18">
-        <v>97.36805139451937</v>
+        <v>96.849474936479368</v>
       </c>
       <c r="G34" s="18">
-        <v>2.4032291953466012</v>
+        <v>2.8112016885705202</v>
       </c>
       <c r="H34" s="18">
-        <v>0.22871941013318581</v>
+        <v>0.33932337494925457</v>
       </c>
       <c r="I34" s="18">
-        <v>5.6399721016769142E-2</v>
+        <v>2.801924318247918E-2</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -10554,25 +10551,25 @@
         <v>43</v>
       </c>
       <c r="B35" s="18">
-        <v>17.229939550267979</v>
+        <v>17.452493588087741</v>
       </c>
       <c r="C35" s="18">
-        <v>4.6367042716560203</v>
+        <v>0.60741480033274731</v>
       </c>
       <c r="D35" s="18">
-        <v>22.647336024162779</v>
+        <v>26.346633205874038</v>
       </c>
       <c r="E35" s="18">
-        <v>1.882629026883506</v>
+        <v>1.534113105180499</v>
       </c>
       <c r="F35" s="18">
-        <v>98.879490816348465</v>
+        <v>98.721036973130538</v>
       </c>
       <c r="G35" s="18">
-        <v>1.0208197090178961</v>
+        <v>1.1917783418487129</v>
       </c>
       <c r="H35" s="18">
-        <v>3.9378977358205468E-2</v>
+        <v>8.7184685020740255E-2</v>
       </c>
       <c r="I35" s="18">
         <v>0</v>
@@ -10587,25 +10584,25 @@
         <v>44</v>
       </c>
       <c r="B36" s="18">
-        <v>19.286998313900199</v>
+        <v>20.623648430815141</v>
       </c>
       <c r="C36" s="18">
-        <v>-2.512053672974583</v>
+        <v>-2.501284826996002E-2</v>
       </c>
       <c r="D36" s="18">
-        <v>25.877314550430061</v>
+        <v>29.120741843488211</v>
       </c>
       <c r="E36" s="18">
-        <v>1.865211027121678</v>
+        <v>-0.33090728312977957</v>
       </c>
       <c r="F36" s="18">
-        <v>98.637052844204064</v>
+        <v>98.775487866964028</v>
       </c>
       <c r="G36" s="18">
-        <v>1.264622817443823</v>
+        <v>1.2012900256041941</v>
       </c>
       <c r="H36" s="18">
-        <v>3.3983952833643782E-3</v>
+        <v>2.3222107431775201E-2</v>
       </c>
       <c r="I36" s="18">
         <v>0</v>
@@ -10620,16 +10617,16 @@
         <v>45</v>
       </c>
       <c r="B37" s="18">
-        <v>9.181666166164911</v>
+        <v>9.39763360805979</v>
       </c>
       <c r="C37" s="18">
-        <v>-0.41384953209198372</v>
+        <v>2.0636257263859221</v>
       </c>
       <c r="D37" s="18">
-        <v>20.755435445477641</v>
+        <v>20.755549935315361</v>
       </c>
       <c r="E37" s="18">
-        <v>-0.51352497947364284</v>
+        <v>-1.5049649902150879</v>
       </c>
       <c r="F37" s="18">
         <v>100</v>
@@ -10653,28 +10650,28 @@
         <v>46</v>
       </c>
       <c r="B38" s="18">
-        <v>14.18886933417409</v>
+        <v>19.403828091553361</v>
       </c>
       <c r="C38" s="18">
-        <v>3.4079576584502052</v>
+        <v>4.7601926013044054</v>
       </c>
       <c r="D38" s="18">
-        <v>17.515450672059512</v>
+        <v>22.961506122316219</v>
       </c>
       <c r="E38" s="18">
-        <v>-0.3830916636220083</v>
+        <v>1.4605871156188099</v>
       </c>
       <c r="F38" s="18">
-        <v>99.28012133043336</v>
+        <v>99.398368680974698</v>
       </c>
       <c r="G38" s="18">
-        <v>0.69851521178124309</v>
+        <v>0.57414877870570513</v>
       </c>
       <c r="H38" s="18">
-        <v>2.136345778536302E-2</v>
+        <v>2.0689941591414188E-2</v>
       </c>
       <c r="I38" s="18">
-        <v>0</v>
+        <v>6.7925987281663653E-3</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -10686,28 +10683,28 @@
         <v>47</v>
       </c>
       <c r="B39" s="18">
-        <v>9.4882241286981639</v>
+        <v>8.3154910232901997</v>
       </c>
       <c r="C39" s="18">
-        <v>1.983040472960746</v>
+        <v>-1.399823498465391</v>
       </c>
       <c r="D39" s="18">
-        <v>17.459591348152241</v>
+        <v>19.402289289559281</v>
       </c>
       <c r="E39" s="18">
-        <v>0.60589875885424127</v>
+        <v>-0.84010455688754349</v>
       </c>
       <c r="F39" s="18">
-        <v>99.645264215408531</v>
+        <v>99.774570279841299</v>
       </c>
       <c r="G39" s="18">
-        <v>0.28329072350077578</v>
+        <v>0.19667342972015869</v>
       </c>
       <c r="H39" s="18">
-        <v>5.7660428128678859E-2</v>
+        <v>2.8756290438533439E-2</v>
       </c>
       <c r="I39" s="18">
-        <v>1.3784632962010849E-2</v>
+        <v>0</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -10719,28 +10716,28 @@
         <v>48</v>
       </c>
       <c r="B40" s="18">
-        <v>14.353629396060571</v>
+        <v>17.451852497574642</v>
       </c>
       <c r="C40" s="18">
-        <v>4.0209003783698556</v>
+        <v>4.4540554371375336</v>
       </c>
       <c r="D40" s="18">
-        <v>24.78401561023605</v>
+        <v>30.351864118767551</v>
       </c>
       <c r="E40" s="18">
-        <v>0.79869746176887924</v>
+        <v>3.6859605468809571</v>
       </c>
       <c r="F40" s="18">
-        <v>98.842347778967309</v>
+        <v>97.914074499816508</v>
       </c>
       <c r="G40" s="18">
-        <v>1.0121698219366579</v>
+        <v>1.748179235809922</v>
       </c>
       <c r="H40" s="18">
-        <v>0.14548239909522551</v>
+        <v>0.32958042300221729</v>
       </c>
       <c r="I40" s="18">
-        <v>9.0926499434007563E-3</v>
+        <v>1.7094024192634349E-2</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -10752,28 +10749,28 @@
         <v>49</v>
       </c>
       <c r="B41" s="18">
-        <v>8.5449072661289698</v>
+        <v>5.5408197606707024</v>
       </c>
       <c r="C41" s="18">
-        <v>3.2707898537226758</v>
+        <v>-1.890034099134531</v>
       </c>
       <c r="D41" s="18">
-        <v>23.712841656234911</v>
+        <v>27.657909721796852</v>
       </c>
       <c r="E41" s="18">
-        <v>1.232272042951843</v>
+        <v>0.92337273764729466</v>
       </c>
       <c r="F41" s="18">
-        <v>99.494973882957183</v>
+        <v>99.032061384265873</v>
       </c>
       <c r="G41" s="18">
-        <v>0.49374888914639692</v>
+        <v>0.93773951240323727</v>
       </c>
       <c r="H41" s="18">
-        <v>1.1277227894505011E-2</v>
+        <v>3.0199103328999669E-2</v>
       </c>
       <c r="I41" s="18">
-        <v>0</v>
+        <v>3.3554559248080789E-3</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -10785,22 +10782,22 @@
         <v>50</v>
       </c>
       <c r="B42" s="18">
-        <v>26.18</v>
+        <v>18.48</v>
       </c>
       <c r="C42" s="18">
-        <v>8.7900000000000009</v>
+        <v>-2.04</v>
       </c>
       <c r="D42" s="18">
-        <v>23.08</v>
+        <v>27.29</v>
       </c>
       <c r="E42" s="18">
-        <v>0.36</v>
+        <v>-1.77</v>
       </c>
       <c r="F42" s="18">
-        <v>99.76</v>
+        <v>99.86</v>
       </c>
       <c r="G42" s="18">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H42" s="18">
         <v>0</v>
@@ -10818,25 +10815,25 @@
         <v>51</v>
       </c>
       <c r="B43" s="18">
-        <v>19.94227693940185</v>
+        <v>20.60926665535953</v>
       </c>
       <c r="C43" s="18">
-        <v>1.422161443832956</v>
+        <v>0.68889068526813868</v>
       </c>
       <c r="D43" s="18">
-        <v>22.878868233520631</v>
+        <v>24.530620031194879</v>
       </c>
       <c r="E43" s="18">
-        <v>-0.79210946908384594</v>
+        <v>0.38619962831605692</v>
       </c>
       <c r="F43" s="18">
-        <v>99.435322226119865</v>
+        <v>99.420759569264249</v>
       </c>
       <c r="G43" s="18">
-        <v>0.56467777387997586</v>
+        <v>0.57013916275954712</v>
       </c>
       <c r="H43" s="18">
-        <v>0</v>
+        <v>9.101267976043605E-3</v>
       </c>
       <c r="I43" s="18">
         <v>0</v>
@@ -10851,25 +10848,25 @@
         <v>52</v>
       </c>
       <c r="B44" s="18">
-        <v>11.89352908148301</v>
+        <v>11.339740315670619</v>
       </c>
       <c r="C44" s="18">
-        <v>8.9057695083403055E-2</v>
+        <v>2.7646197773752541</v>
       </c>
       <c r="D44" s="18">
-        <v>24.422640481198389</v>
+        <v>23.995269615345819</v>
       </c>
       <c r="E44" s="18">
-        <v>-1.2343481117721229</v>
+        <v>-5.5279298958511323</v>
       </c>
       <c r="F44" s="18">
-        <v>99.775886138185072</v>
+        <v>99.495156342725323</v>
       </c>
       <c r="G44" s="18">
-        <v>0.1867615515124342</v>
+        <v>0.38137332280978692</v>
       </c>
       <c r="H44" s="18">
-        <v>3.7352310302486848E-2</v>
+        <v>9.534333070244673E-2</v>
       </c>
       <c r="I44" s="18">
         <v>0</v>
@@ -10884,28 +10881,28 @@
         <v>53</v>
       </c>
       <c r="B45" s="18">
-        <v>14.32148199852768</v>
+        <v>11.28187518029589</v>
       </c>
       <c r="C45" s="18">
-        <v>1.479616139570489</v>
+        <v>-2.1754762228969771</v>
       </c>
       <c r="D45" s="18">
-        <v>23.204049224603089</v>
+        <v>19.574689262012861</v>
       </c>
       <c r="E45" s="18">
-        <v>0.96912108811170061</v>
+        <v>-1.4492588362161309</v>
       </c>
       <c r="F45" s="18">
-        <v>99.129402444749772</v>
+        <v>99.245245399450255</v>
       </c>
       <c r="G45" s="18">
-        <v>0.82328893356332067</v>
+        <v>0.73137594433155062</v>
       </c>
       <c r="H45" s="18">
-        <v>4.7308621686181537E-2</v>
+        <v>1.7592011982729371E-2</v>
       </c>
       <c r="I45" s="18">
-        <v>1.774073313213767E-2</v>
+        <v>1.165064822779067E-2</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -10917,28 +10914,28 @@
         <v>54</v>
       </c>
       <c r="B46" s="18">
-        <v>15.51616555567329</v>
+        <v>15.76573381220439</v>
       </c>
       <c r="C46" s="18">
-        <v>4.5097040090413792E-2</v>
+        <v>8.0417270682251241E-2</v>
       </c>
       <c r="D46" s="18">
-        <v>33.20745361155906</v>
+        <v>36.479114889633678</v>
       </c>
       <c r="E46" s="18">
-        <v>5.7562279821459574</v>
+        <v>-0.52111210834570398</v>
       </c>
       <c r="F46" s="18">
-        <v>97.992304762303164</v>
+        <v>97.784100355130533</v>
       </c>
       <c r="G46" s="18">
-        <v>1.8979374906461579</v>
+        <v>2.1311342991361748</v>
       </c>
       <c r="H46" s="18">
-        <v>0.1069391968430348</v>
+        <v>7.4146921284164252E-2</v>
       </c>
       <c r="I46" s="18">
-        <v>2.8185502073370451E-3</v>
+        <v>1.061842444852675E-2</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -10950,25 +10947,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="18">
-        <v>7.6736206812886687</v>
+        <v>4.4315852851087403</v>
       </c>
       <c r="C47" s="18">
-        <v>3.726799999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D47" s="18">
-        <v>24.6651087614304</v>
+        <v>23.361616219146299</v>
       </c>
       <c r="E47" s="18">
-        <v>1.0561</v>
+        <v>-1.2989999999999999</v>
       </c>
       <c r="F47" s="18">
-        <v>98.906619385341997</v>
+        <v>98.751835535975999</v>
       </c>
       <c r="G47" s="18">
-        <v>1.078605200945</v>
+        <v>1.2481644640230001</v>
       </c>
       <c r="H47" s="18">
-        <v>1.4775413711E-2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="18">
         <v>0</v>
@@ -10983,25 +10980,25 @@
         <v>56</v>
       </c>
       <c r="B48" s="18">
-        <v>14.69061888465513</v>
+        <v>12.00301989988481</v>
       </c>
       <c r="C48" s="18">
-        <v>3.5231043114543108</v>
+        <v>-2.2747308944543438</v>
       </c>
       <c r="D48" s="18">
-        <v>29.713925743156981</v>
+        <v>28.918438117522971</v>
       </c>
       <c r="E48" s="18">
-        <v>2.1414968468468469</v>
+        <v>-0.16531437552908479</v>
       </c>
       <c r="F48" s="18">
-        <v>99.807320090919973</v>
+        <v>99.614640181840883</v>
       </c>
       <c r="G48" s="18">
-        <v>0.15414392726346529</v>
+        <v>0.269751872710361</v>
       </c>
       <c r="H48" s="18">
-        <v>3.853598181563192E-2</v>
+        <v>0.1156079454468958</v>
       </c>
       <c r="I48" s="18">
         <v>0</v>
@@ -11016,25 +11013,25 @@
         <v>57</v>
       </c>
       <c r="B49" s="18">
-        <v>14.799316817071601</v>
+        <v>9.1916519268027166</v>
       </c>
       <c r="C49" s="18">
-        <v>2.5975384144006131</v>
+        <v>-1.514792543182321</v>
       </c>
       <c r="D49" s="18">
-        <v>25.39026060144764</v>
+        <v>36.708173942703567</v>
       </c>
       <c r="E49" s="18">
-        <v>0.1197955112983531</v>
+        <v>7.0460393089048043</v>
       </c>
       <c r="F49" s="18">
-        <v>99.443086384403017</v>
+        <v>99.029530082968165</v>
       </c>
       <c r="G49" s="18">
-        <v>0.54243718450119027</v>
+        <v>0.97046991703114116</v>
       </c>
       <c r="H49" s="18">
-        <v>1.44764310943882E-2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="18">
         <v>0</v>
@@ -11049,28 +11046,28 @@
         <v>58</v>
       </c>
       <c r="B50" s="18">
-        <v>12.986598646276279</v>
+        <v>10.68488775622107</v>
       </c>
       <c r="C50" s="18">
-        <v>3.668004172811659</v>
+        <v>1.298911693075538</v>
       </c>
       <c r="D50" s="18">
-        <v>19.352891181115279</v>
+        <v>24.995454726950211</v>
       </c>
       <c r="E50" s="18">
-        <v>0.48709237442526238</v>
+        <v>2.0542255531865758</v>
       </c>
       <c r="F50" s="18">
-        <v>98.583836784663788</v>
+        <v>97.397042280044246</v>
       </c>
       <c r="G50" s="18">
-        <v>1.225596379651539</v>
+        <v>2.095453016970414</v>
       </c>
       <c r="H50" s="18">
-        <v>0.18069436235936789</v>
+        <v>0.50750470298444628</v>
       </c>
       <c r="I50" s="18">
-        <v>1.4235157418904489E-2</v>
+        <v>9.4974747339139336E-3</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -11082,28 +11079,28 @@
         <v>59</v>
       </c>
       <c r="B51" s="18">
-        <v>8.7594407443505933</v>
+        <v>4.1265242243179667</v>
       </c>
       <c r="C51" s="18">
-        <v>-0.37215907946615512</v>
+        <v>-3.1804161424176671</v>
       </c>
       <c r="D51" s="18">
-        <v>16.6044719089744</v>
+        <v>18.296128173747789</v>
       </c>
       <c r="E51" s="18">
-        <v>0.92597965918349467</v>
+        <v>0.41180709062849669</v>
       </c>
       <c r="F51" s="18">
-        <v>98.760255228808248</v>
+        <v>98.834879391757966</v>
       </c>
       <c r="G51" s="18">
-        <v>0.99747928025338373</v>
+        <v>1.036016459472938</v>
       </c>
       <c r="H51" s="18">
-        <v>0.2422654909378234</v>
+        <v>0.10758679064046429</v>
       </c>
       <c r="I51" s="18">
-        <v>0</v>
+        <v>2.151735812809287E-2</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -11115,25 +11112,25 @@
         <v>60</v>
       </c>
       <c r="B52" s="18">
-        <v>10.8168676237062</v>
+        <v>17.107496788064921</v>
       </c>
       <c r="C52" s="18">
-        <v>-0.66961514013486523</v>
+        <v>4.3476436041499156</v>
       </c>
       <c r="D52" s="18">
-        <v>19.278544196633732</v>
+        <v>30.489504533011619</v>
       </c>
       <c r="E52" s="18">
-        <v>0.38545703390716612</v>
+        <v>3.7995706029058791</v>
       </c>
       <c r="F52" s="18">
-        <v>98.73872576966933</v>
+        <v>97.857175880925311</v>
       </c>
       <c r="G52" s="18">
-        <v>1.261274230330673</v>
+        <v>2.1351984104658812</v>
       </c>
       <c r="H52" s="18">
-        <v>0</v>
+        <v>7.6257086088067179E-3</v>
       </c>
       <c r="I52" s="18">
         <v>0</v>
@@ -11148,43 +11145,33 @@
         <v>61</v>
       </c>
       <c r="B53" s="18">
-        <v>-4.1000000000000014</v>
+        <v>15.80329346949021</v>
       </c>
       <c r="C53" s="18">
-        <v>-5.8999999999999986</v>
+        <v>4.5662341421449426</v>
       </c>
       <c r="D53" s="18">
-        <v>3.7</v>
+        <v>26.257602767201419</v>
       </c>
       <c r="E53" s="18">
-        <v>-9.8000000000000007</v>
+        <v>5.2311297212587649</v>
       </c>
       <c r="F53" s="18">
-        <v>99.7</v>
+        <v>99.413735343383578</v>
       </c>
       <c r="G53" s="18">
-        <v>0.3</v>
+        <v>0.50251256281407031</v>
       </c>
       <c r="H53" s="18">
         <v>0</v>
       </c>
       <c r="I53" s="18">
-        <v>0</v>
+        <v>8.3752093802345065E-2</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11195,11 +11182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B108-7690-FA48-BD1F-70BA8E6E6932}">
   <dimension ref="A51:A100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11259,15 +11246,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:X5"/>
+  <dimension ref="A2:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -11275,7 +11262,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43911</v>
       </c>
@@ -11345,8 +11332,17 @@
       <c r="X4" s="5">
         <v>44065</v>
       </c>
+      <c r="Y4" s="5">
+        <v>44072</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>44079</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>44086</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.42452508300000003</v>
       </c>
@@ -11415,6 +11411,15 @@
       </c>
       <c r="X5" s="11">
         <v>0.35906673899999997</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0.35499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2986796-A612-C644-BAE4-04F8D2794234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EDD596E-1FC0-CA4E-ADE3-248C69BA7E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>state</t>
   </si>
   <si>
     <t>% of Backbone Capacity Utilized</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Utilization</t>
   </si>
   <si>
     <t>downstream_growth_overall</t>
@@ -226,7 +232,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -256,13 +262,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -306,6 +305,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -378,33 +383,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,8 +450,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -753,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.53719406125724678</c:v>
+                  <c:v>-0.34128746686463401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.42180947895130011</c:v>
+                  <c:v>-3.230503426013474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.79176334106728641</c:v>
+                  <c:v>-0.94125097147463865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72284247735372764</c:v>
+                  <c:v>0.5861404513467674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.50427366816823</c:v>
+                  <c:v>1.311258658019069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24234557359271</c:v>
+                  <c:v>-0.95775993214142163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0128768137448718</c:v>
+                  <c:v>0.45336316072250998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.718439174515235</c:v>
+                  <c:v>0.50227964488160071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.766899025919658</c:v>
+                  <c:v>-0.38384758019523918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1727000000000001</c:v>
+                  <c:v>0.59840000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.130864143732156</c:v>
+                  <c:v>-1.12379814299714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.79273477790786673</c:v>
+                  <c:v>-1.471520527813811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.9548769886801112</c:v>
+                  <c:v>-2.3583475559231681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42542962858347122</c:v>
+                  <c:v>-1.4637655810018231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.112696275487262</c:v>
+                  <c:v>8.1798532262209414E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98534933479601916</c:v>
+                  <c:v>-0.24285783246263029</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8798262481298371</c:v>
+                  <c:v>1.20699449285805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20413982693167859</c:v>
+                  <c:v>0.6750753018248099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.30867006440745</c:v>
+                  <c:v>0.53454290300451868</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0153174522557731</c:v>
+                  <c:v>1.37508109310935</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5669145032379459</c:v>
+                  <c:v>-2.7771165654792301E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.525613591969289</c:v>
+                  <c:v>-0.30603657581143839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.6316684577520559</c:v>
+                  <c:v>-1.4117480212671469</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4411947132094201</c:v>
+                  <c:v>0.2016388774926505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6404055557457911</c:v>
+                  <c:v>-0.62566513718022343</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.7859499017115601</c:v>
+                  <c:v>-3.7892622145615597E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45341550232779382</c:v>
+                  <c:v>0.19099099692878169</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.8507642650719616</c:v>
+                  <c:v>-0.5521350301048833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6022428693824988</c:v>
+                  <c:v>0.40013780086001688</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0328948389916022</c:v>
+                  <c:v>3.0170538857588709</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.786930424412015</c:v>
+                  <c:v>-0.15168411607182741</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.839011582718526</c:v>
+                  <c:v>-0.86817992985457482</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4458119433260621</c:v>
+                  <c:v>0.2141230716412813</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.60741480033274731</c:v>
+                  <c:v>-1.3129652756758421</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.501284826996002E-2</c:v>
+                  <c:v>-4.853500918710167</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0636257263859221</c:v>
+                  <c:v>3.6419138220481249</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.7601926013044054</c:v>
+                  <c:v>1.722871154996729</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.399823498465391</c:v>
+                  <c:v>1.0318585000464751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4540554371375336</c:v>
+                  <c:v>-2.8289156098996928</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.890034099134531</c:v>
+                  <c:v>0.27769496442347569</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.04</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.68889068526813868</c:v>
+                  <c:v>-3.5306791477886059</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.7646197773752541</c:v>
+                  <c:v>0.13446729057974049</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.1754762228969771</c:v>
+                  <c:v>0.12206948933595731</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.0417270682251241E-2</c:v>
+                  <c:v>2.4523902426042228</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.94299999999999995</c:v>
+                  <c:v>2.1027</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.2747308944543438</c:v>
+                  <c:v>6.6028221536750475E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.514792543182321</c:v>
+                  <c:v>-1.0097394964968689</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.298911693075538</c:v>
+                  <c:v>0.59923844015624295</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.1804161424176671</c:v>
+                  <c:v>-1.1168667755959829</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.3476436041499156</c:v>
+                  <c:v>0.89378784806182798</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.5662341421449426</c:v>
+                  <c:v>2.3651913307640049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +1021,8 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-15"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1408,160 +1445,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.045451072141397</c:v>
+                  <c:v>1.9569500411414089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91000081625281593</c:v>
+                  <c:v>0.69576040213847434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.303921568627465</c:v>
+                  <c:v>-9.6153846153845812E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.635180234678199</c:v>
+                  <c:v>-1.2014342954868871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60574238761477428</c:v>
+                  <c:v>4.7902474304693667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.83511344447209845</c:v>
+                  <c:v>0.45375012466799669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50124165392354514</c:v>
+                  <c:v>0.72254208041762558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31212386840548773</c:v>
+                  <c:v>1.865795714324741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78325339466374788</c:v>
+                  <c:v>3.774291055252466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65229999999999999</c:v>
+                  <c:v>1.0410999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.54728149026706119</c:v>
+                  <c:v>1.255865817963852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.82417399502062083</c:v>
+                  <c:v>1.335800902256312</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3808307436285352</c:v>
+                  <c:v>0.59202605036612344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15784279250870731</c:v>
+                  <c:v>-1.546133196196273</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.085663023811009</c:v>
+                  <c:v>1.342058320029992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56496582254215011</c:v>
+                  <c:v>2.0141602626067372</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3665488172045643</c:v>
+                  <c:v>3.3515755792603641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4933639463858936</c:v>
+                  <c:v>1.7852338836707959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4042625958340131E-2</c:v>
+                  <c:v>4.9346828303922834</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.281164845037571</c:v>
+                  <c:v>5.660146087775539</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.8102945353309936</c:v>
+                  <c:v>3.1665895548917451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9917757368483899</c:v>
+                  <c:v>2.5954385928473962</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.299873406245305</c:v>
+                  <c:v>2.958666099158016</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6570001391335261</c:v>
+                  <c:v>3.7496360509432192</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6400208274025689</c:v>
+                  <c:v>1.2699977093923811</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4826012428242883E-2</c:v>
+                  <c:v>5.9364562032603532</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25182292890347707</c:v>
+                  <c:v>1.295119853892519</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.197498959329901</c:v>
+                  <c:v>1.5178590983649931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4384015495528142</c:v>
+                  <c:v>2.8867556791715012</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5417323224512698</c:v>
+                  <c:v>1.5255579091558711</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.3502593597329575E-2</c:v>
+                  <c:v>2.5441966826953561</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.7705521238631574</c:v>
+                  <c:v>2.208417378022399</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.67605056238363703</c:v>
+                  <c:v>1.113882169603498</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.534113105180499</c:v>
+                  <c:v>3.9975370838733659</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.33090728312977957</c:v>
+                  <c:v>0.94838093547873759</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.5049649902150879</c:v>
+                  <c:v>-0.67908785674314498</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4605871156188099</c:v>
+                  <c:v>3.7984740955760512</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.84010455688754349</c:v>
+                  <c:v>3.5175597392713929</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6859605468809571</c:v>
+                  <c:v>1.280020543368682</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.92337273764729466</c:v>
+                  <c:v>2.095758590724345</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.77</c:v>
+                  <c:v>0.71000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.38619962831605692</c:v>
+                  <c:v>0.21531757340057059</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.5279298958511323</c:v>
+                  <c:v>0.67757551779629632</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.4492588362161309</c:v>
+                  <c:v>4.5350947502992671</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.52111210834570398</c:v>
+                  <c:v>2.3307254849807708</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.2989999999999999</c:v>
+                  <c:v>2.1528</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.16531437552908479</c:v>
+                  <c:v>2.023256470892981</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.0460393089048043</c:v>
+                  <c:v>2.620758954450944</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0542255531865758</c:v>
+                  <c:v>-0.1407830084552934</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.41180709062849669</c:v>
+                  <c:v>2.2388279283577628</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.7995706029058791</c:v>
+                  <c:v>1.6137873016253701</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.2311297212587649</c:v>
+                  <c:v>2.718311466683776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,7 +1677,8 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-15"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2068,160 +2106,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.766148956815528</c:v>
+                  <c:v>1.90362641290201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66622966626365032</c:v>
+                  <c:v>0.84906966602456868</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20773824980524541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.901783494437765</c:v>
+                  <c:v>1.13077897785795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57301908281410929</c:v>
+                  <c:v>0.67800491625457671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0648474900473914</c:v>
+                  <c:v>6.1516570197266098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9949235141122008</c:v>
+                  <c:v>3.6976063111072359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95342704905542286</c:v>
+                  <c:v>1.066371403209305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1230184361985129</c:v>
+                  <c:v>1.3624533689646789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1004709576130001</c:v>
+                  <c:v>3.023164507263</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.047746214852012</c:v>
+                  <c:v>1.230748061038254</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0884949771217689</c:v>
+                  <c:v>1.174414262016356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5383319292333608</c:v>
+                  <c:v>3.473684210526315</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2390871078826845</c:v>
+                  <c:v>0.27950271060873438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6000835293917131</c:v>
+                  <c:v>1.886412074897128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31758727231093581</c:v>
+                  <c:v>0.35942915565910222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3070055280376801E-2</c:v>
+                  <c:v>0.1431826456569906</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29644090107098492</c:v>
+                  <c:v>0.26035236266951522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79232753174093828</c:v>
+                  <c:v>0.86429924520452506</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45737466695504359</c:v>
+                  <c:v>0.71002960925048342</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14973939585912979</c:v>
+                  <c:v>0.19024360334989979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.012917744804696</c:v>
+                  <c:v>2.3076062246143101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.61559446765036419</c:v>
+                  <c:v>1.186137893550306</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.32060016634107819</c:v>
+                  <c:v>0.43760015911667471</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.81470855205571446</c:v>
+                  <c:v>0.91134215356441606</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25517579355921638</c:v>
+                  <c:v>0.60559024094860825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.430363810928476</c:v>
+                  <c:v>1.4439044357822299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7225433526011561</c:v>
+                  <c:v>0.76886112445939458</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4168557730723132</c:v>
+                  <c:v>0.39677056542748029</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8434057630773899</c:v>
+                  <c:v>1.3254846459903351</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.64442731680039578</c:v>
+                  <c:v>0.72649875155031607</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7087605892513289</c:v>
+                  <c:v>2.130688843444664</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.8112016885705202</c:v>
+                  <c:v>3.014695676771479</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1917783418487129</c:v>
+                  <c:v>1.6644089495619021</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2012900256041941</c:v>
+                  <c:v>1.424763409570279</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>2.5146341831156261E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.57414877870570513</c:v>
+                  <c:v>0.63401265050185074</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.19667342972015869</c:v>
+                  <c:v>0.18171429026969141</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.748179235809922</c:v>
+                  <c:v>1.89159040854628</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.93773951240323727</c:v>
+                  <c:v>1.0279390366031389</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.57013916275954712</c:v>
+                  <c:v>0.80508648186129173</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.38137332280978692</c:v>
+                  <c:v>0.26718078407121731</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.73137594433155062</c:v>
+                  <c:v>1.2845039178081541</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1311342991361748</c:v>
+                  <c:v>2.0856805710470141</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2481644640230001</c:v>
+                  <c:v>1.40461516411</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.269751872710361</c:v>
+                  <c:v>0.11585593101876029</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.97046991703114116</c:v>
+                  <c:v>1.0224180137572381</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.095453016970414</c:v>
+                  <c:v>2.361479677287933</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.036016459472938</c:v>
+                  <c:v>1.118211409510123</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.1351984104658812</c:v>
+                  <c:v>1.7572166553551869</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.50251256281407031</c:v>
+                  <c:v>0.41771094402673348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2727,28 +2765,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>5.9225283918314289E-2</c:v>
+                  <c:v>6.3913011699542582E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9779514181900281E-2</c:v>
+                  <c:v>2.0420333064586939E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13623863035819719</c:v>
+                  <c:v>0.16691005912039619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18192495492942709</c:v>
+                  <c:v>0.14463893001123301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2425799089399457E-2</c:v>
+                  <c:v>5.2684828812082099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.30443057380059E-2</c:v>
+                  <c:v>6.4910041436023799E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15448251810510169</c:v>
+                  <c:v>6.8582569197565488E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2757,52 +2795,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5605029580785595E-2</c:v>
+                  <c:v>8.8006589562005688E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8494707220106841E-3</c:v>
+                  <c:v>9.4983051530795129E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3184498736310019E-2</c:v>
+                  <c:v>8.4210526315789472E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.008166257789084E-3</c:v>
+                  <c:v>2.807486631016042E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.9686261757913948E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.182686581762772E-2</c:v>
+                  <c:v>2.0098331084832541E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0719425855825871E-2</c:v>
+                  <c:v>0.1178327257975421</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>2.2037334635194011E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.3699928625315528E-3</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.9111226723445371E-2</c:v>
+                  <c:v>9.1558354403989947E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0909811561664229E-2</c:v>
+                  <c:v>1.102240519081087E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0982870993809648E-2</c:v>
+                  <c:v>6.4494259199186665E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1.9057840011680111E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -2814,70 +2852,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.4354578230026522E-2</c:v>
+                  <c:v>1.348350764279968E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.8520388997202429E-2</c:v>
+                  <c:v>0.129155333608613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.381103993983882E-2</c:v>
+                  <c:v>3.2745214074715763E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.33932337494925457</c:v>
+                  <c:v>0.1943646131237515</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7184685020740255E-2</c:v>
+                  <c:v>8.0069362295550242E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3222107431775201E-2</c:v>
+                  <c:v>3.9879216241849071E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0689941591414188E-2</c:v>
+                  <c:v>2.0941465147327011E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8756290438533439E-2</c:v>
+                  <c:v>1.4349527927104399E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.32958042300221729</c:v>
+                  <c:v>0.43098619278039912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0199103328999669E-2</c:v>
+                  <c:v>1.6765172266853191E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.101267976043605E-3</c:v>
+                  <c:v>1.8177553501238009E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.534333070244673E-2</c:v>
+                  <c:v>6.6795196017804315E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7592011982729371E-2</c:v>
+                  <c:v>8.7508130144568777E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.4146921284164252E-2</c:v>
+                  <c:v>8.0205423257947911E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1156079454468958</c:v>
+                  <c:v>3.8618643672294992E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>1.6317576920170301E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.50750470298444628</c:v>
+                  <c:v>0.47387469396527249</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.10758679064046429</c:v>
+                  <c:v>0.19485897453305209</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.6257086088067179E-3</c:v>
+                  <c:v>7.5742097213585668E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3387,28 +3425,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>4.1636721334857166E-3</c:v>
+                  <c:v>4.675075964336345E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9779514181900281E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9615408045160109E-2</c:v>
+                  <c:v>2.6170656862152471E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.017789340970871E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9474046660012757E-3</c:v>
+                  <c:v>9.8598219119334102E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3548788888053909E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3417,7 +3455,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.606167008537546E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3441,19 +3479,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0294215315135819E-2</c:v>
+                  <c:v>2.1109514721157369E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7963583289271856E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8717424482391221E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.869172654918142E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -3468,7 +3506,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.8053820278712162E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -3480,10 +3518,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.157050757188314E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.801924318247918E-2</c:v>
+                  <c:v>2.7766373303393072E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -3495,16 +3533,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.7925987281663653E-3</c:v>
+                  <c:v>1.01728769366192E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7094024192634349E-2</c:v>
+                  <c:v>4.3189831808719388E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.3554559248080789E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -3516,10 +3554,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.165064822779067E-2</c:v>
+                  <c:v>1.170009968095693E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.061842444852675E-2</c:v>
+                  <c:v>1.149070401497362E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3531,16 +3569,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.4974747339139336E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.151735812809287E-2</c:v>
+                  <c:v>4.2928379572257827E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>7.5742097213585668E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.3752093802345065E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4042,160 +4080,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>13.739831467740609</c:v>
+                  <c:v>14.24170795419302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.64479266543414</c:v>
+                  <c:v>15.091076044244639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.759044862518099</c:v>
+                  <c:v>24.50795947901592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.75345387101547</c:v>
+                  <c:v>13.261906893949471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.71557929515895</c:v>
+                  <c:v>13.197501711215491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.84964641269271</c:v>
+                  <c:v>18.281586639363859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7047436745684177</c:v>
+                  <c:v>3.7011385615818311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.534934722265429</c:v>
+                  <c:v>18.824607434915158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.37497566819243</c:v>
+                  <c:v>9.7737804820213761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8378412485267901</c:v>
+                  <c:v>4.8163746158880398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.51144773236191</c:v>
+                  <c:v>11.79956861230384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.17788762085738</c:v>
+                  <c:v>13.049968304959</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.63922911480406</c:v>
+                  <c:v>29.647558590969371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.33203091266873858</c:v>
+                  <c:v>1.0604856685025379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7654655260061549</c:v>
+                  <c:v>7.4656102186338336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5041221841492014</c:v>
+                  <c:v>6.8464618981870053</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.008746806478185</c:v>
+                  <c:v>-2.115641366647631</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.8559836252300723</c:v>
+                  <c:v>9.2215209588973206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.95923028344618</c:v>
+                  <c:v>14.37139081576443</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.52908312763407</c:v>
+                  <c:v>17.559334737871051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.521626211483039</c:v>
+                  <c:v>20.91570150943814</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.79689012714849</c:v>
+                  <c:v>11.625068819885049</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.736397645618251</c:v>
+                  <c:v>14.924637071620831</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.21539139289532</c:v>
+                  <c:v>14.02561874800405</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.868428006752069</c:v>
+                  <c:v>15.475946616135751</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.15427354336979</c:v>
+                  <c:v>13.817241945979641</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6063792755770052</c:v>
+                  <c:v>8.2649501371623639</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.682540176165531</c:v>
+                  <c:v>14.547988886235901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.55210055369548</c:v>
+                  <c:v>7.4935482098896937</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.56530019145378</c:v>
+                  <c:v>20.21302296997505</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.92698599824829</c:v>
+                  <c:v>15.853391901083301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.5936161040240329</c:v>
+                  <c:v>8.7961028307322042</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.879648819076731</c:v>
+                  <c:v>19.526634616537731</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.452493588087741</c:v>
+                  <c:v>16.582849594754201</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.623648430815141</c:v>
+                  <c:v>21.915917341831559</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.39763360805979</c:v>
+                  <c:v>9.4597873531057655</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19.403828091553361</c:v>
+                  <c:v>18.824574310357761</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.3154910232901997</c:v>
+                  <c:v>8.2405375017201834</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.451852497574642</c:v>
+                  <c:v>17.310055589079582</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.5408197606707024</c:v>
+                  <c:v>7.0218320027985968</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18.48</c:v>
+                  <c:v>17.57</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.60926665535953</c:v>
+                  <c:v>22.48783430923821</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.339740315670619</c:v>
+                  <c:v>10.80659918254965</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.28187518029589</c:v>
+                  <c:v>14.655150487756339</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15.76573381220439</c:v>
+                  <c:v>18.964462155055251</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.4315852851087403</c:v>
+                  <c:v>7.6367961696188589</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.00301989988481</c:v>
+                  <c:v>14.537417103365049</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.1916519268027166</c:v>
+                  <c:v>10.98542030943476</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.68488775622107</c:v>
+                  <c:v>15.244569059794401</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.1265242243179667</c:v>
+                  <c:v>6.1896132663202588</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.107496788064921</c:v>
+                  <c:v>13.816131092476491</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.80329346949021</c:v>
+                  <c:v>10.222045311964621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4696,160 +4734,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>31.414173944254809</c:v>
+                  <c:v>36.926738459651659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.967991963554809</c:v>
+                  <c:v>28.779644164243599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.953786906290119</c:v>
+                  <c:v>33.376123234916562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.367704119470332</c:v>
+                  <c:v>44.3357006926162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.850942497735449</c:v>
+                  <c:v>23.280765588277958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.466300877080243</c:v>
+                  <c:v>52.215416505763763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.85796705791903</c:v>
+                  <c:v>32.403064930131357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.91567978943694</c:v>
+                  <c:v>38.111515942739949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.202296915745471</c:v>
+                  <c:v>42.891503505392237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.732339292072602</c:v>
+                  <c:v>47.2431065208226</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.38109979766136</c:v>
+                  <c:v>27.236409116985381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.66909684739386</c:v>
+                  <c:v>35.080228698771869</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.331455971133828</c:v>
+                  <c:v>43.120409013394067</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.405856302565269</c:v>
+                  <c:v>33.126389547491449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.724035929145629</c:v>
+                  <c:v>43.672861325204657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.141365146695911</c:v>
+                  <c:v>27.69755163640756</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.067176232238971</c:v>
+                  <c:v>28.893632695089721</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.352905397729302</c:v>
+                  <c:v>34.439060261180813</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.00662543947783</c:v>
+                  <c:v>26.908866046093951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.4843692359472</c:v>
+                  <c:v>24.410572772404102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.01735901710493</c:v>
+                  <c:v>43.748762599388883</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38.266172861295182</c:v>
+                  <c:v>45.148550845166831</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.762338165329599</c:v>
+                  <c:v>38.404620032124889</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.33949833466264</c:v>
+                  <c:v>33.959656719265681</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.019268772308809</c:v>
+                  <c:v>36.049280797778543</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.4132033234682648</c:v>
+                  <c:v>20.169985676475228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.838718284459539</c:v>
+                  <c:v>30.542067196746789</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.641422050305241</c:v>
+                  <c:v>30.334107645260278</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.9553174747975</c:v>
+                  <c:v>29.686771051286382</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48.830714680036202</c:v>
+                  <c:v>50.742947916532813</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33.717473713230348</c:v>
+                  <c:v>39.169183723136122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.064127022223829</c:v>
+                  <c:v>43.322914741616898</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>35.62385707509668</c:v>
+                  <c:v>40.073746708955071</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.346633205874038</c:v>
+                  <c:v>37.255019095989432</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.120741843488211</c:v>
+                  <c:v>33.264939038482673</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.755549935315361</c:v>
+                  <c:v>20.189955232232791</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.961506122316219</c:v>
+                  <c:v>30.428298958477569</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.402289289559281</c:v>
+                  <c:v>23.057979331896231</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.351864118767551</c:v>
+                  <c:v>35.417744038230317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.657909721796852</c:v>
+                  <c:v>34.660180443606897</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.29</c:v>
+                  <c:v>42.14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.530620031194879</c:v>
+                  <c:v>32.081964851830321</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.995269615345819</c:v>
+                  <c:v>22.658914520234092</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.574689262012861</c:v>
+                  <c:v>30.10689063000645</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.479114889633678</c:v>
+                  <c:v>39.383926767499013</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.361616219146299</c:v>
+                  <c:v>30.4099358747407</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>28.918438117522971</c:v>
+                  <c:v>34.766538362238776</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.708173942703567</c:v>
+                  <c:v>42.318673161640803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24.995454726950211</c:v>
+                  <c:v>31.20934910670837</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.296128173747789</c:v>
+                  <c:v>24.800813815875429</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30.489504533011619</c:v>
+                  <c:v>32.874825057661887</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>26.257602767201419</c:v>
+                  <c:v>22.451096443278299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9407,1771 +9445,1771 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="3" customWidth="1"/>
-    <col min="10" max="13" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17">
-        <v>13.739831467740609</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0.53719406125724678</v>
-      </c>
-      <c r="D2" s="17">
-        <v>31.414173944254809</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1.045451072141397</v>
-      </c>
-      <c r="F2" s="17">
-        <v>98.171244003948971</v>
-      </c>
-      <c r="G2" s="17">
-        <v>1.766148956815528</v>
-      </c>
-      <c r="H2" s="17">
-        <v>5.9225283918314289E-2</v>
-      </c>
-      <c r="I2" s="17">
-        <v>4.1636721334857166E-3</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18">
+        <v>14.24170795419302</v>
+      </c>
+      <c r="C2" s="18">
+        <v>-0.34128746686463401</v>
+      </c>
+      <c r="D2" s="18">
+        <v>36.926738459651659</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1.9569500411414089</v>
+      </c>
+      <c r="F2" s="18">
+        <v>98.02880027494345</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1.90362641290201</v>
+      </c>
+      <c r="H2" s="18">
+        <v>6.3913011699542582E-2</v>
+      </c>
+      <c r="I2" s="18">
+        <v>4.675075964336345E-3</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="18">
-        <v>12.64479266543414</v>
-      </c>
-      <c r="C3" s="18">
-        <v>-0.42180947895130011</v>
-      </c>
-      <c r="D3" s="18">
-        <v>21.967991963554809</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.91000081625281593</v>
-      </c>
-      <c r="F3" s="18">
-        <v>99.294211305372286</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.66622966626365032</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1.9779514181900281E-2</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1.9779514181900281E-2</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="19">
+        <v>15.091076044244639</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-3.230503426013474</v>
+      </c>
+      <c r="D3" s="19">
+        <v>28.779644164243599</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.69576040213847434</v>
+      </c>
+      <c r="F3" s="19">
+        <v>99.130510000910306</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.84906966602456868</v>
+      </c>
+      <c r="H3" s="19">
+        <v>2.0420333064586939E-2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="18">
-        <v>23.759044862518099</v>
-      </c>
-      <c r="C4" s="18">
-        <v>-0.79176334106728641</v>
-      </c>
-      <c r="D4" s="18">
-        <v>33.953786906290119</v>
-      </c>
-      <c r="E4" s="18">
-        <v>2.303921568627465</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19">
+        <v>24.50795947901592</v>
+      </c>
+      <c r="C4" s="19">
+        <v>-0.94125097147463865</v>
+      </c>
+      <c r="D4" s="19">
+        <v>33.376123234916562</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-9.6153846153845812E-2</v>
+      </c>
+      <c r="F4" s="19">
         <v>99.792261750194754</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="19">
         <v>0.20773824980524541</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>0</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="19">
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="18">
-        <v>12.75345387101547</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.72284247735372764</v>
-      </c>
-      <c r="D5" s="18">
-        <v>45.367704119470332</v>
-      </c>
-      <c r="E5" s="18">
-        <v>-1.635180234678199</v>
-      </c>
-      <c r="F5" s="18">
-        <v>97.942362467158759</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1.901783494437765</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.13623863035819719</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1.9615408045160109E-2</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19">
+        <v>13.261906893949471</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.5861404513467674</v>
+      </c>
+      <c r="D5" s="19">
+        <v>44.3357006926162</v>
+      </c>
+      <c r="E5" s="19">
+        <v>-1.2014342954868871</v>
+      </c>
+      <c r="F5" s="19">
+        <v>98.676140306159439</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1.13077897785795</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.16691005912039619</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2.6170656862152471E-2</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="18">
-        <v>11.71557929515895</v>
-      </c>
-      <c r="C6" s="18">
-        <v>-1.50427366816823</v>
-      </c>
-      <c r="D6" s="18">
-        <v>14.850942497735449</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.60574238761477428</v>
-      </c>
-      <c r="F6" s="18">
-        <v>99.245055962256188</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.57301908281410929</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.18192495492942709</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19">
+        <v>13.197501711215491</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.311258658019069</v>
+      </c>
+      <c r="D6" s="19">
+        <v>23.280765588277958</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4.7902474304693667</v>
+      </c>
+      <c r="F6" s="19">
+        <v>99.157178260323931</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.67800491625457671</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.14463893001123301</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2.017789340970871E-2</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18">
-        <v>18.84964641269271</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1.24234557359271</v>
-      </c>
-      <c r="D7" s="18">
-        <v>48.466300877080243</v>
-      </c>
-      <c r="E7" s="18">
-        <v>-0.83511344447209845</v>
-      </c>
-      <c r="F7" s="18">
-        <v>93.86594276900999</v>
-      </c>
-      <c r="G7" s="18">
-        <v>6.0648474900473914</v>
-      </c>
-      <c r="H7" s="18">
-        <v>6.2425799089399457E-2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>5.9474046660012757E-3</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19">
+        <v>18.281586639363859</v>
+      </c>
+      <c r="C7" s="19">
+        <v>-0.95775993214142163</v>
+      </c>
+      <c r="D7" s="19">
+        <v>52.215416505763763</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.45375012466799669</v>
+      </c>
+      <c r="F7" s="19">
+        <v>93.786629819293609</v>
+      </c>
+      <c r="G7" s="19">
+        <v>6.1516570197266098</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5.2684828812082099E-2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>9.8598219119334102E-3</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="18">
-        <v>5.7047436745684177</v>
-      </c>
-      <c r="C8" s="18">
-        <v>4.0128768137448718</v>
-      </c>
-      <c r="D8" s="18">
-        <v>30.85796705791903</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.50124165392354514</v>
-      </c>
-      <c r="F8" s="18">
-        <v>95.992032180148883</v>
-      </c>
-      <c r="G8" s="18">
-        <v>3.9949235141122008</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1.30443057380059E-2</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19">
+        <v>3.7011385615818311</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.45336316072250998</v>
+      </c>
+      <c r="D8" s="19">
+        <v>32.403064930131357</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.72254208041762558</v>
+      </c>
+      <c r="F8" s="19">
+        <v>96.295902684748228</v>
+      </c>
+      <c r="G8" s="19">
+        <v>3.6976063111072359</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6.4910041436023799E-3</v>
+      </c>
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="18">
-        <v>17.534934722265429</v>
-      </c>
-      <c r="C9" s="18">
-        <v>-1.718439174515235</v>
-      </c>
-      <c r="D9" s="18">
-        <v>30.91567978943694</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0.31212386840548773</v>
-      </c>
-      <c r="F9" s="18">
-        <v>98.891419067853093</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.95342704905542286</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.15448251810510169</v>
-      </c>
-      <c r="I9" s="18">
-        <v>7.3548788888053909E-3</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="19">
+        <v>18.824607434915158</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.50227964488160071</v>
+      </c>
+      <c r="D9" s="19">
+        <v>38.111515942739949</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1.865795714324741</v>
+      </c>
+      <c r="F9" s="19">
+        <v>98.865046027592513</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1.066371403209305</v>
+      </c>
+      <c r="H9" s="19">
+        <v>6.8582569197565488E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="18">
-        <v>10.37497566819243</v>
-      </c>
-      <c r="C10" s="18">
-        <v>-1.766899025919658</v>
-      </c>
-      <c r="D10" s="18">
-        <v>34.202296915745471</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.78325339466374788</v>
-      </c>
-      <c r="F10" s="18">
-        <v>98.876981563800612</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1.1230184361985129</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="19">
+        <v>9.7737804820213761</v>
+      </c>
+      <c r="C10" s="19">
+        <v>-0.38384758019523918</v>
+      </c>
+      <c r="D10" s="19">
+        <v>42.891503505392237</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3.774291055252466</v>
+      </c>
+      <c r="F10" s="19">
+        <v>98.637546631034439</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1.3624533689646789</v>
+      </c>
+      <c r="H10" s="19">
         <v>0</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="19">
         <v>0</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1.8378412485267901</v>
-      </c>
-      <c r="C11" s="18">
-        <v>-1.1727000000000001</v>
-      </c>
-      <c r="D11" s="18">
-        <v>39.732339292072602</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.65229999999999999</v>
-      </c>
-      <c r="F11" s="18">
-        <v>96.899529042386007</v>
-      </c>
-      <c r="G11" s="18">
-        <v>3.1004709576130001</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19">
+        <v>4.8163746158880398</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="D11" s="19">
+        <v>47.2431065208226</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1.0410999999999999</v>
+      </c>
+      <c r="F11" s="19">
+        <v>96.976835492736001</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3.023164507263</v>
+      </c>
+      <c r="H11" s="19">
         <v>0</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>0</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18">
-        <v>11.51144773236191</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1.130864143732156</v>
-      </c>
-      <c r="D12" s="18">
-        <v>23.38109979766136</v>
-      </c>
-      <c r="E12" s="18">
-        <v>-0.54728149026706119</v>
-      </c>
-      <c r="F12" s="18">
-        <v>98.886648755565986</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1.047746214852012</v>
-      </c>
-      <c r="H12" s="18">
-        <v>6.5605029580785595E-2</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19">
+        <v>11.79956861230384</v>
+      </c>
+      <c r="C12" s="19">
+        <v>-1.12379814299714</v>
+      </c>
+      <c r="D12" s="19">
+        <v>27.236409116985381</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1.255865817963852</v>
+      </c>
+      <c r="F12" s="19">
+        <v>98.681245349398523</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1.230748061038254</v>
+      </c>
+      <c r="H12" s="19">
+        <v>8.8006589562005688E-2</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1.606167008537546E-3</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="18">
-        <v>11.17788762085738</v>
-      </c>
-      <c r="C13" s="18">
-        <v>-0.79273477790786673</v>
-      </c>
-      <c r="D13" s="18">
-        <v>27.66909684739386</v>
-      </c>
-      <c r="E13" s="18">
-        <v>-0.82417399502062083</v>
-      </c>
-      <c r="F13" s="18">
-        <v>98.907655552155461</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1.0884949771217689</v>
-      </c>
-      <c r="H13" s="18">
-        <v>3.8494707220106841E-3</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19">
+        <v>13.049968304959</v>
+      </c>
+      <c r="C13" s="19">
+        <v>-1.471520527813811</v>
+      </c>
+      <c r="D13" s="19">
+        <v>35.080228698771869</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1.335800902256312</v>
+      </c>
+      <c r="F13" s="19">
+        <v>98.816087432829789</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1.174414262016356</v>
+      </c>
+      <c r="H13" s="19">
+        <v>9.4983051530795129E-3</v>
+      </c>
+      <c r="I13" s="19">
         <v>0</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="18">
-        <v>32.63922911480406</v>
-      </c>
-      <c r="C14" s="18">
-        <v>-2.9548769886801112</v>
-      </c>
-      <c r="D14" s="18">
-        <v>44.331455971133828</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.3808307436285352</v>
-      </c>
-      <c r="F14" s="18">
-        <v>96.398483572030329</v>
-      </c>
-      <c r="G14" s="18">
-        <v>3.5383319292333608</v>
-      </c>
-      <c r="H14" s="18">
-        <v>6.3184498736310019E-2</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="19">
+        <v>29.647558590969371</v>
+      </c>
+      <c r="C14" s="19">
+        <v>-2.3583475559231681</v>
+      </c>
+      <c r="D14" s="19">
+        <v>43.120409013394067</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.59202605036612344</v>
+      </c>
+      <c r="F14" s="19">
+        <v>96.442105263157899</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3.473684210526315</v>
+      </c>
+      <c r="H14" s="19">
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="I14" s="19">
         <v>0</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="18">
-        <v>-0.33203091266873858</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.42542962858347122</v>
-      </c>
-      <c r="D15" s="18">
-        <v>30.405856302565269</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.15784279250870731</v>
-      </c>
-      <c r="F15" s="18">
-        <v>99.760912892117318</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.2390871078826845</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1.0604856685025379</v>
+      </c>
+      <c r="C15" s="19">
+        <v>-1.4637655810018231</v>
+      </c>
+      <c r="D15" s="19">
+        <v>33.126389547491449</v>
+      </c>
+      <c r="E15" s="19">
+        <v>-1.546133196196273</v>
+      </c>
+      <c r="F15" s="19">
+        <v>99.720497289391261</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.27950271060873438</v>
+      </c>
+      <c r="H15" s="19">
         <v>0</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="19">
         <v>0</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="18">
-        <v>7.7654655260061549</v>
-      </c>
-      <c r="C16" s="18">
-        <v>2.112696275487262</v>
-      </c>
-      <c r="D16" s="18">
-        <v>38.724035929145629</v>
-      </c>
-      <c r="E16" s="18">
-        <v>3.085663023811009</v>
-      </c>
-      <c r="F16" s="18">
-        <v>98.393908304349651</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1.6000835293917131</v>
-      </c>
-      <c r="H16" s="18">
-        <v>6.008166257789084E-3</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="19">
+        <v>7.4656102186338336</v>
+      </c>
+      <c r="C16" s="19">
+        <v>8.1798532262209414E-2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>43.672861325204657</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1.342058320029992</v>
+      </c>
+      <c r="F16" s="19">
+        <v>98.110780438471011</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1.886412074897128</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2.807486631016042E-3</v>
+      </c>
+      <c r="I16" s="19">
         <v>0</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="18">
-        <v>7.5041221841492014</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.98534933479601916</v>
-      </c>
-      <c r="D17" s="18">
-        <v>23.141365146695911</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.56496582254215011</v>
-      </c>
-      <c r="F17" s="18">
-        <v>99.68241272768833</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0.31758727231093581</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="19">
+        <v>6.8464618981870053</v>
+      </c>
+      <c r="C17" s="19">
+        <v>-0.24285783246263029</v>
+      </c>
+      <c r="D17" s="19">
+        <v>27.69755163640756</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2.0141602626067372</v>
+      </c>
+      <c r="F17" s="19">
+        <v>99.634602218164375</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.35942915565910222</v>
+      </c>
+      <c r="H17" s="19">
+        <v>5.9686261757913948E-3</v>
+      </c>
+      <c r="I17" s="19">
         <v>0</v>
       </c>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1.008746806478185</v>
-      </c>
-      <c r="C18" s="18">
-        <v>4.8798262481298371</v>
-      </c>
-      <c r="D18" s="18">
-        <v>25.067176232238971</v>
-      </c>
-      <c r="E18" s="18">
-        <v>4.3665488172045643</v>
-      </c>
-      <c r="F18" s="18">
-        <v>99.956929944719619</v>
-      </c>
-      <c r="G18" s="18">
-        <v>4.3070055280376801E-2</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="19">
+        <v>-2.115641366647631</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1.20699449285805</v>
+      </c>
+      <c r="D18" s="19">
+        <v>28.893632695089721</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3.3515755792603641</v>
+      </c>
+      <c r="F18" s="19">
+        <v>99.856817354343022</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.1431826456569906</v>
+      </c>
+      <c r="H18" s="19">
         <v>0</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="19">
         <v>0</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="18">
-        <v>9.8559836252300723</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0.20413982693167859</v>
-      </c>
-      <c r="D19" s="18">
-        <v>32.352905397729302</v>
-      </c>
-      <c r="E19" s="18">
-        <v>6.4933639463858936</v>
-      </c>
-      <c r="F19" s="18">
-        <v>99.661732233111337</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0.29644090107098492</v>
-      </c>
-      <c r="H19" s="18">
-        <v>4.182686581762772E-2</v>
-      </c>
-      <c r="I19" s="18">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="19">
+        <v>9.2215209588973206</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.6750753018248099</v>
+      </c>
+      <c r="D19" s="19">
+        <v>34.439060261180813</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1.7852338836707959</v>
+      </c>
+      <c r="F19" s="19">
+        <v>99.719549306245653</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.26035236266951522</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2.0098331084832541E-2</v>
+      </c>
+      <c r="I19" s="19">
         <v>0</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="18">
-        <v>10.95923028344618</v>
-      </c>
-      <c r="C20" s="18">
-        <v>-1.30867006440745</v>
-      </c>
-      <c r="D20" s="18">
-        <v>19.00662543947783</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1.4042625958340131E-2</v>
-      </c>
-      <c r="F20" s="18">
-        <v>99.197378252943835</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0.79232753174093828</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="19">
+        <v>14.37139081576443</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.53454290300451868</v>
+      </c>
+      <c r="D20" s="19">
+        <v>26.908866046093951</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4.9346828303922834</v>
+      </c>
+      <c r="F20" s="19">
+        <v>99.114591240074233</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.86429924520452506</v>
+      </c>
+      <c r="H20" s="19">
         <v>0</v>
       </c>
-      <c r="I20" s="18">
-        <v>1.0294215315135819E-2</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="I20" s="19">
+        <v>2.1109514721157369E-2</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="18">
-        <v>12.52908312763407</v>
-      </c>
-      <c r="C21" s="18">
-        <v>-1.0153174522557731</v>
-      </c>
-      <c r="D21" s="18">
-        <v>14.4843692359472</v>
-      </c>
-      <c r="E21" s="18">
-        <v>3.281164845037571</v>
-      </c>
-      <c r="F21" s="18">
-        <v>99.46210954886007</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0.45737466695504359</v>
-      </c>
-      <c r="H21" s="18">
-        <v>7.0719425855825871E-2</v>
-      </c>
-      <c r="I21" s="18">
-        <v>9.7963583289271856E-3</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="19">
+        <v>17.559334737871051</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1.37508109310935</v>
+      </c>
+      <c r="D21" s="19">
+        <v>24.410572772404102</v>
+      </c>
+      <c r="E21" s="19">
+        <v>5.660146087775539</v>
+      </c>
+      <c r="F21" s="19">
+        <v>99.172137664951833</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.71002960925048342</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.1178327257975421</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="18">
-        <v>19.521626211483039</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0.5669145032379459</v>
-      </c>
-      <c r="D22" s="18">
-        <v>37.01735901710493</v>
-      </c>
-      <c r="E22" s="18">
-        <v>-0.8102945353309936</v>
-      </c>
-      <c r="F22" s="18">
-        <v>99.831543179658482</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.14973939585912979</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="19">
+        <v>20.91570150943814</v>
+      </c>
+      <c r="C22" s="19">
+        <v>-2.7771165654792301E-2</v>
+      </c>
+      <c r="D22" s="19">
+        <v>43.748762599388883</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3.1665895548917451</v>
+      </c>
+      <c r="F22" s="19">
+        <v>99.787719062014773</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.19024360334989979</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2.2037334635194011E-2</v>
+      </c>
+      <c r="I22" s="19">
         <v>0</v>
       </c>
-      <c r="I22" s="18">
-        <v>1.8717424482391221E-2</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="18">
-        <v>10.79689012714849</v>
-      </c>
-      <c r="C23" s="18">
-        <v>-2.525613591969289</v>
-      </c>
-      <c r="D23" s="18">
-        <v>38.266172861295182</v>
-      </c>
-      <c r="E23" s="18">
-        <v>1.9917757368483899</v>
-      </c>
-      <c r="F23" s="18">
-        <v>97.980712262331778</v>
-      </c>
-      <c r="G23" s="18">
-        <v>2.012917744804696</v>
-      </c>
-      <c r="H23" s="18">
-        <v>6.3699928625315528E-3</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="19">
+        <v>11.625068819885049</v>
+      </c>
+      <c r="C23" s="19">
+        <v>-0.30603657581143839</v>
+      </c>
+      <c r="D23" s="19">
+        <v>45.148550845166831</v>
+      </c>
+      <c r="E23" s="19">
+        <v>2.5954385928473962</v>
+      </c>
+      <c r="F23" s="19">
+        <v>97.692393775384687</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2.3076062246143101</v>
+      </c>
+      <c r="H23" s="19">
         <v>0</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="18">
-        <v>15.736397645618251</v>
-      </c>
-      <c r="C24" s="18">
-        <v>-1.6316684577520559</v>
-      </c>
-      <c r="D24" s="18">
-        <v>27.762338165329599</v>
-      </c>
-      <c r="E24" s="18">
-        <v>1.299873406245305</v>
-      </c>
-      <c r="F24" s="18">
-        <v>99.315294305625287</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0.61559446765036419</v>
-      </c>
-      <c r="H24" s="18">
-        <v>6.9111226723445371E-2</v>
-      </c>
-      <c r="I24" s="18">
-        <v>3.869172654918142E-3</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="19">
+        <v>14.924637071620831</v>
+      </c>
+      <c r="C24" s="19">
+        <v>-1.4117480212671469</v>
+      </c>
+      <c r="D24" s="19">
+        <v>38.404620032124889</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2.958666099158016</v>
+      </c>
+      <c r="F24" s="19">
+        <v>98.722303752044809</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1.186137893550306</v>
+      </c>
+      <c r="H24" s="19">
+        <v>9.1558354403989947E-2</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="18">
-        <v>15.21539139289532</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1.4411947132094201</v>
-      </c>
-      <c r="D25" s="18">
-        <v>29.33949833466264</v>
-      </c>
-      <c r="E25" s="18">
-        <v>5.6570001391335261</v>
-      </c>
-      <c r="F25" s="18">
-        <v>99.668490022095895</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0.32060016634107819</v>
-      </c>
-      <c r="H25" s="18">
-        <v>1.0909811561664229E-2</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="19">
+        <v>14.02561874800405</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.2016388774926505</v>
+      </c>
+      <c r="D25" s="19">
+        <v>33.959656719265681</v>
+      </c>
+      <c r="E25" s="19">
+        <v>3.7496360509432192</v>
+      </c>
+      <c r="F25" s="19">
+        <v>99.551377435691833</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.43760015911667471</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1.102240519081087E-2</v>
+      </c>
+      <c r="I25" s="19">
         <v>0</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="18">
-        <v>17.868428006752069</v>
-      </c>
-      <c r="C26" s="18">
-        <v>3.6404055557457911</v>
-      </c>
-      <c r="D26" s="18">
-        <v>30.019268772308809</v>
-      </c>
-      <c r="E26" s="18">
-        <v>1.6400208274025689</v>
-      </c>
-      <c r="F26" s="18">
-        <v>99.15430857694912</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0.81470855205571446</v>
-      </c>
-      <c r="H26" s="18">
-        <v>3.0982870993809648E-2</v>
-      </c>
-      <c r="I26" s="18">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="19">
+        <v>15.475946616135751</v>
+      </c>
+      <c r="C26" s="19">
+        <v>-0.62566513718022343</v>
+      </c>
+      <c r="D26" s="19">
+        <v>36.049280797778543</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1.2699977093923811</v>
+      </c>
+      <c r="F26" s="19">
+        <v>99.024163587235705</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.91134215356441606</v>
+      </c>
+      <c r="H26" s="19">
+        <v>6.4494259199186665E-2</v>
+      </c>
+      <c r="I26" s="19">
         <v>0</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="18">
-        <v>12.15427354336979</v>
-      </c>
-      <c r="C27" s="18">
-        <v>-1.7859499017115601</v>
-      </c>
-      <c r="D27" s="18">
-        <v>9.4132033234682648</v>
-      </c>
-      <c r="E27" s="18">
-        <v>7.4826012428242883E-2</v>
-      </c>
-      <c r="F27" s="18">
-        <v>99.744824206440285</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0.25517579355921638</v>
-      </c>
-      <c r="H27" s="18">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="19">
+        <v>13.817241945979641</v>
+      </c>
+      <c r="C27" s="19">
+        <v>-3.7892622145615597E-2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>20.169985676475228</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5.9364562032603532</v>
+      </c>
+      <c r="F27" s="19">
+        <v>99.375351919038735</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.60559024094860825</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1.9057840011680111E-2</v>
+      </c>
+      <c r="I27" s="19">
         <v>0</v>
       </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="18">
-        <v>9.6063792755770052</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0.45341550232779382</v>
-      </c>
-      <c r="D28" s="18">
-        <v>27.838718284459539</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0.25182292890347707</v>
-      </c>
-      <c r="F28" s="18">
-        <v>98.569636189071446</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1.430363810928476</v>
-      </c>
-      <c r="H28" s="18">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="19">
+        <v>8.2649501371623639</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0.19099099692878169</v>
+      </c>
+      <c r="D28" s="19">
+        <v>30.542067196746789</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1.295119853892519</v>
+      </c>
+      <c r="F28" s="19">
+        <v>98.556095564217699</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1.4439044357822299</v>
+      </c>
+      <c r="H28" s="19">
         <v>0</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="19">
         <v>0</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="18">
-        <v>19.682540176165531</v>
-      </c>
-      <c r="C29" s="18">
-        <v>5.8507642650719616</v>
-      </c>
-      <c r="D29" s="18">
-        <v>28.641422050305241</v>
-      </c>
-      <c r="E29" s="18">
-        <v>1.197498959329901</v>
-      </c>
-      <c r="F29" s="18">
-        <v>99.27745664739885</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0.7225433526011561</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="19">
+        <v>14.547988886235901</v>
+      </c>
+      <c r="C29" s="19">
+        <v>-0.5521350301048833</v>
+      </c>
+      <c r="D29" s="19">
+        <v>30.334107645260278</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1.5178590983649931</v>
+      </c>
+      <c r="F29" s="19">
+        <v>99.183085055261884</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.76886112445939458</v>
+      </c>
+      <c r="H29" s="19">
         <v>0</v>
       </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="I29" s="19">
+        <v>4.8053820278712162E-2</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="18">
-        <v>12.55210055369548</v>
-      </c>
-      <c r="C30" s="18">
-        <v>5.6022428693824988</v>
-      </c>
-      <c r="D30" s="18">
-        <v>27.9553174747975</v>
-      </c>
-      <c r="E30" s="18">
-        <v>3.4384015495528142</v>
-      </c>
-      <c r="F30" s="18">
-        <v>99.583144226927686</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0.4168557730723132</v>
-      </c>
-      <c r="H30" s="18">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="19">
+        <v>7.4935482098896937</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.40013780086001688</v>
+      </c>
+      <c r="D30" s="19">
+        <v>29.686771051286382</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2.8867556791715012</v>
+      </c>
+      <c r="F30" s="19">
+        <v>99.603229434572512</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.39677056542748029</v>
+      </c>
+      <c r="H30" s="19">
         <v>0</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="19">
         <v>0</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="18">
-        <v>15.56530019145378</v>
-      </c>
-      <c r="C31" s="18">
-        <v>2.0328948389916022</v>
-      </c>
-      <c r="D31" s="18">
-        <v>48.830714680036202</v>
-      </c>
-      <c r="E31" s="18">
-        <v>5.5417323224512698</v>
-      </c>
-      <c r="F31" s="18">
-        <v>98.122239658692578</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1.8434057630773899</v>
-      </c>
-      <c r="H31" s="18">
-        <v>3.4354578230026522E-2</v>
-      </c>
-      <c r="I31" s="18">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="19">
+        <v>20.21302296997505</v>
+      </c>
+      <c r="C31" s="19">
+        <v>3.0170538857588709</v>
+      </c>
+      <c r="D31" s="19">
+        <v>50.742947916532813</v>
+      </c>
+      <c r="E31" s="19">
+        <v>1.5255579091558711</v>
+      </c>
+      <c r="F31" s="19">
+        <v>98.661031846366882</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1.3254846459903351</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1.348350764279968E-2</v>
+      </c>
+      <c r="I31" s="19">
         <v>0</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="18">
-        <v>14.92698599824829</v>
-      </c>
-      <c r="C32" s="18">
-        <v>-1.786930424412015</v>
-      </c>
-      <c r="D32" s="18">
-        <v>33.717473713230348</v>
-      </c>
-      <c r="E32" s="18">
-        <v>8.3502593597329575E-2</v>
-      </c>
-      <c r="F32" s="18">
-        <v>99.307052294200645</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0.64442731680039578</v>
-      </c>
-      <c r="H32" s="18">
-        <v>4.8520388997202429E-2</v>
-      </c>
-      <c r="I32" s="18">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="19">
+        <v>15.853391901083301</v>
+      </c>
+      <c r="C32" s="19">
+        <v>-0.15168411607182741</v>
+      </c>
+      <c r="D32" s="19">
+        <v>39.169183723136122</v>
+      </c>
+      <c r="E32" s="19">
+        <v>2.5441966826953561</v>
+      </c>
+      <c r="F32" s="19">
+        <v>99.14434591483932</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0.72649875155031607</v>
+      </c>
+      <c r="H32" s="19">
+        <v>0.129155333608613</v>
+      </c>
+      <c r="I32" s="19">
         <v>0</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="18">
-        <v>9.5936161040240329</v>
-      </c>
-      <c r="C33" s="18">
-        <v>-1.839011582718526</v>
-      </c>
-      <c r="D33" s="18">
-        <v>36.064127022223829</v>
-      </c>
-      <c r="E33" s="18">
-        <v>4.7705521238631574</v>
-      </c>
-      <c r="F33" s="18">
-        <v>98.264271320050483</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1.7087605892513289</v>
-      </c>
-      <c r="H33" s="18">
-        <v>2.381103993983882E-2</v>
-      </c>
-      <c r="I33" s="18">
-        <v>3.157050757188314E-3</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="19">
+        <v>8.7961028307322042</v>
+      </c>
+      <c r="C33" s="19">
+        <v>-0.86817992985457482</v>
+      </c>
+      <c r="D33" s="19">
+        <v>43.322914741616898</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2.208417378022399</v>
+      </c>
+      <c r="F33" s="19">
+        <v>97.836565942480036</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2.130688843444664</v>
+      </c>
+      <c r="H33" s="19">
+        <v>3.2745214074715763E-2</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="18">
-        <v>19.879648819076731</v>
-      </c>
-      <c r="C34" s="18">
-        <v>2.4458119433260621</v>
-      </c>
-      <c r="D34" s="18">
-        <v>35.62385707509668</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0.67605056238363703</v>
-      </c>
-      <c r="F34" s="18">
-        <v>96.849474936479368</v>
-      </c>
-      <c r="G34" s="18">
-        <v>2.8112016885705202</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0.33932337494925457</v>
-      </c>
-      <c r="I34" s="18">
-        <v>2.801924318247918E-2</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="19">
+        <v>19.526634616537731</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0.2141230716412813</v>
+      </c>
+      <c r="D34" s="19">
+        <v>40.073746708955071</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1.113882169603498</v>
+      </c>
+      <c r="F34" s="19">
+        <v>96.790939710103927</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3.014695676771479</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0.1943646131237515</v>
+      </c>
+      <c r="I34" s="19">
+        <v>2.7766373303393072E-2</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="18">
-        <v>17.452493588087741</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0.60741480033274731</v>
-      </c>
-      <c r="D35" s="18">
-        <v>26.346633205874038</v>
-      </c>
-      <c r="E35" s="18">
-        <v>1.534113105180499</v>
-      </c>
-      <c r="F35" s="18">
-        <v>98.721036973130538</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1.1917783418487129</v>
-      </c>
-      <c r="H35" s="18">
-        <v>8.7184685020740255E-2</v>
-      </c>
-      <c r="I35" s="18">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="19">
+        <v>16.582849594754201</v>
+      </c>
+      <c r="C35" s="19">
+        <v>-1.3129652756758421</v>
+      </c>
+      <c r="D35" s="19">
+        <v>37.255019095989432</v>
+      </c>
+      <c r="E35" s="19">
+        <v>3.9975370838733659</v>
+      </c>
+      <c r="F35" s="19">
+        <v>98.255521688142551</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1.6644089495619021</v>
+      </c>
+      <c r="H35" s="19">
+        <v>8.0069362295550242E-2</v>
+      </c>
+      <c r="I35" s="19">
         <v>0</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="18">
-        <v>20.623648430815141</v>
-      </c>
-      <c r="C36" s="18">
-        <v>-2.501284826996002E-2</v>
-      </c>
-      <c r="D36" s="18">
-        <v>29.120741843488211</v>
-      </c>
-      <c r="E36" s="18">
-        <v>-0.33090728312977957</v>
-      </c>
-      <c r="F36" s="18">
-        <v>98.775487866964028</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1.2012900256041941</v>
-      </c>
-      <c r="H36" s="18">
-        <v>2.3222107431775201E-2</v>
-      </c>
-      <c r="I36" s="18">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="19">
+        <v>21.915917341831559</v>
+      </c>
+      <c r="C36" s="19">
+        <v>-4.853500918710167</v>
+      </c>
+      <c r="D36" s="19">
+        <v>33.264939038482673</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.94838093547873759</v>
+      </c>
+      <c r="F36" s="19">
+        <v>98.535357374187868</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1.424763409570279</v>
+      </c>
+      <c r="H36" s="19">
+        <v>3.9879216241849071E-2</v>
+      </c>
+      <c r="I36" s="19">
         <v>0</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="18">
-        <v>9.39763360805979</v>
-      </c>
-      <c r="C37" s="18">
-        <v>2.0636257263859221</v>
-      </c>
-      <c r="D37" s="18">
-        <v>20.755549935315361</v>
-      </c>
-      <c r="E37" s="18">
-        <v>-1.5049649902150879</v>
-      </c>
-      <c r="F37" s="18">
-        <v>100</v>
-      </c>
-      <c r="G37" s="18">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="19">
+        <v>9.4597873531057655</v>
+      </c>
+      <c r="C37" s="19">
+        <v>3.6419138220481249</v>
+      </c>
+      <c r="D37" s="19">
+        <v>20.189955232232791</v>
+      </c>
+      <c r="E37" s="19">
+        <v>-0.67908785674314498</v>
+      </c>
+      <c r="F37" s="19">
+        <v>99.97485365816884</v>
+      </c>
+      <c r="G37" s="19">
+        <v>2.5146341831156261E-2</v>
+      </c>
+      <c r="H37" s="19">
         <v>0</v>
       </c>
-      <c r="H37" s="18">
+      <c r="I37" s="19">
         <v>0</v>
       </c>
-      <c r="I37" s="18">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="18">
-        <v>19.403828091553361</v>
-      </c>
-      <c r="C38" s="18">
-        <v>4.7601926013044054</v>
-      </c>
-      <c r="D38" s="18">
-        <v>22.961506122316219</v>
-      </c>
-      <c r="E38" s="18">
-        <v>1.4605871156188099</v>
-      </c>
-      <c r="F38" s="18">
-        <v>99.398368680974698</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0.57414877870570513</v>
-      </c>
-      <c r="H38" s="18">
-        <v>2.0689941591414188E-2</v>
-      </c>
-      <c r="I38" s="18">
-        <v>6.7925987281663653E-3</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="19">
+        <v>18.824574310357761</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1.722871154996729</v>
+      </c>
+      <c r="D38" s="19">
+        <v>30.428298958477569</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3.7984740955760512</v>
+      </c>
+      <c r="F38" s="19">
+        <v>99.334873007414188</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0.63401265050185074</v>
+      </c>
+      <c r="H38" s="19">
+        <v>2.0941465147327011E-2</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1.01728769366192E-2</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="18">
-        <v>8.3154910232901997</v>
-      </c>
-      <c r="C39" s="18">
-        <v>-1.399823498465391</v>
-      </c>
-      <c r="D39" s="18">
-        <v>19.402289289559281</v>
-      </c>
-      <c r="E39" s="18">
-        <v>-0.84010455688754349</v>
-      </c>
-      <c r="F39" s="18">
-        <v>99.774570279841299</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0.19667342972015869</v>
-      </c>
-      <c r="H39" s="18">
-        <v>2.8756290438533439E-2</v>
-      </c>
-      <c r="I39" s="18">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="19">
+        <v>8.2405375017201834</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1.0318585000464751</v>
+      </c>
+      <c r="D39" s="19">
+        <v>23.057979331896231</v>
+      </c>
+      <c r="E39" s="19">
+        <v>3.5175597392713929</v>
+      </c>
+      <c r="F39" s="19">
+        <v>99.803936181803209</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0.18171429026969141</v>
+      </c>
+      <c r="H39" s="19">
+        <v>1.4349527927104399E-2</v>
+      </c>
+      <c r="I39" s="19">
         <v>0</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="18">
-        <v>17.451852497574642</v>
-      </c>
-      <c r="C40" s="18">
-        <v>4.4540554371375336</v>
-      </c>
-      <c r="D40" s="18">
-        <v>30.351864118767551</v>
-      </c>
-      <c r="E40" s="18">
-        <v>3.6859605468809571</v>
-      </c>
-      <c r="F40" s="18">
-        <v>97.914074499816508</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1.748179235809922</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0.32958042300221729</v>
-      </c>
-      <c r="I40" s="18">
-        <v>1.7094024192634349E-2</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="19">
+        <v>17.310055589079582</v>
+      </c>
+      <c r="C40" s="19">
+        <v>-2.8289156098996928</v>
+      </c>
+      <c r="D40" s="19">
+        <v>35.417744038230317</v>
+      </c>
+      <c r="E40" s="19">
+        <v>1.280020543368682</v>
+      </c>
+      <c r="F40" s="19">
+        <v>97.661170203911055</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1.89159040854628</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0.43098619278039912</v>
+      </c>
+      <c r="I40" s="19">
+        <v>4.3189831808719388E-2</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="18">
-        <v>5.5408197606707024</v>
-      </c>
-      <c r="C41" s="18">
-        <v>-1.890034099134531</v>
-      </c>
-      <c r="D41" s="18">
-        <v>27.657909721796852</v>
-      </c>
-      <c r="E41" s="18">
-        <v>0.92337273764729466</v>
-      </c>
-      <c r="F41" s="18">
-        <v>99.032061384265873</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0.93773951240323727</v>
-      </c>
-      <c r="H41" s="18">
-        <v>3.0199103328999669E-2</v>
-      </c>
-      <c r="I41" s="18">
-        <v>3.3554559248080789E-3</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="19">
+        <v>7.0218320027985968</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0.27769496442347569</v>
+      </c>
+      <c r="D41" s="19">
+        <v>34.660180443606897</v>
+      </c>
+      <c r="E41" s="19">
+        <v>2.095758590724345</v>
+      </c>
+      <c r="F41" s="19">
+        <v>98.95529579112906</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1.0279390366031389</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1.6765172266853191E-2</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="18">
-        <v>18.48</v>
-      </c>
-      <c r="C42" s="18">
-        <v>-2.04</v>
-      </c>
-      <c r="D42" s="18">
-        <v>27.29</v>
-      </c>
-      <c r="E42" s="18">
-        <v>-1.77</v>
-      </c>
-      <c r="F42" s="18">
-        <v>99.86</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H42" s="18">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="19">
+        <v>17.57</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="D42" s="19">
+        <v>42.14</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="F42" s="19">
+        <v>99.67</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="H42" s="19">
         <v>0</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="19">
         <v>0</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="18">
-        <v>20.60926665535953</v>
-      </c>
-      <c r="C43" s="18">
-        <v>0.68889068526813868</v>
-      </c>
-      <c r="D43" s="18">
-        <v>24.530620031194879</v>
-      </c>
-      <c r="E43" s="18">
-        <v>0.38619962831605692</v>
-      </c>
-      <c r="F43" s="18">
-        <v>99.420759569264249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0.57013916275954712</v>
-      </c>
-      <c r="H43" s="18">
-        <v>9.101267976043605E-3</v>
-      </c>
-      <c r="I43" s="18">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="19">
+        <v>22.48783430923821</v>
+      </c>
+      <c r="C43" s="19">
+        <v>-3.5306791477886059</v>
+      </c>
+      <c r="D43" s="19">
+        <v>32.081964851830321</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0.21531757340057059</v>
+      </c>
+      <c r="F43" s="19">
+        <v>99.176735964637317</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0.80508648186129173</v>
+      </c>
+      <c r="H43" s="19">
+        <v>1.8177553501238009E-2</v>
+      </c>
+      <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="18">
-        <v>11.339740315670619</v>
-      </c>
-      <c r="C44" s="18">
-        <v>2.7646197773752541</v>
-      </c>
-      <c r="D44" s="18">
-        <v>23.995269615345819</v>
-      </c>
-      <c r="E44" s="18">
-        <v>-5.5279298958511323</v>
-      </c>
-      <c r="F44" s="18">
-        <v>99.495156342725323</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0.38137332280978692</v>
-      </c>
-      <c r="H44" s="18">
-        <v>9.534333070244673E-2</v>
-      </c>
-      <c r="I44" s="18">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="19">
+        <v>10.80659918254965</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0.13446729057974049</v>
+      </c>
+      <c r="D44" s="19">
+        <v>22.658914520234092</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0.67757551779629632</v>
+      </c>
+      <c r="F44" s="19">
+        <v>99.666024019910992</v>
+      </c>
+      <c r="G44" s="19">
+        <v>0.26718078407121731</v>
+      </c>
+      <c r="H44" s="19">
+        <v>6.6795196017804315E-2</v>
+      </c>
+      <c r="I44" s="19">
         <v>0</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="18">
-        <v>11.28187518029589</v>
-      </c>
-      <c r="C45" s="18">
-        <v>-2.1754762228969771</v>
-      </c>
-      <c r="D45" s="18">
-        <v>19.574689262012861</v>
-      </c>
-      <c r="E45" s="18">
-        <v>-1.4492588362161309</v>
-      </c>
-      <c r="F45" s="18">
-        <v>99.245245399450255</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0.73137594433155062</v>
-      </c>
-      <c r="H45" s="18">
-        <v>1.7592011982729371E-2</v>
-      </c>
-      <c r="I45" s="18">
-        <v>1.165064822779067E-2</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="19">
+        <v>14.655150487756339</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0.12206948933595731</v>
+      </c>
+      <c r="D45" s="19">
+        <v>30.10689063000645</v>
+      </c>
+      <c r="E45" s="19">
+        <v>4.5350947502992671</v>
+      </c>
+      <c r="F45" s="19">
+        <v>98.627987952045842</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1.2845039178081541</v>
+      </c>
+      <c r="H45" s="19">
+        <v>8.7508130144568777E-2</v>
+      </c>
+      <c r="I45" s="19">
+        <v>1.170009968095693E-2</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="18">
-        <v>15.76573381220439</v>
-      </c>
-      <c r="C46" s="18">
-        <v>8.0417270682251241E-2</v>
-      </c>
-      <c r="D46" s="18">
-        <v>36.479114889633678</v>
-      </c>
-      <c r="E46" s="18">
-        <v>-0.52111210834570398</v>
-      </c>
-      <c r="F46" s="18">
-        <v>97.784100355130533</v>
-      </c>
-      <c r="G46" s="18">
-        <v>2.1311342991361748</v>
-      </c>
-      <c r="H46" s="18">
-        <v>7.4146921284164252E-2</v>
-      </c>
-      <c r="I46" s="18">
-        <v>1.061842444852675E-2</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="A46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="19">
+        <v>18.964462155055251</v>
+      </c>
+      <c r="C46" s="19">
+        <v>2.4523902426042228</v>
+      </c>
+      <c r="D46" s="19">
+        <v>39.383926767499013</v>
+      </c>
+      <c r="E46" s="19">
+        <v>2.3307254849807708</v>
+      </c>
+      <c r="F46" s="19">
+        <v>97.822623301679783</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2.0856805710470141</v>
+      </c>
+      <c r="H46" s="19">
+        <v>8.0205423257947911E-2</v>
+      </c>
+      <c r="I46" s="19">
+        <v>1.149070401497362E-2</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="18">
-        <v>4.4315852851087403</v>
-      </c>
-      <c r="C47" s="18">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="D47" s="18">
-        <v>23.361616219146299</v>
-      </c>
-      <c r="E47" s="18">
-        <v>-1.2989999999999999</v>
-      </c>
-      <c r="F47" s="18">
-        <v>98.751835535975999</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1.2481644640230001</v>
-      </c>
-      <c r="H47" s="18">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="19">
+        <v>7.6367961696188589</v>
+      </c>
+      <c r="C47" s="19">
+        <v>2.1027</v>
+      </c>
+      <c r="D47" s="19">
+        <v>30.4099358747407</v>
+      </c>
+      <c r="E47" s="19">
+        <v>2.1528</v>
+      </c>
+      <c r="F47" s="19">
+        <v>98.595384835889007</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1.40461516411</v>
+      </c>
+      <c r="H47" s="19">
         <v>0</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="19">
         <v>0</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="18">
-        <v>12.00301989988481</v>
-      </c>
-      <c r="C48" s="18">
-        <v>-2.2747308944543438</v>
-      </c>
-      <c r="D48" s="18">
-        <v>28.918438117522971</v>
-      </c>
-      <c r="E48" s="18">
-        <v>-0.16531437552908479</v>
-      </c>
-      <c r="F48" s="18">
-        <v>99.614640181840883</v>
-      </c>
-      <c r="G48" s="18">
-        <v>0.269751872710361</v>
-      </c>
-      <c r="H48" s="18">
-        <v>0.1156079454468958</v>
-      </c>
-      <c r="I48" s="18">
+      <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="19">
+        <v>14.537417103365049</v>
+      </c>
+      <c r="C48" s="19">
+        <v>6.6028221536750475E-2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>34.766538362238776</v>
+      </c>
+      <c r="E48" s="19">
+        <v>2.023256470892981</v>
+      </c>
+      <c r="F48" s="19">
+        <v>99.845525425307073</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.11585593101876029</v>
+      </c>
+      <c r="H48" s="19">
+        <v>3.8618643672294992E-2</v>
+      </c>
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="18">
-        <v>9.1916519268027166</v>
-      </c>
-      <c r="C49" s="18">
-        <v>-1.514792543182321</v>
-      </c>
-      <c r="D49" s="18">
-        <v>36.708173942703567</v>
-      </c>
-      <c r="E49" s="18">
-        <v>7.0460393089048043</v>
-      </c>
-      <c r="F49" s="18">
-        <v>99.029530082968165</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0.97046991703114116</v>
-      </c>
-      <c r="H49" s="18">
+      <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="19">
+        <v>10.98542030943476</v>
+      </c>
+      <c r="C49" s="19">
+        <v>-1.0097394964968689</v>
+      </c>
+      <c r="D49" s="19">
+        <v>42.318673161640803</v>
+      </c>
+      <c r="E49" s="19">
+        <v>2.620758954450944</v>
+      </c>
+      <c r="F49" s="19">
+        <v>98.963969166925025</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1.0224180137572381</v>
+      </c>
+      <c r="H49" s="19">
+        <v>1.6317576920170301E-2</v>
+      </c>
+      <c r="I49" s="19">
         <v>0</v>
       </c>
-      <c r="I49" s="18">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="18">
-        <v>10.68488775622107</v>
-      </c>
-      <c r="C50" s="18">
-        <v>1.298911693075538</v>
-      </c>
-      <c r="D50" s="18">
-        <v>24.995454726950211</v>
-      </c>
-      <c r="E50" s="18">
-        <v>2.0542255531865758</v>
-      </c>
-      <c r="F50" s="18">
-        <v>97.397042280044246</v>
-      </c>
-      <c r="G50" s="18">
-        <v>2.095453016970414</v>
-      </c>
-      <c r="H50" s="18">
-        <v>0.50750470298444628</v>
-      </c>
-      <c r="I50" s="18">
-        <v>9.4974747339139336E-3</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="19">
+        <v>15.244569059794401</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0.59923844015624295</v>
+      </c>
+      <c r="D50" s="19">
+        <v>31.20934910670837</v>
+      </c>
+      <c r="E50" s="19">
+        <v>-0.1407830084552934</v>
+      </c>
+      <c r="F50" s="19">
+        <v>97.164645628745888</v>
+      </c>
+      <c r="G50" s="19">
+        <v>2.361479677287933</v>
+      </c>
+      <c r="H50" s="19">
+        <v>0.47387469396527249</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="18">
-        <v>4.1265242243179667</v>
-      </c>
-      <c r="C51" s="18">
-        <v>-3.1804161424176671</v>
-      </c>
-      <c r="D51" s="18">
-        <v>18.296128173747789</v>
-      </c>
-      <c r="E51" s="18">
-        <v>0.41180709062849669</v>
-      </c>
-      <c r="F51" s="18">
-        <v>98.834879391757966</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1.036016459472938</v>
-      </c>
-      <c r="H51" s="18">
-        <v>0.10758679064046429</v>
-      </c>
-      <c r="I51" s="18">
-        <v>2.151735812809287E-2</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
+      <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="19">
+        <v>6.1896132663202588</v>
+      </c>
+      <c r="C51" s="19">
+        <v>-1.1168667755959829</v>
+      </c>
+      <c r="D51" s="19">
+        <v>24.800813815875429</v>
+      </c>
+      <c r="E51" s="19">
+        <v>2.2388279283577628</v>
+      </c>
+      <c r="F51" s="19">
+        <v>98.644001236383488</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1.118211409510123</v>
+      </c>
+      <c r="H51" s="19">
+        <v>0.19485897453305209</v>
+      </c>
+      <c r="I51" s="19">
+        <v>4.2928379572257827E-2</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="18">
-        <v>17.107496788064921</v>
-      </c>
-      <c r="C52" s="18">
-        <v>4.3476436041499156</v>
-      </c>
-      <c r="D52" s="18">
-        <v>30.489504533011619</v>
-      </c>
-      <c r="E52" s="18">
-        <v>3.7995706029058791</v>
-      </c>
-      <c r="F52" s="18">
-        <v>97.857175880925311</v>
-      </c>
-      <c r="G52" s="18">
-        <v>2.1351984104658812</v>
-      </c>
-      <c r="H52" s="18">
-        <v>7.6257086088067179E-3</v>
-      </c>
-      <c r="I52" s="18">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="19">
+        <v>13.816131092476491</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0.89378784806182798</v>
+      </c>
+      <c r="D52" s="19">
+        <v>32.874825057661887</v>
+      </c>
+      <c r="E52" s="19">
+        <v>1.6137873016253701</v>
+      </c>
+      <c r="F52" s="19">
+        <v>98.227634925202096</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1.7572166553551869</v>
+      </c>
+      <c r="H52" s="19">
+        <v>7.5742097213585668E-3</v>
+      </c>
+      <c r="I52" s="19">
+        <v>7.5742097213585668E-3</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="18">
-        <v>15.80329346949021</v>
-      </c>
-      <c r="C53" s="18">
-        <v>4.5662341421449426</v>
-      </c>
-      <c r="D53" s="18">
-        <v>26.257602767201419</v>
-      </c>
-      <c r="E53" s="18">
-        <v>5.2311297212587649</v>
-      </c>
-      <c r="F53" s="18">
-        <v>99.413735343383578</v>
-      </c>
-      <c r="G53" s="18">
-        <v>0.50251256281407031</v>
-      </c>
-      <c r="H53" s="18">
+      <c r="A53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="19">
+        <v>10.222045311964621</v>
+      </c>
+      <c r="C53" s="19">
+        <v>2.3651913307640049</v>
+      </c>
+      <c r="D53" s="19">
+        <v>22.451096443278299</v>
+      </c>
+      <c r="E53" s="19">
+        <v>2.718311466683776</v>
+      </c>
+      <c r="F53" s="19">
+        <v>99.582289055973263</v>
+      </c>
+      <c r="G53" s="19">
+        <v>0.41771094402673348</v>
+      </c>
+      <c r="H53" s="19">
         <v>0</v>
       </c>
-      <c r="I53" s="18">
-        <v>8.3752093802345065E-2</v>
-      </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="I53" s="19">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11182,62 +11220,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B108-7690-FA48-BD1F-70BA8E6E6932}">
   <dimension ref="A51:A100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="P1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11246,179 +11282,251 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:AA5"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
         <v>43911</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="9">
+        <v>0.42452508300000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>43918</v>
       </c>
-      <c r="D4" s="5">
+      <c r="C6" s="9">
+        <v>0.42994080000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="12">
         <v>43925</v>
       </c>
-      <c r="E4" s="5">
+      <c r="C7" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
         <v>43932</v>
       </c>
-      <c r="F4" s="5">
+      <c r="C8" s="10">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
         <v>43939</v>
       </c>
-      <c r="G4" s="5">
+      <c r="C9" s="10">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
         <v>43946</v>
       </c>
-      <c r="H4" s="5">
+      <c r="C10" s="10">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="12">
         <v>43953</v>
       </c>
-      <c r="I4" s="5">
+      <c r="C11" s="10">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="12">
         <v>43960</v>
       </c>
-      <c r="J4" s="5">
+      <c r="C12" s="10">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="12">
         <v>43967</v>
       </c>
-      <c r="K4" s="5">
+      <c r="C13" s="10">
+        <v>0.39399999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="12">
         <v>43974</v>
       </c>
-      <c r="L4" s="5">
+      <c r="C14" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="12">
         <v>43981</v>
       </c>
-      <c r="M4" s="5">
+      <c r="C15" s="10">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="12">
         <v>43988</v>
       </c>
-      <c r="N4" s="5">
+      <c r="C16" s="10">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="12">
         <v>43995</v>
       </c>
-      <c r="O4" s="5">
+      <c r="C17" s="10">
+        <v>0.39399999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="12">
         <v>44002</v>
       </c>
-      <c r="P4" s="5">
+      <c r="C18" s="10">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="12">
         <v>44009</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="C19" s="10">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="12">
         <v>44016</v>
       </c>
-      <c r="R4" s="5">
+      <c r="C20" s="10">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="12">
         <v>44023</v>
       </c>
-      <c r="S4" s="5">
+      <c r="C21" s="10">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="12">
         <v>44030</v>
       </c>
-      <c r="T4" s="5">
+      <c r="C22" s="10">
+        <v>0.35700000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="12">
         <v>44037</v>
       </c>
-      <c r="U4" s="5">
+      <c r="C23" s="10">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="12">
         <v>44044</v>
       </c>
-      <c r="V4" s="5">
+      <c r="C24" s="10">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="12">
         <v>44051</v>
       </c>
-      <c r="W4" s="5">
+      <c r="C25" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="12">
         <v>44058</v>
       </c>
-      <c r="X4" s="5">
+      <c r="C26" s="9">
+        <v>0.35874357300000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="12">
         <v>44065</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="C27" s="10">
+        <v>0.35906673899999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="12">
         <v>44072</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="C28" s="10">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="12">
         <v>44079</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="C29" s="10">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="12">
         <v>44086</v>
       </c>
+      <c r="C30" s="10">
+        <v>0.35499999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>0.42452508300000003</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.42994080000000001</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.373</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.39399999999999996</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.39399999999999996</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0.35700000000000004</v>
-      </c>
-      <c r="T5" s="6">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="12">
+        <v>44093</v>
+      </c>
+      <c r="C31" s="10">
         <v>0.35599999999999998</v>
       </c>
-      <c r="U5" s="6">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.35874357300000004</v>
-      </c>
-      <c r="X5" s="11">
-        <v>0.35906673899999997</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="AA5" s="11">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="12">
+        <v>44100</v>
+      </c>
+      <c r="C32" s="10">
         <v>0.35499999999999998</v>
       </c>
     </row>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EDD596E-1FC0-CA4E-ADE3-248C69BA7E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F953227-C1C2-C54C-94EC-F18395C8452D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="33040" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -789,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>-0.34128746686463401</c:v>
+                  <c:v>-1.344067677644331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.230503426013474</c:v>
+                  <c:v>0.62686347376619733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.94125097147463865</c:v>
+                  <c:v>-2.7546099290780108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5861404513467674</c:v>
+                  <c:v>-1.7465016558409401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.311258658019069</c:v>
+                  <c:v>-1.926505705548867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.95775993214142163</c:v>
+                  <c:v>-0.47548705660731783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45336316072250998</c:v>
+                  <c:v>-0.98301968813834228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50227964488160071</c:v>
+                  <c:v>-2.0187915451677849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.38384758019523918</c:v>
+                  <c:v>-1.985998080138536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59840000000000004</c:v>
+                  <c:v>-1.6243000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.12379814299714</c:v>
+                  <c:v>-1.32178004086495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.471520527813811</c:v>
+                  <c:v>-0.60308454960107349</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.3583475559231681</c:v>
+                  <c:v>-18.636477995001218</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.4637655810018231</c:v>
+                  <c:v>-0.67768257589535863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1798532262209414E-2</c:v>
+                  <c:v>-1.3187233786775341</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.24285783246263029</c:v>
+                  <c:v>-1.7367865288477771</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.20699449285805</c:v>
+                  <c:v>-2.0327911143377779</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6750753018248099</c:v>
+                  <c:v>-4.8425759702533799</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.53454290300451868</c:v>
+                  <c:v>-0.48705554310987859</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.37508109310935</c:v>
+                  <c:v>-0.12445349437241029</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.7771165654792301E-2</c:v>
+                  <c:v>-0.93854560325908543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.30603657581143839</c:v>
+                  <c:v>-1.487517368622348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.4117480212671469</c:v>
+                  <c:v>-1.470335838831514</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2016388774926505</c:v>
+                  <c:v>-1.5872925085075369</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.62566513718022343</c:v>
+                  <c:v>-3.1939016473137092</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.7892622145615597E-2</c:v>
+                  <c:v>0.59088269815047723</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.19099099692878169</c:v>
+                  <c:v>-3.077009022055488</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.5521350301048833</c:v>
+                  <c:v>0.70801177974266771</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.40013780086001688</c:v>
+                  <c:v>-1.977987474632535</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0170538857588709</c:v>
+                  <c:v>4.0799945417966138E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.15168411607182741</c:v>
+                  <c:v>-1.4330937454241079</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.86817992985457482</c:v>
+                  <c:v>-2.414782933440951</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2141230716412813</c:v>
+                  <c:v>-1.414247870578305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.3129652756758421</c:v>
+                  <c:v>-0.86583573644655332</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.853500918710167</c:v>
+                  <c:v>-0.54263314278630159</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.6419138220481249</c:v>
+                  <c:v>-3.6584982806039128</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.722871154996729</c:v>
+                  <c:v>-0.60515889309156801</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0318585000464751</c:v>
+                  <c:v>-5.1128122932304167</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.8289156098996928</c:v>
+                  <c:v>-0.29951135390753858</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.27769496442347569</c:v>
+                  <c:v>-1.697091720987679</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.08</c:v>
+                  <c:v>-2.35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3.5306791477886059</c:v>
+                  <c:v>-1.1314774419197551</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.13446729057974049</c:v>
+                  <c:v>-5.3784160052321983</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12206948933595731</c:v>
+                  <c:v>-2.1513211055414452</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.4523902426042228</c:v>
+                  <c:v>-1.18619933604588</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1027</c:v>
+                  <c:v>-1.8113999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.6028221536750475E-2</c:v>
+                  <c:v>0.39187967498607551</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.0097394964968689</c:v>
+                  <c:v>-1.8841691471104209</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.59923844015624295</c:v>
+                  <c:v>-0.65803678594218029</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.1168667755959829</c:v>
+                  <c:v>-1.65108760934079</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.89378784806182798</c:v>
+                  <c:v>9.7940502295737419E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.3651913307640049</c:v>
+                  <c:v>-3.021369609273195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,8 +1021,6 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1445,160 +1443,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.9569500411414089</c:v>
+                  <c:v>-0.40989735247071613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69576040213847434</c:v>
+                  <c:v>2.529015816282175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.6153846153845812E-2</c:v>
+                  <c:v>-0.94250706880301127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.2014342954868871</c:v>
+                  <c:v>-5.4406478969641627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7902474304693667</c:v>
+                  <c:v>0.64372405196435567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45375012466799669</c:v>
+                  <c:v>-0.13390052549765949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72254208041762558</c:v>
+                  <c:v>-0.24869100314886561</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.865795714324741</c:v>
+                  <c:v>0.84289048181658055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.774291055252466</c:v>
+                  <c:v>-0.54658871951151144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0410999999999999</c:v>
+                  <c:v>-1.1526000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.255865817963852</c:v>
+                  <c:v>1.0553716793310199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.335800902256312</c:v>
+                  <c:v>0.7765482201153644</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59202605036612344</c:v>
+                  <c:v>-8.9000695689308014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.546133196196273</c:v>
+                  <c:v>4.0323768994037668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.342058320029992</c:v>
+                  <c:v>-0.87575730909585559</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0141602626067372</c:v>
+                  <c:v>-0.26018006925385589</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3515755792603641</c:v>
+                  <c:v>-0.42330722897440409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7852338836707959</c:v>
+                  <c:v>-1.32112785131557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9346828303922834</c:v>
+                  <c:v>-0.65914786849611806</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.660146087775539</c:v>
+                  <c:v>-0.43488337796604121</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1665895548917451</c:v>
+                  <c:v>0.57909551728315323</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5954385928473962</c:v>
+                  <c:v>0.91034424226323163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.958666099158016</c:v>
+                  <c:v>1.0407147130680079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7496360509432192</c:v>
+                  <c:v>-0.13865217155402271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2699977093923811</c:v>
+                  <c:v>-0.5111704500508979</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.9364562032603532</c:v>
+                  <c:v>1.8902249041487871</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.295119853892519</c:v>
+                  <c:v>-2.5279768018986508</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5178590983649931</c:v>
+                  <c:v>1.4140993341836381</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8867556791715012</c:v>
+                  <c:v>-1.6123393701614199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5255579091558711</c:v>
+                  <c:v>-0.71779841835670832</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.5441966826953561</c:v>
+                  <c:v>0.62828632831866893</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.208417378022399</c:v>
+                  <c:v>4.2733125523064609E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.113882169603498</c:v>
+                  <c:v>-1.7396124447966099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.9975370838733659</c:v>
+                  <c:v>-2.2117764650318081</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94838093547873759</c:v>
+                  <c:v>0.49934670425782551</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.67908785674314498</c:v>
+                  <c:v>-3.1007318033136562</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7984740955760512</c:v>
+                  <c:v>-1.7371364733088519</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.5175597392713929</c:v>
+                  <c:v>-0.77231102123989004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.280020543368682</c:v>
+                  <c:v>6.6889798190003999E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.095758590724345</c:v>
+                  <c:v>-0.3006362841894234</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.71000000000000008</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.21531757340057059</c:v>
+                  <c:v>-0.1340671739170087</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.67757551779629632</c:v>
+                  <c:v>-4.6108405042724367</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.5350947502992671</c:v>
+                  <c:v>-2.4442288315566358</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3307254849807708</c:v>
+                  <c:v>-1.0705686030833941</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1528</c:v>
+                  <c:v>-0.40310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.023256470892981</c:v>
+                  <c:v>2.1160503351974311</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.620758954450944</c:v>
+                  <c:v>-0.31902967109719099</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.1407830084552934</c:v>
+                  <c:v>-0.25672324032186211</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.2388279283577628</c:v>
+                  <c:v>-1.072682200227802E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6137873016253701</c:v>
+                  <c:v>2.0469673505129161E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.718311466683776</c:v>
+                  <c:v>1.76147107206972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,160 +2104,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.90362641290201</c:v>
+                  <c:v>1.8253379763254991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84906966602456868</c:v>
+                  <c:v>0.75575395495684228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20773824980524541</c:v>
+                  <c:v>5.1800051800051802E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.13077897785795</c:v>
+                  <c:v>1.1187269155674111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67800491625457671</c:v>
+                  <c:v>0.58105448590399167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1516570197266098</c:v>
+                  <c:v>5.7495894788433519</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6976063111072359</c:v>
+                  <c:v>3.695445967809083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.066371403209305</c:v>
+                  <c:v>1.049891110176747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3624533689646789</c:v>
+                  <c:v>1.5402486454160711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.023164507263</c:v>
+                  <c:v>3.2587357675690001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.230748061038254</c:v>
+                  <c:v>1.154250460548877</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.174414262016356</c:v>
+                  <c:v>1.4458689429157949</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.473684210526315</c:v>
+                  <c:v>2.539349422875131</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27950271060873438</c:v>
+                  <c:v>0.27063602687272098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.886412074897128</c:v>
+                  <c:v>1.767676612348569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35942915565910222</c:v>
+                  <c:v>0.38572540608236339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1431826456569906</c:v>
+                  <c:v>2.868190101652356E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26035236266951522</c:v>
+                  <c:v>0.2620766458321343</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.86429924520452506</c:v>
+                  <c:v>0.67762469772238998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.71002960925048342</c:v>
+                  <c:v>0.46215591673781181</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19024360334989979</c:v>
+                  <c:v>0.2457192506737704</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3076062246143101</c:v>
+                  <c:v>2.2295337513950888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.186137893550306</c:v>
+                  <c:v>1.158818686424947</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.43760015911667471</c:v>
+                  <c:v>0.5704576326938503</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91134215356441606</c:v>
+                  <c:v>1.0498116793348671</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.60559024094860825</c:v>
+                  <c:v>0.55850482533078338</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4439044357822299</c:v>
+                  <c:v>1.1909989765461839</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.76886112445939458</c:v>
+                  <c:v>1.00767754318618</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.39677056542748029</c:v>
+                  <c:v>0.1381419457735247</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3254846459903351</c:v>
+                  <c:v>1.698971858058647</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.72649875155031607</c:v>
+                  <c:v>0.61326346918155439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.130688843444664</c:v>
+                  <c:v>2.1612666028452301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.014695676771479</c:v>
+                  <c:v>2.888437661404792</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6644089495619021</c:v>
+                  <c:v>1.867084758592169</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.424763409570279</c:v>
+                  <c:v>1.4980264220699191</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5146341831156261E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.63401265050185074</c:v>
+                  <c:v>0.68091980902114146</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.18171429026969141</c:v>
+                  <c:v>0.15418292731108699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.89159040854628</c:v>
+                  <c:v>1.999770925546305</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0279390366031389</c:v>
+                  <c:v>1.1631326182255091</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.33</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.80508648186129173</c:v>
+                  <c:v>0.72217467267506785</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26718078407121731</c:v>
+                  <c:v>0.45531013124368142</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2845039178081541</c:v>
+                  <c:v>1.1181667159682671</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.0856805710470141</c:v>
+                  <c:v>1.5590108145665369</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.40461516411</c:v>
+                  <c:v>1.4505119453919999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11585593101876029</c:v>
+                  <c:v>0.1155703371049871</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0224180137572381</c:v>
+                  <c:v>0.99274840180555879</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.361479677287933</c:v>
+                  <c:v>2.091348086157077</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.118211409510123</c:v>
+                  <c:v>1.19197239438199</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7572166553551869</c:v>
+                  <c:v>1.9862796569769929</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.41771094402673348</c:v>
+                  <c:v>0.33085194375516958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,28 +2763,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>6.3913011699542582E-2</c:v>
+                  <c:v>6.4157137951138365E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0420333064586939E-2</c:v>
+                  <c:v>3.026637833583469E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16691005912039619</c:v>
+                  <c:v>0.1535660892974515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14463893001123301</c:v>
+                  <c:v>0.2052311588862549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2684828812082099E-2</c:v>
+                  <c:v>4.812972643847456E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4910041436023799E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8582569197565488E-2</c:v>
+                  <c:v>5.8042032564949289E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2795,130 +2793,130 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8006589562005688E-2</c:v>
+                  <c:v>9.3445111323013641E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4983051530795129E-3</c:v>
+                  <c:v>3.4770737025620071E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4210526315789472E-2</c:v>
+                  <c:v>8.394543546694648E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.807486631016042E-3</c:v>
+                  <c:v>2.92175831749462E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9686261757913948E-3</c:v>
+                  <c:v>1.2418109101817371E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0098331084832541E-2</c:v>
+                  <c:v>2.1562588951037919E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>2.1034838045053749E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1072787770565181</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1178327257975421</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2037334635194011E-2</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6.3883488571557772E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.1558354403989947E-2</c:v>
+                  <c:v>7.7042435993136121E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.102240519081087E-2</c:v>
+                  <c:v>2.922339594308895E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4494259199186665E-2</c:v>
+                  <c:v>8.737823174980823E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9057840011680111E-2</c:v>
+                  <c:v>5.9174006934267477E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.7984644913627639E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.348350764279968E-2</c:v>
+                  <c:v>4.0458375799103427E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.129155333608613</c:v>
+                  <c:v>0.14524661112190079</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2745214074715763E-2</c:v>
+                  <c:v>1.6683310694436002E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1943646131237515</c:v>
+                  <c:v>0.1969784678623297</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0069362295550242E-2</c:v>
+                  <c:v>0.1074752418054475</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9879216241849071E-2</c:v>
+                  <c:v>2.3258637660688759E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0941465147327011E-2</c:v>
+                  <c:v>2.430549737597042E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4349527927104399E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.43098619278039912</c:v>
+                  <c:v>0.27579831994369641</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.6765172266853191E-2</c:v>
+                  <c:v>1.684113114256864E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8177553501238009E-2</c:v>
+                  <c:v>1.8139718129260039E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.6795196017804315E-2</c:v>
+                  <c:v>7.0047712499027914E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.7508130144568777E-2</c:v>
+                  <c:v>7.6243514367242346E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.0205423257947911E-2</c:v>
+                  <c:v>7.4332838469765627E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8618643672294992E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6317576920170301E-2</c:v>
+                  <c:v>1.2218648636481999E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.47387469396527249</c:v>
+                  <c:v>0.52506143057413579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.19485897453305209</c:v>
+                  <c:v>0.21170890610242149</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.5742097213585668E-3</c:v>
+                  <c:v>1.510478826598474E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>8.2712985938792394E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,7 +3423,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>4.675075964336345E-3</c:v>
+                  <c:v>4.7785467137381682E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3434,13 +3432,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6170656862152471E-2</c:v>
+                  <c:v>2.5979086835097739E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.017789340970871E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8598219119334102E-3</c:v>
+                  <c:v>6.9148175916588636E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3455,7 +3453,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.606167008537546E-3</c:v>
+                  <c:v>1.6036296624999339E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3479,10 +3477,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1109514721157369E-2</c:v>
+                  <c:v>2.1034838045053749E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>9.7526160960470995E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -3503,28 +3501,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>7.3748145938465869E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8053820278712162E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1.3212802475242589E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3.321232974529464E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.7766373303393072E-2</c:v>
+                  <c:v>2.7716452507387131E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.7502071330302059E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -3533,16 +3531,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.01728769366192E-2</c:v>
+                  <c:v>1.0360132504428609E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.3189831808719388E-2</c:v>
+                  <c:v>8.1190204234684229E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2.9892834189430891E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -3554,10 +3552,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.170009968095693E-2</c:v>
+                  <c:v>1.182377378521085E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.149070401497362E-2</c:v>
+                  <c:v>1.285027729922745E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3569,13 +3567,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>9.3819816540468021E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.4683562440968585E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.2928379572257827E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5742097213585668E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -4080,160 +4078,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>14.24170795419302</c:v>
+                  <c:v>15.053089742725399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.091076044244639</c:v>
+                  <c:v>14.59282556046767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.50795947901592</c:v>
+                  <c:v>24.019536903039089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.261906893949471</c:v>
+                  <c:v>11.96836990940256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.197501711215491</c:v>
+                  <c:v>13.7574757636299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.281586639363859</c:v>
+                  <c:v>18.92965019242861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7011385615818311</c:v>
+                  <c:v>5.2852396454185664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.824607434915158</c:v>
+                  <c:v>20.664948222951178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7737804820213761</c:v>
+                  <c:v>9.8939264904519124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8163746158880398</c:v>
+                  <c:v>4.4012490402973903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.79956861230384</c:v>
+                  <c:v>11.96767400833831</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.049968304959</c:v>
+                  <c:v>14.59846548466529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.647558590969371</c:v>
+                  <c:v>30.117316616449632</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0604856685025379</c:v>
+                  <c:v>2.124330920568307</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4656102186338336</c:v>
+                  <c:v>9.3276308056390427</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8464618981870053</c:v>
+                  <c:v>8.9809982538825004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.115641366647631</c:v>
+                  <c:v>-2.1619849294983311</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.2215209588973206</c:v>
+                  <c:v>9.7441265151587118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.37139081576443</c:v>
+                  <c:v>17.223289999113181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.559334737871051</c:v>
+                  <c:v>17.577488702619728</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.91570150943814</c:v>
+                  <c:v>22.553333805625019</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.625068819885049</c:v>
+                  <c:v>12.490527565177249</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.924637071620831</c:v>
+                  <c:v>18.035667355409721</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.02561874800405</c:v>
+                  <c:v>16.295592013575551</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.475946616135751</c:v>
+                  <c:v>16.931802346339762</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.817241945979641</c:v>
+                  <c:v>13.687113249089011</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2649501371623639</c:v>
+                  <c:v>9.0118300606609552</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.547988886235901</c:v>
+                  <c:v>16.489282416871639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.4935482098896937</c:v>
+                  <c:v>10.694959993960451</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.21302296997505</c:v>
+                  <c:v>15.9377228297357</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.853391901083301</c:v>
+                  <c:v>18.762813653589411</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.7961028307322042</c:v>
+                  <c:v>9.2991633571344998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.526634616537731</c:v>
+                  <c:v>21.47407601695863</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.582849594754201</c:v>
+                  <c:v>18.180784149445131</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.915917341831559</c:v>
+                  <c:v>23.59972685959853</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.4597873531057655</c:v>
+                  <c:v>9.6448564541582229</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.824574310357761</c:v>
+                  <c:v>24.203943991804831</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.2405375017201834</c:v>
+                  <c:v>6.9398227892349933</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.310055589079582</c:v>
+                  <c:v>16.363703138801199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.0218320027985968</c:v>
+                  <c:v>8.7225311995797696</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.57</c:v>
+                  <c:v>17.05</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22.48783430923821</c:v>
+                  <c:v>24.720484347326519</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.80659918254965</c:v>
+                  <c:v>10.366064153253269</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.655150487756339</c:v>
+                  <c:v>13.09765638232234</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18.964462155055251</c:v>
+                  <c:v>15.73791588533148</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6367961696188589</c:v>
+                  <c:v>7.3174609699786703</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.537417103365049</c:v>
+                  <c:v>19.65052907067891</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.98542030943476</c:v>
+                  <c:v>10.95909905686738</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15.244569059794401</c:v>
+                  <c:v>14.861622824977079</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.1896132663202588</c:v>
+                  <c:v>8.6143979514616724</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13.816131092476491</c:v>
+                  <c:v>17.682406880535108</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.222045311964621</c:v>
+                  <c:v>11.764147156219609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,160 +4732,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>36.926738459651659</c:v>
+                  <c:v>37.096056873546146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.779644164243599</c:v>
+                  <c:v>28.974382227402039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.376123234916562</c:v>
+                  <c:v>34.916559691912703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.3357006926162</c:v>
+                  <c:v>34.495679003501287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.280765588277958</c:v>
+                  <c:v>22.743940799420908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.215416505763763</c:v>
+                  <c:v>52.697095507897778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.403064930131357</c:v>
+                  <c:v>32.987807417723488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.111515942739949</c:v>
+                  <c:v>39.714540180132218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.891503505392237</c:v>
+                  <c:v>42.833523020981893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.2431065208226</c:v>
+                  <c:v>44.683259803999498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.236409116985381</c:v>
+                  <c:v>28.932214814979989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.080228698771869</c:v>
+                  <c:v>36.881499933735803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.120409013394067</c:v>
+                  <c:v>28.295932471424969</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.126389547491449</c:v>
+                  <c:v>42.092678710569423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.672861325204657</c:v>
+                  <c:v>44.295401260898387</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.69755163640756</c:v>
+                  <c:v>28.871998899471929</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.893632695089721</c:v>
+                  <c:v>28.986747766527991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.439060261180813</c:v>
+                  <c:v>33.262681399824793</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.908866046093951</c:v>
+                  <c:v>26.922761427982159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.410572772404102</c:v>
+                  <c:v>24.671355312452199</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.748762599388883</c:v>
+                  <c:v>44.866937895300389</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45.148550845166831</c:v>
+                  <c:v>46.241567741444747</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.404620032124889</c:v>
+                  <c:v>39.344106054138607</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33.959656719265681</c:v>
+                  <c:v>36.088397667576487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.049280797778543</c:v>
+                  <c:v>37.637858249522381</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.169985676475228</c:v>
+                  <c:v>21.161416926122801</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.542067196746789</c:v>
+                  <c:v>31.01300573467568</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.334107645260278</c:v>
+                  <c:v>35.174136298675919</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.686771051286382</c:v>
+                  <c:v>25.702190977247248</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.742947916532813</c:v>
+                  <c:v>48.626033956448516</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39.169183723136122</c:v>
+                  <c:v>43.08521113364862</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.322914741616898</c:v>
+                  <c:v>43.192563732516973</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40.073746708955071</c:v>
+                  <c:v>38.919328847614693</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37.255019095989432</c:v>
+                  <c:v>36.130373512030509</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33.264939038482673</c:v>
+                  <c:v>34.995814771549171</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.189955232232791</c:v>
+                  <c:v>19.542273569128529</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30.428298958477569</c:v>
+                  <c:v>32.943929841869263</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.057979331896231</c:v>
+                  <c:v>22.080905028313708</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.417744038230317</c:v>
+                  <c:v>35.828694747577337</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.660180443606897</c:v>
+                  <c:v>35.48452485044357</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.14</c:v>
+                  <c:v>41.29</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.081964851830321</c:v>
+                  <c:v>35.393361565866734</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22.658914520234092</c:v>
+                  <c:v>21.540419157079629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30.10689063000645</c:v>
+                  <c:v>27.749931581241871</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39.383926767499013</c:v>
+                  <c:v>35.503849173354872</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.4099358747407</c:v>
+                  <c:v>30.271650202136801</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34.766538362238776</c:v>
+                  <c:v>39.920917765790549</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42.318673161640803</c:v>
+                  <c:v>41.755595349343878</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.20934910670837</c:v>
+                  <c:v>29.956673296575129</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.800813815875429</c:v>
+                  <c:v>26.703711720935129</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>32.874825057661887</c:v>
+                  <c:v>37.790753388081363</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.451096443278299</c:v>
+                  <c:v>27.780860373610121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9445,20 +9443,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="1" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" style="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9500,28 +9498,28 @@
         <v>12</v>
       </c>
       <c r="B2" s="18">
-        <v>14.24170795419302</v>
+        <v>15.053089742725399</v>
       </c>
       <c r="C2" s="18">
-        <v>-0.34128746686463401</v>
+        <v>-1.344067677644331</v>
       </c>
       <c r="D2" s="18">
-        <v>36.926738459651659</v>
+        <v>37.096056873546146</v>
       </c>
       <c r="E2" s="18">
-        <v>1.9569500411414089</v>
+        <v>-0.40989735247071613</v>
       </c>
       <c r="F2" s="18">
-        <v>98.02880027494345</v>
+        <v>98.106567941617087</v>
       </c>
       <c r="G2" s="18">
-        <v>1.90362641290201</v>
+        <v>1.8253379763254991</v>
       </c>
       <c r="H2" s="18">
-        <v>6.3913011699542582E-2</v>
+        <v>6.4157137951138365E-2</v>
       </c>
       <c r="I2" s="18">
-        <v>4.675075964336345E-3</v>
+        <v>4.7785467137381682E-3</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9533,25 +9531,25 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>15.091076044244639</v>
+        <v>14.59282556046767</v>
       </c>
       <c r="C3" s="19">
-        <v>-3.230503426013474</v>
+        <v>0.62686347376619733</v>
       </c>
       <c r="D3" s="19">
-        <v>28.779644164243599</v>
+        <v>28.974382227402039</v>
       </c>
       <c r="E3" s="19">
-        <v>0.69576040213847434</v>
+        <v>2.529015816282175</v>
       </c>
       <c r="F3" s="19">
-        <v>99.130510000910306</v>
+        <v>99.213979666707047</v>
       </c>
       <c r="G3" s="19">
-        <v>0.84906966602456868</v>
+        <v>0.75575395495684228</v>
       </c>
       <c r="H3" s="19">
-        <v>2.0420333064586939E-2</v>
+        <v>3.026637833583469E-2</v>
       </c>
       <c r="I3" s="19">
         <v>0</v>
@@ -9566,22 +9564,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="19">
-        <v>24.50795947901592</v>
+        <v>24.019536903039089</v>
       </c>
       <c r="C4" s="19">
-        <v>-0.94125097147463865</v>
+        <v>-2.7546099290780108</v>
       </c>
       <c r="D4" s="19">
-        <v>33.376123234916562</v>
+        <v>34.916559691912703</v>
       </c>
       <c r="E4" s="19">
-        <v>-9.6153846153845812E-2</v>
+        <v>-0.94250706880301127</v>
       </c>
       <c r="F4" s="19">
-        <v>99.792261750194754</v>
+        <v>99.948199948199942</v>
       </c>
       <c r="G4" s="19">
-        <v>0.20773824980524541</v>
+        <v>5.1800051800051802E-2</v>
       </c>
       <c r="H4" s="19">
         <v>0</v>
@@ -9599,28 +9597,28 @@
         <v>15</v>
       </c>
       <c r="B5" s="19">
-        <v>13.261906893949471</v>
+        <v>11.96836990940256</v>
       </c>
       <c r="C5" s="19">
-        <v>0.5861404513467674</v>
+        <v>-1.7465016558409401</v>
       </c>
       <c r="D5" s="19">
-        <v>44.3357006926162</v>
+        <v>34.495679003501287</v>
       </c>
       <c r="E5" s="19">
-        <v>-1.2014342954868871</v>
+        <v>-5.4406478969641627</v>
       </c>
       <c r="F5" s="19">
-        <v>98.676140306159439</v>
+        <v>98.701727908299915</v>
       </c>
       <c r="G5" s="19">
-        <v>1.13077897785795</v>
+        <v>1.1187269155674111</v>
       </c>
       <c r="H5" s="19">
-        <v>0.16691005912039619</v>
+        <v>0.1535660892974515</v>
       </c>
       <c r="I5" s="19">
-        <v>2.6170656862152471E-2</v>
+        <v>2.5979086835097739E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9632,28 +9630,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="19">
-        <v>13.197501711215491</v>
+        <v>13.7574757636299</v>
       </c>
       <c r="C6" s="19">
-        <v>1.311258658019069</v>
+        <v>-1.926505705548867</v>
       </c>
       <c r="D6" s="19">
-        <v>23.280765588277958</v>
+        <v>22.743940799420908</v>
       </c>
       <c r="E6" s="19">
-        <v>4.7902474304693667</v>
+        <v>0.64372405196435567</v>
       </c>
       <c r="F6" s="19">
-        <v>99.157178260323931</v>
+        <v>99.213714355209191</v>
       </c>
       <c r="G6" s="19">
-        <v>0.67800491625457671</v>
+        <v>0.58105448590399167</v>
       </c>
       <c r="H6" s="19">
-        <v>0.14463893001123301</v>
+        <v>0.2052311588862549</v>
       </c>
       <c r="I6" s="19">
-        <v>2.017789340970871E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -9665,28 +9663,28 @@
         <v>17</v>
       </c>
       <c r="B7" s="19">
-        <v>18.281586639363859</v>
+        <v>18.92965019242861</v>
       </c>
       <c r="C7" s="19">
-        <v>-0.95775993214142163</v>
+        <v>-0.47548705660731783</v>
       </c>
       <c r="D7" s="19">
-        <v>52.215416505763763</v>
+        <v>52.697095507897778</v>
       </c>
       <c r="E7" s="19">
-        <v>0.45375012466799669</v>
+        <v>-0.13390052549765949</v>
       </c>
       <c r="F7" s="19">
-        <v>93.786629819293609</v>
+        <v>94.195365977125689</v>
       </c>
       <c r="G7" s="19">
-        <v>6.1516570197266098</v>
+        <v>5.7495894788433519</v>
       </c>
       <c r="H7" s="19">
-        <v>5.2684828812082099E-2</v>
+        <v>4.812972643847456E-2</v>
       </c>
       <c r="I7" s="19">
-        <v>9.8598219119334102E-3</v>
+        <v>6.9148175916588636E-3</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9698,25 +9696,25 @@
         <v>18</v>
       </c>
       <c r="B8" s="19">
-        <v>3.7011385615818311</v>
+        <v>5.2852396454185664</v>
       </c>
       <c r="C8" s="19">
-        <v>0.45336316072250998</v>
+        <v>-0.98301968813834228</v>
       </c>
       <c r="D8" s="19">
-        <v>32.403064930131357</v>
+        <v>32.987807417723488</v>
       </c>
       <c r="E8" s="19">
-        <v>0.72254208041762558</v>
+        <v>-0.24869100314886561</v>
       </c>
       <c r="F8" s="19">
-        <v>96.295902684748228</v>
+        <v>96.304554032189984</v>
       </c>
       <c r="G8" s="19">
-        <v>3.6976063111072359</v>
+        <v>3.695445967809083</v>
       </c>
       <c r="H8" s="19">
-        <v>6.4910041436023799E-3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>0</v>
@@ -9731,25 +9729,25 @@
         <v>19</v>
       </c>
       <c r="B9" s="19">
-        <v>18.824607434915158</v>
+        <v>20.664948222951178</v>
       </c>
       <c r="C9" s="19">
-        <v>0.50227964488160071</v>
+        <v>-2.0187915451677849</v>
       </c>
       <c r="D9" s="19">
-        <v>38.111515942739949</v>
+        <v>39.714540180132218</v>
       </c>
       <c r="E9" s="19">
-        <v>1.865795714324741</v>
+        <v>0.84289048181658055</v>
       </c>
       <c r="F9" s="19">
-        <v>98.865046027592513</v>
+        <v>98.892066857257703</v>
       </c>
       <c r="G9" s="19">
-        <v>1.066371403209305</v>
+        <v>1.049891110176747</v>
       </c>
       <c r="H9" s="19">
-        <v>6.8582569197565488E-2</v>
+        <v>5.8042032564949289E-2</v>
       </c>
       <c r="I9" s="19">
         <v>0</v>
@@ -9764,22 +9762,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="19">
-        <v>9.7737804820213761</v>
+        <v>9.8939264904519124</v>
       </c>
       <c r="C10" s="19">
-        <v>-0.38384758019523918</v>
+        <v>-1.985998080138536</v>
       </c>
       <c r="D10" s="19">
-        <v>42.891503505392237</v>
+        <v>42.833523020981893</v>
       </c>
       <c r="E10" s="19">
-        <v>3.774291055252466</v>
+        <v>-0.54658871951151144</v>
       </c>
       <c r="F10" s="19">
-        <v>98.637546631034439</v>
+        <v>98.459751354583062</v>
       </c>
       <c r="G10" s="19">
-        <v>1.3624533689646789</v>
+        <v>1.5402486454160711</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -9797,22 +9795,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="19">
-        <v>4.8163746158880398</v>
+        <v>4.4012490402973903</v>
       </c>
       <c r="C11" s="19">
-        <v>0.59840000000000004</v>
+        <v>-1.6243000000000001</v>
       </c>
       <c r="D11" s="19">
-        <v>47.2431065208226</v>
+        <v>44.683259803999498</v>
       </c>
       <c r="E11" s="19">
-        <v>1.0410999999999999</v>
+        <v>-1.1526000000000001</v>
       </c>
       <c r="F11" s="19">
-        <v>96.976835492736001</v>
+        <v>96.741264232429998</v>
       </c>
       <c r="G11" s="19">
-        <v>3.023164507263</v>
+        <v>3.2587357675690001</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -9830,28 +9828,28 @@
         <v>22</v>
       </c>
       <c r="B12" s="19">
-        <v>11.79956861230384</v>
+        <v>11.96767400833831</v>
       </c>
       <c r="C12" s="19">
-        <v>-1.12379814299714</v>
+        <v>-1.32178004086495</v>
       </c>
       <c r="D12" s="19">
-        <v>27.236409116985381</v>
+        <v>28.932214814979989</v>
       </c>
       <c r="E12" s="19">
-        <v>1.255865817963852</v>
+        <v>1.0553716793310199</v>
       </c>
       <c r="F12" s="19">
-        <v>98.681245349398523</v>
+        <v>98.752304428127502</v>
       </c>
       <c r="G12" s="19">
-        <v>1.230748061038254</v>
+        <v>1.154250460548877</v>
       </c>
       <c r="H12" s="19">
-        <v>8.8006589562005688E-2</v>
+        <v>9.3445111323013641E-2</v>
       </c>
       <c r="I12" s="19">
-        <v>1.606167008537546E-3</v>
+        <v>1.6036296624999339E-3</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9863,25 +9861,25 @@
         <v>23</v>
       </c>
       <c r="B13" s="19">
-        <v>13.049968304959</v>
+        <v>14.59846548466529</v>
       </c>
       <c r="C13" s="19">
-        <v>-1.471520527813811</v>
+        <v>-0.60308454960107349</v>
       </c>
       <c r="D13" s="19">
-        <v>35.080228698771869</v>
+        <v>36.881499933735803</v>
       </c>
       <c r="E13" s="19">
-        <v>1.335800902256312</v>
+        <v>0.7765482201153644</v>
       </c>
       <c r="F13" s="19">
-        <v>98.816087432829789</v>
+        <v>98.550653983380883</v>
       </c>
       <c r="G13" s="19">
-        <v>1.174414262016356</v>
+        <v>1.4458689429157949</v>
       </c>
       <c r="H13" s="19">
-        <v>9.4983051530795129E-3</v>
+        <v>3.4770737025620071E-3</v>
       </c>
       <c r="I13" s="19">
         <v>0</v>
@@ -9896,25 +9894,25 @@
         <v>24</v>
       </c>
       <c r="B14" s="19">
-        <v>29.647558590969371</v>
+        <v>30.117316616449632</v>
       </c>
       <c r="C14" s="19">
-        <v>-2.3583475559231681</v>
+        <v>-18.636477995001218</v>
       </c>
       <c r="D14" s="19">
-        <v>43.120409013394067</v>
+        <v>28.295932471424969</v>
       </c>
       <c r="E14" s="19">
-        <v>0.59202605036612344</v>
+        <v>-8.9000695689308014</v>
       </c>
       <c r="F14" s="19">
-        <v>96.442105263157899</v>
+        <v>97.376705141657922</v>
       </c>
       <c r="G14" s="19">
-        <v>3.473684210526315</v>
+        <v>2.539349422875131</v>
       </c>
       <c r="H14" s="19">
-        <v>8.4210526315789472E-2</v>
+        <v>8.394543546694648E-2</v>
       </c>
       <c r="I14" s="19">
         <v>0</v>
@@ -9929,22 +9927,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="19">
-        <v>1.0604856685025379</v>
+        <v>2.124330920568307</v>
       </c>
       <c r="C15" s="19">
-        <v>-1.4637655810018231</v>
+        <v>-0.67768257589535863</v>
       </c>
       <c r="D15" s="19">
-        <v>33.126389547491449</v>
+        <v>42.092678710569423</v>
       </c>
       <c r="E15" s="19">
-        <v>-1.546133196196273</v>
+        <v>4.0323768994037668</v>
       </c>
       <c r="F15" s="19">
-        <v>99.720497289391261</v>
+        <v>99.729363973127278</v>
       </c>
       <c r="G15" s="19">
-        <v>0.27950271060873438</v>
+        <v>0.27063602687272098</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -9962,25 +9960,25 @@
         <v>26</v>
       </c>
       <c r="B16" s="19">
-        <v>7.4656102186338336</v>
+        <v>9.3276308056390427</v>
       </c>
       <c r="C16" s="19">
-        <v>8.1798532262209414E-2</v>
+        <v>-1.3187233786775341</v>
       </c>
       <c r="D16" s="19">
-        <v>43.672861325204657</v>
+        <v>44.295401260898387</v>
       </c>
       <c r="E16" s="19">
-        <v>1.342058320029992</v>
+        <v>-0.87575730909585559</v>
       </c>
       <c r="F16" s="19">
-        <v>98.110780438471011</v>
+        <v>98.229401629333083</v>
       </c>
       <c r="G16" s="19">
-        <v>1.886412074897128</v>
+        <v>1.767676612348569</v>
       </c>
       <c r="H16" s="19">
-        <v>2.807486631016042E-3</v>
+        <v>2.92175831749462E-3</v>
       </c>
       <c r="I16" s="19">
         <v>0</v>
@@ -9995,25 +9993,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>6.8464618981870053</v>
+        <v>8.9809982538825004</v>
       </c>
       <c r="C17" s="19">
-        <v>-0.24285783246263029</v>
+        <v>-1.7367865288477771</v>
       </c>
       <c r="D17" s="19">
-        <v>27.69755163640756</v>
+        <v>28.871998899471929</v>
       </c>
       <c r="E17" s="19">
-        <v>2.0141602626067372</v>
+        <v>-0.26018006925385589</v>
       </c>
       <c r="F17" s="19">
-        <v>99.634602218164375</v>
+        <v>99.601856484815087</v>
       </c>
       <c r="G17" s="19">
-        <v>0.35942915565910222</v>
+        <v>0.38572540608236339</v>
       </c>
       <c r="H17" s="19">
-        <v>5.9686261757913948E-3</v>
+        <v>1.2418109101817371E-2</v>
       </c>
       <c r="I17" s="19">
         <v>0</v>
@@ -10028,22 +10026,22 @@
         <v>28</v>
       </c>
       <c r="B18" s="19">
-        <v>-2.115641366647631</v>
+        <v>-2.1619849294983311</v>
       </c>
       <c r="C18" s="19">
-        <v>1.20699449285805</v>
+        <v>-2.0327911143377779</v>
       </c>
       <c r="D18" s="19">
-        <v>28.893632695089721</v>
+        <v>28.986747766527991</v>
       </c>
       <c r="E18" s="19">
-        <v>3.3515755792603641</v>
+        <v>-0.42330722897440409</v>
       </c>
       <c r="F18" s="19">
-        <v>99.856817354343022</v>
+        <v>99.971318098983474</v>
       </c>
       <c r="G18" s="19">
-        <v>0.1431826456569906</v>
+        <v>2.868190101652356E-2</v>
       </c>
       <c r="H18" s="19">
         <v>0</v>
@@ -10061,25 +10059,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="19">
-        <v>9.2215209588973206</v>
+        <v>9.7441265151587118</v>
       </c>
       <c r="C19" s="19">
-        <v>0.6750753018248099</v>
+        <v>-4.8425759702533799</v>
       </c>
       <c r="D19" s="19">
-        <v>34.439060261180813</v>
+        <v>33.262681399824793</v>
       </c>
       <c r="E19" s="19">
-        <v>1.7852338836707959</v>
+        <v>-1.32112785131557</v>
       </c>
       <c r="F19" s="19">
-        <v>99.719549306245653</v>
+        <v>99.716360765216777</v>
       </c>
       <c r="G19" s="19">
-        <v>0.26035236266951522</v>
+        <v>0.2620766458321343</v>
       </c>
       <c r="H19" s="19">
-        <v>2.0098331084832541E-2</v>
+        <v>2.1562588951037919E-2</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -10094,28 +10092,28 @@
         <v>30</v>
       </c>
       <c r="B20" s="19">
-        <v>14.37139081576443</v>
+        <v>17.223289999113181</v>
       </c>
       <c r="C20" s="19">
-        <v>0.53454290300451868</v>
+        <v>-0.48705554310987859</v>
       </c>
       <c r="D20" s="19">
-        <v>26.908866046093951</v>
+        <v>26.922761427982159</v>
       </c>
       <c r="E20" s="19">
-        <v>4.9346828303922834</v>
+        <v>-0.65914786849611806</v>
       </c>
       <c r="F20" s="19">
-        <v>99.114591240074233</v>
+        <v>99.280305626187413</v>
       </c>
       <c r="G20" s="19">
-        <v>0.86429924520452506</v>
+        <v>0.67762469772238998</v>
       </c>
       <c r="H20" s="19">
-        <v>0</v>
+        <v>2.1034838045053749E-2</v>
       </c>
       <c r="I20" s="19">
-        <v>2.1109514721157369E-2</v>
+        <v>2.1034838045053749E-2</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10127,28 +10125,28 @@
         <v>31</v>
       </c>
       <c r="B21" s="19">
-        <v>17.559334737871051</v>
+        <v>17.577488702619728</v>
       </c>
       <c r="C21" s="19">
-        <v>1.37508109310935</v>
+        <v>-0.12445349437241029</v>
       </c>
       <c r="D21" s="19">
-        <v>24.410572772404102</v>
+        <v>24.671355312452199</v>
       </c>
       <c r="E21" s="19">
-        <v>5.660146087775539</v>
+        <v>-0.43488337796604121</v>
       </c>
       <c r="F21" s="19">
-        <v>99.172137664951833</v>
+        <v>99.420812690109472</v>
       </c>
       <c r="G21" s="19">
-        <v>0.71002960925048342</v>
+        <v>0.46215591673781181</v>
       </c>
       <c r="H21" s="19">
-        <v>0.1178327257975421</v>
+        <v>0.1072787770565181</v>
       </c>
       <c r="I21" s="19">
-        <v>0</v>
+        <v>9.7526160960470995E-3</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10160,25 +10158,25 @@
         <v>32</v>
       </c>
       <c r="B22" s="19">
-        <v>20.91570150943814</v>
+        <v>22.553333805625019</v>
       </c>
       <c r="C22" s="19">
-        <v>-2.7771165654792301E-2</v>
+        <v>-0.93854560325908543</v>
       </c>
       <c r="D22" s="19">
-        <v>43.748762599388883</v>
+        <v>44.866937895300389</v>
       </c>
       <c r="E22" s="19">
-        <v>3.1665895548917451</v>
+        <v>0.57909551728315323</v>
       </c>
       <c r="F22" s="19">
-        <v>99.787719062014773</v>
+        <v>99.754280749326156</v>
       </c>
       <c r="G22" s="19">
-        <v>0.19024360334989979</v>
+        <v>0.2457192506737704</v>
       </c>
       <c r="H22" s="19">
-        <v>2.2037334635194011E-2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="19">
         <v>0</v>
@@ -10193,25 +10191,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="19">
-        <v>11.625068819885049</v>
+        <v>12.490527565177249</v>
       </c>
       <c r="C23" s="19">
-        <v>-0.30603657581143839</v>
+        <v>-1.487517368622348</v>
       </c>
       <c r="D23" s="19">
-        <v>45.148550845166831</v>
+        <v>46.241567741444747</v>
       </c>
       <c r="E23" s="19">
-        <v>2.5954385928473962</v>
+        <v>0.91034424226323163</v>
       </c>
       <c r="F23" s="19">
-        <v>97.692393775384687</v>
+        <v>97.764077899746752</v>
       </c>
       <c r="G23" s="19">
-        <v>2.3076062246143101</v>
+        <v>2.2295337513950888</v>
       </c>
       <c r="H23" s="19">
-        <v>0</v>
+        <v>6.3883488571557772E-3</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
@@ -10226,25 +10224,25 @@
         <v>34</v>
       </c>
       <c r="B24" s="19">
-        <v>14.924637071620831</v>
+        <v>18.035667355409721</v>
       </c>
       <c r="C24" s="19">
-        <v>-1.4117480212671469</v>
+        <v>-1.470335838831514</v>
       </c>
       <c r="D24" s="19">
-        <v>38.404620032124889</v>
+        <v>39.344106054138607</v>
       </c>
       <c r="E24" s="19">
-        <v>2.958666099158016</v>
+        <v>1.0407147130680079</v>
       </c>
       <c r="F24" s="19">
-        <v>98.722303752044809</v>
+        <v>98.764138877580123</v>
       </c>
       <c r="G24" s="19">
-        <v>1.186137893550306</v>
+        <v>1.158818686424947</v>
       </c>
       <c r="H24" s="19">
-        <v>9.1558354403989947E-2</v>
+        <v>7.7042435993136121E-2</v>
       </c>
       <c r="I24" s="19">
         <v>0</v>
@@ -10259,25 +10257,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="19">
-        <v>14.02561874800405</v>
+        <v>16.295592013575551</v>
       </c>
       <c r="C25" s="19">
-        <v>0.2016388774926505</v>
+        <v>-1.5872925085075369</v>
       </c>
       <c r="D25" s="19">
-        <v>33.959656719265681</v>
+        <v>36.088397667576487</v>
       </c>
       <c r="E25" s="19">
-        <v>3.7496360509432192</v>
+        <v>-0.13865217155402271</v>
       </c>
       <c r="F25" s="19">
-        <v>99.551377435691833</v>
+        <v>99.400318971362381</v>
       </c>
       <c r="G25" s="19">
-        <v>0.43760015911667471</v>
+        <v>0.5704576326938503</v>
       </c>
       <c r="H25" s="19">
-        <v>1.102240519081087E-2</v>
+        <v>2.922339594308895E-2</v>
       </c>
       <c r="I25" s="19">
         <v>0</v>
@@ -10292,25 +10290,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="19">
-        <v>15.475946616135751</v>
+        <v>16.931802346339762</v>
       </c>
       <c r="C26" s="19">
-        <v>-0.62566513718022343</v>
+        <v>-3.1939016473137092</v>
       </c>
       <c r="D26" s="19">
-        <v>36.049280797778543</v>
+        <v>37.637858249522381</v>
       </c>
       <c r="E26" s="19">
-        <v>1.2699977093923811</v>
+        <v>-0.5111704500508979</v>
       </c>
       <c r="F26" s="19">
-        <v>99.024163587235705</v>
+        <v>98.862810088914642</v>
       </c>
       <c r="G26" s="19">
-        <v>0.91134215356441606</v>
+        <v>1.0498116793348671</v>
       </c>
       <c r="H26" s="19">
-        <v>6.4494259199186665E-2</v>
+        <v>8.737823174980823E-2</v>
       </c>
       <c r="I26" s="19">
         <v>0</v>
@@ -10325,25 +10323,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="19">
-        <v>13.817241945979641</v>
+        <v>13.687113249089011</v>
       </c>
       <c r="C27" s="19">
-        <v>-3.7892622145615597E-2</v>
+        <v>0.59088269815047723</v>
       </c>
       <c r="D27" s="19">
-        <v>20.169985676475228</v>
+        <v>21.161416926122801</v>
       </c>
       <c r="E27" s="19">
-        <v>5.9364562032603532</v>
+        <v>1.8902249041487871</v>
       </c>
       <c r="F27" s="19">
-        <v>99.375351919038735</v>
+        <v>99.382321167733949</v>
       </c>
       <c r="G27" s="19">
-        <v>0.60559024094860825</v>
+        <v>0.55850482533078338</v>
       </c>
       <c r="H27" s="19">
-        <v>1.9057840011680111E-2</v>
+        <v>5.9174006934267477E-2</v>
       </c>
       <c r="I27" s="19">
         <v>0</v>
@@ -10358,28 +10356,28 @@
         <v>38</v>
       </c>
       <c r="B28" s="19">
-        <v>8.2649501371623639</v>
+        <v>9.0118300606609552</v>
       </c>
       <c r="C28" s="19">
-        <v>0.19099099692878169</v>
+        <v>-3.077009022055488</v>
       </c>
       <c r="D28" s="19">
-        <v>30.542067196746789</v>
+        <v>31.01300573467568</v>
       </c>
       <c r="E28" s="19">
-        <v>1.295119853892519</v>
+        <v>-2.5279768018986508</v>
       </c>
       <c r="F28" s="19">
-        <v>98.556095564217699</v>
+        <v>98.801626208859886</v>
       </c>
       <c r="G28" s="19">
-        <v>1.4439044357822299</v>
+        <v>1.1909989765461839</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <v>0</v>
+        <v>7.3748145938465869E-3</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10391,28 +10389,28 @@
         <v>39</v>
       </c>
       <c r="B29" s="19">
-        <v>14.547988886235901</v>
+        <v>16.489282416871639</v>
       </c>
       <c r="C29" s="19">
-        <v>-0.5521350301048833</v>
+        <v>0.70801177974266771</v>
       </c>
       <c r="D29" s="19">
-        <v>30.334107645260278</v>
+        <v>35.174136298675919</v>
       </c>
       <c r="E29" s="19">
-        <v>1.5178590983649931</v>
+        <v>1.4140993341836381</v>
       </c>
       <c r="F29" s="19">
-        <v>99.183085055261884</v>
+        <v>98.944337811900198</v>
       </c>
       <c r="G29" s="19">
-        <v>0.76886112445939458</v>
+        <v>1.00767754318618</v>
       </c>
       <c r="H29" s="19">
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="I29" s="19">
         <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <v>4.8053820278712162E-2</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -10424,22 +10422,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="19">
-        <v>7.4935482098896937</v>
+        <v>10.694959993960451</v>
       </c>
       <c r="C30" s="19">
-        <v>0.40013780086001688</v>
+        <v>-1.977987474632535</v>
       </c>
       <c r="D30" s="19">
-        <v>29.686771051286382</v>
+        <v>25.702190977247248</v>
       </c>
       <c r="E30" s="19">
-        <v>2.8867556791715012</v>
+        <v>-1.6123393701614199</v>
       </c>
       <c r="F30" s="19">
-        <v>99.603229434572512</v>
+        <v>99.861858054226474</v>
       </c>
       <c r="G30" s="19">
-        <v>0.39677056542748029</v>
+        <v>0.1381419457735247</v>
       </c>
       <c r="H30" s="19">
         <v>0</v>
@@ -10457,28 +10455,28 @@
         <v>41</v>
       </c>
       <c r="B31" s="19">
-        <v>20.21302296997505</v>
+        <v>15.9377228297357</v>
       </c>
       <c r="C31" s="19">
-        <v>3.0170538857588709</v>
+        <v>4.0799945417966138E-2</v>
       </c>
       <c r="D31" s="19">
-        <v>50.742947916532813</v>
+        <v>48.626033956448516</v>
       </c>
       <c r="E31" s="19">
-        <v>1.5255579091558711</v>
+        <v>-0.71779841835670832</v>
       </c>
       <c r="F31" s="19">
-        <v>98.661031846366882</v>
+        <v>98.247356963667016</v>
       </c>
       <c r="G31" s="19">
-        <v>1.3254846459903351</v>
+        <v>1.698971858058647</v>
       </c>
       <c r="H31" s="19">
-        <v>1.348350764279968E-2</v>
+        <v>4.0458375799103427E-2</v>
       </c>
       <c r="I31" s="19">
-        <v>0</v>
+        <v>1.3212802475242589E-2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10490,25 +10488,25 @@
         <v>42</v>
       </c>
       <c r="B32" s="19">
-        <v>15.853391901083301</v>
+        <v>18.762813653589411</v>
       </c>
       <c r="C32" s="19">
-        <v>-0.15168411607182741</v>
+        <v>-1.4330937454241079</v>
       </c>
       <c r="D32" s="19">
-        <v>39.169183723136122</v>
+        <v>43.08521113364862</v>
       </c>
       <c r="E32" s="19">
-        <v>2.5441966826953561</v>
+        <v>0.62828632831866893</v>
       </c>
       <c r="F32" s="19">
-        <v>99.14434591483932</v>
+        <v>99.241489919695667</v>
       </c>
       <c r="G32" s="19">
-        <v>0.72649875155031607</v>
+        <v>0.61326346918155439</v>
       </c>
       <c r="H32" s="19">
-        <v>0.129155333608613</v>
+        <v>0.14524661112190079</v>
       </c>
       <c r="I32" s="19">
         <v>0</v>
@@ -10523,28 +10521,28 @@
         <v>43</v>
       </c>
       <c r="B33" s="19">
-        <v>8.7961028307322042</v>
+        <v>9.2991633571344998</v>
       </c>
       <c r="C33" s="19">
-        <v>-0.86817992985457482</v>
+        <v>-2.414782933440951</v>
       </c>
       <c r="D33" s="19">
-        <v>43.322914741616898</v>
+        <v>43.192563732516973</v>
       </c>
       <c r="E33" s="19">
-        <v>2.208417378022399</v>
+        <v>4.2733125523064609E-2</v>
       </c>
       <c r="F33" s="19">
-        <v>97.836565942480036</v>
+        <v>97.818728853484643</v>
       </c>
       <c r="G33" s="19">
-        <v>2.130688843444664</v>
+        <v>2.1612666028452301</v>
       </c>
       <c r="H33" s="19">
-        <v>3.2745214074715763E-2</v>
+        <v>1.6683310694436002E-2</v>
       </c>
       <c r="I33" s="19">
-        <v>0</v>
+        <v>3.321232974529464E-3</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -10556,28 +10554,28 @@
         <v>44</v>
       </c>
       <c r="B34" s="19">
-        <v>19.526634616537731</v>
+        <v>21.47407601695863</v>
       </c>
       <c r="C34" s="19">
-        <v>0.2141230716412813</v>
+        <v>-1.414247870578305</v>
       </c>
       <c r="D34" s="19">
-        <v>40.073746708955071</v>
+        <v>38.919328847614693</v>
       </c>
       <c r="E34" s="19">
-        <v>1.113882169603498</v>
+        <v>-1.7396124447966099</v>
       </c>
       <c r="F34" s="19">
-        <v>96.790939710103927</v>
+        <v>96.914583870732031</v>
       </c>
       <c r="G34" s="19">
-        <v>3.014695676771479</v>
+        <v>2.888437661404792</v>
       </c>
       <c r="H34" s="19">
-        <v>0.1943646131237515</v>
+        <v>0.1969784678623297</v>
       </c>
       <c r="I34" s="19">
-        <v>2.7766373303393072E-2</v>
+        <v>2.7716452507387131E-2</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -10589,28 +10587,28 @@
         <v>45</v>
       </c>
       <c r="B35" s="19">
-        <v>16.582849594754201</v>
+        <v>18.180784149445131</v>
       </c>
       <c r="C35" s="19">
-        <v>-1.3129652756758421</v>
+        <v>-0.86583573644655332</v>
       </c>
       <c r="D35" s="19">
-        <v>37.255019095989432</v>
+        <v>36.130373512030509</v>
       </c>
       <c r="E35" s="19">
-        <v>3.9975370838733659</v>
+        <v>-2.2117764650318081</v>
       </c>
       <c r="F35" s="19">
-        <v>98.255521688142551</v>
+        <v>98.023689792469341</v>
       </c>
       <c r="G35" s="19">
-        <v>1.6644089495619021</v>
+        <v>1.867084758592169</v>
       </c>
       <c r="H35" s="19">
-        <v>8.0069362295550242E-2</v>
+        <v>0.1074752418054475</v>
       </c>
       <c r="I35" s="19">
-        <v>0</v>
+        <v>1.7502071330302059E-3</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10622,25 +10620,25 @@
         <v>46</v>
       </c>
       <c r="B36" s="19">
-        <v>21.915917341831559</v>
+        <v>23.59972685959853</v>
       </c>
       <c r="C36" s="19">
-        <v>-4.853500918710167</v>
+        <v>-0.54263314278630159</v>
       </c>
       <c r="D36" s="19">
-        <v>33.264939038482673</v>
+        <v>34.995814771549171</v>
       </c>
       <c r="E36" s="19">
-        <v>0.94838093547873759</v>
+        <v>0.49934670425782551</v>
       </c>
       <c r="F36" s="19">
-        <v>98.535357374187868</v>
+        <v>98.478714940269398</v>
       </c>
       <c r="G36" s="19">
-        <v>1.424763409570279</v>
+        <v>1.4980264220699191</v>
       </c>
       <c r="H36" s="19">
-        <v>3.9879216241849071E-2</v>
+        <v>2.3258637660688759E-2</v>
       </c>
       <c r="I36" s="19">
         <v>0</v>
@@ -10655,22 +10653,22 @@
         <v>47</v>
       </c>
       <c r="B37" s="19">
-        <v>9.4597873531057655</v>
+        <v>9.6448564541582229</v>
       </c>
       <c r="C37" s="19">
-        <v>3.6419138220481249</v>
+        <v>-3.6584982806039128</v>
       </c>
       <c r="D37" s="19">
-        <v>20.189955232232791</v>
+        <v>19.542273569128529</v>
       </c>
       <c r="E37" s="19">
-        <v>-0.67908785674314498</v>
+        <v>-3.1007318033136562</v>
       </c>
       <c r="F37" s="19">
-        <v>99.97485365816884</v>
+        <v>100</v>
       </c>
       <c r="G37" s="19">
-        <v>2.5146341831156261E-2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="19">
         <v>0</v>
@@ -10688,28 +10686,28 @@
         <v>48</v>
       </c>
       <c r="B38" s="19">
-        <v>18.824574310357761</v>
+        <v>24.203943991804831</v>
       </c>
       <c r="C38" s="19">
-        <v>1.722871154996729</v>
+        <v>-0.60515889309156801</v>
       </c>
       <c r="D38" s="19">
-        <v>30.428298958477569</v>
+        <v>32.943929841869263</v>
       </c>
       <c r="E38" s="19">
-        <v>3.7984740955760512</v>
+        <v>-1.7371364733088519</v>
       </c>
       <c r="F38" s="19">
-        <v>99.334873007414188</v>
+        <v>99.28441456109843</v>
       </c>
       <c r="G38" s="19">
-        <v>0.63401265050185074</v>
+        <v>0.68091980902114146</v>
       </c>
       <c r="H38" s="19">
-        <v>2.0941465147327011E-2</v>
+        <v>2.430549737597042E-2</v>
       </c>
       <c r="I38" s="19">
-        <v>1.01728769366192E-2</v>
+        <v>1.0360132504428609E-2</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10721,25 +10719,25 @@
         <v>49</v>
       </c>
       <c r="B39" s="19">
-        <v>8.2405375017201834</v>
+        <v>6.9398227892349933</v>
       </c>
       <c r="C39" s="19">
-        <v>1.0318585000464751</v>
+        <v>-5.1128122932304167</v>
       </c>
       <c r="D39" s="19">
-        <v>23.057979331896231</v>
+        <v>22.080905028313708</v>
       </c>
       <c r="E39" s="19">
-        <v>3.5175597392713929</v>
+        <v>-0.77231102123989004</v>
       </c>
       <c r="F39" s="19">
-        <v>99.803936181803209</v>
+        <v>99.845817072688902</v>
       </c>
       <c r="G39" s="19">
-        <v>0.18171429026969141</v>
+        <v>0.15418292731108699</v>
       </c>
       <c r="H39" s="19">
-        <v>1.4349527927104399E-2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
@@ -10754,28 +10752,28 @@
         <v>50</v>
       </c>
       <c r="B40" s="19">
-        <v>17.310055589079582</v>
+        <v>16.363703138801199</v>
       </c>
       <c r="C40" s="19">
-        <v>-2.8289156098996928</v>
+        <v>-0.29951135390753858</v>
       </c>
       <c r="D40" s="19">
-        <v>35.417744038230317</v>
+        <v>35.828694747577337</v>
       </c>
       <c r="E40" s="19">
-        <v>1.280020543368682</v>
+        <v>6.6889798190003999E-2</v>
       </c>
       <c r="F40" s="19">
-        <v>97.661170203911055</v>
+        <v>97.716311734085735</v>
       </c>
       <c r="G40" s="19">
-        <v>1.89159040854628</v>
+        <v>1.999770925546305</v>
       </c>
       <c r="H40" s="19">
-        <v>0.43098619278039912</v>
+        <v>0.27579831994369641</v>
       </c>
       <c r="I40" s="19">
-        <v>4.3189831808719388E-2</v>
+        <v>8.1190204234684229E-3</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10787,28 +10785,28 @@
         <v>51</v>
       </c>
       <c r="B41" s="19">
-        <v>7.0218320027985968</v>
+        <v>8.7225311995797696</v>
       </c>
       <c r="C41" s="19">
-        <v>0.27769496442347569</v>
+        <v>-1.697091720987679</v>
       </c>
       <c r="D41" s="19">
-        <v>34.660180443606897</v>
+        <v>35.48452485044357</v>
       </c>
       <c r="E41" s="19">
-        <v>2.095758590724345</v>
+        <v>-0.3006362841894234</v>
       </c>
       <c r="F41" s="19">
-        <v>98.95529579112906</v>
+        <v>98.817036967211067</v>
       </c>
       <c r="G41" s="19">
-        <v>1.0279390366031389</v>
+        <v>1.1631326182255091</v>
       </c>
       <c r="H41" s="19">
-        <v>1.6765172266853191E-2</v>
+        <v>1.684113114256864E-2</v>
       </c>
       <c r="I41" s="19">
-        <v>0</v>
+        <v>2.9892834189430891E-3</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10820,22 +10818,22 @@
         <v>52</v>
       </c>
       <c r="B42" s="19">
-        <v>17.57</v>
+        <v>17.05</v>
       </c>
       <c r="C42" s="19">
-        <v>0.08</v>
+        <v>-2.35</v>
       </c>
       <c r="D42" s="19">
-        <v>42.14</v>
+        <v>41.29</v>
       </c>
       <c r="E42" s="19">
-        <v>0.71000000000000008</v>
+        <v>2.34</v>
       </c>
       <c r="F42" s="19">
-        <v>99.67</v>
+        <v>99.72</v>
       </c>
       <c r="G42" s="19">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H42" s="19">
         <v>0</v>
@@ -10853,25 +10851,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="19">
-        <v>22.48783430923821</v>
+        <v>24.720484347326519</v>
       </c>
       <c r="C43" s="19">
-        <v>-3.5306791477886059</v>
+        <v>-1.1314774419197551</v>
       </c>
       <c r="D43" s="19">
-        <v>32.081964851830321</v>
+        <v>35.393361565866734</v>
       </c>
       <c r="E43" s="19">
-        <v>0.21531757340057059</v>
+        <v>-0.1340671739170087</v>
       </c>
       <c r="F43" s="19">
-        <v>99.176735964637317</v>
+        <v>99.259685609195529</v>
       </c>
       <c r="G43" s="19">
-        <v>0.80508648186129173</v>
+        <v>0.72217467267506785</v>
       </c>
       <c r="H43" s="19">
-        <v>1.8177553501238009E-2</v>
+        <v>1.8139718129260039E-2</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
@@ -10886,25 +10884,25 @@
         <v>54</v>
       </c>
       <c r="B44" s="19">
-        <v>10.80659918254965</v>
+        <v>10.366064153253269</v>
       </c>
       <c r="C44" s="19">
-        <v>0.13446729057974049</v>
+        <v>-5.3784160052321983</v>
       </c>
       <c r="D44" s="19">
-        <v>22.658914520234092</v>
+        <v>21.540419157079629</v>
       </c>
       <c r="E44" s="19">
-        <v>0.67757551779629632</v>
+        <v>-4.6108405042724367</v>
       </c>
       <c r="F44" s="19">
-        <v>99.666024019910992</v>
+        <v>99.474642156257289</v>
       </c>
       <c r="G44" s="19">
-        <v>0.26718078407121731</v>
+        <v>0.45531013124368142</v>
       </c>
       <c r="H44" s="19">
-        <v>6.6795196017804315E-2</v>
+        <v>7.0047712499027914E-2</v>
       </c>
       <c r="I44" s="19">
         <v>0</v>
@@ -10919,28 +10917,28 @@
         <v>55</v>
       </c>
       <c r="B45" s="19">
-        <v>14.655150487756339</v>
+        <v>13.09765638232234</v>
       </c>
       <c r="C45" s="19">
-        <v>0.12206948933595731</v>
+        <v>-2.1513211055414452</v>
       </c>
       <c r="D45" s="19">
-        <v>30.10689063000645</v>
+        <v>27.749931581241871</v>
       </c>
       <c r="E45" s="19">
-        <v>4.5350947502992671</v>
+        <v>-2.4442288315566358</v>
       </c>
       <c r="F45" s="19">
-        <v>98.627987952045842</v>
+        <v>98.805589769663783</v>
       </c>
       <c r="G45" s="19">
-        <v>1.2845039178081541</v>
+        <v>1.1181667159682671</v>
       </c>
       <c r="H45" s="19">
-        <v>8.7508130144568777E-2</v>
+        <v>7.6243514367242346E-2</v>
       </c>
       <c r="I45" s="19">
-        <v>1.170009968095693E-2</v>
+        <v>1.182377378521085E-2</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10952,28 +10950,28 @@
         <v>56</v>
       </c>
       <c r="B46" s="19">
-        <v>18.964462155055251</v>
+        <v>15.73791588533148</v>
       </c>
       <c r="C46" s="19">
-        <v>2.4523902426042228</v>
+        <v>-1.18619933604588</v>
       </c>
       <c r="D46" s="19">
-        <v>39.383926767499013</v>
+        <v>35.503849173354872</v>
       </c>
       <c r="E46" s="19">
-        <v>2.3307254849807708</v>
+        <v>-1.0705686030833941</v>
       </c>
       <c r="F46" s="19">
-        <v>97.822623301679783</v>
+        <v>98.355423420086481</v>
       </c>
       <c r="G46" s="19">
-        <v>2.0856805710470141</v>
+        <v>1.5590108145665369</v>
       </c>
       <c r="H46" s="19">
-        <v>8.0205423257947911E-2</v>
+        <v>7.4332838469765627E-2</v>
       </c>
       <c r="I46" s="19">
-        <v>1.149070401497362E-2</v>
+        <v>1.285027729922745E-2</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -10985,22 +10983,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="19">
-        <v>7.6367961696188589</v>
+        <v>7.3174609699786703</v>
       </c>
       <c r="C47" s="19">
-        <v>2.1027</v>
+        <v>-1.8113999999999999</v>
       </c>
       <c r="D47" s="19">
-        <v>30.4099358747407</v>
+        <v>30.271650202136801</v>
       </c>
       <c r="E47" s="19">
-        <v>2.1528</v>
+        <v>-0.40310000000000001</v>
       </c>
       <c r="F47" s="19">
-        <v>98.595384835889007</v>
+        <v>98.549488054606996</v>
       </c>
       <c r="G47" s="19">
-        <v>1.40461516411</v>
+        <v>1.4505119453919999</v>
       </c>
       <c r="H47" s="19">
         <v>0</v>
@@ -11018,25 +11016,25 @@
         <v>58</v>
       </c>
       <c r="B48" s="19">
-        <v>14.537417103365049</v>
+        <v>19.65052907067891</v>
       </c>
       <c r="C48" s="19">
-        <v>6.6028221536750475E-2</v>
+        <v>0.39187967498607551</v>
       </c>
       <c r="D48" s="19">
-        <v>34.766538362238776</v>
+        <v>39.920917765790549</v>
       </c>
       <c r="E48" s="19">
-        <v>2.023256470892981</v>
+        <v>2.1160503351974311</v>
       </c>
       <c r="F48" s="19">
-        <v>99.845525425307073</v>
+        <v>99.884429662894064</v>
       </c>
       <c r="G48" s="19">
-        <v>0.11585593101876029</v>
+        <v>0.1155703371049871</v>
       </c>
       <c r="H48" s="19">
-        <v>3.8618643672294992E-2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="19">
         <v>0</v>
@@ -11051,25 +11049,25 @@
         <v>59</v>
       </c>
       <c r="B49" s="19">
-        <v>10.98542030943476</v>
+        <v>10.95909905686738</v>
       </c>
       <c r="C49" s="19">
-        <v>-1.0097394964968689</v>
+        <v>-1.8841691471104209</v>
       </c>
       <c r="D49" s="19">
-        <v>42.318673161640803</v>
+        <v>41.755595349343878</v>
       </c>
       <c r="E49" s="19">
-        <v>2.620758954450944</v>
+        <v>-0.31902967109719099</v>
       </c>
       <c r="F49" s="19">
-        <v>98.963969166925025</v>
+        <v>98.995032949557256</v>
       </c>
       <c r="G49" s="19">
-        <v>1.0224180137572381</v>
+        <v>0.99274840180555879</v>
       </c>
       <c r="H49" s="19">
-        <v>1.6317576920170301E-2</v>
+        <v>1.2218648636481999E-2</v>
       </c>
       <c r="I49" s="19">
         <v>0</v>
@@ -11084,28 +11082,28 @@
         <v>60</v>
       </c>
       <c r="B50" s="19">
-        <v>15.244569059794401</v>
+        <v>14.861622824977079</v>
       </c>
       <c r="C50" s="19">
-        <v>0.59923844015624295</v>
+        <v>-0.65803678594218029</v>
       </c>
       <c r="D50" s="19">
-        <v>31.20934910670837</v>
+        <v>29.956673296575129</v>
       </c>
       <c r="E50" s="19">
-        <v>-0.1407830084552934</v>
+        <v>-0.25672324032186211</v>
       </c>
       <c r="F50" s="19">
-        <v>97.164645628745888</v>
+        <v>97.383590483266985</v>
       </c>
       <c r="G50" s="19">
-        <v>2.361479677287933</v>
+        <v>2.091348086157077</v>
       </c>
       <c r="H50" s="19">
-        <v>0.47387469396527249</v>
+        <v>0.52506143057413579</v>
       </c>
       <c r="I50" s="19">
-        <v>0</v>
+        <v>9.3819816540468021E-3</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -11117,28 +11115,28 @@
         <v>61</v>
       </c>
       <c r="B51" s="19">
-        <v>6.1896132663202588</v>
+        <v>8.6143979514616724</v>
       </c>
       <c r="C51" s="19">
-        <v>-1.1168667755959829</v>
+        <v>-1.65108760934079</v>
       </c>
       <c r="D51" s="19">
-        <v>24.800813815875429</v>
+        <v>26.703711720935129</v>
       </c>
       <c r="E51" s="19">
-        <v>2.2388279283577628</v>
+        <v>-1.072682200227802E-2</v>
       </c>
       <c r="F51" s="19">
-        <v>98.644001236383488</v>
+        <v>98.51163513707408</v>
       </c>
       <c r="G51" s="19">
-        <v>1.118211409510123</v>
+        <v>1.19197239438199</v>
       </c>
       <c r="H51" s="19">
-        <v>0.19485897453305209</v>
+        <v>0.21170890610242149</v>
       </c>
       <c r="I51" s="19">
-        <v>4.2928379572257827E-2</v>
+        <v>8.4683562440968585E-2</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11150,28 +11148,28 @@
         <v>62</v>
       </c>
       <c r="B52" s="19">
-        <v>13.816131092476491</v>
+        <v>17.682406880535108</v>
       </c>
       <c r="C52" s="19">
-        <v>0.89378784806182798</v>
+        <v>9.7940502295737419E-2</v>
       </c>
       <c r="D52" s="19">
-        <v>32.874825057661887</v>
+        <v>37.790753388081363</v>
       </c>
       <c r="E52" s="19">
-        <v>1.6137873016253701</v>
+        <v>2.0469673505129161E-2</v>
       </c>
       <c r="F52" s="19">
-        <v>98.227634925202096</v>
+        <v>97.998615554757023</v>
       </c>
       <c r="G52" s="19">
-        <v>1.7572166553551869</v>
+        <v>1.9862796569769929</v>
       </c>
       <c r="H52" s="19">
-        <v>7.5742097213585668E-3</v>
+        <v>1.510478826598474E-2</v>
       </c>
       <c r="I52" s="19">
-        <v>7.5742097213585668E-3</v>
+        <v>0</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11183,25 +11181,25 @@
         <v>63</v>
       </c>
       <c r="B53" s="19">
-        <v>10.222045311964621</v>
+        <v>11.764147156219609</v>
       </c>
       <c r="C53" s="19">
-        <v>2.3651913307640049</v>
+        <v>-3.021369609273195</v>
       </c>
       <c r="D53" s="19">
-        <v>22.451096443278299</v>
+        <v>27.780860373610121</v>
       </c>
       <c r="E53" s="19">
-        <v>2.718311466683776</v>
+        <v>1.76147107206972</v>
       </c>
       <c r="F53" s="19">
-        <v>99.582289055973263</v>
+        <v>99.586435070306038</v>
       </c>
       <c r="G53" s="19">
-        <v>0.41771094402673348</v>
+        <v>0.33085194375516958</v>
       </c>
       <c r="H53" s="19">
-        <v>0</v>
+        <v>8.2712985938792394E-2</v>
       </c>
       <c r="I53" s="19">
         <v>0</v>
@@ -11220,7 +11218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B108-7690-FA48-BD1F-70BA8E6E6932}">
   <dimension ref="A51:A100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11282,10 +11282,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11528,6 +11528,22 @@
       </c>
       <c r="C32" s="10">
         <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="12">
+        <v>44107</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="12">
+        <v>44114</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.34200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F953227-C1C2-C54C-94EC-F18395C8452D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A204E07-2FC1-0941-BAAB-0B88150A90F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="33040" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -450,8 +450,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -789,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>-1.344067677644331</c:v>
+                  <c:v>-0.96115638068190579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62686347376619733</c:v>
+                  <c:v>-2.3785568184101562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.7546099290780108</c:v>
+                  <c:v>4.0978305602916043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.7465016558409401</c:v>
+                  <c:v>-0.46237615004113919</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.926505705548867</c:v>
+                  <c:v>0.72532443065326213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.47548705660731783</c:v>
+                  <c:v>-1.366139723482207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.98301968813834228</c:v>
+                  <c:v>0.95861004690660778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0187915451677849</c:v>
+                  <c:v>-2.6537570816005189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.985998080138536</c:v>
+                  <c:v>-1.130727257366219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.6243000000000001</c:v>
+                  <c:v>1.0982000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.32178004086495</c:v>
+                  <c:v>-0.39074969991084252</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.60308454960107349</c:v>
+                  <c:v>-2.1061878220246499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-18.636477995001218</c:v>
+                  <c:v>-8.5645194179914448</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.67768257589535863</c:v>
+                  <c:v>0.35429022868713073</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.3187233786775341</c:v>
+                  <c:v>0.51915969526665218</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.7367865288477771</c:v>
+                  <c:v>1.01964151025203</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.0327911143377779</c:v>
+                  <c:v>-1.675583016807735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.8425759702533799</c:v>
+                  <c:v>2.2784094141041198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.48705554310987859</c:v>
+                  <c:v>-0.11770078398671489</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.12445349437241029</c:v>
+                  <c:v>1.221685731177381</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.93854560325908543</c:v>
+                  <c:v>-4.0853088563552458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.487517368622348</c:v>
+                  <c:v>-1.400330542498964</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.470335838831514</c:v>
+                  <c:v>-1.772591491860567</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.5872925085075369</c:v>
+                  <c:v>1.4004074871321091</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.1939016473137092</c:v>
+                  <c:v>2.057454692019113</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.59088269815047723</c:v>
+                  <c:v>-2.04044108037521</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.077009022055488</c:v>
+                  <c:v>2.3347021256132559</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.70801177974266771</c:v>
+                  <c:v>3.66773441409316</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.977987474632535</c:v>
+                  <c:v>5.0687702420223522</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0799945417966138E-2</c:v>
+                  <c:v>-1.2292718240938501</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.4330937454241079</c:v>
+                  <c:v>-1.947020159075161</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.414782933440951</c:v>
+                  <c:v>-3.2338982312483551</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.414247870578305</c:v>
+                  <c:v>-1.1436228834829929</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.86583573644655332</c:v>
+                  <c:v>-2.6526685586344159</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.54263314278630159</c:v>
+                  <c:v>-5.1737895763509307</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.6584982806039128</c:v>
+                  <c:v>1.577980297358748</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.60515889309156801</c:v>
+                  <c:v>1.1664065308761919</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5.1128122932304167</c:v>
+                  <c:v>2.4327993303394071</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.29951135390753858</c:v>
+                  <c:v>-1.4386761796511769</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.697091720987679</c:v>
+                  <c:v>-2.0959471619971919</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.35</c:v>
+                  <c:v>-4.7300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.1314774419197551</c:v>
+                  <c:v>-3.8624666961190299</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.3784160052321983</c:v>
+                  <c:v>-0.2115928857847032</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.1513211055414452</c:v>
+                  <c:v>-2.2195529565810652</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.18619933604588</c:v>
+                  <c:v>0.32619223148506038</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.8113999999999999</c:v>
+                  <c:v>-0.71860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.39187967498607551</c:v>
+                  <c:v>1.977312196703525</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.8841691471104209</c:v>
+                  <c:v>-2.4448588779618499</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.65803678594218029</c:v>
+                  <c:v>-1.257266720315962</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.65108760934079</c:v>
+                  <c:v>-2.3217981023158361</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.7940502295737419E-2</c:v>
+                  <c:v>0.32958459997489348</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.021369609273195</c:v>
+                  <c:v>2.1062563986621319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,160 +1443,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>-0.40989735247071613</c:v>
+                  <c:v>0.82851338839772726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.529015816282175</c:v>
+                  <c:v>0.77661585556534984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.94250706880301127</c:v>
+                  <c:v>2.5226082817705771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4406478969641627</c:v>
+                  <c:v>2.1914225567510499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64372405196435567</c:v>
+                  <c:v>1.352284465708163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13390052549765949</c:v>
+                  <c:v>0.64787123020151616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.24869100314886561</c:v>
+                  <c:v>0.76054731961861322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84289048181658055</c:v>
+                  <c:v>0.14839057842657211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.54658871951151144</c:v>
+                  <c:v>1.4732779339065829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1526000000000001</c:v>
+                  <c:v>4.2183000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0553716793310199</c:v>
+                  <c:v>1.724705914914878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7765482201153644</c:v>
+                  <c:v>1.1019480021208581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.9000695689308014</c:v>
+                  <c:v>-1.5222163408776359</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0323768994037668</c:v>
+                  <c:v>1.985130210918026</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.87575730909585559</c:v>
+                  <c:v>1.342502477311895</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.26018006925385589</c:v>
+                  <c:v>1.6809340446640479</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.42330722897440409</c:v>
+                  <c:v>-5.6728794677785632E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.32112785131557</c:v>
+                  <c:v>0.14454327223799129</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.65914786849611806</c:v>
+                  <c:v>1.504688906242448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.43488337796604121</c:v>
+                  <c:v>3.367758227577442</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57909551728315323</c:v>
+                  <c:v>-1.447942483401828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91034424226323163</c:v>
+                  <c:v>1.830693445652245</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0407147130680079</c:v>
+                  <c:v>-1.168161113855797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.13865217155402271</c:v>
+                  <c:v>0.4837374509655652</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.5111704500508979</c:v>
+                  <c:v>3.479178315735219</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8902249041487871</c:v>
+                  <c:v>1.6405080704393431</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.5279768018986508</c:v>
+                  <c:v>-1.7788036286028539</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4140993341836381</c:v>
+                  <c:v>2.0741511734342581</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.6123393701614199</c:v>
+                  <c:v>0.79607007424926957</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.71779841835670832</c:v>
+                  <c:v>-9.9083045024536479E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.62828632831866893</c:v>
+                  <c:v>-4.7073383481286228</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.2733125523064609E-2</c:v>
+                  <c:v>-0.46797143161619398</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.7396124447966099</c:v>
+                  <c:v>1.1964760557990879</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.2117764650318081</c:v>
+                  <c:v>0.15273989000001589</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.49934670425782551</c:v>
+                  <c:v>0.61578188467466555</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.1007318033136562</c:v>
+                  <c:v>-6.0277386196388827</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7371364733088519</c:v>
+                  <c:v>2.086540800531393</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.77231102123989004</c:v>
+                  <c:v>1.975345548870437</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6889798190003999E-2</c:v>
+                  <c:v>0.25536037426300767</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.3006362841894234</c:v>
+                  <c:v>-0.34637773883175238</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.34</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.1340671739170087</c:v>
+                  <c:v>0.63711533162231482</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-4.6108405042724367</c:v>
+                  <c:v>-3.8419097543127418</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.4442288315566358</c:v>
+                  <c:v>2.992915145389873</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.0705686030833941</c:v>
+                  <c:v>1.2216236591743259</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.40310000000000001</c:v>
+                  <c:v>1.1184000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1160503351974311</c:v>
+                  <c:v>3.249256120799056</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.31902967109719099</c:v>
+                  <c:v>1.225433340901938</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.25672324032186211</c:v>
+                  <c:v>0.48166792596592878</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.072682200227802E-2</c:v>
+                  <c:v>1.219826677355212</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0469673505129161E-2</c:v>
+                  <c:v>5.4337788965818798E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.76147107206972</c:v>
+                  <c:v>1.43839265367256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,7 +1675,6 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
           <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2104,160 +2103,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.8253379763254991</c:v>
+                  <c:v>1.834781501412561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75575395495684228</c:v>
+                  <c:v>0.69062297724534649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1800051800051802E-2</c:v>
+                  <c:v>0.33670033670033672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1187269155674111</c:v>
+                  <c:v>1.5921186363904061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58105448590399167</c:v>
+                  <c:v>0.95934947937690529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7495894788433519</c:v>
+                  <c:v>5.8488055253891416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.695445967809083</c:v>
+                  <c:v>3.1670142124151179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.049891110176747</c:v>
+                  <c:v>1.3549128340722101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5402486454160711</c:v>
+                  <c:v>1.307230147044522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2587357675690001</c:v>
+                  <c:v>2.6388341866870002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.154250460548877</c:v>
+                  <c:v>1.0623371937456461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4458689429157949</c:v>
+                  <c:v>1.174701750654144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.539349422875131</c:v>
+                  <c:v>3.102075036679941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27063602687272098</c:v>
+                  <c:v>0.19589441920261241</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.767676612348569</c:v>
+                  <c:v>1.8244690191087309</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38572540608236339</c:v>
+                  <c:v>0.4924917042278189</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.868190101652356E-2</c:v>
+                  <c:v>2.867347507615443E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2620766458321343</c:v>
+                  <c:v>0.25392284584613639</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67762469772238998</c:v>
+                  <c:v>0.59256339885646747</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.46215591673781181</c:v>
+                  <c:v>0.53303088801061793</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2457192506737704</c:v>
+                  <c:v>0.17093925985830791</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2295337513950888</c:v>
+                  <c:v>2.3082151761309082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.158818686424947</c:v>
+                  <c:v>1.3372986404894729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5704576326938503</c:v>
+                  <c:v>0.60045773862100515</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0498116793348671</c:v>
+                  <c:v>1.2481866188003079</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55850482533078338</c:v>
+                  <c:v>0.46339576201515009</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1909989765461839</c:v>
+                  <c:v>1.139153891320877</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.00767754318618</c:v>
+                  <c:v>1.2918660287081341</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1381419457735247</c:v>
+                  <c:v>0.17866127532491921</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.698971858058647</c:v>
+                  <c:v>1.8328856919297229</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.61326346918155439</c:v>
+                  <c:v>0.75734289688350931</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1612666028452301</c:v>
+                  <c:v>2.1460692503932148</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.888437661404792</c:v>
+                  <c:v>3.1180870054702772</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.867084758592169</c:v>
+                  <c:v>1.961838744112828</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4980264220699191</c:v>
+                  <c:v>1.500955983712051</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>5.6744432299494461E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.68091980902114146</c:v>
+                  <c:v>0.64787174030749073</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.15418292731108699</c:v>
+                  <c:v>0.16844925330984159</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.999770925546305</c:v>
+                  <c:v>1.942835333888526</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1631326182255091</c:v>
+                  <c:v>1.014579085922398</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.72217467267506785</c:v>
+                  <c:v>0.58467626235789916</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.45531013124368142</c:v>
+                  <c:v>3.5240811241731632E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1181667159682671</c:v>
+                  <c:v>1.132182193828134</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5590108145665369</c:v>
+                  <c:v>1.3488817569900791</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4505119453919999</c:v>
+                  <c:v>1.395613785246</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1155703371049871</c:v>
+                  <c:v>0.26714841859629113</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99274840180555879</c:v>
+                  <c:v>0.94621455954460565</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.091348086157077</c:v>
+                  <c:v>2.3021668411260281</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.19197239438199</c:v>
+                  <c:v>1.36901310563904</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9862796569769929</c:v>
+                  <c:v>2.0410129920371411</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.33085194375516958</c:v>
+                  <c:v>0.57899090157154676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,28 +2762,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>6.4157137951138365E-2</c:v>
+                  <c:v>7.231992374237553E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.026637833583469E-2</c:v>
+                  <c:v>6.006924240635287E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1535660892974515</c:v>
+                  <c:v>0.16889104261620799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2052311588862549</c:v>
+                  <c:v>0.20399679105351751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.812972643847456E-2</c:v>
+                  <c:v>4.995009070185065E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.4696568018980669E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8042032564949289E-2</c:v>
+                  <c:v>7.5202806706686595E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2793,130 +2792,130 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3445111323013641E-2</c:v>
+                  <c:v>8.523589169905052E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4770737025620071E-3</c:v>
+                  <c:v>7.6722176061038219E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.394543546694648E-2</c:v>
+                  <c:v>4.1919932928107313E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.92175831749462E-3</c:v>
+                  <c:v>5.9141673203115426E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2418109101817371E-2</c:v>
+                  <c:v>5.971847756613035E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1562588951037919E-2</c:v>
+                  <c:v>1.9999150036123469E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1034838045053749E-2</c:v>
+                  <c:v>2.0995515031505131E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1072787770565181</c:v>
+                  <c:v>7.8020928768376796E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.3883488571557772E-3</c:v>
+                  <c:v>1.26137520126446E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.7042435993136121E-2</c:v>
+                  <c:v>9.9515804657311663E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.922339594308895E-2</c:v>
+                  <c:v>3.2437402316148667E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.737823174980823E-2</c:v>
+                  <c:v>0.13244737235500839</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.9174006934267477E-2</c:v>
+                  <c:v>4.025868360038326E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7984644913627639E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0458375799103427E-2</c:v>
+                  <c:v>3.4561979298157033E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.14524661112190079</c:v>
+                  <c:v>9.6682071941882899E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6683310694436002E-2</c:v>
+                  <c:v>2.863242221591504E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1969784678623297</c:v>
+                  <c:v>0.52574967177698084</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1074752418054475</c:v>
+                  <c:v>0.12156395651487149</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3258637660688759E-2</c:v>
+                  <c:v>6.3040893515913216E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.430549737597042E-2</c:v>
+                  <c:v>3.424673528118128E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.27579831994369641</c:v>
+                  <c:v>0.42590233001402128</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.684113114256864E-2</c:v>
+                  <c:v>2.6086027443379959E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8139718129260039E-2</c:v>
+                  <c:v>9.0663914287624752E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.0047712499027914E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.6243514367242346E-2</c:v>
+                  <c:v>7.6345119769720124E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.4332838469765627E-2</c:v>
+                  <c:v>5.7732791389883041E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>3.8606039242024402E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0860863579964138E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62523746603246033</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1051083835840449</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.506380948802098E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2218648636481999E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.52506143057413579</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.21170890610242149</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.510478826598474E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.2712985938792394E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,25 +3422,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>4.7785467137381682E-3</c:v>
+                  <c:v>4.6668210994135128E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.91117534961027E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5979086835097739E-2</c:v>
+                  <c:v>3.2659909781950401E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9148175916588636E-3</c:v>
+                  <c:v>6.8433488872823587E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.8461326449117937E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3453,10 +3452,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6036296624999339E-3</c:v>
+                  <c:v>1.3187384510169489E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.469438792856488E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3477,7 +3476,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1034838045053749E-2</c:v>
+                  <c:v>1.0198710356625869E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9.7526160960470995E-3</c:v>
@@ -3501,7 +3500,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3748145938465869E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -3510,52 +3509,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3212802475242589E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.321232974529464E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.7716452507387131E-2</c:v>
+                  <c:v>2.7514964109312031E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7502071330302059E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>6.6434755228513718E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0360132504428609E-2</c:v>
+                  <c:v>6.7532524232587158E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.1190204234684229E-3</c:v>
+                  <c:v>8.8897845732662153E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9892834189430891E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>9.0663914287624752E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.182377378521085E-2</c:v>
+                  <c:v>1.176263338161773E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.285027729922745E-2</c:v>
+                  <c:v>4.2197501601662817E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3567,13 +3566,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.3819816540468021E-3</c:v>
+                  <c:v>9.0016144449993132E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.4683562440968585E-2</c:v>
+                  <c:v>0.1051083835840449</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>7.5319047440104876E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -4078,160 +4077,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>15.053089742725399</c:v>
+                  <c:v>16.299540461844401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.59282556046767</c:v>
+                  <c:v>14.986318262534819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.019536903039089</c:v>
+                  <c:v>28.118668596237349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.96836990940256</c:v>
+                  <c:v>13.6746279927782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.7574757636299</c:v>
+                  <c:v>15.419814831633181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.92965019242861</c:v>
+                  <c:v>18.37275823688876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2852396454185664</c:v>
+                  <c:v>8.9636700255763362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.664948222951178</c:v>
+                  <c:v>22.578964131288291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8939264904519124</c:v>
+                  <c:v>12.87260846836373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4012490402973903</c:v>
+                  <c:v>4.86421607558073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.96767400833831</c:v>
+                  <c:v>12.647213708634901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.59846548466529</c:v>
+                  <c:v>14.158700033039519</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.117316616449632</c:v>
+                  <c:v>27.4962843939675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.124330920568307</c:v>
+                  <c:v>4.839122461881133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3276308056390427</c:v>
+                  <c:v>12.461245524499679</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9809982538825004</c:v>
+                  <c:v>12.76181304606347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.1619849294983311</c:v>
+                  <c:v>-1.791523809615418</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.7441265151587118</c:v>
+                  <c:v>13.918601616757609</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.223289999113181</c:v>
+                  <c:v>18.405255672801829</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.577488702619728</c:v>
+                  <c:v>16.560007774457439</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.553333805625019</c:v>
+                  <c:v>22.824032995493891</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.490527565177249</c:v>
+                  <c:v>13.019202178367451</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.035667355409721</c:v>
+                  <c:v>18.811346017534682</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.295592013575551</c:v>
+                  <c:v>20.609943352175868</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.931802346339762</c:v>
+                  <c:v>22.09947309315795</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.687113249089011</c:v>
+                  <c:v>11.21858196428119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.0118300606609552</c:v>
+                  <c:v>12.654303251679689</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.489282416871639</c:v>
+                  <c:v>24.439798094831659</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.694959993960451</c:v>
+                  <c:v>15.720559547597739</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.9377228297357</c:v>
+                  <c:v>16.16042185850451</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.762813653589411</c:v>
+                  <c:v>21.37774508676733</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.2991633571344998</c:v>
+                  <c:v>10.83045469721381</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.47407601695863</c:v>
+                  <c:v>24.284305199139052</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.180784149445131</c:v>
+                  <c:v>19.723356610508379</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.59972685959853</c:v>
+                  <c:v>22.75843554834869</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.6448564541582229</c:v>
+                  <c:v>10.98708819776537</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.203943991804831</c:v>
+                  <c:v>24.45698906436397</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9398227892349933</c:v>
+                  <c:v>11.58908782990162</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.363703138801199</c:v>
+                  <c:v>18.658433474176761</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.7225311995797696</c:v>
+                  <c:v>9.5885478866468077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.05</c:v>
+                  <c:v>18.37</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.720484347326519</c:v>
+                  <c:v>24.056313445076899</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.366064153253269</c:v>
+                  <c:v>10.24753645658584</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.09765638232234</c:v>
+                  <c:v>15.14324017756592</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15.73791588533148</c:v>
+                  <c:v>17.130319603253689</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.3174609699786703</c:v>
+                  <c:v>9.52864117738992</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>19.65052907067891</c:v>
+                  <c:v>19.90477131713671</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.95909905686738</c:v>
+                  <c:v>10.99234625641953</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14.861622824977079</c:v>
+                  <c:v>16.622811172105269</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.6143979514616724</c:v>
+                  <c:v>9.4642472802087134</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.682406880535108</c:v>
+                  <c:v>19.413854532178309</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.764147156219609</c:v>
+                  <c:v>17.869916568671918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,160 +4731,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>37.096056873546146</c:v>
+                  <c:v>38.049777896806397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.974382227402039</c:v>
+                  <c:v>29.67700984355541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.916559691912703</c:v>
+                  <c:v>38.25417201540435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.495679003501287</c:v>
+                  <c:v>37.975051716714191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.743940799420908</c:v>
+                  <c:v>25.512218610871891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.697095507897778</c:v>
+                  <c:v>52.93457725321322</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.987807417723488</c:v>
+                  <c:v>33.653012878999192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.714540180132218</c:v>
+                  <c:v>40.272397096151167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.833523020981893</c:v>
+                  <c:v>46.713018179283672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.683259803999498</c:v>
+                  <c:v>39.119794678193998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.932214814979989</c:v>
+                  <c:v>30.555212628808889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.881499933735803</c:v>
+                  <c:v>37.880698721181552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.295932471424969</c:v>
+                  <c:v>39.632847160891501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.092678710569423</c:v>
+                  <c:v>39.77809684534315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.295401260898387</c:v>
+                  <c:v>46.63610644984432</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.871998899471929</c:v>
+                  <c:v>31.683399385638801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.986747766527991</c:v>
+                  <c:v>29.436516629750319</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.262681399824793</c:v>
+                  <c:v>34.664720450745321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.922761427982159</c:v>
+                  <c:v>30.28827614229073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.671355312452199</c:v>
+                  <c:v>27.742634027867119</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.866937895300389</c:v>
+                  <c:v>47.510266052956453</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.241567741444747</c:v>
+                  <c:v>45.140105555597863</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.344106054138607</c:v>
+                  <c:v>35.330902080372802</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.088397667576487</c:v>
+                  <c:v>38.072426715868758</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.637858249522381</c:v>
+                  <c:v>41.371562837081051</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.161416926122801</c:v>
+                  <c:v>21.085298084152171</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.01300573467568</c:v>
+                  <c:v>32.176183569848988</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.174136298675919</c:v>
+                  <c:v>37.958536492153037</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.702190977247248</c:v>
+                  <c:v>26.902825386476891</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48.626033956448516</c:v>
+                  <c:v>51.532667288599583</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.08521113364862</c:v>
+                  <c:v>37.0301012533346</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.192563732516973</c:v>
+                  <c:v>42.453138138208018</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38.919328847614693</c:v>
+                  <c:v>44.212192763732723</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36.130373512030509</c:v>
+                  <c:v>36.598725289358129</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.995814771549171</c:v>
+                  <c:v>37.080875308046913</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19.542273569128529</c:v>
+                  <c:v>19.598180104552348</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32.943929841869263</c:v>
+                  <c:v>37.133864177493628</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.080905028313708</c:v>
+                  <c:v>25.987072752177781</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.828694747577337</c:v>
+                  <c:v>37.83434082799306</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.48452485044357</c:v>
+                  <c:v>34.420564306299497</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.29</c:v>
+                  <c:v>40.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.393361565866734</c:v>
+                  <c:v>35.459139257389047</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21.540419157079629</c:v>
+                  <c:v>3.6318853755426499</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27.749931581241871</c:v>
+                  <c:v>30.959803212820422</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>35.503849173354872</c:v>
+                  <c:v>35.257776961433237</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.271650202136801</c:v>
+                  <c:v>32.663286403396199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>39.920917765790549</c:v>
+                  <c:v>36.892088574553043</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.755595349343878</c:v>
+                  <c:v>41.783765350163243</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.956673296575129</c:v>
+                  <c:v>31.658578035775498</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26.703711720935129</c:v>
+                  <c:v>29.242325659106971</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.790753388081363</c:v>
+                  <c:v>39.626416726901567</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.780860373610121</c:v>
+                  <c:v>27.826978094543239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9443,20 +9442,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="1" customWidth="1"/>
-    <col min="9" max="9" width="56.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.1640625" style="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9498,28 +9497,28 @@
         <v>12</v>
       </c>
       <c r="B2" s="18">
-        <v>15.053089742725399</v>
+        <v>16.299540461844401</v>
       </c>
       <c r="C2" s="18">
-        <v>-1.344067677644331</v>
+        <v>-0.96115638068190579</v>
       </c>
       <c r="D2" s="18">
-        <v>37.096056873546146</v>
+        <v>38.049777896806397</v>
       </c>
       <c r="E2" s="18">
-        <v>-0.40989735247071613</v>
+        <v>0.82851338839772726</v>
       </c>
       <c r="F2" s="18">
-        <v>98.106567941617087</v>
+        <v>98.08875121700531</v>
       </c>
       <c r="G2" s="18">
-        <v>1.8253379763254991</v>
+        <v>1.834781501412561</v>
       </c>
       <c r="H2" s="18">
-        <v>6.4157137951138365E-2</v>
+        <v>7.231992374237553E-2</v>
       </c>
       <c r="I2" s="18">
-        <v>4.7785467137381682E-3</v>
+        <v>4.6668210994135128E-3</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9531,28 +9530,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>14.59282556046767</v>
+        <v>14.986318262534819</v>
       </c>
       <c r="C3" s="19">
-        <v>0.62686347376619733</v>
+        <v>-2.3785568184101562</v>
       </c>
       <c r="D3" s="19">
-        <v>28.974382227402039</v>
+        <v>29.67700984355541</v>
       </c>
       <c r="E3" s="19">
-        <v>2.529015816282175</v>
+        <v>0.77661585556534984</v>
       </c>
       <c r="F3" s="19">
-        <v>99.213979666707047</v>
+        <v>99.210196026851932</v>
       </c>
       <c r="G3" s="19">
-        <v>0.75575395495684228</v>
+        <v>0.69062297724534649</v>
       </c>
       <c r="H3" s="19">
-        <v>3.026637833583469E-2</v>
+        <v>6.006924240635287E-2</v>
       </c>
       <c r="I3" s="19">
-        <v>0</v>
+        <v>3.91117534961027E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9564,22 +9563,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="19">
-        <v>24.019536903039089</v>
+        <v>28.118668596237349</v>
       </c>
       <c r="C4" s="19">
-        <v>-2.7546099290780108</v>
+        <v>4.0978305602916043</v>
       </c>
       <c r="D4" s="19">
-        <v>34.916559691912703</v>
+        <v>38.25417201540435</v>
       </c>
       <c r="E4" s="19">
-        <v>-0.94250706880301127</v>
+        <v>2.5226082817705771</v>
       </c>
       <c r="F4" s="19">
-        <v>99.948199948199942</v>
+        <v>99.663299663299668</v>
       </c>
       <c r="G4" s="19">
-        <v>5.1800051800051802E-2</v>
+        <v>0.33670033670033672</v>
       </c>
       <c r="H4" s="19">
         <v>0</v>
@@ -9597,28 +9596,28 @@
         <v>15</v>
       </c>
       <c r="B5" s="19">
-        <v>11.96836990940256</v>
+        <v>13.6746279927782</v>
       </c>
       <c r="C5" s="19">
-        <v>-1.7465016558409401</v>
+        <v>-0.46237615004113919</v>
       </c>
       <c r="D5" s="19">
-        <v>34.495679003501287</v>
+        <v>37.975051716714191</v>
       </c>
       <c r="E5" s="19">
-        <v>-5.4406478969641627</v>
+        <v>2.1914225567510499</v>
       </c>
       <c r="F5" s="19">
-        <v>98.701727908299915</v>
+        <v>98.199014589586412</v>
       </c>
       <c r="G5" s="19">
-        <v>1.1187269155674111</v>
+        <v>1.5921186363904061</v>
       </c>
       <c r="H5" s="19">
-        <v>0.1535660892974515</v>
+        <v>0.16889104261620799</v>
       </c>
       <c r="I5" s="19">
-        <v>2.5979086835097739E-2</v>
+        <v>3.2659909781950401E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9630,25 +9629,25 @@
         <v>16</v>
       </c>
       <c r="B6" s="19">
-        <v>13.7574757636299</v>
+        <v>15.419814831633181</v>
       </c>
       <c r="C6" s="19">
-        <v>-1.926505705548867</v>
+        <v>0.72532443065326213</v>
       </c>
       <c r="D6" s="19">
-        <v>22.743940799420908</v>
+        <v>25.512218610871891</v>
       </c>
       <c r="E6" s="19">
-        <v>0.64372405196435567</v>
+        <v>1.352284465708163</v>
       </c>
       <c r="F6" s="19">
-        <v>99.213714355209191</v>
+        <v>98.836653729569022</v>
       </c>
       <c r="G6" s="19">
-        <v>0.58105448590399167</v>
+        <v>0.95934947937690529</v>
       </c>
       <c r="H6" s="19">
-        <v>0.2052311588862549</v>
+        <v>0.20399679105351751</v>
       </c>
       <c r="I6" s="19">
         <v>0</v>
@@ -9663,28 +9662,28 @@
         <v>17</v>
       </c>
       <c r="B7" s="19">
-        <v>18.92965019242861</v>
+        <v>18.37275823688876</v>
       </c>
       <c r="C7" s="19">
-        <v>-0.47548705660731783</v>
+        <v>-1.366139723482207</v>
       </c>
       <c r="D7" s="19">
-        <v>52.697095507897778</v>
+        <v>52.93457725321322</v>
       </c>
       <c r="E7" s="19">
-        <v>-0.13390052549765949</v>
+        <v>0.64787123020151616</v>
       </c>
       <c r="F7" s="19">
-        <v>94.195365977125689</v>
+        <v>94.09440103502132</v>
       </c>
       <c r="G7" s="19">
-        <v>5.7495894788433519</v>
+        <v>5.8488055253891416</v>
       </c>
       <c r="H7" s="19">
-        <v>4.812972643847456E-2</v>
+        <v>4.995009070185065E-2</v>
       </c>
       <c r="I7" s="19">
-        <v>6.9148175916588636E-3</v>
+        <v>6.8433488872823587E-3</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9696,28 +9695,28 @@
         <v>18</v>
       </c>
       <c r="B8" s="19">
-        <v>5.2852396454185664</v>
+        <v>8.9636700255763362</v>
       </c>
       <c r="C8" s="19">
-        <v>-0.98301968813834228</v>
+        <v>0.95861004690660778</v>
       </c>
       <c r="D8" s="19">
-        <v>32.987807417723488</v>
+        <v>33.653012878999192</v>
       </c>
       <c r="E8" s="19">
-        <v>-0.24869100314886561</v>
+        <v>0.76054731961861322</v>
       </c>
       <c r="F8" s="19">
-        <v>96.304554032189984</v>
+        <v>96.820669998136211</v>
       </c>
       <c r="G8" s="19">
-        <v>3.695445967809083</v>
+        <v>3.1670142124151179</v>
       </c>
       <c r="H8" s="19">
-        <v>0</v>
+        <v>6.4696568018980669E-3</v>
       </c>
       <c r="I8" s="19">
-        <v>0</v>
+        <v>5.8461326449117937E-3</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -9729,25 +9728,25 @@
         <v>19</v>
       </c>
       <c r="B9" s="19">
-        <v>20.664948222951178</v>
+        <v>22.578964131288291</v>
       </c>
       <c r="C9" s="19">
-        <v>-2.0187915451677849</v>
+        <v>-2.6537570816005189</v>
       </c>
       <c r="D9" s="19">
-        <v>39.714540180132218</v>
+        <v>40.272397096151167</v>
       </c>
       <c r="E9" s="19">
-        <v>0.84289048181658055</v>
+        <v>0.14839057842657211</v>
       </c>
       <c r="F9" s="19">
-        <v>98.892066857257703</v>
+        <v>98.56988435921987</v>
       </c>
       <c r="G9" s="19">
-        <v>1.049891110176747</v>
+        <v>1.3549128340722101</v>
       </c>
       <c r="H9" s="19">
-        <v>5.8042032564949289E-2</v>
+        <v>7.5202806706686595E-2</v>
       </c>
       <c r="I9" s="19">
         <v>0</v>
@@ -9762,22 +9761,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="19">
-        <v>9.8939264904519124</v>
+        <v>12.87260846836373</v>
       </c>
       <c r="C10" s="19">
-        <v>-1.985998080138536</v>
+        <v>-1.130727257366219</v>
       </c>
       <c r="D10" s="19">
-        <v>42.833523020981893</v>
+        <v>46.713018179283672</v>
       </c>
       <c r="E10" s="19">
-        <v>-0.54658871951151144</v>
+        <v>1.4732779339065829</v>
       </c>
       <c r="F10" s="19">
-        <v>98.459751354583062</v>
+        <v>98.692769852954598</v>
       </c>
       <c r="G10" s="19">
-        <v>1.5402486454160711</v>
+        <v>1.307230147044522</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -9795,22 +9794,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="19">
-        <v>4.4012490402973903</v>
+        <v>4.86421607558073</v>
       </c>
       <c r="C11" s="19">
-        <v>-1.6243000000000001</v>
+        <v>1.0982000000000001</v>
       </c>
       <c r="D11" s="19">
-        <v>44.683259803999498</v>
+        <v>39.119794678193998</v>
       </c>
       <c r="E11" s="19">
-        <v>-1.1526000000000001</v>
+        <v>4.2183000000000002</v>
       </c>
       <c r="F11" s="19">
-        <v>96.741264232429998</v>
+        <v>97.361165813311999</v>
       </c>
       <c r="G11" s="19">
-        <v>3.2587357675690001</v>
+        <v>2.6388341866870002</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -9828,28 +9827,28 @@
         <v>22</v>
       </c>
       <c r="B12" s="19">
-        <v>11.96767400833831</v>
+        <v>12.647213708634901</v>
       </c>
       <c r="C12" s="19">
-        <v>-1.32178004086495</v>
+        <v>-0.39074969991084252</v>
       </c>
       <c r="D12" s="19">
-        <v>28.932214814979989</v>
+        <v>30.555212628808889</v>
       </c>
       <c r="E12" s="19">
-        <v>1.0553716793310199</v>
+        <v>1.724705914914878</v>
       </c>
       <c r="F12" s="19">
-        <v>98.752304428127502</v>
+        <v>98.851108176103679</v>
       </c>
       <c r="G12" s="19">
-        <v>1.154250460548877</v>
+        <v>1.0623371937456461</v>
       </c>
       <c r="H12" s="19">
-        <v>9.3445111323013641E-2</v>
+        <v>8.523589169905052E-2</v>
       </c>
       <c r="I12" s="19">
-        <v>1.6036296624999339E-3</v>
+        <v>1.3187384510169489E-3</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9861,28 +9860,28 @@
         <v>23</v>
       </c>
       <c r="B13" s="19">
-        <v>14.59846548466529</v>
+        <v>14.158700033039519</v>
       </c>
       <c r="C13" s="19">
-        <v>-0.60308454960107349</v>
+        <v>-2.1061878220246499</v>
       </c>
       <c r="D13" s="19">
-        <v>36.881499933735803</v>
+        <v>37.880698721181552</v>
       </c>
       <c r="E13" s="19">
-        <v>0.7765482201153644</v>
+        <v>1.1019480021208581</v>
       </c>
       <c r="F13" s="19">
-        <v>98.550653983380883</v>
+        <v>98.814156592945352</v>
       </c>
       <c r="G13" s="19">
-        <v>1.4458689429157949</v>
+        <v>1.174701750654144</v>
       </c>
       <c r="H13" s="19">
-        <v>3.4770737025620071E-3</v>
+        <v>7.6722176061038219E-3</v>
       </c>
       <c r="I13" s="19">
-        <v>0</v>
+        <v>3.469438792856488E-3</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -9894,25 +9893,25 @@
         <v>24</v>
       </c>
       <c r="B14" s="19">
-        <v>30.117316616449632</v>
+        <v>27.4962843939675</v>
       </c>
       <c r="C14" s="19">
-        <v>-18.636477995001218</v>
+        <v>-8.5645194179914448</v>
       </c>
       <c r="D14" s="19">
-        <v>28.295932471424969</v>
+        <v>39.632847160891501</v>
       </c>
       <c r="E14" s="19">
-        <v>-8.9000695689308014</v>
+        <v>-1.5222163408776359</v>
       </c>
       <c r="F14" s="19">
-        <v>97.376705141657922</v>
+        <v>96.856005030391955</v>
       </c>
       <c r="G14" s="19">
-        <v>2.539349422875131</v>
+        <v>3.102075036679941</v>
       </c>
       <c r="H14" s="19">
-        <v>8.394543546694648E-2</v>
+        <v>4.1919932928107313E-2</v>
       </c>
       <c r="I14" s="19">
         <v>0</v>
@@ -9927,22 +9926,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="19">
-        <v>2.124330920568307</v>
+        <v>4.839122461881133</v>
       </c>
       <c r="C15" s="19">
-        <v>-0.67768257589535863</v>
+        <v>0.35429022868713073</v>
       </c>
       <c r="D15" s="19">
-        <v>42.092678710569423</v>
+        <v>39.77809684534315</v>
       </c>
       <c r="E15" s="19">
-        <v>4.0323768994037668</v>
+        <v>1.985130210918026</v>
       </c>
       <c r="F15" s="19">
-        <v>99.729363973127278</v>
+        <v>99.804105580797412</v>
       </c>
       <c r="G15" s="19">
-        <v>0.27063602687272098</v>
+        <v>0.19589441920261241</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -9960,25 +9959,25 @@
         <v>26</v>
       </c>
       <c r="B16" s="19">
-        <v>9.3276308056390427</v>
+        <v>12.461245524499679</v>
       </c>
       <c r="C16" s="19">
-        <v>-1.3187233786775341</v>
+        <v>0.51915969526665218</v>
       </c>
       <c r="D16" s="19">
-        <v>44.295401260898387</v>
+        <v>46.63610644984432</v>
       </c>
       <c r="E16" s="19">
-        <v>-0.87575730909585559</v>
+        <v>1.342502477311895</v>
       </c>
       <c r="F16" s="19">
-        <v>98.229401629333083</v>
+        <v>98.169616813569249</v>
       </c>
       <c r="G16" s="19">
-        <v>1.767676612348569</v>
+        <v>1.8244690191087309</v>
       </c>
       <c r="H16" s="19">
-        <v>2.92175831749462E-3</v>
+        <v>5.9141673203115426E-3</v>
       </c>
       <c r="I16" s="19">
         <v>0</v>
@@ -9993,25 +9992,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>8.9809982538825004</v>
+        <v>12.76181304606347</v>
       </c>
       <c r="C17" s="19">
-        <v>-1.7367865288477771</v>
+        <v>1.01964151025203</v>
       </c>
       <c r="D17" s="19">
-        <v>28.871998899471929</v>
+        <v>31.683399385638801</v>
       </c>
       <c r="E17" s="19">
-        <v>-0.26018006925385589</v>
+        <v>1.6809340446640479</v>
       </c>
       <c r="F17" s="19">
-        <v>99.601856484815087</v>
+        <v>99.501536448014832</v>
       </c>
       <c r="G17" s="19">
-        <v>0.38572540608236339</v>
+        <v>0.4924917042278189</v>
       </c>
       <c r="H17" s="19">
-        <v>1.2418109101817371E-2</v>
+        <v>5.971847756613035E-3</v>
       </c>
       <c r="I17" s="19">
         <v>0</v>
@@ -10026,22 +10025,22 @@
         <v>28</v>
       </c>
       <c r="B18" s="19">
-        <v>-2.1619849294983311</v>
+        <v>-1.791523809615418</v>
       </c>
       <c r="C18" s="19">
-        <v>-2.0327911143377779</v>
+        <v>-1.675583016807735</v>
       </c>
       <c r="D18" s="19">
-        <v>28.986747766527991</v>
+        <v>29.436516629750319</v>
       </c>
       <c r="E18" s="19">
-        <v>-0.42330722897440409</v>
+        <v>-5.6728794677785632E-2</v>
       </c>
       <c r="F18" s="19">
-        <v>99.971318098983474</v>
+        <v>99.971326524923839</v>
       </c>
       <c r="G18" s="19">
-        <v>2.868190101652356E-2</v>
+        <v>2.867347507615443E-2</v>
       </c>
       <c r="H18" s="19">
         <v>0</v>
@@ -10059,25 +10058,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="19">
-        <v>9.7441265151587118</v>
+        <v>13.918601616757609</v>
       </c>
       <c r="C19" s="19">
-        <v>-4.8425759702533799</v>
+        <v>2.2784094141041198</v>
       </c>
       <c r="D19" s="19">
-        <v>33.262681399824793</v>
+        <v>34.664720450745321</v>
       </c>
       <c r="E19" s="19">
-        <v>-1.32112785131557</v>
+        <v>0.14454327223799129</v>
       </c>
       <c r="F19" s="19">
-        <v>99.716360765216777</v>
+        <v>99.726078004117738</v>
       </c>
       <c r="G19" s="19">
-        <v>0.2620766458321343</v>
+        <v>0.25392284584613639</v>
       </c>
       <c r="H19" s="19">
-        <v>2.1562588951037919E-2</v>
+        <v>1.9999150036123469E-2</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -10092,28 +10091,28 @@
         <v>30</v>
       </c>
       <c r="B20" s="19">
-        <v>17.223289999113181</v>
+        <v>18.405255672801829</v>
       </c>
       <c r="C20" s="19">
-        <v>-0.48705554310987859</v>
+        <v>-0.11770078398671489</v>
       </c>
       <c r="D20" s="19">
-        <v>26.922761427982159</v>
+        <v>30.28827614229073</v>
       </c>
       <c r="E20" s="19">
-        <v>-0.65914786849611806</v>
+        <v>1.504688906242448</v>
       </c>
       <c r="F20" s="19">
-        <v>99.280305626187413</v>
+        <v>99.376242375755325</v>
       </c>
       <c r="G20" s="19">
-        <v>0.67762469772238998</v>
+        <v>0.59256339885646747</v>
       </c>
       <c r="H20" s="19">
-        <v>2.1034838045053749E-2</v>
+        <v>2.0995515031505131E-2</v>
       </c>
       <c r="I20" s="19">
-        <v>2.1034838045053749E-2</v>
+        <v>1.0198710356625869E-2</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10125,25 +10124,25 @@
         <v>31</v>
       </c>
       <c r="B21" s="19">
-        <v>17.577488702619728</v>
+        <v>16.560007774457439</v>
       </c>
       <c r="C21" s="19">
-        <v>-0.12445349437241029</v>
+        <v>1.221685731177381</v>
       </c>
       <c r="D21" s="19">
-        <v>24.671355312452199</v>
+        <v>27.742634027867119</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.43488337796604121</v>
+        <v>3.367758227577442</v>
       </c>
       <c r="F21" s="19">
-        <v>99.420812690109472</v>
+        <v>99.37919556712481</v>
       </c>
       <c r="G21" s="19">
-        <v>0.46215591673781181</v>
+        <v>0.53303088801061793</v>
       </c>
       <c r="H21" s="19">
-        <v>0.1072787770565181</v>
+        <v>7.8020928768376796E-2</v>
       </c>
       <c r="I21" s="19">
         <v>9.7526160960470995E-3</v>
@@ -10158,22 +10157,22 @@
         <v>32</v>
       </c>
       <c r="B22" s="19">
-        <v>22.553333805625019</v>
+        <v>22.824032995493891</v>
       </c>
       <c r="C22" s="19">
-        <v>-0.93854560325908543</v>
+        <v>-4.0853088563552458</v>
       </c>
       <c r="D22" s="19">
-        <v>44.866937895300389</v>
+        <v>47.510266052956453</v>
       </c>
       <c r="E22" s="19">
-        <v>0.57909551728315323</v>
+        <v>-1.447942483401828</v>
       </c>
       <c r="F22" s="19">
-        <v>99.754280749326156</v>
+        <v>99.829060740141614</v>
       </c>
       <c r="G22" s="19">
-        <v>0.2457192506737704</v>
+        <v>0.17093925985830791</v>
       </c>
       <c r="H22" s="19">
         <v>0</v>
@@ -10191,25 +10190,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="19">
-        <v>12.490527565177249</v>
+        <v>13.019202178367451</v>
       </c>
       <c r="C23" s="19">
-        <v>-1.487517368622348</v>
+        <v>-1.400330542498964</v>
       </c>
       <c r="D23" s="19">
-        <v>46.241567741444747</v>
+        <v>45.140105555597863</v>
       </c>
       <c r="E23" s="19">
-        <v>0.91034424226323163</v>
+        <v>1.830693445652245</v>
       </c>
       <c r="F23" s="19">
-        <v>97.764077899746752</v>
+        <v>97.679171071855464</v>
       </c>
       <c r="G23" s="19">
-        <v>2.2295337513950888</v>
+        <v>2.3082151761309082</v>
       </c>
       <c r="H23" s="19">
-        <v>6.3883488571557772E-3</v>
+        <v>1.26137520126446E-2</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
@@ -10224,25 +10223,25 @@
         <v>34</v>
       </c>
       <c r="B24" s="19">
-        <v>18.035667355409721</v>
+        <v>18.811346017534682</v>
       </c>
       <c r="C24" s="19">
-        <v>-1.470335838831514</v>
+        <v>-1.772591491860567</v>
       </c>
       <c r="D24" s="19">
-        <v>39.344106054138607</v>
+        <v>35.330902080372802</v>
       </c>
       <c r="E24" s="19">
-        <v>1.0407147130680079</v>
+        <v>-1.168161113855797</v>
       </c>
       <c r="F24" s="19">
-        <v>98.764138877580123</v>
+        <v>98.563185554852325</v>
       </c>
       <c r="G24" s="19">
-        <v>1.158818686424947</v>
+        <v>1.3372986404894729</v>
       </c>
       <c r="H24" s="19">
-        <v>7.7042435993136121E-2</v>
+        <v>9.9515804657311663E-2</v>
       </c>
       <c r="I24" s="19">
         <v>0</v>
@@ -10257,25 +10256,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="19">
-        <v>16.295592013575551</v>
+        <v>20.609943352175868</v>
       </c>
       <c r="C25" s="19">
-        <v>-1.5872925085075369</v>
+        <v>1.4004074871321091</v>
       </c>
       <c r="D25" s="19">
-        <v>36.088397667576487</v>
+        <v>38.072426715868758</v>
       </c>
       <c r="E25" s="19">
-        <v>-0.13865217155402271</v>
+        <v>0.4837374509655652</v>
       </c>
       <c r="F25" s="19">
-        <v>99.400318971362381</v>
+        <v>99.36710485906147</v>
       </c>
       <c r="G25" s="19">
-        <v>0.5704576326938503</v>
+        <v>0.60045773862100515</v>
       </c>
       <c r="H25" s="19">
-        <v>2.922339594308895E-2</v>
+        <v>3.2437402316148667E-2</v>
       </c>
       <c r="I25" s="19">
         <v>0</v>
@@ -10290,25 +10289,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="19">
-        <v>16.931802346339762</v>
+        <v>22.09947309315795</v>
       </c>
       <c r="C26" s="19">
-        <v>-3.1939016473137092</v>
+        <v>2.057454692019113</v>
       </c>
       <c r="D26" s="19">
-        <v>37.637858249522381</v>
+        <v>41.371562837081051</v>
       </c>
       <c r="E26" s="19">
-        <v>-0.5111704500508979</v>
+        <v>3.479178315735219</v>
       </c>
       <c r="F26" s="19">
-        <v>98.862810088914642</v>
+        <v>98.619366008843315</v>
       </c>
       <c r="G26" s="19">
-        <v>1.0498116793348671</v>
+        <v>1.2481866188003079</v>
       </c>
       <c r="H26" s="19">
-        <v>8.737823174980823E-2</v>
+        <v>0.13244737235500839</v>
       </c>
       <c r="I26" s="19">
         <v>0</v>
@@ -10323,25 +10322,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="19">
-        <v>13.687113249089011</v>
+        <v>11.21858196428119</v>
       </c>
       <c r="C27" s="19">
-        <v>0.59088269815047723</v>
+        <v>-2.04044108037521</v>
       </c>
       <c r="D27" s="19">
-        <v>21.161416926122801</v>
+        <v>21.085298084152171</v>
       </c>
       <c r="E27" s="19">
-        <v>1.8902249041487871</v>
+        <v>1.6405080704393431</v>
       </c>
       <c r="F27" s="19">
-        <v>99.382321167733949</v>
+        <v>99.496345554383979</v>
       </c>
       <c r="G27" s="19">
-        <v>0.55850482533078338</v>
+        <v>0.46339576201515009</v>
       </c>
       <c r="H27" s="19">
-        <v>5.9174006934267477E-2</v>
+        <v>4.025868360038326E-2</v>
       </c>
       <c r="I27" s="19">
         <v>0</v>
@@ -10356,28 +10355,28 @@
         <v>38</v>
       </c>
       <c r="B28" s="19">
-        <v>9.0118300606609552</v>
+        <v>12.654303251679689</v>
       </c>
       <c r="C28" s="19">
-        <v>-3.077009022055488</v>
+        <v>2.3347021256132559</v>
       </c>
       <c r="D28" s="19">
-        <v>31.01300573467568</v>
+        <v>32.176183569848988</v>
       </c>
       <c r="E28" s="19">
-        <v>-2.5279768018986508</v>
+        <v>-1.7788036286028539</v>
       </c>
       <c r="F28" s="19">
-        <v>98.801626208859886</v>
+        <v>98.860846108679041</v>
       </c>
       <c r="G28" s="19">
-        <v>1.1909989765461839</v>
+        <v>1.139153891320877</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <v>7.3748145938465869E-3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10389,25 +10388,25 @@
         <v>39</v>
       </c>
       <c r="B29" s="19">
-        <v>16.489282416871639</v>
+        <v>24.439798094831659</v>
       </c>
       <c r="C29" s="19">
-        <v>0.70801177974266771</v>
+        <v>3.66773441409316</v>
       </c>
       <c r="D29" s="19">
-        <v>35.174136298675919</v>
+        <v>37.958536492153037</v>
       </c>
       <c r="E29" s="19">
-        <v>1.4140993341836381</v>
+        <v>2.0741511734342581</v>
       </c>
       <c r="F29" s="19">
-        <v>98.944337811900198</v>
+        <v>98.708133971291872</v>
       </c>
       <c r="G29" s="19">
-        <v>1.00767754318618</v>
+        <v>1.2918660287081341</v>
       </c>
       <c r="H29" s="19">
-        <v>4.7984644913627639E-2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="19">
         <v>0</v>
@@ -10422,22 +10421,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="19">
-        <v>10.694959993960451</v>
+        <v>15.720559547597739</v>
       </c>
       <c r="C30" s="19">
-        <v>-1.977987474632535</v>
+        <v>5.0687702420223522</v>
       </c>
       <c r="D30" s="19">
-        <v>25.702190977247248</v>
+        <v>26.902825386476891</v>
       </c>
       <c r="E30" s="19">
-        <v>-1.6123393701614199</v>
+        <v>0.79607007424926957</v>
       </c>
       <c r="F30" s="19">
-        <v>99.861858054226474</v>
+        <v>99.821338724675087</v>
       </c>
       <c r="G30" s="19">
-        <v>0.1381419457735247</v>
+        <v>0.17866127532491921</v>
       </c>
       <c r="H30" s="19">
         <v>0</v>
@@ -10455,28 +10454,28 @@
         <v>41</v>
       </c>
       <c r="B31" s="19">
-        <v>15.9377228297357</v>
+        <v>16.16042185850451</v>
       </c>
       <c r="C31" s="19">
-        <v>4.0799945417966138E-2</v>
+        <v>-1.2292718240938501</v>
       </c>
       <c r="D31" s="19">
-        <v>48.626033956448516</v>
+        <v>51.532667288599583</v>
       </c>
       <c r="E31" s="19">
-        <v>-0.71779841835670832</v>
+        <v>-9.9083045024536479E-3</v>
       </c>
       <c r="F31" s="19">
-        <v>98.247356963667016</v>
+        <v>98.139464724631736</v>
       </c>
       <c r="G31" s="19">
-        <v>1.698971858058647</v>
+        <v>1.8328856919297229</v>
       </c>
       <c r="H31" s="19">
-        <v>4.0458375799103427E-2</v>
+        <v>3.4561979298157033E-2</v>
       </c>
       <c r="I31" s="19">
-        <v>1.3212802475242589E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10488,25 +10487,25 @@
         <v>42</v>
       </c>
       <c r="B32" s="19">
-        <v>18.762813653589411</v>
+        <v>21.37774508676733</v>
       </c>
       <c r="C32" s="19">
-        <v>-1.4330937454241079</v>
+        <v>-1.947020159075161</v>
       </c>
       <c r="D32" s="19">
-        <v>43.08521113364862</v>
+        <v>37.0301012533346</v>
       </c>
       <c r="E32" s="19">
-        <v>0.62828632831866893</v>
+        <v>-4.7073383481286228</v>
       </c>
       <c r="F32" s="19">
-        <v>99.241489919695667</v>
+        <v>99.145975031172853</v>
       </c>
       <c r="G32" s="19">
-        <v>0.61326346918155439</v>
+        <v>0.75734289688350931</v>
       </c>
       <c r="H32" s="19">
-        <v>0.14524661112190079</v>
+        <v>9.6682071941882899E-2</v>
       </c>
       <c r="I32" s="19">
         <v>0</v>
@@ -10521,28 +10520,28 @@
         <v>43</v>
       </c>
       <c r="B33" s="19">
-        <v>9.2991633571344998</v>
+        <v>10.83045469721381</v>
       </c>
       <c r="C33" s="19">
-        <v>-2.414782933440951</v>
+        <v>-3.2338982312483551</v>
       </c>
       <c r="D33" s="19">
-        <v>43.192563732516973</v>
+        <v>42.453138138208018</v>
       </c>
       <c r="E33" s="19">
-        <v>4.2733125523064609E-2</v>
+        <v>-0.46797143161619398</v>
       </c>
       <c r="F33" s="19">
-        <v>97.818728853484643</v>
+        <v>97.825298327390286</v>
       </c>
       <c r="G33" s="19">
-        <v>2.1612666028452301</v>
+        <v>2.1460692503932148</v>
       </c>
       <c r="H33" s="19">
-        <v>1.6683310694436002E-2</v>
+        <v>2.863242221591504E-2</v>
       </c>
       <c r="I33" s="19">
-        <v>3.321232974529464E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -10554,28 +10553,28 @@
         <v>44</v>
       </c>
       <c r="B34" s="19">
-        <v>21.47407601695863</v>
+        <v>24.284305199139052</v>
       </c>
       <c r="C34" s="19">
-        <v>-1.414247870578305</v>
+        <v>-1.1436228834829929</v>
       </c>
       <c r="D34" s="19">
-        <v>38.919328847614693</v>
+        <v>44.212192763732723</v>
       </c>
       <c r="E34" s="19">
-        <v>-1.7396124447966099</v>
+        <v>1.1964760557990879</v>
       </c>
       <c r="F34" s="19">
-        <v>96.914583870732031</v>
+        <v>96.356163322751044</v>
       </c>
       <c r="G34" s="19">
-        <v>2.888437661404792</v>
+        <v>3.1180870054702772</v>
       </c>
       <c r="H34" s="19">
-        <v>0.1969784678623297</v>
+        <v>0.52574967177698084</v>
       </c>
       <c r="I34" s="19">
-        <v>2.7716452507387131E-2</v>
+        <v>2.7514964109312031E-2</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -10587,28 +10586,28 @@
         <v>45</v>
       </c>
       <c r="B35" s="19">
-        <v>18.180784149445131</v>
+        <v>19.723356610508379</v>
       </c>
       <c r="C35" s="19">
-        <v>-0.86583573644655332</v>
+        <v>-2.6526685586344159</v>
       </c>
       <c r="D35" s="19">
-        <v>36.130373512030509</v>
+        <v>36.598725289358129</v>
       </c>
       <c r="E35" s="19">
-        <v>-2.2117764650318081</v>
+        <v>0.15273989000001589</v>
       </c>
       <c r="F35" s="19">
-        <v>98.023689792469341</v>
+        <v>97.916597299372299</v>
       </c>
       <c r="G35" s="19">
-        <v>1.867084758592169</v>
+        <v>1.961838744112828</v>
       </c>
       <c r="H35" s="19">
-        <v>0.1074752418054475</v>
+        <v>0.12156395651487149</v>
       </c>
       <c r="I35" s="19">
-        <v>1.7502071330302059E-3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10620,28 +10619,28 @@
         <v>46</v>
       </c>
       <c r="B36" s="19">
-        <v>23.59972685959853</v>
+        <v>22.75843554834869</v>
       </c>
       <c r="C36" s="19">
-        <v>-0.54263314278630159</v>
+        <v>-5.1737895763509307</v>
       </c>
       <c r="D36" s="19">
-        <v>34.995814771549171</v>
+        <v>37.080875308046913</v>
       </c>
       <c r="E36" s="19">
-        <v>0.49934670425782551</v>
+        <v>0.61578188467466555</v>
       </c>
       <c r="F36" s="19">
-        <v>98.478714940269398</v>
+        <v>98.4293596472492</v>
       </c>
       <c r="G36" s="19">
-        <v>1.4980264220699191</v>
+        <v>1.500955983712051</v>
       </c>
       <c r="H36" s="19">
-        <v>2.3258637660688759E-2</v>
+        <v>6.3040893515913216E-2</v>
       </c>
       <c r="I36" s="19">
-        <v>0</v>
+        <v>6.6434755228513718E-3</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -10653,22 +10652,22 @@
         <v>47</v>
       </c>
       <c r="B37" s="19">
-        <v>9.6448564541582229</v>
+        <v>10.98708819776537</v>
       </c>
       <c r="C37" s="19">
-        <v>-3.6584982806039128</v>
+        <v>1.577980297358748</v>
       </c>
       <c r="D37" s="19">
-        <v>19.542273569128529</v>
+        <v>19.598180104552348</v>
       </c>
       <c r="E37" s="19">
-        <v>-3.1007318033136562</v>
+        <v>-6.0277386196388827</v>
       </c>
       <c r="F37" s="19">
-        <v>100</v>
+        <v>99.943255567700504</v>
       </c>
       <c r="G37" s="19">
-        <v>0</v>
+        <v>5.6744432299494461E-2</v>
       </c>
       <c r="H37" s="19">
         <v>0</v>
@@ -10686,28 +10685,28 @@
         <v>48</v>
       </c>
       <c r="B38" s="19">
-        <v>24.203943991804831</v>
+        <v>24.45698906436397</v>
       </c>
       <c r="C38" s="19">
-        <v>-0.60515889309156801</v>
+        <v>1.1664065308761919</v>
       </c>
       <c r="D38" s="19">
-        <v>32.943929841869263</v>
+        <v>37.133864177493628</v>
       </c>
       <c r="E38" s="19">
-        <v>-1.7371364733088519</v>
+        <v>2.086540800531393</v>
       </c>
       <c r="F38" s="19">
-        <v>99.28441456109843</v>
+        <v>99.311128271988053</v>
       </c>
       <c r="G38" s="19">
-        <v>0.68091980902114146</v>
+        <v>0.64787174030749073</v>
       </c>
       <c r="H38" s="19">
-        <v>2.430549737597042E-2</v>
+        <v>3.424673528118128E-2</v>
       </c>
       <c r="I38" s="19">
-        <v>1.0360132504428609E-2</v>
+        <v>6.7532524232587158E-3</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10719,22 +10718,22 @@
         <v>49</v>
       </c>
       <c r="B39" s="19">
-        <v>6.9398227892349933</v>
+        <v>11.58908782990162</v>
       </c>
       <c r="C39" s="19">
-        <v>-5.1128122932304167</v>
+        <v>2.4327993303394071</v>
       </c>
       <c r="D39" s="19">
-        <v>22.080905028313708</v>
+        <v>25.987072752177781</v>
       </c>
       <c r="E39" s="19">
-        <v>-0.77231102123989004</v>
+        <v>1.975345548870437</v>
       </c>
       <c r="F39" s="19">
-        <v>99.845817072688902</v>
+        <v>99.831550746690155</v>
       </c>
       <c r="G39" s="19">
-        <v>0.15418292731108699</v>
+        <v>0.16844925330984159</v>
       </c>
       <c r="H39" s="19">
         <v>0</v>
@@ -10752,28 +10751,28 @@
         <v>50</v>
       </c>
       <c r="B40" s="19">
-        <v>16.363703138801199</v>
+        <v>18.658433474176761</v>
       </c>
       <c r="C40" s="19">
-        <v>-0.29951135390753858</v>
+        <v>-1.4386761796511769</v>
       </c>
       <c r="D40" s="19">
-        <v>35.828694747577337</v>
+        <v>37.83434082799306</v>
       </c>
       <c r="E40" s="19">
-        <v>6.6889798190003999E-2</v>
+        <v>0.25536037426300767</v>
       </c>
       <c r="F40" s="19">
-        <v>97.716311734085735</v>
+        <v>97.631262336095858</v>
       </c>
       <c r="G40" s="19">
-        <v>1.999770925546305</v>
+        <v>1.942835333888526</v>
       </c>
       <c r="H40" s="19">
-        <v>0.27579831994369641</v>
+        <v>0.42590233001402128</v>
       </c>
       <c r="I40" s="19">
-        <v>8.1190204234684229E-3</v>
+        <v>8.8897845732662153E-3</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10785,28 +10784,28 @@
         <v>51</v>
       </c>
       <c r="B41" s="19">
-        <v>8.7225311995797696</v>
+        <v>9.5885478866468077</v>
       </c>
       <c r="C41" s="19">
-        <v>-1.697091720987679</v>
+        <v>-2.0959471619971919</v>
       </c>
       <c r="D41" s="19">
-        <v>35.48452485044357</v>
+        <v>34.420564306299497</v>
       </c>
       <c r="E41" s="19">
-        <v>-0.3006362841894234</v>
+        <v>-0.34637773883175238</v>
       </c>
       <c r="F41" s="19">
-        <v>98.817036967211067</v>
+        <v>98.959334886632305</v>
       </c>
       <c r="G41" s="19">
-        <v>1.1631326182255091</v>
+        <v>1.014579085922398</v>
       </c>
       <c r="H41" s="19">
-        <v>1.684113114256864E-2</v>
+        <v>2.6086027443379959E-2</v>
       </c>
       <c r="I41" s="19">
-        <v>2.9892834189430891E-3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10818,22 +10817,22 @@
         <v>52</v>
       </c>
       <c r="B42" s="19">
-        <v>17.05</v>
+        <v>18.37</v>
       </c>
       <c r="C42" s="19">
-        <v>-2.35</v>
+        <v>-4.7300000000000004</v>
       </c>
       <c r="D42" s="19">
-        <v>41.29</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="E42" s="19">
-        <v>2.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F42" s="19">
-        <v>99.72</v>
+        <v>99.570000000000007</v>
       </c>
       <c r="G42" s="19">
-        <v>0.28000000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="H42" s="19">
         <v>0</v>
@@ -10851,28 +10850,28 @@
         <v>53</v>
       </c>
       <c r="B43" s="19">
-        <v>24.720484347326519</v>
+        <v>24.056313445076899</v>
       </c>
       <c r="C43" s="19">
-        <v>-1.1314774419197551</v>
+        <v>-3.8624666961190299</v>
       </c>
       <c r="D43" s="19">
-        <v>35.393361565866734</v>
+        <v>35.459139257389047</v>
       </c>
       <c r="E43" s="19">
-        <v>-0.1340671739170087</v>
+        <v>0.63711533162231482</v>
       </c>
       <c r="F43" s="19">
-        <v>99.259685609195529</v>
+        <v>99.397190954784435</v>
       </c>
       <c r="G43" s="19">
-        <v>0.72217467267506785</v>
+        <v>0.58467626235789916</v>
       </c>
       <c r="H43" s="19">
-        <v>1.8139718129260039E-2</v>
+        <v>9.0663914287624752E-3</v>
       </c>
       <c r="I43" s="19">
-        <v>0</v>
+        <v>9.0663914287624752E-3</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10884,25 +10883,25 @@
         <v>54</v>
       </c>
       <c r="B44" s="19">
-        <v>10.366064153253269</v>
+        <v>10.24753645658584</v>
       </c>
       <c r="C44" s="19">
-        <v>-5.3784160052321983</v>
+        <v>-0.2115928857847032</v>
       </c>
       <c r="D44" s="19">
-        <v>21.540419157079629</v>
+        <v>3.6318853755426499</v>
       </c>
       <c r="E44" s="19">
-        <v>-4.6108405042724367</v>
+        <v>-3.8419097543127418</v>
       </c>
       <c r="F44" s="19">
-        <v>99.474642156257289</v>
+        <v>99.964759188758265</v>
       </c>
       <c r="G44" s="19">
-        <v>0.45531013124368142</v>
+        <v>3.5240811241731632E-2</v>
       </c>
       <c r="H44" s="19">
-        <v>7.0047712499027914E-2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="19">
         <v>0</v>
@@ -10917,28 +10916,28 @@
         <v>55</v>
       </c>
       <c r="B45" s="19">
-        <v>13.09765638232234</v>
+        <v>15.14324017756592</v>
       </c>
       <c r="C45" s="19">
-        <v>-2.1513211055414452</v>
+        <v>-2.2195529565810652</v>
       </c>
       <c r="D45" s="19">
-        <v>27.749931581241871</v>
+        <v>30.959803212820422</v>
       </c>
       <c r="E45" s="19">
-        <v>-2.4442288315566358</v>
+        <v>2.992915145389873</v>
       </c>
       <c r="F45" s="19">
-        <v>98.805589769663783</v>
+        <v>98.791472686400709</v>
       </c>
       <c r="G45" s="19">
-        <v>1.1181667159682671</v>
+        <v>1.132182193828134</v>
       </c>
       <c r="H45" s="19">
-        <v>7.6243514367242346E-2</v>
+        <v>7.6345119769720124E-2</v>
       </c>
       <c r="I45" s="19">
-        <v>1.182377378521085E-2</v>
+        <v>1.176263338161773E-2</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10950,28 +10949,28 @@
         <v>56</v>
       </c>
       <c r="B46" s="19">
-        <v>15.73791588533148</v>
+        <v>17.130319603253689</v>
       </c>
       <c r="C46" s="19">
-        <v>-1.18619933604588</v>
+        <v>0.32619223148506038</v>
       </c>
       <c r="D46" s="19">
-        <v>35.503849173354872</v>
+        <v>35.257776961433237</v>
       </c>
       <c r="E46" s="19">
-        <v>-1.0705686030833941</v>
+        <v>1.2216236591743259</v>
       </c>
       <c r="F46" s="19">
-        <v>98.355423420086481</v>
+        <v>98.589165701459279</v>
       </c>
       <c r="G46" s="19">
-        <v>1.5590108145665369</v>
+        <v>1.3488817569900791</v>
       </c>
       <c r="H46" s="19">
-        <v>7.4332838469765627E-2</v>
+        <v>5.7732791389883041E-2</v>
       </c>
       <c r="I46" s="19">
-        <v>1.285027729922745E-2</v>
+        <v>4.2197501601662817E-3</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -10983,22 +10982,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="19">
-        <v>7.3174609699786703</v>
+        <v>9.52864117738992</v>
       </c>
       <c r="C47" s="19">
-        <v>-1.8113999999999999</v>
+        <v>-0.71860000000000002</v>
       </c>
       <c r="D47" s="19">
-        <v>30.271650202136801</v>
+        <v>32.663286403396199</v>
       </c>
       <c r="E47" s="19">
-        <v>-0.40310000000000001</v>
+        <v>1.1184000000000001</v>
       </c>
       <c r="F47" s="19">
-        <v>98.549488054606996</v>
+        <v>98.604386214753006</v>
       </c>
       <c r="G47" s="19">
-        <v>1.4505119453919999</v>
+        <v>1.395613785246</v>
       </c>
       <c r="H47" s="19">
         <v>0</v>
@@ -11016,25 +11015,25 @@
         <v>58</v>
       </c>
       <c r="B48" s="19">
-        <v>19.65052907067891</v>
+        <v>19.90477131713671</v>
       </c>
       <c r="C48" s="19">
-        <v>0.39187967498607551</v>
+        <v>1.977312196703525</v>
       </c>
       <c r="D48" s="19">
-        <v>39.920917765790549</v>
+        <v>36.892088574553043</v>
       </c>
       <c r="E48" s="19">
-        <v>2.1160503351974311</v>
+        <v>3.249256120799056</v>
       </c>
       <c r="F48" s="19">
-        <v>99.884429662894064</v>
+        <v>99.694245542159805</v>
       </c>
       <c r="G48" s="19">
-        <v>0.1155703371049871</v>
+        <v>0.26714841859629113</v>
       </c>
       <c r="H48" s="19">
-        <v>0</v>
+        <v>3.8606039242024402E-2</v>
       </c>
       <c r="I48" s="19">
         <v>0</v>
@@ -11049,25 +11048,25 @@
         <v>59</v>
       </c>
       <c r="B49" s="19">
-        <v>10.95909905686738</v>
+        <v>10.99234625641953</v>
       </c>
       <c r="C49" s="19">
-        <v>-1.8841691471104209</v>
+        <v>-2.4448588779618499</v>
       </c>
       <c r="D49" s="19">
-        <v>41.755595349343878</v>
+        <v>41.783765350163243</v>
       </c>
       <c r="E49" s="19">
-        <v>-0.31902967109719099</v>
+        <v>1.225433340901938</v>
       </c>
       <c r="F49" s="19">
-        <v>98.995032949557256</v>
+        <v>99.049699354096703</v>
       </c>
       <c r="G49" s="19">
-        <v>0.99274840180555879</v>
+        <v>0.94621455954460565</v>
       </c>
       <c r="H49" s="19">
-        <v>1.2218648636481999E-2</v>
+        <v>4.0860863579964138E-3</v>
       </c>
       <c r="I49" s="19">
         <v>0</v>
@@ -11082,28 +11081,28 @@
         <v>60</v>
       </c>
       <c r="B50" s="19">
-        <v>14.861622824977079</v>
+        <v>16.622811172105269</v>
       </c>
       <c r="C50" s="19">
-        <v>-0.65803678594218029</v>
+        <v>-1.257266720315962</v>
       </c>
       <c r="D50" s="19">
-        <v>29.956673296575129</v>
+        <v>31.658578035775498</v>
       </c>
       <c r="E50" s="19">
-        <v>-0.25672324032186211</v>
+        <v>0.48166792596592878</v>
       </c>
       <c r="F50" s="19">
-        <v>97.383590483266985</v>
+        <v>97.068262531816728</v>
       </c>
       <c r="G50" s="19">
-        <v>2.091348086157077</v>
+        <v>2.3021668411260281</v>
       </c>
       <c r="H50" s="19">
-        <v>0.52506143057413579</v>
+        <v>0.62523746603246033</v>
       </c>
       <c r="I50" s="19">
-        <v>9.3819816540468021E-3</v>
+        <v>9.0016144449993132E-3</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -11115,28 +11114,28 @@
         <v>61</v>
       </c>
       <c r="B51" s="19">
-        <v>8.6143979514616724</v>
+        <v>9.4642472802087134</v>
       </c>
       <c r="C51" s="19">
-        <v>-1.65108760934079</v>
+        <v>-2.3217981023158361</v>
       </c>
       <c r="D51" s="19">
-        <v>26.703711720935129</v>
+        <v>29.242325659106971</v>
       </c>
       <c r="E51" s="19">
-        <v>-1.072682200227802E-2</v>
+        <v>1.219826677355212</v>
       </c>
       <c r="F51" s="19">
-        <v>98.51163513707408</v>
+        <v>98.420770127192327</v>
       </c>
       <c r="G51" s="19">
-        <v>1.19197239438199</v>
+        <v>1.36901310563904</v>
       </c>
       <c r="H51" s="19">
-        <v>0.21170890610242149</v>
+        <v>0.1051083835840449</v>
       </c>
       <c r="I51" s="19">
-        <v>8.4683562440968585E-2</v>
+        <v>0.1051083835840449</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11148,28 +11147,28 @@
         <v>62</v>
       </c>
       <c r="B52" s="19">
-        <v>17.682406880535108</v>
+        <v>19.413854532178309</v>
       </c>
       <c r="C52" s="19">
-        <v>9.7940502295737419E-2</v>
+        <v>0.32958459997489348</v>
       </c>
       <c r="D52" s="19">
-        <v>37.790753388081363</v>
+        <v>39.626416726901567</v>
       </c>
       <c r="E52" s="19">
-        <v>2.0469673505129161E-2</v>
+        <v>5.4337788965818798E-2</v>
       </c>
       <c r="F52" s="19">
-        <v>97.998615554757023</v>
+        <v>97.936391293730807</v>
       </c>
       <c r="G52" s="19">
-        <v>1.9862796569769929</v>
+        <v>2.0410129920371411</v>
       </c>
       <c r="H52" s="19">
-        <v>1.510478826598474E-2</v>
+        <v>1.506380948802098E-2</v>
       </c>
       <c r="I52" s="19">
-        <v>0</v>
+        <v>7.5319047440104876E-3</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11181,25 +11180,25 @@
         <v>63</v>
       </c>
       <c r="B53" s="19">
-        <v>11.764147156219609</v>
+        <v>17.869916568671918</v>
       </c>
       <c r="C53" s="19">
-        <v>-3.021369609273195</v>
+        <v>2.1062563986621319</v>
       </c>
       <c r="D53" s="19">
-        <v>27.780860373610121</v>
+        <v>27.826978094543239</v>
       </c>
       <c r="E53" s="19">
-        <v>1.76147107206972</v>
+        <v>1.43839265367256</v>
       </c>
       <c r="F53" s="19">
-        <v>99.586435070306038</v>
+        <v>99.421009098428442</v>
       </c>
       <c r="G53" s="19">
-        <v>0.33085194375516958</v>
+        <v>0.57899090157154676</v>
       </c>
       <c r="H53" s="19">
-        <v>8.2712985938792394E-2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="19">
         <v>0</v>
@@ -11218,11 +11217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B108-7690-FA48-BD1F-70BA8E6E6932}">
   <dimension ref="A51:A100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11282,13 +11279,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -11544,6 +11541,22 @@
       </c>
       <c r="C34" s="10">
         <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="12">
+        <v>44121</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="12">
+        <v>44128</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.33400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A204E07-2FC1-0941-BAAB-0B88150A90F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B920F9-39E2-724B-A043-050BC59FC26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -441,14 +441,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -789,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>-0.96115638068190579</c:v>
+                  <c:v>3.2143161955666728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.3785568184101562</c:v>
+                  <c:v>1.168877827720793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0978305602916043</c:v>
+                  <c:v>8.3657587548638048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.46237615004113919</c:v>
+                  <c:v>6.6147837572988486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72532443065326213</c:v>
+                  <c:v>1.5541712359972919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.366139723482207</c:v>
+                  <c:v>9.2167095796699385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95861004690660778</c:v>
+                  <c:v>0.52703190260965549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.6537570816005189</c:v>
+                  <c:v>2.9880744854031538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.130727257366219</c:v>
+                  <c:v>1.586748806190821</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0982000000000001</c:v>
+                  <c:v>1.9006000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.39074969991084252</c:v>
+                  <c:v>3.266985346840737</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.1061878220246499</c:v>
+                  <c:v>1.7447169658958961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.5645194179914448</c:v>
+                  <c:v>14.05405455899484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35429022868713073</c:v>
+                  <c:v>6.7933058584066446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51915969526665218</c:v>
+                  <c:v>2.3213632338147749</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.01964151025203</c:v>
+                  <c:v>2.695969281837693</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.675583016807735</c:v>
+                  <c:v>2.3087937755950789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2784094141041198</c:v>
+                  <c:v>2.997126484648772</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.11770078398671489</c:v>
+                  <c:v>1.38038431469767</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.221685731177381</c:v>
+                  <c:v>2.068855973907302</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.0853088563552458</c:v>
+                  <c:v>4.6307011327537104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.400330542498964</c:v>
+                  <c:v>1.5156305008001429</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.772591491860567</c:v>
+                  <c:v>1.6848287087665501</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4004074871321091</c:v>
+                  <c:v>3.4091230331631999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.057454692019113</c:v>
+                  <c:v>2.673540964013482</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.04044108037521</c:v>
+                  <c:v>1.5137696854396541</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3347021256132559</c:v>
+                  <c:v>3.3730613436946388</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.66773441409316</c:v>
+                  <c:v>4.1604965698887284</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0687702420223522</c:v>
+                  <c:v>-2.032743661815557</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.2292718240938501</c:v>
+                  <c:v>9.7816480882359524</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.947020159075161</c:v>
+                  <c:v>1.9573538381351261</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3.2338982312483551</c:v>
+                  <c:v>1.393300047764608</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.1436228834829929</c:v>
+                  <c:v>1.9448385911580881</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.6526685586344159</c:v>
+                  <c:v>1.889638601091689</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.1737895763509307</c:v>
+                  <c:v>0.25096734641824531</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.577980297358748</c:v>
+                  <c:v>1.3976311109502739</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1664065308761919</c:v>
+                  <c:v>1.766857820805118</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.4327993303394071</c:v>
+                  <c:v>-4.812453890590298</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.4386761796511769</c:v>
+                  <c:v>6.4495039476768428</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.0959471619971919</c:v>
+                  <c:v>1.7199049185884689</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-4.7300000000000004</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3.8624666961190299</c:v>
+                  <c:v>0.46174639111007593</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.2115928857847032</c:v>
+                  <c:v>0.40522897069607078</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.2195529565810652</c:v>
+                  <c:v>2.6834905870471801</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.32619223148506038</c:v>
+                  <c:v>2.1699187180202641</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.71860000000000002</c:v>
+                  <c:v>4.5624000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.977312196703525</c:v>
+                  <c:v>3.5890489756196771</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.4448588779618499</c:v>
+                  <c:v>1.176327078355007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.257266720315962</c:v>
+                  <c:v>6.1095318007486137</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.3217981023158361</c:v>
+                  <c:v>0.30308392032615672</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.32958459997489348</c:v>
+                  <c:v>1.4251567112940851</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.1062563986621319</c:v>
+                  <c:v>-1.260284062841321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,6 +1021,7 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1443,160 +1444,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.82851338839772726</c:v>
+                  <c:v>0.92281428427964052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77661585556534984</c:v>
+                  <c:v>-1.015187712150198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5226082817705771</c:v>
+                  <c:v>2.6267281105990752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1914225567510499</c:v>
+                  <c:v>0.69078828565639683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.352284465708163</c:v>
+                  <c:v>2.0099872935582632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64787123020151616</c:v>
+                  <c:v>1.2837695094631381</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76054731961861322</c:v>
+                  <c:v>0.25527503067450519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14839057842657211</c:v>
+                  <c:v>-0.16189355861615609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4732779339065829</c:v>
+                  <c:v>-0.49754189304621449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2183000000000002</c:v>
+                  <c:v>3.3121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.724705914914878</c:v>
+                  <c:v>1.4901538952282209</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1019480021208581</c:v>
+                  <c:v>1.508416182388574</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.5222163408776359</c:v>
+                  <c:v>3.582053153061127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.985130210918026</c:v>
+                  <c:v>3.8728389562737928</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.342502477311895</c:v>
+                  <c:v>-0.20146394991354569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6809340446640479</c:v>
+                  <c:v>1.702513111950543</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.6728794677785632E-2</c:v>
+                  <c:v>0.86549459415996555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14454327223799129</c:v>
+                  <c:v>0.69405623428220953</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.504688906242448</c:v>
+                  <c:v>2.8984614495585399</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.367758227577442</c:v>
+                  <c:v>-2.891060255200856</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.447942483401828</c:v>
+                  <c:v>-0.50615399564622177</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.830693445652245</c:v>
+                  <c:v>0.87814890728931794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.168161113855797</c:v>
+                  <c:v>2.2597267592479361E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4837374509655652</c:v>
+                  <c:v>2.0665664851022192</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.479178315735219</c:v>
+                  <c:v>0.25807166568172252</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6405080704393431</c:v>
+                  <c:v>-1.4818984814746621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.7788036286028539</c:v>
+                  <c:v>1.786882381914122</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0741511734342581</c:v>
+                  <c:v>4.2475450644631874</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.79607007424926957</c:v>
+                  <c:v>-6.1240297268672057</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9.9083045024536479E-3</c:v>
+                  <c:v>-1.0583649404989131</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.7073383481286228</c:v>
+                  <c:v>-0.83593875024150177</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.46797143161619398</c:v>
+                  <c:v>-8.2505332491534772E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1964760557990879</c:v>
+                  <c:v>-3.5380634257221861</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.15273989000001589</c:v>
+                  <c:v>1.3607888789395519</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61578188467466555</c:v>
+                  <c:v>2.534585486991408</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.0277386196388827</c:v>
+                  <c:v>1.0195906250925379</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.086540800531393</c:v>
+                  <c:v>2.1197814087068081</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.975345548870437</c:v>
+                  <c:v>-2.4177895994267158</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25536037426300767</c:v>
+                  <c:v>1.703307381205684</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.34637773883175238</c:v>
+                  <c:v>0.35900055733176639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.63711533162231482</c:v>
+                  <c:v>1.6412053757305429</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.8419097543127418</c:v>
+                  <c:v>2.4141967540892062</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.992915145389873</c:v>
+                  <c:v>1.2246375919420549</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2216236591743259</c:v>
+                  <c:v>0.73416067100093874</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1184000000000001</c:v>
+                  <c:v>-0.22559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.249256120799056</c:v>
+                  <c:v>-3.3916117927392051</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.225433340901938</c:v>
+                  <c:v>7.9991275690795005E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.48166792596592878</c:v>
+                  <c:v>0.21758603984877839</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.219826677355212</c:v>
+                  <c:v>-2.2540687709480469</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.4337788965818798E-2</c:v>
+                  <c:v>5.6301283503234254</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.43839265367256</c:v>
+                  <c:v>3.753494067482666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,160 +2104,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.834781501412561</c:v>
+                  <c:v>1.9592011627642389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69062297724534649</c:v>
+                  <c:v>0.72353390360055159</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.33670033670033672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5921186363904061</c:v>
+                  <c:v>1.847134126218487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95934947937690529</c:v>
+                  <c:v>1.037064494604339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8488055253891416</c:v>
+                  <c:v>6.2251521564593881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1670142124151179</c:v>
+                  <c:v>4.0071525137367896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3549128340722101</c:v>
+                  <c:v>1.428088733091192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.307230147044522</c:v>
+                  <c:v>1.7484755272807919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6388341866870002</c:v>
+                  <c:v>3.290246768507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0623371937456461</c:v>
+                  <c:v>1.0474141172832201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.174701750654144</c:v>
+                  <c:v>1.3861906918552449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.102075036679941</c:v>
+                  <c:v>4.1710333263466781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19589441920261241</c:v>
+                  <c:v>0.36443726650336111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8244690191087309</c:v>
+                  <c:v>2.124081764679739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4924917042278189</c:v>
+                  <c:v>0.59719398691624348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.867347507615443E-2</c:v>
+                  <c:v>7.1671082039002534E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25392284584613639</c:v>
+                  <c:v>0.31132247788559891</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59256339885646747</c:v>
+                  <c:v>0.72738189832003741</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53303088801061793</c:v>
+                  <c:v>0.57063254501900573</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.17093925985830791</c:v>
+                  <c:v>7.770491724900605E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3082151761309082</c:v>
+                  <c:v>2.364257741434352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3372986404894729</c:v>
+                  <c:v>0.81877349463286253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.60045773862100515</c:v>
+                  <c:v>0.85499204235884596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2481866188003079</c:v>
+                  <c:v>1.050302713834226</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.46339576201515009</c:v>
+                  <c:v>0.6189497471674148</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.139153891320877</c:v>
+                  <c:v>0.95513077976145633</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2918660287081341</c:v>
+                  <c:v>2.7671755725190841</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17866127532491921</c:v>
+                  <c:v>0.27618069458479783</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8328856919297229</c:v>
+                  <c:v>2.4291383844225951</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.75734289688350931</c:v>
+                  <c:v>0.14432000800833869</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1460692503932148</c:v>
+                  <c:v>1.559141830166666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1180870054702772</c:v>
+                  <c:v>3.4853822448418899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.961838744112828</c:v>
+                  <c:v>2.1761245364866202</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.500955983712051</c:v>
+                  <c:v>1.415052163269261</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6744432299494461E-2</c:v>
+                  <c:v>2.9510447483858459E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.64787174030749073</c:v>
+                  <c:v>0.7196369091020568</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16844925330984159</c:v>
+                  <c:v>0.26651519490583198</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.942835333888526</c:v>
+                  <c:v>2.2228526360741241</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.014579085922398</c:v>
+                  <c:v>1.0575424822454991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.43</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.58467626235789916</c:v>
+                  <c:v>0.60399979162279338</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.5240811241731632E-2</c:v>
+                  <c:v>7.1615011635937392E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.132182193828134</c:v>
+                  <c:v>1.317735709714142</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3488817569900791</c:v>
+                  <c:v>1.576068856535652</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.395613785246</c:v>
+                  <c:v>1.4013452914790001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26714841859629113</c:v>
+                  <c:v>3.8635531579314812E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.94621455954460565</c:v>
+                  <c:v>1.1260533749064749</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.3021668411260281</c:v>
+                  <c:v>2.6033390665561011</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.36901310563904</c:v>
+                  <c:v>1.6598276494352311</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0410129920371411</c:v>
+                  <c:v>1.9369651999822139</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.57899090157154676</c:v>
+                  <c:v>0.98928276999175591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,28 +2763,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>7.231992374237553E-2</c:v>
+                  <c:v>9.158079890975622E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.006924240635287E-2</c:v>
+                  <c:v>4.8906529738563423E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16889104261620799</c:v>
+                  <c:v>0.19452414872878199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20399679105351751</c:v>
+                  <c:v>0.24942103190702389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.995009070185065E-2</c:v>
+                  <c:v>0.18137857899838081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4696568018980669E-3</c:v>
+                  <c:v>1.8613492075724391E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5202806706686595E-2</c:v>
+                  <c:v>8.4311085221009885E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2792,127 +2793,127 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.523589169905052E-2</c:v>
+                  <c:v>0.1006165453079908</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6722176061038219E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1919932928107313E-2</c:v>
+                  <c:v>8.3839865856214627E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9141673203115426E-3</c:v>
+                  <c:v>3.14217431365833E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.971847756613035E-3</c:v>
+                  <c:v>3.661050562532199E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9999150036123469E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0995515031505131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8020928768376796E-2</c:v>
+                  <c:v>0.1277674884553531</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.26137520126446E-2</c:v>
+                  <c:v>1.917121837377992E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.9515804657311663E-2</c:v>
+                  <c:v>5.3746447439046822E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2437402316148667E-2</c:v>
+                  <c:v>1.070570705447044E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.13244737235500839</c:v>
+                  <c:v>0.10909859782896419</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.025868360038326E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.2385496183206107</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.4561979298157033E-2</c:v>
+                  <c:v>0.1093029474466545</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.6682071941882899E-2</c:v>
+                  <c:v>4.8106669335819502E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.863242221591504E-2</c:v>
+                  <c:v>3.1311265778854812E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.52574967177698084</c:v>
+                  <c:v>0.41319321608243598</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12156395651487149</c:v>
+                  <c:v>0.1035650212260442</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.3040893515913216E-2</c:v>
+                  <c:v>5.5746796069283788E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.424673528118128E-2</c:v>
+                  <c:v>3.4527492156203862E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>1.437156766955291E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.42590233001402128</c:v>
+                  <c:v>0.63717506822313674</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.6086027443379959E-2</c:v>
+                  <c:v>1.351168546401018E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0663914287624752E-3</c:v>
+                  <c:v>9.0659419945607091E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.6345119769720124E-2</c:v>
+                  <c:v>2.9061580633225181E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.7732791389883041E-2</c:v>
+                  <c:v>9.15743546266444E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8606039242024402E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0860863579964138E-3</c:v>
+                  <c:v>1.28656771713332E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.62523746603246033</c:v>
+                  <c:v>0.64889873990850888</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1051083835840449</c:v>
+                  <c:v>0.1930779626102449</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.506380948802098E-2</c:v>
+                  <c:v>7.5086213750646634E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3422,25 +3423,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>4.6668210994135128E-3</c:v>
+                  <c:v>1.9334771634271709E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.91117534961027E-2</c:v>
+                  <c:v>2.934391784313805E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2659909781950401E-2</c:v>
+                  <c:v>2.733123298716688E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8433488872823587E-3</c:v>
+                  <c:v>0.10799042872484341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8461326449117937E-3</c:v>
+                  <c:v>1.1609455094716311E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3452,19 +3453,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3187384510169489E-3</c:v>
+                  <c:v>1.601357244703684E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.469438792856488E-3</c:v>
+                  <c:v>3.4574583477959041E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.095996646405366E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.8626876663839442E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3476,16 +3477,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0198710356625869E-2</c:v>
+                  <c:v>1.0148628298304201E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7526160960470995E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.7254795908445118E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6.3904061242603446E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -3503,40 +3504,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>9.5419847328244267E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>4.0267893814804563E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3.3115627937994078E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.7514964109312031E-2</c:v>
+                  <c:v>0.1085304413334256</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.6434755228513718E-3</c:v>
+                  <c:v>3.2354851837528092E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.7532524232587158E-3</c:v>
+                  <c:v>3.3758176187600789E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.8897845732662153E-3</c:v>
+                  <c:v>5.9836539427327917E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -3545,16 +3546,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0663914287624752E-3</c:v>
+                  <c:v>9.0659419945607091E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.176263338161773E-2</c:v>
+                  <c:v>1.1624632252857359E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.2197501601662817E-3</c:v>
+                  <c:v>7.3334863481128451E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3566,13 +3567,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.0016144449993132E-3</c:v>
+                  <c:v>5.3605597867783031E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1051083835840449</c:v>
+                  <c:v>0.1287186417401632</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.5319047440104876E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -4077,160 +4078,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>16.299540461844401</c:v>
+                  <c:v>21.614297408868381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.986318262534819</c:v>
+                  <c:v>18.46028683162675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.118668596237349</c:v>
+                  <c:v>37.033285094066578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.6746279927782</c:v>
+                  <c:v>22.569771984676549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.419814831633181</c:v>
+                  <c:v>18.4444434314848</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.37275823688876</c:v>
+                  <c:v>30.279022561638889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9636700255763362</c:v>
+                  <c:v>11.806340044033311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.578964131288291</c:v>
+                  <c:v>29.3183805625135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.87260846836373</c:v>
+                  <c:v>13.6508574614155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.86421607558073</c:v>
+                  <c:v>9.3887024375214505</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.647213708634901</c:v>
+                  <c:v>15.74269438145862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.158700033039519</c:v>
+                  <c:v>18.09171715874923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.4962843939675</c:v>
+                  <c:v>45.68790086277297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.839122461881133</c:v>
+                  <c:v>10.947638405802641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.461245524499679</c:v>
+                  <c:v>17.011923531931352</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.76181304606347</c:v>
+                  <c:v>16.00494969098116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.791523809615418</c:v>
+                  <c:v>5.2405385407270266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.918601616757609</c:v>
+                  <c:v>18.262930223963021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.405255672801829</c:v>
+                  <c:v>21.385687978744791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.560007774457439</c:v>
+                  <c:v>20.511470696923801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.824032995493891</c:v>
+                  <c:v>29.260805678101772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.019202178367451</c:v>
+                  <c:v>16.59671407587593</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.811346017534682</c:v>
+                  <c:v>24.84705284386953</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.609943352175868</c:v>
+                  <c:v>24.042369951366791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.09947309315795</c:v>
+                  <c:v>25.388587518817371</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.21858196428119</c:v>
+                  <c:v>15.24974411192404</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.654303251679689</c:v>
+                  <c:v>16.528272122891789</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.439798094831659</c:v>
+                  <c:v>26.741061950867561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.720559547597739</c:v>
+                  <c:v>18.60075221493738</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.16042185850451</c:v>
+                  <c:v>30.65118272504111</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.37774508676733</c:v>
+                  <c:v>25.138691262536419</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.83045469721381</c:v>
+                  <c:v>15.28425858534125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.284305199139052</c:v>
+                  <c:v>31.97678845356338</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.723356610508379</c:v>
+                  <c:v>24.101461091932531</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22.75843554834869</c:v>
+                  <c:v>28.52511110929413</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.98708819776537</c:v>
+                  <c:v>12.77640710357168</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.45698906436397</c:v>
+                  <c:v>27.065458750084861</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.58908782990162</c:v>
+                  <c:v>7.0286943921170337</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.658433474176761</c:v>
+                  <c:v>26.41881685812686</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5885478866468077</c:v>
+                  <c:v>14.46991636606981</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18.37</c:v>
+                  <c:v>26.26</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.056313445076899</c:v>
+                  <c:v>28.24890873923265</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.24753645658584</c:v>
+                  <c:v>11.16662358141379</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.14324017756592</c:v>
+                  <c:v>20.1845023533978</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17.130319603253689</c:v>
+                  <c:v>20.18721407779012</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.52864117738992</c:v>
+                  <c:v>17.0654387572948</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>19.90477131713671</c:v>
+                  <c:v>26.240930462054319</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.99234625641953</c:v>
+                  <c:v>16.050331111840752</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>16.622811172105269</c:v>
+                  <c:v>22.917618675872571</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.4642472802087134</c:v>
+                  <c:v>14.093317660964161</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>19.413854532178309</c:v>
+                  <c:v>23.850780575588139</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17.869916568671918</c:v>
+                  <c:v>20.570995285321981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4731,160 +4732,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>38.049777896806397</c:v>
+                  <c:v>40.901376735879843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.67700984355541</c:v>
+                  <c:v>31.632789862421671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.25417201540435</c:v>
+                  <c:v>42.939666238767643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.975051716714191</c:v>
+                  <c:v>41.287941565369913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.512218610871891</c:v>
+                  <c:v>29.137806114184141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.93457725321322</c:v>
+                  <c:v>56.562117653882858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.653012878999192</c:v>
+                  <c:v>37.804896783428667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.272397096151167</c:v>
+                  <c:v>39.926459102068733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.713018179283672</c:v>
+                  <c:v>44.412531451561001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.119794678193998</c:v>
+                  <c:v>44.450680014015298</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.555212628808889</c:v>
+                  <c:v>32.549315250262701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.880698721181552</c:v>
+                  <c:v>41.478490678401172</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.632847160891501</c:v>
+                  <c:v>43.543706967333122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.77809684534315</c:v>
+                  <c:v>46.564738772183347</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.63610644984432</c:v>
+                  <c:v>49.191558917842833</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.683399385638801</c:v>
+                  <c:v>36.778607444578817</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.436516629750319</c:v>
+                  <c:v>37.40605762500973</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.664720450745321</c:v>
+                  <c:v>38.444334023174932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.28827614229073</c:v>
+                  <c:v>35.1843529323193</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.742634027867119</c:v>
+                  <c:v>28.248246939549201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.510266052956453</c:v>
+                  <c:v>46.395147227785287</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45.140105555597863</c:v>
+                  <c:v>45.437498306290308</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.330902080372802</c:v>
+                  <c:v>34.655185535666583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.072426715868758</c:v>
+                  <c:v>43.356983050695547</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41.371562837081051</c:v>
+                  <c:v>42.608633350352321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.085298084152171</c:v>
+                  <c:v>23.59207222444341</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.176183569848988</c:v>
+                  <c:v>38.383779467839069</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.958536492153037</c:v>
+                  <c:v>42.535331131794109</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.902825386476891</c:v>
+                  <c:v>30.883201576733448</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.532667288599583</c:v>
+                  <c:v>53.769546922212143</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.0301012533346</c:v>
+                  <c:v>31.06205263011595</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.453138138208018</c:v>
+                  <c:v>41.975228643215928</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.212192763732723</c:v>
+                  <c:v>45.19647511304283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36.598725289358129</c:v>
+                  <c:v>40.817690285323003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37.080875308046913</c:v>
+                  <c:v>41.602155005652101</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19.598180104552348</c:v>
+                  <c:v>17.95144427483725</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.133864177493628</c:v>
+                  <c:v>41.485802304809432</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.987072752177781</c:v>
+                  <c:v>21.587140936771419</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.83434082799306</c:v>
+                  <c:v>41.244978549668851</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.420564306299497</c:v>
+                  <c:v>35.386779776437002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.950000000000003</c:v>
+                  <c:v>51.98</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.459139257389047</c:v>
+                  <c:v>39.865224529718027</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.6318853755426499</c:v>
+                  <c:v>4.3135602442319829</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30.959803212820422</c:v>
+                  <c:v>34.84889276375759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>35.257776961433237</c:v>
+                  <c:v>38.711827986480657</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.663286403396199</c:v>
+                  <c:v>34.805084528554502</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>36.892088574553043</c:v>
+                  <c:v>27.242464677888801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.783765350163243</c:v>
+                  <c:v>44.250982817587193</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.658578035775498</c:v>
+                  <c:v>33.656595255380218</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>29.242325659106971</c:v>
+                  <c:v>28.755552050737279</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>39.626416726901567</c:v>
+                  <c:v>48.172672195049117</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.826978094543239</c:v>
+                  <c:v>32.571294038316488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9440,22 +9441,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="1" customWidth="1"/>
+    <col min="8" max="8" width="54" style="1" customWidth="1"/>
+    <col min="9" max="9" width="67.1640625" style="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9463,62 +9464,62 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18">
-        <v>16.299540461844401</v>
+        <v>21.614297408868381</v>
       </c>
       <c r="C2" s="18">
-        <v>-0.96115638068190579</v>
+        <v>3.2143161955666728</v>
       </c>
       <c r="D2" s="18">
-        <v>38.049777896806397</v>
+        <v>40.901376735879843</v>
       </c>
       <c r="E2" s="18">
-        <v>0.82851338839772726</v>
+        <v>0.92281428427964052</v>
       </c>
       <c r="F2" s="18">
-        <v>98.08875121700531</v>
+        <v>97.931854799744983</v>
       </c>
       <c r="G2" s="18">
-        <v>1.834781501412561</v>
+        <v>1.9592011627642389</v>
       </c>
       <c r="H2" s="18">
-        <v>7.231992374237553E-2</v>
+        <v>9.158079890975622E-2</v>
       </c>
       <c r="I2" s="18">
-        <v>4.6668210994135128E-3</v>
+        <v>1.9334771634271709E-2</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9530,28 +9531,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>14.986318262534819</v>
+        <v>18.46028683162675</v>
       </c>
       <c r="C3" s="19">
-        <v>-2.3785568184101562</v>
+        <v>1.168877827720793</v>
       </c>
       <c r="D3" s="19">
-        <v>29.67700984355541</v>
+        <v>31.632789862421671</v>
       </c>
       <c r="E3" s="19">
-        <v>0.77661585556534984</v>
+        <v>-1.015187712150198</v>
       </c>
       <c r="F3" s="19">
-        <v>99.210196026851932</v>
+        <v>99.198215648817481</v>
       </c>
       <c r="G3" s="19">
-        <v>0.69062297724534649</v>
+        <v>0.72353390360055159</v>
       </c>
       <c r="H3" s="19">
-        <v>6.006924240635287E-2</v>
+        <v>4.8906529738563423E-2</v>
       </c>
       <c r="I3" s="19">
-        <v>3.91117534961027E-2</v>
+        <v>2.934391784313805E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9563,16 +9564,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="19">
-        <v>28.118668596237349</v>
+        <v>37.033285094066578</v>
       </c>
       <c r="C4" s="19">
-        <v>4.0978305602916043</v>
+        <v>8.3657587548638048</v>
       </c>
       <c r="D4" s="19">
-        <v>38.25417201540435</v>
+        <v>42.939666238767643</v>
       </c>
       <c r="E4" s="19">
-        <v>2.5226082817705771</v>
+        <v>2.6267281105990752</v>
       </c>
       <c r="F4" s="19">
         <v>99.663299663299668</v>
@@ -9596,28 +9597,28 @@
         <v>15</v>
       </c>
       <c r="B5" s="19">
-        <v>13.6746279927782</v>
+        <v>22.569771984676549</v>
       </c>
       <c r="C5" s="19">
-        <v>-0.46237615004113919</v>
+        <v>6.6147837572988486</v>
       </c>
       <c r="D5" s="19">
-        <v>37.975051716714191</v>
+        <v>41.287941565369913</v>
       </c>
       <c r="E5" s="19">
-        <v>2.1914225567510499</v>
+        <v>0.69078828565639683</v>
       </c>
       <c r="F5" s="19">
-        <v>98.199014589586412</v>
+        <v>97.931010492065496</v>
       </c>
       <c r="G5" s="19">
-        <v>1.5921186363904061</v>
+        <v>1.847134126218487</v>
       </c>
       <c r="H5" s="19">
-        <v>0.16889104261620799</v>
+        <v>0.19452414872878199</v>
       </c>
       <c r="I5" s="19">
-        <v>3.2659909781950401E-2</v>
+        <v>2.733123298716688E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9629,25 +9630,25 @@
         <v>16</v>
       </c>
       <c r="B6" s="19">
-        <v>15.419814831633181</v>
+        <v>18.4444434314848</v>
       </c>
       <c r="C6" s="19">
-        <v>0.72532443065326213</v>
+        <v>1.5541712359972919</v>
       </c>
       <c r="D6" s="19">
-        <v>25.512218610871891</v>
+        <v>29.137806114184141</v>
       </c>
       <c r="E6" s="19">
-        <v>1.352284465708163</v>
+        <v>2.0099872935582632</v>
       </c>
       <c r="F6" s="19">
-        <v>98.836653729569022</v>
+        <v>98.71351447348809</v>
       </c>
       <c r="G6" s="19">
-        <v>0.95934947937690529</v>
+        <v>1.037064494604339</v>
       </c>
       <c r="H6" s="19">
-        <v>0.20399679105351751</v>
+        <v>0.24942103190702389</v>
       </c>
       <c r="I6" s="19">
         <v>0</v>
@@ -9662,28 +9663,28 @@
         <v>17</v>
       </c>
       <c r="B7" s="19">
-        <v>18.37275823688876</v>
+        <v>30.279022561638889</v>
       </c>
       <c r="C7" s="19">
-        <v>-1.366139723482207</v>
+        <v>9.2167095796699385</v>
       </c>
       <c r="D7" s="19">
-        <v>52.93457725321322</v>
+        <v>56.562117653882858</v>
       </c>
       <c r="E7" s="19">
-        <v>0.64787123020151616</v>
+        <v>1.2837695094631381</v>
       </c>
       <c r="F7" s="19">
-        <v>94.09440103502132</v>
+        <v>93.485478835816963</v>
       </c>
       <c r="G7" s="19">
-        <v>5.8488055253891416</v>
+        <v>6.2251521564593881</v>
       </c>
       <c r="H7" s="19">
-        <v>4.995009070185065E-2</v>
+        <v>0.18137857899838081</v>
       </c>
       <c r="I7" s="19">
-        <v>6.8433488872823587E-3</v>
+        <v>0.10799042872484341</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9695,28 +9696,28 @@
         <v>18</v>
       </c>
       <c r="B8" s="19">
-        <v>8.9636700255763362</v>
+        <v>11.806340044033311</v>
       </c>
       <c r="C8" s="19">
-        <v>0.95861004690660778</v>
+        <v>0.52703190260965549</v>
       </c>
       <c r="D8" s="19">
-        <v>33.653012878999192</v>
+        <v>37.804896783428667</v>
       </c>
       <c r="E8" s="19">
-        <v>0.76054731961861322</v>
+        <v>0.25527503067450519</v>
       </c>
       <c r="F8" s="19">
-        <v>96.820669998136211</v>
+        <v>95.962624539090911</v>
       </c>
       <c r="G8" s="19">
-        <v>3.1670142124151179</v>
+        <v>4.0071525137367896</v>
       </c>
       <c r="H8" s="19">
-        <v>6.4696568018980669E-3</v>
+        <v>1.8613492075724391E-2</v>
       </c>
       <c r="I8" s="19">
-        <v>5.8461326449117937E-3</v>
+        <v>1.1609455094716311E-2</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -9728,25 +9729,25 @@
         <v>19</v>
       </c>
       <c r="B9" s="19">
-        <v>22.578964131288291</v>
+        <v>29.3183805625135</v>
       </c>
       <c r="C9" s="19">
-        <v>-2.6537570816005189</v>
+        <v>2.9880744854031538</v>
       </c>
       <c r="D9" s="19">
-        <v>40.272397096151167</v>
+        <v>39.926459102068733</v>
       </c>
       <c r="E9" s="19">
-        <v>0.14839057842657211</v>
+        <v>-0.16189355861615609</v>
       </c>
       <c r="F9" s="19">
-        <v>98.56988435921987</v>
+        <v>98.487600181687185</v>
       </c>
       <c r="G9" s="19">
-        <v>1.3549128340722101</v>
+        <v>1.428088733091192</v>
       </c>
       <c r="H9" s="19">
-        <v>7.5202806706686595E-2</v>
+        <v>8.4311085221009885E-2</v>
       </c>
       <c r="I9" s="19">
         <v>0</v>
@@ -9761,22 +9762,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="19">
-        <v>12.87260846836373</v>
+        <v>13.6508574614155</v>
       </c>
       <c r="C10" s="19">
-        <v>-1.130727257366219</v>
+        <v>1.586748806190821</v>
       </c>
       <c r="D10" s="19">
-        <v>46.713018179283672</v>
+        <v>44.412531451561001</v>
       </c>
       <c r="E10" s="19">
-        <v>1.4732779339065829</v>
+        <v>-0.49754189304621449</v>
       </c>
       <c r="F10" s="19">
-        <v>98.692769852954598</v>
+        <v>98.25152447271833</v>
       </c>
       <c r="G10" s="19">
-        <v>1.307230147044522</v>
+        <v>1.7484755272807919</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -9794,22 +9795,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="19">
-        <v>4.86421607558073</v>
+        <v>9.3887024375214505</v>
       </c>
       <c r="C11" s="19">
-        <v>1.0982000000000001</v>
+        <v>1.9006000000000001</v>
       </c>
       <c r="D11" s="19">
-        <v>39.119794678193998</v>
+        <v>44.450680014015298</v>
       </c>
       <c r="E11" s="19">
-        <v>4.2183000000000002</v>
+        <v>3.3121</v>
       </c>
       <c r="F11" s="19">
-        <v>97.361165813311999</v>
+        <v>96.709753231492002</v>
       </c>
       <c r="G11" s="19">
-        <v>2.6388341866870002</v>
+        <v>3.290246768507</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -9827,28 +9828,28 @@
         <v>22</v>
       </c>
       <c r="B12" s="19">
-        <v>12.647213708634901</v>
+        <v>15.74269438145862</v>
       </c>
       <c r="C12" s="19">
-        <v>-0.39074969991084252</v>
+        <v>3.266985346840737</v>
       </c>
       <c r="D12" s="19">
-        <v>30.555212628808889</v>
+        <v>32.549315250262701</v>
       </c>
       <c r="E12" s="19">
-        <v>1.724705914914878</v>
+        <v>1.4901538952282209</v>
       </c>
       <c r="F12" s="19">
-        <v>98.851108176103679</v>
+        <v>98.851969337408192</v>
       </c>
       <c r="G12" s="19">
-        <v>1.0623371937456461</v>
+        <v>1.0474141172832201</v>
       </c>
       <c r="H12" s="19">
-        <v>8.523589169905052E-2</v>
+        <v>0.1006165453079908</v>
       </c>
       <c r="I12" s="19">
-        <v>1.3187384510169489E-3</v>
+        <v>1.601357244703684E-3</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9860,28 +9861,28 @@
         <v>23</v>
       </c>
       <c r="B13" s="19">
-        <v>14.158700033039519</v>
+        <v>18.09171715874923</v>
       </c>
       <c r="C13" s="19">
-        <v>-2.1061878220246499</v>
+        <v>1.7447169658958961</v>
       </c>
       <c r="D13" s="19">
-        <v>37.880698721181552</v>
+        <v>41.478490678401172</v>
       </c>
       <c r="E13" s="19">
-        <v>1.1019480021208581</v>
+        <v>1.508416182388574</v>
       </c>
       <c r="F13" s="19">
-        <v>98.814156592945352</v>
+        <v>98.610351849796174</v>
       </c>
       <c r="G13" s="19">
-        <v>1.174701750654144</v>
+        <v>1.3861906918552449</v>
       </c>
       <c r="H13" s="19">
-        <v>7.6722176061038219E-3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="19">
-        <v>3.469438792856488E-3</v>
+        <v>3.4574583477959041E-3</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -9893,28 +9894,28 @@
         <v>24</v>
       </c>
       <c r="B14" s="19">
-        <v>27.4962843939675</v>
+        <v>45.68790086277297</v>
       </c>
       <c r="C14" s="19">
-        <v>-8.5645194179914448</v>
+        <v>14.05405455899484</v>
       </c>
       <c r="D14" s="19">
-        <v>39.632847160891501</v>
+        <v>43.543706967333122</v>
       </c>
       <c r="E14" s="19">
-        <v>-1.5222163408776359</v>
+        <v>3.582053153061127</v>
       </c>
       <c r="F14" s="19">
-        <v>96.856005030391955</v>
+        <v>95.724166841333059</v>
       </c>
       <c r="G14" s="19">
-        <v>3.102075036679941</v>
+        <v>4.1710333263466781</v>
       </c>
       <c r="H14" s="19">
-        <v>4.1919932928107313E-2</v>
+        <v>8.3839865856214627E-2</v>
       </c>
       <c r="I14" s="19">
-        <v>0</v>
+        <v>2.095996646405366E-2</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -9926,22 +9927,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="19">
-        <v>4.839122461881133</v>
+        <v>10.947638405802641</v>
       </c>
       <c r="C15" s="19">
-        <v>0.35429022868713073</v>
+        <v>6.7933058584066446</v>
       </c>
       <c r="D15" s="19">
-        <v>39.77809684534315</v>
+        <v>46.564738772183347</v>
       </c>
       <c r="E15" s="19">
-        <v>1.985130210918026</v>
+        <v>3.8728389562737928</v>
       </c>
       <c r="F15" s="19">
-        <v>99.804105580797412</v>
+        <v>99.635562733496641</v>
       </c>
       <c r="G15" s="19">
-        <v>0.19589441920261241</v>
+        <v>0.36443726650336111</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -9959,28 +9960,28 @@
         <v>26</v>
       </c>
       <c r="B16" s="19">
-        <v>12.461245524499679</v>
+        <v>17.011923531931352</v>
       </c>
       <c r="C16" s="19">
-        <v>0.51915969526665218</v>
+        <v>2.3213632338147749</v>
       </c>
       <c r="D16" s="19">
-        <v>46.63610644984432</v>
+        <v>49.191558917842833</v>
       </c>
       <c r="E16" s="19">
-        <v>1.342502477311895</v>
+        <v>-0.20146394991354569</v>
       </c>
       <c r="F16" s="19">
-        <v>98.169616813569249</v>
+        <v>97.869913373339358</v>
       </c>
       <c r="G16" s="19">
-        <v>1.8244690191087309</v>
+        <v>2.124081764679739</v>
       </c>
       <c r="H16" s="19">
-        <v>5.9141673203115426E-3</v>
+        <v>3.14217431365833E-3</v>
       </c>
       <c r="I16" s="19">
-        <v>0</v>
+        <v>2.8626876663839442E-3</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9992,25 +9993,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>12.76181304606347</v>
+        <v>16.00494969098116</v>
       </c>
       <c r="C17" s="19">
-        <v>1.01964151025203</v>
+        <v>2.695969281837693</v>
       </c>
       <c r="D17" s="19">
-        <v>31.683399385638801</v>
+        <v>36.778607444578817</v>
       </c>
       <c r="E17" s="19">
-        <v>1.6809340446640479</v>
+        <v>1.702513111950543</v>
       </c>
       <c r="F17" s="19">
-        <v>99.501536448014832</v>
+        <v>99.366195507456965</v>
       </c>
       <c r="G17" s="19">
-        <v>0.4924917042278189</v>
+        <v>0.59719398691624348</v>
       </c>
       <c r="H17" s="19">
-        <v>5.971847756613035E-3</v>
+        <v>3.661050562532199E-2</v>
       </c>
       <c r="I17" s="19">
         <v>0</v>
@@ -10025,22 +10026,22 @@
         <v>28</v>
       </c>
       <c r="B18" s="19">
-        <v>-1.791523809615418</v>
+        <v>5.2405385407270266</v>
       </c>
       <c r="C18" s="19">
-        <v>-1.675583016807735</v>
+        <v>2.3087937755950789</v>
       </c>
       <c r="D18" s="19">
-        <v>29.436516629750319</v>
+        <v>37.40605762500973</v>
       </c>
       <c r="E18" s="19">
-        <v>-5.6728794677785632E-2</v>
+        <v>0.86549459415996555</v>
       </c>
       <c r="F18" s="19">
-        <v>99.971326524923839</v>
+        <v>99.928328917960997</v>
       </c>
       <c r="G18" s="19">
-        <v>2.867347507615443E-2</v>
+        <v>7.1671082039002534E-2</v>
       </c>
       <c r="H18" s="19">
         <v>0</v>
@@ -10058,25 +10059,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="19">
-        <v>13.918601616757609</v>
+        <v>18.262930223963021</v>
       </c>
       <c r="C19" s="19">
-        <v>2.2784094141041198</v>
+        <v>2.997126484648772</v>
       </c>
       <c r="D19" s="19">
-        <v>34.664720450745321</v>
+        <v>38.444334023174932</v>
       </c>
       <c r="E19" s="19">
-        <v>0.14454327223799129</v>
+        <v>0.69405623428220953</v>
       </c>
       <c r="F19" s="19">
-        <v>99.726078004117738</v>
+        <v>99.688677522114403</v>
       </c>
       <c r="G19" s="19">
-        <v>0.25392284584613639</v>
+        <v>0.31132247788559891</v>
       </c>
       <c r="H19" s="19">
-        <v>1.9999150036123469E-2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -10091,28 +10092,28 @@
         <v>30</v>
       </c>
       <c r="B20" s="19">
-        <v>18.405255672801829</v>
+        <v>21.385687978744791</v>
       </c>
       <c r="C20" s="19">
-        <v>-0.11770078398671489</v>
+        <v>1.38038431469767</v>
       </c>
       <c r="D20" s="19">
-        <v>30.28827614229073</v>
+        <v>35.1843529323193</v>
       </c>
       <c r="E20" s="19">
-        <v>1.504688906242448</v>
+        <v>2.8984614495585399</v>
       </c>
       <c r="F20" s="19">
-        <v>99.376242375755325</v>
+        <v>99.262469473381572</v>
       </c>
       <c r="G20" s="19">
-        <v>0.59256339885646747</v>
+        <v>0.72738189832003741</v>
       </c>
       <c r="H20" s="19">
-        <v>2.0995515031505131E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="19">
-        <v>1.0198710356625869E-2</v>
+        <v>1.0148628298304201E-2</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10124,28 +10125,28 @@
         <v>31</v>
       </c>
       <c r="B21" s="19">
-        <v>16.560007774457439</v>
+        <v>20.511470696923801</v>
       </c>
       <c r="C21" s="19">
-        <v>1.221685731177381</v>
+        <v>2.068855973907302</v>
       </c>
       <c r="D21" s="19">
-        <v>27.742634027867119</v>
+        <v>28.248246939549201</v>
       </c>
       <c r="E21" s="19">
-        <v>3.367758227577442</v>
+        <v>-2.891060255200856</v>
       </c>
       <c r="F21" s="19">
-        <v>99.37919556712481</v>
+        <v>99.301599966525487</v>
       </c>
       <c r="G21" s="19">
-        <v>0.53303088801061793</v>
+        <v>0.57063254501900573</v>
       </c>
       <c r="H21" s="19">
-        <v>7.8020928768376796E-2</v>
+        <v>0.1277674884553531</v>
       </c>
       <c r="I21" s="19">
-        <v>9.7526160960470995E-3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10157,28 +10158,28 @@
         <v>32</v>
       </c>
       <c r="B22" s="19">
-        <v>22.824032995493891</v>
+        <v>29.260805678101772</v>
       </c>
       <c r="C22" s="19">
-        <v>-4.0853088563552458</v>
+        <v>4.6307011327537104</v>
       </c>
       <c r="D22" s="19">
-        <v>47.510266052956453</v>
+        <v>46.395147227785287</v>
       </c>
       <c r="E22" s="19">
-        <v>-1.447942483401828</v>
+        <v>-0.50615399564622177</v>
       </c>
       <c r="F22" s="19">
-        <v>99.829060740141614</v>
+        <v>99.885040286842482</v>
       </c>
       <c r="G22" s="19">
-        <v>0.17093925985830791</v>
+        <v>7.770491724900605E-2</v>
       </c>
       <c r="H22" s="19">
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <v>0</v>
+        <v>3.7254795908445118E-2</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -10190,28 +10191,28 @@
         <v>33</v>
       </c>
       <c r="B23" s="19">
-        <v>13.019202178367451</v>
+        <v>16.59671407587593</v>
       </c>
       <c r="C23" s="19">
-        <v>-1.400330542498964</v>
+        <v>1.5156305008001429</v>
       </c>
       <c r="D23" s="19">
-        <v>45.140105555597863</v>
+        <v>45.437498306290308</v>
       </c>
       <c r="E23" s="19">
-        <v>1.830693445652245</v>
+        <v>0.87814890728931794</v>
       </c>
       <c r="F23" s="19">
-        <v>97.679171071855464</v>
+        <v>97.616571040190863</v>
       </c>
       <c r="G23" s="19">
-        <v>2.3082151761309082</v>
+        <v>2.364257741434352</v>
       </c>
       <c r="H23" s="19">
-        <v>1.26137520126446E-2</v>
+        <v>1.917121837377992E-2</v>
       </c>
       <c r="I23" s="19">
-        <v>0</v>
+        <v>6.3904061242603446E-3</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10223,25 +10224,25 @@
         <v>34</v>
       </c>
       <c r="B24" s="19">
-        <v>18.811346017534682</v>
+        <v>24.84705284386953</v>
       </c>
       <c r="C24" s="19">
-        <v>-1.772591491860567</v>
+        <v>1.6848287087665501</v>
       </c>
       <c r="D24" s="19">
-        <v>35.330902080372802</v>
+        <v>34.655185535666583</v>
       </c>
       <c r="E24" s="19">
-        <v>-1.168161113855797</v>
+        <v>2.2597267592479361E-2</v>
       </c>
       <c r="F24" s="19">
-        <v>98.563185554852325</v>
+        <v>99.127480057927215</v>
       </c>
       <c r="G24" s="19">
-        <v>1.3372986404894729</v>
+        <v>0.81877349463286253</v>
       </c>
       <c r="H24" s="19">
-        <v>9.9515804657311663E-2</v>
+        <v>5.3746447439046822E-2</v>
       </c>
       <c r="I24" s="19">
         <v>0</v>
@@ -10256,25 +10257,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="19">
-        <v>20.609943352175868</v>
+        <v>24.042369951366791</v>
       </c>
       <c r="C25" s="19">
-        <v>1.4004074871321091</v>
+        <v>3.4091230331631999</v>
       </c>
       <c r="D25" s="19">
-        <v>38.072426715868758</v>
+        <v>43.356983050695547</v>
       </c>
       <c r="E25" s="19">
-        <v>0.4837374509655652</v>
+        <v>2.0665664851022192</v>
       </c>
       <c r="F25" s="19">
-        <v>99.36710485906147</v>
+        <v>99.134302250585989</v>
       </c>
       <c r="G25" s="19">
-        <v>0.60045773862100515</v>
+        <v>0.85499204235884596</v>
       </c>
       <c r="H25" s="19">
-        <v>3.2437402316148667E-2</v>
+        <v>1.070570705447044E-2</v>
       </c>
       <c r="I25" s="19">
         <v>0</v>
@@ -10289,25 +10290,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="19">
-        <v>22.09947309315795</v>
+        <v>25.388587518817371</v>
       </c>
       <c r="C26" s="19">
-        <v>2.057454692019113</v>
+        <v>2.673540964013482</v>
       </c>
       <c r="D26" s="19">
-        <v>41.371562837081051</v>
+        <v>42.608633350352321</v>
       </c>
       <c r="E26" s="19">
-        <v>3.479178315735219</v>
+        <v>0.25807166568172252</v>
       </c>
       <c r="F26" s="19">
-        <v>98.619366008843315</v>
+        <v>98.840598688335433</v>
       </c>
       <c r="G26" s="19">
-        <v>1.2481866188003079</v>
+        <v>1.050302713834226</v>
       </c>
       <c r="H26" s="19">
-        <v>0.13244737235500839</v>
+        <v>0.10909859782896419</v>
       </c>
       <c r="I26" s="19">
         <v>0</v>
@@ -10322,25 +10323,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="19">
-        <v>11.21858196428119</v>
+        <v>15.24974411192404</v>
       </c>
       <c r="C27" s="19">
-        <v>-2.04044108037521</v>
+        <v>1.5137696854396541</v>
       </c>
       <c r="D27" s="19">
-        <v>21.085298084152171</v>
+        <v>23.59207222444341</v>
       </c>
       <c r="E27" s="19">
-        <v>1.6405080704393431</v>
+        <v>-1.4818984814746621</v>
       </c>
       <c r="F27" s="19">
-        <v>99.496345554383979</v>
+        <v>99.381050252832097</v>
       </c>
       <c r="G27" s="19">
-        <v>0.46339576201515009</v>
+        <v>0.6189497471674148</v>
       </c>
       <c r="H27" s="19">
-        <v>4.025868360038326E-2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="19">
         <v>0</v>
@@ -10355,22 +10356,22 @@
         <v>38</v>
       </c>
       <c r="B28" s="19">
-        <v>12.654303251679689</v>
+        <v>16.528272122891789</v>
       </c>
       <c r="C28" s="19">
-        <v>2.3347021256132559</v>
+        <v>3.3730613436946388</v>
       </c>
       <c r="D28" s="19">
-        <v>32.176183569848988</v>
+        <v>38.383779467839069</v>
       </c>
       <c r="E28" s="19">
-        <v>-1.7788036286028539</v>
+        <v>1.786882381914122</v>
       </c>
       <c r="F28" s="19">
-        <v>98.860846108679041</v>
+        <v>99.044869220238454</v>
       </c>
       <c r="G28" s="19">
-        <v>1.139153891320877</v>
+        <v>0.95513077976145633</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
@@ -10388,28 +10389,28 @@
         <v>39</v>
       </c>
       <c r="B29" s="19">
-        <v>24.439798094831659</v>
+        <v>26.741061950867561</v>
       </c>
       <c r="C29" s="19">
-        <v>3.66773441409316</v>
+        <v>4.1604965698887284</v>
       </c>
       <c r="D29" s="19">
-        <v>37.958536492153037</v>
+        <v>42.535331131794109</v>
       </c>
       <c r="E29" s="19">
-        <v>2.0741511734342581</v>
+        <v>4.2475450644631874</v>
       </c>
       <c r="F29" s="19">
-        <v>98.708133971291872</v>
+        <v>96.898854961832058</v>
       </c>
       <c r="G29" s="19">
-        <v>1.2918660287081341</v>
+        <v>2.7671755725190841</v>
       </c>
       <c r="H29" s="19">
-        <v>0</v>
+        <v>0.2385496183206107</v>
       </c>
       <c r="I29" s="19">
-        <v>0</v>
+        <v>9.5419847328244267E-2</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -10421,22 +10422,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="19">
-        <v>15.720559547597739</v>
+        <v>18.60075221493738</v>
       </c>
       <c r="C30" s="19">
-        <v>5.0687702420223522</v>
+        <v>-2.032743661815557</v>
       </c>
       <c r="D30" s="19">
-        <v>26.902825386476891</v>
+        <v>30.883201576733448</v>
       </c>
       <c r="E30" s="19">
-        <v>0.79607007424926957</v>
+        <v>-6.1240297268672057</v>
       </c>
       <c r="F30" s="19">
-        <v>99.821338724675087</v>
+        <v>99.723819305415191</v>
       </c>
       <c r="G30" s="19">
-        <v>0.17866127532491921</v>
+        <v>0.27618069458479783</v>
       </c>
       <c r="H30" s="19">
         <v>0</v>
@@ -10454,28 +10455,28 @@
         <v>41</v>
       </c>
       <c r="B31" s="19">
-        <v>16.16042185850451</v>
+        <v>30.65118272504111</v>
       </c>
       <c r="C31" s="19">
-        <v>-1.2292718240938501</v>
+        <v>9.7816480882359524</v>
       </c>
       <c r="D31" s="19">
-        <v>51.532667288599583</v>
+        <v>53.769546922212143</v>
       </c>
       <c r="E31" s="19">
-        <v>-9.9083045024536479E-3</v>
+        <v>-1.0583649404989131</v>
       </c>
       <c r="F31" s="19">
-        <v>98.139464724631736</v>
+        <v>97.421290774315963</v>
       </c>
       <c r="G31" s="19">
-        <v>1.8328856919297229</v>
+        <v>2.4291383844225951</v>
       </c>
       <c r="H31" s="19">
-        <v>3.4561979298157033E-2</v>
+        <v>0.1093029474466545</v>
       </c>
       <c r="I31" s="19">
-        <v>0</v>
+        <v>4.0267893814804563E-2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10487,25 +10488,25 @@
         <v>42</v>
       </c>
       <c r="B32" s="19">
-        <v>21.37774508676733</v>
+        <v>25.138691262536419</v>
       </c>
       <c r="C32" s="19">
-        <v>-1.947020159075161</v>
+        <v>1.9573538381351261</v>
       </c>
       <c r="D32" s="19">
-        <v>37.0301012533346</v>
+        <v>31.06205263011595</v>
       </c>
       <c r="E32" s="19">
-        <v>-4.7073383481286228</v>
+        <v>-0.83593875024150177</v>
       </c>
       <c r="F32" s="19">
-        <v>99.145975031172853</v>
+        <v>99.807573322654093</v>
       </c>
       <c r="G32" s="19">
-        <v>0.75734289688350931</v>
+        <v>0.14432000800833869</v>
       </c>
       <c r="H32" s="19">
-        <v>9.6682071941882899E-2</v>
+        <v>4.8106669335819502E-2</v>
       </c>
       <c r="I32" s="19">
         <v>0</v>
@@ -10520,28 +10521,28 @@
         <v>43</v>
       </c>
       <c r="B33" s="19">
-        <v>10.83045469721381</v>
+        <v>15.28425858534125</v>
       </c>
       <c r="C33" s="19">
-        <v>-3.2338982312483551</v>
+        <v>1.393300047764608</v>
       </c>
       <c r="D33" s="19">
-        <v>42.453138138208018</v>
+        <v>41.975228643215928</v>
       </c>
       <c r="E33" s="19">
-        <v>-0.46797143161619398</v>
+        <v>-8.2505332491534772E-2</v>
       </c>
       <c r="F33" s="19">
-        <v>97.825298327390286</v>
+        <v>98.4062353412601</v>
       </c>
       <c r="G33" s="19">
-        <v>2.1460692503932148</v>
+        <v>1.559141830166666</v>
       </c>
       <c r="H33" s="19">
-        <v>2.863242221591504E-2</v>
+        <v>3.1311265778854812E-2</v>
       </c>
       <c r="I33" s="19">
-        <v>0</v>
+        <v>3.3115627937994078E-3</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -10553,28 +10554,28 @@
         <v>44</v>
       </c>
       <c r="B34" s="19">
-        <v>24.284305199139052</v>
+        <v>31.97678845356338</v>
       </c>
       <c r="C34" s="19">
-        <v>-1.1436228834829929</v>
+        <v>1.9448385911580881</v>
       </c>
       <c r="D34" s="19">
-        <v>44.212192763732723</v>
+        <v>45.19647511304283</v>
       </c>
       <c r="E34" s="19">
-        <v>1.1964760557990879</v>
+        <v>-3.5380634257221861</v>
       </c>
       <c r="F34" s="19">
-        <v>96.356163322751044</v>
+        <v>96.101424539074827</v>
       </c>
       <c r="G34" s="19">
-        <v>3.1180870054702772</v>
+        <v>3.4853822448418899</v>
       </c>
       <c r="H34" s="19">
-        <v>0.52574967177698084</v>
+        <v>0.41319321608243598</v>
       </c>
       <c r="I34" s="19">
-        <v>2.7514964109312031E-2</v>
+        <v>0.1085304413334256</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -10586,25 +10587,25 @@
         <v>45</v>
       </c>
       <c r="B35" s="19">
-        <v>19.723356610508379</v>
+        <v>24.101461091932531</v>
       </c>
       <c r="C35" s="19">
-        <v>-2.6526685586344159</v>
+        <v>1.889638601091689</v>
       </c>
       <c r="D35" s="19">
-        <v>36.598725289358129</v>
+        <v>40.817690285323003</v>
       </c>
       <c r="E35" s="19">
-        <v>0.15273989000001589</v>
+        <v>1.3607888789395519</v>
       </c>
       <c r="F35" s="19">
-        <v>97.916597299372299</v>
+        <v>97.720310442287342</v>
       </c>
       <c r="G35" s="19">
-        <v>1.961838744112828</v>
+        <v>2.1761245364866202</v>
       </c>
       <c r="H35" s="19">
-        <v>0.12156395651487149</v>
+        <v>0.1035650212260442</v>
       </c>
       <c r="I35" s="19">
         <v>0</v>
@@ -10619,28 +10620,28 @@
         <v>46</v>
       </c>
       <c r="B36" s="19">
-        <v>22.75843554834869</v>
+        <v>28.52511110929413</v>
       </c>
       <c r="C36" s="19">
-        <v>-5.1737895763509307</v>
+        <v>0.25096734641824531</v>
       </c>
       <c r="D36" s="19">
-        <v>37.080875308046913</v>
+        <v>41.602155005652101</v>
       </c>
       <c r="E36" s="19">
-        <v>0.61578188467466555</v>
+        <v>2.534585486991408</v>
       </c>
       <c r="F36" s="19">
-        <v>98.4293596472492</v>
+        <v>98.525965555477697</v>
       </c>
       <c r="G36" s="19">
-        <v>1.500955983712051</v>
+        <v>1.415052163269261</v>
       </c>
       <c r="H36" s="19">
-        <v>6.3040893515913216E-2</v>
+        <v>5.5746796069283788E-2</v>
       </c>
       <c r="I36" s="19">
-        <v>6.6434755228513718E-3</v>
+        <v>3.2354851837528092E-3</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -10652,22 +10653,22 @@
         <v>47</v>
       </c>
       <c r="B37" s="19">
-        <v>10.98708819776537</v>
+        <v>12.77640710357168</v>
       </c>
       <c r="C37" s="19">
-        <v>1.577980297358748</v>
+        <v>1.3976311109502739</v>
       </c>
       <c r="D37" s="19">
-        <v>19.598180104552348</v>
+        <v>17.95144427483725</v>
       </c>
       <c r="E37" s="19">
-        <v>-6.0277386196388827</v>
+        <v>1.0195906250925379</v>
       </c>
       <c r="F37" s="19">
-        <v>99.943255567700504</v>
+        <v>99.970489552516156</v>
       </c>
       <c r="G37" s="19">
-        <v>5.6744432299494461E-2</v>
+        <v>2.9510447483858459E-2</v>
       </c>
       <c r="H37" s="19">
         <v>0</v>
@@ -10685,28 +10686,28 @@
         <v>48</v>
       </c>
       <c r="B38" s="19">
-        <v>24.45698906436397</v>
+        <v>27.065458750084861</v>
       </c>
       <c r="C38" s="19">
-        <v>1.1664065308761919</v>
+        <v>1.766857820805118</v>
       </c>
       <c r="D38" s="19">
-        <v>37.133864177493628</v>
+        <v>41.485802304809432</v>
       </c>
       <c r="E38" s="19">
-        <v>2.086540800531393</v>
+        <v>2.1197814087068081</v>
       </c>
       <c r="F38" s="19">
-        <v>99.311128271988053</v>
+        <v>99.24245978112296</v>
       </c>
       <c r="G38" s="19">
-        <v>0.64787174030749073</v>
+        <v>0.7196369091020568</v>
       </c>
       <c r="H38" s="19">
-        <v>3.424673528118128E-2</v>
+        <v>3.4527492156203862E-2</v>
       </c>
       <c r="I38" s="19">
-        <v>6.7532524232587158E-3</v>
+        <v>3.3758176187600789E-3</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10718,25 +10719,25 @@
         <v>49</v>
       </c>
       <c r="B39" s="19">
-        <v>11.58908782990162</v>
+        <v>7.0286943921170337</v>
       </c>
       <c r="C39" s="19">
-        <v>2.4327993303394071</v>
+        <v>-4.812453890590298</v>
       </c>
       <c r="D39" s="19">
-        <v>25.987072752177781</v>
+        <v>21.587140936771419</v>
       </c>
       <c r="E39" s="19">
-        <v>1.975345548870437</v>
+        <v>-2.4177895994267158</v>
       </c>
       <c r="F39" s="19">
-        <v>99.831550746690155</v>
+        <v>99.719113237424608</v>
       </c>
       <c r="G39" s="19">
-        <v>0.16844925330984159</v>
+        <v>0.26651519490583198</v>
       </c>
       <c r="H39" s="19">
-        <v>0</v>
+        <v>1.437156766955291E-2</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
@@ -10751,28 +10752,28 @@
         <v>50</v>
       </c>
       <c r="B40" s="19">
-        <v>18.658433474176761</v>
+        <v>26.41881685812686</v>
       </c>
       <c r="C40" s="19">
-        <v>-1.4386761796511769</v>
+        <v>6.4495039476768428</v>
       </c>
       <c r="D40" s="19">
-        <v>37.83434082799306</v>
+        <v>41.244978549668851</v>
       </c>
       <c r="E40" s="19">
-        <v>0.25536037426300767</v>
+        <v>1.703307381205684</v>
       </c>
       <c r="F40" s="19">
-        <v>97.631262336095858</v>
+        <v>97.115664281122619</v>
       </c>
       <c r="G40" s="19">
-        <v>1.942835333888526</v>
+        <v>2.2228526360741241</v>
       </c>
       <c r="H40" s="19">
-        <v>0.42590233001402128</v>
+        <v>0.63717506822313674</v>
       </c>
       <c r="I40" s="19">
-        <v>8.8897845732662153E-3</v>
+        <v>5.9836539427327917E-2</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10784,25 +10785,25 @@
         <v>51</v>
       </c>
       <c r="B41" s="19">
-        <v>9.5885478866468077</v>
+        <v>14.46991636606981</v>
       </c>
       <c r="C41" s="19">
-        <v>-2.0959471619971919</v>
+        <v>1.7199049185884689</v>
       </c>
       <c r="D41" s="19">
-        <v>34.420564306299497</v>
+        <v>35.386779776437002</v>
       </c>
       <c r="E41" s="19">
-        <v>-0.34637773883175238</v>
+        <v>0.35900055733176639</v>
       </c>
       <c r="F41" s="19">
-        <v>98.959334886632305</v>
+        <v>98.928945832288576</v>
       </c>
       <c r="G41" s="19">
-        <v>1.014579085922398</v>
+        <v>1.0575424822454991</v>
       </c>
       <c r="H41" s="19">
-        <v>2.6086027443379959E-2</v>
+        <v>1.351168546401018E-2</v>
       </c>
       <c r="I41" s="19">
         <v>0</v>
@@ -10817,22 +10818,22 @@
         <v>52</v>
       </c>
       <c r="B42" s="19">
-        <v>18.37</v>
+        <v>26.26</v>
       </c>
       <c r="C42" s="19">
-        <v>-4.7300000000000004</v>
+        <v>2.72</v>
       </c>
       <c r="D42" s="19">
-        <v>40.950000000000003</v>
+        <v>51.98</v>
       </c>
       <c r="E42" s="19">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F42" s="19">
-        <v>99.570000000000007</v>
+        <v>99.53</v>
       </c>
       <c r="G42" s="19">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="H42" s="19">
         <v>0</v>
@@ -10850,28 +10851,28 @@
         <v>53</v>
       </c>
       <c r="B43" s="19">
-        <v>24.056313445076899</v>
+        <v>28.24890873923265</v>
       </c>
       <c r="C43" s="19">
-        <v>-3.8624666961190299</v>
+        <v>0.46174639111007593</v>
       </c>
       <c r="D43" s="19">
-        <v>35.459139257389047</v>
+        <v>39.865224529718027</v>
       </c>
       <c r="E43" s="19">
-        <v>0.63711533162231482</v>
+        <v>1.6412053757305429</v>
       </c>
       <c r="F43" s="19">
-        <v>99.397190954784435</v>
+        <v>99.377868324387947</v>
       </c>
       <c r="G43" s="19">
-        <v>0.58467626235789916</v>
+        <v>0.60399979162279338</v>
       </c>
       <c r="H43" s="19">
-        <v>9.0663914287624752E-3</v>
+        <v>9.0659419945607091E-3</v>
       </c>
       <c r="I43" s="19">
-        <v>9.0663914287624752E-3</v>
+        <v>9.0659419945607091E-3</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10883,22 +10884,22 @@
         <v>54</v>
       </c>
       <c r="B44" s="19">
-        <v>10.24753645658584</v>
+        <v>11.16662358141379</v>
       </c>
       <c r="C44" s="19">
-        <v>-0.2115928857847032</v>
+        <v>0.40522897069607078</v>
       </c>
       <c r="D44" s="19">
-        <v>3.6318853755426499</v>
+        <v>4.3135602442319829</v>
       </c>
       <c r="E44" s="19">
-        <v>-3.8419097543127418</v>
+        <v>2.4141967540892062</v>
       </c>
       <c r="F44" s="19">
-        <v>99.964759188758265</v>
+        <v>99.928384988364073</v>
       </c>
       <c r="G44" s="19">
-        <v>3.5240811241731632E-2</v>
+        <v>7.1615011635937392E-2</v>
       </c>
       <c r="H44" s="19">
         <v>0</v>
@@ -10916,28 +10917,28 @@
         <v>55</v>
       </c>
       <c r="B45" s="19">
-        <v>15.14324017756592</v>
+        <v>20.1845023533978</v>
       </c>
       <c r="C45" s="19">
-        <v>-2.2195529565810652</v>
+        <v>2.6834905870471801</v>
       </c>
       <c r="D45" s="19">
-        <v>30.959803212820422</v>
+        <v>34.84889276375759</v>
       </c>
       <c r="E45" s="19">
-        <v>2.992915145389873</v>
+        <v>1.2246375919420549</v>
       </c>
       <c r="F45" s="19">
-        <v>98.791472686400709</v>
+        <v>98.653202709651907</v>
       </c>
       <c r="G45" s="19">
-        <v>1.132182193828134</v>
+        <v>1.317735709714142</v>
       </c>
       <c r="H45" s="19">
-        <v>7.6345119769720124E-2</v>
+        <v>2.9061580633225181E-2</v>
       </c>
       <c r="I45" s="19">
-        <v>1.176263338161773E-2</v>
+        <v>1.1624632252857359E-2</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10949,28 +10950,28 @@
         <v>56</v>
       </c>
       <c r="B46" s="19">
-        <v>17.130319603253689</v>
+        <v>20.18721407779012</v>
       </c>
       <c r="C46" s="19">
-        <v>0.32619223148506038</v>
+        <v>2.1699187180202641</v>
       </c>
       <c r="D46" s="19">
-        <v>35.257776961433237</v>
+        <v>38.711827986480657</v>
       </c>
       <c r="E46" s="19">
-        <v>1.2216236591743259</v>
+        <v>0.73416067100093874</v>
       </c>
       <c r="F46" s="19">
-        <v>98.589165701459279</v>
+        <v>98.325023302489001</v>
       </c>
       <c r="G46" s="19">
-        <v>1.3488817569900791</v>
+        <v>1.576068856535652</v>
       </c>
       <c r="H46" s="19">
-        <v>5.7732791389883041E-2</v>
+        <v>9.15743546266444E-2</v>
       </c>
       <c r="I46" s="19">
-        <v>4.2197501601662817E-3</v>
+        <v>7.3334863481128451E-3</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -10982,22 +10983,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="19">
-        <v>9.52864117738992</v>
+        <v>17.0654387572948</v>
       </c>
       <c r="C47" s="19">
-        <v>-0.71860000000000002</v>
+        <v>4.5624000000000002</v>
       </c>
       <c r="D47" s="19">
-        <v>32.663286403396199</v>
+        <v>34.805084528554502</v>
       </c>
       <c r="E47" s="19">
-        <v>1.1184000000000001</v>
+        <v>-0.22559999999999999</v>
       </c>
       <c r="F47" s="19">
-        <v>98.604386214753006</v>
+        <v>98.598654708520002</v>
       </c>
       <c r="G47" s="19">
-        <v>1.395613785246</v>
+        <v>1.4013452914790001</v>
       </c>
       <c r="H47" s="19">
         <v>0</v>
@@ -11015,25 +11016,25 @@
         <v>58</v>
       </c>
       <c r="B48" s="19">
-        <v>19.90477131713671</v>
+        <v>26.240930462054319</v>
       </c>
       <c r="C48" s="19">
-        <v>1.977312196703525</v>
+        <v>3.5890489756196771</v>
       </c>
       <c r="D48" s="19">
-        <v>36.892088574553043</v>
+        <v>27.242464677888801</v>
       </c>
       <c r="E48" s="19">
-        <v>3.249256120799056</v>
+        <v>-3.3916117927392051</v>
       </c>
       <c r="F48" s="19">
-        <v>99.694245542159805</v>
+        <v>99.961364468419745</v>
       </c>
       <c r="G48" s="19">
-        <v>0.26714841859629113</v>
+        <v>3.8635531579314812E-2</v>
       </c>
       <c r="H48" s="19">
-        <v>3.8606039242024402E-2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="19">
         <v>0</v>
@@ -11048,25 +11049,25 @@
         <v>59</v>
       </c>
       <c r="B49" s="19">
-        <v>10.99234625641953</v>
+        <v>16.050331111840752</v>
       </c>
       <c r="C49" s="19">
-        <v>-2.4448588779618499</v>
+        <v>1.176327078355007</v>
       </c>
       <c r="D49" s="19">
-        <v>41.783765350163243</v>
+        <v>44.250982817587193</v>
       </c>
       <c r="E49" s="19">
-        <v>1.225433340901938</v>
+        <v>7.9991275690795005E-3</v>
       </c>
       <c r="F49" s="19">
-        <v>99.049699354096703</v>
+        <v>98.861080947921479</v>
       </c>
       <c r="G49" s="19">
-        <v>0.94621455954460565</v>
+        <v>1.1260533749064749</v>
       </c>
       <c r="H49" s="19">
-        <v>4.0860863579964138E-3</v>
+        <v>1.28656771713332E-2</v>
       </c>
       <c r="I49" s="19">
         <v>0</v>
@@ -11081,28 +11082,28 @@
         <v>60</v>
       </c>
       <c r="B50" s="19">
-        <v>16.622811172105269</v>
+        <v>22.917618675872571</v>
       </c>
       <c r="C50" s="19">
-        <v>-1.257266720315962</v>
+        <v>6.1095318007486137</v>
       </c>
       <c r="D50" s="19">
-        <v>31.658578035775498</v>
+        <v>33.656595255380218</v>
       </c>
       <c r="E50" s="19">
-        <v>0.48166792596592878</v>
+        <v>0.21758603984877839</v>
       </c>
       <c r="F50" s="19">
-        <v>97.068262531816728</v>
+        <v>96.71747611722715</v>
       </c>
       <c r="G50" s="19">
-        <v>2.3021668411260281</v>
+        <v>2.6033390665561011</v>
       </c>
       <c r="H50" s="19">
-        <v>0.62523746603246033</v>
+        <v>0.64889873990850888</v>
       </c>
       <c r="I50" s="19">
-        <v>9.0016144449993132E-3</v>
+        <v>5.3605597867783031E-2</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -11114,28 +11115,28 @@
         <v>61</v>
       </c>
       <c r="B51" s="19">
-        <v>9.4642472802087134</v>
+        <v>14.093317660964161</v>
       </c>
       <c r="C51" s="19">
-        <v>-2.3217981023158361</v>
+        <v>0.30308392032615672</v>
       </c>
       <c r="D51" s="19">
-        <v>29.242325659106971</v>
+        <v>28.755552050737279</v>
       </c>
       <c r="E51" s="19">
-        <v>1.219826677355212</v>
+        <v>-2.2540687709480469</v>
       </c>
       <c r="F51" s="19">
-        <v>98.420770127192327</v>
+        <v>98.018375746213835</v>
       </c>
       <c r="G51" s="19">
-        <v>1.36901310563904</v>
+        <v>1.6598276494352311</v>
       </c>
       <c r="H51" s="19">
-        <v>0.1051083835840449</v>
+        <v>0.1930779626102449</v>
       </c>
       <c r="I51" s="19">
-        <v>0.1051083835840449</v>
+        <v>0.1287186417401632</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11147,28 +11148,28 @@
         <v>62</v>
       </c>
       <c r="B52" s="19">
-        <v>19.413854532178309</v>
+        <v>23.850780575588139</v>
       </c>
       <c r="C52" s="19">
-        <v>0.32958459997489348</v>
+        <v>1.4251567112940851</v>
       </c>
       <c r="D52" s="19">
-        <v>39.626416726901567</v>
+        <v>48.172672195049117</v>
       </c>
       <c r="E52" s="19">
-        <v>5.4337788965818798E-2</v>
+        <v>5.6301283503234254</v>
       </c>
       <c r="F52" s="19">
-        <v>97.936391293730807</v>
+        <v>98.055526178642694</v>
       </c>
       <c r="G52" s="19">
-        <v>2.0410129920371411</v>
+        <v>1.9369651999822139</v>
       </c>
       <c r="H52" s="19">
-        <v>1.506380948802098E-2</v>
+        <v>7.5086213750646634E-3</v>
       </c>
       <c r="I52" s="19">
-        <v>7.5319047440104876E-3</v>
+        <v>0</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11180,22 +11181,22 @@
         <v>63</v>
       </c>
       <c r="B53" s="19">
-        <v>17.869916568671918</v>
+        <v>20.570995285321981</v>
       </c>
       <c r="C53" s="19">
-        <v>2.1062563986621319</v>
+        <v>-1.260284062841321</v>
       </c>
       <c r="D53" s="19">
-        <v>27.826978094543239</v>
+        <v>32.571294038316488</v>
       </c>
       <c r="E53" s="19">
-        <v>1.43839265367256</v>
+        <v>3.753494067482666</v>
       </c>
       <c r="F53" s="19">
-        <v>99.421009098428442</v>
+        <v>99.010717230008254</v>
       </c>
       <c r="G53" s="19">
-        <v>0.57899090157154676</v>
+        <v>0.98928276999175591</v>
       </c>
       <c r="H53" s="19">
         <v>0</v>
@@ -11279,21 +11280,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:D36"/>
+  <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
@@ -11557,6 +11556,22 @@
       </c>
       <c r="C36" s="10">
         <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="12">
+        <v>44135</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="12">
+        <v>44142</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.34399999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B920F9-39E2-724B-A043-050BC59FC26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6260F1AC-9D80-1A4F-86C3-476A32B77A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3960" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -429,16 +429,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,9 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -789,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>3.2143161955666728</c:v>
+                  <c:v>-4.2845215365529441</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.168877827720793</c:v>
+                  <c:v>-2.765038792967947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3657587548638048</c:v>
+                  <c:v>-6.0890468761987453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6147837572988486</c:v>
+                  <c:v>-7.0445285229300172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5541712359972919</c:v>
+                  <c:v>-4.1930887062882789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2167095796699385</c:v>
+                  <c:v>-5.4635388979257451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52703190260965549</c:v>
+                  <c:v>-5.0219891877632357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9880744854031538</c:v>
+                  <c:v>-4.3536330894066468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.586748806190821</c:v>
+                  <c:v>-3.014811613219246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9006000000000001</c:v>
+                  <c:v>-0.61680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.266985346840737</c:v>
+                  <c:v>-6.4565241255178778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7447169658958961</c:v>
+                  <c:v>-2.2321939233514798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.05405455899484</c:v>
+                  <c:v>-6.1848833485505184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7933058584066446</c:v>
+                  <c:v>-4.9206935329480972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3213632338147749</c:v>
+                  <c:v>-3.3708561174512428</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.695969281837693</c:v>
+                  <c:v>-2.7592171525508302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3087937755950789</c:v>
+                  <c:v>-4.0440350026298013</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.997126484648772</c:v>
+                  <c:v>-4.6490241415293987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.38038431469767</c:v>
+                  <c:v>-3.2245057662020522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.068855973907302</c:v>
+                  <c:v>-2.560533897303245</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6307011327537104</c:v>
+                  <c:v>-0.65444238230116969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5156305008001429</c:v>
+                  <c:v>-3.4714813237233089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6848287087665501</c:v>
+                  <c:v>-5.0849850293295713</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4091230331631999</c:v>
+                  <c:v>-3.6021304846946638</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.673540964013482</c:v>
+                  <c:v>-4.5352234503791724</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5137696854396541</c:v>
+                  <c:v>-2.030617873869653</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3730613436946388</c:v>
+                  <c:v>-3.7108593541956258</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.1604965698887284</c:v>
+                  <c:v>-4.5239833053391516</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.032743661815557</c:v>
+                  <c:v>-3.1658592850035712</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.7816480882359524</c:v>
+                  <c:v>-5.8832668766941332</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9573538381351261</c:v>
+                  <c:v>-5.4046829129488918</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.393300047764608</c:v>
+                  <c:v>-4.0418525627670689</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.9448385911580881</c:v>
+                  <c:v>-3.7932418177011611</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.889638601091689</c:v>
+                  <c:v>-2.973803516147707</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25096734641824531</c:v>
+                  <c:v>-4.2542144124050409</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3976311109502739</c:v>
+                  <c:v>-2.5291000785037272</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.766857820805118</c:v>
+                  <c:v>-2.0804230885661008</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.812453890590298</c:v>
+                  <c:v>-4.9669110313888041</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.4495039476768428</c:v>
+                  <c:v>-5.2626741796012793</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7199049185884689</c:v>
+                  <c:v>-3.861656207340868</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.72</c:v>
+                  <c:v>-3.54</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.46174639111007593</c:v>
+                  <c:v>-3.3066490661979571</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.40522897069607078</c:v>
+                  <c:v>-1.1053020912060809</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6834905870471801</c:v>
+                  <c:v>-4.4907143930084281</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1699187180202641</c:v>
+                  <c:v>-4.9025511565034687</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.5624000000000002</c:v>
+                  <c:v>-6.6777000000000006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.5890489756196771</c:v>
+                  <c:v>-2.1929880760428682</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.176327078355007</c:v>
+                  <c:v>-3.8601608651679942</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.1095318007486137</c:v>
+                  <c:v>-5.8914711559805273</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.30308392032615672</c:v>
+                  <c:v>-5.8045453053317413</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4251567112940851</c:v>
+                  <c:v>-4.5492861495508817E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.260284062841321</c:v>
+                  <c:v>-3.5389738483996069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,7 +1021,7 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-20"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1444,160 +1444,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.92281428427964052</c:v>
+                  <c:v>1.2421453389364829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.015187712150198</c:v>
+                  <c:v>0.62718363927491638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6267281105990752</c:v>
+                  <c:v>1.9896193771626209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69078828565639683</c:v>
+                  <c:v>1.1365241942435349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0099872935582632</c:v>
+                  <c:v>0.69774672945365113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2837695094631381</c:v>
+                  <c:v>0.582215169690941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25527503067450519</c:v>
+                  <c:v>1.83932540605186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.16189355861615609</c:v>
+                  <c:v>3.3230504906479581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.49754189304621449</c:v>
+                  <c:v>2.6152617074121061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3121</c:v>
+                  <c:v>1.3977999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4901538952282209</c:v>
+                  <c:v>-1.1519003005438559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.508416182388574</c:v>
+                  <c:v>1.8836113446857661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.582053153061127</c:v>
+                  <c:v>0.60732200117057378</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8728389562737928</c:v>
+                  <c:v>-0.82194560848505827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.20146394991354569</c:v>
+                  <c:v>2.5873365199174172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.702513111950543</c:v>
+                  <c:v>2.3736216779336439</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86549459415996555</c:v>
+                  <c:v>3.7187069105219011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.69405623428220953</c:v>
+                  <c:v>-0.546653360838397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8984614495585399</c:v>
+                  <c:v>0.90827387860551523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.891060255200856</c:v>
+                  <c:v>1.033571628576309</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.50615399564622177</c:v>
+                  <c:v>1.487862757232008</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.87814890728931794</c:v>
+                  <c:v>1.790511180875888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2597267592479361E-2</c:v>
+                  <c:v>2.473997200694448</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0665664851022192</c:v>
+                  <c:v>3.003873403628889</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25807166568172252</c:v>
+                  <c:v>2.430369617776527</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.4818984814746621</c:v>
+                  <c:v>-0.94187248012826963</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.786882381914122</c:v>
+                  <c:v>0.91253299022561696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.2475450644631874</c:v>
+                  <c:v>-1.387663915182868</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6.1240297268672057</c:v>
+                  <c:v>0.44647638552472019</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.0583649404989131</c:v>
+                  <c:v>2.480969014786035</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.83593875024150177</c:v>
+                  <c:v>2.4556374081014991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.2505332491534772E-2</c:v>
+                  <c:v>1.663674013848274</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.5380634257221861</c:v>
+                  <c:v>2.3444688064383841</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3607888789395519</c:v>
+                  <c:v>1.040294516012735</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.534585486991408</c:v>
+                  <c:v>-0.14899299644231229</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0195906250925379</c:v>
+                  <c:v>-1.9792098434051171</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.1197814087068081</c:v>
+                  <c:v>2.4642287931251139</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.4177895994267158</c:v>
+                  <c:v>0.97445093825393048</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.703307381205684</c:v>
+                  <c:v>2.2979866340899879</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.35900055733176639</c:v>
+                  <c:v>2.9790444925035149</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6412053757305429</c:v>
+                  <c:v>-4.5176642822348873E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4141967540892062</c:v>
+                  <c:v>-1.97919626025964</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2246375919420549</c:v>
+                  <c:v>-1.371298043005087E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.73416067100093874</c:v>
+                  <c:v>0.24142358243066281</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.22559999999999999</c:v>
+                  <c:v>0.62219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.3916117927392051</c:v>
+                  <c:v>4.0138696569579153</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.9991275690795005E-3</c:v>
+                  <c:v>2.300221376678159</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.21758603984877839</c:v>
+                  <c:v>2.5332046390852709</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.2540687709480469</c:v>
+                  <c:v>2.9047152755334542</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.6301283503234254</c:v>
+                  <c:v>1.6194676036248841</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.753494067482666</c:v>
+                  <c:v>-1.023312396256659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1676,8 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2104,160 +2105,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.9592011627642389</c:v>
+                  <c:v>2.4683158328433992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72353390360055159</c:v>
+                  <c:v>0.86882911049710554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33670033670033672</c:v>
+                  <c:v>0.49210049210049212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.847134126218487</c:v>
+                  <c:v>1.798558650081854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.037064494604339</c:v>
+                  <c:v>0.98791188190356771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2251521564593881</c:v>
+                  <c:v>6.676319599140232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0071525137367896</c:v>
+                  <c:v>6.3867425828853248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.428088733091192</c:v>
+                  <c:v>1.9968574852357319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7484755272807919</c:v>
+                  <c:v>2.4960687654765632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.290246768507</c:v>
+                  <c:v>3.6234738085860001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0474141172832201</c:v>
+                  <c:v>1.3270118718895441</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3861906918552449</c:v>
+                  <c:v>1.7533660861473339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1710333263466781</c:v>
+                  <c:v>3.4015025041736231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36443726650336111</c:v>
+                  <c:v>0.55439087605932513</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.124081764679739</c:v>
+                  <c:v>3.0576577054909899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59719398691624348</c:v>
+                  <c:v>1.118425330955688</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1671082039002534E-2</c:v>
+                  <c:v>5.6937863610800381E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.31132247788559891</c:v>
+                  <c:v>0.48256185837387028</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72738189832003741</c:v>
+                  <c:v>1.452729752978215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.57063254501900573</c:v>
+                  <c:v>0.91645269386337369</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.770491724900605E-2</c:v>
+                  <c:v>0.33823644690833032</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.364257741434352</c:v>
+                  <c:v>3.3717598717644979</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.81877349463286253</c:v>
+                  <c:v>0.99075583711200454</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.85499204235884596</c:v>
+                  <c:v>1.333317611885884</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.050302713834226</c:v>
+                  <c:v>1.8998682414248731</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6189497471674148</c:v>
+                  <c:v>0.79237008708814793</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95513077976145633</c:v>
+                  <c:v>1.2045566443065181</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7671755725190841</c:v>
+                  <c:v>2.616555661274977</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.27618069458479783</c:v>
+                  <c:v>0.63481845651665092</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4291383844225951</c:v>
+                  <c:v>2.8157180268611768</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.14432000800833869</c:v>
+                  <c:v>0.33651269235468939</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.559141830166666</c:v>
+                  <c:v>3.2034857161046748</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4853822448418899</c:v>
+                  <c:v>5.2629470541277179</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1761245364866202</c:v>
+                  <c:v>2.7221268880319771</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.415052163269261</c:v>
+                  <c:v>1.953803862326474</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9510447483858459E-2</c:v>
+                  <c:v>8.7459627584479782E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.7196369091020568</c:v>
+                  <c:v>1.2971871274836111</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26651519490583198</c:v>
+                  <c:v>0.60144140638863652</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.2228526360741241</c:v>
+                  <c:v>2.0365741223381089</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0575424822454991</c:v>
+                  <c:v>2.0178933158591721</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.47</c:v>
+                  <c:v>0.71000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.60399979162279338</c:v>
+                  <c:v>0.85824647066407234</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.1615011635937392E-2</c:v>
+                  <c:v>7.230948707893177E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.317735709714142</c:v>
+                  <c:v>1.460083670650705</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.576068856535652</c:v>
+                  <c:v>1.6858767563636801</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4013452914790001</c:v>
+                  <c:v>2.4386785764919998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8635531579314812E-2</c:v>
+                  <c:v>0.30120679129603839</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1260533749064749</c:v>
+                  <c:v>1.6447455987938839</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6033390665561011</c:v>
+                  <c:v>2.8655115591379952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6598276494352311</c:v>
+                  <c:v>2.4779142379610142</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9369651999822139</c:v>
+                  <c:v>2.9716217776243661</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.98928276999175591</c:v>
+                  <c:v>1.4814814814814821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,28 +2764,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>9.158079890975622E-2</c:v>
+                  <c:v>0.1236377314498045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8906529738563423E-2</c:v>
+                  <c:v>8.8690550095791423E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.1800051800051802E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19452414872878199</c:v>
+                  <c:v>0.30312996991464969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24942103190702389</c:v>
+                  <c:v>0.44849320592239789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18137857899838081</c:v>
+                  <c:v>0.14725167466220521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8613492075724391E-2</c:v>
+                  <c:v>1.219886294889172E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4311085221009885E-2</c:v>
+                  <c:v>0.16817239532799849</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2793,109 +2794,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1006165453079908</c:v>
+                  <c:v>0.1136462006560819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.840446281941651E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3839865856214627E-2</c:v>
+                  <c:v>4.1736227045075118E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.14217431365833E-3</c:v>
+                  <c:v>8.9772701280978404E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.661050562532199E-2</c:v>
+                  <c:v>1.842791525973202E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.145573350697172E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.1534013391579623E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1277674884553531</c:v>
+                  <c:v>0.1970669325106863</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.8613516555848739E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.917121837377992E-2</c:v>
+                  <c:v>5.6303884531931393E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3746447439046822E-2</c:v>
+                  <c:v>0.1029005460709335</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.070570705447044E-2</c:v>
+                  <c:v>7.5389755477345832E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.10909859782896419</c:v>
+                  <c:v>0.16484133360430661</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>7.9054730492248482E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>7.2535962647483465E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2385496183206107</c:v>
+                  <c:v>0.14272121788772599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4.0999505071734478E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1093029474466545</c:v>
+                  <c:v>0.13947057482461619</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.8106669335819502E-2</c:v>
+                  <c:v>6.4097655686146268E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1311265778854812E-2</c:v>
+                  <c:v>0.11881175675046481</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.41319321608243598</c:v>
+                  <c:v>0.9319145041234409</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1035650212260442</c:v>
+                  <c:v>0.1836702684803676</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.5746796069283788E-2</c:v>
+                  <c:v>7.871283337069343E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>2.9153209194826592E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4527492156203862E-2</c:v>
+                  <c:v>0.1085541085862719</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.437156766955291E-2</c:v>
+                  <c:v>5.6364100494638893E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.63717506822313674</c:v>
+                  <c:v>0.4235688166863269</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.351168546401018E-2</c:v>
+                  <c:v>2.8991130542435579E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0659419945607091E-3</c:v>
+                  <c:v>1.8136064200225989E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.9061580633225181E-2</c:v>
+                  <c:v>8.1310200744223779E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.15743546266444E-2</c:v>
+                  <c:v>0.1062347520563235</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -2904,16 +2905,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.28656771713332E-2</c:v>
+                  <c:v>2.9988754099087599E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.64889873990850888</c:v>
+                  <c:v>0.85435674032642339</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1930779626102449</c:v>
+                  <c:v>0.39809976562886867</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.5086213750646634E-3</c:v>
+                  <c:v>1.497102667909596E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3423,28 +3424,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.9334771634271709E-2</c:v>
+                  <c:v>1.704760254170145E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.934391784313805E-2</c:v>
+                  <c:v>2.0317981203168269E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.7700077700077697E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.733123298716688E-2</c:v>
+                  <c:v>5.6127441250593962E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.0234091827270501E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10799042872484341</c:v>
+                  <c:v>5.3751487027216667E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1609455094716311E-2</c:v>
+                  <c:v>5.7934767927913938E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.7788449672971931E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3453,19 +3454,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.601357244703684E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4574583477959041E-3</c:v>
+                  <c:v>7.2852863488526067E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.095996646405366E-2</c:v>
+                  <c:v>2.0868113522537559E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8626876663839442E-3</c:v>
+                  <c:v>5.5751422744516332E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3477,85 +3478,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0148628298304201E-2</c:v>
+                  <c:v>2.081751174629486E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>9.7977576144533604E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.7254795908445118E-2</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.3904061242603446E-3</c:v>
+                  <c:v>2.5023948680747411E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3.8313692315271558E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>3.507182070819642E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5.3949233861810657E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>7.3855447252604923E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5419847328244267E-2</c:v>
+                  <c:v>4.7573739295908662E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0267893814804563E-2</c:v>
+                  <c:v>5.8838991064267293E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.6024413921316431E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3115627937994078E-3</c:v>
+                  <c:v>3.1151785912168798E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1085304413334256</c:v>
+                  <c:v>0.27051933262762567</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>3.476662151503938E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.2354851837528092E-3</c:v>
+                  <c:v>9.8579553719543543E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3758176187600789E-3</c:v>
+                  <c:v>2.014566593337731E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.9836539427327917E-2</c:v>
+                  <c:v>4.2717787113724287E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>6.6809656974967536E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0659419945607091E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1624632252857359E-2</c:v>
+                  <c:v>1.1553243985427239E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.3334863481128451E-3</c:v>
+                  <c:v>1.9207120561895458E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3564,13 +3565,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>4.7671407909534724E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3605597867783031E-2</c:v>
+                  <c:v>1.8297630734437249E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1287186417401632</c:v>
+                  <c:v>8.7854196364271914E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -4078,160 +4079,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>21.614297408868381</c:v>
+                  <c:v>27.431678500494879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.46028683162675</c:v>
+                  <c:v>26.690981950630341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.033285094066578</c:v>
+                  <c:v>32.858176555716369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.569771984676549</c:v>
+                  <c:v>24.962728717960669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.4444434314848</c:v>
+                  <c:v>24.871909236557769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.279022561638889</c:v>
+                  <c:v>30.7218239178974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.806340044033311</c:v>
+                  <c:v>21.452483736628309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.3183805625135</c:v>
+                  <c:v>38.879773104536973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.6508574614155</c:v>
+                  <c:v>22.45095322509879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3887024375214505</c:v>
+                  <c:v>16.317742231526001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.74269438145862</c:v>
+                  <c:v>19.48694493942088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.09171715874923</c:v>
+                  <c:v>24.34205679484575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.68790086277297</c:v>
+                  <c:v>38.12889627761686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.947638405802641</c:v>
+                  <c:v>12.97090070991433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.011923531931352</c:v>
+                  <c:v>27.099827042761099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.00494969098116</c:v>
+                  <c:v>25.03928011844641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2405385407270266</c:v>
+                  <c:v>15.35413381257605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.262930223963021</c:v>
+                  <c:v>21.100935737302471</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.385687978744791</c:v>
+                  <c:v>26.58165133808555</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.511470696923801</c:v>
+                  <c:v>27.30244878000067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.260805678101772</c:v>
+                  <c:v>32.930517821013858</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.59671407587593</c:v>
+                  <c:v>26.582419429254958</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.84705284386953</c:v>
+                  <c:v>34.371435611880138</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.042369951366791</c:v>
+                  <c:v>32.745449716767418</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.388587518817371</c:v>
+                  <c:v>35.412092374452698</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.24974411192404</c:v>
+                  <c:v>21.697966627861021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.528272122891789</c:v>
+                  <c:v>20.453556265641058</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.741061950867561</c:v>
+                  <c:v>29.927242866450431</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.60075221493738</c:v>
+                  <c:v>23.11774951111828</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.65118272504111</c:v>
+                  <c:v>26.777514294592461</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.138691262536419</c:v>
+                  <c:v>35.672320951728992</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.28425858534125</c:v>
+                  <c:v>25.19338748879926</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>31.97678845356338</c:v>
+                  <c:v>43.64858675598817</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24.101461091932531</c:v>
+                  <c:v>29.989356613845381</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.52511110929413</c:v>
+                  <c:v>29.72633157620945</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.77640710357168</c:v>
+                  <c:v>15.441059976385009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.065458750084861</c:v>
+                  <c:v>30.89211366874823</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.0286943921170337</c:v>
+                  <c:v>18.30281325743405</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.41881685812686</c:v>
+                  <c:v>34.917355690985978</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.46991636606981</c:v>
+                  <c:v>25.27306540960819</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.26</c:v>
+                  <c:v>27.64</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.24890873923265</c:v>
+                  <c:v>30.138615026489241</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.16662358141379</c:v>
+                  <c:v>12.24194905870432</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.1845023533978</c:v>
+                  <c:v>25.528512707110892</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.18721407779012</c:v>
+                  <c:v>24.871071993161209</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.0654387572948</c:v>
+                  <c:v>27.524292715360101</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.240930462054319</c:v>
+                  <c:v>37.980858544707942</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16.050331111840752</c:v>
+                  <c:v>23.710084587558541</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22.917618675872571</c:v>
+                  <c:v>31.63878219792668</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14.093317660964161</c:v>
+                  <c:v>23.526240906565491</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23.850780575588139</c:v>
+                  <c:v>31.538118215958249</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.570995285321981</c:v>
+                  <c:v>27.58369350654171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,160 +4733,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>40.901376735879843</c:v>
+                  <c:v>46.859211075368592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.632789862421671</c:v>
+                  <c:v>39.914379093456589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.939666238767643</c:v>
+                  <c:v>51.347881899871631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.287941565369913</c:v>
+                  <c:v>47.66162611096042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.137806114184141</c:v>
+                  <c:v>32.980935086022818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.562117653882858</c:v>
+                  <c:v>58.945948193644668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.804896783428667</c:v>
+                  <c:v>46.518019070944931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.926459102068733</c:v>
+                  <c:v>47.014206555829951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.412531451561001</c:v>
+                  <c:v>52.403440115203182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.450680014015298</c:v>
+                  <c:v>55.590437271969591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.549315250262701</c:v>
+                  <c:v>36.457742702728268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.478490678401172</c:v>
+                  <c:v>45.954924774524478</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.543706967333122</c:v>
+                  <c:v>49.62702610971008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.564738772183347</c:v>
+                  <c:v>50.418799389060133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.191558917842833</c:v>
+                  <c:v>57.492149923580293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.778607444578817</c:v>
+                  <c:v>45.134041540234598</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.40605762500973</c:v>
+                  <c:v>49.332795464113687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.444334023174932</c:v>
+                  <c:v>42.554352972286701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.1843529323193</c:v>
+                  <c:v>40.804569555864049</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.248246939549201</c:v>
+                  <c:v>36.145427032788191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.395147227785287</c:v>
+                  <c:v>55.474680627584043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45.437498306290308</c:v>
+                  <c:v>56.633893432823818</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.655185535666583</c:v>
+                  <c:v>39.206082951389568</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.356983050695547</c:v>
+                  <c:v>52.04391353025764</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.608633350352321</c:v>
+                  <c:v>53.47333353116089</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.59207222444341</c:v>
+                  <c:v>27.370200612341499</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38.383779467839069</c:v>
+                  <c:v>44.426412960296723</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.535331131794109</c:v>
+                  <c:v>48.737806376476442</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.883201576733448</c:v>
+                  <c:v>40.651391572376333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>53.769546922212143</c:v>
+                  <c:v>62.591569094776887</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.06205263011595</c:v>
+                  <c:v>35.852559683057791</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.975228643215928</c:v>
+                  <c:v>52.739503276729337</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.19647511304283</c:v>
+                  <c:v>54.43440322971324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.817690285323003</c:v>
+                  <c:v>46.361642229806023</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.602155005652101</c:v>
+                  <c:v>46.17570481951379</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.95144427483725</c:v>
+                  <c:v>18.770760618940951</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.485802304809432</c:v>
+                  <c:v>49.414986107715769</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.587140936771419</c:v>
+                  <c:v>32.586558083150209</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.244978549668851</c:v>
+                  <c:v>42.60908597161643</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.386779776437002</c:v>
+                  <c:v>44.924040801654087</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51.98</c:v>
+                  <c:v>53.080000000000013</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.865224529718027</c:v>
+                  <c:v>44.787090939050877</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3135602442319829</c:v>
+                  <c:v>4.3921749558150296</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>34.84889276375759</c:v>
+                  <c:v>38.042319185410072</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.711827986480657</c:v>
+                  <c:v>41.431031495994709</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.805084528554502</c:v>
+                  <c:v>41.1331702055802</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.242464677888801</c:v>
+                  <c:v>33.048406142331743</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44.250982817587193</c:v>
+                  <c:v>52.462918124666551</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>33.656595255380218</c:v>
+                  <c:v>38.89751697518993</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>28.755552050737279</c:v>
+                  <c:v>35.095456431323832</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>48.172672195049117</c:v>
+                  <c:v>59.309210976375333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.571294038316488</c:v>
+                  <c:v>39.819091861286473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9441,22 +9442,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="1" customWidth="1"/>
-    <col min="8" max="8" width="54" style="1" customWidth="1"/>
-    <col min="9" max="9" width="67.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43" style="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9464,62 +9465,62 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18">
-        <v>21.614297408868381</v>
+        <v>27.431678500494879</v>
       </c>
       <c r="C2" s="18">
-        <v>3.2143161955666728</v>
+        <v>-4.2845215365529441</v>
       </c>
       <c r="D2" s="18">
-        <v>40.901376735879843</v>
+        <v>46.859211075368592</v>
       </c>
       <c r="E2" s="18">
-        <v>0.92281428427964052</v>
+        <v>1.2421453389364829</v>
       </c>
       <c r="F2" s="18">
-        <v>97.931854799744983</v>
+        <v>97.394899568044224</v>
       </c>
       <c r="G2" s="18">
-        <v>1.9592011627642389</v>
+        <v>2.4683158328433992</v>
       </c>
       <c r="H2" s="18">
-        <v>9.158079890975622E-2</v>
+        <v>0.1236377314498045</v>
       </c>
       <c r="I2" s="18">
-        <v>1.9334771634271709E-2</v>
+        <v>1.704760254170145E-2</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9531,28 +9532,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>18.46028683162675</v>
+        <v>26.690981950630341</v>
       </c>
       <c r="C3" s="19">
-        <v>1.168877827720793</v>
+        <v>-2.765038792967947</v>
       </c>
       <c r="D3" s="19">
-        <v>31.632789862421671</v>
+        <v>39.914379093456589</v>
       </c>
       <c r="E3" s="19">
-        <v>-1.015187712150198</v>
+        <v>0.62718363927491638</v>
       </c>
       <c r="F3" s="19">
-        <v>99.198215648817481</v>
+        <v>99.032712829565043</v>
       </c>
       <c r="G3" s="19">
-        <v>0.72353390360055159</v>
+        <v>0.86882911049710554</v>
       </c>
       <c r="H3" s="19">
-        <v>4.8906529738563423E-2</v>
+        <v>8.8690550095791423E-2</v>
       </c>
       <c r="I3" s="19">
-        <v>2.934391784313805E-2</v>
+        <v>2.0317981203168269E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9564,28 +9565,28 @@
         <v>14</v>
       </c>
       <c r="B4" s="19">
-        <v>37.033285094066578</v>
+        <v>32.858176555716369</v>
       </c>
       <c r="C4" s="19">
-        <v>8.3657587548638048</v>
+        <v>-6.0890468761987453</v>
       </c>
       <c r="D4" s="19">
-        <v>42.939666238767643</v>
+        <v>51.347881899871631</v>
       </c>
       <c r="E4" s="19">
-        <v>2.6267281105990752</v>
+        <v>1.9896193771626209</v>
       </c>
       <c r="F4" s="19">
-        <v>99.663299663299668</v>
+        <v>99.378399378399379</v>
       </c>
       <c r="G4" s="19">
-        <v>0.33670033670033672</v>
+        <v>0.49210049210049212</v>
       </c>
       <c r="H4" s="19">
-        <v>0</v>
+        <v>5.1800051800051802E-2</v>
       </c>
       <c r="I4" s="19">
-        <v>0</v>
+        <v>7.7700077700077697E-2</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -9597,28 +9598,28 @@
         <v>15</v>
       </c>
       <c r="B5" s="19">
-        <v>22.569771984676549</v>
+        <v>24.962728717960669</v>
       </c>
       <c r="C5" s="19">
-        <v>6.6147837572988486</v>
+        <v>-7.0445285229300172</v>
       </c>
       <c r="D5" s="19">
-        <v>41.287941565369913</v>
+        <v>47.66162611096042</v>
       </c>
       <c r="E5" s="19">
-        <v>0.69078828565639683</v>
+        <v>1.1365241942435349</v>
       </c>
       <c r="F5" s="19">
-        <v>97.931010492065496</v>
+        <v>97.842183938752839</v>
       </c>
       <c r="G5" s="19">
-        <v>1.847134126218487</v>
+        <v>1.798558650081854</v>
       </c>
       <c r="H5" s="19">
-        <v>0.19452414872878199</v>
+        <v>0.30312996991464969</v>
       </c>
       <c r="I5" s="19">
-        <v>2.733123298716688E-2</v>
+        <v>5.6127441250593962E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9630,28 +9631,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="19">
-        <v>18.4444434314848</v>
+        <v>24.871909236557769</v>
       </c>
       <c r="C6" s="19">
-        <v>1.5541712359972919</v>
+        <v>-4.1930887062882789</v>
       </c>
       <c r="D6" s="19">
-        <v>29.137806114184141</v>
+        <v>32.980935086022818</v>
       </c>
       <c r="E6" s="19">
-        <v>2.0099872935582632</v>
+        <v>0.69774672945365113</v>
       </c>
       <c r="F6" s="19">
-        <v>98.71351447348809</v>
+        <v>98.543360820346223</v>
       </c>
       <c r="G6" s="19">
-        <v>1.037064494604339</v>
+        <v>0.98791188190356771</v>
       </c>
       <c r="H6" s="19">
-        <v>0.24942103190702389</v>
+        <v>0.44849320592239789</v>
       </c>
       <c r="I6" s="19">
-        <v>0</v>
+        <v>2.0234091827270501E-2</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -9663,28 +9664,28 @@
         <v>17</v>
       </c>
       <c r="B7" s="19">
-        <v>30.279022561638889</v>
+        <v>30.7218239178974</v>
       </c>
       <c r="C7" s="19">
-        <v>9.2167095796699385</v>
+        <v>-5.4635388979257451</v>
       </c>
       <c r="D7" s="19">
-        <v>56.562117653882858</v>
+        <v>58.945948193644668</v>
       </c>
       <c r="E7" s="19">
-        <v>1.2837695094631381</v>
+        <v>0.582215169690941</v>
       </c>
       <c r="F7" s="19">
-        <v>93.485478835816963</v>
+        <v>93.122677239169519</v>
       </c>
       <c r="G7" s="19">
-        <v>6.2251521564593881</v>
+        <v>6.676319599140232</v>
       </c>
       <c r="H7" s="19">
-        <v>0.18137857899838081</v>
+        <v>0.14725167466220521</v>
       </c>
       <c r="I7" s="19">
-        <v>0.10799042872484341</v>
+        <v>5.3751487027216667E-2</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9696,28 +9697,28 @@
         <v>18</v>
       </c>
       <c r="B8" s="19">
-        <v>11.806340044033311</v>
+        <v>21.452483736628309</v>
       </c>
       <c r="C8" s="19">
-        <v>0.52703190260965549</v>
+        <v>-5.0219891877632357</v>
       </c>
       <c r="D8" s="19">
-        <v>37.804896783428667</v>
+        <v>46.518019070944931</v>
       </c>
       <c r="E8" s="19">
-        <v>0.25527503067450519</v>
+        <v>1.83932540605186</v>
       </c>
       <c r="F8" s="19">
-        <v>95.962624539090911</v>
+        <v>93.595265077372076</v>
       </c>
       <c r="G8" s="19">
-        <v>4.0071525137367896</v>
+        <v>6.3867425828853248</v>
       </c>
       <c r="H8" s="19">
-        <v>1.8613492075724391E-2</v>
+        <v>1.219886294889172E-2</v>
       </c>
       <c r="I8" s="19">
-        <v>1.1609455094716311E-2</v>
+        <v>5.7934767927913938E-3</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -9729,28 +9730,28 @@
         <v>19</v>
       </c>
       <c r="B9" s="19">
-        <v>29.3183805625135</v>
+        <v>38.879773104536973</v>
       </c>
       <c r="C9" s="19">
-        <v>2.9880744854031538</v>
+        <v>-4.3536330894066468</v>
       </c>
       <c r="D9" s="19">
-        <v>39.926459102068733</v>
+        <v>47.014206555829951</v>
       </c>
       <c r="E9" s="19">
-        <v>-0.16189355861615609</v>
+        <v>3.3230504906479581</v>
       </c>
       <c r="F9" s="19">
-        <v>98.487600181687185</v>
+        <v>97.828980810010478</v>
       </c>
       <c r="G9" s="19">
-        <v>1.428088733091192</v>
+        <v>1.9968574852357319</v>
       </c>
       <c r="H9" s="19">
-        <v>8.4311085221009885E-2</v>
+        <v>0.16817239532799849</v>
       </c>
       <c r="I9" s="19">
-        <v>0</v>
+        <v>2.7788449672971931E-2</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -9762,22 +9763,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="19">
-        <v>13.6508574614155</v>
+        <v>22.45095322509879</v>
       </c>
       <c r="C10" s="19">
-        <v>1.586748806190821</v>
+        <v>-3.014811613219246</v>
       </c>
       <c r="D10" s="19">
-        <v>44.412531451561001</v>
+        <v>52.403440115203182</v>
       </c>
       <c r="E10" s="19">
-        <v>-0.49754189304621449</v>
+        <v>2.6152617074121061</v>
       </c>
       <c r="F10" s="19">
-        <v>98.25152447271833</v>
+        <v>97.503931234522568</v>
       </c>
       <c r="G10" s="19">
-        <v>1.7484755272807919</v>
+        <v>2.4960687654765632</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -9795,22 +9796,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="19">
-        <v>9.3887024375214505</v>
+        <v>16.317742231526001</v>
       </c>
       <c r="C11" s="19">
-        <v>1.9006000000000001</v>
+        <v>-0.61680000000000001</v>
       </c>
       <c r="D11" s="19">
-        <v>44.450680014015298</v>
+        <v>55.590437271969591</v>
       </c>
       <c r="E11" s="19">
-        <v>3.3121</v>
+        <v>1.3977999999999999</v>
       </c>
       <c r="F11" s="19">
-        <v>96.709753231492002</v>
+        <v>96.376526191413006</v>
       </c>
       <c r="G11" s="19">
-        <v>3.290246768507</v>
+        <v>3.6234738085860001</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -9828,28 +9829,28 @@
         <v>22</v>
       </c>
       <c r="B12" s="19">
-        <v>15.74269438145862</v>
+        <v>19.48694493942088</v>
       </c>
       <c r="C12" s="19">
-        <v>3.266985346840737</v>
+        <v>-6.4565241255178778</v>
       </c>
       <c r="D12" s="19">
-        <v>32.549315250262701</v>
+        <v>36.457742702728268</v>
       </c>
       <c r="E12" s="19">
-        <v>1.4901538952282209</v>
+        <v>-1.1519003005438559</v>
       </c>
       <c r="F12" s="19">
-        <v>98.851969337408192</v>
+        <v>98.559341927453772</v>
       </c>
       <c r="G12" s="19">
-        <v>1.0474141172832201</v>
+        <v>1.3270118718895441</v>
       </c>
       <c r="H12" s="19">
-        <v>0.1006165453079908</v>
+        <v>0.1136462006560819</v>
       </c>
       <c r="I12" s="19">
-        <v>1.601357244703684E-3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9861,28 +9862,28 @@
         <v>23</v>
       </c>
       <c r="B13" s="19">
-        <v>18.09171715874923</v>
+        <v>24.34205679484575</v>
       </c>
       <c r="C13" s="19">
-        <v>1.7447169658958961</v>
+        <v>-2.2321939233514798</v>
       </c>
       <c r="D13" s="19">
-        <v>41.478490678401172</v>
+        <v>45.954924774524478</v>
       </c>
       <c r="E13" s="19">
-        <v>1.508416182388574</v>
+        <v>1.8836113446857661</v>
       </c>
       <c r="F13" s="19">
-        <v>98.610351849796174</v>
+        <v>98.224778054803778</v>
       </c>
       <c r="G13" s="19">
-        <v>1.3861906918552449</v>
+        <v>1.7533660861473339</v>
       </c>
       <c r="H13" s="19">
-        <v>0</v>
+        <v>1.840446281941651E-2</v>
       </c>
       <c r="I13" s="19">
-        <v>3.4574583477959041E-3</v>
+        <v>7.2852863488526067E-3</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -9894,28 +9895,28 @@
         <v>24</v>
       </c>
       <c r="B14" s="19">
-        <v>45.68790086277297</v>
+        <v>38.12889627761686</v>
       </c>
       <c r="C14" s="19">
-        <v>14.05405455899484</v>
+        <v>-6.1848833485505184</v>
       </c>
       <c r="D14" s="19">
-        <v>43.543706967333122</v>
+        <v>49.62702610971008</v>
       </c>
       <c r="E14" s="19">
-        <v>3.582053153061127</v>
+        <v>0.60732200117057378</v>
       </c>
       <c r="F14" s="19">
-        <v>95.724166841333059</v>
+        <v>96.535893155258762</v>
       </c>
       <c r="G14" s="19">
-        <v>4.1710333263466781</v>
+        <v>3.4015025041736231</v>
       </c>
       <c r="H14" s="19">
-        <v>8.3839865856214627E-2</v>
+        <v>4.1736227045075118E-2</v>
       </c>
       <c r="I14" s="19">
-        <v>2.095996646405366E-2</v>
+        <v>2.0868113522537559E-2</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -9927,22 +9928,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="19">
-        <v>10.947638405802641</v>
+        <v>12.97090070991433</v>
       </c>
       <c r="C15" s="19">
-        <v>6.7933058584066446</v>
+        <v>-4.9206935329480972</v>
       </c>
       <c r="D15" s="19">
-        <v>46.564738772183347</v>
+        <v>50.418799389060133</v>
       </c>
       <c r="E15" s="19">
-        <v>3.8728389562737928</v>
+        <v>-0.82194560848505827</v>
       </c>
       <c r="F15" s="19">
-        <v>99.635562733496641</v>
+        <v>99.445609123940685</v>
       </c>
       <c r="G15" s="19">
-        <v>0.36443726650336111</v>
+        <v>0.55439087605932513</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -9960,28 +9961,28 @@
         <v>26</v>
       </c>
       <c r="B16" s="19">
-        <v>17.011923531931352</v>
+        <v>27.099827042761099</v>
       </c>
       <c r="C16" s="19">
-        <v>2.3213632338147749</v>
+        <v>-3.3708561174512428</v>
       </c>
       <c r="D16" s="19">
-        <v>49.191558917842833</v>
+        <v>57.492149923580293</v>
       </c>
       <c r="E16" s="19">
-        <v>-0.20146394991354569</v>
+        <v>2.5873365199174172</v>
       </c>
       <c r="F16" s="19">
-        <v>97.869913373339358</v>
+        <v>96.927789882104761</v>
       </c>
       <c r="G16" s="19">
-        <v>2.124081764679739</v>
+        <v>3.0576577054909899</v>
       </c>
       <c r="H16" s="19">
-        <v>3.14217431365833E-3</v>
+        <v>8.9772701280978404E-3</v>
       </c>
       <c r="I16" s="19">
-        <v>2.8626876663839442E-3</v>
+        <v>5.5751422744516332E-3</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9993,25 +9994,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>16.00494969098116</v>
+        <v>25.03928011844641</v>
       </c>
       <c r="C17" s="19">
-        <v>2.695969281837693</v>
+        <v>-2.7592171525508302</v>
       </c>
       <c r="D17" s="19">
-        <v>36.778607444578817</v>
+        <v>45.134041540234598</v>
       </c>
       <c r="E17" s="19">
-        <v>1.702513111950543</v>
+        <v>2.3736216779336439</v>
       </c>
       <c r="F17" s="19">
-        <v>99.366195507456965</v>
+        <v>98.863146753783099</v>
       </c>
       <c r="G17" s="19">
-        <v>0.59719398691624348</v>
+        <v>1.118425330955688</v>
       </c>
       <c r="H17" s="19">
-        <v>3.661050562532199E-2</v>
+        <v>1.842791525973202E-2</v>
       </c>
       <c r="I17" s="19">
         <v>0</v>
@@ -10026,22 +10027,22 @@
         <v>28</v>
       </c>
       <c r="B18" s="19">
-        <v>5.2405385407270266</v>
+        <v>15.35413381257605</v>
       </c>
       <c r="C18" s="19">
-        <v>2.3087937755950789</v>
+        <v>-4.0440350026298013</v>
       </c>
       <c r="D18" s="19">
-        <v>37.40605762500973</v>
+        <v>49.332795464113687</v>
       </c>
       <c r="E18" s="19">
-        <v>0.86549459415996555</v>
+        <v>3.7187069105219011</v>
       </c>
       <c r="F18" s="19">
-        <v>99.928328917960997</v>
+        <v>99.943062136389187</v>
       </c>
       <c r="G18" s="19">
-        <v>7.1671082039002534E-2</v>
+        <v>5.6937863610800381E-2</v>
       </c>
       <c r="H18" s="19">
         <v>0</v>
@@ -10059,25 +10060,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="19">
-        <v>18.262930223963021</v>
+        <v>21.100935737302471</v>
       </c>
       <c r="C19" s="19">
-        <v>2.997126484648772</v>
+        <v>-4.6490241415293987</v>
       </c>
       <c r="D19" s="19">
-        <v>38.444334023174932</v>
+        <v>42.554352972286701</v>
       </c>
       <c r="E19" s="19">
-        <v>0.69405623428220953</v>
+        <v>-0.546653360838397</v>
       </c>
       <c r="F19" s="19">
-        <v>99.688677522114403</v>
+        <v>99.455982408119155</v>
       </c>
       <c r="G19" s="19">
-        <v>0.31132247788559891</v>
+        <v>0.48256185837387028</v>
       </c>
       <c r="H19" s="19">
-        <v>0</v>
+        <v>6.145573350697172E-2</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -10092,28 +10093,28 @@
         <v>30</v>
       </c>
       <c r="B20" s="19">
-        <v>21.385687978744791</v>
+        <v>26.58165133808555</v>
       </c>
       <c r="C20" s="19">
-        <v>1.38038431469767</v>
+        <v>-3.2245057662020522</v>
       </c>
       <c r="D20" s="19">
-        <v>35.1843529323193</v>
+        <v>40.804569555864049</v>
       </c>
       <c r="E20" s="19">
-        <v>2.8984614495585399</v>
+        <v>0.90827387860551523</v>
       </c>
       <c r="F20" s="19">
-        <v>99.262469473381572</v>
+        <v>98.49491872188382</v>
       </c>
       <c r="G20" s="19">
-        <v>0.72738189832003741</v>
+        <v>1.452729752978215</v>
       </c>
       <c r="H20" s="19">
-        <v>0</v>
+        <v>3.1534013391579623E-2</v>
       </c>
       <c r="I20" s="19">
-        <v>1.0148628298304201E-2</v>
+        <v>2.081751174629486E-2</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10125,28 +10126,28 @@
         <v>31</v>
       </c>
       <c r="B21" s="19">
-        <v>20.511470696923801</v>
+        <v>27.30244878000067</v>
       </c>
       <c r="C21" s="19">
-        <v>2.068855973907302</v>
+        <v>-2.560533897303245</v>
       </c>
       <c r="D21" s="19">
-        <v>28.248246939549201</v>
+        <v>36.145427032788191</v>
       </c>
       <c r="E21" s="19">
-        <v>-2.891060255200856</v>
+        <v>1.033571628576309</v>
       </c>
       <c r="F21" s="19">
-        <v>99.301599966525487</v>
+        <v>98.876682616011337</v>
       </c>
       <c r="G21" s="19">
-        <v>0.57063254501900573</v>
+        <v>0.91645269386337369</v>
       </c>
       <c r="H21" s="19">
-        <v>0.1277674884553531</v>
+        <v>0.1970669325106863</v>
       </c>
       <c r="I21" s="19">
-        <v>0</v>
+        <v>9.7977576144533604E-3</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10158,28 +10159,28 @@
         <v>32</v>
       </c>
       <c r="B22" s="19">
-        <v>29.260805678101772</v>
+        <v>32.930517821013858</v>
       </c>
       <c r="C22" s="19">
-        <v>4.6307011327537104</v>
+        <v>-0.65444238230116969</v>
       </c>
       <c r="D22" s="19">
-        <v>46.395147227785287</v>
+        <v>55.474680627584043</v>
       </c>
       <c r="E22" s="19">
-        <v>-0.50615399564622177</v>
+        <v>1.487862757232008</v>
       </c>
       <c r="F22" s="19">
-        <v>99.885040286842482</v>
+        <v>99.643150036535744</v>
       </c>
       <c r="G22" s="19">
-        <v>7.770491724900605E-2</v>
+        <v>0.33823644690833032</v>
       </c>
       <c r="H22" s="19">
+        <v>1.8613516555848739E-2</v>
+      </c>
+      <c r="I22" s="19">
         <v>0</v>
-      </c>
-      <c r="I22" s="19">
-        <v>3.7254795908445118E-2</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -10191,28 +10192,28 @@
         <v>33</v>
       </c>
       <c r="B23" s="19">
-        <v>16.59671407587593</v>
+        <v>26.582419429254958</v>
       </c>
       <c r="C23" s="19">
-        <v>1.5156305008001429</v>
+        <v>-3.4714813237233089</v>
       </c>
       <c r="D23" s="19">
-        <v>45.437498306290308</v>
+        <v>56.633893432823818</v>
       </c>
       <c r="E23" s="19">
-        <v>0.87814890728931794</v>
+        <v>1.790511180875888</v>
       </c>
       <c r="F23" s="19">
-        <v>97.616571040190863</v>
+        <v>96.571936243701558</v>
       </c>
       <c r="G23" s="19">
-        <v>2.364257741434352</v>
+        <v>3.3717598717644979</v>
       </c>
       <c r="H23" s="19">
-        <v>1.917121837377992E-2</v>
+        <v>5.6303884531931393E-2</v>
       </c>
       <c r="I23" s="19">
-        <v>6.3904061242603446E-3</v>
+        <v>2.5023948680747411E-2</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10224,28 +10225,28 @@
         <v>34</v>
       </c>
       <c r="B24" s="19">
-        <v>24.84705284386953</v>
+        <v>34.371435611880138</v>
       </c>
       <c r="C24" s="19">
-        <v>1.6848287087665501</v>
+        <v>-5.0849850293295713</v>
       </c>
       <c r="D24" s="19">
-        <v>34.655185535666583</v>
+        <v>39.206082951389568</v>
       </c>
       <c r="E24" s="19">
-        <v>2.2597267592479361E-2</v>
+        <v>2.473997200694448</v>
       </c>
       <c r="F24" s="19">
-        <v>99.127480057927215</v>
+        <v>98.906343616816173</v>
       </c>
       <c r="G24" s="19">
-        <v>0.81877349463286253</v>
+        <v>0.99075583711200454</v>
       </c>
       <c r="H24" s="19">
-        <v>5.3746447439046822E-2</v>
+        <v>0.1029005460709335</v>
       </c>
       <c r="I24" s="19">
-        <v>0</v>
+        <v>3.8313692315271558E-3</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -10257,28 +10258,28 @@
         <v>35</v>
       </c>
       <c r="B25" s="19">
-        <v>24.042369951366791</v>
+        <v>32.745449716767418</v>
       </c>
       <c r="C25" s="19">
-        <v>3.4091230331631999</v>
+        <v>-3.6021304846946638</v>
       </c>
       <c r="D25" s="19">
-        <v>43.356983050695547</v>
+        <v>52.04391353025764</v>
       </c>
       <c r="E25" s="19">
-        <v>2.0665664851022192</v>
+        <v>3.003873403628889</v>
       </c>
       <c r="F25" s="19">
-        <v>99.134302250585989</v>
+        <v>98.587785450564581</v>
       </c>
       <c r="G25" s="19">
-        <v>0.85499204235884596</v>
+        <v>1.333317611885884</v>
       </c>
       <c r="H25" s="19">
-        <v>1.070570705447044E-2</v>
+        <v>7.5389755477345832E-2</v>
       </c>
       <c r="I25" s="19">
-        <v>0</v>
+        <v>3.507182070819642E-3</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10290,28 +10291,28 @@
         <v>36</v>
       </c>
       <c r="B26" s="19">
-        <v>25.388587518817371</v>
+        <v>35.412092374452698</v>
       </c>
       <c r="C26" s="19">
-        <v>2.673540964013482</v>
+        <v>-4.5352234503791724</v>
       </c>
       <c r="D26" s="19">
-        <v>42.608633350352321</v>
+        <v>53.47333353116089</v>
       </c>
       <c r="E26" s="19">
-        <v>0.25807166568172252</v>
+        <v>2.430369617776527</v>
       </c>
       <c r="F26" s="19">
-        <v>98.840598688335433</v>
+        <v>97.929895501583275</v>
       </c>
       <c r="G26" s="19">
-        <v>1.050302713834226</v>
+        <v>1.8998682414248731</v>
       </c>
       <c r="H26" s="19">
-        <v>0.10909859782896419</v>
+        <v>0.16484133360430661</v>
       </c>
       <c r="I26" s="19">
-        <v>0</v>
+        <v>5.3949233861810657E-3</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -10323,25 +10324,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="19">
-        <v>15.24974411192404</v>
+        <v>21.697966627861021</v>
       </c>
       <c r="C27" s="19">
-        <v>1.5137696854396541</v>
+        <v>-2.030617873869653</v>
       </c>
       <c r="D27" s="19">
-        <v>23.59207222444341</v>
+        <v>27.370200612341499</v>
       </c>
       <c r="E27" s="19">
-        <v>-1.4818984814746621</v>
+        <v>-0.94187248012826963</v>
       </c>
       <c r="F27" s="19">
-        <v>99.381050252832097</v>
+        <v>99.128575182418629</v>
       </c>
       <c r="G27" s="19">
-        <v>0.6189497471674148</v>
+        <v>0.79237008708814793</v>
       </c>
       <c r="H27" s="19">
-        <v>0</v>
+        <v>7.9054730492248482E-2</v>
       </c>
       <c r="I27" s="19">
         <v>0</v>
@@ -10356,28 +10357,28 @@
         <v>38</v>
       </c>
       <c r="B28" s="19">
-        <v>16.528272122891789</v>
+        <v>20.453556265641058</v>
       </c>
       <c r="C28" s="19">
-        <v>3.3730613436946388</v>
+        <v>-3.7108593541956258</v>
       </c>
       <c r="D28" s="19">
-        <v>38.383779467839069</v>
+        <v>44.426412960296723</v>
       </c>
       <c r="E28" s="19">
-        <v>1.786882381914122</v>
+        <v>0.91253299022561696</v>
       </c>
       <c r="F28" s="19">
-        <v>99.044869220238454</v>
+        <v>98.715521848320662</v>
       </c>
       <c r="G28" s="19">
-        <v>0.95513077976145633</v>
+        <v>1.2045566443065181</v>
       </c>
       <c r="H28" s="19">
-        <v>0</v>
+        <v>7.2535962647483465E-2</v>
       </c>
       <c r="I28" s="19">
-        <v>0</v>
+        <v>7.3855447252604923E-3</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10389,28 +10390,28 @@
         <v>39</v>
       </c>
       <c r="B29" s="19">
-        <v>26.741061950867561</v>
+        <v>29.927242866450431</v>
       </c>
       <c r="C29" s="19">
-        <v>4.1604965698887284</v>
+        <v>-4.5239833053391516</v>
       </c>
       <c r="D29" s="19">
-        <v>42.535331131794109</v>
+        <v>48.737806376476442</v>
       </c>
       <c r="E29" s="19">
-        <v>4.2475450644631874</v>
+        <v>-1.387663915182868</v>
       </c>
       <c r="F29" s="19">
-        <v>96.898854961832058</v>
+        <v>97.193149381541389</v>
       </c>
       <c r="G29" s="19">
-        <v>2.7671755725190841</v>
+        <v>2.616555661274977</v>
       </c>
       <c r="H29" s="19">
-        <v>0.2385496183206107</v>
+        <v>0.14272121788772599</v>
       </c>
       <c r="I29" s="19">
-        <v>9.5419847328244267E-2</v>
+        <v>4.7573739295908662E-2</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -10422,25 +10423,25 @@
         <v>40</v>
       </c>
       <c r="B30" s="19">
-        <v>18.60075221493738</v>
+        <v>23.11774951111828</v>
       </c>
       <c r="C30" s="19">
-        <v>-2.032743661815557</v>
+        <v>-3.1658592850035712</v>
       </c>
       <c r="D30" s="19">
-        <v>30.883201576733448</v>
+        <v>40.651391572376333</v>
       </c>
       <c r="E30" s="19">
-        <v>-6.1240297268672057</v>
+        <v>0.44647638552472019</v>
       </c>
       <c r="F30" s="19">
-        <v>99.723819305415191</v>
+        <v>99.324182038411635</v>
       </c>
       <c r="G30" s="19">
-        <v>0.27618069458479783</v>
+        <v>0.63481845651665092</v>
       </c>
       <c r="H30" s="19">
-        <v>0</v>
+        <v>4.0999505071734478E-2</v>
       </c>
       <c r="I30" s="19">
         <v>0</v>
@@ -10455,28 +10456,28 @@
         <v>41</v>
       </c>
       <c r="B31" s="19">
-        <v>30.65118272504111</v>
+        <v>26.777514294592461</v>
       </c>
       <c r="C31" s="19">
-        <v>9.7816480882359524</v>
+        <v>-5.8832668766941332</v>
       </c>
       <c r="D31" s="19">
-        <v>53.769546922212143</v>
+        <v>62.591569094776887</v>
       </c>
       <c r="E31" s="19">
-        <v>-1.0583649404989131</v>
+        <v>2.480969014786035</v>
       </c>
       <c r="F31" s="19">
-        <v>97.421290774315963</v>
+        <v>96.985972407249946</v>
       </c>
       <c r="G31" s="19">
-        <v>2.4291383844225951</v>
+        <v>2.8157180268611768</v>
       </c>
       <c r="H31" s="19">
-        <v>0.1093029474466545</v>
+        <v>0.13947057482461619</v>
       </c>
       <c r="I31" s="19">
-        <v>4.0267893814804563E-2</v>
+        <v>5.8838991064267293E-2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10488,28 +10489,28 @@
         <v>42</v>
       </c>
       <c r="B32" s="19">
-        <v>25.138691262536419</v>
+        <v>35.672320951728992</v>
       </c>
       <c r="C32" s="19">
-        <v>1.9573538381351261</v>
+        <v>-5.4046829129488918</v>
       </c>
       <c r="D32" s="19">
-        <v>31.06205263011595</v>
+        <v>35.852559683057791</v>
       </c>
       <c r="E32" s="19">
-        <v>-0.83593875024150177</v>
+        <v>2.4556374081014991</v>
       </c>
       <c r="F32" s="19">
-        <v>99.807573322654093</v>
+        <v>99.599389651957395</v>
       </c>
       <c r="G32" s="19">
-        <v>0.14432000800833869</v>
+        <v>0.33651269235468939</v>
       </c>
       <c r="H32" s="19">
-        <v>4.8106669335819502E-2</v>
+        <v>6.4097655686146268E-2</v>
       </c>
       <c r="I32" s="19">
-        <v>0</v>
+        <v>1.6024413921316431E-2</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -10521,28 +10522,28 @@
         <v>43</v>
       </c>
       <c r="B33" s="19">
-        <v>15.28425858534125</v>
+        <v>25.19338748879926</v>
       </c>
       <c r="C33" s="19">
-        <v>1.393300047764608</v>
+        <v>-4.0418525627670689</v>
       </c>
       <c r="D33" s="19">
-        <v>41.975228643215928</v>
+        <v>52.739503276729337</v>
       </c>
       <c r="E33" s="19">
-        <v>-8.2505332491534772E-2</v>
+        <v>1.663674013848274</v>
       </c>
       <c r="F33" s="19">
-        <v>98.4062353412601</v>
+        <v>96.674587348553061</v>
       </c>
       <c r="G33" s="19">
-        <v>1.559141830166666</v>
+        <v>3.2034857161046748</v>
       </c>
       <c r="H33" s="19">
-        <v>3.1311265778854812E-2</v>
+        <v>0.11881175675046481</v>
       </c>
       <c r="I33" s="19">
-        <v>3.3115627937994078E-3</v>
+        <v>3.1151785912168798E-3</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -10554,28 +10555,28 @@
         <v>44</v>
       </c>
       <c r="B34" s="19">
-        <v>31.97678845356338</v>
+        <v>43.64858675598817</v>
       </c>
       <c r="C34" s="19">
-        <v>1.9448385911580881</v>
+        <v>-3.7932418177011611</v>
       </c>
       <c r="D34" s="19">
-        <v>45.19647511304283</v>
+        <v>54.43440322971324</v>
       </c>
       <c r="E34" s="19">
-        <v>-3.5380634257221861</v>
+        <v>2.3444688064383841</v>
       </c>
       <c r="F34" s="19">
-        <v>96.101424539074827</v>
+        <v>93.805138441747147</v>
       </c>
       <c r="G34" s="19">
-        <v>3.4853822448418899</v>
+        <v>5.2629470541277179</v>
       </c>
       <c r="H34" s="19">
-        <v>0.41319321608243598</v>
+        <v>0.9319145041234409</v>
       </c>
       <c r="I34" s="19">
-        <v>0.1085304413334256</v>
+        <v>0.27051933262762567</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -10587,28 +10588,28 @@
         <v>45</v>
       </c>
       <c r="B35" s="19">
-        <v>24.101461091932531</v>
+        <v>29.989356613845381</v>
       </c>
       <c r="C35" s="19">
-        <v>1.889638601091689</v>
+        <v>-2.973803516147707</v>
       </c>
       <c r="D35" s="19">
-        <v>40.817690285323003</v>
+        <v>46.361642229806023</v>
       </c>
       <c r="E35" s="19">
-        <v>1.3607888789395519</v>
+        <v>1.040294516012735</v>
       </c>
       <c r="F35" s="19">
-        <v>97.720310442287342</v>
+        <v>97.090726181336152</v>
       </c>
       <c r="G35" s="19">
-        <v>2.1761245364866202</v>
+        <v>2.7221268880319771</v>
       </c>
       <c r="H35" s="19">
-        <v>0.1035650212260442</v>
+        <v>0.1836702684803676</v>
       </c>
       <c r="I35" s="19">
-        <v>0</v>
+        <v>3.476662151503938E-3</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10620,28 +10621,28 @@
         <v>46</v>
       </c>
       <c r="B36" s="19">
-        <v>28.52511110929413</v>
+        <v>29.72633157620945</v>
       </c>
       <c r="C36" s="19">
-        <v>0.25096734641824531</v>
+        <v>-4.2542144124050409</v>
       </c>
       <c r="D36" s="19">
-        <v>41.602155005652101</v>
+        <v>46.17570481951379</v>
       </c>
       <c r="E36" s="19">
-        <v>2.534585486991408</v>
+        <v>-0.14899299644231229</v>
       </c>
       <c r="F36" s="19">
-        <v>98.525965555477697</v>
+        <v>97.957625348930861</v>
       </c>
       <c r="G36" s="19">
-        <v>1.415052163269261</v>
+        <v>1.953803862326474</v>
       </c>
       <c r="H36" s="19">
-        <v>5.5746796069283788E-2</v>
+        <v>7.871283337069343E-2</v>
       </c>
       <c r="I36" s="19">
-        <v>3.2354851837528092E-3</v>
+        <v>9.8579553719543543E-3</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -10653,25 +10654,25 @@
         <v>47</v>
       </c>
       <c r="B37" s="19">
-        <v>12.77640710357168</v>
+        <v>15.441059976385009</v>
       </c>
       <c r="C37" s="19">
-        <v>1.3976311109502739</v>
+        <v>-2.5291000785037272</v>
       </c>
       <c r="D37" s="19">
-        <v>17.95144427483725</v>
+        <v>18.770760618940951</v>
       </c>
       <c r="E37" s="19">
-        <v>1.0195906250925379</v>
+        <v>-1.9792098434051171</v>
       </c>
       <c r="F37" s="19">
-        <v>99.970489552516156</v>
+        <v>99.883387163220689</v>
       </c>
       <c r="G37" s="19">
-        <v>2.9510447483858459E-2</v>
+        <v>8.7459627584479782E-2</v>
       </c>
       <c r="H37" s="19">
-        <v>0</v>
+        <v>2.9153209194826592E-2</v>
       </c>
       <c r="I37" s="19">
         <v>0</v>
@@ -10686,28 +10687,28 @@
         <v>48</v>
       </c>
       <c r="B38" s="19">
-        <v>27.065458750084861</v>
+        <v>30.89211366874823</v>
       </c>
       <c r="C38" s="19">
-        <v>1.766857820805118</v>
+        <v>-2.0804230885661008</v>
       </c>
       <c r="D38" s="19">
-        <v>41.485802304809432</v>
+        <v>49.414986107715769</v>
       </c>
       <c r="E38" s="19">
-        <v>2.1197814087068081</v>
+        <v>2.4642287931251139</v>
       </c>
       <c r="F38" s="19">
-        <v>99.24245978112296</v>
+        <v>98.577411468601611</v>
       </c>
       <c r="G38" s="19">
-        <v>0.7196369091020568</v>
+        <v>1.2971871274836111</v>
       </c>
       <c r="H38" s="19">
-        <v>3.4527492156203862E-2</v>
+        <v>0.1085541085862719</v>
       </c>
       <c r="I38" s="19">
-        <v>3.3758176187600789E-3</v>
+        <v>2.014566593337731E-2</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10719,25 +10720,25 @@
         <v>49</v>
       </c>
       <c r="B39" s="19">
-        <v>7.0286943921170337</v>
+        <v>18.30281325743405</v>
       </c>
       <c r="C39" s="19">
-        <v>-4.812453890590298</v>
+        <v>-4.9669110313888041</v>
       </c>
       <c r="D39" s="19">
-        <v>21.587140936771419</v>
+        <v>32.586558083150209</v>
       </c>
       <c r="E39" s="19">
-        <v>-2.4177895994267158</v>
+        <v>0.97445093825393048</v>
       </c>
       <c r="F39" s="19">
-        <v>99.719113237424608</v>
+        <v>99.342194493116722</v>
       </c>
       <c r="G39" s="19">
-        <v>0.26651519490583198</v>
+        <v>0.60144140638863652</v>
       </c>
       <c r="H39" s="19">
-        <v>1.437156766955291E-2</v>
+        <v>5.6364100494638893E-2</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
@@ -10752,28 +10753,28 @@
         <v>50</v>
       </c>
       <c r="B40" s="19">
-        <v>26.41881685812686</v>
+        <v>34.917355690985978</v>
       </c>
       <c r="C40" s="19">
-        <v>6.4495039476768428</v>
+        <v>-5.2626741796012793</v>
       </c>
       <c r="D40" s="19">
-        <v>41.244978549668851</v>
+        <v>42.60908597161643</v>
       </c>
       <c r="E40" s="19">
-        <v>1.703307381205684</v>
+        <v>2.2979866340899879</v>
       </c>
       <c r="F40" s="19">
-        <v>97.115664281122619</v>
+        <v>97.52376832097174</v>
       </c>
       <c r="G40" s="19">
-        <v>2.2228526360741241</v>
+        <v>2.0365741223381089</v>
       </c>
       <c r="H40" s="19">
-        <v>0.63717506822313674</v>
+        <v>0.4235688166863269</v>
       </c>
       <c r="I40" s="19">
-        <v>5.9836539427327917E-2</v>
+        <v>4.2717787113724287E-2</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10785,28 +10786,28 @@
         <v>51</v>
       </c>
       <c r="B41" s="19">
-        <v>14.46991636606981</v>
+        <v>25.27306540960819</v>
       </c>
       <c r="C41" s="19">
-        <v>1.7199049185884689</v>
+        <v>-3.861656207340868</v>
       </c>
       <c r="D41" s="19">
-        <v>35.386779776437002</v>
+        <v>44.924040801654087</v>
       </c>
       <c r="E41" s="19">
-        <v>0.35900055733176639</v>
+        <v>2.9790444925035149</v>
       </c>
       <c r="F41" s="19">
-        <v>98.928945832288576</v>
+        <v>97.953115553597456</v>
       </c>
       <c r="G41" s="19">
-        <v>1.0575424822454991</v>
+        <v>2.0178933158591721</v>
       </c>
       <c r="H41" s="19">
-        <v>1.351168546401018E-2</v>
+        <v>2.8991130542435579E-2</v>
       </c>
       <c r="I41" s="19">
-        <v>0</v>
+        <v>6.6809656974967536E-3</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10818,25 +10819,25 @@
         <v>52</v>
       </c>
       <c r="B42" s="19">
-        <v>26.26</v>
+        <v>27.64</v>
       </c>
       <c r="C42" s="19">
-        <v>2.72</v>
+        <v>-3.54</v>
       </c>
       <c r="D42" s="19">
-        <v>51.98</v>
+        <v>53.080000000000013</v>
       </c>
       <c r="E42" s="19">
-        <v>1</v>
+        <v>1.96</v>
       </c>
       <c r="F42" s="19">
-        <v>99.53</v>
+        <v>99.24</v>
       </c>
       <c r="G42" s="19">
-        <v>0.47</v>
+        <v>0.71000000000000008</v>
       </c>
       <c r="H42" s="19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I42" s="19">
         <v>0</v>
@@ -10851,28 +10852,28 @@
         <v>53</v>
       </c>
       <c r="B43" s="19">
-        <v>28.24890873923265</v>
+        <v>30.138615026489241</v>
       </c>
       <c r="C43" s="19">
-        <v>0.46174639111007593</v>
+        <v>-3.3066490661979571</v>
       </c>
       <c r="D43" s="19">
-        <v>39.865224529718027</v>
+        <v>44.787090939050877</v>
       </c>
       <c r="E43" s="19">
-        <v>1.6412053757305429</v>
+        <v>-4.5176642822348873E-2</v>
       </c>
       <c r="F43" s="19">
-        <v>99.377868324387947</v>
+        <v>99.123617465135553</v>
       </c>
       <c r="G43" s="19">
-        <v>0.60399979162279338</v>
+        <v>0.85824647066407234</v>
       </c>
       <c r="H43" s="19">
-        <v>9.0659419945607091E-3</v>
+        <v>1.8136064200225989E-2</v>
       </c>
       <c r="I43" s="19">
-        <v>9.0659419945607091E-3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10884,22 +10885,22 @@
         <v>54</v>
       </c>
       <c r="B44" s="19">
-        <v>11.16662358141379</v>
+        <v>12.24194905870432</v>
       </c>
       <c r="C44" s="19">
-        <v>0.40522897069607078</v>
+        <v>-1.1053020912060809</v>
       </c>
       <c r="D44" s="19">
-        <v>4.3135602442319829</v>
+        <v>4.3921749558150296</v>
       </c>
       <c r="E44" s="19">
-        <v>2.4141967540892062</v>
+        <v>-1.97919626025964</v>
       </c>
       <c r="F44" s="19">
-        <v>99.928384988364073</v>
+        <v>99.92769051292106</v>
       </c>
       <c r="G44" s="19">
-        <v>7.1615011635937392E-2</v>
+        <v>7.230948707893177E-2</v>
       </c>
       <c r="H44" s="19">
         <v>0</v>
@@ -10917,28 +10918,28 @@
         <v>55</v>
       </c>
       <c r="B45" s="19">
-        <v>20.1845023533978</v>
+        <v>25.528512707110892</v>
       </c>
       <c r="C45" s="19">
-        <v>2.6834905870471801</v>
+        <v>-4.4907143930084281</v>
       </c>
       <c r="D45" s="19">
-        <v>34.84889276375759</v>
+        <v>38.042319185410072</v>
       </c>
       <c r="E45" s="19">
-        <v>1.2246375919420549</v>
+        <v>-1.371298043005087E-2</v>
       </c>
       <c r="F45" s="19">
-        <v>98.653202709651907</v>
+        <v>98.452860756100335</v>
       </c>
       <c r="G45" s="19">
-        <v>1.317735709714142</v>
+        <v>1.460083670650705</v>
       </c>
       <c r="H45" s="19">
-        <v>2.9061580633225181E-2</v>
+        <v>8.1310200744223779E-2</v>
       </c>
       <c r="I45" s="19">
-        <v>1.1624632252857359E-2</v>
+        <v>1.1553243985427239E-2</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10950,28 +10951,28 @@
         <v>56</v>
       </c>
       <c r="B46" s="19">
-        <v>20.18721407779012</v>
+        <v>24.871071993161209</v>
       </c>
       <c r="C46" s="19">
-        <v>2.1699187180202641</v>
+        <v>-4.9025511565034687</v>
       </c>
       <c r="D46" s="19">
-        <v>38.711827986480657</v>
+        <v>41.431031495994709</v>
       </c>
       <c r="E46" s="19">
-        <v>0.73416067100093874</v>
+        <v>0.24142358243066281</v>
       </c>
       <c r="F46" s="19">
-        <v>98.325023302489001</v>
+        <v>98.19027587366466</v>
       </c>
       <c r="G46" s="19">
-        <v>1.576068856535652</v>
+        <v>1.6858767563636801</v>
       </c>
       <c r="H46" s="19">
-        <v>9.15743546266444E-2</v>
+        <v>0.1062347520563235</v>
       </c>
       <c r="I46" s="19">
-        <v>7.3334863481128451E-3</v>
+        <v>1.9207120561895458E-2</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -10983,22 +10984,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="19">
-        <v>17.0654387572948</v>
+        <v>27.524292715360101</v>
       </c>
       <c r="C47" s="19">
-        <v>4.5624000000000002</v>
+        <v>-6.6777000000000006</v>
       </c>
       <c r="D47" s="19">
-        <v>34.805084528554502</v>
+        <v>41.1331702055802</v>
       </c>
       <c r="E47" s="19">
-        <v>-0.22559999999999999</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="F47" s="19">
-        <v>98.598654708520002</v>
+        <v>97.561321423506996</v>
       </c>
       <c r="G47" s="19">
-        <v>1.4013452914790001</v>
+        <v>2.4386785764919998</v>
       </c>
       <c r="H47" s="19">
         <v>0</v>
@@ -11016,22 +11017,22 @@
         <v>58</v>
       </c>
       <c r="B48" s="19">
-        <v>26.240930462054319</v>
+        <v>37.980858544707942</v>
       </c>
       <c r="C48" s="19">
-        <v>3.5890489756196771</v>
+        <v>-2.1929880760428682</v>
       </c>
       <c r="D48" s="19">
-        <v>27.242464677888801</v>
+        <v>33.048406142331743</v>
       </c>
       <c r="E48" s="19">
-        <v>-3.3916117927392051</v>
+        <v>4.0138696569579153</v>
       </c>
       <c r="F48" s="19">
-        <v>99.961364468419745</v>
+        <v>99.698793208703023</v>
       </c>
       <c r="G48" s="19">
-        <v>3.8635531579314812E-2</v>
+        <v>0.30120679129603839</v>
       </c>
       <c r="H48" s="19">
         <v>0</v>
@@ -11049,28 +11050,28 @@
         <v>59</v>
       </c>
       <c r="B49" s="19">
-        <v>16.050331111840752</v>
+        <v>23.710084587558541</v>
       </c>
       <c r="C49" s="19">
-        <v>1.176327078355007</v>
+        <v>-3.8601608651679942</v>
       </c>
       <c r="D49" s="19">
-        <v>44.250982817587193</v>
+        <v>52.462918124666551</v>
       </c>
       <c r="E49" s="19">
-        <v>7.9991275690795005E-3</v>
+        <v>2.300221376678159</v>
       </c>
       <c r="F49" s="19">
-        <v>98.861080947921479</v>
+        <v>98.325265647106335</v>
       </c>
       <c r="G49" s="19">
-        <v>1.1260533749064749</v>
+        <v>1.6447455987938839</v>
       </c>
       <c r="H49" s="19">
-        <v>1.28656771713332E-2</v>
+        <v>2.9988754099087599E-2</v>
       </c>
       <c r="I49" s="19">
-        <v>0</v>
+        <v>4.7671407909534724E-3</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -11082,28 +11083,28 @@
         <v>60</v>
       </c>
       <c r="B50" s="19">
-        <v>22.917618675872571</v>
+        <v>31.63878219792668</v>
       </c>
       <c r="C50" s="19">
-        <v>6.1095318007486137</v>
+        <v>-5.8914711559805273</v>
       </c>
       <c r="D50" s="19">
-        <v>33.656595255380218</v>
+        <v>38.89751697518993</v>
       </c>
       <c r="E50" s="19">
-        <v>0.21758603984877839</v>
+        <v>2.5332046390852709</v>
       </c>
       <c r="F50" s="19">
-        <v>96.71747611722715</v>
+        <v>96.275821162153477</v>
       </c>
       <c r="G50" s="19">
-        <v>2.6033390665561011</v>
+        <v>2.8655115591379952</v>
       </c>
       <c r="H50" s="19">
-        <v>0.64889873990850888</v>
+        <v>0.85435674032642339</v>
       </c>
       <c r="I50" s="19">
-        <v>5.3605597867783031E-2</v>
+        <v>1.8297630734437249E-2</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -11115,28 +11116,28 @@
         <v>61</v>
       </c>
       <c r="B51" s="19">
-        <v>14.093317660964161</v>
+        <v>23.526240906565491</v>
       </c>
       <c r="C51" s="19">
-        <v>0.30308392032615672</v>
+        <v>-5.8045453053317413</v>
       </c>
       <c r="D51" s="19">
-        <v>28.755552050737279</v>
+        <v>35.095456431323832</v>
       </c>
       <c r="E51" s="19">
-        <v>-2.2540687709480469</v>
+        <v>2.9047152755334542</v>
       </c>
       <c r="F51" s="19">
-        <v>98.018375746213835</v>
+        <v>97.036131800044785</v>
       </c>
       <c r="G51" s="19">
-        <v>1.6598276494352311</v>
+        <v>2.4779142379610142</v>
       </c>
       <c r="H51" s="19">
-        <v>0.1930779626102449</v>
+        <v>0.39809976562886867</v>
       </c>
       <c r="I51" s="19">
-        <v>0.1287186417401632</v>
+        <v>8.7854196364271914E-2</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11148,25 +11149,25 @@
         <v>62</v>
       </c>
       <c r="B52" s="19">
-        <v>23.850780575588139</v>
+        <v>31.538118215958249</v>
       </c>
       <c r="C52" s="19">
-        <v>1.4251567112940851</v>
+        <v>-4.5492861495508817E-2</v>
       </c>
       <c r="D52" s="19">
-        <v>48.172672195049117</v>
+        <v>59.309210976375333</v>
       </c>
       <c r="E52" s="19">
-        <v>5.6301283503234254</v>
+        <v>1.6194676036248841</v>
       </c>
       <c r="F52" s="19">
-        <v>98.055526178642694</v>
+        <v>97.01340719569653</v>
       </c>
       <c r="G52" s="19">
-        <v>1.9369651999822139</v>
+        <v>2.9716217776243661</v>
       </c>
       <c r="H52" s="19">
-        <v>7.5086213750646634E-3</v>
+        <v>1.497102667909596E-2</v>
       </c>
       <c r="I52" s="19">
         <v>0</v>
@@ -11181,22 +11182,22 @@
         <v>63</v>
       </c>
       <c r="B53" s="19">
-        <v>20.570995285321981</v>
+        <v>27.58369350654171</v>
       </c>
       <c r="C53" s="19">
-        <v>-1.260284062841321</v>
+        <v>-3.5389738483996069</v>
       </c>
       <c r="D53" s="19">
-        <v>32.571294038316488</v>
+        <v>39.819091861286473</v>
       </c>
       <c r="E53" s="19">
-        <v>3.753494067482666</v>
+        <v>-1.023312396256659</v>
       </c>
       <c r="F53" s="19">
-        <v>99.010717230008254</v>
+        <v>98.518518518518519</v>
       </c>
       <c r="G53" s="19">
-        <v>0.98928276999175591</v>
+        <v>1.4814814814814821</v>
       </c>
       <c r="H53" s="19">
         <v>0</v>
@@ -11280,30 +11281,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:D38"/>
+  <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>43911</v>
       </c>
       <c r="C5" s="9">
@@ -11311,7 +11314,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="13">
         <v>43918</v>
       </c>
       <c r="C6" s="9">
@@ -11319,7 +11322,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>43925</v>
       </c>
       <c r="C7" s="10">
@@ -11327,7 +11330,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>43932</v>
       </c>
       <c r="C8" s="10">
@@ -11335,7 +11338,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>43939</v>
       </c>
       <c r="C9" s="10">
@@ -11343,7 +11346,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>43946</v>
       </c>
       <c r="C10" s="10">
@@ -11351,7 +11354,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>43953</v>
       </c>
       <c r="C11" s="10">
@@ -11359,7 +11362,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>43960</v>
       </c>
       <c r="C12" s="10">
@@ -11367,7 +11370,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>43967</v>
       </c>
       <c r="C13" s="10">
@@ -11375,7 +11378,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>43974</v>
       </c>
       <c r="C14" s="10">
@@ -11383,7 +11386,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>43981</v>
       </c>
       <c r="C15" s="10">
@@ -11391,7 +11394,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>43988</v>
       </c>
       <c r="C16" s="10">
@@ -11399,7 +11402,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>43995</v>
       </c>
       <c r="C17" s="10">
@@ -11407,7 +11410,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>44002</v>
       </c>
       <c r="C18" s="10">
@@ -11415,7 +11418,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <v>44009</v>
       </c>
       <c r="C19" s="10">
@@ -11423,7 +11426,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>44016</v>
       </c>
       <c r="C20" s="10">
@@ -11431,7 +11434,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+      <c r="B21" s="14">
         <v>44023</v>
       </c>
       <c r="C21" s="10">
@@ -11439,7 +11442,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="12">
+      <c r="B22" s="14">
         <v>44030</v>
       </c>
       <c r="C22" s="10">
@@ -11447,7 +11450,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="12">
+      <c r="B23" s="14">
         <v>44037</v>
       </c>
       <c r="C23" s="10">
@@ -11455,7 +11458,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="12">
+      <c r="B24" s="14">
         <v>44044</v>
       </c>
       <c r="C24" s="10">
@@ -11463,7 +11466,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="12">
+      <c r="B25" s="14">
         <v>44051</v>
       </c>
       <c r="C25" s="10">
@@ -11471,7 +11474,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B26" s="12">
+      <c r="B26" s="14">
         <v>44058</v>
       </c>
       <c r="C26" s="9">
@@ -11479,7 +11482,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
+      <c r="B27" s="14">
         <v>44065</v>
       </c>
       <c r="C27" s="10">
@@ -11487,7 +11490,7 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="12">
+      <c r="B28" s="14">
         <v>44072</v>
       </c>
       <c r="C28" s="10">
@@ -11495,7 +11498,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
+      <c r="B29" s="14">
         <v>44079</v>
       </c>
       <c r="C29" s="10">
@@ -11503,7 +11506,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="12">
+      <c r="B30" s="14">
         <v>44086</v>
       </c>
       <c r="C30" s="10">
@@ -11511,7 +11514,7 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="12">
+      <c r="B31" s="14">
         <v>44093</v>
       </c>
       <c r="C31" s="10">
@@ -11519,7 +11522,7 @@
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="12">
+      <c r="B32" s="14">
         <v>44100</v>
       </c>
       <c r="C32" s="10">
@@ -11527,7 +11530,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="12">
+      <c r="B33" s="14">
         <v>44107</v>
       </c>
       <c r="C33" s="10">
@@ -11535,7 +11538,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="12">
+      <c r="B34" s="14">
         <v>44114</v>
       </c>
       <c r="C34" s="10">
@@ -11543,7 +11546,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="12">
+      <c r="B35" s="14">
         <v>44121</v>
       </c>
       <c r="C35" s="10">
@@ -11551,7 +11554,7 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="12">
+      <c r="B36" s="14">
         <v>44128</v>
       </c>
       <c r="C36" s="10">
@@ -11559,7 +11562,7 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="12">
+      <c r="B37" s="14">
         <v>44135</v>
       </c>
       <c r="C37" s="10">
@@ -11567,11 +11570,27 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <v>44142</v>
       </c>
       <c r="C38" s="10">
         <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="14">
+        <v>44149</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="14">
+        <v>44156</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.35399999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6260F1AC-9D80-1A4F-86C3-476A32B77A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D959EF-97D5-F440-A0C5-8831979DEE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3960" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="5120" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -44,30 +44,6 @@
   </si>
   <si>
     <t>Utilization</t>
-  </si>
-  <si>
-    <t>downstream_growth_overall</t>
-  </si>
-  <si>
-    <t>downstream_growth_past_week</t>
-  </si>
-  <si>
-    <t>upstream_growth_overall</t>
-  </si>
-  <si>
-    <t>upstream_growth_past_week</t>
-  </si>
-  <si>
-    <t>performance_normal</t>
-  </si>
-  <si>
-    <t>performance_elevated</t>
-  </si>
-  <si>
-    <t>performance_substantially_elevated</t>
-  </si>
-  <si>
-    <t>performance_severely_elevated</t>
   </si>
   <si>
     <t>US</t>
@@ -224,6 +200,30 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>downstream_growth_overall</t>
+  </si>
+  <si>
+    <t>downstream_growth_past_week</t>
+  </si>
+  <si>
+    <t>upstream_growth_overall</t>
+  </si>
+  <si>
+    <t>upstream_growth_past_week</t>
+  </si>
+  <si>
+    <t>performance_normal</t>
+  </si>
+  <si>
+    <t>performance_elevated</t>
+  </si>
+  <si>
+    <t>performance_substantially_elevated</t>
+  </si>
+  <si>
+    <t>performance_severely_elevated</t>
   </si>
 </sst>
 </file>
@@ -789,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>-4.2845215365529441</c:v>
+                  <c:v>2.6412175745389761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.765038792967947</c:v>
+                  <c:v>6.350178201460972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0890468761987453</c:v>
+                  <c:v>4.9714862615623856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0445285229300172</c:v>
+                  <c:v>3.1363298776291448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.1930887062882789</c:v>
+                  <c:v>2.2435816870549772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.4635388979257451</c:v>
+                  <c:v>5.8438195785488576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.0219891877632357</c:v>
+                  <c:v>2.6532282167323178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.3536330894066468</c:v>
+                  <c:v>2.0149244274995088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.014811613219246</c:v>
+                  <c:v>2.2519087510196099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.61680000000000001</c:v>
+                  <c:v>7.9827999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.4565241255178778</c:v>
+                  <c:v>2.3430478684378162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.2321939233514798</c:v>
+                  <c:v>3.8995304586776398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.1848833485505184</c:v>
+                  <c:v>8.9387224561817025</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.9206935329480972</c:v>
+                  <c:v>0.4406050037118614</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.3708561174512428</c:v>
+                  <c:v>1.157091292273138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.7592171525508302</c:v>
+                  <c:v>0.91493321169395003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.0440350026298013</c:v>
+                  <c:v>2.5600195835817638</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.6490241415293987</c:v>
+                  <c:v>4.0302410797012236</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.2245057662020522</c:v>
+                  <c:v>1.190169851145908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.560533897303245</c:v>
+                  <c:v>3.53445350583574</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.65444238230116969</c:v>
+                  <c:v>0.1964829248547042</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.4714813237233089</c:v>
+                  <c:v>4.0810129232415546</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.0849850293295713</c:v>
+                  <c:v>2.979936670860464</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.6021304846946638</c:v>
+                  <c:v>2.2729804012565511</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-4.5352234503791724</c:v>
+                  <c:v>0.73010414500402865</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.030617873869653</c:v>
+                  <c:v>2.6272405609347018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.7108593541956258</c:v>
+                  <c:v>1.8892628840291861</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4.5239833053391516</c:v>
+                  <c:v>0.66714490290931128</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.1658592850035712</c:v>
+                  <c:v>1.0598451364560471</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5.8832668766941332</c:v>
+                  <c:v>6.9968880753418059</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5.4046829129488918</c:v>
+                  <c:v>1.362774887327552</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.0418525627670689</c:v>
+                  <c:v>2.9209277878143189</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.7932418177011611</c:v>
+                  <c:v>1.6351977504116091</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.973803516147707</c:v>
+                  <c:v>1.6363424854512989</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.2542144124050409</c:v>
+                  <c:v>2.1982114411354581</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.5291000785037272</c:v>
+                  <c:v>-3.711945185477223</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.0804230885661008</c:v>
+                  <c:v>-0.46035022113164248</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.9669110313888041</c:v>
+                  <c:v>1.87198264903802</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-5.2626741796012793</c:v>
+                  <c:v>2.7237857936539078</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.861656207340868</c:v>
+                  <c:v>3.209726414210472</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.54</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3.3066490661979571</c:v>
+                  <c:v>1.3369024181245659</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.1053020912060809</c:v>
+                  <c:v>-8.5953047858208844</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-4.4907143930084281</c:v>
+                  <c:v>3.3925155554257711</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-4.9025511565034687</c:v>
+                  <c:v>1.0140167149060639</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-6.6777000000000006</c:v>
+                  <c:v>1.8848</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.1929880760428682</c:v>
+                  <c:v>-1.1548377268904091</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.8601608651679942</c:v>
+                  <c:v>4.1669372916060663</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-5.8914711559805273</c:v>
+                  <c:v>1.79565761145921</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-5.8045453053317413</c:v>
+                  <c:v>5.4652827847714374</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.5492861495508817E-2</c:v>
+                  <c:v>0.5758533465661454</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.5389738483996069</c:v>
+                  <c:v>2.7417570962749549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,160 +1444,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.2421453389364829</c:v>
+                  <c:v>7.0045877449116487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62718363927491638</c:v>
+                  <c:v>3.192843398428149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9896193771626209</c:v>
+                  <c:v>5.9591126576772568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1365241942435349</c:v>
+                  <c:v>7.6695823330751693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69774672945365113</c:v>
+                  <c:v>3.0075474142558991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.582215169690941</c:v>
+                  <c:v>14.01583425172768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.83932540605186</c:v>
+                  <c:v>12.074843729119349</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3230504906479581</c:v>
+                  <c:v>6.4101559053880504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6152617074121061</c:v>
+                  <c:v>4.9914974816778974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3977999999999999</c:v>
+                  <c:v>14.092700000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1519003005438559</c:v>
+                  <c:v>4.2040750293103013</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8836113446857661</c:v>
+                  <c:v>6.8249575653559669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60732200117057378</c:v>
+                  <c:v>3.8219358633656548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.82194560848505827</c:v>
+                  <c:v>6.9529612671418954</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5873365199174172</c:v>
+                  <c:v>8.4476962550076671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3736216779336439</c:v>
+                  <c:v>4.0120142382424619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7187069105219011</c:v>
+                  <c:v>3.7182966645695439</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.546653360838397</c:v>
+                  <c:v>7.5309289969752928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90827387860551523</c:v>
+                  <c:v>6.1253112337658084</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.033571628576309</c:v>
+                  <c:v>2.6605435645787501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.487862757232008</c:v>
+                  <c:v>3.3808948530514291</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.790511180875888</c:v>
+                  <c:v>7.7697082944205187</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.473997200694448</c:v>
+                  <c:v>7.580884482746348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.003873403628889</c:v>
+                  <c:v>8.3484853864404105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.430369617776527</c:v>
+                  <c:v>9.1368197026915965</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.94187248012826963</c:v>
+                  <c:v>1.36314250132006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91253299022561696</c:v>
+                  <c:v>4.5908658594822827</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.387663915182868</c:v>
+                  <c:v>0.96417285016663357</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44647638552472019</c:v>
+                  <c:v>0.58141626089926646</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.480969014786035</c:v>
+                  <c:v>4.1633192635610436</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.4556374081014991</c:v>
+                  <c:v>6.1155398905645226</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.663674013848274</c:v>
+                  <c:v>7.541445909883322</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3444688064383841</c:v>
+                  <c:v>8.2785509426458432</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.040294516012735</c:v>
+                  <c:v>6.5398143245568008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.14899299644231229</c:v>
+                  <c:v>4.150442907865683</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.9792098434051171</c:v>
+                  <c:v>0.14640664605596501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.4642287931251139</c:v>
+                  <c:v>5.2389611928841848</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97445093825393048</c:v>
+                  <c:v>5.1716564286455764</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.2979866340899879</c:v>
+                  <c:v>7.5118240496164894</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9790444925035149</c:v>
+                  <c:v>7.5760917155883396</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.96</c:v>
+                  <c:v>4.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4.5176642822348873E-2</c:v>
+                  <c:v>4.3169878676519922</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.97919626025964</c:v>
+                  <c:v>-1.959884526806855</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.371298043005087E-2</c:v>
+                  <c:v>5.0838750059414606</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.24142358243066281</c:v>
+                  <c:v>4.3972214465147781</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.62219999999999998</c:v>
+                  <c:v>3.5821999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.0138696569579153</c:v>
+                  <c:v>3.9905078598018862</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.300221376678159</c:v>
+                  <c:v>8.7270309227939595</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5332046390852709</c:v>
+                  <c:v>7.1240112316619699</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9047152755334542</c:v>
+                  <c:v>6.1223099364733917</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6194676036248841</c:v>
+                  <c:v>7.4790708439560474</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.023312396256659</c:v>
+                  <c:v>5.0129553907007676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1676,6 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
           <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2105,160 +2104,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>2.4683158328433992</c:v>
+                  <c:v>2.9883770327002002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86882911049710554</c:v>
+                  <c:v>1.2970185047221381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49210049210049212</c:v>
+                  <c:v>0.32622333751568378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.798558650081854</c:v>
+                  <c:v>2.722502826297367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98791188190356771</c:v>
+                  <c:v>1.3709693682161139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.676319599140232</c:v>
+                  <c:v>7.0919613462272206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3867425828853248</c:v>
+                  <c:v>7.8919525269173016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9968574852357319</c:v>
+                  <c:v>2.5794713740226158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4960687654765632</c:v>
+                  <c:v>2.5359682334467468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6234738085860001</c:v>
+                  <c:v>3.1665363565279998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3270118718895441</c:v>
+                  <c:v>1.549439563415596</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7533660861473339</c:v>
+                  <c:v>2.3201903027053961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4015025041736231</c:v>
+                  <c:v>3.7091060637632838</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55439087605932513</c:v>
+                  <c:v>0.62007841607685343</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0576577054909899</c:v>
+                  <c:v>3.7469345878210292</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.118425330955688</c:v>
+                  <c:v>1.642536068384991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6937863610800381E-2</c:v>
+                  <c:v>0.23874089740511639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48256185837387028</c:v>
+                  <c:v>0.65240486769682393</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.452729752978215</c:v>
+                  <c:v>2.9520235170167028</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91645269386337369</c:v>
+                  <c:v>1.109372201348173</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33823644690833032</c:v>
+                  <c:v>0.33485138721724439</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3717598717644979</c:v>
+                  <c:v>3.5262994722959391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99075583711200454</c:v>
+                  <c:v>1.17965517343249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.333317611885884</c:v>
+                  <c:v>2.3897569082244599</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8998682414248731</c:v>
+                  <c:v>2.6257595564045149</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79237008708814793</c:v>
+                  <c:v>1.138449582932739</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2045566443065181</c:v>
+                  <c:v>1.8127379830915851</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.616555661274977</c:v>
+                  <c:v>2.8896257697773571</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.63481845651665092</c:v>
+                  <c:v>0.35476016111479269</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8157180268611768</c:v>
+                  <c:v>3.5114102168928318</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.33651269235468939</c:v>
+                  <c:v>0.57643602549840145</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2034857161046748</c:v>
+                  <c:v>4.5049364106840004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2629470541277179</c:v>
+                  <c:v>6.1772833091017603</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.7221268880319771</c:v>
+                  <c:v>3.0657827578256089</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.953803862326474</c:v>
+                  <c:v>2.3940528477374059</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.7459627584479782E-2</c:v>
+                  <c:v>8.5693711775879977E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2971871274836111</c:v>
+                  <c:v>3.0770673703500662</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.60144140638863652</c:v>
+                  <c:v>0.55844390076227834</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0365741223381089</c:v>
+                  <c:v>2.1657711629386709</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0178933158591721</c:v>
+                  <c:v>2.720853268176274</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.71000000000000008</c:v>
+                  <c:v>0.9900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.85824647066407234</c:v>
+                  <c:v>1.238382360393067</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.230948707893177E-2</c:v>
+                  <c:v>7.2263490443739142E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.460083670650705</c:v>
+                  <c:v>2.0078390227323348</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.6858767563636801</c:v>
+                  <c:v>2.1064738079638761</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.4386785764919998</c:v>
+                  <c:v>2.3603351955299998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.30120679129603839</c:v>
+                  <c:v>0.18792601700425399</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6447455987938839</c:v>
+                  <c:v>1.7684808854853811</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8655115591379952</c:v>
+                  <c:v>3.015186041484637</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.4779142379610142</c:v>
+                  <c:v>2.420652097722952</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.9716217776243661</c:v>
+                  <c:v>3.4990740187089351</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4814814814814821</c:v>
+                  <c:v>2.549342105263158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,160 +2763,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.1236377314498045</c:v>
+                  <c:v>0.1688423090890204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8690550095791423E-2</c:v>
+                  <c:v>0.19829221692257371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1800051800051802E-2</c:v>
+                  <c:v>2.5094102885821829E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30312996991464969</c:v>
+                  <c:v>0.26433549461416611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44849320592239789</c:v>
+                  <c:v>0.45770482803466128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14725167466220521</c:v>
+                  <c:v>0.24911343253011009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.219886294889172E-2</c:v>
+                  <c:v>5.7697950436667771E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16817239532799849</c:v>
+                  <c:v>0.2179191258327704</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.9093041437999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1136462006560819</c:v>
+                  <c:v>0.1212462714626366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.840446281941651E-2</c:v>
+                  <c:v>4.739160733846759E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1736227045075118E-2</c:v>
+                  <c:v>0.12502604709314441</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9772701280978404E-3</c:v>
+                  <c:v>8.5166015892029854E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.842791525973202E-2</c:v>
+                  <c:v>6.6109913076561985E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>7.0071838809142931E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1514725778597543E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2332322594072426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2087431869920402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8602854845402458E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0468545075644279E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0355671050515165E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1467384012397514</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.331537383098575</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8012127672729182E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4161298053265415E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23685457129322601</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.145573350697172E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.1534013391579623E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1970669325106863</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.8613516555848739E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.6303884531931393E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1029005460709335</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5389755477345832E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.16484133360430661</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.9054730492248482E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.2535962647483465E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.14272121788772599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.0999505071734478E-2</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13947057482461619</c:v>
+                  <c:v>0.10627154832161791</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.4097655686146268E-2</c:v>
+                  <c:v>0.1120847827355556</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11881175675046481</c:v>
+                  <c:v>0.1625090682393163</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9319145041234409</c:v>
+                  <c:v>1.392214022131417</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1836702684803676</c:v>
+                  <c:v>0.2089370233926949</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.871283337069343E-2</c:v>
+                  <c:v>0.1139157541709412</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9153209194826592E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1085541085862719</c:v>
+                  <c:v>0.22263887185648881</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6364100494638893E-2</c:v>
+                  <c:v>5.6614837131245321E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4235688166863269</c:v>
+                  <c:v>0.37650461331486618</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.8991130542435579E-2</c:v>
+                  <c:v>4.8836392938695572E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8136064200225989E-2</c:v>
+                  <c:v>7.2236778223360387E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.1310200744223779E-2</c:v>
+                  <c:v>0.13875401665574219</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1062347520563235</c:v>
+                  <c:v>0.17128812977155239</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>1.3966480446000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.9988754099087599E-2</c:v>
+                  <c:v>7.1737221623156461E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.85435674032642339</c:v>
+                  <c:v>0.83778532817406459</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.39809976562886867</c:v>
+                  <c:v>0.61749205693821452</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.497102667909596E-2</c:v>
+                  <c:v>0.171448336124222</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.24671052631578949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,28 +3423,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.704760254170145E-2</c:v>
+                  <c:v>3.3076693169993739E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0317981203168269E-2</c:v>
+                  <c:v>9.9501814356318427E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7700077700077697E-2</c:v>
+                  <c:v>0.1003764115432873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6127441250593962E-2</c:v>
+                  <c:v>3.5396707913309081E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0234091827270501E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3751487027216667E-2</c:v>
+                  <c:v>9.9631663874664628E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7934767927913938E-3</c:v>
+                  <c:v>5.7697950436667771E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7788449672971931E-2</c:v>
+                  <c:v>3.5915230684323701E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3454,22 +3453,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.907452062746502E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.2852863488526067E-3</c:v>
+                  <c:v>1.4524767827270781E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0868113522537559E-2</c:v>
+                  <c:v>4.1675349031048137E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5751422744516332E-3</c:v>
+                  <c:v>5.5142569214544591E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.9521775894908566E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3478,70 +3477,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.081751174629486E-2</c:v>
+                  <c:v>9.4582395251073648E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7977576144533604E-3</c:v>
+                  <c:v>4.0099100688366522E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>1.8602854845402458E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8925704402742289E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.5023948680747411E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.8313692315271558E-3</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.507182070819642E-3</c:v>
+                  <c:v>1.3895590565780529E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3949233861810657E-3</c:v>
+                  <c:v>5.4132345382589923E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3855447252604923E-3</c:v>
+                  <c:v>8.0156181999904569E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7573739295908662E-2</c:v>
+                  <c:v>9.4741828517290391E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8838991064267293E-2</c:v>
+                  <c:v>6.4876818403939412E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6024413921316431E-2</c:v>
+                  <c:v>1.6012111818861759E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1151785912168798E-3</c:v>
+                  <c:v>7.0099637885039246E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.27051933262762567</c:v>
+                  <c:v>0.38105019883589358</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.476662151503938E-3</c:v>
+                  <c:v>1.042034797612491E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.8579553719543543E-3</c:v>
+                  <c:v>6.530367455788201E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.014566593337731E-2</c:v>
+                  <c:v>0.1045309074350826</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.2717787113724287E-2</c:v>
+                  <c:v>9.9768438411993343E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6809656974967536E-3</c:v>
+                  <c:v>2.6797610151481469E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -3553,10 +3552,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1553243985427239E-2</c:v>
+                  <c:v>2.8916493120628529E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9207120561895458E-2</c:v>
+                  <c:v>2.052629269740272E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3565,16 +3564,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.7671407909534724E-3</c:v>
+                  <c:v>9.5286758328747764E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.8297630734437249E-2</c:v>
+                  <c:v>4.3709082607910822E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7854196364271914E-2</c:v>
+                  <c:v>0.17564137961156109</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>5.2227308919491011E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -4079,160 +4078,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>27.431678500494879</c:v>
+                  <c:v>29.985653532987659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.690981950630341</c:v>
+                  <c:v>30.46780301694508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.858176555716369</c:v>
+                  <c:v>39.185962373371929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.962728717960669</c:v>
+                  <c:v>28.15907785340784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.871909236557769</c:v>
+                  <c:v>27.287835856934208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.7218239178974</c:v>
+                  <c:v>36.775855879729747</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.452483736628309</c:v>
+                  <c:v>22.63202810401938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.879773104536973</c:v>
+                  <c:v>40.833220748997689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.45095322509879</c:v>
+                  <c:v>24.485313717724718</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.317742231526001</c:v>
+                  <c:v>15.0087390675072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.48694493942088</c:v>
+                  <c:v>21.114816797249411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.34205679484575</c:v>
+                  <c:v>27.527664109194209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.12889627761686</c:v>
+                  <c:v>51.018250987830207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.97090070991433</c:v>
+                  <c:v>13.40826240073898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.099827042761099</c:v>
+                  <c:v>27.214477756015089</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.03928011844641</c:v>
+                  <c:v>25.433056581950389</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.35413381257605</c:v>
+                  <c:v>14.994370016225901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.100935737302471</c:v>
+                  <c:v>23.298244301536819</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.58165133808555</c:v>
+                  <c:v>31.381469670687441</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.30244878000067</c:v>
+                  <c:v>32.413899375238103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.930517821013858</c:v>
+                  <c:v>32.4581756527556</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.582419429254958</c:v>
+                  <c:v>28.60806973156317</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.371435611880138</c:v>
+                  <c:v>36.712863611790013</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.745449716767418</c:v>
+                  <c:v>36.5050593192273</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35.412092374452698</c:v>
+                  <c:v>37.4196408242966</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.697966627861021</c:v>
+                  <c:v>26.027337140106749</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.453556265641058</c:v>
+                  <c:v>22.14782259836521</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.927242866450431</c:v>
+                  <c:v>28.491832020741619</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.11774951111828</c:v>
+                  <c:v>24.831636949603631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.777514294592461</c:v>
+                  <c:v>33.65695604821466</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.672320951728992</c:v>
+                  <c:v>39.311448512745237</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.19338748879926</c:v>
+                  <c:v>27.25033967691359</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.64858675598817</c:v>
+                  <c:v>45.019938473914692</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29.989356613845381</c:v>
+                  <c:v>31.119980044866011</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.72633157620945</c:v>
+                  <c:v>33.458890974525907</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.441059976385009</c:v>
+                  <c:v>14.767772623586501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30.89211366874823</c:v>
+                  <c:v>34.791248949303338</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.30281325743405</c:v>
+                  <c:v>21.359156501537111</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.917355690985978</c:v>
+                  <c:v>35.757588342554683</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25.27306540960819</c:v>
+                  <c:v>27.177199152379082</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.64</c:v>
+                  <c:v>31.44</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.138615026489241</c:v>
+                  <c:v>33.618190355872272</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.24194905870432</c:v>
+                  <c:v>11.802577690719099</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>25.528512707110892</c:v>
+                  <c:v>28.884008635297299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24.871071993161209</c:v>
+                  <c:v>27.74567795292371</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.524292715360101</c:v>
+                  <c:v>24.6058742190895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.980858544707942</c:v>
+                  <c:v>37.874258005701627</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.710084587558541</c:v>
+                  <c:v>25.111694254561669</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.63878219792668</c:v>
+                  <c:v>31.375387669718641</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>23.526240906565491</c:v>
+                  <c:v>25.71950868351696</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>31.538118215958249</c:v>
+                  <c:v>26.401441382739542</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.58369350654171</c:v>
+                  <c:v>24.975612090332941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4733,160 +4732,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>46.859211075368592</c:v>
+                  <c:v>51.233613567754702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.914379093456589</c:v>
+                  <c:v>43.92705656125122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.347881899871631</c:v>
+                  <c:v>56.354300385109113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.66162611096042</c:v>
+                  <c:v>57.466972171029177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.980935086022818</c:v>
+                  <c:v>34.921342523863068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.945948193644668</c:v>
+                  <c:v>63.301800543715693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.518019070944931</c:v>
+                  <c:v>51.280053751820653</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.014206555829951</c:v>
+                  <c:v>53.060249828443588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.403440115203182</c:v>
+                  <c:v>55.810848087179487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.590437271969591</c:v>
+                  <c:v>53.760126540926599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.457742702728268</c:v>
+                  <c:v>39.174794374496422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.954924774524478</c:v>
+                  <c:v>49.483549800448323</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.62702610971008</c:v>
+                  <c:v>51.949460165831283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.418799389060133</c:v>
+                  <c:v>54.465325124529407</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.492149923580293</c:v>
+                  <c:v>61.869154905318453</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.134041540234598</c:v>
+                  <c:v>47.351084363059748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.332795464113687</c:v>
+                  <c:v>66.124519955499252</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.554352972286701</c:v>
+                  <c:v>51.129143314396238</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.804569555864049</c:v>
+                  <c:v>49.129867653694546</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.145427032788191</c:v>
+                  <c:v>38.807254655239547</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.474680627584043</c:v>
+                  <c:v>58.916569221413617</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.633893432823818</c:v>
+                  <c:v>60.536624357222387</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.206082951389568</c:v>
+                  <c:v>42.391110957665589</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52.04391353025764</c:v>
+                  <c:v>59.771559000748702</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.47333353116089</c:v>
+                  <c:v>62.059851526613571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.370200612341499</c:v>
+                  <c:v>31.584530951368549</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.426412960296723</c:v>
+                  <c:v>48.14257497999143</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.737806376476442</c:v>
+                  <c:v>47.29105164255656</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.651391572376333</c:v>
+                  <c:v>40.791383824459487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.591569094776887</c:v>
+                  <c:v>63.897054786724738</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.852559683057791</c:v>
+                  <c:v>41.396460482444013</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52.739503276729337</c:v>
+                  <c:v>58.968527930787047</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>54.43440322971324</c:v>
+                  <c:v>56.176395804658597</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>46.361642229806023</c:v>
+                  <c:v>51.453053002783548</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46.17570481951379</c:v>
+                  <c:v>50.35192501828864</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.770760618940951</c:v>
+                  <c:v>16.80844074070151</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49.414986107715769</c:v>
+                  <c:v>57.025517713619017</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.586558083150209</c:v>
+                  <c:v>37.861181256572173</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.60908597161643</c:v>
+                  <c:v>43.098062235247717</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44.924040801654087</c:v>
+                  <c:v>50.019350129928668</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53.080000000000013</c:v>
+                  <c:v>61.34</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.787090939050877</c:v>
+                  <c:v>50.850994095446772</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3921749558150296</c:v>
+                  <c:v>2.061296676245735</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.042319185410072</c:v>
+                  <c:v>42.638357911364487</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41.431031495994709</c:v>
+                  <c:v>44.886211756745062</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41.1331702055802</c:v>
+                  <c:v>38.569430311772599</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.048406142331743</c:v>
+                  <c:v>36.37036053316578</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>52.462918124666551</c:v>
+                  <c:v>55.032648518934153</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38.89751697518993</c:v>
+                  <c:v>39.647584446223703</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.095456431323832</c:v>
+                  <c:v>38.109975443570782</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.309210976375333</c:v>
+                  <c:v>64.201192295582928</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.819091861286473</c:v>
+                  <c:v>41.790035023769143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9442,22 +9441,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+      <selection pane="topRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9466,28 +9465,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
@@ -9496,31 +9495,31 @@
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="18">
-        <v>27.431678500494879</v>
+        <v>29.985653532987659</v>
       </c>
       <c r="C2" s="18">
-        <v>-4.2845215365529441</v>
+        <v>2.6412175745389761</v>
       </c>
       <c r="D2" s="18">
-        <v>46.859211075368592</v>
+        <v>51.233613567754702</v>
       </c>
       <c r="E2" s="18">
-        <v>1.2421453389364829</v>
+        <v>7.0045877449116487</v>
       </c>
       <c r="F2" s="18">
-        <v>97.394899568044224</v>
+        <v>96.815771812871887</v>
       </c>
       <c r="G2" s="18">
-        <v>2.4683158328433992</v>
+        <v>2.9883770327002002</v>
       </c>
       <c r="H2" s="18">
-        <v>0.1236377314498045</v>
+        <v>0.1688423090890204</v>
       </c>
       <c r="I2" s="18">
-        <v>1.704760254170145E-2</v>
+        <v>3.3076693169993739E-2</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9529,31 +9528,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3" s="19">
-        <v>26.690981950630341</v>
+        <v>30.46780301694508</v>
       </c>
       <c r="C3" s="19">
-        <v>-2.765038792967947</v>
+        <v>6.350178201460972</v>
       </c>
       <c r="D3" s="19">
-        <v>39.914379093456589</v>
+        <v>43.92705656125122</v>
       </c>
       <c r="E3" s="19">
-        <v>0.62718363927491638</v>
+        <v>3.192843398428149</v>
       </c>
       <c r="F3" s="19">
-        <v>99.032712829565043</v>
+        <v>98.436531973065001</v>
       </c>
       <c r="G3" s="19">
-        <v>0.86882911049710554</v>
+        <v>1.2970185047221381</v>
       </c>
       <c r="H3" s="19">
-        <v>8.8690550095791423E-2</v>
+        <v>0.19829221692257371</v>
       </c>
       <c r="I3" s="19">
-        <v>2.0317981203168269E-2</v>
+        <v>9.9501814356318427E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9562,31 +9561,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" s="19">
-        <v>32.858176555716369</v>
+        <v>39.185962373371929</v>
       </c>
       <c r="C4" s="19">
-        <v>-6.0890468761987453</v>
+        <v>4.9714862615623856</v>
       </c>
       <c r="D4" s="19">
-        <v>51.347881899871631</v>
+        <v>56.354300385109113</v>
       </c>
       <c r="E4" s="19">
-        <v>1.9896193771626209</v>
+        <v>5.9591126576772568</v>
       </c>
       <c r="F4" s="19">
-        <v>99.378399378399379</v>
+        <v>99.548306148055204</v>
       </c>
       <c r="G4" s="19">
-        <v>0.49210049210049212</v>
+        <v>0.32622333751568378</v>
       </c>
       <c r="H4" s="19">
-        <v>5.1800051800051802E-2</v>
+        <v>2.5094102885821829E-2</v>
       </c>
       <c r="I4" s="19">
-        <v>7.7700077700077697E-2</v>
+        <v>0.1003764115432873</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -9595,31 +9594,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="19">
-        <v>24.962728717960669</v>
+        <v>28.15907785340784</v>
       </c>
       <c r="C5" s="19">
-        <v>-7.0445285229300172</v>
+        <v>3.1363298776291448</v>
       </c>
       <c r="D5" s="19">
-        <v>47.66162611096042</v>
+        <v>57.466972171029177</v>
       </c>
       <c r="E5" s="19">
-        <v>1.1365241942435349</v>
+        <v>7.6695823330751693</v>
       </c>
       <c r="F5" s="19">
-        <v>97.842183938752839</v>
+        <v>96.977764971175091</v>
       </c>
       <c r="G5" s="19">
-        <v>1.798558650081854</v>
+        <v>2.722502826297367</v>
       </c>
       <c r="H5" s="19">
-        <v>0.30312996991464969</v>
+        <v>0.26433549461416611</v>
       </c>
       <c r="I5" s="19">
-        <v>5.6127441250593962E-2</v>
+        <v>3.5396707913309081E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9628,31 +9627,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="19">
-        <v>24.871909236557769</v>
+        <v>27.287835856934208</v>
       </c>
       <c r="C6" s="19">
-        <v>-4.1930887062882789</v>
+        <v>2.2435816870549772</v>
       </c>
       <c r="D6" s="19">
-        <v>32.980935086022818</v>
+        <v>34.921342523863068</v>
       </c>
       <c r="E6" s="19">
-        <v>0.69774672945365113</v>
+        <v>3.0075474142558991</v>
       </c>
       <c r="F6" s="19">
-        <v>98.543360820346223</v>
+        <v>98.171325803748957</v>
       </c>
       <c r="G6" s="19">
-        <v>0.98791188190356771</v>
+        <v>1.3709693682161139</v>
       </c>
       <c r="H6" s="19">
-        <v>0.44849320592239789</v>
+        <v>0.45770482803466128</v>
       </c>
       <c r="I6" s="19">
-        <v>2.0234091827270501E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -9661,31 +9660,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" s="19">
-        <v>30.7218239178974</v>
+        <v>36.775855879729747</v>
       </c>
       <c r="C7" s="19">
-        <v>-5.4635388979257451</v>
+        <v>5.8438195785488576</v>
       </c>
       <c r="D7" s="19">
-        <v>58.945948193644668</v>
+        <v>63.301800543715693</v>
       </c>
       <c r="E7" s="19">
-        <v>0.582215169690941</v>
+        <v>14.01583425172768</v>
       </c>
       <c r="F7" s="19">
-        <v>93.122677239169519</v>
+        <v>92.561177044679795</v>
       </c>
       <c r="G7" s="19">
-        <v>6.676319599140232</v>
+        <v>7.0919613462272206</v>
       </c>
       <c r="H7" s="19">
-        <v>0.14725167466220521</v>
+        <v>0.24911343253011009</v>
       </c>
       <c r="I7" s="19">
-        <v>5.3751487027216667E-2</v>
+        <v>9.9631663874664628E-2</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9694,31 +9693,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8" s="19">
-        <v>21.452483736628309</v>
+        <v>22.63202810401938</v>
       </c>
       <c r="C8" s="19">
-        <v>-5.0219891877632357</v>
+        <v>2.6532282167323178</v>
       </c>
       <c r="D8" s="19">
-        <v>46.518019070944931</v>
+        <v>51.280053751820653</v>
       </c>
       <c r="E8" s="19">
-        <v>1.83932540605186</v>
+        <v>12.074843729119349</v>
       </c>
       <c r="F8" s="19">
-        <v>93.595265077372076</v>
+        <v>92.096507882994445</v>
       </c>
       <c r="G8" s="19">
-        <v>6.3867425828853248</v>
+        <v>7.8919525269173016</v>
       </c>
       <c r="H8" s="19">
-        <v>1.219886294889172E-2</v>
+        <v>5.7697950436667771E-3</v>
       </c>
       <c r="I8" s="19">
-        <v>5.7934767927913938E-3</v>
+        <v>5.7697950436667771E-3</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -9727,31 +9726,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" s="19">
-        <v>38.879773104536973</v>
+        <v>40.833220748997689</v>
       </c>
       <c r="C9" s="19">
-        <v>-4.3536330894066468</v>
+        <v>2.0149244274995088</v>
       </c>
       <c r="D9" s="19">
-        <v>47.014206555829951</v>
+        <v>53.060249828443588</v>
       </c>
       <c r="E9" s="19">
-        <v>3.3230504906479581</v>
+        <v>6.4101559053880504</v>
       </c>
       <c r="F9" s="19">
-        <v>97.828980810010478</v>
+        <v>97.195675220846866</v>
       </c>
       <c r="G9" s="19">
-        <v>1.9968574852357319</v>
+        <v>2.5794713740226158</v>
       </c>
       <c r="H9" s="19">
-        <v>0.16817239532799849</v>
+        <v>0.2179191258327704</v>
       </c>
       <c r="I9" s="19">
-        <v>2.7788449672971931E-2</v>
+        <v>3.5915230684323701E-2</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -9760,25 +9759,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" s="19">
-        <v>22.45095322509879</v>
+        <v>24.485313717724718</v>
       </c>
       <c r="C10" s="19">
-        <v>-3.014811613219246</v>
+        <v>2.2519087510196099</v>
       </c>
       <c r="D10" s="19">
-        <v>52.403440115203182</v>
+        <v>55.810848087179487</v>
       </c>
       <c r="E10" s="19">
-        <v>2.6152617074121061</v>
+        <v>4.9914974816778974</v>
       </c>
       <c r="F10" s="19">
-        <v>97.503931234522568</v>
+        <v>97.464031766552381</v>
       </c>
       <c r="G10" s="19">
-        <v>2.4960687654765632</v>
+        <v>2.5359682334467468</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -9793,28 +9792,28 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" s="19">
-        <v>16.317742231526001</v>
+        <v>15.0087390675072</v>
       </c>
       <c r="C11" s="19">
-        <v>-0.61680000000000001</v>
+        <v>7.9827999999999992</v>
       </c>
       <c r="D11" s="19">
-        <v>55.590437271969591</v>
+        <v>53.760126540926599</v>
       </c>
       <c r="E11" s="19">
-        <v>1.3977999999999999</v>
+        <v>14.092700000000001</v>
       </c>
       <c r="F11" s="19">
-        <v>96.376526191413006</v>
+        <v>96.794370602032004</v>
       </c>
       <c r="G11" s="19">
-        <v>3.6234738085860001</v>
+        <v>3.1665363565279998</v>
       </c>
       <c r="H11" s="19">
-        <v>0</v>
+        <v>3.9093041437999999E-2</v>
       </c>
       <c r="I11" s="19">
         <v>0</v>
@@ -9826,31 +9825,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" s="19">
-        <v>19.48694493942088</v>
+        <v>21.114816797249411</v>
       </c>
       <c r="C12" s="19">
-        <v>-6.4565241255178778</v>
+        <v>2.3430478684378162</v>
       </c>
       <c r="D12" s="19">
-        <v>36.457742702728268</v>
+        <v>39.174794374496422</v>
       </c>
       <c r="E12" s="19">
-        <v>-1.1519003005438559</v>
+        <v>4.2040750293103013</v>
       </c>
       <c r="F12" s="19">
-        <v>98.559341927453772</v>
+        <v>98.328004891621305</v>
       </c>
       <c r="G12" s="19">
-        <v>1.3270118718895441</v>
+        <v>1.549439563415596</v>
       </c>
       <c r="H12" s="19">
-        <v>0.1136462006560819</v>
+        <v>0.1212462714626366</v>
       </c>
       <c r="I12" s="19">
-        <v>0</v>
+        <v>2.907452062746502E-3</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9859,31 +9858,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B13" s="19">
-        <v>24.34205679484575</v>
+        <v>27.527664109194209</v>
       </c>
       <c r="C13" s="19">
-        <v>-2.2321939233514798</v>
+        <v>3.8995304586776398</v>
       </c>
       <c r="D13" s="19">
-        <v>45.954924774524478</v>
+        <v>49.483549800448323</v>
       </c>
       <c r="E13" s="19">
-        <v>1.8836113446857661</v>
+        <v>6.8249575653559669</v>
       </c>
       <c r="F13" s="19">
-        <v>98.224778054803778</v>
+        <v>97.625527929839052</v>
       </c>
       <c r="G13" s="19">
-        <v>1.7533660861473339</v>
+        <v>2.3201903027053961</v>
       </c>
       <c r="H13" s="19">
-        <v>1.840446281941651E-2</v>
+        <v>4.739160733846759E-2</v>
       </c>
       <c r="I13" s="19">
-        <v>7.2852863488526067E-3</v>
+        <v>1.4524767827270781E-2</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -9892,31 +9891,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B14" s="19">
-        <v>38.12889627761686</v>
+        <v>51.018250987830207</v>
       </c>
       <c r="C14" s="19">
-        <v>-6.1848833485505184</v>
+        <v>8.9387224561817025</v>
       </c>
       <c r="D14" s="19">
-        <v>49.62702610971008</v>
+        <v>51.949460165831283</v>
       </c>
       <c r="E14" s="19">
-        <v>0.60732200117057378</v>
+        <v>3.8219358633656548</v>
       </c>
       <c r="F14" s="19">
-        <v>96.535893155258762</v>
+        <v>96.124192540112517</v>
       </c>
       <c r="G14" s="19">
-        <v>3.4015025041736231</v>
+        <v>3.7091060637632838</v>
       </c>
       <c r="H14" s="19">
-        <v>4.1736227045075118E-2</v>
+        <v>0.12502604709314441</v>
       </c>
       <c r="I14" s="19">
-        <v>2.0868113522537559E-2</v>
+        <v>4.1675349031048137E-2</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -9925,25 +9924,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" s="19">
-        <v>12.97090070991433</v>
+        <v>13.40826240073898</v>
       </c>
       <c r="C15" s="19">
-        <v>-4.9206935329480972</v>
+        <v>0.4406050037118614</v>
       </c>
       <c r="D15" s="19">
-        <v>50.418799389060133</v>
+        <v>54.465325124529407</v>
       </c>
       <c r="E15" s="19">
-        <v>-0.82194560848505827</v>
+        <v>6.9529612671418954</v>
       </c>
       <c r="F15" s="19">
-        <v>99.445609123940685</v>
+        <v>99.379921583923149</v>
       </c>
       <c r="G15" s="19">
-        <v>0.55439087605932513</v>
+        <v>0.62007841607685343</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -9958,31 +9957,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B16" s="19">
-        <v>27.099827042761099</v>
+        <v>27.214477756015089</v>
       </c>
       <c r="C16" s="19">
-        <v>-3.3708561174512428</v>
+        <v>1.157091292273138</v>
       </c>
       <c r="D16" s="19">
-        <v>57.492149923580293</v>
+        <v>61.869154905318453</v>
       </c>
       <c r="E16" s="19">
-        <v>2.5873365199174172</v>
+        <v>8.4476962550076671</v>
       </c>
       <c r="F16" s="19">
-        <v>96.927789882104761</v>
+        <v>96.239034553666599</v>
       </c>
       <c r="G16" s="19">
-        <v>3.0576577054909899</v>
+        <v>3.7469345878210292</v>
       </c>
       <c r="H16" s="19">
-        <v>8.9772701280978404E-3</v>
+        <v>8.5166015892029854E-3</v>
       </c>
       <c r="I16" s="19">
-        <v>5.5751422744516332E-3</v>
+        <v>5.5142569214544591E-3</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9991,31 +9990,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" s="19">
-        <v>25.03928011844641</v>
+        <v>25.433056581950389</v>
       </c>
       <c r="C17" s="19">
-        <v>-2.7592171525508302</v>
+        <v>0.91493321169395003</v>
       </c>
       <c r="D17" s="19">
-        <v>45.134041540234598</v>
+        <v>47.351084363059748</v>
       </c>
       <c r="E17" s="19">
-        <v>2.3736216779336439</v>
+        <v>4.0120142382424619</v>
       </c>
       <c r="F17" s="19">
-        <v>98.863146753783099</v>
+        <v>98.285401840948211</v>
       </c>
       <c r="G17" s="19">
-        <v>1.118425330955688</v>
+        <v>1.642536068384991</v>
       </c>
       <c r="H17" s="19">
-        <v>1.842791525973202E-2</v>
+        <v>6.6109913076561985E-2</v>
       </c>
       <c r="I17" s="19">
-        <v>0</v>
+        <v>5.9521775894908566E-3</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -10024,28 +10023,28 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B18" s="19">
-        <v>15.35413381257605</v>
+        <v>14.994370016225901</v>
       </c>
       <c r="C18" s="19">
-        <v>-4.0440350026298013</v>
+        <v>2.5600195835817638</v>
       </c>
       <c r="D18" s="19">
-        <v>49.332795464113687</v>
+        <v>66.124519955499252</v>
       </c>
       <c r="E18" s="19">
-        <v>3.7187069105219011</v>
+        <v>3.7182966645695439</v>
       </c>
       <c r="F18" s="19">
-        <v>99.943062136389187</v>
+        <v>99.69118726378575</v>
       </c>
       <c r="G18" s="19">
-        <v>5.6937863610800381E-2</v>
+        <v>0.23874089740511639</v>
       </c>
       <c r="H18" s="19">
-        <v>0</v>
+        <v>7.0071838809142931E-2</v>
       </c>
       <c r="I18" s="19">
         <v>0</v>
@@ -10057,28 +10056,28 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B19" s="19">
-        <v>21.100935737302471</v>
+        <v>23.298244301536819</v>
       </c>
       <c r="C19" s="19">
-        <v>-4.6490241415293987</v>
+        <v>4.0302410797012236</v>
       </c>
       <c r="D19" s="19">
-        <v>42.554352972286701</v>
+        <v>51.129143314396238</v>
       </c>
       <c r="E19" s="19">
-        <v>-0.546653360838397</v>
+        <v>7.5309289969752928</v>
       </c>
       <c r="F19" s="19">
-        <v>99.455982408119155</v>
+        <v>99.306080406524529</v>
       </c>
       <c r="G19" s="19">
-        <v>0.48256185837387028</v>
+        <v>0.65240486769682393</v>
       </c>
       <c r="H19" s="19">
-        <v>6.145573350697172E-2</v>
+        <v>4.1514725778597543E-2</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -10090,31 +10089,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B20" s="19">
-        <v>26.58165133808555</v>
+        <v>31.381469670687441</v>
       </c>
       <c r="C20" s="19">
-        <v>-3.2245057662020522</v>
+        <v>1.190169851145908</v>
       </c>
       <c r="D20" s="19">
-        <v>40.804569555864049</v>
+        <v>49.129867653694546</v>
       </c>
       <c r="E20" s="19">
-        <v>0.90827387860551523</v>
+        <v>6.1253112337658084</v>
       </c>
       <c r="F20" s="19">
-        <v>98.49491872188382</v>
+        <v>96.720161828324891</v>
       </c>
       <c r="G20" s="19">
-        <v>1.452729752978215</v>
+        <v>2.9520235170167028</v>
       </c>
       <c r="H20" s="19">
-        <v>3.1534013391579623E-2</v>
+        <v>0.2332322594072426</v>
       </c>
       <c r="I20" s="19">
-        <v>2.081751174629486E-2</v>
+        <v>9.4582395251073648E-2</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10123,31 +10122,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B21" s="19">
-        <v>27.30244878000067</v>
+        <v>32.413899375238103</v>
       </c>
       <c r="C21" s="19">
-        <v>-2.560533897303245</v>
+        <v>3.53445350583574</v>
       </c>
       <c r="D21" s="19">
-        <v>36.145427032788191</v>
+        <v>38.807254655239547</v>
       </c>
       <c r="E21" s="19">
-        <v>1.033571628576309</v>
+        <v>2.6605435645787501</v>
       </c>
       <c r="F21" s="19">
-        <v>98.876682616011337</v>
+        <v>98.641785510971275</v>
       </c>
       <c r="G21" s="19">
-        <v>0.91645269386337369</v>
+        <v>1.109372201348173</v>
       </c>
       <c r="H21" s="19">
-        <v>0.1970669325106863</v>
+        <v>0.2087431869920402</v>
       </c>
       <c r="I21" s="19">
-        <v>9.7977576144533604E-3</v>
+        <v>4.0099100688366522E-2</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10156,31 +10155,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" s="19">
-        <v>32.930517821013858</v>
+        <v>32.4581756527556</v>
       </c>
       <c r="C22" s="19">
-        <v>-0.65444238230116969</v>
+        <v>0.1964829248547042</v>
       </c>
       <c r="D22" s="19">
-        <v>55.474680627584043</v>
+        <v>58.916569221413617</v>
       </c>
       <c r="E22" s="19">
-        <v>1.487862757232008</v>
+        <v>3.3808948530514291</v>
       </c>
       <c r="F22" s="19">
-        <v>99.643150036535744</v>
+        <v>99.627942903091949</v>
       </c>
       <c r="G22" s="19">
-        <v>0.33823644690833032</v>
+        <v>0.33485138721724439</v>
       </c>
       <c r="H22" s="19">
-        <v>1.8613516555848739E-2</v>
+        <v>1.8602854845402458E-2</v>
       </c>
       <c r="I22" s="19">
-        <v>0</v>
+        <v>1.8602854845402458E-2</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -10189,31 +10188,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B23" s="19">
-        <v>26.582419429254958</v>
+        <v>28.60806973156317</v>
       </c>
       <c r="C23" s="19">
-        <v>-3.4714813237233089</v>
+        <v>4.0810129232415546</v>
       </c>
       <c r="D23" s="19">
-        <v>56.633893432823818</v>
+        <v>60.536624357222387</v>
       </c>
       <c r="E23" s="19">
-        <v>1.790511180875888</v>
+        <v>7.7697082944205187</v>
       </c>
       <c r="F23" s="19">
-        <v>96.571936243701558</v>
+        <v>96.423231982626419</v>
       </c>
       <c r="G23" s="19">
-        <v>3.3717598717644979</v>
+        <v>3.5262994722959391</v>
       </c>
       <c r="H23" s="19">
-        <v>5.6303884531931393E-2</v>
+        <v>5.0468545075644279E-2</v>
       </c>
       <c r="I23" s="19">
-        <v>2.5023948680747411E-2</v>
+        <v>1.8925704402742289E-2</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10222,31 +10221,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B24" s="19">
-        <v>34.371435611880138</v>
+        <v>36.712863611790013</v>
       </c>
       <c r="C24" s="19">
-        <v>-5.0849850293295713</v>
+        <v>2.979936670860464</v>
       </c>
       <c r="D24" s="19">
-        <v>39.206082951389568</v>
+        <v>42.391110957665589</v>
       </c>
       <c r="E24" s="19">
-        <v>2.473997200694448</v>
+        <v>7.580884482746348</v>
       </c>
       <c r="F24" s="19">
-        <v>98.906343616816173</v>
+        <v>98.739989155515204</v>
       </c>
       <c r="G24" s="19">
-        <v>0.99075583711200454</v>
+        <v>1.17965517343249</v>
       </c>
       <c r="H24" s="19">
-        <v>0.1029005460709335</v>
+        <v>8.0355671050515165E-2</v>
       </c>
       <c r="I24" s="19">
-        <v>3.8313692315271558E-3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -10255,31 +10254,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B25" s="19">
-        <v>32.745449716767418</v>
+        <v>36.5050593192273</v>
       </c>
       <c r="C25" s="19">
-        <v>-3.6021304846946638</v>
+        <v>2.2729804012565511</v>
       </c>
       <c r="D25" s="19">
-        <v>52.04391353025764</v>
+        <v>59.771559000748702</v>
       </c>
       <c r="E25" s="19">
-        <v>3.003873403628889</v>
+        <v>8.3484853864404105</v>
       </c>
       <c r="F25" s="19">
-        <v>98.587785450564581</v>
+        <v>97.449609099969322</v>
       </c>
       <c r="G25" s="19">
-        <v>1.333317611885884</v>
+        <v>2.3897569082244599</v>
       </c>
       <c r="H25" s="19">
-        <v>7.5389755477345832E-2</v>
+        <v>0.1467384012397514</v>
       </c>
       <c r="I25" s="19">
-        <v>3.507182070819642E-3</v>
+        <v>1.3895590565780529E-2</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10288,31 +10287,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B26" s="19">
-        <v>35.412092374452698</v>
+        <v>37.4196408242966</v>
       </c>
       <c r="C26" s="19">
-        <v>-4.5352234503791724</v>
+        <v>0.73010414500402865</v>
       </c>
       <c r="D26" s="19">
-        <v>53.47333353116089</v>
+        <v>62.059851526613571</v>
       </c>
       <c r="E26" s="19">
-        <v>2.430369617776527</v>
+        <v>9.1368197026915965</v>
       </c>
       <c r="F26" s="19">
-        <v>97.929895501583275</v>
+        <v>97.03728982595797</v>
       </c>
       <c r="G26" s="19">
-        <v>1.8998682414248731</v>
+        <v>2.6257595564045149</v>
       </c>
       <c r="H26" s="19">
-        <v>0.16484133360430661</v>
+        <v>0.331537383098575</v>
       </c>
       <c r="I26" s="19">
-        <v>5.3949233861810657E-3</v>
+        <v>5.4132345382589923E-3</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -10321,28 +10320,28 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B27" s="19">
-        <v>21.697966627861021</v>
+        <v>26.027337140106749</v>
       </c>
       <c r="C27" s="19">
-        <v>-2.030617873869653</v>
+        <v>2.6272405609347018</v>
       </c>
       <c r="D27" s="19">
-        <v>27.370200612341499</v>
+        <v>31.584530951368549</v>
       </c>
       <c r="E27" s="19">
-        <v>-0.94187248012826963</v>
+        <v>1.36314250132006</v>
       </c>
       <c r="F27" s="19">
-        <v>99.128575182418629</v>
+        <v>98.803538289393543</v>
       </c>
       <c r="G27" s="19">
-        <v>0.79237008708814793</v>
+        <v>1.138449582932739</v>
       </c>
       <c r="H27" s="19">
-        <v>7.9054730492248482E-2</v>
+        <v>5.8012127672729182E-2</v>
       </c>
       <c r="I27" s="19">
         <v>0</v>
@@ -10354,31 +10353,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B28" s="19">
-        <v>20.453556265641058</v>
+        <v>22.14782259836521</v>
       </c>
       <c r="C28" s="19">
-        <v>-3.7108593541956258</v>
+        <v>1.8892628840291861</v>
       </c>
       <c r="D28" s="19">
-        <v>44.426412960296723</v>
+        <v>48.14257497999143</v>
       </c>
       <c r="E28" s="19">
-        <v>0.91253299022561696</v>
+        <v>4.5908658594822827</v>
       </c>
       <c r="F28" s="19">
-        <v>98.715521848320662</v>
+        <v>98.095085100655083</v>
       </c>
       <c r="G28" s="19">
-        <v>1.2045566443065181</v>
+        <v>1.8127379830915851</v>
       </c>
       <c r="H28" s="19">
-        <v>7.2535962647483465E-2</v>
+        <v>8.4161298053265415E-2</v>
       </c>
       <c r="I28" s="19">
-        <v>7.3855447252604923E-3</v>
+        <v>8.0156181999904569E-3</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10387,31 +10386,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B29" s="19">
-        <v>29.927242866450431</v>
+        <v>28.491832020741619</v>
       </c>
       <c r="C29" s="19">
-        <v>-4.5239833053391516</v>
+        <v>0.66714490290931128</v>
       </c>
       <c r="D29" s="19">
-        <v>48.737806376476442</v>
+        <v>47.29105164255656</v>
       </c>
       <c r="E29" s="19">
-        <v>-1.387663915182868</v>
+        <v>0.96417285016663357</v>
       </c>
       <c r="F29" s="19">
-        <v>97.193149381541389</v>
+        <v>96.778777830412125</v>
       </c>
       <c r="G29" s="19">
-        <v>2.616555661274977</v>
+        <v>2.8896257697773571</v>
       </c>
       <c r="H29" s="19">
-        <v>0.14272121788772599</v>
+        <v>0.23685457129322601</v>
       </c>
       <c r="I29" s="19">
-        <v>4.7573739295908662E-2</v>
+        <v>9.4741828517290391E-2</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -10420,28 +10419,28 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B30" s="19">
-        <v>23.11774951111828</v>
+        <v>24.831636949603631</v>
       </c>
       <c r="C30" s="19">
-        <v>-3.1658592850035712</v>
+        <v>1.0598451364560471</v>
       </c>
       <c r="D30" s="19">
-        <v>40.651391572376333</v>
+        <v>40.791383824459487</v>
       </c>
       <c r="E30" s="19">
-        <v>0.44647638552472019</v>
+        <v>0.58141626089926646</v>
       </c>
       <c r="F30" s="19">
-        <v>99.324182038411635</v>
+        <v>99.645239838885203</v>
       </c>
       <c r="G30" s="19">
-        <v>0.63481845651665092</v>
+        <v>0.35476016111479269</v>
       </c>
       <c r="H30" s="19">
-        <v>4.0999505071734478E-2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="19">
         <v>0</v>
@@ -10453,31 +10452,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B31" s="19">
-        <v>26.777514294592461</v>
+        <v>33.65695604821466</v>
       </c>
       <c r="C31" s="19">
-        <v>-5.8832668766941332</v>
+        <v>6.9968880753418059</v>
       </c>
       <c r="D31" s="19">
-        <v>62.591569094776887</v>
+        <v>63.897054786724738</v>
       </c>
       <c r="E31" s="19">
-        <v>2.480969014786035</v>
+        <v>4.1633192635610436</v>
       </c>
       <c r="F31" s="19">
-        <v>96.985972407249946</v>
+        <v>96.317441416381612</v>
       </c>
       <c r="G31" s="19">
-        <v>2.8157180268611768</v>
+        <v>3.5114102168928318</v>
       </c>
       <c r="H31" s="19">
-        <v>0.13947057482461619</v>
+        <v>0.10627154832161791</v>
       </c>
       <c r="I31" s="19">
-        <v>5.8838991064267293E-2</v>
+        <v>6.4876818403939412E-2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10486,31 +10485,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B32" s="19">
-        <v>35.672320951728992</v>
+        <v>39.311448512745237</v>
       </c>
       <c r="C32" s="19">
-        <v>-5.4046829129488918</v>
+        <v>1.362774887327552</v>
       </c>
       <c r="D32" s="19">
-        <v>35.852559683057791</v>
+        <v>41.396460482444013</v>
       </c>
       <c r="E32" s="19">
-        <v>2.4556374081014991</v>
+        <v>6.1155398905645226</v>
       </c>
       <c r="F32" s="19">
-        <v>99.599389651957395</v>
+        <v>99.311479191764278</v>
       </c>
       <c r="G32" s="19">
-        <v>0.33651269235468939</v>
+        <v>0.57643602549840145</v>
       </c>
       <c r="H32" s="19">
-        <v>6.4097655686146268E-2</v>
+        <v>0.1120847827355556</v>
       </c>
       <c r="I32" s="19">
-        <v>1.6024413921316431E-2</v>
+        <v>1.6012111818861759E-2</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -10519,31 +10518,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B33" s="19">
-        <v>25.19338748879926</v>
+        <v>27.25033967691359</v>
       </c>
       <c r="C33" s="19">
-        <v>-4.0418525627670689</v>
+        <v>2.9209277878143189</v>
       </c>
       <c r="D33" s="19">
-        <v>52.739503276729337</v>
+        <v>58.968527930787047</v>
       </c>
       <c r="E33" s="19">
-        <v>1.663674013848274</v>
+        <v>7.541445909883322</v>
       </c>
       <c r="F33" s="19">
-        <v>96.674587348553061</v>
+        <v>95.329450664474081</v>
       </c>
       <c r="G33" s="19">
-        <v>3.2034857161046748</v>
+        <v>4.5049364106840004</v>
       </c>
       <c r="H33" s="19">
-        <v>0.11881175675046481</v>
+        <v>0.1625090682393163</v>
       </c>
       <c r="I33" s="19">
-        <v>3.1151785912168798E-3</v>
+        <v>7.0099637885039246E-3</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -10552,31 +10551,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B34" s="19">
-        <v>43.64858675598817</v>
+        <v>45.019938473914692</v>
       </c>
       <c r="C34" s="19">
-        <v>-3.7932418177011611</v>
+        <v>1.6351977504116091</v>
       </c>
       <c r="D34" s="19">
-        <v>54.43440322971324</v>
+        <v>56.176395804658597</v>
       </c>
       <c r="E34" s="19">
-        <v>2.3444688064383841</v>
+        <v>8.2785509426458432</v>
       </c>
       <c r="F34" s="19">
-        <v>93.805138441747147</v>
+        <v>92.430502668765115</v>
       </c>
       <c r="G34" s="19">
-        <v>5.2629470541277179</v>
+        <v>6.1772833091017603</v>
       </c>
       <c r="H34" s="19">
-        <v>0.9319145041234409</v>
+        <v>1.392214022131417</v>
       </c>
       <c r="I34" s="19">
-        <v>0.27051933262762567</v>
+        <v>0.38105019883589358</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -10585,31 +10584,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B35" s="19">
-        <v>29.989356613845381</v>
+        <v>31.119980044866011</v>
       </c>
       <c r="C35" s="19">
-        <v>-2.973803516147707</v>
+        <v>1.6363424854512989</v>
       </c>
       <c r="D35" s="19">
-        <v>46.361642229806023</v>
+        <v>51.453053002783548</v>
       </c>
       <c r="E35" s="19">
-        <v>1.040294516012735</v>
+        <v>6.5398143245568008</v>
       </c>
       <c r="F35" s="19">
-        <v>97.090726181336152</v>
+        <v>96.714859870805583</v>
       </c>
       <c r="G35" s="19">
-        <v>2.7221268880319771</v>
+        <v>3.0657827578256089</v>
       </c>
       <c r="H35" s="19">
-        <v>0.1836702684803676</v>
+        <v>0.2089370233926949</v>
       </c>
       <c r="I35" s="19">
-        <v>3.476662151503938E-3</v>
+        <v>1.042034797612491E-2</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10618,31 +10617,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B36" s="19">
-        <v>29.72633157620945</v>
+        <v>33.458890974525907</v>
       </c>
       <c r="C36" s="19">
-        <v>-4.2542144124050409</v>
+        <v>2.1982114411354581</v>
       </c>
       <c r="D36" s="19">
-        <v>46.17570481951379</v>
+        <v>50.35192501828864</v>
       </c>
       <c r="E36" s="19">
-        <v>-0.14899299644231229</v>
+        <v>4.150442907865683</v>
       </c>
       <c r="F36" s="19">
-        <v>97.957625348930861</v>
+        <v>97.485501030635874</v>
       </c>
       <c r="G36" s="19">
-        <v>1.953803862326474</v>
+        <v>2.3940528477374059</v>
       </c>
       <c r="H36" s="19">
-        <v>7.871283337069343E-2</v>
+        <v>0.1139157541709412</v>
       </c>
       <c r="I36" s="19">
-        <v>9.8579553719543543E-3</v>
+        <v>6.530367455788201E-3</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -10651,28 +10650,28 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B37" s="19">
-        <v>15.441059976385009</v>
+        <v>14.767772623586501</v>
       </c>
       <c r="C37" s="19">
-        <v>-2.5291000785037272</v>
+        <v>-3.711945185477223</v>
       </c>
       <c r="D37" s="19">
-        <v>18.770760618940951</v>
+        <v>16.80844074070151</v>
       </c>
       <c r="E37" s="19">
-        <v>-1.9792098434051171</v>
+        <v>0.14640664605596501</v>
       </c>
       <c r="F37" s="19">
-        <v>99.883387163220689</v>
+        <v>99.914306288224111</v>
       </c>
       <c r="G37" s="19">
-        <v>8.7459627584479782E-2</v>
+        <v>8.5693711775879977E-2</v>
       </c>
       <c r="H37" s="19">
-        <v>2.9153209194826592E-2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="19">
         <v>0</v>
@@ -10684,31 +10683,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B38" s="19">
-        <v>30.89211366874823</v>
+        <v>34.791248949303338</v>
       </c>
       <c r="C38" s="19">
-        <v>-2.0804230885661008</v>
+        <v>-0.46035022113164248</v>
       </c>
       <c r="D38" s="19">
-        <v>49.414986107715769</v>
+        <v>57.025517713619017</v>
       </c>
       <c r="E38" s="19">
-        <v>2.4642287931251139</v>
+        <v>5.2389611928841848</v>
       </c>
       <c r="F38" s="19">
-        <v>98.577411468601611</v>
+        <v>96.595762850358341</v>
       </c>
       <c r="G38" s="19">
-        <v>1.2971871274836111</v>
+        <v>3.0770673703500662</v>
       </c>
       <c r="H38" s="19">
-        <v>0.1085541085862719</v>
+        <v>0.22263887185648881</v>
       </c>
       <c r="I38" s="19">
-        <v>2.014566593337731E-2</v>
+        <v>0.1045309074350826</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10717,28 +10716,28 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B39" s="19">
-        <v>18.30281325743405</v>
+        <v>21.359156501537111</v>
       </c>
       <c r="C39" s="19">
-        <v>-4.9669110313888041</v>
+        <v>1.87198264903802</v>
       </c>
       <c r="D39" s="19">
-        <v>32.586558083150209</v>
+        <v>37.861181256572173</v>
       </c>
       <c r="E39" s="19">
-        <v>0.97445093825393048</v>
+        <v>5.1716564286455764</v>
       </c>
       <c r="F39" s="19">
-        <v>99.342194493116722</v>
+        <v>99.384941262106466</v>
       </c>
       <c r="G39" s="19">
-        <v>0.60144140638863652</v>
+        <v>0.55844390076227834</v>
       </c>
       <c r="H39" s="19">
-        <v>5.6364100494638893E-2</v>
+        <v>5.6614837131245321E-2</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
@@ -10750,31 +10749,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B40" s="19">
-        <v>34.917355690985978</v>
+        <v>35.757588342554683</v>
       </c>
       <c r="C40" s="19">
-        <v>-5.2626741796012793</v>
+        <v>2.7237857936539078</v>
       </c>
       <c r="D40" s="19">
-        <v>42.60908597161643</v>
+        <v>43.098062235247717</v>
       </c>
       <c r="E40" s="19">
-        <v>2.2979866340899879</v>
+        <v>7.5118240496164894</v>
       </c>
       <c r="F40" s="19">
-        <v>97.52376832097174</v>
+        <v>97.393352893986631</v>
       </c>
       <c r="G40" s="19">
-        <v>2.0365741223381089</v>
+        <v>2.1657711629386709</v>
       </c>
       <c r="H40" s="19">
-        <v>0.4235688166863269</v>
+        <v>0.37650461331486618</v>
       </c>
       <c r="I40" s="19">
-        <v>4.2717787113724287E-2</v>
+        <v>9.9768438411993343E-2</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10783,31 +10782,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B41" s="19">
-        <v>25.27306540960819</v>
+        <v>27.177199152379082</v>
       </c>
       <c r="C41" s="19">
-        <v>-3.861656207340868</v>
+        <v>3.209726414210472</v>
       </c>
       <c r="D41" s="19">
-        <v>44.924040801654087</v>
+        <v>50.019350129928668</v>
       </c>
       <c r="E41" s="19">
-        <v>2.9790444925035149</v>
+        <v>7.5760917155883396</v>
       </c>
       <c r="F41" s="19">
-        <v>97.953115553597456</v>
+        <v>97.230310338884081</v>
       </c>
       <c r="G41" s="19">
-        <v>2.0178933158591721</v>
+        <v>2.720853268176274</v>
       </c>
       <c r="H41" s="19">
-        <v>2.8991130542435579E-2</v>
+        <v>4.8836392938695572E-2</v>
       </c>
       <c r="I41" s="19">
-        <v>6.6809656974967536E-3</v>
+        <v>2.6797610151481469E-2</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10816,25 +10815,25 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B42" s="19">
-        <v>27.64</v>
+        <v>31.44</v>
       </c>
       <c r="C42" s="19">
-        <v>-3.54</v>
+        <v>0.23</v>
       </c>
       <c r="D42" s="19">
-        <v>53.080000000000013</v>
+        <v>61.34</v>
       </c>
       <c r="E42" s="19">
-        <v>1.96</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="F42" s="19">
-        <v>99.24</v>
+        <v>98.960000000000008</v>
       </c>
       <c r="G42" s="19">
-        <v>0.71000000000000008</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="H42" s="19">
         <v>0.05</v>
@@ -10849,28 +10848,28 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B43" s="19">
-        <v>30.138615026489241</v>
+        <v>33.618190355872272</v>
       </c>
       <c r="C43" s="19">
-        <v>-3.3066490661979571</v>
+        <v>1.3369024181245659</v>
       </c>
       <c r="D43" s="19">
-        <v>44.787090939050877</v>
+        <v>50.850994095446772</v>
       </c>
       <c r="E43" s="19">
-        <v>-4.5176642822348873E-2</v>
+        <v>4.3169878676519922</v>
       </c>
       <c r="F43" s="19">
-        <v>99.123617465135553</v>
+        <v>98.689380861383412</v>
       </c>
       <c r="G43" s="19">
-        <v>0.85824647066407234</v>
+        <v>1.238382360393067</v>
       </c>
       <c r="H43" s="19">
-        <v>1.8136064200225989E-2</v>
+        <v>7.2236778223360387E-2</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
@@ -10882,25 +10881,25 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B44" s="19">
-        <v>12.24194905870432</v>
+        <v>11.802577690719099</v>
       </c>
       <c r="C44" s="19">
-        <v>-1.1053020912060809</v>
+        <v>-8.5953047858208844</v>
       </c>
       <c r="D44" s="19">
-        <v>4.3921749558150296</v>
+        <v>2.061296676245735</v>
       </c>
       <c r="E44" s="19">
-        <v>-1.97919626025964</v>
+        <v>-1.959884526806855</v>
       </c>
       <c r="F44" s="19">
-        <v>99.92769051292106</v>
+        <v>99.927736509556269</v>
       </c>
       <c r="G44" s="19">
-        <v>7.230948707893177E-2</v>
+        <v>7.2263490443739142E-2</v>
       </c>
       <c r="H44" s="19">
         <v>0</v>
@@ -10915,31 +10914,31 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B45" s="19">
-        <v>25.528512707110892</v>
+        <v>28.884008635297299</v>
       </c>
       <c r="C45" s="19">
-        <v>-4.4907143930084281</v>
+        <v>3.3925155554257711</v>
       </c>
       <c r="D45" s="19">
-        <v>38.042319185410072</v>
+        <v>42.638357911364487</v>
       </c>
       <c r="E45" s="19">
-        <v>-1.371298043005087E-2</v>
+        <v>5.0838750059414606</v>
       </c>
       <c r="F45" s="19">
-        <v>98.452860756100335</v>
+        <v>97.84197581433132</v>
       </c>
       <c r="G45" s="19">
-        <v>1.460083670650705</v>
+        <v>2.0078390227323348</v>
       </c>
       <c r="H45" s="19">
-        <v>8.1310200744223779E-2</v>
+        <v>0.13875401665574219</v>
       </c>
       <c r="I45" s="19">
-        <v>1.1553243985427239E-2</v>
+        <v>2.8916493120628529E-2</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10948,31 +10947,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B46" s="19">
-        <v>24.871071993161209</v>
+        <v>27.74567795292371</v>
       </c>
       <c r="C46" s="19">
-        <v>-4.9025511565034687</v>
+        <v>1.0140167149060639</v>
       </c>
       <c r="D46" s="19">
-        <v>41.431031495994709</v>
+        <v>44.886211756745062</v>
       </c>
       <c r="E46" s="19">
-        <v>0.24142358243066281</v>
+        <v>4.3972214465147781</v>
       </c>
       <c r="F46" s="19">
-        <v>98.19027587366466</v>
+        <v>97.703289436010635</v>
       </c>
       <c r="G46" s="19">
-        <v>1.6858767563636801</v>
+        <v>2.1064738079638761</v>
       </c>
       <c r="H46" s="19">
-        <v>0.1062347520563235</v>
+        <v>0.17128812977155239</v>
       </c>
       <c r="I46" s="19">
-        <v>1.9207120561895458E-2</v>
+        <v>2.052629269740272E-2</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -10981,28 +10980,28 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B47" s="19">
-        <v>27.524292715360101</v>
+        <v>24.6058742190895</v>
       </c>
       <c r="C47" s="19">
-        <v>-6.6777000000000006</v>
+        <v>1.8848</v>
       </c>
       <c r="D47" s="19">
-        <v>41.1331702055802</v>
+        <v>38.569430311772599</v>
       </c>
       <c r="E47" s="19">
-        <v>0.62219999999999998</v>
+        <v>3.5821999999999998</v>
       </c>
       <c r="F47" s="19">
-        <v>97.561321423506996</v>
+        <v>97.625698324021997</v>
       </c>
       <c r="G47" s="19">
-        <v>2.4386785764919998</v>
+        <v>2.3603351955299998</v>
       </c>
       <c r="H47" s="19">
-        <v>0</v>
+        <v>1.3966480446000001E-2</v>
       </c>
       <c r="I47" s="19">
         <v>0</v>
@@ -11014,25 +11013,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B48" s="19">
-        <v>37.980858544707942</v>
+        <v>37.874258005701627</v>
       </c>
       <c r="C48" s="19">
-        <v>-2.1929880760428682</v>
+        <v>-1.1548377268904091</v>
       </c>
       <c r="D48" s="19">
-        <v>33.048406142331743</v>
+        <v>36.37036053316578</v>
       </c>
       <c r="E48" s="19">
-        <v>4.0138696569579153</v>
+        <v>3.9905078598018862</v>
       </c>
       <c r="F48" s="19">
-        <v>99.698793208703023</v>
+        <v>99.812073982994804</v>
       </c>
       <c r="G48" s="19">
-        <v>0.30120679129603839</v>
+        <v>0.18792601700425399</v>
       </c>
       <c r="H48" s="19">
         <v>0</v>
@@ -11047,31 +11046,31 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B49" s="19">
-        <v>23.710084587558541</v>
+        <v>25.111694254561669</v>
       </c>
       <c r="C49" s="19">
-        <v>-3.8601608651679942</v>
+        <v>4.1669372916060663</v>
       </c>
       <c r="D49" s="19">
-        <v>52.462918124666551</v>
+        <v>55.032648518934153</v>
       </c>
       <c r="E49" s="19">
-        <v>2.300221376678159</v>
+        <v>8.7270309227939595</v>
       </c>
       <c r="F49" s="19">
-        <v>98.325265647106335</v>
+        <v>98.159781892890763</v>
       </c>
       <c r="G49" s="19">
-        <v>1.6447455987938839</v>
+        <v>1.7684808854853811</v>
       </c>
       <c r="H49" s="19">
-        <v>2.9988754099087599E-2</v>
+        <v>7.1737221623156461E-2</v>
       </c>
       <c r="I49" s="19">
-        <v>4.7671407909534724E-3</v>
+        <v>9.5286758328747764E-3</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -11080,31 +11079,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B50" s="19">
-        <v>31.63878219792668</v>
+        <v>31.375387669718641</v>
       </c>
       <c r="C50" s="19">
-        <v>-5.8914711559805273</v>
+        <v>1.79565761145921</v>
       </c>
       <c r="D50" s="19">
-        <v>38.89751697518993</v>
+        <v>39.647584446223703</v>
       </c>
       <c r="E50" s="19">
-        <v>2.5332046390852709</v>
+        <v>7.1240112316619699</v>
       </c>
       <c r="F50" s="19">
-        <v>96.275821162153477</v>
+        <v>96.112617680368587</v>
       </c>
       <c r="G50" s="19">
-        <v>2.8655115591379952</v>
+        <v>3.015186041484637</v>
       </c>
       <c r="H50" s="19">
-        <v>0.85435674032642339</v>
+        <v>0.83778532817406459</v>
       </c>
       <c r="I50" s="19">
-        <v>1.8297630734437249E-2</v>
+        <v>4.3709082607910822E-2</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -11113,31 +11112,31 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B51" s="19">
-        <v>23.526240906565491</v>
+        <v>25.71950868351696</v>
       </c>
       <c r="C51" s="19">
-        <v>-5.8045453053317413</v>
+        <v>5.4652827847714374</v>
       </c>
       <c r="D51" s="19">
-        <v>35.095456431323832</v>
+        <v>38.109975443570782</v>
       </c>
       <c r="E51" s="19">
-        <v>2.9047152755334542</v>
+        <v>6.1223099364733917</v>
       </c>
       <c r="F51" s="19">
-        <v>97.036131800044785</v>
+        <v>96.786214465726744</v>
       </c>
       <c r="G51" s="19">
-        <v>2.4779142379610142</v>
+        <v>2.420652097722952</v>
       </c>
       <c r="H51" s="19">
-        <v>0.39809976562886867</v>
+        <v>0.61749205693821452</v>
       </c>
       <c r="I51" s="19">
-        <v>8.7854196364271914E-2</v>
+        <v>0.17564137961156109</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11146,31 +11145,31 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B52" s="19">
-        <v>31.538118215958249</v>
+        <v>26.401441382739542</v>
       </c>
       <c r="C52" s="19">
-        <v>-4.5492861495508817E-2</v>
+        <v>0.5758533465661454</v>
       </c>
       <c r="D52" s="19">
-        <v>59.309210976375333</v>
+        <v>64.201192295582928</v>
       </c>
       <c r="E52" s="19">
-        <v>1.6194676036248841</v>
+        <v>7.4790708439560474</v>
       </c>
       <c r="F52" s="19">
-        <v>97.01340719569653</v>
+        <v>96.277250336247334</v>
       </c>
       <c r="G52" s="19">
-        <v>2.9716217776243661</v>
+        <v>3.4990740187089351</v>
       </c>
       <c r="H52" s="19">
-        <v>1.497102667909596E-2</v>
+        <v>0.171448336124222</v>
       </c>
       <c r="I52" s="19">
-        <v>0</v>
+        <v>5.2227308919491011E-2</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11179,28 +11178,28 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B53" s="19">
-        <v>27.58369350654171</v>
+        <v>24.975612090332941</v>
       </c>
       <c r="C53" s="19">
-        <v>-3.5389738483996069</v>
+        <v>2.7417570962749549</v>
       </c>
       <c r="D53" s="19">
-        <v>39.819091861286473</v>
+        <v>41.790035023769143</v>
       </c>
       <c r="E53" s="19">
-        <v>-1.023312396256659</v>
+        <v>5.0129553907007676</v>
       </c>
       <c r="F53" s="19">
-        <v>98.518518518518519</v>
+        <v>97.203947368421055</v>
       </c>
       <c r="G53" s="19">
-        <v>1.4814814814814821</v>
+        <v>2.549342105263158</v>
       </c>
       <c r="H53" s="19">
-        <v>0</v>
+        <v>0.24671052631578949</v>
       </c>
       <c r="I53" s="19">
         <v>0</v>
@@ -11281,10 +11280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11591,6 +11590,22 @@
       </c>
       <c r="C40" s="10">
         <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="14">
+        <v>44163</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="14">
+        <v>44170</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.35199999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D959EF-97D5-F440-A0C5-8831979DEE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82768ECE-4A52-4C42-8F84-AC36A1E789B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="5120" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3480" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>Utilization</t>
+  </si>
+  <si>
+    <t>downstream_growth_overall</t>
+  </si>
+  <si>
+    <t>downstream_growth_past_week</t>
+  </si>
+  <si>
+    <t>upstream_growth_overall</t>
+  </si>
+  <si>
+    <t>upstream_growth_past_week</t>
+  </si>
+  <si>
+    <t>performance_normal</t>
+  </si>
+  <si>
+    <t>performance_elevated</t>
+  </si>
+  <si>
+    <t>performance_substantially_elevated</t>
+  </si>
+  <si>
+    <t>performance_severely_elevated</t>
   </si>
   <si>
     <t>US</t>
@@ -201,30 +225,6 @@
   <si>
     <t>WY</t>
   </si>
-  <si>
-    <t>downstream_growth_overall</t>
-  </si>
-  <si>
-    <t>downstream_growth_past_week</t>
-  </si>
-  <si>
-    <t>upstream_growth_overall</t>
-  </si>
-  <si>
-    <t>upstream_growth_past_week</t>
-  </si>
-  <si>
-    <t>performance_normal</t>
-  </si>
-  <si>
-    <t>performance_elevated</t>
-  </si>
-  <si>
-    <t>performance_substantially_elevated</t>
-  </si>
-  <si>
-    <t>performance_severely_elevated</t>
-  </si>
 </sst>
 </file>
 
@@ -232,7 +232,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -450,8 +450,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -789,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>2.6412175745389761</c:v>
+                  <c:v>1.3561285753472549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.350178201460972</c:v>
+                  <c:v>2.899471166606244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9714862615623856</c:v>
+                  <c:v>-0.63991947080817013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1363298776291448</c:v>
+                  <c:v>3.9251885447634449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2435816870549772</c:v>
+                  <c:v>0.61505128597295788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8438195785488576</c:v>
+                  <c:v>1.408146223819609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6532282167323178</c:v>
+                  <c:v>2.6749400388828461</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0149244274995088</c:v>
+                  <c:v>-1.152134832021783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2519087510196099</c:v>
+                  <c:v>3.1689277278102361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9827999999999992</c:v>
+                  <c:v>0.77470000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3430478684378162</c:v>
+                  <c:v>0.957972488645364</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8995304586776398</c:v>
+                  <c:v>1.0568483149601471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9387224561817025</c:v>
+                  <c:v>4.7322557157222223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4406050037118614</c:v>
+                  <c:v>-1.0336603593182341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.157091292273138</c:v>
+                  <c:v>1.8202707823571369</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91493321169395003</c:v>
+                  <c:v>0.47951103196752998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5600195835817638</c:v>
+                  <c:v>-0.55810925058180638</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0302410797012236</c:v>
+                  <c:v>6.4366135002299831</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.190169851145908</c:v>
+                  <c:v>2.1299640057325671</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.53445350583574</c:v>
+                  <c:v>1.539893955310536</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1964829248547042</c:v>
+                  <c:v>2.539968685612755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0810129232415546</c:v>
+                  <c:v>-0.46291208445116733</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.979936670860464</c:v>
+                  <c:v>-1.134165318132262</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2729804012565511</c:v>
+                  <c:v>2.2983795289673239</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.73010414500402865</c:v>
+                  <c:v>-0.46257868438890148</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6272405609347018</c:v>
+                  <c:v>-1.5337153023436541</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8892628840291861</c:v>
+                  <c:v>4.8319414090391311</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66714490290931128</c:v>
+                  <c:v>2.3226219667691561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0598451364560471</c:v>
+                  <c:v>4.7607803450549566</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.9968880753418059</c:v>
+                  <c:v>2.1453073279928061</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.362774887327552</c:v>
+                  <c:v>-1.1611204530264361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9209277878143189</c:v>
+                  <c:v>-1.297755204339089</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6351977504116091</c:v>
+                  <c:v>0.36218824130786048</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6363424854512989</c:v>
+                  <c:v>0.44230558358861299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.1982114411354581</c:v>
+                  <c:v>4.2574023097400522</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.711945185477223</c:v>
+                  <c:v>0.56190243141513962</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.46035022113164248</c:v>
+                  <c:v>2.1041578073816418</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.87198264903802</c:v>
+                  <c:v>1.3154264697790219</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.7237857936539078</c:v>
+                  <c:v>8.536358014835263E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.209726414210472</c:v>
+                  <c:v>0.16016634924392689</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.23</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3369024181245659</c:v>
+                  <c:v>3.3448336042656779</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.5953047858208844</c:v>
+                  <c:v>0.71170112964552457</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.3925155554257711</c:v>
+                  <c:v>-1.0913575356397851</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0140167149060639</c:v>
+                  <c:v>3.6943354473564218</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.8848</c:v>
+                  <c:v>0.28889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.1548377268904091</c:v>
+                  <c:v>-0.59371005275039157</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.1669372916060663</c:v>
+                  <c:v>0.97236606343597654</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.79565761145921</c:v>
+                  <c:v>1.901763692953079</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.4652827847714374</c:v>
+                  <c:v>-2.7174924950575128</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5758533465661454</c:v>
+                  <c:v>2.9789920809897521</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.7417570962749549</c:v>
+                  <c:v>1.61381984928719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,7 +1021,7 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
+          <c:min val="-8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1444,160 +1444,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>7.0045877449116487</c:v>
+                  <c:v>-2.7997151669250822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.192843398428149</c:v>
+                  <c:v>-1.4408646098675499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9591126576772568</c:v>
+                  <c:v>-15.118050266565129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6695823330751693</c:v>
+                  <c:v>1.2038661889470821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0075474142558991</c:v>
+                  <c:v>-0.98727660793987038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.01583425172768</c:v>
+                  <c:v>-0.34506234295017763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.074843729119349</c:v>
+                  <c:v>-2.526998661424968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4101559053880504</c:v>
+                  <c:v>-5.7378782872092788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9914974816778974</c:v>
+                  <c:v>-3.4486345447847349</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.092700000000001</c:v>
+                  <c:v>-6.8804000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2040750293103013</c:v>
+                  <c:v>-3.6733745649995511</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8249575653559669</c:v>
+                  <c:v>-1.1968989269497909</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8219358633656548</c:v>
+                  <c:v>14.02136943243646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9529612671418954</c:v>
+                  <c:v>-2.981747538811196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.4476962550076671</c:v>
+                  <c:v>-2.1628302287622412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0120142382424619</c:v>
+                  <c:v>-1.401972800392151</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7182966645695439</c:v>
+                  <c:v>-11.51032355757418</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5309289969752928</c:v>
+                  <c:v>0.71245768086103245</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1253112337658084</c:v>
+                  <c:v>-6.3919248824228383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6605435645787501</c:v>
+                  <c:v>-0.39002333322920069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3808948530514291</c:v>
+                  <c:v>-8.0903786267510185</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7697082944205187</c:v>
+                  <c:v>-5.370194259182032</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.580884482746348</c:v>
+                  <c:v>-5.4020626694989957</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3484853864404105</c:v>
+                  <c:v>-3.065449422654031</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.1368197026915965</c:v>
+                  <c:v>-6.0419806651420309</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.36314250132006</c:v>
+                  <c:v>-3.289660002071392</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5908658594822827</c:v>
+                  <c:v>-3.8558957954011048</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.96417285016663357</c:v>
+                  <c:v>-9.9084545931627517</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.58141626089926646</c:v>
+                  <c:v>5.4228164359154807</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.1633192635610436</c:v>
+                  <c:v>-0.96624402480350047</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1155398905645226</c:v>
+                  <c:v>-9.3458766380143281</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.541445909883322</c:v>
+                  <c:v>-6.4752568220668421</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.2785509426458432</c:v>
+                  <c:v>-3.619611659278112</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.5398143245568008</c:v>
+                  <c:v>-2.6694839657874478</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.150442907865683</c:v>
+                  <c:v>-6.2640828012953689</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.14640664605596501</c:v>
+                  <c:v>-1.667762078557955</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.2389611928841848</c:v>
+                  <c:v>-4.7687319142360174</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.1716564286455764</c:v>
+                  <c:v>1.462498230362161</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.5118240496164894</c:v>
+                  <c:v>-5.9956605737137174</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.5760917155883396</c:v>
+                  <c:v>-3.5420881547600618</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.7600000000000007</c:v>
+                  <c:v>-2.54</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3169878676519922</c:v>
+                  <c:v>-4.0925289453411082</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.959884526806855</c:v>
+                  <c:v>-1.272776830892149</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.0838750059414606</c:v>
+                  <c:v>-1.8208441520775229</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.3972214465147781</c:v>
+                  <c:v>1.7731609765666529</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.5821999999999998</c:v>
+                  <c:v>-3.1526999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9905078598018862</c:v>
+                  <c:v>-3.1232267906201092</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.7270309227939595</c:v>
+                  <c:v>-1.921469280532015</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.1240112316619699</c:v>
+                  <c:v>-3.194189369300656</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.1223099364733917</c:v>
+                  <c:v>-0.73521115413709159</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.4790708439560474</c:v>
+                  <c:v>3.942904599637008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.0129553907007676</c:v>
+                  <c:v>-9.1745634207812792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1676,6 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2104,160 +2103,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>2.9883770327002002</c:v>
+                  <c:v>1.7386240470054191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2970185047221381</c:v>
+                  <c:v>1.546961380535226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32622333751568378</c:v>
+                  <c:v>3.447087211306446E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.722502826297367</c:v>
+                  <c:v>1.9978870642907749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3709693682161139</c:v>
+                  <c:v>1.2356408947338751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0919613462272206</c:v>
+                  <c:v>3.9721510889697571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8919525269173016</c:v>
+                  <c:v>3.565456290364303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5794713740226158</c:v>
+                  <c:v>1.4240344175242929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5359682334467468</c:v>
+                  <c:v>2.524720788975122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1665363565279998</c:v>
+                  <c:v>0.90460526315699996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.549439563415596</c:v>
+                  <c:v>1.0955343419739749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3201903027053961</c:v>
+                  <c:v>1.8534600244708801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7091060637632838</c:v>
+                  <c:v>3.3258518669659249</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.62007841607685343</c:v>
+                  <c:v>0.55486795352255502</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7469345878210292</c:v>
+                  <c:v>1.005981549947246</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.642536068384991</c:v>
+                  <c:v>1.087617472084641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23874089740511639</c:v>
+                  <c:v>0.12659929928038821</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.65240486769682393</c:v>
+                  <c:v>0.56284449516718005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9520235170167028</c:v>
+                  <c:v>1.5572652028281171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.109372201348173</c:v>
+                  <c:v>1.1640022147743261</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33485138721724439</c:v>
+                  <c:v>0.27873143481721457</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5262994722959391</c:v>
+                  <c:v>1.5060978818265309</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.17965517343249</c:v>
+                  <c:v>0.5308655494807486</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3897569082244599</c:v>
+                  <c:v>1.040835108371702</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.6257595564045149</c:v>
+                  <c:v>0.84247297619553319</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.138449582932739</c:v>
+                  <c:v>1.2060819932845741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8127379830915851</c:v>
+                  <c:v>1.168971394125772</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8896257697773571</c:v>
+                  <c:v>2.0131086142322099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.35476016111479269</c:v>
+                  <c:v>0.34042375389817392</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.5114102168928318</c:v>
+                  <c:v>3.2364044510895278</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57643602549840145</c:v>
+                  <c:v>0.36819373980436187</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.5049364106840004</c:v>
+                  <c:v>1.596102719316735</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1772833091017603</c:v>
+                  <c:v>1.864485536869904</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0657827578256089</c:v>
+                  <c:v>1.7467133303534339</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3940528477374059</c:v>
+                  <c:v>3.365683754330226</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.5693711775879977E-2</c:v>
+                  <c:v>0.19902635951407649</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0770673703500662</c:v>
+                  <c:v>1.7709676859176731</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.55844390076227834</c:v>
+                  <c:v>0.5039476390836839</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1657711629386709</c:v>
+                  <c:v>0.83443912668069953</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.720853268176274</c:v>
+                  <c:v>1.491169161838291</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.9900000000000001</c:v>
+                  <c:v>0.71000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.238382360393067</c:v>
+                  <c:v>1.3158558013067541</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.2263490443739142E-2</c:v>
+                  <c:v>0.22469276266326671</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0078390227323348</c:v>
+                  <c:v>1.604831277077418</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1064738079638761</c:v>
+                  <c:v>1.495686759872038</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3603351955299998</c:v>
+                  <c:v>1.7489421720730001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.18792601700425399</c:v>
+                  <c:v>0.28236929328798238</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7684808854853811</c:v>
+                  <c:v>1.2289870542011081</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.015186041484637</c:v>
+                  <c:v>5.1434126023186382</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.420652097722952</c:v>
+                  <c:v>2.9527999421311328</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4990740187089351</c:v>
+                  <c:v>1.6905000299429449</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.549342105263158</c:v>
+                  <c:v>1.639344262295082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,160 +2762,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.1688423090890204</c:v>
+                  <c:v>0.15350199302332679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19829221692257371</c:v>
+                  <c:v>0.19536037085285241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5094102885821829E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26433549461416611</c:v>
+                  <c:v>0.34906467185652701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45770482803466128</c:v>
+                  <c:v>0.60961103920100701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24911343253011009</c:v>
+                  <c:v>0.27449694337196029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7697950436667771E-3</c:v>
+                  <c:v>1.8112774590361851E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2179191258327704</c:v>
+                  <c:v>0.25262844100093379</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3.4789802538306012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9093041437999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1212462714626366</c:v>
+                  <c:v>0.1084747101260226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.739160733846759E-2</c:v>
+                  <c:v>5.6150136785021218E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12502604709314441</c:v>
+                  <c:v>0.1224239951030402</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5166015892029854E-3</c:v>
+                  <c:v>1.6521273735543341E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6109913076561985E-2</c:v>
+                  <c:v>4.2897391345977823E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0071838809142931E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1514725778597543E-2</c:v>
+                  <c:v>3.9843812255956651E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2332322594072426</c:v>
+                  <c:v>0.1353521971807688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2087431869920402</c:v>
+                  <c:v>0.37331668477611851</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8602854845402458E-2</c:v>
+                  <c:v>3.7164191308961939E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0468545075644279E-2</c:v>
+                  <c:v>3.8360409998277029E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.0355671050515165E-2</c:v>
+                  <c:v>2.561676533615306E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1467384012397514</c:v>
+                  <c:v>9.1566233801152044E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.331537383098575</c:v>
+                  <c:v>7.0223062699049599E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.8012127672729182E-2</c:v>
+                  <c:v>0.21125980132585609</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.4161298053265415E-2</c:v>
+                  <c:v>0.16540335669582421</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.23685457129322601</c:v>
+                  <c:v>0.32771535580524352</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10627154832161791</c:v>
+                  <c:v>0.43207389004354929</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1120847827355556</c:v>
+                  <c:v>0.12099069668515119</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1625090682393163</c:v>
+                  <c:v>0.39032777795298701</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.392214022131417</c:v>
+                  <c:v>0.88174377414831562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2089370233926949</c:v>
+                  <c:v>0.2316226467268015</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1139157541709412</c:v>
+                  <c:v>0.1118407152321395</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>2.84323370734395E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23325641360470231</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1131357332086645</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14218759053333341</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.35112109958559E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.22263887185648881</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.6614837131245321E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.37650461331486618</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.8836392938695572E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.05</c:v>
-                </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.2236778223360387E-2</c:v>
+                  <c:v>3.5601647191387621E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.13875401665574219</c:v>
+                  <c:v>0.18784914051776949</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.17128812977155239</c:v>
+                  <c:v>0.19530860620970419</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3966480446000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.1737221623156461E-2</c:v>
+                  <c:v>0.10762682313678119</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.83778532817406459</c:v>
+                  <c:v>0.40233198380482998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.61749205693821452</c:v>
+                  <c:v>0.68022254730161236</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.171448336124222</c:v>
+                  <c:v>0.11396629415345701</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.24671052631578949</c:v>
+                  <c:v>0.16393442622950821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,28 +3422,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>3.3076693169993739E-2</c:v>
+                  <c:v>4.1951006523226177E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9501814356318427E-2</c:v>
+                  <c:v>5.0314095200388501E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1003764115432873</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5396707913309081E-2</c:v>
+                  <c:v>0.27956563306677951</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9631663874664628E-2</c:v>
+                  <c:v>0.1225769304739586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7697950436667771E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5915230684323701E-2</c:v>
+                  <c:v>5.7459839231015927E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3453,22 +3452,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.907452062746502E-3</c:v>
+                  <c:v>2.899111778637148E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4524767827270781E-2</c:v>
+                  <c:v>1.061062534928245E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1675349031048137E-2</c:v>
+                  <c:v>0.1020199959192002</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5142569214544591E-3</c:v>
+                  <c:v>5.4823467359107342E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9521775894908566E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3477,85 +3476,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.4582395251073648E-2</c:v>
+                  <c:v>1.0647275841251519E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0099100688366522E-2</c:v>
+                  <c:v>3.1324816945607077E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8602854845402458E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8925704402742289E-2</c:v>
+                  <c:v>1.28772708271981E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>3.8145733906897209E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0419843506468849E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9383552173017393E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8641905158992629E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1053476758249019E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3895590565780529E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.4132345382589923E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.0156181999904569E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.4741828517290391E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.4876818403939412E-2</c:v>
+                  <c:v>0.53851764514501443</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6012111818861759E-2</c:v>
+                  <c:v>3.4568770480654418E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.0099637885039246E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.38105019883589358</c:v>
+                  <c:v>0.16854390190309201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.042034797612491E-2</c:v>
+                  <c:v>1.207596583093949E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.530367455788201E-3</c:v>
+                  <c:v>5.4714844740066243E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1045309074350826</c:v>
+                  <c:v>0.10122133378349089</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.9768438411993343E-2</c:v>
+                  <c:v>2.3230124277457711E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.6797610151481469E-2</c:v>
+                  <c:v>5.6544219697310704E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>1.7800823595693811E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.8916493120628529E-2</c:v>
+                  <c:v>8.1717821574217642E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.052629269740272E-2</c:v>
+                  <c:v>3.2283223159071082E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3564,19 +3563,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.5286758328747764E-3</c:v>
+                  <c:v>4.1188805871687217E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.3709082607910822E-2</c:v>
+                  <c:v>0.1537736778296441</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.17564137961156109</c:v>
+                  <c:v>8.7585529097102877E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.2227308919491011E-2</c:v>
+                  <c:v>6.3314607863031646E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>8.1967213114754092E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4078,160 +4077,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>29.985653532987659</c:v>
+                  <c:v>34.724050477060679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.46780301694508</c:v>
+                  <c:v>32.141184884565547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.185962373371929</c:v>
+                  <c:v>49.989146164978287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.15907785340784</c:v>
+                  <c:v>33.741365561343777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.287835856934208</c:v>
+                  <c:v>30.980020663229229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.775855879729747</c:v>
+                  <c:v>40.116493853693903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.63202810401938</c:v>
+                  <c:v>22.72343161923234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.833220748997689</c:v>
+                  <c:v>45.231183548472423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.485313717724718</c:v>
+                  <c:v>33.970347816779302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.0087390675072</c:v>
+                  <c:v>8.7359318363564498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.114816797249411</c:v>
+                  <c:v>25.05977713642465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.527664109194209</c:v>
+                  <c:v>32.831722893596783</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.018250987830207</c:v>
+                  <c:v>42.477953717223471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.40826240073898</c:v>
+                  <c:v>14.78523192057707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.214477756015089</c:v>
+                  <c:v>31.70877441360139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.433056581950389</c:v>
+                  <c:v>29.073701354495238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.994370016225901</c:v>
+                  <c:v>15.763752220470639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.298244301536819</c:v>
+                  <c:v>28.977925280314711</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.381469670687441</c:v>
+                  <c:v>31.027830151745071</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.413899375238103</c:v>
+                  <c:v>34.646524231682022</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.4581756527556</c:v>
+                  <c:v>40.12615846458889</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.60806973156317</c:v>
+                  <c:v>31.21353626792024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.712863611790013</c:v>
+                  <c:v>39.123480015136153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.5050593192273</c:v>
+                  <c:v>40.774730367173447</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.4196408242966</c:v>
+                  <c:v>37.446068108736647</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.027337140106749</c:v>
+                  <c:v>28.615655101402151</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.14782259836521</c:v>
+                  <c:v>28.968661374465469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.491832020741619</c:v>
+                  <c:v>29.023736946712759</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.831636949603631</c:v>
+                  <c:v>28.81356604453801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.65695604821466</c:v>
+                  <c:v>33.924220924043802</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39.311448512745237</c:v>
+                  <c:v>45.048290377831187</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.25033967691359</c:v>
+                  <c:v>29.5491528895211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.019938473914692</c:v>
+                  <c:v>43.832998255675093</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.119980044866011</c:v>
+                  <c:v>34.11438923813764</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33.458890974525907</c:v>
+                  <c:v>43.915706143261502</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.767772623586501</c:v>
+                  <c:v>15.615768133242</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.791248949303338</c:v>
+                  <c:v>39.740964614859273</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.359156501537111</c:v>
+                  <c:v>23.68302496580181</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.757588342554683</c:v>
+                  <c:v>36.956660130613749</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.177199152379082</c:v>
+                  <c:v>34.795255706223799</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>31.44</c:v>
+                  <c:v>35.86</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>33.618190355872272</c:v>
+                  <c:v>36.468023532610971</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.802577690719099</c:v>
+                  <c:v>12.31774685057046</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.884008635297299</c:v>
+                  <c:v>34.510404761900269</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.74567795292371</c:v>
+                  <c:v>34.018539893193221</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24.6058742190895</c:v>
+                  <c:v>28.710094605567701</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.874258005701627</c:v>
+                  <c:v>47.075938615052593</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.111694254561669</c:v>
+                  <c:v>31.910385579070219</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.375387669718641</c:v>
+                  <c:v>29.930386074112121</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.71950868351696</c:v>
+                  <c:v>27.36555550655704</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26.401441382739542</c:v>
+                  <c:v>32.716762728354027</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>24.975612090332941</c:v>
+                  <c:v>25.888441352308881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,160 +4731,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>51.233613567754702</c:v>
+                  <c:v>41.495189304313598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.92705656125122</c:v>
+                  <c:v>41.913264163267073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.354300385109113</c:v>
+                  <c:v>43.068035943517323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.466972171029177</c:v>
+                  <c:v>44.842068453241531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.921342523863068</c:v>
+                  <c:v>31.305341809393479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.301800543715693</c:v>
+                  <c:v>46.475192009212343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.280053751820653</c:v>
+                  <c:v>32.642931966381347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.060249828443588</c:v>
+                  <c:v>39.200556688857958</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.810848087179487</c:v>
+                  <c:v>50.766461605262407</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.760126540926599</c:v>
+                  <c:v>15.4280386570506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.174794374496422</c:v>
+                  <c:v>36.547430988114407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.483549800448323</c:v>
+                  <c:v>46.15486574051306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.949460165831283</c:v>
+                  <c:v>90.930767615900393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.465325124529407</c:v>
+                  <c:v>55.462268134362667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.869154905318453</c:v>
+                  <c:v>40.169624041893186</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.351084363059748</c:v>
+                  <c:v>44.261380569116703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.124519955499252</c:v>
+                  <c:v>46.22940344571434</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.129143314396238</c:v>
+                  <c:v>41.061765975925042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.129867653694546</c:v>
+                  <c:v>41.665489603218077</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.807254655239547</c:v>
+                  <c:v>39.398523336580418</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.916569221413617</c:v>
+                  <c:v>55.893335231808742</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.536624357222387</c:v>
+                  <c:v>39.316241954969151</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42.391110957665589</c:v>
+                  <c:v>29.59485504147359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59.771559000748702</c:v>
+                  <c:v>43.111099022402172</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.059851526613571</c:v>
+                  <c:v>40.679797559230821</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.584530951368549</c:v>
+                  <c:v>30.204695669140332</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.14257497999143</c:v>
+                  <c:v>44.10453414029999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.29105164255656</c:v>
+                  <c:v>42.368854342156247</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.791383824459487</c:v>
+                  <c:v>42.852609647421353</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63.897054786724738</c:v>
+                  <c:v>50.826966412367561</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.396460482444013</c:v>
+                  <c:v>40.366022159298403</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.968527930787047</c:v>
+                  <c:v>34.524027357375573</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56.176395804658597</c:v>
+                  <c:v>45.159225163024622</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.453053002783548</c:v>
+                  <c:v>40.823100445303261</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.35192501828864</c:v>
+                  <c:v>45.562648885256607</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.80844074070151</c:v>
+                  <c:v>13.80234316978254</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>57.025517713619017</c:v>
+                  <c:v>45.720729524294313</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.861181256572173</c:v>
+                  <c:v>34.91896598742165</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.098062235247717</c:v>
+                  <c:v>38.463142169998257</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.019350129928668</c:v>
+                  <c:v>45.928012615944482</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61.34</c:v>
+                  <c:v>44.57</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50.850994095446772</c:v>
+                  <c:v>41.989155118003858</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.061296676245735</c:v>
+                  <c:v>-0.57564634129501413</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42.638357911364487</c:v>
+                  <c:v>38.518959018986969</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.886211756745062</c:v>
+                  <c:v>44.368157026135137</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.569430311772599</c:v>
+                  <c:v>40.060008140233002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>36.37036053316578</c:v>
+                  <c:v>27.10822573781202</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.032648518934153</c:v>
+                  <c:v>45.123095535151123</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>39.647584446223703</c:v>
+                  <c:v>43.460242887323687</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38.109975443570782</c:v>
+                  <c:v>40.978726313137628</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>64.201192295582928</c:v>
+                  <c:v>51.557224492297472</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41.790035023769143</c:v>
+                  <c:v>33.347847839624848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9441,22 +9440,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J23" sqref="J23"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9465,28 +9464,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
@@ -9495,31 +9494,31 @@
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="18">
-        <v>29.985653532987659</v>
+        <v>34.724050477060679</v>
       </c>
       <c r="C2" s="18">
-        <v>2.6412175745389761</v>
+        <v>1.3561285753472549</v>
       </c>
       <c r="D2" s="18">
-        <v>51.233613567754702</v>
+        <v>41.495189304313598</v>
       </c>
       <c r="E2" s="18">
-        <v>7.0045877449116487</v>
+        <v>-2.7997151669250822</v>
       </c>
       <c r="F2" s="18">
-        <v>96.815771812871887</v>
+        <v>98.074270317872546</v>
       </c>
       <c r="G2" s="18">
-        <v>2.9883770327002002</v>
+        <v>1.7386240470054191</v>
       </c>
       <c r="H2" s="18">
-        <v>0.1688423090890204</v>
+        <v>0.15350199302332679</v>
       </c>
       <c r="I2" s="18">
-        <v>3.3076693169993739E-2</v>
+        <v>4.1951006523226177E-2</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9528,31 +9527,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>30.46780301694508</v>
+        <v>32.141184884565547</v>
       </c>
       <c r="C3" s="19">
-        <v>6.350178201460972</v>
+        <v>2.899471166606244</v>
       </c>
       <c r="D3" s="19">
-        <v>43.92705656125122</v>
+        <v>41.913264163267073</v>
       </c>
       <c r="E3" s="19">
-        <v>3.192843398428149</v>
+        <v>-1.4408646098675499</v>
       </c>
       <c r="F3" s="19">
-        <v>98.436531973065001</v>
+        <v>98.238437012023809</v>
       </c>
       <c r="G3" s="19">
-        <v>1.2970185047221381</v>
+        <v>1.546961380535226</v>
       </c>
       <c r="H3" s="19">
-        <v>0.19829221692257371</v>
+        <v>0.19536037085285241</v>
       </c>
       <c r="I3" s="19">
-        <v>9.9501814356318427E-2</v>
+        <v>5.0314095200388501E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9561,31 +9560,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="19">
-        <v>39.185962373371929</v>
+        <v>49.989146164978287</v>
       </c>
       <c r="C4" s="19">
-        <v>4.9714862615623856</v>
+        <v>-0.63991947080817013</v>
       </c>
       <c r="D4" s="19">
-        <v>56.354300385109113</v>
+        <v>43.068035943517323</v>
       </c>
       <c r="E4" s="19">
-        <v>5.9591126576772568</v>
+        <v>-15.118050266565129</v>
       </c>
       <c r="F4" s="19">
-        <v>99.548306148055204</v>
+        <v>99.965529127886938</v>
       </c>
       <c r="G4" s="19">
-        <v>0.32622333751568378</v>
+        <v>3.447087211306446E-2</v>
       </c>
       <c r="H4" s="19">
-        <v>2.5094102885821829E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="19">
-        <v>0.1003764115432873</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -9594,31 +9593,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" s="19">
-        <v>28.15907785340784</v>
+        <v>33.741365561343777</v>
       </c>
       <c r="C5" s="19">
-        <v>3.1363298776291448</v>
+        <v>3.9251885447634449</v>
       </c>
       <c r="D5" s="19">
-        <v>57.466972171029177</v>
+        <v>44.842068453241531</v>
       </c>
       <c r="E5" s="19">
-        <v>7.6695823330751693</v>
+        <v>1.2038661889470821</v>
       </c>
       <c r="F5" s="19">
-        <v>96.977764971175091</v>
+        <v>97.373482630785787</v>
       </c>
       <c r="G5" s="19">
-        <v>2.722502826297367</v>
+        <v>1.9978870642907749</v>
       </c>
       <c r="H5" s="19">
-        <v>0.26433549461416611</v>
+        <v>0.34906467185652701</v>
       </c>
       <c r="I5" s="19">
-        <v>3.5396707913309081E-2</v>
+        <v>0.27956563306677951</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9627,28 +9626,28 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="19">
-        <v>27.287835856934208</v>
+        <v>30.980020663229229</v>
       </c>
       <c r="C6" s="19">
-        <v>2.2435816870549772</v>
+        <v>0.61505128597295788</v>
       </c>
       <c r="D6" s="19">
-        <v>34.921342523863068</v>
+        <v>31.305341809393479</v>
       </c>
       <c r="E6" s="19">
-        <v>3.0075474142558991</v>
+        <v>-0.98727660793987038</v>
       </c>
       <c r="F6" s="19">
-        <v>98.171325803748957</v>
+        <v>98.15474806606484</v>
       </c>
       <c r="G6" s="19">
-        <v>1.3709693682161139</v>
+        <v>1.2356408947338751</v>
       </c>
       <c r="H6" s="19">
-        <v>0.45770482803466128</v>
+        <v>0.60961103920100701</v>
       </c>
       <c r="I6" s="19">
         <v>0</v>
@@ -9660,31 +9659,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" s="19">
-        <v>36.775855879729747</v>
+        <v>40.116493853693903</v>
       </c>
       <c r="C7" s="19">
-        <v>5.8438195785488576</v>
+        <v>1.408146223819609</v>
       </c>
       <c r="D7" s="19">
-        <v>63.301800543715693</v>
+        <v>46.475192009212343</v>
       </c>
       <c r="E7" s="19">
-        <v>14.01583425172768</v>
+        <v>-0.34506234295017763</v>
       </c>
       <c r="F7" s="19">
-        <v>92.561177044679795</v>
+        <v>95.629973815222456</v>
       </c>
       <c r="G7" s="19">
-        <v>7.0919613462272206</v>
+        <v>3.9721510889697571</v>
       </c>
       <c r="H7" s="19">
-        <v>0.24911343253011009</v>
+        <v>0.27449694337196029</v>
       </c>
       <c r="I7" s="19">
-        <v>9.9631663874664628E-2</v>
+        <v>0.1225769304739586</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9693,31 +9692,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="19">
-        <v>22.63202810401938</v>
+        <v>22.72343161923234</v>
       </c>
       <c r="C8" s="19">
-        <v>2.6532282167323178</v>
+        <v>2.6749400388828461</v>
       </c>
       <c r="D8" s="19">
-        <v>51.280053751820653</v>
+        <v>32.642931966381347</v>
       </c>
       <c r="E8" s="19">
-        <v>12.074843729119349</v>
+        <v>-2.526998661424968</v>
       </c>
       <c r="F8" s="19">
-        <v>92.096507882994445</v>
+        <v>96.416430935043493</v>
       </c>
       <c r="G8" s="19">
-        <v>7.8919525269173016</v>
+        <v>3.565456290364303</v>
       </c>
       <c r="H8" s="19">
-        <v>5.7697950436667771E-3</v>
+        <v>1.8112774590361851E-2</v>
       </c>
       <c r="I8" s="19">
-        <v>5.7697950436667771E-3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -9726,31 +9725,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" s="19">
-        <v>40.833220748997689</v>
+        <v>45.231183548472423</v>
       </c>
       <c r="C9" s="19">
-        <v>2.0149244274995088</v>
+        <v>-1.152134832021783</v>
       </c>
       <c r="D9" s="19">
-        <v>53.060249828443588</v>
+        <v>39.200556688857958</v>
       </c>
       <c r="E9" s="19">
-        <v>6.4101559053880504</v>
+        <v>-5.7378782872092788</v>
       </c>
       <c r="F9" s="19">
-        <v>97.195675220846866</v>
+        <v>98.316454036537067</v>
       </c>
       <c r="G9" s="19">
-        <v>2.5794713740226158</v>
+        <v>1.4240344175242929</v>
       </c>
       <c r="H9" s="19">
-        <v>0.2179191258327704</v>
+        <v>0.25262844100093379</v>
       </c>
       <c r="I9" s="19">
-        <v>3.5915230684323701E-2</v>
+        <v>5.7459839231015927E-2</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -9759,28 +9758,28 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" s="19">
-        <v>24.485313717724718</v>
+        <v>33.970347816779302</v>
       </c>
       <c r="C10" s="19">
-        <v>2.2519087510196099</v>
+        <v>3.1689277278102361</v>
       </c>
       <c r="D10" s="19">
-        <v>55.810848087179487</v>
+        <v>50.766461605262407</v>
       </c>
       <c r="E10" s="19">
-        <v>4.9914974816778974</v>
+        <v>-3.4486345447847349</v>
       </c>
       <c r="F10" s="19">
-        <v>97.464031766552381</v>
+        <v>97.440489408485689</v>
       </c>
       <c r="G10" s="19">
-        <v>2.5359682334467468</v>
+        <v>2.524720788975122</v>
       </c>
       <c r="H10" s="19">
-        <v>0</v>
+        <v>3.4789802538306012E-2</v>
       </c>
       <c r="I10" s="19">
         <v>0</v>
@@ -9792,28 +9791,28 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" s="19">
-        <v>15.0087390675072</v>
+        <v>8.7359318363564498</v>
       </c>
       <c r="C11" s="19">
-        <v>7.9827999999999992</v>
+        <v>0.77470000000000006</v>
       </c>
       <c r="D11" s="19">
-        <v>53.760126540926599</v>
+        <v>15.4280386570506</v>
       </c>
       <c r="E11" s="19">
-        <v>14.092700000000001</v>
+        <v>-6.8804000000000007</v>
       </c>
       <c r="F11" s="19">
-        <v>96.794370602032004</v>
+        <v>99.095394736841996</v>
       </c>
       <c r="G11" s="19">
-        <v>3.1665363565279998</v>
+        <v>0.90460526315699996</v>
       </c>
       <c r="H11" s="19">
-        <v>3.9093041437999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="19">
         <v>0</v>
@@ -9825,31 +9824,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B12" s="19">
-        <v>21.114816797249411</v>
+        <v>25.05977713642465</v>
       </c>
       <c r="C12" s="19">
-        <v>2.3430478684378162</v>
+        <v>0.957972488645364</v>
       </c>
       <c r="D12" s="19">
-        <v>39.174794374496422</v>
+        <v>36.547430988114407</v>
       </c>
       <c r="E12" s="19">
-        <v>4.2040750293103013</v>
+        <v>-3.6733745649995511</v>
       </c>
       <c r="F12" s="19">
-        <v>98.328004891621305</v>
+        <v>98.794684849799182</v>
       </c>
       <c r="G12" s="19">
-        <v>1.549439563415596</v>
+        <v>1.0955343419739749</v>
       </c>
       <c r="H12" s="19">
-        <v>0.1212462714626366</v>
+        <v>0.1084747101260226</v>
       </c>
       <c r="I12" s="19">
-        <v>2.907452062746502E-3</v>
+        <v>2.899111778637148E-3</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9858,31 +9857,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="19">
-        <v>27.527664109194209</v>
+        <v>32.831722893596783</v>
       </c>
       <c r="C13" s="19">
-        <v>3.8995304586776398</v>
+        <v>1.0568483149601471</v>
       </c>
       <c r="D13" s="19">
-        <v>49.483549800448323</v>
+        <v>46.15486574051306</v>
       </c>
       <c r="E13" s="19">
-        <v>6.8249575653559669</v>
+        <v>-1.1968989269497909</v>
       </c>
       <c r="F13" s="19">
-        <v>97.625527929839052</v>
+        <v>98.083545812668206</v>
       </c>
       <c r="G13" s="19">
-        <v>2.3201903027053961</v>
+        <v>1.8534600244708801</v>
       </c>
       <c r="H13" s="19">
-        <v>4.739160733846759E-2</v>
+        <v>5.6150136785021218E-2</v>
       </c>
       <c r="I13" s="19">
-        <v>1.4524767827270781E-2</v>
+        <v>1.061062534928245E-2</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -9891,31 +9890,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B14" s="19">
-        <v>51.018250987830207</v>
+        <v>42.477953717223471</v>
       </c>
       <c r="C14" s="19">
-        <v>8.9387224561817025</v>
+        <v>4.7322557157222223</v>
       </c>
       <c r="D14" s="19">
-        <v>51.949460165831283</v>
+        <v>90.930767615900393</v>
       </c>
       <c r="E14" s="19">
-        <v>3.8219358633656548</v>
+        <v>14.02136943243646</v>
       </c>
       <c r="F14" s="19">
-        <v>96.124192540112517</v>
+        <v>96.449704142011839</v>
       </c>
       <c r="G14" s="19">
-        <v>3.7091060637632838</v>
+        <v>3.3258518669659249</v>
       </c>
       <c r="H14" s="19">
-        <v>0.12502604709314441</v>
+        <v>0.1224239951030402</v>
       </c>
       <c r="I14" s="19">
-        <v>4.1675349031048137E-2</v>
+        <v>0.1020199959192002</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -9924,25 +9923,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19">
-        <v>13.40826240073898</v>
+        <v>14.78523192057707</v>
       </c>
       <c r="C15" s="19">
-        <v>0.4406050037118614</v>
+        <v>-1.0336603593182341</v>
       </c>
       <c r="D15" s="19">
-        <v>54.465325124529407</v>
+        <v>55.462268134362667</v>
       </c>
       <c r="E15" s="19">
-        <v>6.9529612671418954</v>
+        <v>-2.981747538811196</v>
       </c>
       <c r="F15" s="19">
-        <v>99.379921583923149</v>
+        <v>99.445132046477454</v>
       </c>
       <c r="G15" s="19">
-        <v>0.62007841607685343</v>
+        <v>0.55486795352255502</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -9957,31 +9956,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" s="19">
-        <v>27.214477756015089</v>
+        <v>31.70877441360139</v>
       </c>
       <c r="C16" s="19">
-        <v>1.157091292273138</v>
+        <v>1.8202707823571369</v>
       </c>
       <c r="D16" s="19">
-        <v>61.869154905318453</v>
+        <v>40.169624041893186</v>
       </c>
       <c r="E16" s="19">
-        <v>8.4476962550076671</v>
+        <v>-2.1628302287622412</v>
       </c>
       <c r="F16" s="19">
-        <v>96.239034553666599</v>
+        <v>98.972014829579578</v>
       </c>
       <c r="G16" s="19">
-        <v>3.7469345878210292</v>
+        <v>1.005981549947246</v>
       </c>
       <c r="H16" s="19">
-        <v>8.5166015892029854E-3</v>
+        <v>1.6521273735543341E-2</v>
       </c>
       <c r="I16" s="19">
-        <v>5.5142569214544591E-3</v>
+        <v>5.4823467359107342E-3</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9990,31 +9989,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>25.433056581950389</v>
+        <v>29.073701354495238</v>
       </c>
       <c r="C17" s="19">
-        <v>0.91493321169395003</v>
+        <v>0.47951103196752998</v>
       </c>
       <c r="D17" s="19">
-        <v>47.351084363059748</v>
+        <v>44.261380569116703</v>
       </c>
       <c r="E17" s="19">
-        <v>4.0120142382424619</v>
+        <v>-1.401972800392151</v>
       </c>
       <c r="F17" s="19">
-        <v>98.285401840948211</v>
+        <v>98.869485136568642</v>
       </c>
       <c r="G17" s="19">
-        <v>1.642536068384991</v>
+        <v>1.087617472084641</v>
       </c>
       <c r="H17" s="19">
-        <v>6.6109913076561985E-2</v>
+        <v>4.2897391345977823E-2</v>
       </c>
       <c r="I17" s="19">
-        <v>5.9521775894908566E-3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -10023,28 +10022,28 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B18" s="19">
-        <v>14.994370016225901</v>
+        <v>15.763752220470639</v>
       </c>
       <c r="C18" s="19">
-        <v>2.5600195835817638</v>
+        <v>-0.55810925058180638</v>
       </c>
       <c r="D18" s="19">
-        <v>66.124519955499252</v>
+        <v>46.22940344571434</v>
       </c>
       <c r="E18" s="19">
-        <v>3.7182966645695439</v>
+        <v>-11.51032355757418</v>
       </c>
       <c r="F18" s="19">
-        <v>99.69118726378575</v>
+        <v>99.873400700719614</v>
       </c>
       <c r="G18" s="19">
-        <v>0.23874089740511639</v>
+        <v>0.12659929928038821</v>
       </c>
       <c r="H18" s="19">
-        <v>7.0071838809142931E-2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="19">
         <v>0</v>
@@ -10056,28 +10055,28 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B19" s="19">
-        <v>23.298244301536819</v>
+        <v>28.977925280314711</v>
       </c>
       <c r="C19" s="19">
-        <v>4.0302410797012236</v>
+        <v>6.4366135002299831</v>
       </c>
       <c r="D19" s="19">
-        <v>51.129143314396238</v>
+        <v>41.061765975925042</v>
       </c>
       <c r="E19" s="19">
-        <v>7.5309289969752928</v>
+        <v>0.71245768086103245</v>
       </c>
       <c r="F19" s="19">
-        <v>99.306080406524529</v>
+        <v>99.397311692576864</v>
       </c>
       <c r="G19" s="19">
-        <v>0.65240486769682393</v>
+        <v>0.56284449516718005</v>
       </c>
       <c r="H19" s="19">
-        <v>4.1514725778597543E-2</v>
+        <v>3.9843812255956651E-2</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -10089,31 +10088,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B20" s="19">
-        <v>31.381469670687441</v>
+        <v>31.027830151745071</v>
       </c>
       <c r="C20" s="19">
-        <v>1.190169851145908</v>
+        <v>2.1299640057325671</v>
       </c>
       <c r="D20" s="19">
-        <v>49.129867653694546</v>
+        <v>41.665489603218077</v>
       </c>
       <c r="E20" s="19">
-        <v>6.1253112337658084</v>
+        <v>-6.3919248824228383</v>
       </c>
       <c r="F20" s="19">
-        <v>96.720161828324891</v>
+        <v>98.296735324149779</v>
       </c>
       <c r="G20" s="19">
-        <v>2.9520235170167028</v>
+        <v>1.5572652028281171</v>
       </c>
       <c r="H20" s="19">
-        <v>0.2332322594072426</v>
+        <v>0.1353521971807688</v>
       </c>
       <c r="I20" s="19">
-        <v>9.4582395251073648E-2</v>
+        <v>1.0647275841251519E-2</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10122,31 +10121,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B21" s="19">
-        <v>32.413899375238103</v>
+        <v>34.646524231682022</v>
       </c>
       <c r="C21" s="19">
-        <v>3.53445350583574</v>
+        <v>1.539893955310536</v>
       </c>
       <c r="D21" s="19">
-        <v>38.807254655239547</v>
+        <v>39.398523336580418</v>
       </c>
       <c r="E21" s="19">
-        <v>2.6605435645787501</v>
+        <v>-0.39002333322920069</v>
       </c>
       <c r="F21" s="19">
-        <v>98.641785510971275</v>
+        <v>98.442146264235788</v>
       </c>
       <c r="G21" s="19">
-        <v>1.109372201348173</v>
+        <v>1.1640022147743261</v>
       </c>
       <c r="H21" s="19">
-        <v>0.2087431869920402</v>
+        <v>0.37331668477611851</v>
       </c>
       <c r="I21" s="19">
-        <v>4.0099100688366522E-2</v>
+        <v>3.1324816945607077E-2</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10155,31 +10154,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B22" s="19">
-        <v>32.4581756527556</v>
+        <v>40.12615846458889</v>
       </c>
       <c r="C22" s="19">
-        <v>0.1964829248547042</v>
+        <v>2.539968685612755</v>
       </c>
       <c r="D22" s="19">
-        <v>58.916569221413617</v>
+        <v>55.893335231808742</v>
       </c>
       <c r="E22" s="19">
-        <v>3.3808948530514291</v>
+        <v>-8.0903786267510185</v>
       </c>
       <c r="F22" s="19">
-        <v>99.627942903091949</v>
+        <v>99.684104373873822</v>
       </c>
       <c r="G22" s="19">
-        <v>0.33485138721724439</v>
+        <v>0.27873143481721457</v>
       </c>
       <c r="H22" s="19">
-        <v>1.8602854845402458E-2</v>
+        <v>3.7164191308961939E-2</v>
       </c>
       <c r="I22" s="19">
-        <v>1.8602854845402458E-2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -10188,31 +10187,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B23" s="19">
-        <v>28.60806973156317</v>
+        <v>31.21353626792024</v>
       </c>
       <c r="C23" s="19">
-        <v>4.0810129232415546</v>
+        <v>-0.46291208445116733</v>
       </c>
       <c r="D23" s="19">
-        <v>60.536624357222387</v>
+        <v>39.316241954969151</v>
       </c>
       <c r="E23" s="19">
-        <v>7.7697082944205187</v>
+        <v>-5.370194259182032</v>
       </c>
       <c r="F23" s="19">
-        <v>96.423231982626419</v>
+        <v>98.455541708174195</v>
       </c>
       <c r="G23" s="19">
-        <v>3.5262994722959391</v>
+        <v>1.5060978818265309</v>
       </c>
       <c r="H23" s="19">
-        <v>5.0468545075644279E-2</v>
+        <v>3.8360409998277029E-2</v>
       </c>
       <c r="I23" s="19">
-        <v>1.8925704402742289E-2</v>
+        <v>1.28772708271981E-2</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10221,31 +10220,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" s="19">
-        <v>36.712863611790013</v>
+        <v>39.123480015136153</v>
       </c>
       <c r="C24" s="19">
-        <v>2.979936670860464</v>
+        <v>-1.134165318132262</v>
       </c>
       <c r="D24" s="19">
-        <v>42.391110957665589</v>
+        <v>29.59485504147359</v>
       </c>
       <c r="E24" s="19">
-        <v>7.580884482746348</v>
+        <v>-5.4020626694989957</v>
       </c>
       <c r="F24" s="19">
-        <v>98.739989155515204</v>
+        <v>99.443517685182201</v>
       </c>
       <c r="G24" s="19">
-        <v>1.17965517343249</v>
+        <v>0.5308655494807486</v>
       </c>
       <c r="H24" s="19">
-        <v>8.0355671050515165E-2</v>
+        <v>2.561676533615306E-2</v>
       </c>
       <c r="I24" s="19">
-        <v>0</v>
+        <v>3.8145733906897209E-3</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -10254,31 +10253,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B25" s="19">
-        <v>36.5050593192273</v>
+        <v>40.774730367173447</v>
       </c>
       <c r="C25" s="19">
-        <v>2.2729804012565511</v>
+        <v>2.2983795289673239</v>
       </c>
       <c r="D25" s="19">
-        <v>59.771559000748702</v>
+        <v>43.111099022402172</v>
       </c>
       <c r="E25" s="19">
-        <v>8.3484853864404105</v>
+        <v>-3.065449422654031</v>
       </c>
       <c r="F25" s="19">
-        <v>97.449609099969322</v>
+        <v>98.85717881431998</v>
       </c>
       <c r="G25" s="19">
-        <v>2.3897569082244599</v>
+        <v>1.040835108371702</v>
       </c>
       <c r="H25" s="19">
-        <v>0.1467384012397514</v>
+        <v>9.1566233801152044E-2</v>
       </c>
       <c r="I25" s="19">
-        <v>1.3895590565780529E-2</v>
+        <v>1.0419843506468849E-2</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10287,31 +10286,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B26" s="19">
-        <v>37.4196408242966</v>
+        <v>37.446068108736647</v>
       </c>
       <c r="C26" s="19">
-        <v>0.73010414500402865</v>
+        <v>-0.46257868438890148</v>
       </c>
       <c r="D26" s="19">
-        <v>62.059851526613571</v>
+        <v>40.679797559230821</v>
       </c>
       <c r="E26" s="19">
-        <v>9.1368197026915965</v>
+        <v>-6.0419806651420309</v>
       </c>
       <c r="F26" s="19">
-        <v>97.03728982595797</v>
+        <v>99.082365605887432</v>
       </c>
       <c r="G26" s="19">
-        <v>2.6257595564045149</v>
+        <v>0.84247297619553319</v>
       </c>
       <c r="H26" s="19">
-        <v>0.331537383098575</v>
+        <v>7.0223062699049599E-2</v>
       </c>
       <c r="I26" s="19">
-        <v>5.4132345382589923E-3</v>
+        <v>4.9383552173017393E-3</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -10320,31 +10319,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B27" s="19">
-        <v>26.027337140106749</v>
+        <v>28.615655101402151</v>
       </c>
       <c r="C27" s="19">
-        <v>2.6272405609347018</v>
+        <v>-1.5337153023436541</v>
       </c>
       <c r="D27" s="19">
-        <v>31.584530951368549</v>
+        <v>30.204695669140332</v>
       </c>
       <c r="E27" s="19">
-        <v>1.36314250132006</v>
+        <v>-3.289660002071392</v>
       </c>
       <c r="F27" s="19">
-        <v>98.803538289393543</v>
+        <v>98.562739173561212</v>
       </c>
       <c r="G27" s="19">
-        <v>1.138449582932739</v>
+        <v>1.2060819932845741</v>
       </c>
       <c r="H27" s="19">
-        <v>5.8012127672729182E-2</v>
+        <v>0.21125980132585609</v>
       </c>
       <c r="I27" s="19">
-        <v>0</v>
+        <v>3.8641905158992629E-2</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -10353,31 +10352,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B28" s="19">
-        <v>22.14782259836521</v>
+        <v>28.968661374465469</v>
       </c>
       <c r="C28" s="19">
-        <v>1.8892628840291861</v>
+        <v>4.8319414090391311</v>
       </c>
       <c r="D28" s="19">
-        <v>48.14257497999143</v>
+        <v>44.10453414029999</v>
       </c>
       <c r="E28" s="19">
-        <v>4.5908658594822827</v>
+        <v>-3.8558957954011048</v>
       </c>
       <c r="F28" s="19">
-        <v>98.095085100655083</v>
+        <v>98.634571772420088</v>
       </c>
       <c r="G28" s="19">
-        <v>1.8127379830915851</v>
+        <v>1.168971394125772</v>
       </c>
       <c r="H28" s="19">
-        <v>8.4161298053265415E-2</v>
+        <v>0.16540335669582421</v>
       </c>
       <c r="I28" s="19">
-        <v>8.0156181999904569E-3</v>
+        <v>3.1053476758249019E-2</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10386,31 +10385,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B29" s="19">
-        <v>28.491832020741619</v>
+        <v>29.023736946712759</v>
       </c>
       <c r="C29" s="19">
-        <v>0.66714490290931128</v>
+        <v>2.3226219667691561</v>
       </c>
       <c r="D29" s="19">
-        <v>47.29105164255656</v>
+        <v>42.368854342156247</v>
       </c>
       <c r="E29" s="19">
-        <v>0.96417285016663357</v>
+        <v>-9.9084545931627517</v>
       </c>
       <c r="F29" s="19">
-        <v>96.778777830412125</v>
+        <v>97.659176029962552</v>
       </c>
       <c r="G29" s="19">
-        <v>2.8896257697773571</v>
+        <v>2.0131086142322099</v>
       </c>
       <c r="H29" s="19">
-        <v>0.23685457129322601</v>
+        <v>0.32771535580524352</v>
       </c>
       <c r="I29" s="19">
-        <v>9.4741828517290391E-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -10419,25 +10418,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B30" s="19">
-        <v>24.831636949603631</v>
+        <v>28.81356604453801</v>
       </c>
       <c r="C30" s="19">
-        <v>1.0598451364560471</v>
+        <v>4.7607803450549566</v>
       </c>
       <c r="D30" s="19">
-        <v>40.791383824459487</v>
+        <v>42.852609647421353</v>
       </c>
       <c r="E30" s="19">
-        <v>0.58141626089926646</v>
+        <v>5.4228164359154807</v>
       </c>
       <c r="F30" s="19">
-        <v>99.645239838885203</v>
+        <v>99.659576246101821</v>
       </c>
       <c r="G30" s="19">
-        <v>0.35476016111479269</v>
+        <v>0.34042375389817392</v>
       </c>
       <c r="H30" s="19">
         <v>0</v>
@@ -10452,31 +10451,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B31" s="19">
-        <v>33.65695604821466</v>
+        <v>33.924220924043802</v>
       </c>
       <c r="C31" s="19">
-        <v>6.9968880753418059</v>
+        <v>2.1453073279928061</v>
       </c>
       <c r="D31" s="19">
-        <v>63.897054786724738</v>
+        <v>50.826966412367561</v>
       </c>
       <c r="E31" s="19">
-        <v>4.1633192635610436</v>
+        <v>-0.96624402480350047</v>
       </c>
       <c r="F31" s="19">
-        <v>96.317441416381612</v>
+        <v>95.793004013721927</v>
       </c>
       <c r="G31" s="19">
-        <v>3.5114102168928318</v>
+        <v>3.2364044510895278</v>
       </c>
       <c r="H31" s="19">
-        <v>0.10627154832161791</v>
+        <v>0.43207389004354929</v>
       </c>
       <c r="I31" s="19">
-        <v>6.4876818403939412E-2</v>
+        <v>0.53851764514501443</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10485,31 +10484,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B32" s="19">
-        <v>39.311448512745237</v>
+        <v>45.048290377831187</v>
       </c>
       <c r="C32" s="19">
-        <v>1.362774887327552</v>
+        <v>-1.1611204530264361</v>
       </c>
       <c r="D32" s="19">
-        <v>41.396460482444013</v>
+        <v>40.366022159298403</v>
       </c>
       <c r="E32" s="19">
-        <v>6.1155398905645226</v>
+        <v>-9.3458766380143281</v>
       </c>
       <c r="F32" s="19">
-        <v>99.311479191764278</v>
+        <v>99.510815563509539</v>
       </c>
       <c r="G32" s="19">
-        <v>0.57643602549840145</v>
+        <v>0.36819373980436187</v>
       </c>
       <c r="H32" s="19">
-        <v>0.1120847827355556</v>
+        <v>0.12099069668515119</v>
       </c>
       <c r="I32" s="19">
-        <v>1.6012111818861759E-2</v>
+        <v>3.4568770480654418E-2</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -10518,31 +10517,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B33" s="19">
-        <v>27.25033967691359</v>
+        <v>29.5491528895211</v>
       </c>
       <c r="C33" s="19">
-        <v>2.9209277878143189</v>
+        <v>-1.297755204339089</v>
       </c>
       <c r="D33" s="19">
-        <v>58.968527930787047</v>
+        <v>34.524027357375573</v>
       </c>
       <c r="E33" s="19">
-        <v>7.541445909883322</v>
+        <v>-6.4752568220668421</v>
       </c>
       <c r="F33" s="19">
-        <v>95.329450664474081</v>
+        <v>98.013569502730093</v>
       </c>
       <c r="G33" s="19">
-        <v>4.5049364106840004</v>
+        <v>1.596102719316735</v>
       </c>
       <c r="H33" s="19">
-        <v>0.1625090682393163</v>
+        <v>0.39032777795298701</v>
       </c>
       <c r="I33" s="19">
-        <v>7.0099637885039246E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -10551,31 +10550,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B34" s="19">
-        <v>45.019938473914692</v>
+        <v>43.832998255675093</v>
       </c>
       <c r="C34" s="19">
-        <v>1.6351977504116091</v>
+        <v>0.36218824130786048</v>
       </c>
       <c r="D34" s="19">
-        <v>56.176395804658597</v>
+        <v>45.159225163024622</v>
       </c>
       <c r="E34" s="19">
-        <v>8.2785509426458432</v>
+        <v>-3.619611659278112</v>
       </c>
       <c r="F34" s="19">
-        <v>92.430502668765115</v>
+        <v>97.142791070309386</v>
       </c>
       <c r="G34" s="19">
-        <v>6.1772833091017603</v>
+        <v>1.864485536869904</v>
       </c>
       <c r="H34" s="19">
-        <v>1.392214022131417</v>
+        <v>0.88174377414831562</v>
       </c>
       <c r="I34" s="19">
-        <v>0.38105019883589358</v>
+        <v>0.16854390190309201</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -10584,31 +10583,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B35" s="19">
-        <v>31.119980044866011</v>
+        <v>34.11438923813764</v>
       </c>
       <c r="C35" s="19">
-        <v>1.6363424854512989</v>
+        <v>0.44230558358861299</v>
       </c>
       <c r="D35" s="19">
-        <v>51.453053002783548</v>
+        <v>40.823100445303261</v>
       </c>
       <c r="E35" s="19">
-        <v>6.5398143245568008</v>
+        <v>-2.6694839657874478</v>
       </c>
       <c r="F35" s="19">
-        <v>96.714859870805583</v>
+        <v>98.00958805708882</v>
       </c>
       <c r="G35" s="19">
-        <v>3.0657827578256089</v>
+        <v>1.7467133303534339</v>
       </c>
       <c r="H35" s="19">
-        <v>0.2089370233926949</v>
+        <v>0.2316226467268015</v>
       </c>
       <c r="I35" s="19">
-        <v>1.042034797612491E-2</v>
+        <v>1.207596583093949E-2</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10617,31 +10616,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B36" s="19">
-        <v>33.458890974525907</v>
+        <v>43.915706143261502</v>
       </c>
       <c r="C36" s="19">
-        <v>2.1982114411354581</v>
+        <v>4.2574023097400522</v>
       </c>
       <c r="D36" s="19">
-        <v>50.35192501828864</v>
+        <v>45.562648885256607</v>
       </c>
       <c r="E36" s="19">
-        <v>4.150442907865683</v>
+        <v>-6.2640828012953689</v>
       </c>
       <c r="F36" s="19">
-        <v>97.485501030635874</v>
+        <v>96.517004045963631</v>
       </c>
       <c r="G36" s="19">
-        <v>2.3940528477374059</v>
+        <v>3.365683754330226</v>
       </c>
       <c r="H36" s="19">
-        <v>0.1139157541709412</v>
+        <v>0.1118407152321395</v>
       </c>
       <c r="I36" s="19">
-        <v>6.530367455788201E-3</v>
+        <v>5.4714844740066243E-3</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -10650,28 +10649,28 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B37" s="19">
-        <v>14.767772623586501</v>
+        <v>15.615768133242</v>
       </c>
       <c r="C37" s="19">
-        <v>-3.711945185477223</v>
+        <v>0.56190243141513962</v>
       </c>
       <c r="D37" s="19">
-        <v>16.80844074070151</v>
+        <v>13.80234316978254</v>
       </c>
       <c r="E37" s="19">
-        <v>0.14640664605596501</v>
+        <v>-1.667762078557955</v>
       </c>
       <c r="F37" s="19">
-        <v>99.914306288224111</v>
+        <v>99.772541303412481</v>
       </c>
       <c r="G37" s="19">
-        <v>8.5693711775879977E-2</v>
+        <v>0.19902635951407649</v>
       </c>
       <c r="H37" s="19">
-        <v>0</v>
+        <v>2.84323370734395E-2</v>
       </c>
       <c r="I37" s="19">
         <v>0</v>
@@ -10683,31 +10682,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B38" s="19">
-        <v>34.791248949303338</v>
+        <v>39.740964614859273</v>
       </c>
       <c r="C38" s="19">
-        <v>-0.46035022113164248</v>
+        <v>2.1041578073816418</v>
       </c>
       <c r="D38" s="19">
-        <v>57.025517713619017</v>
+        <v>45.720729524294313</v>
       </c>
       <c r="E38" s="19">
-        <v>5.2389611928841848</v>
+        <v>-4.7687319142360174</v>
       </c>
       <c r="F38" s="19">
-        <v>96.595762850358341</v>
+        <v>97.969782062535813</v>
       </c>
       <c r="G38" s="19">
-        <v>3.0770673703500662</v>
+        <v>1.7709676859176731</v>
       </c>
       <c r="H38" s="19">
-        <v>0.22263887185648881</v>
+        <v>0.23325641360470231</v>
       </c>
       <c r="I38" s="19">
-        <v>0.1045309074350826</v>
+        <v>0.10122133378349089</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10716,28 +10715,28 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B39" s="19">
-        <v>21.359156501537111</v>
+        <v>23.68302496580181</v>
       </c>
       <c r="C39" s="19">
-        <v>1.87198264903802</v>
+        <v>1.3154264697790219</v>
       </c>
       <c r="D39" s="19">
-        <v>37.861181256572173</v>
+        <v>34.91896598742165</v>
       </c>
       <c r="E39" s="19">
-        <v>5.1716564286455764</v>
+        <v>1.462498230362161</v>
       </c>
       <c r="F39" s="19">
-        <v>99.384941262106466</v>
+        <v>99.382916627707658</v>
       </c>
       <c r="G39" s="19">
-        <v>0.55844390076227834</v>
+        <v>0.5039476390836839</v>
       </c>
       <c r="H39" s="19">
-        <v>5.6614837131245321E-2</v>
+        <v>0.1131357332086645</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
@@ -10749,31 +10748,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B40" s="19">
-        <v>35.757588342554683</v>
+        <v>36.956660130613749</v>
       </c>
       <c r="C40" s="19">
-        <v>2.7237857936539078</v>
+        <v>8.536358014835263E-2</v>
       </c>
       <c r="D40" s="19">
-        <v>43.098062235247717</v>
+        <v>38.463142169998257</v>
       </c>
       <c r="E40" s="19">
-        <v>7.5118240496164894</v>
+        <v>-5.9956605737137174</v>
       </c>
       <c r="F40" s="19">
-        <v>97.393352893986631</v>
+        <v>99.020566437920166</v>
       </c>
       <c r="G40" s="19">
-        <v>2.1657711629386709</v>
+        <v>0.83443912668069953</v>
       </c>
       <c r="H40" s="19">
-        <v>0.37650461331486618</v>
+        <v>0.14218759053333341</v>
       </c>
       <c r="I40" s="19">
-        <v>9.9768438411993343E-2</v>
+        <v>2.3230124277457711E-2</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10782,31 +10781,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B41" s="19">
-        <v>27.177199152379082</v>
+        <v>34.795255706223799</v>
       </c>
       <c r="C41" s="19">
-        <v>3.209726414210472</v>
+        <v>0.16016634924392689</v>
       </c>
       <c r="D41" s="19">
-        <v>50.019350129928668</v>
+        <v>45.928012615944482</v>
       </c>
       <c r="E41" s="19">
-        <v>7.5760917155883396</v>
+        <v>-3.5420881547600618</v>
       </c>
       <c r="F41" s="19">
-        <v>97.230310338884081</v>
+        <v>98.425319627165322</v>
       </c>
       <c r="G41" s="19">
-        <v>2.720853268176274</v>
+        <v>1.491169161838291</v>
       </c>
       <c r="H41" s="19">
-        <v>4.8836392938695572E-2</v>
+        <v>8.35112109958559E-2</v>
       </c>
       <c r="I41" s="19">
-        <v>2.6797610151481469E-2</v>
+        <v>5.6544219697310704E-3</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10815,28 +10814,28 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B42" s="19">
-        <v>31.44</v>
+        <v>35.86</v>
       </c>
       <c r="C42" s="19">
-        <v>0.23</v>
+        <v>1.67</v>
       </c>
       <c r="D42" s="19">
-        <v>61.34</v>
+        <v>44.57</v>
       </c>
       <c r="E42" s="19">
-        <v>4.7600000000000007</v>
+        <v>-2.54</v>
       </c>
       <c r="F42" s="19">
-        <v>98.960000000000008</v>
+        <v>99.29</v>
       </c>
       <c r="G42" s="19">
-        <v>0.9900000000000001</v>
+        <v>0.71000000000000008</v>
       </c>
       <c r="H42" s="19">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I42" s="19">
         <v>0</v>
@@ -10848,31 +10847,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B43" s="19">
-        <v>33.618190355872272</v>
+        <v>36.468023532610971</v>
       </c>
       <c r="C43" s="19">
-        <v>1.3369024181245659</v>
+        <v>3.3448336042656779</v>
       </c>
       <c r="D43" s="19">
-        <v>50.850994095446772</v>
+        <v>41.989155118003858</v>
       </c>
       <c r="E43" s="19">
-        <v>4.3169878676519922</v>
+        <v>-4.0925289453411082</v>
       </c>
       <c r="F43" s="19">
-        <v>98.689380861383412</v>
+        <v>98.630741727905587</v>
       </c>
       <c r="G43" s="19">
-        <v>1.238382360393067</v>
+        <v>1.3158558013067541</v>
       </c>
       <c r="H43" s="19">
-        <v>7.2236778223360387E-2</v>
+        <v>3.5601647191387621E-2</v>
       </c>
       <c r="I43" s="19">
-        <v>0</v>
+        <v>1.7800823595693811E-2</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10881,25 +10880,25 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B44" s="19">
-        <v>11.802577690719099</v>
+        <v>12.31774685057046</v>
       </c>
       <c r="C44" s="19">
-        <v>-8.5953047858208844</v>
+        <v>0.71170112964552457</v>
       </c>
       <c r="D44" s="19">
-        <v>2.061296676245735</v>
+        <v>-0.57564634129501413</v>
       </c>
       <c r="E44" s="19">
-        <v>-1.959884526806855</v>
+        <v>-1.272776830892149</v>
       </c>
       <c r="F44" s="19">
-        <v>99.927736509556269</v>
+        <v>99.775307237336733</v>
       </c>
       <c r="G44" s="19">
-        <v>7.2263490443739142E-2</v>
+        <v>0.22469276266326671</v>
       </c>
       <c r="H44" s="19">
         <v>0</v>
@@ -10914,31 +10913,31 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B45" s="19">
-        <v>28.884008635297299</v>
+        <v>34.510404761900269</v>
       </c>
       <c r="C45" s="19">
-        <v>3.3925155554257711</v>
+        <v>-1.0913575356397851</v>
       </c>
       <c r="D45" s="19">
-        <v>42.638357911364487</v>
+        <v>38.518959018986969</v>
       </c>
       <c r="E45" s="19">
-        <v>5.0838750059414606</v>
+        <v>-1.8208441520775229</v>
       </c>
       <c r="F45" s="19">
-        <v>97.84197581433132</v>
+        <v>98.170481088270975</v>
       </c>
       <c r="G45" s="19">
-        <v>2.0078390227323348</v>
+        <v>1.604831277077418</v>
       </c>
       <c r="H45" s="19">
-        <v>0.13875401665574219</v>
+        <v>0.18784914051776949</v>
       </c>
       <c r="I45" s="19">
-        <v>2.8916493120628529E-2</v>
+        <v>8.1717821574217642E-2</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10947,31 +10946,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B46" s="19">
-        <v>27.74567795292371</v>
+        <v>34.018539893193221</v>
       </c>
       <c r="C46" s="19">
-        <v>1.0140167149060639</v>
+        <v>3.6943354473564218</v>
       </c>
       <c r="D46" s="19">
-        <v>44.886211756745062</v>
+        <v>44.368157026135137</v>
       </c>
       <c r="E46" s="19">
-        <v>4.3972214465147781</v>
+        <v>1.7731609765666529</v>
       </c>
       <c r="F46" s="19">
-        <v>97.703289436010635</v>
+        <v>98.278070305690861</v>
       </c>
       <c r="G46" s="19">
-        <v>2.1064738079638761</v>
+        <v>1.495686759872038</v>
       </c>
       <c r="H46" s="19">
-        <v>0.17128812977155239</v>
+        <v>0.19530860620970419</v>
       </c>
       <c r="I46" s="19">
-        <v>2.052629269740272E-2</v>
+        <v>3.2283223159071082E-2</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -10980,28 +10979,28 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B47" s="19">
-        <v>24.6058742190895</v>
+        <v>28.710094605567701</v>
       </c>
       <c r="C47" s="19">
-        <v>1.8848</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="D47" s="19">
-        <v>38.569430311772599</v>
+        <v>40.060008140233002</v>
       </c>
       <c r="E47" s="19">
-        <v>3.5821999999999998</v>
+        <v>-3.1526999999999998</v>
       </c>
       <c r="F47" s="19">
-        <v>97.625698324021997</v>
+        <v>98.251057827926005</v>
       </c>
       <c r="G47" s="19">
-        <v>2.3603351955299998</v>
+        <v>1.7489421720730001</v>
       </c>
       <c r="H47" s="19">
-        <v>1.3966480446000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="19">
         <v>0</v>
@@ -11013,25 +11012,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B48" s="19">
-        <v>37.874258005701627</v>
+        <v>47.075938615052593</v>
       </c>
       <c r="C48" s="19">
-        <v>-1.1548377268904091</v>
+        <v>-0.59371005275039157</v>
       </c>
       <c r="D48" s="19">
-        <v>36.37036053316578</v>
+        <v>27.10822573781202</v>
       </c>
       <c r="E48" s="19">
-        <v>3.9905078598018862</v>
+        <v>-3.1232267906201092</v>
       </c>
       <c r="F48" s="19">
-        <v>99.812073982994804</v>
+        <v>99.71763070671102</v>
       </c>
       <c r="G48" s="19">
-        <v>0.18792601700425399</v>
+        <v>0.28236929328798238</v>
       </c>
       <c r="H48" s="19">
         <v>0</v>
@@ -11046,31 +11045,31 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B49" s="19">
-        <v>25.111694254561669</v>
+        <v>31.910385579070219</v>
       </c>
       <c r="C49" s="19">
-        <v>4.1669372916060663</v>
+        <v>0.97236606343597654</v>
       </c>
       <c r="D49" s="19">
-        <v>55.032648518934153</v>
+        <v>45.123095535151123</v>
       </c>
       <c r="E49" s="19">
-        <v>8.7270309227939595</v>
+        <v>-1.921469280532015</v>
       </c>
       <c r="F49" s="19">
-        <v>98.159781892890763</v>
+        <v>98.623981038832483</v>
       </c>
       <c r="G49" s="19">
-        <v>1.7684808854853811</v>
+        <v>1.2289870542011081</v>
       </c>
       <c r="H49" s="19">
-        <v>7.1737221623156461E-2</v>
+        <v>0.10762682313678119</v>
       </c>
       <c r="I49" s="19">
-        <v>9.5286758328747764E-3</v>
+        <v>4.1188805871687217E-2</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -11079,31 +11078,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B50" s="19">
-        <v>31.375387669718641</v>
+        <v>29.930386074112121</v>
       </c>
       <c r="C50" s="19">
-        <v>1.79565761145921</v>
+        <v>1.901763692953079</v>
       </c>
       <c r="D50" s="19">
-        <v>39.647584446223703</v>
+        <v>43.460242887323687</v>
       </c>
       <c r="E50" s="19">
-        <v>7.1240112316619699</v>
+        <v>-3.194189369300656</v>
       </c>
       <c r="F50" s="19">
-        <v>96.112617680368587</v>
+        <v>94.3055953901127</v>
       </c>
       <c r="G50" s="19">
-        <v>3.015186041484637</v>
+        <v>5.1434126023186382</v>
       </c>
       <c r="H50" s="19">
-        <v>0.83778532817406459</v>
+        <v>0.40233198380482998</v>
       </c>
       <c r="I50" s="19">
-        <v>4.3709082607910822E-2</v>
+        <v>0.1537736778296441</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -11112,31 +11111,31 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B51" s="19">
-        <v>25.71950868351696</v>
+        <v>27.36555550655704</v>
       </c>
       <c r="C51" s="19">
-        <v>5.4652827847714374</v>
+        <v>-2.7174924950575128</v>
       </c>
       <c r="D51" s="19">
-        <v>38.109975443570782</v>
+        <v>40.978726313137628</v>
       </c>
       <c r="E51" s="19">
-        <v>6.1223099364733917</v>
+        <v>-0.73521115413709159</v>
       </c>
       <c r="F51" s="19">
-        <v>96.786214465726744</v>
+        <v>96.279391981469104</v>
       </c>
       <c r="G51" s="19">
-        <v>2.420652097722952</v>
+        <v>2.9527999421311328</v>
       </c>
       <c r="H51" s="19">
-        <v>0.61749205693821452</v>
+        <v>0.68022254730161236</v>
       </c>
       <c r="I51" s="19">
-        <v>0.17564137961156109</v>
+        <v>8.7585529097102877E-2</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11145,31 +11144,31 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B52" s="19">
-        <v>26.401441382739542</v>
+        <v>32.716762728354027</v>
       </c>
       <c r="C52" s="19">
-        <v>0.5758533465661454</v>
+        <v>2.9789920809897521</v>
       </c>
       <c r="D52" s="19">
-        <v>64.201192295582928</v>
+        <v>51.557224492297472</v>
       </c>
       <c r="E52" s="19">
-        <v>7.4790708439560474</v>
+        <v>3.942904599637008</v>
       </c>
       <c r="F52" s="19">
-        <v>96.277250336247334</v>
+        <v>98.189202215117291</v>
       </c>
       <c r="G52" s="19">
-        <v>3.4990740187089351</v>
+        <v>1.6905000299429449</v>
       </c>
       <c r="H52" s="19">
-        <v>0.171448336124222</v>
+        <v>0.11396629415345701</v>
       </c>
       <c r="I52" s="19">
-        <v>5.2227308919491011E-2</v>
+        <v>6.3314607863031646E-3</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11178,31 +11177,31 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B53" s="19">
-        <v>24.975612090332941</v>
+        <v>25.888441352308881</v>
       </c>
       <c r="C53" s="19">
-        <v>2.7417570962749549</v>
+        <v>1.61381984928719</v>
       </c>
       <c r="D53" s="19">
-        <v>41.790035023769143</v>
+        <v>33.347847839624848</v>
       </c>
       <c r="E53" s="19">
-        <v>5.0129553907007676</v>
+        <v>-9.1745634207812792</v>
       </c>
       <c r="F53" s="19">
-        <v>97.203947368421055</v>
+        <v>98.114754098360663</v>
       </c>
       <c r="G53" s="19">
-        <v>2.549342105263158</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="H53" s="19">
-        <v>0.24671052631578949</v>
+        <v>0.16393442622950821</v>
       </c>
       <c r="I53" s="19">
-        <v>0</v>
+        <v>8.1967213114754092E-2</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -11280,10 +11279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:D42"/>
+  <dimension ref="A2:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11606,6 +11605,28 @@
       </c>
       <c r="C42" s="10">
         <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="14">
+        <v>44184</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="14">
+        <v>44191</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="14">
+        <v>44198</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.38900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82768ECE-4A52-4C42-8F84-AC36A1E789B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C781190C-57BE-3344-BC31-834D3B127B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3480" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -789,160 +789,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.3561285753472549</c:v>
+                  <c:v>0.18781232477759249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.899471166606244</c:v>
+                  <c:v>0.63483130139291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.63991947080817013</c:v>
+                  <c:v>7.5546148217832121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9251885447634449</c:v>
+                  <c:v>-0.7142336249596718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61505128597295788</c:v>
+                  <c:v>0.70731634513259367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.408146223819609</c:v>
+                  <c:v>0.52342217038801708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6749400388828461</c:v>
+                  <c:v>0.1882762170872625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.152134832021783</c:v>
+                  <c:v>-1.357087178773803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1689277278102361</c:v>
+                  <c:v>-1.607258499816103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77470000000000006</c:v>
+                  <c:v>-0.10349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.957972488645364</c:v>
+                  <c:v>2.129853814332479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0568483149601471</c:v>
+                  <c:v>-0.66092094498358311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7322557157222223</c:v>
+                  <c:v>-2.4586115879639099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.0336603593182341</c:v>
+                  <c:v>-0.83768542504737464</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8202707823571369</c:v>
+                  <c:v>0.71017649089478396</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47951103196752998</c:v>
+                  <c:v>-0.48774447990606662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.55810925058180638</c:v>
+                  <c:v>2.3749238386006888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4366135002299831</c:v>
+                  <c:v>-1.3613697041966859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1299640057325671</c:v>
+                  <c:v>-1.7599491877081579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.539893955310536</c:v>
+                  <c:v>1.9483513822393701</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.539968685612755</c:v>
+                  <c:v>-0.19300576185572771</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.46291208445116733</c:v>
+                  <c:v>-1.546210856693008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.134165318132262</c:v>
+                  <c:v>-1.389412069536579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2983795289673239</c:v>
+                  <c:v>3.0222261568152609E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.46257868438890148</c:v>
+                  <c:v>-0.1129262790553936</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.5337153023436541</c:v>
+                  <c:v>0.43310056641355937</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8319414090391311</c:v>
+                  <c:v>-0.73288651227190305</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3226219667691561</c:v>
+                  <c:v>-1.037038851705363</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.7607803450549566</c:v>
+                  <c:v>1.1260704531777701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1453073279928061</c:v>
+                  <c:v>-1.540142401080796</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.1611204530264361</c:v>
+                  <c:v>-0.60027151943171941</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.297755204339089</c:v>
+                  <c:v>-1.86080803334069</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.36218824130786048</c:v>
+                  <c:v>-0.2340400308298049</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.44230558358861299</c:v>
+                  <c:v>-1.1198959016316641</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.2574023097400522</c:v>
+                  <c:v>-0.42647800530671492</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.56190243141513962</c:v>
+                  <c:v>2.1861839423568981</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.1041578073816418</c:v>
+                  <c:v>-0.54459251825560151</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3154264697790219</c:v>
+                  <c:v>-0.60140894180381821</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.536358014835263E-2</c:v>
+                  <c:v>-0.24207474834066051</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.16016634924392689</c:v>
+                  <c:v>-3.3456179142019189</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.67</c:v>
+                  <c:v>-4.16</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.3448336042656779</c:v>
+                  <c:v>-2.0978023238099799E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.71170112964552457</c:v>
+                  <c:v>1.323904650138926</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.0913575356397851</c:v>
+                  <c:v>-0.46177974858850662</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.6943354473564218</c:v>
+                  <c:v>3.835401576438966</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28889999999999999</c:v>
+                  <c:v>0.10680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.59371005275039157</c:v>
+                  <c:v>1.1010845557748059</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.97236606343597654</c:v>
+                  <c:v>-1.2284603799091891</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.901763692953079</c:v>
+                  <c:v>-0.90238971744749918</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.7174924950575128</c:v>
+                  <c:v>-0.43045503300148757</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.9789920809897521</c:v>
+                  <c:v>-0.64023717948137548</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.61381984928719</c:v>
+                  <c:v>1.3339116518010341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,160 +1444,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>-2.7997151669250822</c:v>
+                  <c:v>1.671078987677592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4408646098675499</c:v>
+                  <c:v>2.711754830898061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15.118050266565129</c:v>
+                  <c:v>3.4086067319982978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2038661889470821</c:v>
+                  <c:v>1.6435621246258361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.98727660793987038</c:v>
+                  <c:v>1.2778382354363611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.34506234295017763</c:v>
+                  <c:v>7.885467717415688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.526998661424968</c:v>
+                  <c:v>-0.13377089584668461</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.7378782872092788</c:v>
+                  <c:v>-1.2893227053190961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.4486345447847349</c:v>
+                  <c:v>-2.719666497928841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.8804000000000007</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.6733745649995511</c:v>
+                  <c:v>1.340006216449507</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1968989269497909</c:v>
+                  <c:v>1.8158586905327969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.02136943243646</c:v>
+                  <c:v>2.7861252779629591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.981747538811196</c:v>
+                  <c:v>1.1302178208299321</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.1628302287622412</c:v>
+                  <c:v>-1.546040241809723</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.401972800392151</c:v>
+                  <c:v>-0.62830725228447304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-11.51032355757418</c:v>
+                  <c:v>3.5770022001545452</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.71245768086103245</c:v>
+                  <c:v>2.1467196703341132</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.3919248824228383</c:v>
+                  <c:v>0.23750335189924801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.39002333322920069</c:v>
+                  <c:v>4.4817905988656568</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.0903786267510185</c:v>
+                  <c:v>1.960532658674822</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.370194259182032</c:v>
+                  <c:v>-0.26954547064463952</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.4020626694989957</c:v>
+                  <c:v>0.72300763745211738</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.065449422654031</c:v>
+                  <c:v>1.290744977882307</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.0419806651420309</c:v>
+                  <c:v>-0.40019436163288502</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.289660002071392</c:v>
+                  <c:v>0.3976219326786643</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.8558957954011048</c:v>
+                  <c:v>0.1834664502494254</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.9084545931627517</c:v>
+                  <c:v>2.6589042440110289</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4228164359154807</c:v>
+                  <c:v>7.1232278803292166</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.96624402480350047</c:v>
+                  <c:v>1.380201908599175</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.3458766380143281</c:v>
+                  <c:v>-0.79600879776467437</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.4752568220668421</c:v>
+                  <c:v>-0.60273789915653231</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.619611659278112</c:v>
+                  <c:v>0.67402019695778537</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.6694839657874478</c:v>
+                  <c:v>5.0058894435956978</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.2640828012953689</c:v>
+                  <c:v>1.146436711629133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.667762078557955</c:v>
+                  <c:v>1.534329588156097</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.7687319142360174</c:v>
+                  <c:v>0.59120726068841889</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.462498230362161</c:v>
+                  <c:v>1.0374229289717269</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-5.9956605737137174</c:v>
+                  <c:v>-1.360202580730236</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.5420881547600618</c:v>
+                  <c:v>0.33158551258665292</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.54</c:v>
+                  <c:v>-10.77</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4.0925289453411082</c:v>
+                  <c:v>0.99221379593698145</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.272776830892149</c:v>
+                  <c:v>4.0284307541971769</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.8208441520775229</c:v>
+                  <c:v>-1.6448723061686841</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7731609765666529</c:v>
+                  <c:v>2.6373177531479528</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.1526999999999998</c:v>
+                  <c:v>-2.4618000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.1232267906201092</c:v>
+                  <c:v>-0.22898231038299341</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.921469280532015</c:v>
+                  <c:v>1.1110326162741051</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.194189369300656</c:v>
+                  <c:v>2.5432647847687342</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.73521115413709159</c:v>
+                  <c:v>1.8896843458528589</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.942904599637008</c:v>
+                  <c:v>-3.2697508859010642</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-9.1745634207812792</c:v>
+                  <c:v>2.2948188079712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,160 +2103,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.7386240470054191</c:v>
+                  <c:v>2.148306297542943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.546961380535226</c:v>
+                  <c:v>1.1052837167490279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.447087211306446E-2</c:v>
+                  <c:v>0.17343045438779051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9978870642907749</c:v>
+                  <c:v>4.0687707036761092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2356408947338751</c:v>
+                  <c:v>1.1111480539905001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9721510889697571</c:v>
+                  <c:v>5.7996061454037244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.565456290364303</c:v>
+                  <c:v>5.3143697128355134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4240344175242929</c:v>
+                  <c:v>2.169185897885896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.524720788975122</c:v>
+                  <c:v>1.5657226754342599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90460526315699996</c:v>
+                  <c:v>1.9846091535029999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0955343419739749</c:v>
+                  <c:v>1.3114338595293451</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8534600244708801</c:v>
+                  <c:v>2.52162127775803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3258518669659249</c:v>
+                  <c:v>3.9084649655731072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55486795352255502</c:v>
+                  <c:v>0.57360734632529897</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.005981549947246</c:v>
+                  <c:v>1.816280973205223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.087617472084641</c:v>
+                  <c:v>0.89449871062442232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.12659929928038821</c:v>
+                  <c:v>9.8659389196721334E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56284449516718005</c:v>
+                  <c:v>0.55056124636361492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5572652028281171</c:v>
+                  <c:v>1.34182567441704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1640022147743261</c:v>
+                  <c:v>1.384579844957265</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27873143481721457</c:v>
+                  <c:v>0.2412576912350472</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5060978818265309</c:v>
+                  <c:v>1.70758370021652</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5308655494807486</c:v>
+                  <c:v>1.219217483137345</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.040835108371702</c:v>
+                  <c:v>1.459360938299666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.84247297619553319</c:v>
+                  <c:v>1.6668732581153429</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2060819932845741</c:v>
+                  <c:v>1.1405623259278239</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.168971394125772</c:v>
+                  <c:v>1.371598075065467</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0131086142322099</c:v>
+                  <c:v>1.443202979515829</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34042375389817392</c:v>
+                  <c:v>0.47074672439432341</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2364044510895278</c:v>
+                  <c:v>3.3337126602141489</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.36819373980436187</c:v>
+                  <c:v>0.67865690552238056</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.596102719316735</c:v>
+                  <c:v>1.863108612699218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.864485536869904</c:v>
+                  <c:v>2.9559921266220579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7467133303534339</c:v>
+                  <c:v>2.375703229488825</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.365683754330226</c:v>
+                  <c:v>1.6264027996005239</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.19902635951407649</c:v>
+                  <c:v>0.1135736852173212</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7709676859176731</c:v>
+                  <c:v>0.94012582590501304</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5039476390836839</c:v>
+                  <c:v>0.49118299718281511</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.83443912668069953</c:v>
+                  <c:v>1.63167606151797</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.491169161838291</c:v>
+                  <c:v>0.96598035826630468</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.71000000000000008</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3158558013067541</c:v>
+                  <c:v>1.790462204408434</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.22469276266326671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.604831277077418</c:v>
+                  <c:v>1.697582159904075</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.495686759872038</c:v>
+                  <c:v>1.8258122745917971</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7489421720730001</c:v>
+                  <c:v>1.6238559196919999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.28236929328798238</c:v>
+                  <c:v>0.17874806650642641</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2289870542011081</c:v>
+                  <c:v>1.510050203334137</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.1434126023186382</c:v>
+                  <c:v>2.2812847086953072</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9527999421311328</c:v>
+                  <c:v>2.546214691522954</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6905000299429449</c:v>
+                  <c:v>2.0148147836162109</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.639344262295082</c:v>
+                  <c:v>1.4754098360655741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,160 +2762,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.15350199302332679</c:v>
+                  <c:v>0.11640254379715349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19536037085285241</c:v>
+                  <c:v>9.8182945475990852E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34906467185652701</c:v>
+                  <c:v>0.57208371061534258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60961103920100701</c:v>
+                  <c:v>0.45107396832815799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27449694337196029</c:v>
+                  <c:v>0.13658830398838981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8112774590361851E-2</c:v>
+                  <c:v>1.21786872543817E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25262844100093379</c:v>
+                  <c:v>0.17748239302956681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4789802538306012E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1084747101260226</c:v>
+                  <c:v>0.1184272437072028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6150136785021218E-2</c:v>
+                  <c:v>3.9376292812131647E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1224239951030402</c:v>
+                  <c:v>2.025111381125962E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6521273735543341E-2</c:v>
+                  <c:v>3.002681688833519E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2897391345977823E-2</c:v>
+                  <c:v>2.9090128033073169E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.409419845667448E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1295983074080696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11505767052468981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27544388423710631</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9843812255956651E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1353521971807688</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.37331668477611851</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.7164191308961939E-2</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8360409998277029E-2</c:v>
+                  <c:v>1.2697249018252491E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.561676533615306E-2</c:v>
+                  <c:v>6.4066390903920176E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1566233801152044E-2</c:v>
+                  <c:v>4.3205784982275078E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0223062699049599E-2</c:v>
+                  <c:v>0.14881184369201311</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21125980132585609</c:v>
+                  <c:v>0.1911916662639469</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.16540335669582421</c:v>
+                  <c:v>0.1053809952605992</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.32771535580524352</c:v>
+                  <c:v>0.18621973929236499</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>2.0600634924434421E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35951398117856342</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7267942534705899E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21536531434534789</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77763134367055431</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19946401414693771</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.5421880287418022E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.43207389004354929</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.12099069668515119</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.39032777795298701</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.88174377414831562</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.2316226467268015</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.1118407152321395</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.84323370734395E-2</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23325641360470231</c:v>
+                  <c:v>3.4357081151029742E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1131357332086645</c:v>
+                  <c:v>6.9704204663386476E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.14218759053333341</c:v>
+                  <c:v>0.27028704021497219</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.35112109958559E-2</c:v>
+                  <c:v>1.3269097730058009E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.5601647191387621E-2</c:v>
+                  <c:v>1.7720879030057361E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.18784914051776949</c:v>
+                  <c:v>0.18751788577175499</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.19530860620970419</c:v>
+                  <c:v>0.15616717031737021</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>4.0712311970754207E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.2380076503621713E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27175199841078179</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46120421162035091</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.3278462204454238E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.10762682313678119</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.40233198380482998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.68022254730161236</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.11396629415345701</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.16393442622950821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3422,28 +3422,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>4.1951006523226177E-2</c:v>
+                  <c:v>1.042592157896018E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0314095200388501E-2</c:v>
+                  <c:v>3.9896888787410163E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27956563306677951</c:v>
+                  <c:v>2.594248685838119E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.6285059181470974E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1225769304739586</c:v>
+                  <c:v>2.845147818387804E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7459839231015927E-2</c:v>
+                  <c:v>1.436468564140941E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3452,19 +3452,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.899111778637148E-3</c:v>
+                  <c:v>2.8927736420192112E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.061062534928245E-2</c:v>
+                  <c:v>3.404627816017317E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1020199959192002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4823467359107342E-3</c:v>
+                  <c:v>2.828190444162674E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3476,85 +3476,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0647275841251519E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1324816945607077E-2</c:v>
+                  <c:v>5.1683263919145649E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.28772708271981E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8145733906897209E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0419843506468849E-2</c:v>
+                  <c:v>6.9424438725139044E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9383552173017393E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8641905158992629E-2</c:v>
+                  <c:v>1.874229168443101E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1053476758249019E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.6554934823091247E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53851764514501443</c:v>
+                  <c:v>1.335933835157079E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.4568770480654418E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.16854390190309201</c:v>
+                  <c:v>9.9245805529766085E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.207596583093949E-2</c:v>
+                  <c:v>1.7218103386872029E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4714844740066243E-3</c:v>
+                  <c:v>2.7226575623158218E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.10122133378349089</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.3230124277457711E-2</c:v>
+                  <c:v>2.3160991743347351E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6544219697310704E-3</c:v>
+                  <c:v>5.6867561698712701E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7800823595693811E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.1717821574217642E-2</c:v>
+                  <c:v>3.0167219302284609E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.2283223159071082E-2</c:v>
+                  <c:v>1.5595831428141421E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3563,19 +3563,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.1188805871687217E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1537736778296441</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7585529097102877E-2</c:v>
+                  <c:v>4.3924210630509608E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.3314607863031646E-3</c:v>
+                  <c:v>1.865569244089085E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.1967213114754092E-2</c:v>
+                  <c:v>0.24590163934426229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4077,160 +4077,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>34.724050477060679</c:v>
+                  <c:v>31.786931193442129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.141184884565547</c:v>
+                  <c:v>33.404844448455599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.989146164978287</c:v>
+                  <c:v>48.910998552821987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.741365561343777</c:v>
+                  <c:v>29.08547669620857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.980020663229229</c:v>
+                  <c:v>28.69783694056169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.116493853693903</c:v>
+                  <c:v>38.284468854315513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.72343161923234</c:v>
+                  <c:v>19.881108371785562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.231183548472423</c:v>
+                  <c:v>38.710730927937078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.970347816779302</c:v>
+                  <c:v>23.531856358199629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7359318363564498</c:v>
+                  <c:v>14.8864072978743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.05977713642465</c:v>
+                  <c:v>26.578116224897951</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.831722893596783</c:v>
+                  <c:v>29.91729947480766</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.477953717223471</c:v>
+                  <c:v>37.387014278856689</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.78523192057707</c:v>
+                  <c:v>8.5520049175797102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.70877441360139</c:v>
+                  <c:v>26.806235731305449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.073701354495238</c:v>
+                  <c:v>22.562131809264471</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.763752220470639</c:v>
+                  <c:v>11.506855004645651</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.977925280314711</c:v>
+                  <c:v>23.700571438449341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.027830151745071</c:v>
+                  <c:v>28.281622950216711</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.646524231682022</c:v>
+                  <c:v>36.111308571056327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.12615846458889</c:v>
+                  <c:v>35.559652842385759</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.21353626792024</c:v>
+                  <c:v>26.145567733313989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.123480015136153</c:v>
+                  <c:v>33.872432803609797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.774730367173447</c:v>
+                  <c:v>32.841656798120631</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.446068108736647</c:v>
+                  <c:v>33.392357269984267</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.615655101402151</c:v>
+                  <c:v>26.769450314192419</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.968661374465469</c:v>
+                  <c:v>22.608394089938042</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.023736946712759</c:v>
+                  <c:v>29.573199617845749</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.81356604453801</c:v>
+                  <c:v>25.553434718318709</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.924220924043802</c:v>
+                  <c:v>27.571420734454499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.048290377831187</c:v>
+                  <c:v>37.289813181147693</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.5491528895211</c:v>
+                  <c:v>22.964392619618121</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.832998255675093</c:v>
+                  <c:v>39.978089875707731</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.11438923813764</c:v>
+                  <c:v>31.35709700920221</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.915706143261502</c:v>
+                  <c:v>40.330114093464452</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.615768133242</c:v>
+                  <c:v>16.204348600220278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.740964614859273</c:v>
+                  <c:v>34.918208600252463</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.68302496580181</c:v>
+                  <c:v>19.860323144079519</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>36.956660130613749</c:v>
+                  <c:v>33.465791514762152</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.795255706223799</c:v>
+                  <c:v>26.540935732610471</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35.86</c:v>
+                  <c:v>28.62</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>36.468023532610971</c:v>
+                  <c:v>34.985215886339439</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.31774685057046</c:v>
+                  <c:v>13.22908146062918</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>34.510404761900269</c:v>
+                  <c:v>31.15373960340284</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>34.018539893193221</c:v>
+                  <c:v>39.083356862878581</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.710094605567701</c:v>
+                  <c:v>22.7240532170457</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.075938615052593</c:v>
+                  <c:v>38.577536326203607</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31.910385579070219</c:v>
+                  <c:v>29.112675159573278</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.930386074112121</c:v>
+                  <c:v>26.85890206689686</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>27.36555550655704</c:v>
+                  <c:v>23.646916941829659</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>32.716762728354027</c:v>
+                  <c:v>29.90566787018162</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.888441352308881</c:v>
+                  <c:v>25.663100088841009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4731,160 +4731,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>41.495189304313598</c:v>
+                  <c:v>51.073008101537738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.913264163267073</c:v>
+                  <c:v>49.879947264873692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.068035943517323</c:v>
+                  <c:v>55.776636713735563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.842068453241531</c:v>
+                  <c:v>65.580676407179453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.305341809393479</c:v>
+                  <c:v>32.894263773975133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.475192009212343</c:v>
+                  <c:v>69.207119404695433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.642931966381347</c:v>
+                  <c:v>43.526718564246693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.200556688857958</c:v>
+                  <c:v>51.36078423201792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.766461605262407</c:v>
+                  <c:v>48.078363438965297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.4280386570506</c:v>
+                  <c:v>41.500133784266602</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.547430988114407</c:v>
+                  <c:v>43.003879272378313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.15486574051306</c:v>
+                  <c:v>55.150344985107111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.930767615900393</c:v>
+                  <c:v>52.256376987118401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.462268134362667</c:v>
+                  <c:v>59.568223714473852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.169624041893186</c:v>
+                  <c:v>49.204736909851619</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.261380569116703</c:v>
+                  <c:v>44.529690155609373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.22940344571434</c:v>
+                  <c:v>50.778918766767212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.061765975925042</c:v>
+                  <c:v>50.421168260811967</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.665489603218077</c:v>
+                  <c:v>46.045137536936728</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.398523336580418</c:v>
+                  <c:v>46.314003649958003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.893335231808742</c:v>
+                  <c:v>62.957138458686693</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.316241954969151</c:v>
+                  <c:v>45.441673460110692</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.59485504147359</c:v>
+                  <c:v>43.708667047504917</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.111099022402172</c:v>
+                  <c:v>53.016296273501403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.679797559230821</c:v>
+                  <c:v>54.099512573082833</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.204695669140332</c:v>
+                  <c:v>34.242695771532318</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.10453414029999</c:v>
+                  <c:v>47.740743457058159</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.368854342156247</c:v>
+                  <c:v>52.541975639354298</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42.852609647421353</c:v>
+                  <c:v>50.351271289186272</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.826966412367561</c:v>
+                  <c:v>61.152908032403403</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.366022159298403</c:v>
+                  <c:v>47.315511616499712</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34.524027357375573</c:v>
+                  <c:v>49.978428892544677</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.159225163024622</c:v>
+                  <c:v>57.040369699276063</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.823100445303261</c:v>
+                  <c:v>55.836824376968003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45.562648885256607</c:v>
+                  <c:v>53.533329014943433</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.80234316978254</c:v>
+                  <c:v>14.94801640346027</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.720729524294313</c:v>
+                  <c:v>50.866181611269347</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34.91896598742165</c:v>
+                  <c:v>35.858499559264082</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.463142169998257</c:v>
+                  <c:v>41.62923664829006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45.928012615944482</c:v>
+                  <c:v>49.033018841473172</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44.57</c:v>
+                  <c:v>57.79</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.989155118003858</c:v>
+                  <c:v>47.989766853522227</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.57564634129501413</c:v>
+                  <c:v>-0.3096130225448861</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.518959018986969</c:v>
+                  <c:v>39.660575919409283</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.368157026135137</c:v>
+                  <c:v>51.533258039337078</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40.060008140233002</c:v>
+                  <c:v>46.1610864811787</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.10822573781202</c:v>
+                  <c:v>39.620531563990284</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.123095535151123</c:v>
+                  <c:v>57.358263515249533</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43.460242887323687</c:v>
+                  <c:v>55.946330067360968</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>40.978726313137628</c:v>
+                  <c:v>42.06016971961342</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51.557224492297472</c:v>
+                  <c:v>52.818124140427102</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.347847839624848</c:v>
+                  <c:v>40.717262774192847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9442,20 +9442,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9497,28 +9497,28 @@
         <v>12</v>
       </c>
       <c r="B2" s="18">
-        <v>34.724050477060679</v>
+        <v>31.786931193442129</v>
       </c>
       <c r="C2" s="18">
-        <v>1.3561285753472549</v>
+        <v>0.18781232477759249</v>
       </c>
       <c r="D2" s="18">
-        <v>41.495189304313598</v>
+        <v>51.073008101537738</v>
       </c>
       <c r="E2" s="18">
-        <v>-2.7997151669250822</v>
+        <v>1.671078987677592</v>
       </c>
       <c r="F2" s="18">
-        <v>98.074270317872546</v>
+        <v>97.728169518654028</v>
       </c>
       <c r="G2" s="18">
-        <v>1.7386240470054191</v>
+        <v>2.148306297542943</v>
       </c>
       <c r="H2" s="18">
-        <v>0.15350199302332679</v>
+        <v>0.11640254379715349</v>
       </c>
       <c r="I2" s="18">
-        <v>4.1951006523226177E-2</v>
+        <v>1.042592157896018E-2</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9530,28 +9530,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>32.141184884565547</v>
+        <v>33.404844448455599</v>
       </c>
       <c r="C3" s="19">
-        <v>2.899471166606244</v>
+        <v>0.63483130139291</v>
       </c>
       <c r="D3" s="19">
-        <v>41.913264163267073</v>
+        <v>49.879947264873692</v>
       </c>
       <c r="E3" s="19">
-        <v>-1.4408646098675499</v>
+        <v>2.711754830898061</v>
       </c>
       <c r="F3" s="19">
-        <v>98.238437012023809</v>
+        <v>98.777364531627086</v>
       </c>
       <c r="G3" s="19">
-        <v>1.546961380535226</v>
+        <v>1.1052837167490279</v>
       </c>
       <c r="H3" s="19">
-        <v>0.19536037085285241</v>
+        <v>9.8182945475990852E-2</v>
       </c>
       <c r="I3" s="19">
-        <v>5.0314095200388501E-2</v>
+        <v>3.9896888787410163E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9563,22 +9563,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="19">
-        <v>49.989146164978287</v>
+        <v>48.910998552821987</v>
       </c>
       <c r="C4" s="19">
-        <v>-0.63991947080817013</v>
+        <v>7.5546148217832121</v>
       </c>
       <c r="D4" s="19">
-        <v>43.068035943517323</v>
+        <v>55.776636713735563</v>
       </c>
       <c r="E4" s="19">
-        <v>-15.118050266565129</v>
+        <v>3.4086067319982978</v>
       </c>
       <c r="F4" s="19">
-        <v>99.965529127886938</v>
+        <v>99.826569545612216</v>
       </c>
       <c r="G4" s="19">
-        <v>3.447087211306446E-2</v>
+        <v>0.17343045438779051</v>
       </c>
       <c r="H4" s="19">
         <v>0</v>
@@ -9596,28 +9596,28 @@
         <v>15</v>
       </c>
       <c r="B5" s="19">
-        <v>33.741365561343777</v>
+        <v>29.08547669620857</v>
       </c>
       <c r="C5" s="19">
-        <v>3.9251885447634449</v>
+        <v>-0.7142336249596718</v>
       </c>
       <c r="D5" s="19">
-        <v>44.842068453241531</v>
+        <v>65.580676407179453</v>
       </c>
       <c r="E5" s="19">
-        <v>1.2038661889470821</v>
+        <v>1.6435621246258361</v>
       </c>
       <c r="F5" s="19">
-        <v>97.373482630785787</v>
+        <v>95.346443053530521</v>
       </c>
       <c r="G5" s="19">
-        <v>1.9978870642907749</v>
+        <v>4.0687707036761092</v>
       </c>
       <c r="H5" s="19">
-        <v>0.34906467185652701</v>
+        <v>0.57208371061534258</v>
       </c>
       <c r="I5" s="19">
-        <v>0.27956563306677951</v>
+        <v>2.594248685838119E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9629,28 +9629,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="19">
-        <v>30.980020663229229</v>
+        <v>28.69783694056169</v>
       </c>
       <c r="C6" s="19">
-        <v>0.61505128597295788</v>
+        <v>0.70731634513259367</v>
       </c>
       <c r="D6" s="19">
-        <v>31.305341809393479</v>
+        <v>32.894263773975133</v>
       </c>
       <c r="E6" s="19">
-        <v>-0.98727660793987038</v>
+        <v>1.2778382354363611</v>
       </c>
       <c r="F6" s="19">
-        <v>98.15474806606484</v>
+        <v>98.397991713400344</v>
       </c>
       <c r="G6" s="19">
-        <v>1.2356408947338751</v>
+        <v>1.1111480539905001</v>
       </c>
       <c r="H6" s="19">
-        <v>0.60961103920100701</v>
+        <v>0.45107396832815799</v>
       </c>
       <c r="I6" s="19">
-        <v>0</v>
+        <v>8.6285059181470974E-2</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -9662,28 +9662,28 @@
         <v>17</v>
       </c>
       <c r="B7" s="19">
-        <v>40.116493853693903</v>
+        <v>38.284468854315513</v>
       </c>
       <c r="C7" s="19">
-        <v>1.408146223819609</v>
+        <v>0.52342217038801708</v>
       </c>
       <c r="D7" s="19">
-        <v>46.475192009212343</v>
+        <v>69.207119404695433</v>
       </c>
       <c r="E7" s="19">
-        <v>-0.34506234295017763</v>
+        <v>7.885467717415688</v>
       </c>
       <c r="F7" s="19">
-        <v>95.629973815222456</v>
+        <v>94.036152035824756</v>
       </c>
       <c r="G7" s="19">
-        <v>3.9721510889697571</v>
+        <v>5.7996061454037244</v>
       </c>
       <c r="H7" s="19">
-        <v>0.27449694337196029</v>
+        <v>0.13658830398838981</v>
       </c>
       <c r="I7" s="19">
-        <v>0.1225769304739586</v>
+        <v>2.845147818387804E-2</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9695,25 +9695,25 @@
         <v>18</v>
       </c>
       <c r="B8" s="19">
-        <v>22.72343161923234</v>
+        <v>19.881108371785562</v>
       </c>
       <c r="C8" s="19">
-        <v>2.6749400388828461</v>
+        <v>0.1882762170872625</v>
       </c>
       <c r="D8" s="19">
-        <v>32.642931966381347</v>
+        <v>43.526718564246693</v>
       </c>
       <c r="E8" s="19">
-        <v>-2.526998661424968</v>
+        <v>-0.13377089584668461</v>
       </c>
       <c r="F8" s="19">
-        <v>96.416430935043493</v>
+        <v>94.673451599908262</v>
       </c>
       <c r="G8" s="19">
-        <v>3.565456290364303</v>
+        <v>5.3143697128355134</v>
       </c>
       <c r="H8" s="19">
-        <v>1.8112774590361851E-2</v>
+        <v>1.21786872543817E-2</v>
       </c>
       <c r="I8" s="19">
         <v>0</v>
@@ -9728,28 +9728,28 @@
         <v>19</v>
       </c>
       <c r="B9" s="19">
-        <v>45.231183548472423</v>
+        <v>38.710730927937078</v>
       </c>
       <c r="C9" s="19">
-        <v>-1.152134832021783</v>
+        <v>-1.357087178773803</v>
       </c>
       <c r="D9" s="19">
-        <v>39.200556688857958</v>
+        <v>51.36078423201792</v>
       </c>
       <c r="E9" s="19">
-        <v>-5.7378782872092788</v>
+        <v>-1.2893227053190961</v>
       </c>
       <c r="F9" s="19">
-        <v>98.316454036537067</v>
+        <v>97.653331709083304</v>
       </c>
       <c r="G9" s="19">
-        <v>1.4240344175242929</v>
+        <v>2.169185897885896</v>
       </c>
       <c r="H9" s="19">
-        <v>0.25262844100093379</v>
+        <v>0.17748239302956681</v>
       </c>
       <c r="I9" s="19">
-        <v>5.7459839231015927E-2</v>
+        <v>1.436468564140941E-2</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -9761,25 +9761,25 @@
         <v>20</v>
       </c>
       <c r="B10" s="19">
-        <v>33.970347816779302</v>
+        <v>23.531856358199629</v>
       </c>
       <c r="C10" s="19">
-        <v>3.1689277278102361</v>
+        <v>-1.607258499816103</v>
       </c>
       <c r="D10" s="19">
-        <v>50.766461605262407</v>
+        <v>48.078363438965297</v>
       </c>
       <c r="E10" s="19">
-        <v>-3.4486345447847349</v>
+        <v>-2.719666497928841</v>
       </c>
       <c r="F10" s="19">
-        <v>97.440489408485689</v>
+        <v>98.43427732456486</v>
       </c>
       <c r="G10" s="19">
-        <v>2.524720788975122</v>
+        <v>1.5657226754342599</v>
       </c>
       <c r="H10" s="19">
-        <v>3.4789802538306012E-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="19">
         <v>0</v>
@@ -9794,22 +9794,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="19">
-        <v>8.7359318363564498</v>
+        <v>14.8864072978743</v>
       </c>
       <c r="C11" s="19">
-        <v>0.77470000000000006</v>
+        <v>-0.10349999999999999</v>
       </c>
       <c r="D11" s="19">
-        <v>15.4280386570506</v>
+        <v>41.500133784266602</v>
       </c>
       <c r="E11" s="19">
-        <v>-6.8804000000000007</v>
+        <v>3.54</v>
       </c>
       <c r="F11" s="19">
-        <v>99.095394736841996</v>
+        <v>98.015390846496004</v>
       </c>
       <c r="G11" s="19">
-        <v>0.90460526315699996</v>
+        <v>1.9846091535029999</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -9827,28 +9827,28 @@
         <v>22</v>
       </c>
       <c r="B12" s="19">
-        <v>25.05977713642465</v>
+        <v>26.578116224897951</v>
       </c>
       <c r="C12" s="19">
-        <v>0.957972488645364</v>
+        <v>2.129853814332479</v>
       </c>
       <c r="D12" s="19">
-        <v>36.547430988114407</v>
+        <v>43.003879272378313</v>
       </c>
       <c r="E12" s="19">
-        <v>-3.6733745649995511</v>
+        <v>1.340006216449507</v>
       </c>
       <c r="F12" s="19">
-        <v>98.794684849799182</v>
+        <v>98.568840042891935</v>
       </c>
       <c r="G12" s="19">
-        <v>1.0955343419739749</v>
+        <v>1.3114338595293451</v>
       </c>
       <c r="H12" s="19">
-        <v>0.1084747101260226</v>
+        <v>0.1184272437072028</v>
       </c>
       <c r="I12" s="19">
-        <v>2.899111778637148E-3</v>
+        <v>2.8927736420192112E-3</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9860,28 +9860,28 @@
         <v>23</v>
       </c>
       <c r="B13" s="19">
-        <v>32.831722893596783</v>
+        <v>29.91729947480766</v>
       </c>
       <c r="C13" s="19">
-        <v>1.0568483149601471</v>
+        <v>-0.66092094498358311</v>
       </c>
       <c r="D13" s="19">
-        <v>46.15486574051306</v>
+        <v>55.150344985107111</v>
       </c>
       <c r="E13" s="19">
-        <v>-1.1968989269497909</v>
+        <v>1.8158586905327969</v>
       </c>
       <c r="F13" s="19">
-        <v>98.083545812668206</v>
+        <v>97.435597801613042</v>
       </c>
       <c r="G13" s="19">
-        <v>1.8534600244708801</v>
+        <v>2.52162127775803</v>
       </c>
       <c r="H13" s="19">
-        <v>5.6150136785021218E-2</v>
+        <v>3.9376292812131647E-2</v>
       </c>
       <c r="I13" s="19">
-        <v>1.061062534928245E-2</v>
+        <v>3.404627816017317E-3</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -9893,28 +9893,28 @@
         <v>24</v>
       </c>
       <c r="B14" s="19">
-        <v>42.477953717223471</v>
+        <v>37.387014278856689</v>
       </c>
       <c r="C14" s="19">
-        <v>4.7322557157222223</v>
+        <v>-2.4586115879639099</v>
       </c>
       <c r="D14" s="19">
-        <v>90.930767615900393</v>
+        <v>52.256376987118401</v>
       </c>
       <c r="E14" s="19">
-        <v>14.02136943243646</v>
+        <v>2.7861252779629591</v>
       </c>
       <c r="F14" s="19">
-        <v>96.449704142011839</v>
+        <v>96.071283920615642</v>
       </c>
       <c r="G14" s="19">
-        <v>3.3258518669659249</v>
+        <v>3.9084649655731072</v>
       </c>
       <c r="H14" s="19">
-        <v>0.1224239951030402</v>
+        <v>2.025111381125962E-2</v>
       </c>
       <c r="I14" s="19">
-        <v>0.1020199959192002</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -9926,22 +9926,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="19">
-        <v>14.78523192057707</v>
+        <v>8.5520049175797102</v>
       </c>
       <c r="C15" s="19">
-        <v>-1.0336603593182341</v>
+        <v>-0.83768542504737464</v>
       </c>
       <c r="D15" s="19">
-        <v>55.462268134362667</v>
+        <v>59.568223714473852</v>
       </c>
       <c r="E15" s="19">
-        <v>-2.981747538811196</v>
+        <v>1.1302178208299321</v>
       </c>
       <c r="F15" s="19">
-        <v>99.445132046477454</v>
+        <v>99.426392653674696</v>
       </c>
       <c r="G15" s="19">
-        <v>0.55486795352255502</v>
+        <v>0.57360734632529897</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -9959,28 +9959,28 @@
         <v>26</v>
       </c>
       <c r="B16" s="19">
-        <v>31.70877441360139</v>
+        <v>26.806235731305449</v>
       </c>
       <c r="C16" s="19">
-        <v>1.8202707823571369</v>
+        <v>0.71017649089478396</v>
       </c>
       <c r="D16" s="19">
-        <v>40.169624041893186</v>
+        <v>49.204736909851619</v>
       </c>
       <c r="E16" s="19">
-        <v>-2.1628302287622412</v>
+        <v>-1.546040241809723</v>
       </c>
       <c r="F16" s="19">
-        <v>98.972014829579578</v>
+        <v>98.177888154660906</v>
       </c>
       <c r="G16" s="19">
-        <v>1.005981549947246</v>
+        <v>1.816280973205223</v>
       </c>
       <c r="H16" s="19">
-        <v>1.6521273735543341E-2</v>
+        <v>3.002681688833519E-3</v>
       </c>
       <c r="I16" s="19">
-        <v>5.4823467359107342E-3</v>
+        <v>2.828190444162674E-3</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9992,25 +9992,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>29.073701354495238</v>
+        <v>22.562131809264471</v>
       </c>
       <c r="C17" s="19">
-        <v>0.47951103196752998</v>
+        <v>-0.48774447990606662</v>
       </c>
       <c r="D17" s="19">
-        <v>44.261380569116703</v>
+        <v>44.529690155609373</v>
       </c>
       <c r="E17" s="19">
-        <v>-1.401972800392151</v>
+        <v>-0.62830725228447304</v>
       </c>
       <c r="F17" s="19">
-        <v>98.869485136568642</v>
+        <v>99.076411161341781</v>
       </c>
       <c r="G17" s="19">
-        <v>1.087617472084641</v>
+        <v>0.89449871062442232</v>
       </c>
       <c r="H17" s="19">
-        <v>4.2897391345977823E-2</v>
+        <v>2.9090128033073169E-2</v>
       </c>
       <c r="I17" s="19">
         <v>0</v>
@@ -10025,25 +10025,25 @@
         <v>28</v>
       </c>
       <c r="B18" s="19">
-        <v>15.763752220470639</v>
+        <v>11.506855004645651</v>
       </c>
       <c r="C18" s="19">
-        <v>-0.55810925058180638</v>
+        <v>2.3749238386006888</v>
       </c>
       <c r="D18" s="19">
-        <v>46.22940344571434</v>
+        <v>50.778918766767212</v>
       </c>
       <c r="E18" s="19">
-        <v>-11.51032355757418</v>
+        <v>3.5770022001545452</v>
       </c>
       <c r="F18" s="19">
-        <v>99.873400700719614</v>
+        <v>99.887246412346599</v>
       </c>
       <c r="G18" s="19">
-        <v>0.12659929928038821</v>
+        <v>9.8659389196721334E-2</v>
       </c>
       <c r="H18" s="19">
-        <v>0</v>
+        <v>1.409419845667448E-2</v>
       </c>
       <c r="I18" s="19">
         <v>0</v>
@@ -10058,25 +10058,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="19">
-        <v>28.977925280314711</v>
+        <v>23.700571438449341</v>
       </c>
       <c r="C19" s="19">
-        <v>6.4366135002299831</v>
+        <v>-1.3613697041966859</v>
       </c>
       <c r="D19" s="19">
-        <v>41.061765975925042</v>
+        <v>50.421168260811967</v>
       </c>
       <c r="E19" s="19">
-        <v>0.71245768086103245</v>
+        <v>2.1467196703341132</v>
       </c>
       <c r="F19" s="19">
-        <v>99.397311692576864</v>
+        <v>99.324273219337556</v>
       </c>
       <c r="G19" s="19">
-        <v>0.56284449516718005</v>
+        <v>0.55056124636361492</v>
       </c>
       <c r="H19" s="19">
-        <v>3.9843812255956651E-2</v>
+        <v>0.1295983074080696</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -10091,28 +10091,28 @@
         <v>30</v>
       </c>
       <c r="B20" s="19">
-        <v>31.027830151745071</v>
+        <v>28.281622950216711</v>
       </c>
       <c r="C20" s="19">
-        <v>2.1299640057325671</v>
+        <v>-1.7599491877081579</v>
       </c>
       <c r="D20" s="19">
-        <v>41.665489603218077</v>
+        <v>46.045137536936728</v>
       </c>
       <c r="E20" s="19">
-        <v>-6.3919248824228383</v>
+        <v>0.23750335189924801</v>
       </c>
       <c r="F20" s="19">
-        <v>98.296735324149779</v>
+        <v>98.543116655058171</v>
       </c>
       <c r="G20" s="19">
-        <v>1.5572652028281171</v>
+        <v>1.34182567441704</v>
       </c>
       <c r="H20" s="19">
-        <v>0.1353521971807688</v>
+        <v>0.11505767052468981</v>
       </c>
       <c r="I20" s="19">
-        <v>1.0647275841251519E-2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10124,28 +10124,28 @@
         <v>31</v>
       </c>
       <c r="B21" s="19">
-        <v>34.646524231682022</v>
+        <v>36.111308571056327</v>
       </c>
       <c r="C21" s="19">
-        <v>1.539893955310536</v>
+        <v>1.9483513822393701</v>
       </c>
       <c r="D21" s="19">
-        <v>39.398523336580418</v>
+        <v>46.314003649958003</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.39002333322920069</v>
+        <v>4.4817905988656568</v>
       </c>
       <c r="F21" s="19">
-        <v>98.442146264235788</v>
+        <v>98.309782894047473</v>
       </c>
       <c r="G21" s="19">
-        <v>1.1640022147743261</v>
+        <v>1.384579844957265</v>
       </c>
       <c r="H21" s="19">
-        <v>0.37331668477611851</v>
+        <v>0.27544388423710631</v>
       </c>
       <c r="I21" s="19">
-        <v>3.1324816945607077E-2</v>
+        <v>5.1683263919145649E-2</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10157,25 +10157,25 @@
         <v>32</v>
       </c>
       <c r="B22" s="19">
-        <v>40.12615846458889</v>
+        <v>35.559652842385759</v>
       </c>
       <c r="C22" s="19">
-        <v>2.539968685612755</v>
+        <v>-0.19300576185572771</v>
       </c>
       <c r="D22" s="19">
-        <v>55.893335231808742</v>
+        <v>62.957138458686693</v>
       </c>
       <c r="E22" s="19">
-        <v>-8.0903786267510185</v>
+        <v>1.960532658674822</v>
       </c>
       <c r="F22" s="19">
-        <v>99.684104373873822</v>
+        <v>99.758742308764951</v>
       </c>
       <c r="G22" s="19">
-        <v>0.27873143481721457</v>
+        <v>0.2412576912350472</v>
       </c>
       <c r="H22" s="19">
-        <v>3.7164191308961939E-2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="19">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>33</v>
       </c>
       <c r="B23" s="19">
-        <v>31.21353626792024</v>
+        <v>26.145567733313989</v>
       </c>
       <c r="C23" s="19">
-        <v>-0.46291208445116733</v>
+        <v>-1.546210856693008</v>
       </c>
       <c r="D23" s="19">
-        <v>39.316241954969151</v>
+        <v>45.441673460110692</v>
       </c>
       <c r="E23" s="19">
-        <v>-5.370194259182032</v>
+        <v>-0.26954547064463952</v>
       </c>
       <c r="F23" s="19">
-        <v>98.455541708174195</v>
+        <v>98.279719050764228</v>
       </c>
       <c r="G23" s="19">
-        <v>1.5060978818265309</v>
+        <v>1.70758370021652</v>
       </c>
       <c r="H23" s="19">
-        <v>3.8360409998277029E-2</v>
+        <v>1.2697249018252491E-2</v>
       </c>
       <c r="I23" s="19">
-        <v>1.28772708271981E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10223,28 +10223,28 @@
         <v>34</v>
       </c>
       <c r="B24" s="19">
-        <v>39.123480015136153</v>
+        <v>33.872432803609797</v>
       </c>
       <c r="C24" s="19">
-        <v>-1.134165318132262</v>
+        <v>-1.389412069536579</v>
       </c>
       <c r="D24" s="19">
-        <v>29.59485504147359</v>
+        <v>43.708667047504917</v>
       </c>
       <c r="E24" s="19">
-        <v>-5.4020626694989957</v>
+        <v>0.72300763745211738</v>
       </c>
       <c r="F24" s="19">
-        <v>99.443517685182201</v>
+        <v>98.716716125957845</v>
       </c>
       <c r="G24" s="19">
-        <v>0.5308655494807486</v>
+        <v>1.219217483137345</v>
       </c>
       <c r="H24" s="19">
-        <v>2.561676533615306E-2</v>
+        <v>6.4066390903920176E-2</v>
       </c>
       <c r="I24" s="19">
-        <v>3.8145733906897209E-3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -10256,28 +10256,28 @@
         <v>35</v>
       </c>
       <c r="B25" s="19">
-        <v>40.774730367173447</v>
+        <v>32.841656798120631</v>
       </c>
       <c r="C25" s="19">
-        <v>2.2983795289673239</v>
+        <v>3.0222261568152609E-2</v>
       </c>
       <c r="D25" s="19">
-        <v>43.111099022402172</v>
+        <v>53.016296273501403</v>
       </c>
       <c r="E25" s="19">
-        <v>-3.065449422654031</v>
+        <v>1.290744977882307</v>
       </c>
       <c r="F25" s="19">
-        <v>98.85717881431998</v>
+        <v>98.490490832844841</v>
       </c>
       <c r="G25" s="19">
-        <v>1.040835108371702</v>
+        <v>1.459360938299666</v>
       </c>
       <c r="H25" s="19">
-        <v>9.1566233801152044E-2</v>
+        <v>4.3205784982275078E-2</v>
       </c>
       <c r="I25" s="19">
-        <v>1.0419843506468849E-2</v>
+        <v>6.9424438725139044E-3</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10289,28 +10289,28 @@
         <v>36</v>
       </c>
       <c r="B26" s="19">
-        <v>37.446068108736647</v>
+        <v>33.392357269984267</v>
       </c>
       <c r="C26" s="19">
-        <v>-0.46257868438890148</v>
+        <v>-0.1129262790553936</v>
       </c>
       <c r="D26" s="19">
-        <v>40.679797559230821</v>
+        <v>54.099512573082833</v>
       </c>
       <c r="E26" s="19">
-        <v>-6.0419806651420309</v>
+        <v>-0.40019436163288502</v>
       </c>
       <c r="F26" s="19">
-        <v>99.082365605887432</v>
+        <v>98.184314898191289</v>
       </c>
       <c r="G26" s="19">
-        <v>0.84247297619553319</v>
+        <v>1.6668732581153429</v>
       </c>
       <c r="H26" s="19">
-        <v>7.0223062699049599E-2</v>
+        <v>0.14881184369201311</v>
       </c>
       <c r="I26" s="19">
-        <v>4.9383552173017393E-3</v>
+        <v>0</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -10322,28 +10322,28 @@
         <v>37</v>
       </c>
       <c r="B27" s="19">
-        <v>28.615655101402151</v>
+        <v>26.769450314192419</v>
       </c>
       <c r="C27" s="19">
-        <v>-1.5337153023436541</v>
+        <v>0.43310056641355937</v>
       </c>
       <c r="D27" s="19">
-        <v>30.204695669140332</v>
+        <v>34.242695771532318</v>
       </c>
       <c r="E27" s="19">
-        <v>-3.289660002071392</v>
+        <v>0.3976219326786643</v>
       </c>
       <c r="F27" s="19">
-        <v>98.562739173561212</v>
+        <v>98.668246007807753</v>
       </c>
       <c r="G27" s="19">
-        <v>1.2060819932845741</v>
+        <v>1.1405623259278239</v>
       </c>
       <c r="H27" s="19">
-        <v>0.21125980132585609</v>
+        <v>0.1911916662639469</v>
       </c>
       <c r="I27" s="19">
-        <v>3.8641905158992629E-2</v>
+        <v>1.874229168443101E-2</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -10355,28 +10355,28 @@
         <v>38</v>
       </c>
       <c r="B28" s="19">
-        <v>28.968661374465469</v>
+        <v>22.608394089938042</v>
       </c>
       <c r="C28" s="19">
-        <v>4.8319414090391311</v>
+        <v>-0.73288651227190305</v>
       </c>
       <c r="D28" s="19">
-        <v>44.10453414029999</v>
+        <v>47.740743457058159</v>
       </c>
       <c r="E28" s="19">
-        <v>-3.8558957954011048</v>
+        <v>0.1834664502494254</v>
       </c>
       <c r="F28" s="19">
-        <v>98.634571772420088</v>
+        <v>98.523020929673862</v>
       </c>
       <c r="G28" s="19">
-        <v>1.168971394125772</v>
+        <v>1.371598075065467</v>
       </c>
       <c r="H28" s="19">
-        <v>0.16540335669582421</v>
+        <v>0.1053809952605992</v>
       </c>
       <c r="I28" s="19">
-        <v>3.1053476758249019E-2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10388,28 +10388,28 @@
         <v>39</v>
       </c>
       <c r="B29" s="19">
-        <v>29.023736946712759</v>
+        <v>29.573199617845749</v>
       </c>
       <c r="C29" s="19">
-        <v>2.3226219667691561</v>
+        <v>-1.037038851705363</v>
       </c>
       <c r="D29" s="19">
-        <v>42.368854342156247</v>
+        <v>52.541975639354298</v>
       </c>
       <c r="E29" s="19">
-        <v>-9.9084545931627517</v>
+        <v>2.6589042440110289</v>
       </c>
       <c r="F29" s="19">
-        <v>97.659176029962552</v>
+        <v>98.324022346368707</v>
       </c>
       <c r="G29" s="19">
-        <v>2.0131086142322099</v>
+        <v>1.443202979515829</v>
       </c>
       <c r="H29" s="19">
-        <v>0.32771535580524352</v>
+        <v>0.18621973929236499</v>
       </c>
       <c r="I29" s="19">
-        <v>0</v>
+        <v>4.6554934823091247E-2</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -10421,25 +10421,25 @@
         <v>40</v>
       </c>
       <c r="B30" s="19">
-        <v>28.81356604453801</v>
+        <v>25.553434718318709</v>
       </c>
       <c r="C30" s="19">
-        <v>4.7607803450549566</v>
+        <v>1.1260704531777701</v>
       </c>
       <c r="D30" s="19">
-        <v>42.852609647421353</v>
+        <v>50.351271289186272</v>
       </c>
       <c r="E30" s="19">
-        <v>5.4228164359154807</v>
+        <v>7.1232278803292166</v>
       </c>
       <c r="F30" s="19">
-        <v>99.659576246101821</v>
+        <v>99.508652640681248</v>
       </c>
       <c r="G30" s="19">
-        <v>0.34042375389817392</v>
+        <v>0.47074672439432341</v>
       </c>
       <c r="H30" s="19">
-        <v>0</v>
+        <v>2.0600634924434421E-2</v>
       </c>
       <c r="I30" s="19">
         <v>0</v>
@@ -10454,28 +10454,28 @@
         <v>41</v>
       </c>
       <c r="B31" s="19">
-        <v>33.924220924043802</v>
+        <v>27.571420734454499</v>
       </c>
       <c r="C31" s="19">
-        <v>2.1453073279928061</v>
+        <v>-1.540142401080796</v>
       </c>
       <c r="D31" s="19">
-        <v>50.826966412367561</v>
+        <v>61.152908032403403</v>
       </c>
       <c r="E31" s="19">
-        <v>-0.96624402480350047</v>
+        <v>1.380201908599175</v>
       </c>
       <c r="F31" s="19">
-        <v>95.793004013721927</v>
+        <v>96.286480784745805</v>
       </c>
       <c r="G31" s="19">
-        <v>3.2364044510895278</v>
+        <v>3.3337126602141489</v>
       </c>
       <c r="H31" s="19">
-        <v>0.43207389004354929</v>
+        <v>0.35951398117856342</v>
       </c>
       <c r="I31" s="19">
-        <v>0.53851764514501443</v>
+        <v>1.335933835157079E-2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10487,28 +10487,28 @@
         <v>42</v>
       </c>
       <c r="B32" s="19">
-        <v>45.048290377831187</v>
+        <v>37.289813181147693</v>
       </c>
       <c r="C32" s="19">
-        <v>-1.1611204530264361</v>
+        <v>-0.60027151943171941</v>
       </c>
       <c r="D32" s="19">
-        <v>40.366022159298403</v>
+        <v>47.315511616499712</v>
       </c>
       <c r="E32" s="19">
-        <v>-9.3458766380143281</v>
+        <v>-0.79600879776467437</v>
       </c>
       <c r="F32" s="19">
-        <v>99.510815563509539</v>
+        <v>99.304075151941959</v>
       </c>
       <c r="G32" s="19">
-        <v>0.36819373980436187</v>
+        <v>0.67865690552238056</v>
       </c>
       <c r="H32" s="19">
-        <v>0.12099069668515119</v>
+        <v>1.7267942534705899E-2</v>
       </c>
       <c r="I32" s="19">
-        <v>3.4568770480654418E-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -10520,25 +10520,25 @@
         <v>43</v>
       </c>
       <c r="B33" s="19">
-        <v>29.5491528895211</v>
+        <v>22.964392619618121</v>
       </c>
       <c r="C33" s="19">
-        <v>-1.297755204339089</v>
+        <v>-1.86080803334069</v>
       </c>
       <c r="D33" s="19">
-        <v>34.524027357375573</v>
+        <v>49.978428892544677</v>
       </c>
       <c r="E33" s="19">
-        <v>-6.4752568220668421</v>
+        <v>-0.60273789915653231</v>
       </c>
       <c r="F33" s="19">
-        <v>98.013569502730093</v>
+        <v>97.92152607295526</v>
       </c>
       <c r="G33" s="19">
-        <v>1.596102719316735</v>
+        <v>1.863108612699218</v>
       </c>
       <c r="H33" s="19">
-        <v>0.39032777795298701</v>
+        <v>0.21536531434534789</v>
       </c>
       <c r="I33" s="19">
         <v>0</v>
@@ -10553,28 +10553,28 @@
         <v>44</v>
       </c>
       <c r="B34" s="19">
-        <v>43.832998255675093</v>
+        <v>39.978089875707731</v>
       </c>
       <c r="C34" s="19">
-        <v>0.36218824130786048</v>
+        <v>-0.2340400308298049</v>
       </c>
       <c r="D34" s="19">
-        <v>45.159225163024622</v>
+        <v>57.040369699276063</v>
       </c>
       <c r="E34" s="19">
-        <v>-3.619611659278112</v>
+        <v>0.67402019695778537</v>
       </c>
       <c r="F34" s="19">
-        <v>97.142791070309386</v>
+        <v>96.266376529706918</v>
       </c>
       <c r="G34" s="19">
-        <v>1.864485536869904</v>
+        <v>2.9559921266220579</v>
       </c>
       <c r="H34" s="19">
-        <v>0.88174377414831562</v>
+        <v>0.77763134367055431</v>
       </c>
       <c r="I34" s="19">
-        <v>0.16854390190309201</v>
+        <v>9.9245805529766085E-2</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -10586,28 +10586,28 @@
         <v>45</v>
       </c>
       <c r="B35" s="19">
-        <v>34.11438923813764</v>
+        <v>31.35709700920221</v>
       </c>
       <c r="C35" s="19">
-        <v>0.44230558358861299</v>
+        <v>-1.1198959016316641</v>
       </c>
       <c r="D35" s="19">
-        <v>40.823100445303261</v>
+        <v>55.836824376968003</v>
       </c>
       <c r="E35" s="19">
-        <v>-2.6694839657874478</v>
+        <v>5.0058894435956978</v>
       </c>
       <c r="F35" s="19">
-        <v>98.00958805708882</v>
+        <v>97.423110946025531</v>
       </c>
       <c r="G35" s="19">
-        <v>1.7467133303534339</v>
+        <v>2.375703229488825</v>
       </c>
       <c r="H35" s="19">
-        <v>0.2316226467268015</v>
+        <v>0.19946401414693771</v>
       </c>
       <c r="I35" s="19">
-        <v>1.207596583093949E-2</v>
+        <v>1.7218103386872029E-3</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10619,28 +10619,28 @@
         <v>46</v>
       </c>
       <c r="B36" s="19">
-        <v>43.915706143261502</v>
+        <v>40.330114093464452</v>
       </c>
       <c r="C36" s="19">
-        <v>4.2574023097400522</v>
+        <v>-0.42647800530671492</v>
       </c>
       <c r="D36" s="19">
-        <v>45.562648885256607</v>
+        <v>53.533329014943433</v>
       </c>
       <c r="E36" s="19">
-        <v>-6.2640828012953689</v>
+        <v>1.146436711629133</v>
       </c>
       <c r="F36" s="19">
-        <v>96.517004045963631</v>
+        <v>98.30545266254974</v>
       </c>
       <c r="G36" s="19">
-        <v>3.365683754330226</v>
+        <v>1.6264027996005239</v>
       </c>
       <c r="H36" s="19">
-        <v>0.1118407152321395</v>
+        <v>6.5421880287418022E-2</v>
       </c>
       <c r="I36" s="19">
-        <v>5.4714844740066243E-3</v>
+        <v>2.7226575623158218E-3</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -10652,25 +10652,25 @@
         <v>47</v>
       </c>
       <c r="B37" s="19">
-        <v>15.615768133242</v>
+        <v>16.204348600220278</v>
       </c>
       <c r="C37" s="19">
-        <v>0.56190243141513962</v>
+        <v>2.1861839423568981</v>
       </c>
       <c r="D37" s="19">
-        <v>13.80234316978254</v>
+        <v>14.94801640346027</v>
       </c>
       <c r="E37" s="19">
-        <v>-1.667762078557955</v>
+        <v>1.534329588156097</v>
       </c>
       <c r="F37" s="19">
-        <v>99.772541303412481</v>
+        <v>99.886426314782668</v>
       </c>
       <c r="G37" s="19">
-        <v>0.19902635951407649</v>
+        <v>0.1135736852173212</v>
       </c>
       <c r="H37" s="19">
-        <v>2.84323370734395E-2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="19">
         <v>0</v>
@@ -10685,28 +10685,28 @@
         <v>48</v>
       </c>
       <c r="B38" s="19">
-        <v>39.740964614859273</v>
+        <v>34.918208600252463</v>
       </c>
       <c r="C38" s="19">
-        <v>2.1041578073816418</v>
+        <v>-0.54459251825560151</v>
       </c>
       <c r="D38" s="19">
-        <v>45.720729524294313</v>
+        <v>50.866181611269347</v>
       </c>
       <c r="E38" s="19">
-        <v>-4.7687319142360174</v>
+        <v>0.59120726068841889</v>
       </c>
       <c r="F38" s="19">
-        <v>97.969782062535813</v>
+        <v>99.025517092943716</v>
       </c>
       <c r="G38" s="19">
-        <v>1.7709676859176731</v>
+        <v>0.94012582590501304</v>
       </c>
       <c r="H38" s="19">
-        <v>0.23325641360470231</v>
+        <v>3.4357081151029742E-2</v>
       </c>
       <c r="I38" s="19">
-        <v>0.10122133378349089</v>
+        <v>0</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -10718,25 +10718,25 @@
         <v>49</v>
       </c>
       <c r="B39" s="19">
-        <v>23.68302496580181</v>
+        <v>19.860323144079519</v>
       </c>
       <c r="C39" s="19">
-        <v>1.3154264697790219</v>
+        <v>-0.60140894180381821</v>
       </c>
       <c r="D39" s="19">
-        <v>34.91896598742165</v>
+        <v>35.858499559264082</v>
       </c>
       <c r="E39" s="19">
-        <v>1.462498230362161</v>
+        <v>1.0374229289717269</v>
       </c>
       <c r="F39" s="19">
-        <v>99.382916627707658</v>
+        <v>99.439112798153786</v>
       </c>
       <c r="G39" s="19">
-        <v>0.5039476390836839</v>
+        <v>0.49118299718281511</v>
       </c>
       <c r="H39" s="19">
-        <v>0.1131357332086645</v>
+        <v>6.9704204663386476E-2</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
@@ -10751,28 +10751,28 @@
         <v>50</v>
       </c>
       <c r="B40" s="19">
-        <v>36.956660130613749</v>
+        <v>33.465791514762152</v>
       </c>
       <c r="C40" s="19">
-        <v>8.536358014835263E-2</v>
+        <v>-0.24207474834066051</v>
       </c>
       <c r="D40" s="19">
-        <v>38.463142169998257</v>
+        <v>41.62923664829006</v>
       </c>
       <c r="E40" s="19">
-        <v>-5.9956605737137174</v>
+        <v>-1.360202580730236</v>
       </c>
       <c r="F40" s="19">
-        <v>99.020566437920166</v>
+        <v>98.095236366224341</v>
       </c>
       <c r="G40" s="19">
-        <v>0.83443912668069953</v>
+        <v>1.63167606151797</v>
       </c>
       <c r="H40" s="19">
-        <v>0.14218759053333341</v>
+        <v>0.27028704021497219</v>
       </c>
       <c r="I40" s="19">
-        <v>2.3230124277457711E-2</v>
+        <v>2.3160991743347351E-2</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -10784,28 +10784,28 @@
         <v>51</v>
       </c>
       <c r="B41" s="19">
-        <v>34.795255706223799</v>
+        <v>26.540935732610471</v>
       </c>
       <c r="C41" s="19">
-        <v>0.16016634924392689</v>
+        <v>-3.3456179142019189</v>
       </c>
       <c r="D41" s="19">
-        <v>45.928012615944482</v>
+        <v>49.033018841473172</v>
       </c>
       <c r="E41" s="19">
-        <v>-3.5420881547600618</v>
+        <v>0.33158551258665292</v>
       </c>
       <c r="F41" s="19">
-        <v>98.425319627165322</v>
+        <v>99.020750544002567</v>
       </c>
       <c r="G41" s="19">
-        <v>1.491169161838291</v>
+        <v>0.96598035826630468</v>
       </c>
       <c r="H41" s="19">
-        <v>8.35112109958559E-2</v>
+        <v>1.3269097730058009E-2</v>
       </c>
       <c r="I41" s="19">
-        <v>5.6544219697310704E-3</v>
+        <v>5.6867561698712701E-3</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10817,25 +10817,25 @@
         <v>52</v>
       </c>
       <c r="B42" s="19">
-        <v>35.86</v>
+        <v>28.62</v>
       </c>
       <c r="C42" s="19">
-        <v>1.67</v>
+        <v>-4.16</v>
       </c>
       <c r="D42" s="19">
-        <v>44.57</v>
+        <v>57.79</v>
       </c>
       <c r="E42" s="19">
-        <v>-2.54</v>
+        <v>-10.77</v>
       </c>
       <c r="F42" s="19">
-        <v>99.29</v>
+        <v>98.54</v>
       </c>
       <c r="G42" s="19">
-        <v>0.71000000000000008</v>
+        <v>1.41</v>
       </c>
       <c r="H42" s="19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I42" s="19">
         <v>0</v>
@@ -10850,28 +10850,28 @@
         <v>53</v>
       </c>
       <c r="B43" s="19">
-        <v>36.468023532610971</v>
+        <v>34.985215886339439</v>
       </c>
       <c r="C43" s="19">
-        <v>3.3448336042656779</v>
+        <v>-2.0978023238099799E-2</v>
       </c>
       <c r="D43" s="19">
-        <v>41.989155118003858</v>
+        <v>47.989766853522227</v>
       </c>
       <c r="E43" s="19">
-        <v>-4.0925289453411082</v>
+        <v>0.99221379593698145</v>
       </c>
       <c r="F43" s="19">
-        <v>98.630741727905587</v>
+        <v>98.191816916560924</v>
       </c>
       <c r="G43" s="19">
-        <v>1.3158558013067541</v>
+        <v>1.790462204408434</v>
       </c>
       <c r="H43" s="19">
-        <v>3.5601647191387621E-2</v>
+        <v>1.7720879030057361E-2</v>
       </c>
       <c r="I43" s="19">
-        <v>1.7800823595693811E-2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10883,22 +10883,22 @@
         <v>54</v>
       </c>
       <c r="B44" s="19">
-        <v>12.31774685057046</v>
+        <v>13.22908146062918</v>
       </c>
       <c r="C44" s="19">
-        <v>0.71170112964552457</v>
+        <v>1.323904650138926</v>
       </c>
       <c r="D44" s="19">
-        <v>-0.57564634129501413</v>
+        <v>-0.3096130225448861</v>
       </c>
       <c r="E44" s="19">
-        <v>-1.272776830892149</v>
+        <v>4.0284307541971769</v>
       </c>
       <c r="F44" s="19">
-        <v>99.775307237336733</v>
+        <v>100</v>
       </c>
       <c r="G44" s="19">
-        <v>0.22469276266326671</v>
+        <v>0</v>
       </c>
       <c r="H44" s="19">
         <v>0</v>
@@ -10916,28 +10916,28 @@
         <v>55</v>
       </c>
       <c r="B45" s="19">
-        <v>34.510404761900269</v>
+        <v>31.15373960340284</v>
       </c>
       <c r="C45" s="19">
-        <v>-1.0913575356397851</v>
+        <v>-0.46177974858850662</v>
       </c>
       <c r="D45" s="19">
-        <v>38.518959018986969</v>
+        <v>39.660575919409283</v>
       </c>
       <c r="E45" s="19">
-        <v>-1.8208441520775229</v>
+        <v>-1.6448723061686841</v>
       </c>
       <c r="F45" s="19">
-        <v>98.170481088270975</v>
+        <v>98.11079101484529</v>
       </c>
       <c r="G45" s="19">
-        <v>1.604831277077418</v>
+        <v>1.697582159904075</v>
       </c>
       <c r="H45" s="19">
-        <v>0.18784914051776949</v>
+        <v>0.18751788577175499</v>
       </c>
       <c r="I45" s="19">
-        <v>8.1717821574217642E-2</v>
+        <v>3.0167219302284609E-2</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10949,28 +10949,28 @@
         <v>56</v>
       </c>
       <c r="B46" s="19">
-        <v>34.018539893193221</v>
+        <v>39.083356862878581</v>
       </c>
       <c r="C46" s="19">
-        <v>3.6943354473564218</v>
+        <v>3.835401576438966</v>
       </c>
       <c r="D46" s="19">
-        <v>44.368157026135137</v>
+        <v>51.533258039337078</v>
       </c>
       <c r="E46" s="19">
-        <v>1.7731609765666529</v>
+        <v>2.6373177531479528</v>
       </c>
       <c r="F46" s="19">
-        <v>98.278070305690861</v>
+        <v>98.003741643877106</v>
       </c>
       <c r="G46" s="19">
-        <v>1.495686759872038</v>
+        <v>1.8258122745917971</v>
       </c>
       <c r="H46" s="19">
-        <v>0.19530860620970419</v>
+        <v>0.15616717031737021</v>
       </c>
       <c r="I46" s="19">
-        <v>3.2283223159071082E-2</v>
+        <v>1.5595831428141421E-2</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -10982,22 +10982,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="19">
-        <v>28.710094605567701</v>
+        <v>22.7240532170457</v>
       </c>
       <c r="C47" s="19">
-        <v>0.28889999999999999</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="D47" s="19">
-        <v>40.060008140233002</v>
+        <v>46.1610864811787</v>
       </c>
       <c r="E47" s="19">
-        <v>-3.1526999999999998</v>
+        <v>-2.4618000000000002</v>
       </c>
       <c r="F47" s="19">
-        <v>98.251057827926005</v>
+        <v>98.376144080307</v>
       </c>
       <c r="G47" s="19">
-        <v>1.7489421720730001</v>
+        <v>1.6238559196919999</v>
       </c>
       <c r="H47" s="19">
         <v>0</v>
@@ -11015,25 +11015,25 @@
         <v>58</v>
       </c>
       <c r="B48" s="19">
-        <v>47.075938615052593</v>
+        <v>38.577536326203607</v>
       </c>
       <c r="C48" s="19">
-        <v>-0.59371005275039157</v>
+        <v>1.1010845557748059</v>
       </c>
       <c r="D48" s="19">
-        <v>27.10822573781202</v>
+        <v>39.620531563990284</v>
       </c>
       <c r="E48" s="19">
-        <v>-3.1232267906201092</v>
+        <v>-0.22898231038299341</v>
       </c>
       <c r="F48" s="19">
-        <v>99.71763070671102</v>
+        <v>99.780539621521825</v>
       </c>
       <c r="G48" s="19">
-        <v>0.28236929328798238</v>
+        <v>0.17874806650642641</v>
       </c>
       <c r="H48" s="19">
-        <v>0</v>
+        <v>4.0712311970754207E-2</v>
       </c>
       <c r="I48" s="19">
         <v>0</v>
@@ -11048,28 +11048,28 @@
         <v>59</v>
       </c>
       <c r="B49" s="19">
-        <v>31.910385579070219</v>
+        <v>29.112675159573278</v>
       </c>
       <c r="C49" s="19">
-        <v>0.97236606343597654</v>
+        <v>-1.2284603799091891</v>
       </c>
       <c r="D49" s="19">
-        <v>45.123095535151123</v>
+        <v>57.358263515249533</v>
       </c>
       <c r="E49" s="19">
-        <v>-1.921469280532015</v>
+        <v>1.1110326162741051</v>
       </c>
       <c r="F49" s="19">
-        <v>98.623981038832483</v>
+        <v>98.434130149884453</v>
       </c>
       <c r="G49" s="19">
-        <v>1.2289870542011081</v>
+        <v>1.510050203334137</v>
       </c>
       <c r="H49" s="19">
-        <v>0.10762682313678119</v>
+        <v>6.2380076503621713E-2</v>
       </c>
       <c r="I49" s="19">
-        <v>4.1188805871687217E-2</v>
+        <v>0</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -11081,28 +11081,28 @@
         <v>60</v>
       </c>
       <c r="B50" s="19">
-        <v>29.930386074112121</v>
+        <v>26.85890206689686</v>
       </c>
       <c r="C50" s="19">
-        <v>1.901763692953079</v>
+        <v>-0.90238971744749918</v>
       </c>
       <c r="D50" s="19">
-        <v>43.460242887323687</v>
+        <v>55.946330067360968</v>
       </c>
       <c r="E50" s="19">
-        <v>-3.194189369300656</v>
+        <v>2.5432647847687342</v>
       </c>
       <c r="F50" s="19">
-        <v>94.3055953901127</v>
+        <v>97.446963292893685</v>
       </c>
       <c r="G50" s="19">
-        <v>5.1434126023186382</v>
+        <v>2.2812847086953072</v>
       </c>
       <c r="H50" s="19">
-        <v>0.40233198380482998</v>
+        <v>0.27175199841078179</v>
       </c>
       <c r="I50" s="19">
-        <v>0.1537736778296441</v>
+        <v>0</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -11114,28 +11114,28 @@
         <v>61</v>
       </c>
       <c r="B51" s="19">
-        <v>27.36555550655704</v>
+        <v>23.646916941829659</v>
       </c>
       <c r="C51" s="19">
-        <v>-2.7174924950575128</v>
+        <v>-0.43045503300148757</v>
       </c>
       <c r="D51" s="19">
-        <v>40.978726313137628</v>
+        <v>42.06016971961342</v>
       </c>
       <c r="E51" s="19">
-        <v>-0.73521115413709159</v>
+        <v>1.8896843458528589</v>
       </c>
       <c r="F51" s="19">
-        <v>96.279391981469104</v>
+        <v>96.948656886225663</v>
       </c>
       <c r="G51" s="19">
-        <v>2.9527999421311328</v>
+        <v>2.546214691522954</v>
       </c>
       <c r="H51" s="19">
-        <v>0.68022254730161236</v>
+        <v>0.46120421162035091</v>
       </c>
       <c r="I51" s="19">
-        <v>8.7585529097102877E-2</v>
+        <v>4.3924210630509608E-2</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11147,28 +11147,28 @@
         <v>62</v>
       </c>
       <c r="B52" s="19">
-        <v>32.716762728354027</v>
+        <v>29.90566787018162</v>
       </c>
       <c r="C52" s="19">
-        <v>2.9789920809897521</v>
+        <v>-0.64023717948137548</v>
       </c>
       <c r="D52" s="19">
-        <v>51.557224492297472</v>
+        <v>52.818124140427102</v>
       </c>
       <c r="E52" s="19">
-        <v>3.942904599637008</v>
+        <v>-3.2697508859010642</v>
       </c>
       <c r="F52" s="19">
-        <v>98.189202215117291</v>
+        <v>97.873251061738443</v>
       </c>
       <c r="G52" s="19">
-        <v>1.6905000299429449</v>
+        <v>2.0148147836162109</v>
       </c>
       <c r="H52" s="19">
-        <v>0.11396629415345701</v>
+        <v>9.3278462204454238E-2</v>
       </c>
       <c r="I52" s="19">
-        <v>6.3314607863031646E-3</v>
+        <v>1.865569244089085E-2</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11180,28 +11180,28 @@
         <v>63</v>
       </c>
       <c r="B53" s="19">
-        <v>25.888441352308881</v>
+        <v>25.663100088841009</v>
       </c>
       <c r="C53" s="19">
-        <v>1.61381984928719</v>
+        <v>1.3339116518010341</v>
       </c>
       <c r="D53" s="19">
-        <v>33.347847839624848</v>
+        <v>40.717262774192847</v>
       </c>
       <c r="E53" s="19">
-        <v>-9.1745634207812792</v>
+        <v>2.2948188079712</v>
       </c>
       <c r="F53" s="19">
-        <v>98.114754098360663</v>
+        <v>98.278688524590166</v>
       </c>
       <c r="G53" s="19">
-        <v>1.639344262295082</v>
+        <v>1.4754098360655741</v>
       </c>
       <c r="H53" s="19">
-        <v>0.16393442622950821</v>
+        <v>0</v>
       </c>
       <c r="I53" s="19">
-        <v>8.1967213114754092E-2</v>
+        <v>0.24590163934426229</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -11279,10 +11279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E922D9-587A-2248-9CA1-A6E55F67A864}">
-  <dimension ref="A2:D45"/>
+  <dimension ref="A2:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11627,6 +11627,22 @@
       </c>
       <c r="C45" s="10">
         <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="14">
+        <v>44205</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="14">
+        <v>44212</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.34399999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/next_week.xlsx
+++ b/next_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rboehm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C781190C-57BE-3344-BC31-834D3B127B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79AEF27-3E15-5041-8F76-922CB0874B15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG Data" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,6 +439,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -789,160 +792,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.18781232477759249</c:v>
+                  <c:v>-1.094531615467351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63483130139291</c:v>
+                  <c:v>1.2596223979808749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5546148217832121</c:v>
+                  <c:v>-2.807061474896722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.7142336249596718</c:v>
+                  <c:v>-0.60511853025921603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70731634513259367</c:v>
+                  <c:v>-0.81497564662934019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52342217038801708</c:v>
+                  <c:v>-2.739276127973048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1882762170872625</c:v>
+                  <c:v>0.44470521165880822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.357087178773803</c:v>
+                  <c:v>-1.124660114721358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.607258499816103</c:v>
+                  <c:v>-1.496924634529762</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.10349999999999999</c:v>
+                  <c:v>2.7063000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.129853814332479</c:v>
+                  <c:v>-1.4016155594694071</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.66092094498358311</c:v>
+                  <c:v>-2.322840671413712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.4586115879639099</c:v>
+                  <c:v>-3.3030412522003232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.83768542504737464</c:v>
+                  <c:v>-0.70636646149391147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71017649089478396</c:v>
+                  <c:v>-0.21281119161466169</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.48774447990606662</c:v>
+                  <c:v>-0.9126302666517454</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3749238386006888</c:v>
+                  <c:v>0.91444607887941975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3613697041966859</c:v>
+                  <c:v>-0.97604848384248366</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.7599491877081579</c:v>
+                  <c:v>-0.61947219498011341</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9483513822393701</c:v>
+                  <c:v>-0.41893233891972681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.19300576185572771</c:v>
+                  <c:v>9.8457159062092958E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.546210856693008</c:v>
+                  <c:v>-0.95143388589613009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.389412069536579</c:v>
+                  <c:v>-1.0758075075041249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0222261568152609E-2</c:v>
+                  <c:v>-1.041974270278033</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.1129262790553936</c:v>
+                  <c:v>-1.9333851717492161</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.43310056641355937</c:v>
+                  <c:v>-2.167790454767907</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.73288651227190305</c:v>
+                  <c:v>-1.427194050692917</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.037038851705363</c:v>
+                  <c:v>1.006439082505572</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1260704531777701</c:v>
+                  <c:v>3.86983424675697</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.540142401080796</c:v>
+                  <c:v>0.14889273169323339</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.60027151943171941</c:v>
+                  <c:v>-1.918026204870374</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.86080803334069</c:v>
+                  <c:v>-1.358207855109214</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.2340400308298049</c:v>
+                  <c:v>-0.97599052566206435</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.1198959016316641</c:v>
+                  <c:v>-1.9107355569519191</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.42647800530671492</c:v>
+                  <c:v>-1.3443848205541009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.1861839423568981</c:v>
+                  <c:v>-4.1022983035724927</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.54459251825560151</c:v>
+                  <c:v>-0.1354750987409612</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.60140894180381821</c:v>
+                  <c:v>-1.278178606190403</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.24207474834066051</c:v>
+                  <c:v>0.19138502124473611</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.3456179142019189</c:v>
+                  <c:v>-0.94359122684476615</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-4.16</c:v>
+                  <c:v>-0.61995127700000008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.0978023238099799E-2</c:v>
+                  <c:v>-1.2443696318598729</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.323904650138926</c:v>
+                  <c:v>-7.6644616334451294</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.46177974858850662</c:v>
+                  <c:v>0.12809095892114519</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.835401576438966</c:v>
+                  <c:v>-0.1926361352031597</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.10680000000000001</c:v>
+                  <c:v>-1.6800999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1010845557748059</c:v>
+                  <c:v>-2.4143279358014711</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.2284603799091891</c:v>
+                  <c:v>0.33918600071912841</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.90238971744749918</c:v>
+                  <c:v>-0.87232892702101883</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.43045503300148757</c:v>
+                  <c:v>-0.65639848591700589</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.64023717948137548</c:v>
+                  <c:v>-0.14994075613564831</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3339116518010341</c:v>
+                  <c:v>2.2727013666436369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,7 +1024,8 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-8"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1444,160 +1448,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.671078987677592</c:v>
+                  <c:v>0.93196731727838145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.711754830898061</c:v>
+                  <c:v>0.74495683882265085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4086067319982978</c:v>
+                  <c:v>0.29239766081872182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6435621246258361</c:v>
+                  <c:v>1.5860144560070979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2778382354363611</c:v>
+                  <c:v>0.39475878374983359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.885467717415688</c:v>
+                  <c:v>1.131783932455046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.13377089584668461</c:v>
+                  <c:v>0.50518075412528418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2893227053190961</c:v>
+                  <c:v>1.902349040399967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.719666497928841</c:v>
+                  <c:v>-0.34903077445889841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.54</c:v>
+                  <c:v>5.6597999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.340006216449507</c:v>
+                  <c:v>0.19632035642548681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8158586905327969</c:v>
+                  <c:v>-4.5158345523760461</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7861252779629591</c:v>
+                  <c:v>0.30707499300348662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1302178208299321</c:v>
+                  <c:v>6.5171615191341861E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.546040241809723</c:v>
+                  <c:v>3.0171437352830011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.62830725228447304</c:v>
+                  <c:v>0.53209390884037011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5770022001545452</c:v>
+                  <c:v>4.8335063271579157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1467196703341132</c:v>
+                  <c:v>0.89336145995431082</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23750335189924801</c:v>
+                  <c:v>5.048930178068618</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4817905988656568</c:v>
+                  <c:v>0.14058788566954969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.960532658674822</c:v>
+                  <c:v>0.68368248555287026</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.26954547064463952</c:v>
+                  <c:v>1.51012496275974</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72300763745211738</c:v>
+                  <c:v>2.2864912903121901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.290744977882307</c:v>
+                  <c:v>-0.30068950404571521</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.40019436163288502</c:v>
+                  <c:v>-0.62282255061727265</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3976219326786643</c:v>
+                  <c:v>-3.1273435082400711</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1834664502494254</c:v>
+                  <c:v>5.7112251751597327</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6589042440110289</c:v>
+                  <c:v>0.91372143751891066</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.1232278803292166</c:v>
+                  <c:v>10.97653594920757</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.380201908599175</c:v>
+                  <c:v>4.9349696726528434</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.79600879776467437</c:v>
+                  <c:v>0.40305239375099577</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.60273789915653231</c:v>
+                  <c:v>1.607883317417899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.67402019695778537</c:v>
+                  <c:v>2.1627766210731481</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.0058894435956978</c:v>
+                  <c:v>1.559634582201862</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.146436711629133</c:v>
+                  <c:v>2.203673516749276</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.534329588156097</c:v>
+                  <c:v>-5.7770981572035334</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.59120726068841889</c:v>
+                  <c:v>-1.265614417225764</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0374229289717269</c:v>
+                  <c:v>0.62167130609814425</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.360202580730236</c:v>
+                  <c:v>2.7321552197046848</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.33158551258665292</c:v>
+                  <c:v>0.99002234845332293</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-10.77</c:v>
+                  <c:v>2.215915737</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99221379593698145</c:v>
+                  <c:v>0.1248797005836155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.0284307541971769</c:v>
+                  <c:v>-4.1323082537135187</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.6448723061686841</c:v>
+                  <c:v>-1.0802257441586161</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.6373177531479528</c:v>
+                  <c:v>-0.73685713828458343</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.4618000000000002</c:v>
+                  <c:v>0.75619999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.22898231038299341</c:v>
+                  <c:v>-0.44523174624616851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1110326162741051</c:v>
+                  <c:v>1.2519213071141471</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5432647847687342</c:v>
+                  <c:v>1.5047260865180989</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8896843458528589</c:v>
+                  <c:v>1.163986614336024</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.2697508859010642</c:v>
+                  <c:v>7.1895248787211923</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.2948188079712</c:v>
+                  <c:v>1.981515213401863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,6 +1680,7 @@
         <c:axId val="221445583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2103,157 +2108,157 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>2.148306297542943</c:v>
+                  <c:v>2.0369098376453239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1052837167490279</c:v>
+                  <c:v>0.9287960664700875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17343045438779051</c:v>
+                  <c:v>6.8894247330347921E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0687707036761092</c:v>
+                  <c:v>1.4886989011493821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1111480539905001</c:v>
+                  <c:v>0.89217580374044048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7996061454037244</c:v>
+                  <c:v>5.7709193388842968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3143697128355134</c:v>
+                  <c:v>4.6014186048712098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.169185897885896</c:v>
+                  <c:v>2.0909451841563249</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5657226754342599</c:v>
+                  <c:v>1.6007630494463281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9846091535029999</c:v>
+                  <c:v>2.1939953810619999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3114338595293451</c:v>
+                  <c:v>1.1945758954808401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.52162127775803</c:v>
+                  <c:v>1.684172202944197</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.9084649655731072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.57360734632529897</c:v>
+                  <c:v>0.42911500584272683</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.816280973205223</c:v>
+                  <c:v>1.860308664443469</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.89449871062442232</c:v>
+                  <c:v>0.7909602013229533</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.8659389196721334E-2</c:v>
+                  <c:v>9.8563174653794494E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55056124636361492</c:v>
+                  <c:v>0.34449479272906092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.34182567441704</c:v>
+                  <c:v>1.3707730307860511</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.384579844957265</c:v>
+                  <c:v>0.94349910936627734</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.2412576912350472</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.70758370021652</c:v>
+                  <c:v>1.8841453822448939</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.219217483137345</c:v>
+                  <c:v>1.181711119644077</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.459360938299666</c:v>
+                  <c:v>1.1159577612726519</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6668732581153429</c:v>
+                  <c:v>1.3004068108494711</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1405623259278239</c:v>
+                  <c:v>0.86852246609686623</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.371598075065467</c:v>
+                  <c:v>1.324923373294421</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.443202979515829</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.47074672439432341</c:v>
+                  <c:v>9.8473997121596102E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3337126602141489</c:v>
+                  <c:v>1.9021227541819139</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.67865690552238056</c:v>
+                  <c:v>0.38011368071134649</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.863108612699218</c:v>
+                  <c:v>2.0864168489301251</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.9559921266220579</c:v>
+                  <c:v>4.4212905745334634</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.375703229488825</c:v>
+                  <c:v>2.3463029511739921</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6264027996005239</c:v>
+                  <c:v>1.9255996411287331</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1135736852173212</c:v>
+                  <c:v>0.1158489039497675</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.94012582590501304</c:v>
+                  <c:v>1.0405459074782131</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.49118299718281511</c:v>
+                  <c:v>0.28212385548131652</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.63167606151797</c:v>
+                  <c:v>1.826423054697192</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.96598035826630468</c:v>
+                  <c:v>1.2401530987894589</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.41</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.790462204408434</c:v>
+                  <c:v>1.169172555861173</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.697582159904075</c:v>
+                  <c:v>1.49208746754809</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.8258122745917971</c:v>
+                  <c:v>1.461576194615626</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.6238559196919999</c:v>
+                  <c:v>1.5750286368840001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.17874806650642641</c:v>
+                  <c:v>0.45679591959007171</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.510050203334137</c:v>
+                  <c:v>1.115588037326831</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2812847086953072</c:v>
+                  <c:v>2.248444419667162</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.546214691522954</c:v>
+                  <c:v>2.2048617219727689</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0148147836162109</c:v>
+                  <c:v>2.3840744303994539</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.4754098360655741</c:v>
@@ -2762,85 +2767,85 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.11640254379715349</c:v>
+                  <c:v>0.10722872721680241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8182945475990852E-2</c:v>
+                  <c:v>0.1292763326570541</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57208371061534258</c:v>
+                  <c:v>0.29569268720561431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45107396832815799</c:v>
+                  <c:v>0.14564731126427849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13658830398838981</c:v>
+                  <c:v>0.1020246757013662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.21786872543817E-2</c:v>
+                  <c:v>1.838383922164917E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17748239302956681</c:v>
+                  <c:v>0.15122923243663711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.4058788285886987E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1184272437072028</c:v>
+                  <c:v>9.4619128469225211E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9376292812131647E-2</c:v>
+                  <c:v>3.1671802425961827E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.025111381125962E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2.4510620942266709E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1291886575947372E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5568682107307792E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.002681688833519E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.9090128033073169E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.409419845667448E-2</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1295983074080696</c:v>
+                  <c:v>1.9707394460744099E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11505767052468981</c:v>
+                  <c:v>0.11279042652814041</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27544388423710631</c:v>
+                  <c:v>0.16528367803705771</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2697249018252491E-2</c:v>
+                  <c:v>1.8843850333391591E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4066390903920176E-2</c:v>
+                  <c:v>0.12492158875447611</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3205784982275078E-2</c:v>
+                  <c:v>5.1212677340844982E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.14881184369201311</c:v>
+                  <c:v>8.1362137212980426E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1911916662639469</c:v>
+                  <c:v>0.17304774765231401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1053809952605992</c:v>
+                  <c:v>0.1122930987336125</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.18621973929236499</c:v>
@@ -2849,70 +2854,70 @@
                   <c:v>2.0600634924434421E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.35951398117856342</c:v>
+                  <c:v>8.9105546501151975E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7267942534705899E-2</c:v>
+                  <c:v>3.1895041510842097E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21536531434534789</c:v>
+                  <c:v>7.5148504774402769E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.77763134367055431</c:v>
+                  <c:v>0.51031143719846372</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.19946401414693771</c:v>
+                  <c:v>0.18689371679619421</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.5421880287418022E-2</c:v>
+                  <c:v>8.0736964665141131E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4357081151029742E-2</c:v>
+                  <c:v>4.4030967468176342E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9704204663386476E-2</c:v>
+                  <c:v>8.4494349583436448E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.27028704021497219</c:v>
+                  <c:v>0.43571577729674621</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3269097730058009E-2</c:v>
+                  <c:v>1.680307942504352E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7720879030057361E-2</c:v>
+                  <c:v>3.5819691499144393E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.18751788577175499</c:v>
+                  <c:v>0.12607232954354169</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.15616717031737021</c:v>
+                  <c:v>9.383495046063095E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.0712311970754207E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2380076503621713E-2</c:v>
+                  <c:v>1.211504954445701E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.27175199841078179</c:v>
+                  <c:v>0.74667918755643814</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.46120421162035091</c:v>
+                  <c:v>0.37564944381396442</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.3278462204454238E-2</c:v>
+                  <c:v>0.110373816222197</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3422,28 +3427,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.042592157896018E-2</c:v>
+                  <c:v>9.9086274579822976E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9896888787410163E-2</c:v>
+                  <c:v>6.0636614119068281E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.594248685838119E-2</c:v>
+                  <c:v>2.0574498328556061E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6285059181470974E-2</c:v>
+                  <c:v>2.3620904934644079E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.845147818387804E-2</c:v>
+                  <c:v>2.897250693600225E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.436468564140941E-2</c:v>
+                  <c:v>1.4391837761020701E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3452,10 +3457,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8927736420192112E-3</c:v>
+                  <c:v>1.298710336548062E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.404627816017317E-3</c:v>
+                  <c:v>3.3909966735787868E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3464,10 +3469,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.828190444162674E-3</c:v>
+                  <c:v>2.7716452812019681E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.4711216082407969E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3479,25 +3484,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1683263919145649E-2</c:v>
+                  <c:v>2.949635591616288E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6.2812834444638654E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.9424438725139044E-3</c:v>
+                  <c:v>6.9204262762127397E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.874229168443101E-2</c:v>
+                  <c:v>1.9319550381372941E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -3509,7 +3514,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.335933835157079E-2</c:v>
+                  <c:v>4.7998099310580952E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -3518,13 +3523,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.9245805529766085E-2</c:v>
+                  <c:v>5.3034059870034587E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7218103386872029E-3</c:v>
+                  <c:v>1.7286057562483519E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.7226575623158218E-3</c:v>
+                  <c:v>6.4901440451424122E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -3536,10 +3541,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.3160991743347351E-2</c:v>
+                  <c:v>1.6878148173235741E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6867561698712701E-3</c:v>
+                  <c:v>6.7212317694449004E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -3551,10 +3556,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0167219302284609E-2</c:v>
+                  <c:v>2.2937324514587042E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5595831428141421E-2</c:v>
+                  <c:v>1.284567991908276E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3566,13 +3571,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4.6207618034884417E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.3924210630509608E-2</c:v>
+                  <c:v>2.0790416496463428E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.865569244089085E-2</c:v>
+                  <c:v>2.207476324443939E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.24590163934426229</c:v>
@@ -4077,160 +4082,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>31.786931193442129</c:v>
+                  <c:v>28.588796813555629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.404844448455599</c:v>
+                  <c:v>31.64354150979031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.910998552821987</c:v>
+                  <c:v>40.426917510853833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.08547669620857</c:v>
+                  <c:v>27.45759128847131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.69783694056169</c:v>
+                  <c:v>27.316646996610491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.284468854315513</c:v>
+                  <c:v>35.58663192607257</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.881108371785562</c:v>
+                  <c:v>18.560282417076809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.710730927937078</c:v>
+                  <c:v>36.759465824777479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.531856358199629</c:v>
+                  <c:v>21.637962207755439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.8864072978743</c:v>
+                  <c:v>17.804293165992402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.578116224897951</c:v>
+                  <c:v>22.782472955445481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.91729947480766</c:v>
+                  <c:v>26.65133135092816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.387014278856689</c:v>
+                  <c:v>39.376124678333248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5520049175797102</c:v>
+                  <c:v>8.2792606159759856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.806235731305449</c:v>
+                  <c:v>24.954795741498451</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.562131809264471</c:v>
+                  <c:v>21.701020696652339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.506855004645651</c:v>
+                  <c:v>10.27113901159689</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.700571438449341</c:v>
+                  <c:v>21.874532305525509</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.281622950216711</c:v>
+                  <c:v>29.42560269601401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.111308571056327</c:v>
+                  <c:v>30.881339784450979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.559652842385759</c:v>
+                  <c:v>37.144408709105157</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.145567733313989</c:v>
+                  <c:v>24.720177543512239</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.872432803609797</c:v>
+                  <c:v>32.093545771979777</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.841656798120631</c:v>
+                  <c:v>31.615875038927548</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.392357269984267</c:v>
+                  <c:v>29.870191660161598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.769450314192419</c:v>
+                  <c:v>21.978972216999711</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.608394089938042</c:v>
+                  <c:v>21.06224125313782</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.573199617845749</c:v>
+                  <c:v>28.58083405046505</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.553434718318709</c:v>
+                  <c:v>28.319040253822731</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.571420734454499</c:v>
+                  <c:v>27.77757986466132</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.289813181147693</c:v>
+                  <c:v>34.310643512274517</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.964392619618121</c:v>
+                  <c:v>22.270092483036141</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39.978089875707731</c:v>
+                  <c:v>39.535756148561291</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.35709700920221</c:v>
+                  <c:v>29.57637403600155</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.330114093464452</c:v>
+                  <c:v>38.065918904433389</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.204348600220278</c:v>
+                  <c:v>14.76905259639584</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.918208600252463</c:v>
+                  <c:v>36.336447278568897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.860323144079519</c:v>
+                  <c:v>18.682711616595508</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33.465791514762152</c:v>
+                  <c:v>32.027357881255092</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.540935732610471</c:v>
+                  <c:v>22.966425316105521</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>28.62</c:v>
+                  <c:v>27.980048722999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>34.985215886339439</c:v>
+                  <c:v>40.047299447004683</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.22908146062918</c:v>
+                  <c:v>12.393956589985221</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>31.15373960340284</c:v>
+                  <c:v>29.608699688166709</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39.083356862878581</c:v>
+                  <c:v>28.313886828407831</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.7240532170457</c:v>
+                  <c:v>20.550682450474</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38.577536326203607</c:v>
+                  <c:v>35.461517120150802</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29.112675159573278</c:v>
+                  <c:v>24.323713164237979</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26.85890206689686</c:v>
+                  <c:v>26.624623976837029</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>23.646916941829659</c:v>
+                  <c:v>23.00610662339728</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29.90566787018162</c:v>
+                  <c:v>30.16880163714459</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.663100088841009</c:v>
+                  <c:v>24.016716460619509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4731,160 +4736,160 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>51.073008101537738</c:v>
+                  <c:v>50.96648846748645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.879947264873692</c:v>
+                  <c:v>47.747447889005642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.776636713735563</c:v>
+                  <c:v>54.107830551989743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.580676407179453</c:v>
+                  <c:v>63.651743884699847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.894263773975133</c:v>
+                  <c:v>33.658449561293651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.207119404695433</c:v>
+                  <c:v>71.527643958638208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.526718564246693</c:v>
+                  <c:v>43.801814074188073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.36078423201792</c:v>
+                  <c:v>54.011311787717787</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.078363438965297</c:v>
+                  <c:v>47.569890481186441</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.500133784266602</c:v>
+                  <c:v>45.265862255920901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.003879272378313</c:v>
+                  <c:v>40.781558857973543</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.150344985107111</c:v>
+                  <c:v>47.049005836344662</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.256376987118401</c:v>
+                  <c:v>49.770426224127021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.568223714473852</c:v>
+                  <c:v>58.400060067367079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.204736909851619</c:v>
+                  <c:v>48.039368505193977</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.529690155609373</c:v>
+                  <c:v>43.337479747957978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.778918766767212</c:v>
+                  <c:v>53.226342432054807</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.421168260811967</c:v>
+                  <c:v>48.049900334398828</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.045137536936728</c:v>
+                  <c:v>56.125260031845848</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.314003649958003</c:v>
+                  <c:v>41.75802450560996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.957138458686693</c:v>
+                  <c:v>64.334651760323922</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45.441673460110692</c:v>
+                  <c:v>47.365522817644177</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.708667047504917</c:v>
+                  <c:v>46.040618133006021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.016296273501403</c:v>
+                  <c:v>50.295934652784148</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.099512573082833</c:v>
+                  <c:v>47.335253106268112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.242695771532318</c:v>
+                  <c:v>30.18346118649988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.740743457058159</c:v>
+                  <c:v>55.216113071858359</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52.541975639354298</c:v>
+                  <c:v>55.510279680873168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.351271289186272</c:v>
+                  <c:v>53.778297004208113</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>61.152908032403403</c:v>
+                  <c:v>67.492077304268534</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47.315511616499712</c:v>
+                  <c:v>43.431228452013713</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49.978428892544677</c:v>
+                  <c:v>48.157185191223057</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57.040369699276063</c:v>
+                  <c:v>52.617936827221733</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>55.836824376968003</c:v>
+                  <c:v>55.41971648799106</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53.533329014943433</c:v>
+                  <c:v>58.867294781334387</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.94801640346027</c:v>
+                  <c:v>13.518236284338981</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.866181611269347</c:v>
+                  <c:v>55.96423665644749</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35.858499559264082</c:v>
+                  <c:v>36.623068289950098</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.62923664829006</c:v>
+                  <c:v>47.131564452952126</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.033018841473172</c:v>
+                  <c:v>40.871144004940248</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57.79</c:v>
+                  <c:v>60.015915736999993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>47.989766853522227</c:v>
+                  <c:v>54.455152849189773</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.3096130225448861</c:v>
+                  <c:v>-2.1073895351745251</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.660575919409283</c:v>
+                  <c:v>40.158552353758928</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.533258039337078</c:v>
+                  <c:v>45.674953758976251</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.1610864811787</c:v>
+                  <c:v>36.669807928869197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>39.620531563990284</c:v>
+                  <c:v>40.469089837899418</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57.358263515249533</c:v>
+                  <c:v>51.688019988050407</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>55.946330067360968</c:v>
+                  <c:v>42.803990603142957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42.06016971961342</c:v>
+                  <c:v>38.824566742574397</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52.818124140427102</c:v>
+                  <c:v>64.371221940743567</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.717262774192847</c:v>
+                  <c:v>46.092229789921312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9442,20 +9447,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" style="1" customWidth="1"/>
     <col min="10" max="13" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9463,62 +9468,62 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18">
-        <v>31.786931193442129</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.18781232477759249</v>
-      </c>
-      <c r="D2" s="18">
-        <v>51.073008101537738</v>
-      </c>
-      <c r="E2" s="18">
-        <v>1.671078987677592</v>
-      </c>
-      <c r="F2" s="18">
-        <v>97.728169518654028</v>
-      </c>
-      <c r="G2" s="18">
-        <v>2.148306297542943</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0.11640254379715349</v>
-      </c>
-      <c r="I2" s="18">
-        <v>1.042592157896018E-2</v>
+      <c r="B2" s="19">
+        <v>28.588796813555629</v>
+      </c>
+      <c r="C2" s="19">
+        <v>-1.094531615467351</v>
+      </c>
+      <c r="D2" s="19">
+        <v>50.96648846748645</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.93196731727838145</v>
+      </c>
+      <c r="F2" s="19">
+        <v>97.848189612771691</v>
+      </c>
+      <c r="G2" s="19">
+        <v>2.0369098376453239</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0.10722872721680241</v>
+      </c>
+      <c r="I2" s="19">
+        <v>9.9086274579822976E-3</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9529,29 +9534,29 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19">
-        <v>33.404844448455599</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.63483130139291</v>
-      </c>
-      <c r="D3" s="19">
-        <v>49.879947264873692</v>
-      </c>
-      <c r="E3" s="19">
-        <v>2.711754830898061</v>
-      </c>
-      <c r="F3" s="19">
-        <v>98.777364531627086</v>
-      </c>
-      <c r="G3" s="19">
-        <v>1.1052837167490279</v>
-      </c>
-      <c r="H3" s="19">
-        <v>9.8182945475990852E-2</v>
-      </c>
-      <c r="I3" s="19">
-        <v>3.9896888787410163E-2</v>
+      <c r="B3" s="20">
+        <v>31.64354150979031</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1.2596223979808749</v>
+      </c>
+      <c r="D3" s="20">
+        <v>47.747447889005642</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.74495683882265085</v>
+      </c>
+      <c r="F3" s="20">
+        <v>98.922766895133506</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.9287960664700875</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0.1292763326570541</v>
+      </c>
+      <c r="I3" s="20">
+        <v>6.0636614119068281E-2</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -9562,28 +9567,28 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19">
-        <v>48.910998552821987</v>
-      </c>
-      <c r="C4" s="19">
-        <v>7.5546148217832121</v>
-      </c>
-      <c r="D4" s="19">
-        <v>55.776636713735563</v>
-      </c>
-      <c r="E4" s="19">
-        <v>3.4086067319982978</v>
-      </c>
-      <c r="F4" s="19">
-        <v>99.826569545612216</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0.17343045438779051</v>
-      </c>
-      <c r="H4" s="19">
+      <c r="B4" s="20">
+        <v>40.426917510853833</v>
+      </c>
+      <c r="C4" s="20">
+        <v>-2.807061474896722</v>
+      </c>
+      <c r="D4" s="20">
+        <v>54.107830551989743</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.29239766081872182</v>
+      </c>
+      <c r="F4" s="20">
+        <v>99.931105752669652</v>
+      </c>
+      <c r="G4" s="20">
+        <v>6.8894247330347921E-2</v>
+      </c>
+      <c r="H4" s="20">
         <v>0</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="20">
         <v>0</v>
       </c>
       <c r="J4" s="4"/>
@@ -9595,29 +9600,29 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19">
-        <v>29.08547669620857</v>
-      </c>
-      <c r="C5" s="19">
-        <v>-0.7142336249596718</v>
-      </c>
-      <c r="D5" s="19">
-        <v>65.580676407179453</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1.6435621246258361</v>
-      </c>
-      <c r="F5" s="19">
-        <v>95.346443053530521</v>
-      </c>
-      <c r="G5" s="19">
-        <v>4.0687707036761092</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0.57208371061534258</v>
-      </c>
-      <c r="I5" s="19">
-        <v>2.594248685838119E-2</v>
+      <c r="B5" s="20">
+        <v>27.45759128847131</v>
+      </c>
+      <c r="C5" s="20">
+        <v>-0.60511853025921603</v>
+      </c>
+      <c r="D5" s="20">
+        <v>63.651743884699847</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.5860144560070979</v>
+      </c>
+      <c r="F5" s="20">
+        <v>98.202310714825998</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.4886989011493821</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.29569268720561431</v>
+      </c>
+      <c r="I5" s="20">
+        <v>2.0574498328556061E-2</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9628,29 +9633,29 @@
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19">
-        <v>28.69783694056169</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.70731634513259367</v>
-      </c>
-      <c r="D6" s="19">
-        <v>32.894263773975133</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1.2778382354363611</v>
-      </c>
-      <c r="F6" s="19">
-        <v>98.397991713400344</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1.1111480539905001</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.45107396832815799</v>
-      </c>
-      <c r="I6" s="19">
-        <v>8.6285059181470974E-2</v>
+      <c r="B6" s="20">
+        <v>27.316646996610491</v>
+      </c>
+      <c r="C6" s="20">
+        <v>-0.81497564662934019</v>
+      </c>
+      <c r="D6" s="20">
+        <v>33.658449561293651</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.39475878374983359</v>
+      </c>
+      <c r="F6" s="20">
+        <v>98.962176884994705</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.89217580374044048</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.14564731126427849</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2.3620904934644079E-2</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -9661,29 +9666,29 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19">
-        <v>38.284468854315513</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.52342217038801708</v>
-      </c>
-      <c r="D7" s="19">
-        <v>69.207119404695433</v>
-      </c>
-      <c r="E7" s="19">
-        <v>7.885467717415688</v>
-      </c>
-      <c r="F7" s="19">
-        <v>94.036152035824756</v>
-      </c>
-      <c r="G7" s="19">
-        <v>5.7996061454037244</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.13658830398838981</v>
-      </c>
-      <c r="I7" s="19">
-        <v>2.845147818387804E-2</v>
+      <c r="B7" s="20">
+        <v>35.58663192607257</v>
+      </c>
+      <c r="C7" s="20">
+        <v>-2.739276127973048</v>
+      </c>
+      <c r="D7" s="20">
+        <v>71.527643958638208</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.131783932455046</v>
+      </c>
+      <c r="F7" s="20">
+        <v>94.09808347847752</v>
+      </c>
+      <c r="G7" s="20">
+        <v>5.7709193388842968</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.1020246757013662</v>
+      </c>
+      <c r="I7" s="20">
+        <v>2.897250693600225E-2</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9694,28 +9699,28 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19">
-        <v>19.881108371785562</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.1882762170872625</v>
-      </c>
-      <c r="D8" s="19">
-        <v>43.526718564246693</v>
-      </c>
-      <c r="E8" s="19">
-        <v>-0.13377089584668461</v>
-      </c>
-      <c r="F8" s="19">
-        <v>94.673451599908262</v>
-      </c>
-      <c r="G8" s="19">
-        <v>5.3143697128355134</v>
-      </c>
-      <c r="H8" s="19">
-        <v>1.21786872543817E-2</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="B8" s="20">
+        <v>18.560282417076809</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.44470521165880822</v>
+      </c>
+      <c r="D8" s="20">
+        <v>43.801814074188073</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.50518075412528418</v>
+      </c>
+      <c r="F8" s="20">
+        <v>95.380197555906221</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4.6014186048712098</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1.838383922164917E-2</v>
+      </c>
+      <c r="I8" s="20">
         <v>0</v>
       </c>
       <c r="J8" s="4"/>
@@ -9727,29 +9732,29 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="19">
-        <v>38.710730927937078</v>
-      </c>
-      <c r="C9" s="19">
-        <v>-1.357087178773803</v>
-      </c>
-      <c r="D9" s="19">
-        <v>51.36078423201792</v>
-      </c>
-      <c r="E9" s="19">
-        <v>-1.2893227053190961</v>
-      </c>
-      <c r="F9" s="19">
-        <v>97.653331709083304</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2.169185897885896</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0.17748239302956681</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1.436468564140941E-2</v>
+      <c r="B9" s="20">
+        <v>36.759465824777479</v>
+      </c>
+      <c r="C9" s="20">
+        <v>-1.124660114721358</v>
+      </c>
+      <c r="D9" s="20">
+        <v>54.011311787717787</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1.902349040399967</v>
+      </c>
+      <c r="F9" s="20">
+        <v>97.757825583405804</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2.0909451841563249</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.15122923243663711</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1.4391837761020701E-2</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -9760,28 +9765,28 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19">
-        <v>23.531856358199629</v>
-      </c>
-      <c r="C10" s="19">
-        <v>-1.607258499816103</v>
-      </c>
-      <c r="D10" s="19">
-        <v>48.078363438965297</v>
-      </c>
-      <c r="E10" s="19">
-        <v>-2.719666497928841</v>
-      </c>
-      <c r="F10" s="19">
-        <v>98.43427732456486</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1.5657226754342599</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="B10" s="20">
+        <v>21.637962207755439</v>
+      </c>
+      <c r="C10" s="20">
+        <v>-1.496924634529762</v>
+      </c>
+      <c r="D10" s="20">
+        <v>47.569890481186441</v>
+      </c>
+      <c r="E10" s="20">
+        <v>-0.34903077445889841</v>
+      </c>
+      <c r="F10" s="20">
+        <v>98.365178162266915</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1.6007630494463281</v>
+      </c>
+      <c r="H10" s="20">
+        <v>3.4058788285886987E-2</v>
+      </c>
+      <c r="I10" s="20">
         <v>0</v>
       </c>
       <c r="J10" s="4"/>
@@ -9793,28 +9798,28 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19">
-        <v>14.8864072978743</v>
-      </c>
-      <c r="C11" s="19">
-        <v>-0.10349999999999999</v>
-      </c>
-      <c r="D11" s="19">
-        <v>41.500133784266602</v>
-      </c>
-      <c r="E11" s="19">
-        <v>3.54</v>
-      </c>
-      <c r="F11" s="19">
-        <v>98.015390846496004</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1.9846091535029999</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="B11" s="20">
+        <v>17.804293165992402</v>
+      </c>
+      <c r="C11" s="20">
+        <v>2.7063000000000001</v>
+      </c>
+      <c r="D11" s="20">
+        <v>45.265862255920901</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5.6597999999999997</v>
+      </c>
+      <c r="F11" s="20">
+        <v>97.806004618936996</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2.1939953810619999</v>
+      </c>
+      <c r="H11" s="20">
         <v>0</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="20">
         <v>0</v>
       </c>
       <c r="J11" s="4"/>
@@ -9826,29 +9831,29 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="19">
-        <v>26.578116224897951</v>
-      </c>
-      <c r="C12" s="19">
-        <v>2.129853814332479</v>
-      </c>
-      <c r="D12" s="19">
-        <v>43.003879272378313</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1.340006216449507</v>
-      </c>
-      <c r="F12" s="19">
-        <v>98.568840042891935</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1.3114338595293451</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0.1184272437072028</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2.8927736420192112E-3</v>
+      <c r="B12" s="20">
+        <v>22.782472955445481</v>
+      </c>
+      <c r="C12" s="20">
+        <v>-1.4016155594694071</v>
+      </c>
+      <c r="D12" s="20">
+        <v>40.781558857973543</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.19632035642548681</v>
+      </c>
+      <c r="F12" s="20">
+        <v>98.709506265712776</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1.1945758954808401</v>
+      </c>
+      <c r="H12" s="20">
+        <v>9.4619128469225211E-2</v>
+      </c>
+      <c r="I12" s="20">
+        <v>1.298710336548062E-3</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9859,29 +9864,29 @@
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="19">
-        <v>29.91729947480766</v>
-      </c>
-      <c r="C13" s="19">
-        <v>-0.66092094498358311</v>
-      </c>
-      <c r="D13" s="19">
-        <v>55.150344985107111</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1.8158586905327969</v>
-      </c>
-      <c r="F13" s="19">
-        <v>97.435597801613042</v>
-      </c>
-      <c r="G13" s="19">
-        <v>2.52162127775803</v>
-      </c>
-      <c r="H13" s="19">
-        <v>3.9376292812131647E-2</v>
-      </c>
-      <c r="I13" s="19">
-        <v>3.404627816017317E-3</v>
+      <c r="B13" s="20">
+        <v>26.65133135092816</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-2.322840671413712</v>
+      </c>
+      <c r="D13" s="20">
+        <v>47.049005836344662</v>
+      </c>
+      <c r="E13" s="20">
+        <v>-4.5158345523760461</v>
+      </c>
+      <c r="F13" s="20">
+        <v>98.280764997955487</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1.684172202944197</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3.1671802425961827E-2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>3.3909966735787868E-3</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -9892,28 +9897,28 @@
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="19">
-        <v>37.387014278856689</v>
-      </c>
-      <c r="C14" s="19">
-        <v>-2.4586115879639099</v>
-      </c>
-      <c r="D14" s="19">
-        <v>52.256376987118401</v>
-      </c>
-      <c r="E14" s="19">
-        <v>2.7861252779629591</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="B14" s="20">
+        <v>39.376124678333248</v>
+      </c>
+      <c r="C14" s="20">
+        <v>-3.3030412522003232</v>
+      </c>
+      <c r="D14" s="20">
+        <v>49.770426224127021</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.30707499300348662</v>
+      </c>
+      <c r="F14" s="20">
         <v>96.071283920615642</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <v>3.9084649655731072</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="20">
         <v>2.025111381125962E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="20">
         <v>0</v>
       </c>
       <c r="J14" s="4"/>
@@ -9925,28 +9930,28 @@
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="19">
-        <v>8.5520049175797102</v>
-      </c>
-      <c r="C15" s="19">
-        <v>-0.83768542504737464</v>
-      </c>
-      <c r="D15" s="19">
-        <v>59.568223714473852</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1.1302178208299321</v>
-      </c>
-      <c r="F15" s="19">
-        <v>99.426392653674696</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0.57360734632529897</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="B15" s="20">
+        <v>8.2792606159759856</v>
+      </c>
+      <c r="C15" s="20">
+        <v>-0.70636646149391147</v>
+      </c>
+      <c r="D15" s="20">
+        <v>58.400060067367079</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6.5171615191341861E-2</v>
+      </c>
+      <c r="F15" s="20">
+        <v>99.546374373215002</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.42911500584272683</v>
+      </c>
+      <c r="H15" s="20">
+        <v>2.4510620942266709E-2</v>
+      </c>
+      <c r="I15" s="20">
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
@@ -9958,29 +9963,29 @@
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="19">
-        <v>26.806235731305449</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0.71017649089478396</v>
-      </c>
-      <c r="D16" s="19">
-        <v>49.204736909851619</v>
-      </c>
-      <c r="E16" s="19">
-        <v>-1.546040241809723</v>
-      </c>
-      <c r="F16" s="19">
-        <v>98.177888154660906</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1.816280973205223</v>
-      </c>
-      <c r="H16" s="19">
-        <v>3.002681688833519E-3</v>
-      </c>
-      <c r="I16" s="19">
-        <v>2.828190444162674E-3</v>
+      <c r="B16" s="20">
+        <v>24.954795741498451</v>
+      </c>
+      <c r="C16" s="20">
+        <v>-0.21281119161466169</v>
+      </c>
+      <c r="D16" s="20">
+        <v>48.039368505193977</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3.0171437352830011</v>
+      </c>
+      <c r="F16" s="20">
+        <v>98.130790501616005</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1.860308664443469</v>
+      </c>
+      <c r="H16" s="20">
+        <v>6.1291886575947372E-3</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2.7716452812019681E-3</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9991,29 +9996,29 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="19">
-        <v>22.562131809264471</v>
-      </c>
-      <c r="C17" s="19">
-        <v>-0.48774447990606662</v>
-      </c>
-      <c r="D17" s="19">
-        <v>44.529690155609373</v>
-      </c>
-      <c r="E17" s="19">
-        <v>-0.62830725228447304</v>
-      </c>
-      <c r="F17" s="19">
-        <v>99.076411161341781</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0.89449871062442232</v>
-      </c>
-      <c r="H17" s="19">
-        <v>2.9090128033073169E-2</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0</v>
+      <c r="B17" s="20">
+        <v>21.701020696652339</v>
+      </c>
+      <c r="C17" s="20">
+        <v>-0.9126302666517454</v>
+      </c>
+      <c r="D17" s="20">
+        <v>43.337479747957978</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.53209390884037011</v>
+      </c>
+      <c r="F17" s="20">
+        <v>99.167999994960027</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.7909602013229533</v>
+      </c>
+      <c r="H17" s="20">
+        <v>3.5568682107307792E-2</v>
+      </c>
+      <c r="I17" s="20">
+        <v>5.4711216082407969E-3</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -10024,28 +10029,28 @@
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="19">
-        <v>11.506855004645651</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2.3749238386006888</v>
-      </c>
-      <c r="D18" s="19">
-        <v>50.778918766767212</v>
-      </c>
-      <c r="E18" s="19">
-        <v>3.5770022001545452</v>
-      </c>
-      <c r="F18" s="19">
-        <v>99.887246412346599</v>
-      </c>
-      <c r="G18" s="19">
-        <v>9.8659389196721334E-2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1.409419845667448E-2</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="B18" s="20">
+        <v>10.27113901159689</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.91444607887941975</v>
+      </c>
+      <c r="D18" s="20">
+        <v>53.226342432054807</v>
+      </c>
+      <c r="E18" s="20">
+        <v>4.8335063271579157</v>
+      </c>
+      <c r="F18" s="20">
+        <v>99.901436825346195</v>
+      </c>
+      <c r="G18" s="20">
+        <v>9.8563174653794494E-2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
         <v>0</v>
       </c>
       <c r="J18" s="4"/>
@@ -10057,28 +10062,28 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="19">
-        <v>23.700571438449341</v>
-      </c>
-      <c r="C19" s="19">
-        <v>-1.3613697041966859</v>
-      </c>
-      <c r="D19" s="19">
-        <v>50.421168260811967</v>
-      </c>
-      <c r="E19" s="19">
-        <v>2.1467196703341132</v>
-      </c>
-      <c r="F19" s="19">
-        <v>99.324273219337556</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0.55056124636361492</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0.1295983074080696</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="B19" s="20">
+        <v>21.874532305525509</v>
+      </c>
+      <c r="C19" s="20">
+        <v>-0.97604848384248366</v>
+      </c>
+      <c r="D19" s="20">
+        <v>48.049900334398828</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.89336145995431082</v>
+      </c>
+      <c r="F19" s="20">
+        <v>99.635797812810196</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.34449479272906092</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1.9707394460744099E-2</v>
+      </c>
+      <c r="I19" s="20">
         <v>0</v>
       </c>
       <c r="J19" s="4"/>
@@ -10090,28 +10095,28 @@
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="19">
-        <v>28.281622950216711</v>
-      </c>
-      <c r="C20" s="19">
-        <v>-1.7599491877081579</v>
-      </c>
-      <c r="D20" s="19">
-        <v>46.045137536936728</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0.23750335189924801</v>
-      </c>
-      <c r="F20" s="19">
-        <v>98.543116655058171</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1.34182567441704</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0.11505767052468981</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="B20" s="20">
+        <v>29.42560269601401</v>
+      </c>
+      <c r="C20" s="20">
+        <v>-0.61947219498011341</v>
+      </c>
+      <c r="D20" s="20">
+        <v>56.125260031845848</v>
+      </c>
+      <c r="E20" s="20">
+        <v>5.048930178068618</v>
+      </c>
+      <c r="F20" s="20">
+        <v>98.516436542685724</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1.3707730307860511</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.11279042652814041</v>
+      </c>
+      <c r="I20" s="20">
         <v>0</v>
       </c>
       <c r="J20" s="4"/>
@@ -10123,29 +10128,29 @@
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="19">
-        <v>36.111308571056327</v>
-      </c>
-      <c r="C21" s="19">
-        <v>1.9483513822393701</v>
-      </c>
-      <c r="D21" s="19">
-        <v>46.314003649958003</v>
-      </c>
-      <c r="E21" s="19">
-        <v>4.4817905988656568</v>
-      </c>
-      <c r="F21" s="19">
-        <v>98.309782894047473</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1.384579844957265</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0.27544388423710631</v>
-      </c>
-      <c r="I21" s="19">
-        <v>5.1683263919145649E-2</v>
+      <c r="B21" s="20">
+        <v>30.881339784450979</v>
+      </c>
+      <c r="C21" s="20">
+        <v>-0.41893233891972681</v>
+      </c>
+      <c r="D21" s="20">
+        <v>41.75802450560996</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.14058788566954969</v>
+      </c>
+      <c r="F21" s="20">
+        <v>98.861720856680364</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.94349910936627734</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0.16528367803705771</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2.949635591616288E-2</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10156,28 +10161,28 @@
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="19">
-        <v>35.559652842385759</v>
-      </c>
-      <c r="C22" s="19">
-        <v>-0.19300576185572771</v>
-      </c>
-      <c r="D22" s="19">
-        <v>62.957138458686693</v>
-      </c>
-      <c r="E22" s="19">
-        <v>1.960532658674822</v>
-      </c>
-      <c r="F22" s="19">
+      <c r="B22" s="20">
+        <v>37.144408709105157</v>
+      </c>
+      <c r="C22" s="20">
+        <v>9.8457159062092958E-2</v>
+      </c>
+      <c r="D22" s="20">
+        <v>64.334651760323922</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.68368248555287026</v>
+      </c>
+      <c r="F22" s="20">
         <v>99.758742308764951</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="20">
         <v>0.2412576912350472</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="20">
         <v>0</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="20">
         <v>0</v>
       </c>
       <c r="J22" s="4"/>
@@ -10189,29 +10194,29 @@
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="19">
-        <v>26.145567733313989</v>
-      </c>
-      <c r="C23" s="19">
-        <v>-1.546210856693008</v>
-      </c>
-      <c r="D23" s="19">
-        <v>45.441673460110692</v>
-      </c>
-      <c r="E23" s="19">
-        <v>-0.26954547064463952</v>
-      </c>
-      <c r="F23" s="19">
-        <v>98.279719050764228</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1.70758370021652</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1.2697249018252491E-2</v>
-      </c>
-      <c r="I23" s="19">
-        <v>0</v>
+      <c r="B23" s="20">
+        <v>24.720177543512239</v>
+      </c>
+      <c r="C23" s="20">
+        <v>-0.95143388589613009</v>
+      </c>
+      <c r="D23" s="20">
+        <v>47.365522817644177</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1.51012496275974</v>
+      </c>
+      <c r="F23" s="20">
+        <v>98.097010767420713</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1.8841453822448939</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1.8843850333391591E-2</v>
+      </c>
+      <c r="I23" s="20">
+        <v>6.2812834444638654E-3</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10222,28 +10227,28 @@
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="19">
-        <v>33.872432803609797</v>
-      </c>
-      <c r="C24" s="19">
-        <v>-1.389412069536579</v>
-      </c>
-      <c r="D24" s="19">
-        <v>43.708667047504917</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0.72300763745211738</v>
-      </c>
-      <c r="F24" s="19">
-        <v>98.716716125957845</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1.219217483137345</v>
-      </c>
-      <c r="H24" s="19">
-        <v>6.4066390903920176E-2</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="B24" s="20">
+        <v>32.093545771979777</v>
+      </c>
+      <c r="C24" s="20">
+        <v>-1.0758075075041249</v>
+      </c>
+      <c r="D24" s="20">
+        <v>46.040618133006021</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2.2864912903121901</v>
+      </c>
+      <c r="F24" s="20">
+        <v>98.693367291599657</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1.181711119644077</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.12492158875447611</v>
+      </c>
+      <c r="I24" s="20">
         <v>0</v>
       </c>
       <c r="J24" s="4"/>
@@ -10255,29 +10260,29 @@
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="19">
-        <v>32.841656798120631</v>
-      </c>
-      <c r="C25" s="19">
-        <v>3.0222261568152609E-2</v>
-      </c>
-      <c r="D25" s="19">
-        <v>53.016296273501403</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1.290744977882307</v>
-      </c>
-      <c r="F25" s="19">
-        <v>98.490490832844841</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1.459360938299666</v>
-      </c>
-      <c r="H25" s="19">
-        <v>4.3205784982275078E-2</v>
-      </c>
-      <c r="I25" s="19">
-        <v>6.9424438725139044E-3</v>
+      <c r="B25" s="20">
+        <v>31.615875038927548</v>
+      </c>
+      <c r="C25" s="20">
+        <v>-1.041974270278033</v>
+      </c>
+      <c r="D25" s="20">
+        <v>50.295934652784148</v>
+      </c>
+      <c r="E25" s="20">
+        <v>-0.30068950404571521</v>
+      </c>
+      <c r="F25" s="20">
+        <v>98.825909135109612</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1.1159577612726519</v>
+      </c>
+      <c r="H25" s="20">
+        <v>5.1212677340844982E-2</v>
+      </c>
+      <c r="I25" s="20">
+        <v>6.9204262762127397E-3</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10288,28 +10293,28 @@
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="19">
-        <v>33.392357269984267</v>
-      </c>
-      <c r="C26" s="19">
-        <v>-0.1129262790553936</v>
-      </c>
-      <c r="D26" s="19">
-        <v>54.099512573082833</v>
-      </c>
-      <c r="E26" s="19">
-        <v>-0.40019436163288502</v>
-      </c>
-      <c r="F26" s="19">
-        <v>98.184314898191289</v>
-      </c>
-      <c r="G26" s="19">
-        <v>1.6668732581153429</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0.14881184369201311</v>
-      </c>
-      <c r="I26" s="19">
+      <c r="B26" s="20">
+        <v>29.870191660161598</v>
+      </c>
+      <c r="C26" s="20">
+        <v>-1.9333851717492161</v>
+      </c>
+      <c r="D26" s="20">
+        <v>47.335253106268112</v>
+      </c>
+      <c r="E26" s="20">
+        <v>-0.62282255061727265</v>
+      </c>
+      <c r="F26" s="20">
+        <v>98.61823105193622</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1.3004068108494711</v>
+      </c>
+      <c r="H26" s="20">
+        <v>8.1362137212980426E-2</v>
+      </c>
+      <c r="I26" s="20">
         <v>0</v>
       </c>
       <c r="J26" s="4"/>
@@ -10321,29 +10326,29 @@
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="19">
-        <v>26.769450314192419</v>
-      </c>
-      <c r="C27" s="19">
-        <v>0.43310056641355937</v>
-      </c>
-      <c r="D27" s="19">
-        <v>34.242695771532318</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0.3976219326786643</v>
-      </c>
-      <c r="F27" s="19">
-        <v>98.668246007807753</v>
-      </c>
-      <c r="G27" s="19">
-        <v>1.1405623259278239</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0.1911916662639469</v>
-      </c>
-      <c r="I27" s="19">
-        <v>1.874229168443101E-2</v>
+      <c r="B27" s="20">
+        <v>21.978972216999711</v>
+      </c>
+      <c r="C27" s="20">
+        <v>-2.167790454767907</v>
+      </c>
+      <c r="D27" s="20">
+        <v>30.18346118649988</v>
+      </c>
+      <c r="E27" s="20">
+        <v>-3.1273435082400711</v>
+      </c>
+      <c r="F27" s="20">
+        <v>98.939110235868469</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0.86852246609686623</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.17304774765231401</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1.9319550381372941E-2</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -10354,28 +10359,28 @@
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="19">
-        <v>22.608394089938042</v>
-      </c>
-      <c r="C28" s="19">
-        <v>-0.73288651227190305</v>
-      </c>
-      <c r="D28" s="19">
-        <v>47.740743457058159</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0.1834664502494254</v>
-      </c>
-      <c r="F28" s="19">
-        <v>98.523020929673862</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1.371598075065467</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0.1053809952605992</v>
-      </c>
-      <c r="I28" s="19">
+      <c r="B28" s="20">
+        <v>21.06224125313782</v>
+      </c>
+      <c r="C28" s="20">
+        <v>-1.427194050692917</v>
+      </c>
+      <c r="D28" s="20">
+        <v>55.216113071858359</v>
+      </c>
+      <c r="E28" s="20">
+        <v>5.7112251751597327</v>
+      </c>
+      <c r="F28" s="20">
+        <v>98.562783527971888</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1.324923373294421</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0.1122930987336125</v>
+      </c>
+      <c r="I28" s="20">
         <v>0</v>
       </c>
       <c r="J28" s="4"/>
@@ -10387,28 +10392,28 @@
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="19">
-        <v>29.573199617845749</v>
-      </c>
-      <c r="C29" s="19">
-        <v>-1.037038851705363</v>
-      </c>
-      <c r="D29" s="19">
-        <v>52.541975639354298</v>
-      </c>
-      <c r="E29" s="19">
-        <v>2.6589042440110289</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="B29" s="20">
+        <v>28.58083405046505</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1.006439082505572</v>
+      </c>
+      <c r="D29" s="20">
+        <v>55.510279680873168</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.91372143751891066</v>
+      </c>
+      <c r="F29" s="20">
         <v>98.324022346368707</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="20">
         <v>1.443202979515829</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="20">
         <v>0.18621973929236499</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="20">
         <v>4.6554934823091247E-2</v>
       </c>
       <c r="J29" s="4"/>
@@ -10420,28 +10425,28 @@
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="19">
-        <v>25.553434718318709</v>
-      </c>
-      <c r="C30" s="19">
-        <v>1.1260704531777701</v>
-      </c>
-      <c r="D30" s="19">
-        <v>50.351271289186272</v>
-      </c>
-      <c r="E30" s="19">
-        <v>7.1232278803292166</v>
-      </c>
-      <c r="F30" s="19">
-        <v>99.508652640681248</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0.47074672439432341</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="B30" s="20">
+        <v>28.319040253822731</v>
+      </c>
+      <c r="C30" s="20">
+        <v>3.86983424675697</v>
+      </c>
+      <c r="D30" s="20">
+        <v>53.778297004208113</v>
+      </c>
+      <c r="E30" s="20">
+        <v>10.97653594920757</v>
+      </c>
+      <c r="F30" s="20">
+        <v>99.880925367953964</v>
+      </c>
+      <c r="G30" s="20">
+        <v>9.8473997121596102E-2</v>
+      </c>
+      <c r="H30" s="20">
         <v>2.0600634924434421E-2</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="20">
         <v>0</v>
       </c>
       <c r="J30" s="4"/>
@@ -10453,29 +10458,29 @@
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="19">
-        <v>27.571420734454499</v>
-      </c>
-      <c r="C31" s="19">
-        <v>-1.540142401080796</v>
-      </c>
-      <c r="D31" s="19">
-        <v>61.152908032403403</v>
-      </c>
-      <c r="E31" s="19">
-        <v>1.380201908599175</v>
-      </c>
-      <c r="F31" s="19">
-        <v>96.286480784745805</v>
-      </c>
-      <c r="G31" s="19">
-        <v>3.3337126602141489</v>
-      </c>
-      <c r="H31" s="19">
-        <v>0.35951398117856342</v>
-      </c>
-      <c r="I31" s="19">
-        <v>1.335933835157079E-2</v>
+      <c r="B31" s="20">
+        <v>27.77757986466132</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.14889273169323339</v>
+      </c>
+      <c r="D31" s="20">
+        <v>67.492077304268534</v>
+      </c>
+      <c r="E31" s="20">
+        <v>4.9349696726528434</v>
+      </c>
+      <c r="F31" s="20">
+        <v>97.967664252126355</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1.9021227541819139</v>
+      </c>
+      <c r="H31" s="20">
+        <v>8.9105546501151975E-2</v>
+      </c>
+      <c r="I31" s="20">
+        <v>4.7998099310580952E-2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10486,28 +10491,28 @@
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="19">
-        <v>37.289813181147693</v>
-      </c>
-      <c r="C32" s="19">
-        <v>-0.60027151943171941</v>
-      </c>
-      <c r="D32" s="19">
-        <v>47.315511616499712</v>
-      </c>
-      <c r="E32" s="19">
-        <v>-0.79600879776467437</v>
-      </c>
-      <c r="F32" s="19">
-        <v>99.304075151941959</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0.67865690552238056</v>
-      </c>
-      <c r="H32" s="19">
-        <v>1.7267942534705899E-2</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="B32" s="20">
+        <v>34.310643512274517</v>
+      </c>
+      <c r="C32" s="20">
+        <v>-1.918026204870374</v>
+      </c>
+      <c r="D32" s="20">
+        <v>43.431228452013713</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.40305239375099577</v>
+      </c>
+      <c r="F32" s="20">
+        <v>99.587991277776922</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.38011368071134649</v>
+      </c>
+      <c r="H32" s="20">
+        <v>3.1895041510842097E-2</v>
+      </c>
+      <c r="I32" s="20">
         <v>0</v>
       </c>
       <c r="J32" s="4"/>
@@ -10519,28 +10524,28 @@
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="19">
-        <v>22.964392619618121</v>
-      </c>
-      <c r="C33" s="19">
-        <v>-1.86080803334069</v>
-      </c>
-      <c r="D33" s="19">
-        <v>49.978428892544677</v>
-      </c>
-      <c r="E33" s="19">
-        <v>-0.60273789915653231</v>
-      </c>
-      <c r="F33" s="19">
-        <v>97.92152607295526</v>
-      </c>
-      <c r="G33" s="19">
-        <v>1.863108612699218</v>
-      </c>
-    